--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01 DOCUEMENTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="18375" windowHeight="13620" firstSheet="13" activeTab="13"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="18375" windowHeight="13620" firstSheet="18" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="JARCERIAS REMODELACION " sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="71">
   <si>
     <t xml:space="preserve">PAGOS  SOBRE REMODELACION </t>
   </si>
@@ -268,6 +268,9 @@
   <si>
     <t>CAMBIAR LAMINAS TRANSPARENTES</t>
   </si>
+  <si>
+    <t xml:space="preserve">Transferencia </t>
+  </si>
 </sst>
 </file>
 
@@ -279,7 +282,7 @@
     <numFmt numFmtId="165" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,6 +390,14 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF990000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -739,7 +750,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -986,6 +997,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -995,36 +1036,6 @@
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1094,6 +1105,7 @@
     <xf numFmtId="16" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1103,11 +1115,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF990000"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFFF66FF"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FF00FF99"/>
-      <color rgb="FF990000"/>
       <color rgb="FFAC7300"/>
       <color rgb="FFFFCCFF"/>
     </mruColors>
@@ -2956,18 +2968,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="128"/>
+      <c r="D3" s="138"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="134"/>
+      <c r="D4" s="129"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2977,10 +2989,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="129" t="s">
+      <c r="B6" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="130"/>
+      <c r="C6" s="140"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -2997,10 +3009,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="131" t="s">
+      <c r="B8" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="132"/>
+      <c r="C8" s="137"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3017,10 +3029,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="132"/>
+      <c r="C10" s="137"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3037,10 +3049,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="131" t="s">
+      <c r="B12" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="132"/>
+      <c r="C12" s="137"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3057,10 +3069,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="131" t="s">
+      <c r="B14" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="132"/>
+      <c r="C14" s="137"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3077,10 +3089,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="135" t="s">
+      <c r="B16" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="136"/>
+      <c r="C16" s="131"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3097,14 +3109,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="135" t="s">
+      <c r="B18" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="136"/>
+      <c r="C18" s="131"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="137" t="s">
+      <c r="E18" s="132" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3114,7 +3126,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="138"/>
+      <c r="E19" s="133"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3125,10 +3137,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="135" t="s">
+      <c r="B21" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="136"/>
+      <c r="C21" s="131"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3145,10 +3157,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="139" t="s">
+      <c r="B23" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="140"/>
+      <c r="C23" s="135"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3165,10 +3177,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="133" t="s">
+      <c r="B25" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="133"/>
+      <c r="C25" s="128"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3219,6 +3231,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3227,11 +3244,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3450,7 +3462,7 @@
   </sheetPr>
   <dimension ref="B1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -4753,8 +4765,8 @@
   </sheetPr>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5067,16 +5079,18 @@
     </row>
     <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="75"/>
-      <c r="C34" s="76"/>
+      <c r="C34" s="76">
+        <v>44415</v>
+      </c>
       <c r="D34" s="77">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="E34" s="27"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="75"/>
       <c r="C35" s="76">
-        <v>44415</v>
+        <v>44422</v>
       </c>
       <c r="D35" s="77">
         <v>100000</v>
@@ -5086,12 +5100,14 @@
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="75"/>
       <c r="C36" s="76">
-        <v>44422</v>
+        <v>44428</v>
       </c>
       <c r="D36" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E36" s="27"/>
+        <v>300000</v>
+      </c>
+      <c r="E36" s="164" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="75"/>
@@ -5143,7 +5159,7 @@
       </c>
       <c r="D44" s="99">
         <f>SUM(D5:D43)</f>
-        <v>2450000</v>
+        <v>2750000</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5222,7 +5238,7 @@
       </c>
       <c r="D50" s="116">
         <f>D47+D44+D45+D46+D48+D49</f>
-        <v>-5042427.9600000009</v>
+        <v>-4742427.9600000009</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -5241,6 +5257,9 @@
       <c r="C54" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="C34:D36">
+    <sortCondition ref="C34:C36"/>
+  </sortState>
   <mergeCells count="2">
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="G47:I48"/>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -988,6 +988,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -997,6 +998,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1021,21 +1037,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1105,7 +1106,6 @@
     <xf numFmtId="16" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2360,17 +2360,17 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="126"/>
-      <c r="E3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="128"/>
       <c r="H3" s="50"/>
-      <c r="I3" s="125" t="s">
+      <c r="I3" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="126"/>
-      <c r="K3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="128"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -2810,11 +2810,11 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="126"/>
-      <c r="E3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="128"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -2968,18 +2968,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="138" t="s">
+      <c r="C3" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="138"/>
+      <c r="D3" s="129"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="129" t="s">
+      <c r="C4" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="129"/>
+      <c r="D4" s="135"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2989,10 +2989,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="139" t="s">
+      <c r="B6" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="140"/>
+      <c r="C6" s="131"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3009,10 +3009,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="136" t="s">
+      <c r="B8" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="137"/>
+      <c r="C8" s="133"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3029,10 +3029,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="136" t="s">
+      <c r="B10" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="137"/>
+      <c r="C10" s="133"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3049,10 +3049,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="136" t="s">
+      <c r="B12" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="137"/>
+      <c r="C12" s="133"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3069,10 +3069,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="136" t="s">
+      <c r="B14" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="137"/>
+      <c r="C14" s="133"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3089,10 +3089,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="130" t="s">
+      <c r="B16" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="131"/>
+      <c r="C16" s="137"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3109,14 +3109,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="130" t="s">
+      <c r="B18" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="131"/>
+      <c r="C18" s="137"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="132" t="s">
+      <c r="E18" s="138" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3126,7 +3126,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="133"/>
+      <c r="E19" s="139"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3137,10 +3137,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="130" t="s">
+      <c r="B21" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="131"/>
+      <c r="C21" s="137"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3157,10 +3157,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="134" t="s">
+      <c r="B23" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="135"/>
+      <c r="C23" s="141"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3177,10 +3177,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="128" t="s">
+      <c r="B25" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="128"/>
+      <c r="C25" s="134"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3231,11 +3231,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3244,6 +3239,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3282,11 +3282,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="126"/>
-      <c r="E3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="128"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3487,11 +3487,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="126"/>
-      <c r="E3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="128"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3668,11 +3668,11 @@
     </row>
     <row r="3" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="50"/>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="126"/>
-      <c r="E3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="128"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3876,9 +3876,9 @@
       <c r="B3" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="127"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="128"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4109,9 +4109,9 @@
       <c r="B3" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="127"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="128"/>
     </row>
     <row r="4" spans="2:5" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4469,36 +4469,36 @@
     </row>
     <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="141" t="s">
+      <c r="B57" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="142"/>
-      <c r="D57" s="142"/>
-      <c r="E57" s="143"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="143"/>
+      <c r="E57" s="144"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="144"/>
-      <c r="C58" s="145"/>
-      <c r="D58" s="145"/>
-      <c r="E58" s="146"/>
+      <c r="B58" s="145"/>
+      <c r="C58" s="146"/>
+      <c r="D58" s="146"/>
+      <c r="E58" s="147"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="144"/>
-      <c r="C59" s="145"/>
-      <c r="D59" s="145"/>
-      <c r="E59" s="146"/>
+      <c r="B59" s="145"/>
+      <c r="C59" s="146"/>
+      <c r="D59" s="146"/>
+      <c r="E59" s="147"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="144"/>
-      <c r="C60" s="145"/>
-      <c r="D60" s="145"/>
-      <c r="E60" s="146"/>
+      <c r="B60" s="145"/>
+      <c r="C60" s="146"/>
+      <c r="D60" s="146"/>
+      <c r="E60" s="147"/>
     </row>
     <row r="61" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="147"/>
-      <c r="C61" s="148"/>
-      <c r="D61" s="148"/>
-      <c r="E61" s="149"/>
+      <c r="B61" s="148"/>
+      <c r="C61" s="149"/>
+      <c r="D61" s="149"/>
+      <c r="E61" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4543,9 +4543,9 @@
       <c r="B3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="127"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="128"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4765,8 +4765,8 @@
   </sheetPr>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4788,12 +4788,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="150" t="s">
+      <c r="B3" s="151" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="153"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
       <c r="I3" s="94"/>
@@ -5105,41 +5105,49 @@
       <c r="D36" s="77">
         <v>300000</v>
       </c>
-      <c r="E36" s="164" t="s">
+      <c r="E36" s="125" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="75"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="77"/>
+      <c r="C37" s="76">
+        <v>44436</v>
+      </c>
+      <c r="D37" s="77">
+        <v>100000</v>
+      </c>
       <c r="E37" s="27"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="75"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="77"/>
+      <c r="C38" s="76">
+        <v>44443</v>
+      </c>
+      <c r="D38" s="77">
+        <v>100000</v>
+      </c>
       <c r="E38" s="27"/>
     </row>
-    <row r="39" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="75"/>
       <c r="C39" s="76"/>
       <c r="D39" s="77"/>
       <c r="E39" s="27"/>
     </row>
-    <row r="40" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="75"/>
       <c r="C40" s="76"/>
       <c r="D40" s="77"/>
       <c r="E40" s="27"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="75"/>
       <c r="C41" s="76"/>
       <c r="D41" s="77"/>
       <c r="E41" s="27"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="75"/>
       <c r="C42" s="76"/>
       <c r="D42" s="77"/>
@@ -5159,7 +5167,7 @@
       </c>
       <c r="D44" s="99">
         <f>SUM(D5:D43)</f>
-        <v>2750000</v>
+        <v>2950000</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5200,12 +5208,12 @@
       <c r="E47" s="100">
         <v>44264</v>
       </c>
-      <c r="G47" s="153">
+      <c r="G47" s="154">
         <f>D45+D46+D47+D48</f>
         <v>-7492427.9600000009</v>
       </c>
-      <c r="H47" s="154"/>
-      <c r="I47" s="155"/>
+      <c r="H47" s="155"/>
+      <c r="I47" s="156"/>
     </row>
     <row r="48" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="110"/>
@@ -5219,9 +5227,9 @@
       <c r="E48" s="100">
         <v>44264</v>
       </c>
-      <c r="G48" s="156"/>
-      <c r="H48" s="157"/>
-      <c r="I48" s="158"/>
+      <c r="G48" s="157"/>
+      <c r="H48" s="158"/>
+      <c r="I48" s="159"/>
     </row>
     <row r="49" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="111"/>
@@ -5238,7 +5246,7 @@
       </c>
       <c r="D50" s="116">
         <f>D47+D44+D45+D46+D48+D49</f>
-        <v>-4742427.9600000009</v>
+        <v>-4542427.9600000009</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -5462,7 +5470,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="160" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -5472,13 +5480,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="160"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="127"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="128"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="160"/>
+      <c r="B4" s="161"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -5486,7 +5494,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="160"/>
+      <c r="B5" s="161"/>
       <c r="C5" s="47">
         <v>44380</v>
       </c>
@@ -5496,7 +5504,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="161"/>
+      <c r="B6" s="162"/>
       <c r="C6" s="36">
         <v>44396</v>
       </c>
@@ -5512,7 +5520,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="162" t="s">
+      <c r="B8" s="163" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="36">
@@ -5524,7 +5532,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="163"/>
+      <c r="B9" s="164"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="71">
   <si>
     <t xml:space="preserve">PAGOS  SOBRE REMODELACION </t>
   </si>
@@ -998,6 +998,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1005,36 +1035,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2968,18 +2968,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="129" t="s">
+      <c r="C3" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="129"/>
+      <c r="D3" s="139"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="135" t="s">
+      <c r="C4" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="135"/>
+      <c r="D4" s="130"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2989,10 +2989,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="130" t="s">
+      <c r="B6" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="131"/>
+      <c r="C6" s="141"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3009,10 +3009,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="133"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3029,10 +3029,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="132" t="s">
+      <c r="B10" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="133"/>
+      <c r="C10" s="138"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3049,10 +3049,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="132" t="s">
+      <c r="B12" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="133"/>
+      <c r="C12" s="138"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3069,10 +3069,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="132" t="s">
+      <c r="B14" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="133"/>
+      <c r="C14" s="138"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3089,10 +3089,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="136" t="s">
+      <c r="B16" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="137"/>
+      <c r="C16" s="132"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3109,14 +3109,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="136" t="s">
+      <c r="B18" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="137"/>
+      <c r="C18" s="132"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="138" t="s">
+      <c r="E18" s="133" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3126,7 +3126,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="139"/>
+      <c r="E19" s="134"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3137,10 +3137,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="136" t="s">
+      <c r="B21" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="137"/>
+      <c r="C21" s="132"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3157,10 +3157,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="140" t="s">
+      <c r="B23" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="141"/>
+      <c r="C23" s="136"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3177,10 +3177,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="134" t="s">
+      <c r="B25" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="134"/>
+      <c r="C25" s="129"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3231,6 +3231,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3239,11 +3244,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4766,7 +4766,7 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5131,14 +5131,24 @@
     </row>
     <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="75"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="27"/>
+      <c r="C39" s="76">
+        <v>44449</v>
+      </c>
+      <c r="D39" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E39" s="125" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="75"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="77"/>
+      <c r="C40" s="76">
+        <v>44450</v>
+      </c>
+      <c r="D40" s="77">
+        <v>150000</v>
+      </c>
       <c r="E40" s="27"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -5167,7 +5177,7 @@
       </c>
       <c r="D44" s="99">
         <f>SUM(D5:D43)</f>
-        <v>2950000</v>
+        <v>3200000</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5246,7 +5256,7 @@
       </c>
       <c r="D50" s="116">
         <f>D47+D44+D45+D46+D48+D49</f>
-        <v>-4542427.9600000009</v>
+        <v>-4292427.9600000009</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -998,6 +998,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1020,21 +1035,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2968,18 +2968,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="139" t="s">
+      <c r="C3" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="139"/>
+      <c r="D3" s="129"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="130"/>
+      <c r="D4" s="135"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2989,10 +2989,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="140" t="s">
+      <c r="B6" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="141"/>
+      <c r="C6" s="131"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3009,10 +3009,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="138"/>
+      <c r="C8" s="133"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3029,10 +3029,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="138"/>
+      <c r="C10" s="133"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3049,10 +3049,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="138"/>
+      <c r="C12" s="133"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3069,10 +3069,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="138"/>
+      <c r="C14" s="133"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3089,10 +3089,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="131" t="s">
+      <c r="B16" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="132"/>
+      <c r="C16" s="137"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3109,14 +3109,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="131" t="s">
+      <c r="B18" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="132"/>
+      <c r="C18" s="137"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="133" t="s">
+      <c r="E18" s="138" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3126,7 +3126,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="134"/>
+      <c r="E19" s="139"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3137,10 +3137,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="131" t="s">
+      <c r="B21" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="132"/>
+      <c r="C21" s="137"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3157,10 +3157,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="135" t="s">
+      <c r="B23" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="136"/>
+      <c r="C23" s="141"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3177,10 +3177,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="129" t="s">
+      <c r="B25" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="129"/>
+      <c r="C25" s="134"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3231,11 +3231,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3244,6 +3239,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4766,7 +4766,7 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5153,8 +5153,12 @@
     </row>
     <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="75"/>
-      <c r="C41" s="76"/>
-      <c r="D41" s="77"/>
+      <c r="C41" s="76">
+        <v>44457</v>
+      </c>
+      <c r="D41" s="77">
+        <v>100000</v>
+      </c>
       <c r="E41" s="27"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -5177,7 +5181,7 @@
       </c>
       <c r="D44" s="99">
         <f>SUM(D5:D43)</f>
-        <v>3200000</v>
+        <v>3300000</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5256,7 +5260,7 @@
       </c>
       <c r="D50" s="116">
         <f>D47+D44+D45+D46+D48+D49</f>
-        <v>-4292427.9600000009</v>
+        <v>-4192427.9600000004</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -750,7 +750,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -998,6 +998,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1007,36 +1037,6 @@
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1106,6 +1106,8 @@
     <xf numFmtId="16" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1573,13 +1575,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>428624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2968,18 +2970,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="129" t="s">
+      <c r="C3" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="129"/>
+      <c r="D3" s="139"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="135" t="s">
+      <c r="C4" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="135"/>
+      <c r="D4" s="130"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2989,10 +2991,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="130" t="s">
+      <c r="B6" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="131"/>
+      <c r="C6" s="141"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3009,10 +3011,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="133"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3029,10 +3031,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="132" t="s">
+      <c r="B10" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="133"/>
+      <c r="C10" s="138"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3049,10 +3051,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="132" t="s">
+      <c r="B12" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="133"/>
+      <c r="C12" s="138"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3069,10 +3071,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="132" t="s">
+      <c r="B14" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="133"/>
+      <c r="C14" s="138"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3089,10 +3091,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="136" t="s">
+      <c r="B16" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="137"/>
+      <c r="C16" s="132"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3109,14 +3111,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="136" t="s">
+      <c r="B18" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="137"/>
+      <c r="C18" s="132"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="138" t="s">
+      <c r="E18" s="133" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3126,7 +3128,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="139"/>
+      <c r="E19" s="134"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3137,10 +3139,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="136" t="s">
+      <c r="B21" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="137"/>
+      <c r="C21" s="132"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3157,10 +3159,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="140" t="s">
+      <c r="B23" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="141"/>
+      <c r="C23" s="136"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3177,10 +3179,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="134" t="s">
+      <c r="B25" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="134"/>
+      <c r="C25" s="129"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3231,6 +3233,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3239,11 +3246,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4763,10 +4765,10 @@
   <sheetPr>
     <tabColor rgb="FF00FF99"/>
   </sheetPr>
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5067,7 +5069,7 @@
       </c>
       <c r="E32" s="27"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="75"/>
       <c r="C33" s="76">
         <v>44408</v>
@@ -5077,7 +5079,7 @@
       </c>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="75"/>
       <c r="C34" s="76">
         <v>44415</v>
@@ -5087,7 +5089,7 @@
       </c>
       <c r="E34" s="27"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="75"/>
       <c r="C35" s="76">
         <v>44422</v>
@@ -5097,7 +5099,7 @@
       </c>
       <c r="E35" s="27"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="75"/>
       <c r="C36" s="76">
         <v>44428</v>
@@ -5109,7 +5111,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="75"/>
       <c r="C37" s="76">
         <v>44436</v>
@@ -5119,7 +5121,7 @@
       </c>
       <c r="E37" s="27"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="75"/>
       <c r="C38" s="76">
         <v>44443</v>
@@ -5129,7 +5131,7 @@
       </c>
       <c r="E38" s="27"/>
     </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="75"/>
       <c r="C39" s="76">
         <v>44449</v>
@@ -5141,7 +5143,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="75"/>
       <c r="C40" s="76">
         <v>44450</v>
@@ -5151,7 +5153,7 @@
       </c>
       <c r="E40" s="27"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="75"/>
       <c r="C41" s="76">
         <v>44457</v>
@@ -5161,122 +5163,150 @@
       </c>
       <c r="E41" s="27"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="75"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="77"/>
+      <c r="C42" s="76">
+        <v>44464</v>
+      </c>
+      <c r="D42" s="77">
+        <v>150000</v>
+      </c>
       <c r="E42" s="27"/>
     </row>
-    <row r="43" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="95"/>
-      <c r="C43" s="96"/>
-      <c r="D43" s="97">
-        <v>0</v>
-      </c>
-      <c r="E43" s="95"/>
-    </row>
-    <row r="44" spans="1:9" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C44" s="98" t="s">
+    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="165"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="77">
+        <v>0</v>
+      </c>
+      <c r="E43" s="166"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="165"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="77">
+        <v>0</v>
+      </c>
+      <c r="E44" s="166"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="165"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="77">
+        <v>0</v>
+      </c>
+      <c r="E45" s="166"/>
+    </row>
+    <row r="46" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="95"/>
+      <c r="C46" s="96"/>
+      <c r="D46" s="97">
+        <v>0</v>
+      </c>
+      <c r="E46" s="95"/>
+    </row>
+    <row r="47" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C47" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="D44" s="99">
-        <f>SUM(D5:D43)</f>
-        <v>3300000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="106"/>
-      <c r="B45" s="107"/>
-      <c r="C45" s="108" t="s">
+      <c r="D47" s="99">
+        <f>SUM(D5:D46)</f>
+        <v>3450000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="106"/>
+      <c r="B48" s="107"/>
+      <c r="C48" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="D45" s="109">
+      <c r="D48" s="109">
         <v>-3644591.85</v>
       </c>
-      <c r="E45" s="102">
+      <c r="E48" s="102">
         <v>44264</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="110"/>
-      <c r="B46" s="103"/>
-      <c r="C46" s="104" t="s">
+    <row r="49" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="110"/>
+      <c r="B49" s="103"/>
+      <c r="C49" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="D46" s="105">
+      <c r="D49" s="105">
         <v>-1303474.18</v>
       </c>
-      <c r="E46" s="100">
+      <c r="E49" s="100">
         <v>44264</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="110"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="104" t="s">
+    <row r="50" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="110"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="105">
+      <c r="D50" s="105">
         <v>-937943.41</v>
       </c>
-      <c r="E47" s="100">
+      <c r="E50" s="100">
         <v>44264</v>
       </c>
-      <c r="G47" s="154">
-        <f>D45+D46+D47+D48</f>
+      <c r="G50" s="154">
+        <f>D48+D49+D50+D51</f>
         <v>-7492427.9600000009</v>
       </c>
-      <c r="H47" s="155"/>
-      <c r="I47" s="156"/>
-    </row>
-    <row r="48" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="110"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="104" t="s">
+      <c r="H50" s="155"/>
+      <c r="I50" s="156"/>
+    </row>
+    <row r="51" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="110"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="D48" s="105">
+      <c r="D51" s="105">
         <v>-1606418.52</v>
       </c>
-      <c r="E48" s="100">
+      <c r="E51" s="100">
         <v>44264</v>
       </c>
-      <c r="G48" s="157"/>
-      <c r="H48" s="158"/>
-      <c r="I48" s="159"/>
-    </row>
-    <row r="49" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="111"/>
-      <c r="B49" s="112"/>
-      <c r="C49" s="113"/>
-      <c r="D49" s="114">
-        <v>0</v>
-      </c>
-      <c r="E49" s="101"/>
-    </row>
-    <row r="50" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="115" t="s">
+      <c r="G51" s="157"/>
+      <c r="H51" s="158"/>
+      <c r="I51" s="159"/>
+    </row>
+    <row r="52" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="111"/>
+      <c r="B52" s="112"/>
+      <c r="C52" s="113"/>
+      <c r="D52" s="114">
+        <v>0</v>
+      </c>
+      <c r="E52" s="101"/>
+    </row>
+    <row r="53" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="116">
-        <f>D47+D44+D45+D46+D48+D49</f>
-        <v>-4192427.9600000004</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="1"/>
-      <c r="D51" s="2" t="s">
+      <c r="D53" s="116">
+        <f>D50+D47+D48+D49+D51+D52</f>
+        <v>-4042427.9600000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C54" s="1"/>
+      <c r="D54" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C54" s="1"/>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C57" s="1"/>
     </row>
   </sheetData>
   <sortState ref="C34:D36">
@@ -5284,7 +5314,7 @@
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G47:I48"/>
+    <mergeCell ref="G50:I51"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.13" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -989,6 +989,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -998,6 +1000,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1022,21 +1039,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1106,8 +1108,6 @@
     <xf numFmtId="16" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2362,17 +2362,17 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="126" t="s">
+      <c r="C3" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130"/>
       <c r="H3" s="50"/>
-      <c r="I3" s="126" t="s">
+      <c r="I3" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="127"/>
-      <c r="K3" s="128"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="130"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -2812,11 +2812,11 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="126" t="s">
+      <c r="C3" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -2970,18 +2970,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="139" t="s">
+      <c r="C3" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="139"/>
+      <c r="D3" s="131"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="130"/>
+      <c r="D4" s="137"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2991,10 +2991,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="140" t="s">
+      <c r="B6" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="141"/>
+      <c r="C6" s="133"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3011,10 +3011,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="138"/>
+      <c r="C8" s="135"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3031,10 +3031,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="138"/>
+      <c r="C10" s="135"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3051,10 +3051,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="138"/>
+      <c r="C12" s="135"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3071,10 +3071,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="138"/>
+      <c r="C14" s="135"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3091,10 +3091,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="131" t="s">
+      <c r="B16" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="132"/>
+      <c r="C16" s="139"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3111,14 +3111,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="131" t="s">
+      <c r="B18" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="132"/>
+      <c r="C18" s="139"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="133" t="s">
+      <c r="E18" s="140" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="134"/>
+      <c r="E19" s="141"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3139,10 +3139,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="131" t="s">
+      <c r="B21" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="132"/>
+      <c r="C21" s="139"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3159,10 +3159,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="135" t="s">
+      <c r="B23" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="136"/>
+      <c r="C23" s="143"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3179,10 +3179,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="129" t="s">
+      <c r="B25" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="129"/>
+      <c r="C25" s="136"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3233,11 +3233,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3246,6 +3241,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3284,11 +3284,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="126" t="s">
+      <c r="C3" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3489,11 +3489,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="126" t="s">
+      <c r="C3" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3670,11 +3670,11 @@
     </row>
     <row r="3" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="50"/>
-      <c r="C3" s="126" t="s">
+      <c r="C3" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3878,9 +3878,9 @@
       <c r="B3" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4111,9 +4111,9 @@
       <c r="B3" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130"/>
     </row>
     <row r="4" spans="2:5" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4471,36 +4471,36 @@
     </row>
     <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="142" t="s">
+      <c r="B57" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="143"/>
-      <c r="D57" s="143"/>
-      <c r="E57" s="144"/>
+      <c r="C57" s="145"/>
+      <c r="D57" s="145"/>
+      <c r="E57" s="146"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="145"/>
-      <c r="C58" s="146"/>
-      <c r="D58" s="146"/>
-      <c r="E58" s="147"/>
+      <c r="B58" s="147"/>
+      <c r="C58" s="148"/>
+      <c r="D58" s="148"/>
+      <c r="E58" s="149"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="145"/>
-      <c r="C59" s="146"/>
-      <c r="D59" s="146"/>
-      <c r="E59" s="147"/>
+      <c r="B59" s="147"/>
+      <c r="C59" s="148"/>
+      <c r="D59" s="148"/>
+      <c r="E59" s="149"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="145"/>
-      <c r="C60" s="146"/>
-      <c r="D60" s="146"/>
-      <c r="E60" s="147"/>
+      <c r="B60" s="147"/>
+      <c r="C60" s="148"/>
+      <c r="D60" s="148"/>
+      <c r="E60" s="149"/>
     </row>
     <row r="61" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="148"/>
-      <c r="C61" s="149"/>
-      <c r="D61" s="149"/>
-      <c r="E61" s="150"/>
+      <c r="B61" s="150"/>
+      <c r="C61" s="151"/>
+      <c r="D61" s="151"/>
+      <c r="E61" s="152"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4545,9 +4545,9 @@
       <c r="B3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4767,8 +4767,8 @@
   </sheetPr>
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4790,12 +4790,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="153" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="153"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="155"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
       <c r="I3" s="94"/>
@@ -5174,28 +5174,30 @@
       <c r="E42" s="27"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="165"/>
-      <c r="C43" s="76"/>
+      <c r="B43" s="126"/>
+      <c r="C43" s="76">
+        <v>44471</v>
+      </c>
       <c r="D43" s="77">
-        <v>0</v>
-      </c>
-      <c r="E43" s="166"/>
+        <v>50000</v>
+      </c>
+      <c r="E43" s="127"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="165"/>
+      <c r="B44" s="126"/>
       <c r="C44" s="76"/>
       <c r="D44" s="77">
         <v>0</v>
       </c>
-      <c r="E44" s="166"/>
+      <c r="E44" s="127"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="165"/>
+      <c r="B45" s="126"/>
       <c r="C45" s="76"/>
       <c r="D45" s="77">
         <v>0</v>
       </c>
-      <c r="E45" s="166"/>
+      <c r="E45" s="127"/>
     </row>
     <row r="46" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="95"/>
@@ -5211,7 +5213,7 @@
       </c>
       <c r="D47" s="99">
         <f>SUM(D5:D46)</f>
-        <v>3450000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5252,12 +5254,12 @@
       <c r="E50" s="100">
         <v>44264</v>
       </c>
-      <c r="G50" s="154">
+      <c r="G50" s="156">
         <f>D48+D49+D50+D51</f>
         <v>-7492427.9600000009</v>
       </c>
-      <c r="H50" s="155"/>
-      <c r="I50" s="156"/>
+      <c r="H50" s="157"/>
+      <c r="I50" s="158"/>
     </row>
     <row r="51" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="110"/>
@@ -5271,9 +5273,9 @@
       <c r="E51" s="100">
         <v>44264</v>
       </c>
-      <c r="G51" s="157"/>
-      <c r="H51" s="158"/>
-      <c r="I51" s="159"/>
+      <c r="G51" s="159"/>
+      <c r="H51" s="160"/>
+      <c r="I51" s="161"/>
     </row>
     <row r="52" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="111"/>
@@ -5290,7 +5292,7 @@
       </c>
       <c r="D53" s="116">
         <f>D50+D47+D48+D49+D51+D52</f>
-        <v>-4042427.9600000004</v>
+        <v>-3992427.9600000004</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -5514,7 +5516,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="162" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -5524,13 +5526,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="161"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="161"/>
+      <c r="B4" s="163"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -5538,7 +5540,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="161"/>
+      <c r="B5" s="163"/>
       <c r="C5" s="47">
         <v>44380</v>
       </c>
@@ -5548,7 +5550,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="162"/>
+      <c r="B6" s="164"/>
       <c r="C6" s="36">
         <v>44396</v>
       </c>
@@ -5564,7 +5566,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="163" t="s">
+      <c r="B8" s="165" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="36">
@@ -5576,7 +5578,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="164"/>
+      <c r="B9" s="166"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1000,6 +1000,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1007,36 +1037,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2970,18 +2970,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="131" t="s">
+      <c r="C3" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="131"/>
+      <c r="D3" s="141"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="137"/>
+      <c r="D4" s="132"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2991,10 +2991,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="133"/>
+      <c r="C6" s="143"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3011,10 +3011,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="134" t="s">
+      <c r="B8" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="135"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3031,10 +3031,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="134" t="s">
+      <c r="B10" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="135"/>
+      <c r="C10" s="140"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3051,10 +3051,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="134" t="s">
+      <c r="B12" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="135"/>
+      <c r="C12" s="140"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3071,10 +3071,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="134" t="s">
+      <c r="B14" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="135"/>
+      <c r="C14" s="140"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3091,10 +3091,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="138" t="s">
+      <c r="B16" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="139"/>
+      <c r="C16" s="134"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3111,14 +3111,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="138" t="s">
+      <c r="B18" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="139"/>
+      <c r="C18" s="134"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="140" t="s">
+      <c r="E18" s="135" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="141"/>
+      <c r="E19" s="136"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3139,10 +3139,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="138" t="s">
+      <c r="B21" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="139"/>
+      <c r="C21" s="134"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3159,10 +3159,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="142" t="s">
+      <c r="B23" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="143"/>
+      <c r="C23" s="138"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3179,10 +3179,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="136" t="s">
+      <c r="B25" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="136"/>
+      <c r="C25" s="131"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3233,6 +3233,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3241,11 +3246,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4768,7 +4768,7 @@
   <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5185,9 +5185,11 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="126"/>
-      <c r="C44" s="76"/>
+      <c r="C44" s="76">
+        <v>44478</v>
+      </c>
       <c r="D44" s="77">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="E44" s="127"/>
     </row>
@@ -5213,7 +5215,7 @@
       </c>
       <c r="D47" s="99">
         <f>SUM(D5:D46)</f>
-        <v>3500000</v>
+        <v>3550000</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5292,7 +5294,7 @@
       </c>
       <c r="D53" s="116">
         <f>D50+D47+D48+D49+D51+D52</f>
-        <v>-3992427.9600000004</v>
+        <v>-3942427.9600000004</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1000,6 +1000,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1022,21 +1037,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1575,13 +1575,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>428624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2970,18 +2970,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="141" t="s">
+      <c r="C3" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="141"/>
+      <c r="D3" s="131"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="132" t="s">
+      <c r="C4" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="132"/>
+      <c r="D4" s="137"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2991,10 +2991,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="143"/>
+      <c r="C6" s="133"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3011,10 +3011,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="140"/>
+      <c r="C8" s="135"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3031,10 +3031,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="139" t="s">
+      <c r="B10" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="140"/>
+      <c r="C10" s="135"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3051,10 +3051,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="139" t="s">
+      <c r="B12" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="140"/>
+      <c r="C12" s="135"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3071,10 +3071,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="139" t="s">
+      <c r="B14" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="140"/>
+      <c r="C14" s="135"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3091,10 +3091,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="134"/>
+      <c r="C16" s="139"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3111,14 +3111,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="133" t="s">
+      <c r="B18" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="134"/>
+      <c r="C18" s="139"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="135" t="s">
+      <c r="E18" s="140" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="136"/>
+      <c r="E19" s="141"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3139,10 +3139,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="133" t="s">
+      <c r="B21" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="134"/>
+      <c r="C21" s="139"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3159,10 +3159,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="137" t="s">
+      <c r="B23" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="138"/>
+      <c r="C23" s="143"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3179,10 +3179,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="131" t="s">
+      <c r="B25" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="131"/>
+      <c r="C25" s="136"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3233,11 +3233,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3246,6 +3241,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4765,10 +4765,10 @@
   <sheetPr>
     <tabColor rgb="FF00FF99"/>
   </sheetPr>
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="E32" s="27"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="75"/>
       <c r="C33" s="76">
         <v>44408</v>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="75"/>
       <c r="C34" s="76">
         <v>44415</v>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="E34" s="27"/>
     </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="75"/>
       <c r="C35" s="76">
         <v>44422</v>
@@ -5099,7 +5099,7 @@
       </c>
       <c r="E35" s="27"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="75"/>
       <c r="C36" s="76">
         <v>44428</v>
@@ -5111,7 +5111,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="75"/>
       <c r="C37" s="76">
         <v>44436</v>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="E37" s="27"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="75"/>
       <c r="C38" s="76">
         <v>44443</v>
@@ -5131,7 +5131,7 @@
       </c>
       <c r="E38" s="27"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="75"/>
       <c r="C39" s="76">
         <v>44449</v>
@@ -5143,7 +5143,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="75"/>
       <c r="C40" s="76">
         <v>44450</v>
@@ -5153,7 +5153,7 @@
       </c>
       <c r="E40" s="27"/>
     </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="75"/>
       <c r="C41" s="76">
         <v>44457</v>
@@ -5163,7 +5163,7 @@
       </c>
       <c r="E41" s="27"/>
     </row>
-    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="75"/>
       <c r="C42" s="76">
         <v>44464</v>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="E42" s="27"/>
     </row>
-    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="126"/>
       <c r="C43" s="76">
         <v>44471</v>
@@ -5183,7 +5183,7 @@
       </c>
       <c r="E43" s="127"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="126"/>
       <c r="C44" s="76">
         <v>44478</v>
@@ -5193,124 +5193,216 @@
       </c>
       <c r="E44" s="127"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="126"/>
-      <c r="C45" s="76"/>
+      <c r="C45" s="76">
+        <v>44485</v>
+      </c>
       <c r="D45" s="77">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="E45" s="127"/>
     </row>
-    <row r="46" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="95"/>
-      <c r="C46" s="96"/>
-      <c r="D46" s="97">
-        <v>0</v>
-      </c>
-      <c r="E46" s="95"/>
-    </row>
-    <row r="47" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C47" s="98" t="s">
+    <row r="46" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="126"/>
+      <c r="C46" s="76">
+        <v>44492</v>
+      </c>
+      <c r="D46" s="77">
+        <v>50000</v>
+      </c>
+      <c r="E46" s="127"/>
+    </row>
+    <row r="47" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="126"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="77">
+        <v>0</v>
+      </c>
+      <c r="E47" s="127"/>
+    </row>
+    <row r="48" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="126"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="77">
+        <v>0</v>
+      </c>
+      <c r="E48" s="127"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="126"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="77">
+        <v>0</v>
+      </c>
+      <c r="E49" s="127"/>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B50" s="126"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="77">
+        <v>0</v>
+      </c>
+      <c r="E50" s="127"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B51" s="126"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="77">
+        <v>0</v>
+      </c>
+      <c r="E51" s="127"/>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="126"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="77">
+        <v>0</v>
+      </c>
+      <c r="E52" s="127"/>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="126"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="77">
+        <v>0</v>
+      </c>
+      <c r="E53" s="127"/>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B54" s="126"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="77">
+        <v>0</v>
+      </c>
+      <c r="E54" s="127"/>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="126"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="77">
+        <v>0</v>
+      </c>
+      <c r="E55" s="127"/>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="126"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="77">
+        <v>0</v>
+      </c>
+      <c r="E56" s="127"/>
+    </row>
+    <row r="57" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="95"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="97">
+        <v>0</v>
+      </c>
+      <c r="E57" s="95"/>
+    </row>
+    <row r="58" spans="1:9" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C58" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="99">
-        <f>SUM(D5:D46)</f>
-        <v>3550000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="106"/>
-      <c r="B48" s="107"/>
-      <c r="C48" s="108" t="s">
+      <c r="D58" s="99">
+        <f>SUM(D5:D57)</f>
+        <v>3650000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="106"/>
+      <c r="B59" s="107"/>
+      <c r="C59" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="D48" s="109">
+      <c r="D59" s="109">
         <v>-3644591.85</v>
       </c>
-      <c r="E48" s="102">
+      <c r="E59" s="102">
         <v>44264</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="110"/>
-      <c r="B49" s="103"/>
-      <c r="C49" s="104" t="s">
+    <row r="60" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="110"/>
+      <c r="B60" s="103"/>
+      <c r="C60" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="D49" s="105">
+      <c r="D60" s="105">
         <v>-1303474.18</v>
       </c>
-      <c r="E49" s="100">
+      <c r="E60" s="100">
         <v>44264</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="110"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="104" t="s">
+    <row r="61" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="110"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="D50" s="105">
+      <c r="D61" s="105">
         <v>-937943.41</v>
       </c>
-      <c r="E50" s="100">
+      <c r="E61" s="100">
         <v>44264</v>
       </c>
-      <c r="G50" s="156">
-        <f>D48+D49+D50+D51</f>
+      <c r="G61" s="156">
+        <f>D59+D60+D61+D62</f>
         <v>-7492427.9600000009</v>
       </c>
-      <c r="H50" s="157"/>
-      <c r="I50" s="158"/>
-    </row>
-    <row r="51" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="110"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="104" t="s">
+      <c r="H61" s="157"/>
+      <c r="I61" s="158"/>
+    </row>
+    <row r="62" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="110"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="D51" s="105">
+      <c r="D62" s="105">
         <v>-1606418.52</v>
       </c>
-      <c r="E51" s="100">
+      <c r="E62" s="100">
         <v>44264</v>
       </c>
-      <c r="G51" s="159"/>
-      <c r="H51" s="160"/>
-      <c r="I51" s="161"/>
-    </row>
-    <row r="52" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="111"/>
-      <c r="B52" s="112"/>
-      <c r="C52" s="113"/>
-      <c r="D52" s="114">
-        <v>0</v>
-      </c>
-      <c r="E52" s="101"/>
-    </row>
-    <row r="53" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="115" t="s">
+      <c r="G62" s="159"/>
+      <c r="H62" s="160"/>
+      <c r="I62" s="161"/>
+    </row>
+    <row r="63" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="111"/>
+      <c r="B63" s="112"/>
+      <c r="C63" s="113"/>
+      <c r="D63" s="114">
+        <v>0</v>
+      </c>
+      <c r="E63" s="101"/>
+    </row>
+    <row r="64" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="116">
-        <f>D50+D47+D48+D49+D51+D52</f>
-        <v>-3942427.9600000004</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C54" s="1"/>
-      <c r="D54" s="2" t="s">
+      <c r="D64" s="116">
+        <f>D61+D58+D59+D60+D62+D63</f>
+        <v>-3842427.9600000004</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="1"/>
+      <c r="D65" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C57" s="1"/>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C68" s="1"/>
     </row>
   </sheetData>
   <sortState ref="C34:D36">
@@ -5318,7 +5410,7 @@
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G50:I51"/>
+    <mergeCell ref="G61:I62"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.13" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1000,6 +1000,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1007,36 +1037,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2970,18 +2970,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="131" t="s">
+      <c r="C3" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="131"/>
+      <c r="D3" s="141"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="137"/>
+      <c r="D4" s="132"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2991,10 +2991,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="133"/>
+      <c r="C6" s="143"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3011,10 +3011,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="134" t="s">
+      <c r="B8" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="135"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3031,10 +3031,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="134" t="s">
+      <c r="B10" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="135"/>
+      <c r="C10" s="140"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3051,10 +3051,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="134" t="s">
+      <c r="B12" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="135"/>
+      <c r="C12" s="140"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3071,10 +3071,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="134" t="s">
+      <c r="B14" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="135"/>
+      <c r="C14" s="140"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3091,10 +3091,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="138" t="s">
+      <c r="B16" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="139"/>
+      <c r="C16" s="134"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3111,14 +3111,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="138" t="s">
+      <c r="B18" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="139"/>
+      <c r="C18" s="134"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="140" t="s">
+      <c r="E18" s="135" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="141"/>
+      <c r="E19" s="136"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3139,10 +3139,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="138" t="s">
+      <c r="B21" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="139"/>
+      <c r="C21" s="134"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3159,10 +3159,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="142" t="s">
+      <c r="B23" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="143"/>
+      <c r="C23" s="138"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3179,10 +3179,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="136" t="s">
+      <c r="B25" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="136"/>
+      <c r="C25" s="131"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3233,6 +3233,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3241,11 +3246,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4768,7 +4768,7 @@
   <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5215,9 +5215,11 @@
     </row>
     <row r="47" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="126"/>
-      <c r="C47" s="76"/>
+      <c r="C47" s="76">
+        <v>44499</v>
+      </c>
       <c r="D47" s="77">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="E47" s="127"/>
     </row>
@@ -5307,7 +5309,7 @@
       </c>
       <c r="D58" s="99">
         <f>SUM(D5:D57)</f>
-        <v>3650000</v>
+        <v>3700000</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5386,7 +5388,7 @@
       </c>
       <c r="D64" s="116">
         <f>D61+D58+D59+D60+D62+D63</f>
-        <v>-3842427.9600000004</v>
+        <v>-3792427.9600000004</v>
       </c>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1000,6 +1000,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1022,21 +1037,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2970,18 +2970,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="141" t="s">
+      <c r="C3" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="141"/>
+      <c r="D3" s="131"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="132" t="s">
+      <c r="C4" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="132"/>
+      <c r="D4" s="137"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2991,10 +2991,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="143"/>
+      <c r="C6" s="133"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3011,10 +3011,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="140"/>
+      <c r="C8" s="135"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3031,10 +3031,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="139" t="s">
+      <c r="B10" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="140"/>
+      <c r="C10" s="135"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3051,10 +3051,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="139" t="s">
+      <c r="B12" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="140"/>
+      <c r="C12" s="135"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3071,10 +3071,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="139" t="s">
+      <c r="B14" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="140"/>
+      <c r="C14" s="135"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3091,10 +3091,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="134"/>
+      <c r="C16" s="139"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3111,14 +3111,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="133" t="s">
+      <c r="B18" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="134"/>
+      <c r="C18" s="139"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="135" t="s">
+      <c r="E18" s="140" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="136"/>
+      <c r="E19" s="141"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3139,10 +3139,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="133" t="s">
+      <c r="B21" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="134"/>
+      <c r="C21" s="139"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3159,10 +3159,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="137" t="s">
+      <c r="B23" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="138"/>
+      <c r="C23" s="143"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3179,10 +3179,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="131" t="s">
+      <c r="B25" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="131"/>
+      <c r="C25" s="136"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3233,11 +3233,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3246,6 +3241,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4768,7 +4768,7 @@
   <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5225,9 +5225,11 @@
     </row>
     <row r="48" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="126"/>
-      <c r="C48" s="76"/>
+      <c r="C48" s="76">
+        <v>44506</v>
+      </c>
       <c r="D48" s="77">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="E48" s="127"/>
     </row>
@@ -5309,7 +5311,7 @@
       </c>
       <c r="D58" s="99">
         <f>SUM(D5:D57)</f>
-        <v>3700000</v>
+        <v>3750000</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5388,7 +5390,7 @@
       </c>
       <c r="D64" s="116">
         <f>D61+D58+D59+D60+D62+D63</f>
-        <v>-3792427.9600000004</v>
+        <v>-3742427.9600000004</v>
       </c>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1000,6 +1000,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1007,36 +1037,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2970,18 +2970,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="131" t="s">
+      <c r="C3" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="131"/>
+      <c r="D3" s="141"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="137"/>
+      <c r="D4" s="132"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2991,10 +2991,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="133"/>
+      <c r="C6" s="143"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3011,10 +3011,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="134" t="s">
+      <c r="B8" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="135"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3031,10 +3031,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="134" t="s">
+      <c r="B10" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="135"/>
+      <c r="C10" s="140"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3051,10 +3051,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="134" t="s">
+      <c r="B12" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="135"/>
+      <c r="C12" s="140"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3071,10 +3071,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="134" t="s">
+      <c r="B14" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="135"/>
+      <c r="C14" s="140"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3091,10 +3091,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="138" t="s">
+      <c r="B16" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="139"/>
+      <c r="C16" s="134"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3111,14 +3111,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="138" t="s">
+      <c r="B18" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="139"/>
+      <c r="C18" s="134"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="140" t="s">
+      <c r="E18" s="135" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="141"/>
+      <c r="E19" s="136"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3139,10 +3139,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="138" t="s">
+      <c r="B21" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="139"/>
+      <c r="C21" s="134"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3159,10 +3159,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="142" t="s">
+      <c r="B23" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="143"/>
+      <c r="C23" s="138"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3179,10 +3179,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="136" t="s">
+      <c r="B25" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="136"/>
+      <c r="C25" s="131"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3233,6 +3233,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3241,11 +3246,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4768,7 +4768,7 @@
   <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5235,9 +5235,11 @@
     </row>
     <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="126"/>
-      <c r="C49" s="76"/>
+      <c r="C49" s="76">
+        <v>44513</v>
+      </c>
       <c r="D49" s="77">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="E49" s="127"/>
     </row>
@@ -5311,7 +5313,7 @@
       </c>
       <c r="D58" s="99">
         <f>SUM(D5:D57)</f>
-        <v>3750000</v>
+        <v>3800000</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5390,7 +5392,7 @@
       </c>
       <c r="D64" s="116">
         <f>D61+D58+D59+D60+D62+D63</f>
-        <v>-3742427.9600000004</v>
+        <v>-3692427.96</v>
       </c>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1000,6 +1000,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1022,21 +1037,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2970,18 +2970,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="141" t="s">
+      <c r="C3" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="141"/>
+      <c r="D3" s="131"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="132" t="s">
+      <c r="C4" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="132"/>
+      <c r="D4" s="137"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2991,10 +2991,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="143"/>
+      <c r="C6" s="133"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3011,10 +3011,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="140"/>
+      <c r="C8" s="135"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3031,10 +3031,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="139" t="s">
+      <c r="B10" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="140"/>
+      <c r="C10" s="135"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3051,10 +3051,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="139" t="s">
+      <c r="B12" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="140"/>
+      <c r="C12" s="135"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3071,10 +3071,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="139" t="s">
+      <c r="B14" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="140"/>
+      <c r="C14" s="135"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3091,10 +3091,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="134"/>
+      <c r="C16" s="139"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3111,14 +3111,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="133" t="s">
+      <c r="B18" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="134"/>
+      <c r="C18" s="139"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="135" t="s">
+      <c r="E18" s="140" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="136"/>
+      <c r="E19" s="141"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3139,10 +3139,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="133" t="s">
+      <c r="B21" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="134"/>
+      <c r="C21" s="139"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3159,10 +3159,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="137" t="s">
+      <c r="B23" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="138"/>
+      <c r="C23" s="143"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3179,10 +3179,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="131" t="s">
+      <c r="B25" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="131"/>
+      <c r="C25" s="136"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3233,11 +3233,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3246,6 +3241,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4768,7 +4768,7 @@
   <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5245,9 +5245,11 @@
     </row>
     <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="126"/>
-      <c r="C50" s="76"/>
+      <c r="C50" s="76">
+        <v>44520</v>
+      </c>
       <c r="D50" s="77">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="E50" s="127"/>
     </row>
@@ -5313,7 +5315,7 @@
       </c>
       <c r="D58" s="99">
         <f>SUM(D5:D57)</f>
-        <v>3800000</v>
+        <v>3850000</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5392,7 +5394,7 @@
       </c>
       <c r="D64" s="116">
         <f>D61+D58+D59+D60+D62+D63</f>
-        <v>-3692427.96</v>
+        <v>-3642427.96</v>
       </c>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="18375" windowHeight="13620" firstSheet="18" activeTab="18"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="18375" windowHeight="13620" firstSheet="13" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="JARCERIAS REMODELACION " sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="73">
   <si>
     <t xml:space="preserve">PAGOS  SOBRE REMODELACION </t>
   </si>
@@ -270,6 +270,12 @@
   </si>
   <si>
     <t xml:space="preserve">Transferencia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bolier solar y tanque </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALVULAS </t>
   </si>
 </sst>
 </file>
@@ -1000,6 +1006,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1007,36 +1043,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2970,18 +2976,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="131" t="s">
+      <c r="C3" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="131"/>
+      <c r="D3" s="141"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="137"/>
+      <c r="D4" s="132"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2991,10 +2997,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="133"/>
+      <c r="C6" s="143"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3011,10 +3017,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="134" t="s">
+      <c r="B8" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="135"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3031,10 +3037,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="134" t="s">
+      <c r="B10" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="135"/>
+      <c r="C10" s="140"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3051,10 +3057,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="134" t="s">
+      <c r="B12" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="135"/>
+      <c r="C12" s="140"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3071,10 +3077,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="134" t="s">
+      <c r="B14" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="135"/>
+      <c r="C14" s="140"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3091,10 +3097,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="138" t="s">
+      <c r="B16" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="139"/>
+      <c r="C16" s="134"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3111,14 +3117,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="138" t="s">
+      <c r="B18" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="139"/>
+      <c r="C18" s="134"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="140" t="s">
+      <c r="E18" s="135" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3128,7 +3134,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="141"/>
+      <c r="E19" s="136"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3139,10 +3145,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="138" t="s">
+      <c r="B21" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="139"/>
+      <c r="C21" s="134"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3159,10 +3165,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="142" t="s">
+      <c r="B23" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="143"/>
+      <c r="C23" s="138"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3179,10 +3185,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="136" t="s">
+      <c r="B25" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="136"/>
+      <c r="C25" s="131"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3233,6 +3239,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3241,11 +3252,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3464,8 +3470,8 @@
   </sheetPr>
   <dimension ref="B1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3534,12 +3540,18 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="31"/>
-      <c r="C8" s="36"/>
+      <c r="B8" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="36">
+        <v>44527</v>
+      </c>
       <c r="D8" s="37">
-        <v>0</v>
-      </c>
-      <c r="E8" s="27"/>
+        <v>2800</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="31"/>
@@ -3547,7 +3559,9 @@
       <c r="D9" s="37">
         <v>0</v>
       </c>
-      <c r="E9" s="27"/>
+      <c r="E9" s="27" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="31"/>
@@ -3587,7 +3601,7 @@
       </c>
       <c r="D14" s="25">
         <f>SUM(D5:D13)</f>
-        <v>57227</v>
+        <v>60027</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -3614,7 +3628,7 @@
       </c>
       <c r="D18" s="34">
         <f>D14+D15+D16</f>
-        <v>57227</v>
+        <v>60027</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -4767,8 +4781,8 @@
   </sheetPr>
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5255,9 +5269,11 @@
     </row>
     <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="126"/>
-      <c r="C51" s="76"/>
+      <c r="C51" s="76">
+        <v>44527</v>
+      </c>
       <c r="D51" s="77">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="E51" s="127"/>
     </row>
@@ -5315,7 +5331,7 @@
       </c>
       <c r="D58" s="99">
         <f>SUM(D5:D57)</f>
-        <v>3850000</v>
+        <v>3900000</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5394,7 +5410,7 @@
       </c>
       <c r="D64" s="116">
         <f>D61+D58+D59+D60+D62+D63</f>
-        <v>-3642427.96</v>
+        <v>-3592427.96</v>
       </c>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="18375" windowHeight="13620" firstSheet="13" activeTab="13"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="18375" windowHeight="13620" firstSheet="17" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="JARCERIAS REMODELACION " sheetId="1" r:id="rId1"/>
@@ -1006,6 +1006,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1028,21 +1043,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2976,18 +2976,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="141" t="s">
+      <c r="C3" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="141"/>
+      <c r="D3" s="131"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="132" t="s">
+      <c r="C4" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="132"/>
+      <c r="D4" s="137"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2997,10 +2997,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="143"/>
+      <c r="C6" s="133"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3017,10 +3017,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="140"/>
+      <c r="C8" s="135"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3037,10 +3037,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="139" t="s">
+      <c r="B10" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="140"/>
+      <c r="C10" s="135"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3057,10 +3057,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="139" t="s">
+      <c r="B12" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="140"/>
+      <c r="C12" s="135"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3077,10 +3077,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="139" t="s">
+      <c r="B14" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="140"/>
+      <c r="C14" s="135"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3097,10 +3097,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="134"/>
+      <c r="C16" s="139"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3117,14 +3117,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="133" t="s">
+      <c r="B18" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="134"/>
+      <c r="C18" s="139"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="135" t="s">
+      <c r="E18" s="140" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3134,7 +3134,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="136"/>
+      <c r="E19" s="141"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3145,10 +3145,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="133" t="s">
+      <c r="B21" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="134"/>
+      <c r="C21" s="139"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3165,10 +3165,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="137" t="s">
+      <c r="B23" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="138"/>
+      <c r="C23" s="143"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3185,10 +3185,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="131" t="s">
+      <c r="B25" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="131"/>
+      <c r="C25" s="136"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3239,11 +3239,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3252,6 +3247,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3470,7 +3470,7 @@
   </sheetPr>
   <dimension ref="B1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -4781,8 +4781,8 @@
   </sheetPr>
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5279,9 +5279,11 @@
     </row>
     <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="126"/>
-      <c r="C52" s="76"/>
+      <c r="C52" s="76">
+        <v>44534</v>
+      </c>
       <c r="D52" s="77">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="E52" s="127"/>
     </row>
@@ -5331,7 +5333,7 @@
       </c>
       <c r="D58" s="99">
         <f>SUM(D5:D57)</f>
-        <v>3900000</v>
+        <v>3950000</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5410,7 +5412,7 @@
       </c>
       <c r="D64" s="116">
         <f>D61+D58+D59+D60+D62+D63</f>
-        <v>-3592427.96</v>
+        <v>-3542427.96</v>
       </c>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1006,6 +1006,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1013,36 +1043,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2976,18 +2976,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="131" t="s">
+      <c r="C3" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="131"/>
+      <c r="D3" s="141"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="137"/>
+      <c r="D4" s="132"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2997,10 +2997,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="133"/>
+      <c r="C6" s="143"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3017,10 +3017,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="134" t="s">
+      <c r="B8" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="135"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3037,10 +3037,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="134" t="s">
+      <c r="B10" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="135"/>
+      <c r="C10" s="140"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3057,10 +3057,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="134" t="s">
+      <c r="B12" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="135"/>
+      <c r="C12" s="140"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3077,10 +3077,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="134" t="s">
+      <c r="B14" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="135"/>
+      <c r="C14" s="140"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3097,10 +3097,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="138" t="s">
+      <c r="B16" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="139"/>
+      <c r="C16" s="134"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3117,14 +3117,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="138" t="s">
+      <c r="B18" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="139"/>
+      <c r="C18" s="134"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="140" t="s">
+      <c r="E18" s="135" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3134,7 +3134,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="141"/>
+      <c r="E19" s="136"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3145,10 +3145,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="138" t="s">
+      <c r="B21" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="139"/>
+      <c r="C21" s="134"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3165,10 +3165,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="142" t="s">
+      <c r="B23" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="143"/>
+      <c r="C23" s="138"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3185,10 +3185,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="136" t="s">
+      <c r="B25" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="136"/>
+      <c r="C25" s="131"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3239,6 +3239,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3247,11 +3252,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4782,7 +4782,7 @@
   <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5289,9 +5289,11 @@
     </row>
     <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="126"/>
-      <c r="C53" s="76"/>
+      <c r="C53" s="76">
+        <v>44541</v>
+      </c>
       <c r="D53" s="77">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="E53" s="127"/>
     </row>
@@ -5333,7 +5335,7 @@
       </c>
       <c r="D58" s="99">
         <f>SUM(D5:D57)</f>
-        <v>3950000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5412,7 +5414,7 @@
       </c>
       <c r="D64" s="116">
         <f>D61+D58+D59+D60+D62+D63</f>
-        <v>-3542427.96</v>
+        <v>-3492427.96</v>
       </c>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1006,6 +1006,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1028,21 +1043,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1581,13 +1581,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>428624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2976,18 +2976,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="141" t="s">
+      <c r="C3" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="141"/>
+      <c r="D3" s="131"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="132" t="s">
+      <c r="C4" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="132"/>
+      <c r="D4" s="137"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2997,10 +2997,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="143"/>
+      <c r="C6" s="133"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3017,10 +3017,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="140"/>
+      <c r="C8" s="135"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3037,10 +3037,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="139" t="s">
+      <c r="B10" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="140"/>
+      <c r="C10" s="135"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3057,10 +3057,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="139" t="s">
+      <c r="B12" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="140"/>
+      <c r="C12" s="135"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3077,10 +3077,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="139" t="s">
+      <c r="B14" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="140"/>
+      <c r="C14" s="135"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3097,10 +3097,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="134"/>
+      <c r="C16" s="139"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3117,14 +3117,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="133" t="s">
+      <c r="B18" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="134"/>
+      <c r="C18" s="139"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="135" t="s">
+      <c r="E18" s="140" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3134,7 +3134,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="136"/>
+      <c r="E19" s="141"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3145,10 +3145,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="133" t="s">
+      <c r="B21" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="134"/>
+      <c r="C21" s="139"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3165,10 +3165,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="137" t="s">
+      <c r="B23" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="138"/>
+      <c r="C23" s="143"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3185,10 +3185,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="131" t="s">
+      <c r="B25" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="131"/>
+      <c r="C25" s="136"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3239,11 +3239,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3252,6 +3247,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4779,10 +4779,10 @@
   <sheetPr>
     <tabColor rgb="FF00FF99"/>
   </sheetPr>
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="E48" s="127"/>
     </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="126"/>
       <c r="C49" s="76">
         <v>44513</v>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="E49" s="127"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="126"/>
       <c r="C50" s="76">
         <v>44520</v>
@@ -5267,7 +5267,7 @@
       </c>
       <c r="E50" s="127"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="126"/>
       <c r="C51" s="76">
         <v>44527</v>
@@ -5277,7 +5277,7 @@
       </c>
       <c r="E51" s="127"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="126"/>
       <c r="C52" s="76">
         <v>44534</v>
@@ -5287,7 +5287,7 @@
       </c>
       <c r="E52" s="127"/>
     </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="126"/>
       <c r="C53" s="76">
         <v>44541</v>
@@ -5297,15 +5297,17 @@
       </c>
       <c r="E53" s="127"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="126"/>
-      <c r="C54" s="76"/>
+      <c r="C54" s="76">
+        <v>44548</v>
+      </c>
       <c r="D54" s="77">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="E54" s="127"/>
     </row>
-    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="126"/>
       <c r="C55" s="76"/>
       <c r="D55" s="77">
@@ -5313,7 +5315,7 @@
       </c>
       <c r="E55" s="127"/>
     </row>
-    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="126"/>
       <c r="C56" s="76"/>
       <c r="D56" s="77">
@@ -5321,116 +5323,180 @@
       </c>
       <c r="E56" s="127"/>
     </row>
-    <row r="57" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="95"/>
-      <c r="C57" s="96"/>
-      <c r="D57" s="97">
-        <v>0</v>
-      </c>
-      <c r="E57" s="95"/>
-    </row>
-    <row r="58" spans="1:9" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C58" s="98" t="s">
+    <row r="57" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="126"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="77">
+        <v>0</v>
+      </c>
+      <c r="E57" s="127"/>
+    </row>
+    <row r="58" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="126"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="77">
+        <v>0</v>
+      </c>
+      <c r="E58" s="127"/>
+    </row>
+    <row r="59" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="126"/>
+      <c r="C59" s="76"/>
+      <c r="D59" s="77">
+        <v>0</v>
+      </c>
+      <c r="E59" s="127"/>
+    </row>
+    <row r="60" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B60" s="126"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="77">
+        <v>0</v>
+      </c>
+      <c r="E60" s="127"/>
+    </row>
+    <row r="61" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="126"/>
+      <c r="C61" s="76"/>
+      <c r="D61" s="77">
+        <v>0</v>
+      </c>
+      <c r="E61" s="127"/>
+    </row>
+    <row r="62" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B62" s="126"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="77">
+        <v>0</v>
+      </c>
+      <c r="E62" s="127"/>
+    </row>
+    <row r="63" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="126"/>
+      <c r="C63" s="76"/>
+      <c r="D63" s="77">
+        <v>0</v>
+      </c>
+      <c r="E63" s="127"/>
+    </row>
+    <row r="64" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="126"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="77">
+        <v>0</v>
+      </c>
+      <c r="E64" s="127"/>
+    </row>
+    <row r="65" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="95"/>
+      <c r="C65" s="96"/>
+      <c r="D65" s="97">
+        <v>0</v>
+      </c>
+      <c r="E65" s="95"/>
+    </row>
+    <row r="66" spans="1:9" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C66" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="99">
-        <f>SUM(D5:D57)</f>
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="106"/>
-      <c r="B59" s="107"/>
-      <c r="C59" s="108" t="s">
+      <c r="D66" s="99">
+        <f>SUM(D5:D65)</f>
+        <v>4050000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="106"/>
+      <c r="B67" s="107"/>
+      <c r="C67" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="109">
+      <c r="D67" s="109">
         <v>-3644591.85</v>
       </c>
-      <c r="E59" s="102">
+      <c r="E67" s="102">
         <v>44264</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="110"/>
-      <c r="B60" s="103"/>
-      <c r="C60" s="104" t="s">
+    <row r="68" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="110"/>
+      <c r="B68" s="103"/>
+      <c r="C68" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="D60" s="105">
+      <c r="D68" s="105">
         <v>-1303474.18</v>
       </c>
-      <c r="E60" s="100">
+      <c r="E68" s="100">
         <v>44264</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="110"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="104" t="s">
+    <row r="69" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="110"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="D61" s="105">
+      <c r="D69" s="105">
         <v>-937943.41</v>
       </c>
-      <c r="E61" s="100">
+      <c r="E69" s="100">
         <v>44264</v>
       </c>
-      <c r="G61" s="156">
-        <f>D59+D60+D61+D62</f>
+      <c r="G69" s="156">
+        <f>D67+D68+D69+D70</f>
         <v>-7492427.9600000009</v>
       </c>
-      <c r="H61" s="157"/>
-      <c r="I61" s="158"/>
-    </row>
-    <row r="62" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="110"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="104" t="s">
+      <c r="H69" s="157"/>
+      <c r="I69" s="158"/>
+    </row>
+    <row r="70" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="110"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="D62" s="105">
+      <c r="D70" s="105">
         <v>-1606418.52</v>
       </c>
-      <c r="E62" s="100">
+      <c r="E70" s="100">
         <v>44264</v>
       </c>
-      <c r="G62" s="159"/>
-      <c r="H62" s="160"/>
-      <c r="I62" s="161"/>
-    </row>
-    <row r="63" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="111"/>
-      <c r="B63" s="112"/>
-      <c r="C63" s="113"/>
-      <c r="D63" s="114">
-        <v>0</v>
-      </c>
-      <c r="E63" s="101"/>
-    </row>
-    <row r="64" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="115" t="s">
+      <c r="G70" s="159"/>
+      <c r="H70" s="160"/>
+      <c r="I70" s="161"/>
+    </row>
+    <row r="71" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="111"/>
+      <c r="B71" s="112"/>
+      <c r="C71" s="113"/>
+      <c r="D71" s="114">
+        <v>0</v>
+      </c>
+      <c r="E71" s="101"/>
+    </row>
+    <row r="72" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C72" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="D64" s="116">
-        <f>D61+D58+D59+D60+D62+D63</f>
-        <v>-3492427.96</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C65" s="1"/>
-      <c r="D65" s="2" t="s">
+      <c r="D72" s="116">
+        <f>D69+D66+D67+D68+D70+D71</f>
+        <v>-3442427.96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C73" s="1"/>
+      <c r="D73" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C68" s="1"/>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C76" s="1"/>
     </row>
   </sheetData>
   <sortState ref="C34:D36">
@@ -5438,7 +5504,7 @@
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G61:I62"/>
+    <mergeCell ref="G69:I70"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.13" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1006,6 +1006,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1013,36 +1043,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2976,18 +2976,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="131" t="s">
+      <c r="C3" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="131"/>
+      <c r="D3" s="141"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="137"/>
+      <c r="D4" s="132"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2997,10 +2997,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="133"/>
+      <c r="C6" s="143"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3017,10 +3017,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="134" t="s">
+      <c r="B8" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="135"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3037,10 +3037,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="134" t="s">
+      <c r="B10" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="135"/>
+      <c r="C10" s="140"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3057,10 +3057,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="134" t="s">
+      <c r="B12" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="135"/>
+      <c r="C12" s="140"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3077,10 +3077,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="134" t="s">
+      <c r="B14" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="135"/>
+      <c r="C14" s="140"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3097,10 +3097,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="138" t="s">
+      <c r="B16" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="139"/>
+      <c r="C16" s="134"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3117,14 +3117,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="138" t="s">
+      <c r="B18" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="139"/>
+      <c r="C18" s="134"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="140" t="s">
+      <c r="E18" s="135" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3134,7 +3134,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="141"/>
+      <c r="E19" s="136"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3145,10 +3145,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="138" t="s">
+      <c r="B21" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="139"/>
+      <c r="C21" s="134"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3165,10 +3165,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="142" t="s">
+      <c r="B23" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="143"/>
+      <c r="C23" s="138"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3185,10 +3185,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="136" t="s">
+      <c r="B25" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="136"/>
+      <c r="C25" s="131"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3239,6 +3239,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3247,11 +3252,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4782,7 +4782,7 @@
   <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5309,9 +5309,11 @@
     </row>
     <row r="55" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="126"/>
-      <c r="C55" s="76"/>
+      <c r="C55" s="76">
+        <v>44554</v>
+      </c>
       <c r="D55" s="77">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="E55" s="127"/>
     </row>
@@ -5401,7 +5403,7 @@
       </c>
       <c r="D66" s="99">
         <f>SUM(D5:D65)</f>
-        <v>4050000</v>
+        <v>4120000</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5480,7 +5482,7 @@
       </c>
       <c r="D72" s="116">
         <f>D69+D66+D67+D68+D70+D71</f>
-        <v>-3442427.96</v>
+        <v>-3372427.96</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1006,6 +1006,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1028,21 +1043,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2976,18 +2976,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="141" t="s">
+      <c r="C3" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="141"/>
+      <c r="D3" s="131"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="132" t="s">
+      <c r="C4" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="132"/>
+      <c r="D4" s="137"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2997,10 +2997,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="143"/>
+      <c r="C6" s="133"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3017,10 +3017,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="140"/>
+      <c r="C8" s="135"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3037,10 +3037,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="139" t="s">
+      <c r="B10" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="140"/>
+      <c r="C10" s="135"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3057,10 +3057,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="139" t="s">
+      <c r="B12" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="140"/>
+      <c r="C12" s="135"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3077,10 +3077,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="139" t="s">
+      <c r="B14" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="140"/>
+      <c r="C14" s="135"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3097,10 +3097,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="134"/>
+      <c r="C16" s="139"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3117,14 +3117,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="133" t="s">
+      <c r="B18" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="134"/>
+      <c r="C18" s="139"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="135" t="s">
+      <c r="E18" s="140" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3134,7 +3134,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="136"/>
+      <c r="E19" s="141"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3145,10 +3145,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="133" t="s">
+      <c r="B21" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="134"/>
+      <c r="C21" s="139"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3165,10 +3165,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="137" t="s">
+      <c r="B23" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="138"/>
+      <c r="C23" s="143"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3185,10 +3185,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="131" t="s">
+      <c r="B25" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="131"/>
+      <c r="C25" s="136"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3239,11 +3239,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3252,6 +3247,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4782,7 +4782,7 @@
   <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5319,9 +5319,11 @@
     </row>
     <row r="56" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="126"/>
-      <c r="C56" s="76"/>
+      <c r="C56" s="76">
+        <v>44561</v>
+      </c>
       <c r="D56" s="77">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="E56" s="127"/>
     </row>
@@ -5403,7 +5405,7 @@
       </c>
       <c r="D66" s="99">
         <f>SUM(D5:D65)</f>
-        <v>4120000</v>
+        <v>4170000</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5482,7 +5484,7 @@
       </c>
       <c r="D72" s="116">
         <f>D69+D66+D67+D68+D70+D71</f>
-        <v>-3372427.96</v>
+        <v>-3322427.96</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1006,6 +1006,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1013,36 +1043,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2976,18 +2976,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="131" t="s">
+      <c r="C3" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="131"/>
+      <c r="D3" s="141"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="137"/>
+      <c r="D4" s="132"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2997,10 +2997,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="133"/>
+      <c r="C6" s="143"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3017,10 +3017,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="134" t="s">
+      <c r="B8" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="135"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3037,10 +3037,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="134" t="s">
+      <c r="B10" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="135"/>
+      <c r="C10" s="140"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3057,10 +3057,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="134" t="s">
+      <c r="B12" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="135"/>
+      <c r="C12" s="140"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3077,10 +3077,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="134" t="s">
+      <c r="B14" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="135"/>
+      <c r="C14" s="140"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3097,10 +3097,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="138" t="s">
+      <c r="B16" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="139"/>
+      <c r="C16" s="134"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3117,14 +3117,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="138" t="s">
+      <c r="B18" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="139"/>
+      <c r="C18" s="134"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="140" t="s">
+      <c r="E18" s="135" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3134,7 +3134,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="141"/>
+      <c r="E19" s="136"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3145,10 +3145,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="138" t="s">
+      <c r="B21" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="139"/>
+      <c r="C21" s="134"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3165,10 +3165,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="142" t="s">
+      <c r="B23" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="143"/>
+      <c r="C23" s="138"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3185,10 +3185,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="136" t="s">
+      <c r="B25" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="136"/>
+      <c r="C25" s="131"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3239,6 +3239,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3247,11 +3252,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4782,7 +4782,7 @@
   <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5329,9 +5329,11 @@
     </row>
     <row r="57" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="126"/>
-      <c r="C57" s="76"/>
+      <c r="C57" s="76">
+        <v>44569</v>
+      </c>
       <c r="D57" s="77">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="E57" s="127"/>
     </row>
@@ -5405,7 +5407,7 @@
       </c>
       <c r="D66" s="99">
         <f>SUM(D5:D65)</f>
-        <v>4170000</v>
+        <v>4220000</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5484,7 +5486,7 @@
       </c>
       <c r="D72" s="116">
         <f>D69+D66+D67+D68+D70+D71</f>
-        <v>-3322427.96</v>
+        <v>-3272427.96</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1006,6 +1006,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1028,21 +1043,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2976,18 +2976,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="141" t="s">
+      <c r="C3" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="141"/>
+      <c r="D3" s="131"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="132" t="s">
+      <c r="C4" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="132"/>
+      <c r="D4" s="137"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2997,10 +2997,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="143"/>
+      <c r="C6" s="133"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3017,10 +3017,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="140"/>
+      <c r="C8" s="135"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3037,10 +3037,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="139" t="s">
+      <c r="B10" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="140"/>
+      <c r="C10" s="135"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3057,10 +3057,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="139" t="s">
+      <c r="B12" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="140"/>
+      <c r="C12" s="135"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3077,10 +3077,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="139" t="s">
+      <c r="B14" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="140"/>
+      <c r="C14" s="135"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3097,10 +3097,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="134"/>
+      <c r="C16" s="139"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3117,14 +3117,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="133" t="s">
+      <c r="B18" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="134"/>
+      <c r="C18" s="139"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="135" t="s">
+      <c r="E18" s="140" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3134,7 +3134,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="136"/>
+      <c r="E19" s="141"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3145,10 +3145,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="133" t="s">
+      <c r="B21" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="134"/>
+      <c r="C21" s="139"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3165,10 +3165,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="137" t="s">
+      <c r="B23" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="138"/>
+      <c r="C23" s="143"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3185,10 +3185,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="131" t="s">
+      <c r="B25" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="131"/>
+      <c r="C25" s="136"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3239,11 +3239,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3252,6 +3247,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4782,7 +4782,7 @@
   <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5339,9 +5339,11 @@
     </row>
     <row r="58" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="126"/>
-      <c r="C58" s="76"/>
+      <c r="C58" s="76">
+        <v>44576</v>
+      </c>
       <c r="D58" s="77">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="E58" s="127"/>
     </row>
@@ -5407,7 +5409,7 @@
       </c>
       <c r="D66" s="99">
         <f>SUM(D5:D65)</f>
-        <v>4220000</v>
+        <v>4270000</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5486,7 +5488,7 @@
       </c>
       <c r="D72" s="116">
         <f>D69+D66+D67+D68+D70+D71</f>
-        <v>-3272427.96</v>
+        <v>-3222427.96</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1006,6 +1006,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1013,36 +1043,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2976,18 +2976,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="131" t="s">
+      <c r="C3" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="131"/>
+      <c r="D3" s="141"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="137"/>
+      <c r="D4" s="132"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2997,10 +2997,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="133"/>
+      <c r="C6" s="143"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3017,10 +3017,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="134" t="s">
+      <c r="B8" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="135"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3037,10 +3037,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="134" t="s">
+      <c r="B10" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="135"/>
+      <c r="C10" s="140"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3057,10 +3057,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="134" t="s">
+      <c r="B12" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="135"/>
+      <c r="C12" s="140"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3077,10 +3077,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="134" t="s">
+      <c r="B14" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="135"/>
+      <c r="C14" s="140"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3097,10 +3097,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="138" t="s">
+      <c r="B16" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="139"/>
+      <c r="C16" s="134"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3117,14 +3117,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="138" t="s">
+      <c r="B18" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="139"/>
+      <c r="C18" s="134"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="140" t="s">
+      <c r="E18" s="135" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3134,7 +3134,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="141"/>
+      <c r="E19" s="136"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3145,10 +3145,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="138" t="s">
+      <c r="B21" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="139"/>
+      <c r="C21" s="134"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3165,10 +3165,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="142" t="s">
+      <c r="B23" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="143"/>
+      <c r="C23" s="138"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3185,10 +3185,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="136" t="s">
+      <c r="B25" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="136"/>
+      <c r="C25" s="131"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3239,6 +3239,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3247,11 +3252,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4782,7 +4782,7 @@
   <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5349,9 +5349,11 @@
     </row>
     <row r="59" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="126"/>
-      <c r="C59" s="76"/>
+      <c r="C59" s="76">
+        <v>44583</v>
+      </c>
       <c r="D59" s="77">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="E59" s="127"/>
     </row>
@@ -5409,7 +5411,7 @@
       </c>
       <c r="D66" s="99">
         <f>SUM(D5:D65)</f>
-        <v>4270000</v>
+        <v>4370000</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5488,7 +5490,7 @@
       </c>
       <c r="D72" s="116">
         <f>D69+D66+D67+D68+D70+D71</f>
-        <v>-3222427.96</v>
+        <v>-3122427.96</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1006,6 +1006,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1028,21 +1043,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2976,18 +2976,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="141" t="s">
+      <c r="C3" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="141"/>
+      <c r="D3" s="131"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="132" t="s">
+      <c r="C4" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="132"/>
+      <c r="D4" s="137"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2997,10 +2997,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="143"/>
+      <c r="C6" s="133"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3017,10 +3017,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="140"/>
+      <c r="C8" s="135"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3037,10 +3037,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="139" t="s">
+      <c r="B10" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="140"/>
+      <c r="C10" s="135"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3057,10 +3057,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="139" t="s">
+      <c r="B12" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="140"/>
+      <c r="C12" s="135"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3077,10 +3077,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="139" t="s">
+      <c r="B14" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="140"/>
+      <c r="C14" s="135"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3097,10 +3097,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="134"/>
+      <c r="C16" s="139"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3117,14 +3117,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="133" t="s">
+      <c r="B18" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="134"/>
+      <c r="C18" s="139"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="135" t="s">
+      <c r="E18" s="140" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3134,7 +3134,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="136"/>
+      <c r="E19" s="141"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3145,10 +3145,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="133" t="s">
+      <c r="B21" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="134"/>
+      <c r="C21" s="139"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3165,10 +3165,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="137" t="s">
+      <c r="B23" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="138"/>
+      <c r="C23" s="143"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3185,10 +3185,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="131" t="s">
+      <c r="B25" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="131"/>
+      <c r="C25" s="136"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3239,11 +3239,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3252,6 +3247,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4782,7 +4782,7 @@
   <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5359,9 +5359,11 @@
     </row>
     <row r="60" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="126"/>
-      <c r="C60" s="76"/>
+      <c r="C60" s="76">
+        <v>44590</v>
+      </c>
       <c r="D60" s="77">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="E60" s="127"/>
     </row>
@@ -5411,7 +5413,7 @@
       </c>
       <c r="D66" s="99">
         <f>SUM(D5:D65)</f>
-        <v>4370000</v>
+        <v>4470000</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5490,7 +5492,7 @@
       </c>
       <c r="D72" s="116">
         <f>D69+D66+D67+D68+D70+D71</f>
-        <v>-3122427.96</v>
+        <v>-3022427.96</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="74">
   <si>
     <t xml:space="preserve">PAGOS  SOBRE REMODELACION </t>
   </si>
@@ -277,6 +277,9 @@
   <si>
     <t xml:space="preserve">VALVULAS </t>
   </si>
+  <si>
+    <t>Transferencia   NLP  PANELES</t>
+  </si>
 </sst>
 </file>
 
@@ -409,7 +412,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,6 +446,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,7 +765,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1006,6 +1015,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1015,36 +1054,6 @@
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1114,6 +1123,11 @@
     <xf numFmtId="16" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1123,8 +1137,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF990000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFF66FF"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FF00FF99"/>
@@ -2976,18 +2990,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="131" t="s">
+      <c r="C3" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="131"/>
+      <c r="D3" s="141"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="137"/>
+      <c r="D4" s="132"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2997,10 +3011,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="133"/>
+      <c r="C6" s="143"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3017,10 +3031,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="134" t="s">
+      <c r="B8" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="135"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3037,10 +3051,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="134" t="s">
+      <c r="B10" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="135"/>
+      <c r="C10" s="140"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3057,10 +3071,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="134" t="s">
+      <c r="B12" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="135"/>
+      <c r="C12" s="140"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3077,10 +3091,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="134" t="s">
+      <c r="B14" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="135"/>
+      <c r="C14" s="140"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3097,10 +3111,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="138" t="s">
+      <c r="B16" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="139"/>
+      <c r="C16" s="134"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3117,14 +3131,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="138" t="s">
+      <c r="B18" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="139"/>
+      <c r="C18" s="134"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="140" t="s">
+      <c r="E18" s="135" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3134,7 +3148,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="141"/>
+      <c r="E19" s="136"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3145,10 +3159,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="138" t="s">
+      <c r="B21" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="139"/>
+      <c r="C21" s="134"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3165,10 +3179,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="142" t="s">
+      <c r="B23" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="143"/>
+      <c r="C23" s="138"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3185,10 +3199,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="136" t="s">
+      <c r="B25" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="136"/>
+      <c r="C25" s="131"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3239,6 +3253,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3247,11 +3266,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4781,8 +4795,8 @@
   </sheetPr>
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5369,11 +5383,15 @@
     </row>
     <row r="61" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="126"/>
-      <c r="C61" s="76"/>
-      <c r="D61" s="77">
-        <v>0</v>
-      </c>
-      <c r="E61" s="127"/>
+      <c r="C61" s="167">
+        <v>44594</v>
+      </c>
+      <c r="D61" s="168">
+        <v>500000</v>
+      </c>
+      <c r="E61" s="169" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="62" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="126"/>
@@ -5413,7 +5431,7 @@
       </c>
       <c r="D66" s="99">
         <f>SUM(D5:D65)</f>
-        <v>4470000</v>
+        <v>4970000</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5492,7 +5510,7 @@
       </c>
       <c r="D72" s="116">
         <f>D69+D66+D67+D68+D70+D71</f>
-        <v>-3022427.96</v>
+        <v>-2522427.96</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1006,6 +1006,11 @@
     <xf numFmtId="44" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1015,6 +1020,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1039,21 +1059,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1123,11 +1128,6 @@
     <xf numFmtId="16" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2382,17 +2382,17 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
       <c r="H3" s="50"/>
-      <c r="I3" s="128" t="s">
+      <c r="I3" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="129"/>
-      <c r="K3" s="130"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="133"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -2832,11 +2832,11 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -2990,18 +2990,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="141" t="s">
+      <c r="C3" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="141"/>
+      <c r="D3" s="134"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="132" t="s">
+      <c r="C4" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="132"/>
+      <c r="D4" s="140"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3011,10 +3011,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="143"/>
+      <c r="C6" s="136"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3031,10 +3031,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="140"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3051,10 +3051,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="139" t="s">
+      <c r="B10" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="140"/>
+      <c r="C10" s="138"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3071,10 +3071,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="139" t="s">
+      <c r="B12" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="140"/>
+      <c r="C12" s="138"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3091,10 +3091,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="139" t="s">
+      <c r="B14" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="140"/>
+      <c r="C14" s="138"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3111,10 +3111,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="134"/>
+      <c r="C16" s="142"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3131,14 +3131,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="133" t="s">
+      <c r="B18" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="134"/>
+      <c r="C18" s="142"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="135" t="s">
+      <c r="E18" s="143" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3148,7 +3148,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="136"/>
+      <c r="E19" s="144"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3159,10 +3159,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="133" t="s">
+      <c r="B21" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="134"/>
+      <c r="C21" s="142"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3179,10 +3179,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="137" t="s">
+      <c r="B23" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="138"/>
+      <c r="C23" s="146"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3199,10 +3199,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="131" t="s">
+      <c r="B25" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="131"/>
+      <c r="C25" s="139"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3253,11 +3253,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3266,6 +3261,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3304,11 +3304,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3509,11 +3509,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3698,11 +3698,11 @@
     </row>
     <row r="3" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="50"/>
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3906,9 +3906,9 @@
       <c r="B3" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4139,9 +4139,9 @@
       <c r="B3" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
     </row>
     <row r="4" spans="2:5" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4499,36 +4499,36 @@
     </row>
     <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="144" t="s">
+      <c r="B57" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="145"/>
-      <c r="D57" s="145"/>
-      <c r="E57" s="146"/>
+      <c r="C57" s="148"/>
+      <c r="D57" s="148"/>
+      <c r="E57" s="149"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="147"/>
-      <c r="C58" s="148"/>
-      <c r="D58" s="148"/>
-      <c r="E58" s="149"/>
+      <c r="B58" s="150"/>
+      <c r="C58" s="151"/>
+      <c r="D58" s="151"/>
+      <c r="E58" s="152"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="147"/>
-      <c r="C59" s="148"/>
-      <c r="D59" s="148"/>
-      <c r="E59" s="149"/>
+      <c r="B59" s="150"/>
+      <c r="C59" s="151"/>
+      <c r="D59" s="151"/>
+      <c r="E59" s="152"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="147"/>
-      <c r="C60" s="148"/>
-      <c r="D60" s="148"/>
-      <c r="E60" s="149"/>
+      <c r="B60" s="150"/>
+      <c r="C60" s="151"/>
+      <c r="D60" s="151"/>
+      <c r="E60" s="152"/>
     </row>
     <row r="61" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="150"/>
-      <c r="C61" s="151"/>
-      <c r="D61" s="151"/>
-      <c r="E61" s="152"/>
+      <c r="B61" s="153"/>
+      <c r="C61" s="154"/>
+      <c r="D61" s="154"/>
+      <c r="E61" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4573,9 +4573,9 @@
       <c r="B3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4796,7 +4796,7 @@
   <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4818,12 +4818,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="153" t="s">
+      <c r="B3" s="156" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="155"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="158"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
       <c r="I3" s="94"/>
@@ -5383,21 +5383,23 @@
     </row>
     <row r="61" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="126"/>
-      <c r="C61" s="167">
+      <c r="C61" s="128">
         <v>44594</v>
       </c>
-      <c r="D61" s="168">
+      <c r="D61" s="129">
         <v>500000</v>
       </c>
-      <c r="E61" s="169" t="s">
+      <c r="E61" s="130" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="126"/>
-      <c r="C62" s="76"/>
+      <c r="C62" s="76">
+        <v>44597</v>
+      </c>
       <c r="D62" s="77">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="E62" s="127"/>
     </row>
@@ -5431,7 +5433,7 @@
       </c>
       <c r="D66" s="99">
         <f>SUM(D5:D65)</f>
-        <v>4970000</v>
+        <v>5070000</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5472,12 +5474,12 @@
       <c r="E69" s="100">
         <v>44264</v>
       </c>
-      <c r="G69" s="156">
+      <c r="G69" s="159">
         <f>D67+D68+D69+D70</f>
         <v>-7492427.9600000009</v>
       </c>
-      <c r="H69" s="157"/>
-      <c r="I69" s="158"/>
+      <c r="H69" s="160"/>
+      <c r="I69" s="161"/>
     </row>
     <row r="70" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="110"/>
@@ -5491,9 +5493,9 @@
       <c r="E70" s="100">
         <v>44264</v>
       </c>
-      <c r="G70" s="159"/>
-      <c r="H70" s="160"/>
-      <c r="I70" s="161"/>
+      <c r="G70" s="162"/>
+      <c r="H70" s="163"/>
+      <c r="I70" s="164"/>
     </row>
     <row r="71" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="111"/>
@@ -5510,7 +5512,7 @@
       </c>
       <c r="D72" s="116">
         <f>D69+D66+D67+D68+D70+D71</f>
-        <v>-2522427.96</v>
+        <v>-2422427.96</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -5734,7 +5736,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="165" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -5744,13 +5746,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="163"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="163"/>
+      <c r="B4" s="166"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -5758,7 +5760,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="163"/>
+      <c r="B5" s="166"/>
       <c r="C5" s="47">
         <v>44380</v>
       </c>
@@ -5768,7 +5770,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="164"/>
+      <c r="B6" s="167"/>
       <c r="C6" s="36">
         <v>44396</v>
       </c>
@@ -5784,7 +5786,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="165" t="s">
+      <c r="B8" s="168" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="36">
@@ -5796,7 +5798,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="166"/>
+      <c r="B9" s="169"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1020,6 +1020,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1027,36 +1057,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1595,13 +1595,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>428624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2990,18 +2990,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="134"/>
+      <c r="D3" s="144"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="140"/>
+      <c r="D4" s="135"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3011,10 +3011,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="135" t="s">
+      <c r="B6" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="136"/>
+      <c r="C6" s="146"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3031,10 +3031,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="138"/>
+      <c r="C8" s="143"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3051,10 +3051,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="138"/>
+      <c r="C10" s="143"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3071,10 +3071,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="138"/>
+      <c r="C12" s="143"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3091,10 +3091,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="138"/>
+      <c r="C14" s="143"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3111,10 +3111,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="141" t="s">
+      <c r="B16" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="142"/>
+      <c r="C16" s="137"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3131,14 +3131,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="141" t="s">
+      <c r="B18" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="142"/>
+      <c r="C18" s="137"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="143" t="s">
+      <c r="E18" s="138" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3148,7 +3148,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="144"/>
+      <c r="E19" s="139"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3159,10 +3159,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="141" t="s">
+      <c r="B21" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="142"/>
+      <c r="C21" s="137"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3179,10 +3179,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="145" t="s">
+      <c r="B23" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="146"/>
+      <c r="C23" s="141"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3199,10 +3199,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="139" t="s">
+      <c r="B25" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="139"/>
+      <c r="C25" s="134"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3253,6 +3253,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3261,11 +3266,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4793,10 +4793,10 @@
   <sheetPr>
     <tabColor rgb="FF00FF99"/>
   </sheetPr>
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5405,130 +5405,194 @@
     </row>
     <row r="63" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="126"/>
-      <c r="C63" s="76"/>
+      <c r="C63" s="76">
+        <v>44604</v>
+      </c>
       <c r="D63" s="77">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="E63" s="127"/>
     </row>
     <row r="64" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="126"/>
       <c r="C64" s="76"/>
-      <c r="D64" s="77">
-        <v>0</v>
-      </c>
+      <c r="D64" s="77"/>
       <c r="E64" s="127"/>
     </row>
-    <row r="65" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="95"/>
-      <c r="C65" s="96"/>
-      <c r="D65" s="97">
-        <v>0</v>
-      </c>
-      <c r="E65" s="95"/>
-    </row>
-    <row r="66" spans="1:9" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C66" s="98" t="s">
+    <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B65" s="126"/>
+      <c r="C65" s="76"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="127"/>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="126"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="127"/>
+    </row>
+    <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B67" s="126"/>
+      <c r="C67" s="76"/>
+      <c r="D67" s="77"/>
+      <c r="E67" s="127"/>
+    </row>
+    <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B68" s="126"/>
+      <c r="C68" s="76"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="127"/>
+    </row>
+    <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B69" s="126"/>
+      <c r="C69" s="76"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="127"/>
+    </row>
+    <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B70" s="126"/>
+      <c r="C70" s="76"/>
+      <c r="D70" s="77"/>
+      <c r="E70" s="127"/>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B71" s="126"/>
+      <c r="C71" s="76"/>
+      <c r="D71" s="77"/>
+      <c r="E71" s="127"/>
+    </row>
+    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B72" s="126"/>
+      <c r="C72" s="76"/>
+      <c r="D72" s="77"/>
+      <c r="E72" s="127"/>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B73" s="126"/>
+      <c r="C73" s="76"/>
+      <c r="D73" s="77">
+        <v>0</v>
+      </c>
+      <c r="E73" s="127"/>
+    </row>
+    <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B74" s="126"/>
+      <c r="C74" s="76"/>
+      <c r="D74" s="77">
+        <v>0</v>
+      </c>
+      <c r="E74" s="127"/>
+    </row>
+    <row r="75" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="95"/>
+      <c r="C75" s="96"/>
+      <c r="D75" s="97">
+        <v>0</v>
+      </c>
+      <c r="E75" s="95"/>
+    </row>
+    <row r="76" spans="1:9" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C76" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="D66" s="99">
-        <f>SUM(D5:D65)</f>
-        <v>5070000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="106"/>
-      <c r="B67" s="107"/>
-      <c r="C67" s="108" t="s">
+      <c r="D76" s="99">
+        <f>SUM(D5:D75)</f>
+        <v>5170000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="106"/>
+      <c r="B77" s="107"/>
+      <c r="C77" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="D67" s="109">
+      <c r="D77" s="109">
         <v>-3644591.85</v>
       </c>
-      <c r="E67" s="102">
+      <c r="E77" s="102">
         <v>44264</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="110"/>
-      <c r="B68" s="103"/>
-      <c r="C68" s="104" t="s">
+    <row r="78" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="110"/>
+      <c r="B78" s="103"/>
+      <c r="C78" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="D68" s="105">
+      <c r="D78" s="105">
         <v>-1303474.18</v>
       </c>
-      <c r="E68" s="100">
+      <c r="E78" s="100">
         <v>44264</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="110"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="104" t="s">
+    <row r="79" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="110"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="D69" s="105">
+      <c r="D79" s="105">
         <v>-937943.41</v>
       </c>
-      <c r="E69" s="100">
+      <c r="E79" s="100">
         <v>44264</v>
       </c>
-      <c r="G69" s="159">
-        <f>D67+D68+D69+D70</f>
+      <c r="G79" s="159">
+        <f>D77+D78+D79+D80</f>
         <v>-7492427.9600000009</v>
       </c>
-      <c r="H69" s="160"/>
-      <c r="I69" s="161"/>
-    </row>
-    <row r="70" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="110"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="104" t="s">
+      <c r="H79" s="160"/>
+      <c r="I79" s="161"/>
+    </row>
+    <row r="80" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="110"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="D70" s="105">
+      <c r="D80" s="105">
         <v>-1606418.52</v>
       </c>
-      <c r="E70" s="100">
+      <c r="E80" s="100">
         <v>44264</v>
       </c>
-      <c r="G70" s="162"/>
-      <c r="H70" s="163"/>
-      <c r="I70" s="164"/>
-    </row>
-    <row r="71" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="111"/>
-      <c r="B71" s="112"/>
-      <c r="C71" s="113"/>
-      <c r="D71" s="114">
-        <v>0</v>
-      </c>
-      <c r="E71" s="101"/>
-    </row>
-    <row r="72" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C72" s="115" t="s">
+      <c r="G80" s="162"/>
+      <c r="H80" s="163"/>
+      <c r="I80" s="164"/>
+    </row>
+    <row r="81" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="111"/>
+      <c r="B81" s="112"/>
+      <c r="C81" s="113"/>
+      <c r="D81" s="114">
+        <v>0</v>
+      </c>
+      <c r="E81" s="101"/>
+    </row>
+    <row r="82" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C82" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="D72" s="116">
-        <f>D69+D66+D67+D68+D70+D71</f>
-        <v>-2422427.96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C73" s="1"/>
-      <c r="D73" s="2" t="s">
+      <c r="D82" s="116">
+        <f>D79+D76+D77+D78+D80+D81</f>
+        <v>-2322427.96</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C83" s="1"/>
+      <c r="D83" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C76" s="1"/>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C86" s="1"/>
     </row>
   </sheetData>
   <sortState ref="C34:D36">
@@ -5536,7 +5600,7 @@
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G69:I70"/>
+    <mergeCell ref="G79:I80"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.13" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1020,6 +1020,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1042,21 +1057,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2990,18 +2990,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="144" t="s">
+      <c r="C3" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="144"/>
+      <c r="D3" s="134"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="135" t="s">
+      <c r="C4" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="135"/>
+      <c r="D4" s="140"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3011,10 +3011,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="146"/>
+      <c r="C6" s="136"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3031,10 +3031,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="142" t="s">
+      <c r="B8" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="143"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3051,10 +3051,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="142" t="s">
+      <c r="B10" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="143"/>
+      <c r="C10" s="138"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3071,10 +3071,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="142" t="s">
+      <c r="B12" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="143"/>
+      <c r="C12" s="138"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3091,10 +3091,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="142" t="s">
+      <c r="B14" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="143"/>
+      <c r="C14" s="138"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3111,10 +3111,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="136" t="s">
+      <c r="B16" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="137"/>
+      <c r="C16" s="142"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3131,14 +3131,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="136" t="s">
+      <c r="B18" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="137"/>
+      <c r="C18" s="142"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="138" t="s">
+      <c r="E18" s="143" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3148,7 +3148,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="139"/>
+      <c r="E19" s="144"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3159,10 +3159,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="136" t="s">
+      <c r="B21" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="137"/>
+      <c r="C21" s="142"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3179,10 +3179,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="140" t="s">
+      <c r="B23" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="141"/>
+      <c r="C23" s="146"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3199,10 +3199,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="134" t="s">
+      <c r="B25" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="134"/>
+      <c r="C25" s="139"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3253,11 +3253,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3266,6 +3261,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4796,7 +4796,7 @@
   <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5415,8 +5415,12 @@
     </row>
     <row r="64" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="126"/>
-      <c r="C64" s="76"/>
-      <c r="D64" s="77"/>
+      <c r="C64" s="76">
+        <v>44611</v>
+      </c>
+      <c r="D64" s="77">
+        <v>100000</v>
+      </c>
       <c r="E64" s="127"/>
     </row>
     <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -5497,7 +5501,7 @@
       </c>
       <c r="D76" s="99">
         <f>SUM(D5:D75)</f>
-        <v>5170000</v>
+        <v>5270000</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5576,7 +5580,7 @@
       </c>
       <c r="D82" s="116">
         <f>D79+D76+D77+D78+D80+D81</f>
-        <v>-2322427.96</v>
+        <v>-2222427.96</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1020,6 +1020,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1027,36 +1057,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2990,18 +2990,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="134"/>
+      <c r="D3" s="144"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="140"/>
+      <c r="D4" s="135"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3011,10 +3011,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="135" t="s">
+      <c r="B6" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="136"/>
+      <c r="C6" s="146"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3031,10 +3031,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="138"/>
+      <c r="C8" s="143"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3051,10 +3051,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="138"/>
+      <c r="C10" s="143"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3071,10 +3071,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="138"/>
+      <c r="C12" s="143"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3091,10 +3091,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="138"/>
+      <c r="C14" s="143"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3111,10 +3111,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="141" t="s">
+      <c r="B16" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="142"/>
+      <c r="C16" s="137"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3131,14 +3131,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="141" t="s">
+      <c r="B18" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="142"/>
+      <c r="C18" s="137"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="143" t="s">
+      <c r="E18" s="138" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3148,7 +3148,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="144"/>
+      <c r="E19" s="139"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3159,10 +3159,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="141" t="s">
+      <c r="B21" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="142"/>
+      <c r="C21" s="137"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3179,10 +3179,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="145" t="s">
+      <c r="B23" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="146"/>
+      <c r="C23" s="141"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3199,10 +3199,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="139" t="s">
+      <c r="B25" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="139"/>
+      <c r="C25" s="134"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3253,6 +3253,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3261,11 +3266,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4796,7 +4796,7 @@
   <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5425,8 +5425,12 @@
     </row>
     <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="126"/>
-      <c r="C65" s="76"/>
-      <c r="D65" s="77"/>
+      <c r="C65" s="76">
+        <v>44618</v>
+      </c>
+      <c r="D65" s="77">
+        <v>100000</v>
+      </c>
       <c r="E65" s="127"/>
     </row>
     <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -5501,7 +5505,7 @@
       </c>
       <c r="D76" s="99">
         <f>SUM(D5:D75)</f>
-        <v>5270000</v>
+        <v>5370000</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5580,7 +5584,7 @@
       </c>
       <c r="D82" s="116">
         <f>D79+D76+D77+D78+D80+D81</f>
-        <v>-2222427.96</v>
+        <v>-2122427.96</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="18375" windowHeight="13620" firstSheet="17" activeTab="18"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="18375" windowHeight="13620" firstSheet="19" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="JARCERIAS REMODELACION " sheetId="1" r:id="rId1"/>
@@ -32,7 +32,8 @@
     <sheet name="S E N D E R O S    2  0 2 1    " sheetId="22" r:id="rId18"/>
     <sheet name="OBRA ESTAC IONAMIENTO" sheetId="18" r:id="rId19"/>
     <sheet name="AMP COMEDOR CENTRAL  " sheetId="21" r:id="rId20"/>
-    <sheet name="Hoja2" sheetId="23" r:id="rId21"/>
+    <sheet name="MARQUESINA ZAVALETA  2022" sheetId="23" r:id="rId21"/>
+    <sheet name="Hoja1" sheetId="24" r:id="rId22"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="76">
   <si>
     <t xml:space="preserve">PAGOS  SOBRE REMODELACION </t>
   </si>
@@ -279,6 +280,12 @@
   </si>
   <si>
     <t>Transferencia   NLP  PANELES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARQUESINA ZAVALETA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAGOS  SOBRE </t>
   </si>
 </sst>
 </file>
@@ -1020,6 +1027,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1042,21 +1064,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1137,12 +1144,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9933"/>
+      <color rgb="FFAC7300"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF990000"/>
       <color rgb="FFFF66FF"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FF00FF99"/>
-      <color rgb="FFAC7300"/>
       <color rgb="FFFFCCFF"/>
     </mruColors>
   </colors>
@@ -1757,6 +1765,111 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Conector recto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72494A9B-BBF5-4EB8-B861-6040A2286042}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2066925" y="3524250"/>
+          <a:ext cx="2314575" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Conector recto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F444B95D-879B-499F-B95A-EDF833681127}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2343150" y="3733801"/>
+          <a:ext cx="2200275" cy="1371599"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -2990,18 +3103,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="144" t="s">
+      <c r="C3" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="144"/>
+      <c r="D3" s="134"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="135" t="s">
+      <c r="C4" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="135"/>
+      <c r="D4" s="140"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3011,10 +3124,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="146"/>
+      <c r="C6" s="136"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3031,10 +3144,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="142" t="s">
+      <c r="B8" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="143"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3051,10 +3164,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="142" t="s">
+      <c r="B10" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="143"/>
+      <c r="C10" s="138"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3071,10 +3184,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="142" t="s">
+      <c r="B12" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="143"/>
+      <c r="C12" s="138"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3091,10 +3204,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="142" t="s">
+      <c r="B14" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="143"/>
+      <c r="C14" s="138"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3111,10 +3224,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="136" t="s">
+      <c r="B16" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="137"/>
+      <c r="C16" s="142"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3131,14 +3244,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="136" t="s">
+      <c r="B18" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="137"/>
+      <c r="C18" s="142"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="138" t="s">
+      <c r="E18" s="143" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3148,7 +3261,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="139"/>
+      <c r="E19" s="144"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3159,10 +3272,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="136" t="s">
+      <c r="B21" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="137"/>
+      <c r="C21" s="142"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3179,10 +3292,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="140" t="s">
+      <c r="B23" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="141"/>
+      <c r="C23" s="146"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3199,10 +3312,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="134" t="s">
+      <c r="B25" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="134"/>
+      <c r="C25" s="139"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3253,11 +3366,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3266,6 +3374,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4795,7 +4908,7 @@
   </sheetPr>
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+    <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
@@ -5795,7 +5908,7 @@
   <dimension ref="B1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B8" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6050,6 +6163,259 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF9933"/>
+  </sheetPr>
+  <dimension ref="B1:E41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="165" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="166"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
+    </row>
+    <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="166"/>
+      <c r="C4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="166"/>
+      <c r="C5" s="47">
+        <v>44621</v>
+      </c>
+      <c r="D5" s="28">
+        <v>53000</v>
+      </c>
+      <c r="E5" s="28"/>
+    </row>
+    <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="167"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37">
+        <v>0</v>
+      </c>
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="31"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="41"/>
+    </row>
+    <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="168"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37">
+        <v>0</v>
+      </c>
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="169"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="75"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="75"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="27"/>
+    </row>
+    <row r="12" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="25">
+        <f>SUM(D5:D12)</f>
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B14" s="64"/>
+      <c r="C14" s="121" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="49">
+        <v>-105965</v>
+      </c>
+      <c r="E14" s="6">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="49">
+        <v>0</v>
+      </c>
+      <c r="E15" s="124"/>
+    </row>
+    <row r="16" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="84"/>
+      <c r="D16" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="34">
+        <f>D16+D13+D14+D15</f>
+        <v>-52965</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="D18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="2:5" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C21" s="1"/>
+      <c r="D21" s="117" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="118"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="118"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="118"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="118"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="118"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="118"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="118"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="118"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="120"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="120"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="120"/>
+      <c r="C34" s="120"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="120"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="120"/>
+      <c r="C35" s="120"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="120"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="120"/>
+      <c r="C36" s="120"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="120"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="120"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="120"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="118"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="119"/>
+      <c r="E38" s="118"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="118"/>
+      <c r="C39" s="118"/>
+      <c r="D39" s="119"/>
+      <c r="E39" s="118"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="118"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="119"/>
+      <c r="E40" s="118"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="118"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="119"/>
+      <c r="E41" s="118"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B8:B9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="18375" windowHeight="13620" firstSheet="19" activeTab="20"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="18375" windowHeight="13620" firstSheet="17" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="JARCERIAS REMODELACION " sheetId="1" r:id="rId1"/>
@@ -1027,6 +1027,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1034,36 +1064,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3103,18 +3103,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="134"/>
+      <c r="D3" s="144"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="140"/>
+      <c r="D4" s="135"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3124,10 +3124,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="135" t="s">
+      <c r="B6" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="136"/>
+      <c r="C6" s="146"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3144,10 +3144,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="138"/>
+      <c r="C8" s="143"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3164,10 +3164,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="138"/>
+      <c r="C10" s="143"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3184,10 +3184,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="138"/>
+      <c r="C12" s="143"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3204,10 +3204,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="138"/>
+      <c r="C14" s="143"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3224,10 +3224,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="141" t="s">
+      <c r="B16" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="142"/>
+      <c r="C16" s="137"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3244,14 +3244,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="141" t="s">
+      <c r="B18" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="142"/>
+      <c r="C18" s="137"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="143" t="s">
+      <c r="E18" s="138" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="144"/>
+      <c r="E19" s="139"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3272,10 +3272,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="141" t="s">
+      <c r="B21" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="142"/>
+      <c r="C21" s="137"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3292,10 +3292,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="145" t="s">
+      <c r="B23" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="146"/>
+      <c r="C23" s="141"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3312,10 +3312,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="139" t="s">
+      <c r="B25" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="139"/>
+      <c r="C25" s="134"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3366,6 +3366,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3374,11 +3379,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4908,8 +4908,8 @@
   </sheetPr>
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5548,8 +5548,12 @@
     </row>
     <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="126"/>
-      <c r="C66" s="76"/>
-      <c r="D66" s="77"/>
+      <c r="C66" s="76">
+        <v>44625</v>
+      </c>
+      <c r="D66" s="77">
+        <v>100000</v>
+      </c>
       <c r="E66" s="127"/>
     </row>
     <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -5618,7 +5622,7 @@
       </c>
       <c r="D76" s="99">
         <f>SUM(D5:D75)</f>
-        <v>5370000</v>
+        <v>5470000</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5697,7 +5701,7 @@
       </c>
       <c r="D82" s="116">
         <f>D79+D76+D77+D78+D80+D81</f>
-        <v>-2122427.96</v>
+        <v>-2022427.9600000002</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -6169,7 +6173,7 @@
   </sheetPr>
   <dimension ref="B1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1027,6 +1027,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1049,21 +1064,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3103,18 +3103,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="144" t="s">
+      <c r="C3" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="144"/>
+      <c r="D3" s="134"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="135" t="s">
+      <c r="C4" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="135"/>
+      <c r="D4" s="140"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3124,10 +3124,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="146"/>
+      <c r="C6" s="136"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3144,10 +3144,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="142" t="s">
+      <c r="B8" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="143"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3164,10 +3164,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="142" t="s">
+      <c r="B10" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="143"/>
+      <c r="C10" s="138"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3184,10 +3184,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="142" t="s">
+      <c r="B12" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="143"/>
+      <c r="C12" s="138"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3204,10 +3204,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="142" t="s">
+      <c r="B14" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="143"/>
+      <c r="C14" s="138"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3224,10 +3224,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="136" t="s">
+      <c r="B16" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="137"/>
+      <c r="C16" s="142"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3244,14 +3244,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="136" t="s">
+      <c r="B18" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="137"/>
+      <c r="C18" s="142"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="138" t="s">
+      <c r="E18" s="143" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="139"/>
+      <c r="E19" s="144"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3272,10 +3272,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="136" t="s">
+      <c r="B21" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="137"/>
+      <c r="C21" s="142"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3292,10 +3292,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="140" t="s">
+      <c r="B23" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="141"/>
+      <c r="C23" s="146"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3312,10 +3312,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="134" t="s">
+      <c r="B25" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="134"/>
+      <c r="C25" s="139"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3366,11 +3366,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3379,6 +3374,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4909,7 +4909,7 @@
   <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5558,8 +5558,12 @@
     </row>
     <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="126"/>
-      <c r="C67" s="76"/>
-      <c r="D67" s="77"/>
+      <c r="C67" s="76">
+        <v>44632</v>
+      </c>
+      <c r="D67" s="77">
+        <v>100000</v>
+      </c>
       <c r="E67" s="127"/>
     </row>
     <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -5622,7 +5626,7 @@
       </c>
       <c r="D76" s="99">
         <f>SUM(D5:D75)</f>
-        <v>5470000</v>
+        <v>5570000</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5701,7 +5705,7 @@
       </c>
       <c r="D82" s="116">
         <f>D79+D76+D77+D78+D80+D81</f>
-        <v>-2022427.9600000002</v>
+        <v>-1922427.9600000002</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1027,6 +1027,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1034,36 +1064,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3103,18 +3103,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="134"/>
+      <c r="D3" s="144"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="140"/>
+      <c r="D4" s="135"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3124,10 +3124,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="135" t="s">
+      <c r="B6" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="136"/>
+      <c r="C6" s="146"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3144,10 +3144,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="138"/>
+      <c r="C8" s="143"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3164,10 +3164,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="138"/>
+      <c r="C10" s="143"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3184,10 +3184,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="138"/>
+      <c r="C12" s="143"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3204,10 +3204,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="138"/>
+      <c r="C14" s="143"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3224,10 +3224,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="141" t="s">
+      <c r="B16" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="142"/>
+      <c r="C16" s="137"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3244,14 +3244,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="141" t="s">
+      <c r="B18" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="142"/>
+      <c r="C18" s="137"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="143" t="s">
+      <c r="E18" s="138" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="144"/>
+      <c r="E19" s="139"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3272,10 +3272,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="141" t="s">
+      <c r="B21" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="142"/>
+      <c r="C21" s="137"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3292,10 +3292,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="145" t="s">
+      <c r="B23" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="146"/>
+      <c r="C23" s="141"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3312,10 +3312,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="139" t="s">
+      <c r="B25" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="139"/>
+      <c r="C25" s="134"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3366,6 +3366,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3374,11 +3379,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4908,8 +4908,8 @@
   </sheetPr>
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5568,14 +5568,22 @@
     </row>
     <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="126"/>
-      <c r="C68" s="76"/>
-      <c r="D68" s="77"/>
+      <c r="C68" s="76">
+        <v>44639</v>
+      </c>
+      <c r="D68" s="77">
+        <v>100000</v>
+      </c>
       <c r="E68" s="127"/>
     </row>
     <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="126"/>
-      <c r="C69" s="76"/>
-      <c r="D69" s="77"/>
+      <c r="C69" s="76">
+        <v>44646</v>
+      </c>
+      <c r="D69" s="77">
+        <v>100000</v>
+      </c>
       <c r="E69" s="127"/>
     </row>
     <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -5626,7 +5634,7 @@
       </c>
       <c r="D76" s="99">
         <f>SUM(D5:D75)</f>
-        <v>5570000</v>
+        <v>5770000</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5705,7 +5713,7 @@
       </c>
       <c r="D82" s="116">
         <f>D79+D76+D77+D78+D80+D81</f>
-        <v>-1922427.9600000002</v>
+        <v>-1722427.9600000002</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1027,6 +1027,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1049,21 +1064,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3103,18 +3103,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="144" t="s">
+      <c r="C3" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="144"/>
+      <c r="D3" s="134"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="135" t="s">
+      <c r="C4" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="135"/>
+      <c r="D4" s="140"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3124,10 +3124,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="146"/>
+      <c r="C6" s="136"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3144,10 +3144,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="142" t="s">
+      <c r="B8" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="143"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3164,10 +3164,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="142" t="s">
+      <c r="B10" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="143"/>
+      <c r="C10" s="138"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3184,10 +3184,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="142" t="s">
+      <c r="B12" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="143"/>
+      <c r="C12" s="138"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3204,10 +3204,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="142" t="s">
+      <c r="B14" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="143"/>
+      <c r="C14" s="138"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3224,10 +3224,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="136" t="s">
+      <c r="B16" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="137"/>
+      <c r="C16" s="142"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3244,14 +3244,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="136" t="s">
+      <c r="B18" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="137"/>
+      <c r="C18" s="142"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="138" t="s">
+      <c r="E18" s="143" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="139"/>
+      <c r="E19" s="144"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3272,10 +3272,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="136" t="s">
+      <c r="B21" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="137"/>
+      <c r="C21" s="142"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3292,10 +3292,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="140" t="s">
+      <c r="B23" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="141"/>
+      <c r="C23" s="146"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3312,10 +3312,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="134" t="s">
+      <c r="B25" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="134"/>
+      <c r="C25" s="139"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3366,11 +3366,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3379,6 +3374,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4909,7 +4909,7 @@
   <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5588,8 +5588,12 @@
     </row>
     <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="126"/>
-      <c r="C70" s="76"/>
-      <c r="D70" s="77"/>
+      <c r="C70" s="76">
+        <v>44653</v>
+      </c>
+      <c r="D70" s="77">
+        <v>100000</v>
+      </c>
       <c r="E70" s="127"/>
     </row>
     <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -5634,7 +5638,7 @@
       </c>
       <c r="D76" s="99">
         <f>SUM(D5:D75)</f>
-        <v>5770000</v>
+        <v>5870000</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5713,7 +5717,7 @@
       </c>
       <c r="D82" s="116">
         <f>D79+D76+D77+D78+D80+D81</f>
-        <v>-1722427.9600000002</v>
+        <v>-1622427.9600000002</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="18375" windowHeight="13620" firstSheet="17" activeTab="18"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="18375" windowHeight="13620" firstSheet="19" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="JARCERIAS REMODELACION " sheetId="1" r:id="rId1"/>
@@ -1027,6 +1027,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1034,36 +1064,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3103,18 +3103,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="134"/>
+      <c r="D3" s="144"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="140"/>
+      <c r="D4" s="135"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3124,10 +3124,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="135" t="s">
+      <c r="B6" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="136"/>
+      <c r="C6" s="146"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3144,10 +3144,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="138"/>
+      <c r="C8" s="143"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3164,10 +3164,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="138"/>
+      <c r="C10" s="143"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3184,10 +3184,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="138"/>
+      <c r="C12" s="143"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3204,10 +3204,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="138"/>
+      <c r="C14" s="143"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3224,10 +3224,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="141" t="s">
+      <c r="B16" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="142"/>
+      <c r="C16" s="137"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3244,14 +3244,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="141" t="s">
+      <c r="B18" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="142"/>
+      <c r="C18" s="137"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="143" t="s">
+      <c r="E18" s="138" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="144"/>
+      <c r="E19" s="139"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3272,10 +3272,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="141" t="s">
+      <c r="B21" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="142"/>
+      <c r="C21" s="137"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3292,10 +3292,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="145" t="s">
+      <c r="B23" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="146"/>
+      <c r="C23" s="141"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3312,10 +3312,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="139" t="s">
+      <c r="B25" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="139"/>
+      <c r="C25" s="134"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3366,6 +3366,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3374,11 +3379,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4908,7 +4908,7 @@
   </sheetPr>
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+    <sheetView topLeftCell="A63" workbookViewId="0">
       <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
@@ -6189,8 +6189,8 @@
   </sheetPr>
   <dimension ref="B1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6238,9 +6238,11 @@
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="167"/>
-      <c r="C6" s="36"/>
+      <c r="C6" s="36">
+        <v>44656</v>
+      </c>
       <c r="D6" s="37">
-        <v>0</v>
+        <v>52965</v>
       </c>
       <c r="E6" s="27"/>
     </row>
@@ -6290,7 +6292,7 @@
       </c>
       <c r="D13" s="25">
         <f>SUM(D5:D12)</f>
-        <v>53000</v>
+        <v>105965</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -6325,7 +6327,7 @@
       </c>
       <c r="D17" s="34">
         <f>D16+D13+D14+D15</f>
-        <v>-52965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="18375" windowHeight="13620" firstSheet="19" activeTab="20"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="18375" windowHeight="13620" firstSheet="18" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="JARCERIAS REMODELACION " sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="77">
   <si>
     <t xml:space="preserve">PAGOS  SOBRE REMODELACION </t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t xml:space="preserve">PAGOS  SOBRE </t>
+  </si>
+  <si>
+    <t>Transferencia PANELES</t>
   </si>
 </sst>
 </file>
@@ -1027,6 +1030,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1049,21 +1067,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1144,9 +1147,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFFF9933"/>
       <color rgb="FFAC7300"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FF990000"/>
       <color rgb="FFFF66FF"/>
       <color rgb="FF00FFFF"/>
@@ -3103,18 +3106,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="144" t="s">
+      <c r="C3" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="144"/>
+      <c r="D3" s="134"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="135" t="s">
+      <c r="C4" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="135"/>
+      <c r="D4" s="140"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3124,10 +3127,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="146"/>
+      <c r="C6" s="136"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3144,10 +3147,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="142" t="s">
+      <c r="B8" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="143"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3164,10 +3167,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="142" t="s">
+      <c r="B10" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="143"/>
+      <c r="C10" s="138"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3184,10 +3187,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="142" t="s">
+      <c r="B12" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="143"/>
+      <c r="C12" s="138"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3204,10 +3207,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="142" t="s">
+      <c r="B14" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="143"/>
+      <c r="C14" s="138"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3224,10 +3227,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="136" t="s">
+      <c r="B16" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="137"/>
+      <c r="C16" s="142"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3244,14 +3247,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="136" t="s">
+      <c r="B18" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="137"/>
+      <c r="C18" s="142"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="138" t="s">
+      <c r="E18" s="143" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3261,7 +3264,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="139"/>
+      <c r="E19" s="144"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3272,10 +3275,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="136" t="s">
+      <c r="B21" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="137"/>
+      <c r="C21" s="142"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3292,10 +3295,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="140" t="s">
+      <c r="B23" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="141"/>
+      <c r="C23" s="146"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3312,10 +3315,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="134" t="s">
+      <c r="B25" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="134"/>
+      <c r="C25" s="139"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3366,11 +3369,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3379,6 +3377,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4908,8 +4911,8 @@
   </sheetPr>
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5598,9 +5601,15 @@
     </row>
     <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B71" s="126"/>
-      <c r="C71" s="76"/>
-      <c r="D71" s="77"/>
-      <c r="E71" s="127"/>
+      <c r="C71" s="76">
+        <v>44659</v>
+      </c>
+      <c r="D71" s="77">
+        <v>350000</v>
+      </c>
+      <c r="E71" s="130" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B72" s="126"/>
@@ -5638,7 +5647,7 @@
       </c>
       <c r="D76" s="99">
         <f>SUM(D5:D75)</f>
-        <v>5870000</v>
+        <v>6220000</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5717,7 +5726,7 @@
       </c>
       <c r="D82" s="116">
         <f>D79+D76+D77+D78+D80+D81</f>
-        <v>-1622427.9600000002</v>
+        <v>-1272427.9600000002</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -6189,7 +6198,7 @@
   </sheetPr>
   <dimension ref="B1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1030,6 +1030,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1037,36 +1067,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3106,18 +3106,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="134"/>
+      <c r="D3" s="144"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="140"/>
+      <c r="D4" s="135"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3127,10 +3127,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="135" t="s">
+      <c r="B6" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="136"/>
+      <c r="C6" s="146"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3147,10 +3147,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="138"/>
+      <c r="C8" s="143"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3167,10 +3167,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="138"/>
+      <c r="C10" s="143"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3187,10 +3187,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="138"/>
+      <c r="C12" s="143"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3207,10 +3207,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="138"/>
+      <c r="C14" s="143"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3227,10 +3227,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="141" t="s">
+      <c r="B16" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="142"/>
+      <c r="C16" s="137"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3247,14 +3247,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="141" t="s">
+      <c r="B18" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="142"/>
+      <c r="C18" s="137"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="143" t="s">
+      <c r="E18" s="138" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3264,7 +3264,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="144"/>
+      <c r="E19" s="139"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3275,10 +3275,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="141" t="s">
+      <c r="B21" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="142"/>
+      <c r="C21" s="137"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3295,10 +3295,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="145" t="s">
+      <c r="B23" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="146"/>
+      <c r="C23" s="141"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3315,10 +3315,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="139" t="s">
+      <c r="B25" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="139"/>
+      <c r="C25" s="134"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3369,6 +3369,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3377,11 +3382,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4911,8 +4911,8 @@
   </sheetPr>
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5613,8 +5613,12 @@
     </row>
     <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B72" s="126"/>
-      <c r="C72" s="76"/>
-      <c r="D72" s="77"/>
+      <c r="C72" s="76">
+        <v>44660</v>
+      </c>
+      <c r="D72" s="77">
+        <v>100000</v>
+      </c>
       <c r="E72" s="127"/>
     </row>
     <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -5647,7 +5651,7 @@
       </c>
       <c r="D76" s="99">
         <f>SUM(D5:D75)</f>
-        <v>6220000</v>
+        <v>6320000</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5726,7 +5730,7 @@
       </c>
       <c r="D82" s="116">
         <f>D79+D76+D77+D78+D80+D81</f>
-        <v>-1272427.9600000002</v>
+        <v>-1172427.9600000002</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="78">
   <si>
     <t xml:space="preserve">PAGOS  SOBRE REMODELACION </t>
   </si>
@@ -290,6 +290,9 @@
   <si>
     <t>Transferencia PANELES</t>
   </si>
+  <si>
+    <t>DRENAJE</t>
+  </si>
 </sst>
 </file>
 
@@ -301,7 +304,7 @@
     <numFmt numFmtId="165" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,6 +419,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF990000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color rgb="FF990000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -775,7 +786,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1030,6 +1041,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1054,21 +1080,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1138,6 +1149,7 @@
     <xf numFmtId="16" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1147,10 +1159,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF990000"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFFF9933"/>
       <color rgb="FFAC7300"/>
-      <color rgb="FF990000"/>
       <color rgb="FFFF66FF"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FF00FF99"/>
@@ -3106,18 +3118,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="144" t="s">
+      <c r="C3" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="144"/>
+      <c r="D3" s="134"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="135" t="s">
+      <c r="C4" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="135"/>
+      <c r="D4" s="140"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3127,10 +3139,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="146"/>
+      <c r="C6" s="136"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3147,10 +3159,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="142" t="s">
+      <c r="B8" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="143"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3167,10 +3179,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="142" t="s">
+      <c r="B10" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="143"/>
+      <c r="C10" s="138"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3187,10 +3199,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="142" t="s">
+      <c r="B12" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="143"/>
+      <c r="C12" s="138"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3207,10 +3219,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="142" t="s">
+      <c r="B14" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="143"/>
+      <c r="C14" s="138"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3227,10 +3239,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="136" t="s">
+      <c r="B16" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="137"/>
+      <c r="C16" s="142"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3247,14 +3259,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="136" t="s">
+      <c r="B18" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="137"/>
+      <c r="C18" s="142"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="138" t="s">
+      <c r="E18" s="143" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3264,7 +3276,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="139"/>
+      <c r="E19" s="144"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3275,10 +3287,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="136" t="s">
+      <c r="B21" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="137"/>
+      <c r="C21" s="142"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3295,10 +3307,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="140" t="s">
+      <c r="B23" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="141"/>
+      <c r="C23" s="146"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3315,10 +3327,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="134" t="s">
+      <c r="B25" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="134"/>
+      <c r="C25" s="139"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3369,11 +3381,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3382,6 +3389,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4912,7 +4924,7 @@
   <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5621,13 +5633,17 @@
       </c>
       <c r="E72" s="127"/>
     </row>
-    <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B73" s="126"/>
-      <c r="C73" s="76"/>
+      <c r="C73" s="76">
+        <v>44663</v>
+      </c>
       <c r="D73" s="77">
-        <v>0</v>
-      </c>
-      <c r="E73" s="127"/>
+        <v>100000</v>
+      </c>
+      <c r="E73" s="170" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B74" s="126"/>
@@ -5651,7 +5667,7 @@
       </c>
       <c r="D76" s="99">
         <f>SUM(D5:D75)</f>
-        <v>6320000</v>
+        <v>6420000</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5730,7 +5746,7 @@
       </c>
       <c r="D82" s="116">
         <f>D79+D76+D77+D78+D80+D81</f>
-        <v>-1172427.9600000002</v>
+        <v>-1072427.9600000002</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1032,6 +1032,7 @@
     </xf>
     <xf numFmtId="44" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1041,6 +1042,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1050,36 +1081,6 @@
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1149,7 +1150,6 @@
     <xf numFmtId="16" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2510,17 +2510,17 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="131" t="s">
+      <c r="C3" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="132"/>
-      <c r="E3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="134"/>
       <c r="H3" s="50"/>
-      <c r="I3" s="131" t="s">
+      <c r="I3" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="132"/>
-      <c r="K3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="134"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -2960,11 +2960,11 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="131" t="s">
+      <c r="C3" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="132"/>
-      <c r="E3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="134"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3118,18 +3118,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="134"/>
+      <c r="D3" s="145"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="140"/>
+      <c r="D4" s="136"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3139,10 +3139,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="135" t="s">
+      <c r="B6" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="136"/>
+      <c r="C6" s="147"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3159,10 +3159,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="138"/>
+      <c r="C8" s="144"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3179,10 +3179,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="138"/>
+      <c r="C10" s="144"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3199,10 +3199,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="138"/>
+      <c r="C12" s="144"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3219,10 +3219,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="138"/>
+      <c r="C14" s="144"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3239,10 +3239,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="141" t="s">
+      <c r="B16" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="142"/>
+      <c r="C16" s="138"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3259,14 +3259,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="141" t="s">
+      <c r="B18" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="142"/>
+      <c r="C18" s="138"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="143" t="s">
+      <c r="E18" s="139" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="144"/>
+      <c r="E19" s="140"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3287,10 +3287,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="141" t="s">
+      <c r="B21" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="142"/>
+      <c r="C21" s="138"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3307,10 +3307,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="145" t="s">
+      <c r="B23" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="146"/>
+      <c r="C23" s="142"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3327,10 +3327,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="139" t="s">
+      <c r="B25" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="139"/>
+      <c r="C25" s="135"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3381,6 +3381,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3389,11 +3394,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3432,11 +3432,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="131" t="s">
+      <c r="C3" s="132" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="132"/>
-      <c r="E3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="134"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3637,11 +3637,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="131" t="s">
+      <c r="C3" s="132" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="132"/>
-      <c r="E3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="134"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3826,11 +3826,11 @@
     </row>
     <row r="3" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="50"/>
-      <c r="C3" s="131" t="s">
+      <c r="C3" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="132"/>
-      <c r="E3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="134"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4034,9 +4034,9 @@
       <c r="B3" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="133"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="134"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4267,9 +4267,9 @@
       <c r="B3" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="133"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="134"/>
     </row>
     <row r="4" spans="2:5" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4627,36 +4627,36 @@
     </row>
     <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="147" t="s">
+      <c r="B57" s="148" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="148"/>
-      <c r="D57" s="148"/>
-      <c r="E57" s="149"/>
+      <c r="C57" s="149"/>
+      <c r="D57" s="149"/>
+      <c r="E57" s="150"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="150"/>
-      <c r="C58" s="151"/>
-      <c r="D58" s="151"/>
-      <c r="E58" s="152"/>
+      <c r="B58" s="151"/>
+      <c r="C58" s="152"/>
+      <c r="D58" s="152"/>
+      <c r="E58" s="153"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="150"/>
-      <c r="C59" s="151"/>
-      <c r="D59" s="151"/>
-      <c r="E59" s="152"/>
+      <c r="B59" s="151"/>
+      <c r="C59" s="152"/>
+      <c r="D59" s="152"/>
+      <c r="E59" s="153"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="150"/>
-      <c r="C60" s="151"/>
-      <c r="D60" s="151"/>
-      <c r="E60" s="152"/>
+      <c r="B60" s="151"/>
+      <c r="C60" s="152"/>
+      <c r="D60" s="152"/>
+      <c r="E60" s="153"/>
     </row>
     <row r="61" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="153"/>
-      <c r="C61" s="154"/>
-      <c r="D61" s="154"/>
-      <c r="E61" s="155"/>
+      <c r="B61" s="154"/>
+      <c r="C61" s="155"/>
+      <c r="D61" s="155"/>
+      <c r="E61" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4701,9 +4701,9 @@
       <c r="B3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="133"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="134"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4924,7 +4924,7 @@
   <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4946,12 +4946,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="157" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="159"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
       <c r="I3" s="94"/>
@@ -5641,15 +5641,17 @@
       <c r="D73" s="77">
         <v>100000</v>
       </c>
-      <c r="E73" s="170" t="s">
+      <c r="E73" s="131" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B74" s="126"/>
-      <c r="C74" s="76"/>
+      <c r="C74" s="76">
+        <v>44667</v>
+      </c>
       <c r="D74" s="77">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="E74" s="127"/>
     </row>
@@ -5667,7 +5669,7 @@
       </c>
       <c r="D76" s="99">
         <f>SUM(D5:D75)</f>
-        <v>6420000</v>
+        <v>6520000</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5708,12 +5710,12 @@
       <c r="E79" s="100">
         <v>44264</v>
       </c>
-      <c r="G79" s="159">
+      <c r="G79" s="160">
         <f>D77+D78+D79+D80</f>
         <v>-7492427.9600000009</v>
       </c>
-      <c r="H79" s="160"/>
-      <c r="I79" s="161"/>
+      <c r="H79" s="161"/>
+      <c r="I79" s="162"/>
     </row>
     <row r="80" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="110"/>
@@ -5727,9 +5729,9 @@
       <c r="E80" s="100">
         <v>44264</v>
       </c>
-      <c r="G80" s="162"/>
-      <c r="H80" s="163"/>
-      <c r="I80" s="164"/>
+      <c r="G80" s="163"/>
+      <c r="H80" s="164"/>
+      <c r="I80" s="165"/>
     </row>
     <row r="81" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="111"/>
@@ -5746,7 +5748,7 @@
       </c>
       <c r="D82" s="116">
         <f>D79+D76+D77+D78+D80+D81</f>
-        <v>-1072427.9600000002</v>
+        <v>-972427.9600000002</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -5970,7 +5972,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="166" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -5980,13 +5982,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="166"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="133"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="134"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="166"/>
+      <c r="B4" s="167"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -5994,7 +5996,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="166"/>
+      <c r="B5" s="167"/>
       <c r="C5" s="47">
         <v>44380</v>
       </c>
@@ -6004,7 +6006,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="167"/>
+      <c r="B6" s="168"/>
       <c r="C6" s="36">
         <v>44396</v>
       </c>
@@ -6020,7 +6022,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="168" t="s">
+      <c r="B8" s="169" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="36">
@@ -6032,7 +6034,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="169"/>
+      <c r="B9" s="170"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -6232,7 +6234,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="166" t="s">
         <v>74</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -6242,13 +6244,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="166"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="133"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="134"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="166"/>
+      <c r="B4" s="167"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6256,7 +6258,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="166"/>
+      <c r="B5" s="167"/>
       <c r="C5" s="47">
         <v>44621</v>
       </c>
@@ -6266,7 +6268,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="167"/>
+      <c r="B6" s="168"/>
       <c r="C6" s="36">
         <v>44656</v>
       </c>
@@ -6282,7 +6284,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="168"/>
+      <c r="B8" s="169"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37">
         <v>0</v>
@@ -6290,7 +6292,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="169"/>
+      <c r="B9" s="170"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1042,6 +1042,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1064,21 +1079,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1618,13 +1618,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>428624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3118,18 +3118,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="145" t="s">
+      <c r="C3" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="145"/>
+      <c r="D3" s="135"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="136" t="s">
+      <c r="C4" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="136"/>
+      <c r="D4" s="141"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3139,10 +3139,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="147"/>
+      <c r="C6" s="137"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3159,10 +3159,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="143" t="s">
+      <c r="B8" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="144"/>
+      <c r="C8" s="139"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3179,10 +3179,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="143" t="s">
+      <c r="B10" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="144"/>
+      <c r="C10" s="139"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3199,10 +3199,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="143" t="s">
+      <c r="B12" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="144"/>
+      <c r="C12" s="139"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3219,10 +3219,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="143" t="s">
+      <c r="B14" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="144"/>
+      <c r="C14" s="139"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3239,10 +3239,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="137" t="s">
+      <c r="B16" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="138"/>
+      <c r="C16" s="143"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3259,14 +3259,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="137" t="s">
+      <c r="B18" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="138"/>
+      <c r="C18" s="143"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="139" t="s">
+      <c r="E18" s="144" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="140"/>
+      <c r="E19" s="145"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3287,10 +3287,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="137" t="s">
+      <c r="B21" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="138"/>
+      <c r="C21" s="143"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3307,10 +3307,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="141" t="s">
+      <c r="B23" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="142"/>
+      <c r="C23" s="147"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3327,10 +3327,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="135" t="s">
+      <c r="B25" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="135"/>
+      <c r="C25" s="140"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3381,11 +3381,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3394,6 +3389,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4921,10 +4921,10 @@
   <sheetPr>
     <tabColor rgb="FF00FF99"/>
   </sheetPr>
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5551,7 +5551,7 @@
       </c>
       <c r="E64" s="127"/>
     </row>
-    <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="126"/>
       <c r="C65" s="76">
         <v>44618</v>
@@ -5561,7 +5561,7 @@
       </c>
       <c r="E65" s="127"/>
     </row>
-    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="126"/>
       <c r="C66" s="76">
         <v>44625</v>
@@ -5571,7 +5571,7 @@
       </c>
       <c r="E66" s="127"/>
     </row>
-    <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="126"/>
       <c r="C67" s="76">
         <v>44632</v>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="E67" s="127"/>
     </row>
-    <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="126"/>
       <c r="C68" s="76">
         <v>44639</v>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="E68" s="127"/>
     </row>
-    <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="126"/>
       <c r="C69" s="76">
         <v>44646</v>
@@ -5601,7 +5601,7 @@
       </c>
       <c r="E69" s="127"/>
     </row>
-    <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="126"/>
       <c r="C70" s="76">
         <v>44653</v>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="E70" s="127"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B71" s="126"/>
       <c r="C71" s="76">
         <v>44659</v>
@@ -5623,7 +5623,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B72" s="126"/>
       <c r="C72" s="76">
         <v>44660</v>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="E72" s="127"/>
     </row>
-    <row r="73" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B73" s="126"/>
       <c r="C73" s="76">
         <v>44663</v>
@@ -5645,7 +5645,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B74" s="126"/>
       <c r="C74" s="76">
         <v>44667</v>
@@ -5655,116 +5655,160 @@
       </c>
       <c r="E74" s="127"/>
     </row>
-    <row r="75" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="95"/>
-      <c r="C75" s="96"/>
-      <c r="D75" s="97">
-        <v>0</v>
-      </c>
-      <c r="E75" s="95"/>
-    </row>
-    <row r="76" spans="1:9" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C76" s="98" t="s">
+    <row r="75" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B75" s="126"/>
+      <c r="C75" s="76">
+        <v>44674</v>
+      </c>
+      <c r="D75" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E75" s="127"/>
+    </row>
+    <row r="76" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B76" s="126"/>
+      <c r="C76" s="76">
+        <v>44681</v>
+      </c>
+      <c r="D76" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E76" s="127"/>
+    </row>
+    <row r="77" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B77" s="126"/>
+      <c r="C77" s="76"/>
+      <c r="D77" s="77"/>
+      <c r="E77" s="127"/>
+    </row>
+    <row r="78" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B78" s="126"/>
+      <c r="C78" s="76"/>
+      <c r="D78" s="77"/>
+      <c r="E78" s="127"/>
+    </row>
+    <row r="79" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B79" s="126"/>
+      <c r="C79" s="76"/>
+      <c r="D79" s="77"/>
+      <c r="E79" s="127"/>
+    </row>
+    <row r="80" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B80" s="126"/>
+      <c r="C80" s="76"/>
+      <c r="D80" s="77"/>
+      <c r="E80" s="127"/>
+    </row>
+    <row r="81" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="95"/>
+      <c r="C81" s="96"/>
+      <c r="D81" s="97">
+        <v>0</v>
+      </c>
+      <c r="E81" s="95"/>
+    </row>
+    <row r="82" spans="1:9" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C82" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="D76" s="99">
-        <f>SUM(D5:D75)</f>
-        <v>6520000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="106"/>
-      <c r="B77" s="107"/>
-      <c r="C77" s="108" t="s">
+      <c r="D82" s="99">
+        <f>SUM(D5:D81)</f>
+        <v>6720000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="106"/>
+      <c r="B83" s="107"/>
+      <c r="C83" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="D77" s="109">
+      <c r="D83" s="109">
         <v>-3644591.85</v>
       </c>
-      <c r="E77" s="102">
+      <c r="E83" s="102">
         <v>44264</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="110"/>
-      <c r="B78" s="103"/>
-      <c r="C78" s="104" t="s">
+    <row r="84" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="110"/>
+      <c r="B84" s="103"/>
+      <c r="C84" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="D78" s="105">
+      <c r="D84" s="105">
         <v>-1303474.18</v>
       </c>
-      <c r="E78" s="100">
+      <c r="E84" s="100">
         <v>44264</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="110"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="104" t="s">
+    <row r="85" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="110"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="D79" s="105">
+      <c r="D85" s="105">
         <v>-937943.41</v>
       </c>
-      <c r="E79" s="100">
+      <c r="E85" s="100">
         <v>44264</v>
       </c>
-      <c r="G79" s="160">
-        <f>D77+D78+D79+D80</f>
+      <c r="G85" s="160">
+        <f>D83+D84+D85+D86</f>
         <v>-7492427.9600000009</v>
       </c>
-      <c r="H79" s="161"/>
-      <c r="I79" s="162"/>
-    </row>
-    <row r="80" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="110"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="104" t="s">
+      <c r="H85" s="161"/>
+      <c r="I85" s="162"/>
+    </row>
+    <row r="86" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="110"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="D80" s="105">
+      <c r="D86" s="105">
         <v>-1606418.52</v>
       </c>
-      <c r="E80" s="100">
+      <c r="E86" s="100">
         <v>44264</v>
       </c>
-      <c r="G80" s="163"/>
-      <c r="H80" s="164"/>
-      <c r="I80" s="165"/>
-    </row>
-    <row r="81" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="111"/>
-      <c r="B81" s="112"/>
-      <c r="C81" s="113"/>
-      <c r="D81" s="114">
-        <v>0</v>
-      </c>
-      <c r="E81" s="101"/>
-    </row>
-    <row r="82" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C82" s="115" t="s">
+      <c r="G86" s="163"/>
+      <c r="H86" s="164"/>
+      <c r="I86" s="165"/>
+    </row>
+    <row r="87" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="111"/>
+      <c r="B87" s="112"/>
+      <c r="C87" s="113"/>
+      <c r="D87" s="114">
+        <v>0</v>
+      </c>
+      <c r="E87" s="101"/>
+    </row>
+    <row r="88" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C88" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="D82" s="116">
-        <f>D79+D76+D77+D78+D80+D81</f>
-        <v>-972427.9600000002</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C83" s="1"/>
-      <c r="D83" s="2" t="s">
+      <c r="D88" s="116">
+        <f>D85+D82+D83+D84+D86+D87</f>
+        <v>-772427.9600000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C89" s="1"/>
+      <c r="D89" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C86" s="1"/>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C92" s="1"/>
     </row>
   </sheetData>
   <sortState ref="C34:D36">
@@ -5772,7 +5816,7 @@
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G79:I80"/>
+    <mergeCell ref="G85:I86"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.13" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1042,6 +1042,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1049,36 +1079,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3118,18 +3118,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="135" t="s">
+      <c r="C3" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="135"/>
+      <c r="D3" s="145"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="141" t="s">
+      <c r="C4" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="141"/>
+      <c r="D4" s="136"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3139,10 +3139,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="136" t="s">
+      <c r="B6" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="137"/>
+      <c r="C6" s="147"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3159,10 +3159,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="138" t="s">
+      <c r="B8" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="139"/>
+      <c r="C8" s="144"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3179,10 +3179,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="138" t="s">
+      <c r="B10" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="139"/>
+      <c r="C10" s="144"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3199,10 +3199,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="138" t="s">
+      <c r="B12" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="139"/>
+      <c r="C12" s="144"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3219,10 +3219,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="138" t="s">
+      <c r="B14" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="139"/>
+      <c r="C14" s="144"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3239,10 +3239,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="142" t="s">
+      <c r="B16" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="143"/>
+      <c r="C16" s="138"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3259,14 +3259,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="142" t="s">
+      <c r="B18" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="143"/>
+      <c r="C18" s="138"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="144" t="s">
+      <c r="E18" s="139" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="145"/>
+      <c r="E19" s="140"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3287,10 +3287,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="142" t="s">
+      <c r="B21" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="143"/>
+      <c r="C21" s="138"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3307,10 +3307,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="146" t="s">
+      <c r="B23" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="147"/>
+      <c r="C23" s="142"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3327,10 +3327,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="140" t="s">
+      <c r="B25" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="140"/>
+      <c r="C25" s="135"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3381,6 +3381,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3389,11 +3394,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4923,7 +4923,7 @@
   </sheetPr>
   <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
       <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1042,6 +1042,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1064,21 +1079,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3118,18 +3118,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="145" t="s">
+      <c r="C3" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="145"/>
+      <c r="D3" s="135"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="136" t="s">
+      <c r="C4" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="136"/>
+      <c r="D4" s="141"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3139,10 +3139,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="147"/>
+      <c r="C6" s="137"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3159,10 +3159,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="143" t="s">
+      <c r="B8" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="144"/>
+      <c r="C8" s="139"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3179,10 +3179,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="143" t="s">
+      <c r="B10" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="144"/>
+      <c r="C10" s="139"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3199,10 +3199,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="143" t="s">
+      <c r="B12" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="144"/>
+      <c r="C12" s="139"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3219,10 +3219,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="143" t="s">
+      <c r="B14" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="144"/>
+      <c r="C14" s="139"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3239,10 +3239,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="137" t="s">
+      <c r="B16" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="138"/>
+      <c r="C16" s="143"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3259,14 +3259,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="137" t="s">
+      <c r="B18" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="138"/>
+      <c r="C18" s="143"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="139" t="s">
+      <c r="E18" s="144" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="140"/>
+      <c r="E19" s="145"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3287,10 +3287,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="137" t="s">
+      <c r="B21" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="138"/>
+      <c r="C21" s="143"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3307,10 +3307,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="141" t="s">
+      <c r="B23" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="142"/>
+      <c r="C23" s="147"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3327,10 +3327,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="135" t="s">
+      <c r="B25" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="135"/>
+      <c r="C25" s="140"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3381,11 +3381,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3394,6 +3389,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4923,8 +4923,8 @@
   </sheetPr>
   <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5677,14 +5677,22 @@
     </row>
     <row r="77" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B77" s="126"/>
-      <c r="C77" s="76"/>
-      <c r="D77" s="77"/>
+      <c r="C77" s="76">
+        <v>44688</v>
+      </c>
+      <c r="D77" s="77">
+        <v>100000</v>
+      </c>
       <c r="E77" s="127"/>
     </row>
     <row r="78" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B78" s="126"/>
-      <c r="C78" s="76"/>
-      <c r="D78" s="77"/>
+      <c r="C78" s="76">
+        <v>44756</v>
+      </c>
+      <c r="D78" s="77">
+        <v>100000</v>
+      </c>
       <c r="E78" s="127"/>
     </row>
     <row r="79" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5713,7 +5721,7 @@
       </c>
       <c r="D82" s="99">
         <f>SUM(D5:D81)</f>
-        <v>6720000</v>
+        <v>6920000</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5792,7 +5800,7 @@
       </c>
       <c r="D88" s="116">
         <f>D85+D82+D83+D84+D86+D87</f>
-        <v>-772427.9600000002</v>
+        <v>-572427.9600000002</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="79">
   <si>
     <t xml:space="preserve">PAGOS  SOBRE REMODELACION </t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>DRENAJE</t>
+  </si>
+  <si>
+    <t>TRANSFORMADOR</t>
   </si>
 </sst>
 </file>
@@ -786,7 +789,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1042,6 +1045,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1051,36 +1084,6 @@
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1149,6 +1152,9 @@
     </xf>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3118,18 +3124,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="135" t="s">
+      <c r="C3" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="135"/>
+      <c r="D3" s="145"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="141" t="s">
+      <c r="C4" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="141"/>
+      <c r="D4" s="136"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3139,10 +3145,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="136" t="s">
+      <c r="B6" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="137"/>
+      <c r="C6" s="147"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3159,10 +3165,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="138" t="s">
+      <c r="B8" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="139"/>
+      <c r="C8" s="144"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3179,10 +3185,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="138" t="s">
+      <c r="B10" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="139"/>
+      <c r="C10" s="144"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3199,10 +3205,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="138" t="s">
+      <c r="B12" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="139"/>
+      <c r="C12" s="144"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3219,10 +3225,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="138" t="s">
+      <c r="B14" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="139"/>
+      <c r="C14" s="144"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3239,10 +3245,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="142" t="s">
+      <c r="B16" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="143"/>
+      <c r="C16" s="138"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3259,14 +3265,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="142" t="s">
+      <c r="B18" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="143"/>
+      <c r="C18" s="138"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="144" t="s">
+      <c r="E18" s="139" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3276,7 +3282,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="145"/>
+      <c r="E19" s="140"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3287,10 +3293,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="142" t="s">
+      <c r="B21" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="143"/>
+      <c r="C21" s="138"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3307,10 +3313,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="146" t="s">
+      <c r="B23" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="147"/>
+      <c r="C23" s="142"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3327,10 +3333,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="140" t="s">
+      <c r="B25" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="140"/>
+      <c r="C25" s="135"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3381,6 +3387,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3389,11 +3400,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4923,8 +4929,8 @@
   </sheetPr>
   <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5688,17 +5694,23 @@
     <row r="78" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B78" s="126"/>
       <c r="C78" s="76">
-        <v>44756</v>
+        <v>44690</v>
       </c>
       <c r="D78" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E78" s="127"/>
+        <v>400000</v>
+      </c>
+      <c r="E78" s="171" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="79" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B79" s="126"/>
-      <c r="C79" s="76"/>
-      <c r="D79" s="77"/>
+      <c r="C79" s="76">
+        <v>44695</v>
+      </c>
+      <c r="D79" s="77">
+        <v>100000</v>
+      </c>
       <c r="E79" s="127"/>
     </row>
     <row r="80" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -5721,7 +5733,7 @@
       </c>
       <c r="D82" s="99">
         <f>SUM(D5:D81)</f>
-        <v>6920000</v>
+        <v>7320000</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5800,7 +5812,7 @@
       </c>
       <c r="D88" s="116">
         <f>D85+D82+D83+D84+D86+D87</f>
-        <v>-572427.9600000002</v>
+        <v>-172427.9600000002</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="18375" windowHeight="13620" firstSheet="18" activeTab="18"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="18375" windowHeight="13620" firstSheet="17" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="JARCERIAS REMODELACION " sheetId="1" r:id="rId1"/>
@@ -31,9 +31,11 @@
     <sheet name="REMODELACION  HERRADURA  2020  " sheetId="17" r:id="rId17"/>
     <sheet name="S E N D E R O S    2  0 2 1    " sheetId="22" r:id="rId18"/>
     <sheet name="OBRA ESTAC IONAMIENTO" sheetId="18" r:id="rId19"/>
-    <sheet name="AMP COMEDOR CENTRAL  " sheetId="21" r:id="rId20"/>
-    <sheet name="MARQUESINA ZAVALETA  2022" sheetId="23" r:id="rId21"/>
-    <sheet name="Hoja1" sheetId="24" r:id="rId22"/>
+    <sheet name="DEMOLICION    11    SUR   2022 " sheetId="26" r:id="rId20"/>
+    <sheet name="AMP COMEDOR CENTRAL  " sheetId="21" r:id="rId21"/>
+    <sheet name="MARQUESINA ZAVALETA  2022" sheetId="23" r:id="rId22"/>
+    <sheet name="Hoja1" sheetId="24" r:id="rId23"/>
+    <sheet name="Hoja2" sheetId="25" r:id="rId24"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="81">
   <si>
     <t xml:space="preserve">PAGOS  SOBRE REMODELACION </t>
   </si>
@@ -296,6 +298,12 @@
   <si>
     <t>TRANSFORMADOR</t>
   </si>
+  <si>
+    <t xml:space="preserve">DEMOLICION           11 SUR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAGOS  </t>
+  </si>
 </sst>
 </file>
 
@@ -480,7 +488,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -784,12 +792,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1036,6 +1081,9 @@
     <xf numFmtId="44" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1045,6 +1093,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1069,21 +1132,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1153,8 +1201,26 @@
     <xf numFmtId="16" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1165,10 +1231,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFAC7300"/>
       <color rgb="FF990000"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFFF9933"/>
-      <color rgb="FFAC7300"/>
       <color rgb="FFFF66FF"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FF00FF99"/>
@@ -2516,17 +2582,17 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="133"/>
-      <c r="E3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="135"/>
       <c r="H3" s="50"/>
-      <c r="I3" s="132" t="s">
+      <c r="I3" s="133" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="133"/>
-      <c r="K3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="135"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -2966,11 +3032,11 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="133"/>
-      <c r="E3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="135"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3124,18 +3190,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="145" t="s">
+      <c r="C3" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="145"/>
+      <c r="D3" s="136"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="136" t="s">
+      <c r="C4" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="136"/>
+      <c r="D4" s="142"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3145,10 +3211,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="147"/>
+      <c r="C6" s="138"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3165,10 +3231,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="143" t="s">
+      <c r="B8" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="144"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3185,10 +3251,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="143" t="s">
+      <c r="B10" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="144"/>
+      <c r="C10" s="140"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3205,10 +3271,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="143" t="s">
+      <c r="B12" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="144"/>
+      <c r="C12" s="140"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3225,10 +3291,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="143" t="s">
+      <c r="B14" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="144"/>
+      <c r="C14" s="140"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3245,10 +3311,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="137" t="s">
+      <c r="B16" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="138"/>
+      <c r="C16" s="144"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3265,14 +3331,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="137" t="s">
+      <c r="B18" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="138"/>
+      <c r="C18" s="144"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="139" t="s">
+      <c r="E18" s="145" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3282,7 +3348,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="140"/>
+      <c r="E19" s="146"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3293,10 +3359,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="137" t="s">
+      <c r="B21" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="138"/>
+      <c r="C21" s="144"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3313,10 +3379,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="141" t="s">
+      <c r="B23" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="142"/>
+      <c r="C23" s="148"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3333,10 +3399,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="135" t="s">
+      <c r="B25" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="135"/>
+      <c r="C25" s="141"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3387,11 +3453,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3400,6 +3461,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3438,11 +3504,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="133" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="133"/>
-      <c r="E3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="135"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3643,11 +3709,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="133"/>
-      <c r="E3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="135"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3832,11 +3898,11 @@
     </row>
     <row r="3" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="50"/>
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="133"/>
-      <c r="E3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="135"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4040,9 +4106,9 @@
       <c r="B3" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="134"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="135"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4273,9 +4339,9 @@
       <c r="B3" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="134"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="135"/>
     </row>
     <row r="4" spans="2:5" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4633,36 +4699,36 @@
     </row>
     <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="148" t="s">
+      <c r="B57" s="149" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="149"/>
-      <c r="D57" s="149"/>
-      <c r="E57" s="150"/>
+      <c r="C57" s="150"/>
+      <c r="D57" s="150"/>
+      <c r="E57" s="151"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="151"/>
-      <c r="C58" s="152"/>
-      <c r="D58" s="152"/>
-      <c r="E58" s="153"/>
+      <c r="B58" s="152"/>
+      <c r="C58" s="153"/>
+      <c r="D58" s="153"/>
+      <c r="E58" s="154"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="151"/>
-      <c r="C59" s="152"/>
-      <c r="D59" s="152"/>
-      <c r="E59" s="153"/>
+      <c r="B59" s="152"/>
+      <c r="C59" s="153"/>
+      <c r="D59" s="153"/>
+      <c r="E59" s="154"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="151"/>
-      <c r="C60" s="152"/>
-      <c r="D60" s="152"/>
-      <c r="E60" s="153"/>
+      <c r="B60" s="152"/>
+      <c r="C60" s="153"/>
+      <c r="D60" s="153"/>
+      <c r="E60" s="154"/>
     </row>
     <row r="61" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="154"/>
-      <c r="C61" s="155"/>
-      <c r="D61" s="155"/>
-      <c r="E61" s="156"/>
+      <c r="B61" s="155"/>
+      <c r="C61" s="156"/>
+      <c r="D61" s="156"/>
+      <c r="E61" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4707,9 +4773,9 @@
       <c r="B3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="134"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="135"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4929,8 +4995,8 @@
   </sheetPr>
   <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4952,12 +5018,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="158" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="160"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
       <c r="I3" s="94"/>
@@ -5699,7 +5765,7 @@
       <c r="D78" s="77">
         <v>400000</v>
       </c>
-      <c r="E78" s="171" t="s">
+      <c r="E78" s="132" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5715,8 +5781,12 @@
     </row>
     <row r="80" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B80" s="126"/>
-      <c r="C80" s="76"/>
-      <c r="D80" s="77"/>
+      <c r="C80" s="76">
+        <v>44702</v>
+      </c>
+      <c r="D80" s="77">
+        <v>100000</v>
+      </c>
       <c r="E80" s="127"/>
     </row>
     <row r="81" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5733,7 +5803,7 @@
       </c>
       <c r="D82" s="99">
         <f>SUM(D5:D81)</f>
-        <v>7320000</v>
+        <v>7420000</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5774,12 +5844,12 @@
       <c r="E85" s="100">
         <v>44264</v>
       </c>
-      <c r="G85" s="160">
+      <c r="G85" s="161">
         <f>D83+D84+D85+D86</f>
         <v>-7492427.9600000009</v>
       </c>
-      <c r="H85" s="161"/>
-      <c r="I85" s="162"/>
+      <c r="H85" s="162"/>
+      <c r="I85" s="163"/>
     </row>
     <row r="86" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="110"/>
@@ -5793,9 +5863,9 @@
       <c r="E86" s="100">
         <v>44264</v>
       </c>
-      <c r="G86" s="163"/>
-      <c r="H86" s="164"/>
-      <c r="I86" s="165"/>
+      <c r="G86" s="164"/>
+      <c r="H86" s="165"/>
+      <c r="I86" s="166"/>
     </row>
     <row r="87" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="111"/>
@@ -5812,7 +5882,7 @@
       </c>
       <c r="D88" s="116">
         <f>D85+D82+D83+D84+D86+D87</f>
-        <v>-172427.9600000002</v>
+        <v>-72427.960000000196</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -6018,12 +6088,12 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF0000FF"/>
+    <tabColor rgb="FFAC7300"/>
   </sheetPr>
   <dimension ref="B1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B9"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6036,47 +6106,43 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="166" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="16"/>
+      <c r="B2" s="172" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="177" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="178"/>
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="167"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="134"/>
-    </row>
-    <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="167"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="135"/>
+    </row>
+    <row r="4" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="174"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
     </row>
-    <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="167"/>
+    <row r="5" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="175"/>
       <c r="C5" s="47">
-        <v>44380</v>
+        <v>44702</v>
       </c>
       <c r="D5" s="28">
-        <v>86000</v>
+        <v>50000</v>
       </c>
       <c r="E5" s="28"/>
     </row>
-    <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="168"/>
-      <c r="C6" s="36">
-        <v>44396</v>
-      </c>
-      <c r="D6" s="37">
-        <v>102900</v>
-      </c>
+    <row r="6" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="176"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="27"/>
     </row>
     <row r="7" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -6086,7 +6152,256 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="169" t="s">
+      <c r="B8" s="170"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="171"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="75"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="75"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="27"/>
+    </row>
+    <row r="12" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="25">
+        <f>SUM(D5:D12)</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B14" s="64"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="49">
+        <v>-174555</v>
+      </c>
+      <c r="E14" s="6">
+        <v>44702</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="49">
+        <v>0</v>
+      </c>
+      <c r="E15" s="124"/>
+    </row>
+    <row r="16" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="84"/>
+      <c r="D16" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="34">
+        <f>D16+D13+D14+D15</f>
+        <v>-124555</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="D18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="2:5" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C21" s="1"/>
+      <c r="D21" s="117"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="118"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="118"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="118"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="118"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="118"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="118"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="118"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="118"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="120"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="120"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="120"/>
+      <c r="C34" s="120"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="120"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="120"/>
+      <c r="C35" s="120"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="120"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="120"/>
+      <c r="C36" s="120"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="120"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="120"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="120"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="118"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="119"/>
+      <c r="E38" s="118"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="118"/>
+      <c r="C39" s="118"/>
+      <c r="D39" s="119"/>
+      <c r="E39" s="118"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="118"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="119"/>
+      <c r="E40" s="118"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="118"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="119"/>
+      <c r="E41" s="118"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0000FF"/>
+  </sheetPr>
+  <dimension ref="B1:E41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="167" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="168"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="135"/>
+    </row>
+    <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="168"/>
+      <c r="C4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="168"/>
+      <c r="C5" s="47">
+        <v>44380</v>
+      </c>
+      <c r="D5" s="28">
+        <v>86000</v>
+      </c>
+      <c r="E5" s="28"/>
+    </row>
+    <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="169"/>
+      <c r="C6" s="36">
+        <v>44396</v>
+      </c>
+      <c r="D6" s="37">
+        <v>102900</v>
+      </c>
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="31"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="41"/>
+    </row>
+    <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="170" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="36">
@@ -6098,7 +6413,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="170"/>
+      <c r="B9" s="171"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -6277,7 +6592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF9933"/>
@@ -6298,7 +6613,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="167" t="s">
         <v>74</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -6308,13 +6623,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="167"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="134"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="135"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="167"/>
+      <c r="B4" s="168"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6322,7 +6637,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="167"/>
+      <c r="B5" s="168"/>
       <c r="C5" s="47">
         <v>44621</v>
       </c>
@@ -6332,7 +6647,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="168"/>
+      <c r="B6" s="169"/>
       <c r="C6" s="36">
         <v>44656</v>
       </c>
@@ -6348,7 +6663,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="169"/>
+      <c r="B8" s="170"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37">
         <v>0</v>
@@ -6356,7 +6671,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="170"/>
+      <c r="B9" s="171"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -6532,7 +6847,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="18375" windowHeight="13620" firstSheet="17" activeTab="18"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="18375" windowHeight="13620" firstSheet="19" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="JARCERIAS REMODELACION " sheetId="1" r:id="rId1"/>
@@ -1084,6 +1084,12 @@
     <xf numFmtId="44" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1186,6 +1192,27 @@
     <xf numFmtId="166" fontId="12" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1194,33 +1221,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1690,13 +1690,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>428624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2582,17 +2582,17 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="134"/>
-      <c r="E3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
       <c r="H3" s="50"/>
-      <c r="I3" s="133" t="s">
+      <c r="I3" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="134"/>
-      <c r="K3" s="135"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="137"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3032,11 +3032,11 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="134"/>
-      <c r="E3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3190,18 +3190,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="136" t="s">
+      <c r="C3" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="136"/>
+      <c r="D3" s="138"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="142" t="s">
+      <c r="C4" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="142"/>
+      <c r="D4" s="144"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3211,10 +3211,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="138"/>
+      <c r="C6" s="140"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3231,10 +3231,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="140"/>
+      <c r="C8" s="142"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3251,10 +3251,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="139" t="s">
+      <c r="B10" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="140"/>
+      <c r="C10" s="142"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3271,10 +3271,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="139" t="s">
+      <c r="B12" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="140"/>
+      <c r="C12" s="142"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3291,10 +3291,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="139" t="s">
+      <c r="B14" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="140"/>
+      <c r="C14" s="142"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3311,10 +3311,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="143" t="s">
+      <c r="B16" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="144"/>
+      <c r="C16" s="146"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3331,14 +3331,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="143" t="s">
+      <c r="B18" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="144"/>
+      <c r="C18" s="146"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="145" t="s">
+      <c r="E18" s="147" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3348,7 +3348,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="146"/>
+      <c r="E19" s="148"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3359,10 +3359,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="143" t="s">
+      <c r="B21" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="144"/>
+      <c r="C21" s="146"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3379,10 +3379,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="147" t="s">
+      <c r="B23" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="148"/>
+      <c r="C23" s="150"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3399,10 +3399,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="141" t="s">
+      <c r="B25" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="141"/>
+      <c r="C25" s="143"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3504,11 +3504,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="134"/>
-      <c r="E3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3709,11 +3709,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="134"/>
-      <c r="E3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3898,11 +3898,11 @@
     </row>
     <row r="3" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="50"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="134"/>
-      <c r="E3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4106,9 +4106,9 @@
       <c r="B3" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="133"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4339,9 +4339,9 @@
       <c r="B3" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="133"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
     </row>
     <row r="4" spans="2:5" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4699,36 +4699,36 @@
     </row>
     <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="149" t="s">
+      <c r="B57" s="151" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="150"/>
-      <c r="D57" s="150"/>
-      <c r="E57" s="151"/>
+      <c r="C57" s="152"/>
+      <c r="D57" s="152"/>
+      <c r="E57" s="153"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="152"/>
-      <c r="C58" s="153"/>
-      <c r="D58" s="153"/>
-      <c r="E58" s="154"/>
+      <c r="B58" s="154"/>
+      <c r="C58" s="155"/>
+      <c r="D58" s="155"/>
+      <c r="E58" s="156"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="152"/>
-      <c r="C59" s="153"/>
-      <c r="D59" s="153"/>
-      <c r="E59" s="154"/>
+      <c r="B59" s="154"/>
+      <c r="C59" s="155"/>
+      <c r="D59" s="155"/>
+      <c r="E59" s="156"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="152"/>
-      <c r="C60" s="153"/>
-      <c r="D60" s="153"/>
-      <c r="E60" s="154"/>
+      <c r="B60" s="154"/>
+      <c r="C60" s="155"/>
+      <c r="D60" s="155"/>
+      <c r="E60" s="156"/>
     </row>
     <row r="61" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="155"/>
-      <c r="C61" s="156"/>
-      <c r="D61" s="156"/>
-      <c r="E61" s="157"/>
+      <c r="B61" s="157"/>
+      <c r="C61" s="158"/>
+      <c r="D61" s="158"/>
+      <c r="E61" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4773,9 +4773,9 @@
       <c r="B3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="133"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4993,10 +4993,10 @@
   <sheetPr>
     <tabColor rgb="FF00FF99"/>
   </sheetPr>
-  <dimension ref="A1:J92"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5018,12 +5018,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="158" t="s">
+      <c r="B3" s="160" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="160"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="162"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
       <c r="I3" s="94"/>
@@ -5789,116 +5789,150 @@
       </c>
       <c r="E80" s="127"/>
     </row>
-    <row r="81" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="95"/>
-      <c r="C81" s="96"/>
-      <c r="D81" s="97">
-        <v>0</v>
-      </c>
-      <c r="E81" s="95"/>
-    </row>
-    <row r="82" spans="1:9" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C82" s="98" t="s">
+    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B81" s="126"/>
+      <c r="C81" s="76">
+        <v>44709</v>
+      </c>
+      <c r="D81" s="77">
+        <v>200000</v>
+      </c>
+      <c r="E81" s="127"/>
+    </row>
+    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B82" s="126"/>
+      <c r="C82" s="76"/>
+      <c r="D82" s="77"/>
+      <c r="E82" s="127"/>
+    </row>
+    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B83" s="126"/>
+      <c r="C83" s="76"/>
+      <c r="D83" s="77"/>
+      <c r="E83" s="127"/>
+    </row>
+    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B84" s="126"/>
+      <c r="C84" s="76"/>
+      <c r="D84" s="77"/>
+      <c r="E84" s="127"/>
+    </row>
+    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B85" s="126"/>
+      <c r="C85" s="76"/>
+      <c r="D85" s="77"/>
+      <c r="E85" s="127"/>
+    </row>
+    <row r="86" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="95"/>
+      <c r="C86" s="96"/>
+      <c r="D86" s="97">
+        <v>0</v>
+      </c>
+      <c r="E86" s="95"/>
+    </row>
+    <row r="87" spans="1:9" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C87" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="D82" s="99">
-        <f>SUM(D5:D81)</f>
-        <v>7420000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="106"/>
-      <c r="B83" s="107"/>
-      <c r="C83" s="108" t="s">
+      <c r="D87" s="99">
+        <f>SUM(D5:D86)</f>
+        <v>7620000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="106"/>
+      <c r="B88" s="107"/>
+      <c r="C88" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="D83" s="109">
+      <c r="D88" s="109">
         <v>-3644591.85</v>
       </c>
-      <c r="E83" s="102">
+      <c r="E88" s="102">
         <v>44264</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="110"/>
-      <c r="B84" s="103"/>
-      <c r="C84" s="104" t="s">
+    <row r="89" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="110"/>
+      <c r="B89" s="103"/>
+      <c r="C89" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="D84" s="105">
+      <c r="D89" s="105">
         <v>-1303474.18</v>
       </c>
-      <c r="E84" s="100">
+      <c r="E89" s="100">
         <v>44264</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="110"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="104" t="s">
+    <row r="90" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="110"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="D85" s="105">
+      <c r="D90" s="105">
         <v>-937943.41</v>
       </c>
-      <c r="E85" s="100">
+      <c r="E90" s="100">
         <v>44264</v>
       </c>
-      <c r="G85" s="161">
-        <f>D83+D84+D85+D86</f>
+      <c r="G90" s="163">
+        <f>D88+D89+D90+D91</f>
         <v>-7492427.9600000009</v>
       </c>
-      <c r="H85" s="162"/>
-      <c r="I85" s="163"/>
-    </row>
-    <row r="86" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="110"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="104" t="s">
+      <c r="H90" s="164"/>
+      <c r="I90" s="165"/>
+    </row>
+    <row r="91" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="110"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="D86" s="105">
+      <c r="D91" s="105">
         <v>-1606418.52</v>
       </c>
-      <c r="E86" s="100">
+      <c r="E91" s="100">
         <v>44264</v>
       </c>
-      <c r="G86" s="164"/>
-      <c r="H86" s="165"/>
-      <c r="I86" s="166"/>
-    </row>
-    <row r="87" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="111"/>
-      <c r="B87" s="112"/>
-      <c r="C87" s="113"/>
-      <c r="D87" s="114">
-        <v>0</v>
-      </c>
-      <c r="E87" s="101"/>
-    </row>
-    <row r="88" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C88" s="115" t="s">
+      <c r="G91" s="166"/>
+      <c r="H91" s="167"/>
+      <c r="I91" s="168"/>
+    </row>
+    <row r="92" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="111"/>
+      <c r="B92" s="112"/>
+      <c r="C92" s="113"/>
+      <c r="D92" s="114">
+        <v>0</v>
+      </c>
+      <c r="E92" s="101"/>
+    </row>
+    <row r="93" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C93" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="D88" s="116">
-        <f>D85+D82+D83+D84+D86+D87</f>
-        <v>-72427.960000000196</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C89" s="1"/>
-      <c r="D89" s="2" t="s">
+      <c r="D93" s="116">
+        <f>D90+D87+D88+D89+D91+D92</f>
+        <v>127572.0399999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C94" s="1"/>
+      <c r="D94" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C92" s="1"/>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="1"/>
     </row>
   </sheetData>
   <sortState ref="C34:D36">
@@ -5906,7 +5940,7 @@
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G85:I86"/>
+    <mergeCell ref="G90:I91"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.13" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6092,8 +6126,8 @@
   </sheetPr>
   <dimension ref="B1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6106,23 +6140,23 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="171" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="177" t="s">
+      <c r="C2" s="174" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="178"/>
+      <c r="D2" s="175"/>
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="173"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="135"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="174"/>
+      <c r="B4" s="173"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6130,7 +6164,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="175"/>
+      <c r="B5" s="133"/>
       <c r="C5" s="47">
         <v>44702</v>
       </c>
@@ -6140,9 +6174,13 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="176"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="36">
+        <v>44709</v>
+      </c>
+      <c r="D6" s="37">
+        <v>50000</v>
+      </c>
       <c r="E6" s="27"/>
     </row>
     <row r="7" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -6152,13 +6190,13 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="170"/>
+      <c r="B8" s="169"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="171"/>
+      <c r="B9" s="170"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -6189,7 +6227,7 @@
       </c>
       <c r="D13" s="25">
         <f>SUM(D5:D12)</f>
-        <v>50000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -6222,7 +6260,7 @@
       </c>
       <c r="D17" s="34">
         <f>D16+D13+D14+D15</f>
-        <v>-124555</v>
+        <v>-74555</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -6351,7 +6389,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="176" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -6361,13 +6399,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="168"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="135"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="168"/>
+      <c r="B4" s="177"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6375,7 +6413,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="168"/>
+      <c r="B5" s="177"/>
       <c r="C5" s="47">
         <v>44380</v>
       </c>
@@ -6385,7 +6423,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="169"/>
+      <c r="B6" s="178"/>
       <c r="C6" s="36">
         <v>44396</v>
       </c>
@@ -6401,7 +6439,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="170" t="s">
+      <c r="B8" s="169" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="36">
@@ -6413,7 +6451,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="171"/>
+      <c r="B9" s="170"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -6613,7 +6651,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="176" t="s">
         <v>74</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -6623,13 +6661,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="168"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="135"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="168"/>
+      <c r="B4" s="177"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6637,7 +6675,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="168"/>
+      <c r="B5" s="177"/>
       <c r="C5" s="47">
         <v>44621</v>
       </c>
@@ -6647,7 +6685,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="169"/>
+      <c r="B6" s="178"/>
       <c r="C6" s="36">
         <v>44656</v>
       </c>
@@ -6663,7 +6701,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="170"/>
+      <c r="B8" s="169"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37">
         <v>0</v>
@@ -6671,7 +6709,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="171"/>
+      <c r="B9" s="170"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="18375" windowHeight="13620" firstSheet="19" activeTab="19"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="18375" windowHeight="13620" firstSheet="18" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="JARCERIAS REMODELACION " sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="81">
   <si>
     <t xml:space="preserve">PAGOS  SOBRE REMODELACION </t>
   </si>
@@ -834,7 +834,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1222,6 +1222,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -4995,8 +4996,8 @@
   </sheetPr>
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5801,20 +5802,34 @@
     </row>
     <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B82" s="126"/>
-      <c r="C82" s="76"/>
-      <c r="D82" s="77"/>
-      <c r="E82" s="127"/>
+      <c r="C82" s="76">
+        <v>44713</v>
+      </c>
+      <c r="D82" s="77">
+        <v>300000</v>
+      </c>
+      <c r="E82" s="179" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B83" s="126"/>
-      <c r="C83" s="76"/>
-      <c r="D83" s="77"/>
+      <c r="C83" s="76">
+        <v>44716</v>
+      </c>
+      <c r="D83" s="77">
+        <v>150000</v>
+      </c>
       <c r="E83" s="127"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B84" s="126"/>
-      <c r="C84" s="76"/>
-      <c r="D84" s="77"/>
+      <c r="C84" s="76">
+        <v>44716</v>
+      </c>
+      <c r="D84" s="77">
+        <v>50000</v>
+      </c>
       <c r="E84" s="127"/>
     </row>
     <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -5837,7 +5852,7 @@
       </c>
       <c r="D87" s="99">
         <f>SUM(D5:D86)</f>
-        <v>7620000</v>
+        <v>8120000</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5916,7 +5931,7 @@
       </c>
       <c r="D93" s="116">
         <f>D90+D87+D88+D89+D91+D92</f>
-        <v>127572.0399999998</v>
+        <v>627572.03999999957</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -6126,8 +6141,8 @@
   </sheetPr>
   <dimension ref="B1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6185,8 +6200,12 @@
     </row>
     <row r="7" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="31"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
+      <c r="C7" s="36">
+        <v>44716</v>
+      </c>
+      <c r="D7" s="37">
+        <v>50000</v>
+      </c>
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -6227,7 +6246,7 @@
       </c>
       <c r="D13" s="25">
         <f>SUM(D5:D12)</f>
-        <v>100000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -6260,7 +6279,7 @@
       </c>
       <c r="D17" s="34">
         <f>D16+D13+D14+D15</f>
-        <v>-74555</v>
+        <v>-24555</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="18375" windowHeight="13620" firstSheet="18" activeTab="18"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="18375" windowHeight="13620" firstSheet="18" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="JARCERIAS REMODELACION " sheetId="1" r:id="rId1"/>
@@ -1090,6 +1090,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1099,6 +1100,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1108,36 +1139,6 @@
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1222,7 +1223,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2583,17 +2583,17 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="135" t="s">
+      <c r="C3" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="138"/>
       <c r="H3" s="50"/>
-      <c r="I3" s="135" t="s">
+      <c r="I3" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="136"/>
-      <c r="K3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="138"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3033,11 +3033,11 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="135" t="s">
+      <c r="C3" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="138"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3191,18 +3191,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="138" t="s">
+      <c r="C3" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="138"/>
+      <c r="D3" s="149"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="144"/>
+      <c r="D4" s="140"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3212,10 +3212,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="139" t="s">
+      <c r="B6" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="140"/>
+      <c r="C6" s="151"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3232,10 +3232,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="141" t="s">
+      <c r="B8" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="142"/>
+      <c r="C8" s="148"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3252,10 +3252,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="141" t="s">
+      <c r="B10" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="142"/>
+      <c r="C10" s="148"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3272,10 +3272,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="141" t="s">
+      <c r="B12" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="142"/>
+      <c r="C12" s="148"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3292,10 +3292,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="141" t="s">
+      <c r="B14" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="142"/>
+      <c r="C14" s="148"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3312,10 +3312,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="145" t="s">
+      <c r="B16" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="146"/>
+      <c r="C16" s="142"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3332,14 +3332,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="145" t="s">
+      <c r="B18" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="146"/>
+      <c r="C18" s="142"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="147" t="s">
+      <c r="E18" s="143" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3349,7 +3349,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="148"/>
+      <c r="E19" s="144"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3360,10 +3360,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="145" t="s">
+      <c r="B21" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="146"/>
+      <c r="C21" s="142"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3380,10 +3380,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="149" t="s">
+      <c r="B23" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="150"/>
+      <c r="C23" s="146"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3400,10 +3400,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="143" t="s">
+      <c r="B25" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="143"/>
+      <c r="C25" s="139"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3454,6 +3454,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3462,11 +3467,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3505,11 +3505,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="135" t="s">
+      <c r="C3" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="138"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3710,11 +3710,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="135" t="s">
+      <c r="C3" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="138"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3899,11 +3899,11 @@
     </row>
     <row r="3" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="50"/>
-      <c r="C3" s="135" t="s">
+      <c r="C3" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="138"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4107,9 +4107,9 @@
       <c r="B3" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="138"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4340,9 +4340,9 @@
       <c r="B3" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="138"/>
     </row>
     <row r="4" spans="2:5" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4700,36 +4700,36 @@
     </row>
     <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="151" t="s">
+      <c r="B57" s="152" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="152"/>
-      <c r="D57" s="152"/>
-      <c r="E57" s="153"/>
+      <c r="C57" s="153"/>
+      <c r="D57" s="153"/>
+      <c r="E57" s="154"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="154"/>
-      <c r="C58" s="155"/>
-      <c r="D58" s="155"/>
-      <c r="E58" s="156"/>
+      <c r="B58" s="155"/>
+      <c r="C58" s="156"/>
+      <c r="D58" s="156"/>
+      <c r="E58" s="157"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="154"/>
-      <c r="C59" s="155"/>
-      <c r="D59" s="155"/>
-      <c r="E59" s="156"/>
+      <c r="B59" s="155"/>
+      <c r="C59" s="156"/>
+      <c r="D59" s="156"/>
+      <c r="E59" s="157"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="154"/>
-      <c r="C60" s="155"/>
-      <c r="D60" s="155"/>
-      <c r="E60" s="156"/>
+      <c r="B60" s="155"/>
+      <c r="C60" s="156"/>
+      <c r="D60" s="156"/>
+      <c r="E60" s="157"/>
     </row>
     <row r="61" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="157"/>
-      <c r="C61" s="158"/>
-      <c r="D61" s="158"/>
-      <c r="E61" s="159"/>
+      <c r="B61" s="158"/>
+      <c r="C61" s="159"/>
+      <c r="D61" s="159"/>
+      <c r="E61" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4774,9 +4774,9 @@
       <c r="B3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="138"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4996,7 +4996,7 @@
   </sheetPr>
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
@@ -5019,12 +5019,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="160" t="s">
+      <c r="B3" s="161" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="163"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
       <c r="I3" s="94"/>
@@ -5808,7 +5808,7 @@
       <c r="D82" s="77">
         <v>300000</v>
       </c>
-      <c r="E82" s="179" t="s">
+      <c r="E82" s="135" t="s">
         <v>76</v>
       </c>
     </row>
@@ -5893,12 +5893,12 @@
       <c r="E90" s="100">
         <v>44264</v>
       </c>
-      <c r="G90" s="163">
+      <c r="G90" s="164">
         <f>D88+D89+D90+D91</f>
         <v>-7492427.9600000009</v>
       </c>
-      <c r="H90" s="164"/>
-      <c r="I90" s="165"/>
+      <c r="H90" s="165"/>
+      <c r="I90" s="166"/>
     </row>
     <row r="91" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="110"/>
@@ -5912,9 +5912,9 @@
       <c r="E91" s="100">
         <v>44264</v>
       </c>
-      <c r="G91" s="166"/>
-      <c r="H91" s="167"/>
-      <c r="I91" s="168"/>
+      <c r="G91" s="167"/>
+      <c r="H91" s="168"/>
+      <c r="I91" s="169"/>
     </row>
     <row r="92" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="111"/>
@@ -6141,8 +6141,8 @@
   </sheetPr>
   <dimension ref="B1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6155,23 +6155,23 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="172" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="175" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="175"/>
+      <c r="D2" s="176"/>
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="172"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="138"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="173"/>
+      <c r="B4" s="174"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6209,13 +6209,13 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="169"/>
+      <c r="B8" s="170"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="170"/>
+      <c r="B9" s="171"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -6408,7 +6408,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="177" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -6418,13 +6418,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="177"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="138"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="177"/>
+      <c r="B4" s="178"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6432,7 +6432,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="177"/>
+      <c r="B5" s="178"/>
       <c r="C5" s="47">
         <v>44380</v>
       </c>
@@ -6442,7 +6442,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="178"/>
+      <c r="B6" s="179"/>
       <c r="C6" s="36">
         <v>44396</v>
       </c>
@@ -6458,7 +6458,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="169" t="s">
+      <c r="B8" s="170" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="36">
@@ -6470,7 +6470,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="170"/>
+      <c r="B9" s="171"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -6670,7 +6670,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="177" t="s">
         <v>74</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -6680,13 +6680,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="177"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="138"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="177"/>
+      <c r="B4" s="178"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6694,7 +6694,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="177"/>
+      <c r="B5" s="178"/>
       <c r="C5" s="47">
         <v>44621</v>
       </c>
@@ -6704,7 +6704,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="178"/>
+      <c r="B6" s="179"/>
       <c r="C6" s="36">
         <v>44656</v>
       </c>
@@ -6720,7 +6720,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="169"/>
+      <c r="B8" s="170"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37">
         <v>0</v>
@@ -6728,7 +6728,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="170"/>
+      <c r="B9" s="171"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="18375" windowHeight="13620" firstSheet="18" activeTab="19"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="18375" windowHeight="13620" firstSheet="18" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="JARCERIAS REMODELACION " sheetId="1" r:id="rId1"/>
@@ -315,7 +315,7 @@
     <numFmt numFmtId="165" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,6 +439,14 @@
       <b/>
       <sz val="13"/>
       <color rgb="FF990000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1090,7 +1098,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1100,6 +1107,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1124,21 +1146,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1223,6 +1230,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1232,9 +1240,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFAC7300"/>
       <color rgb="FF990000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFF9933"/>
       <color rgb="FFFF66FF"/>
       <color rgb="FF00FFFF"/>
@@ -1691,13 +1699,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>428624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2583,17 +2591,17 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="136" t="s">
+      <c r="C3" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
       <c r="H3" s="50"/>
-      <c r="I3" s="136" t="s">
+      <c r="I3" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="137"/>
-      <c r="K3" s="138"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="137"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3033,11 +3041,11 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="136" t="s">
+      <c r="C3" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3191,18 +3199,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="149"/>
+      <c r="D3" s="138"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="140"/>
+      <c r="D4" s="144"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3212,10 +3220,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="150" t="s">
+      <c r="B6" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="151"/>
+      <c r="C6" s="140"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3232,10 +3240,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="147" t="s">
+      <c r="B8" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="148"/>
+      <c r="C8" s="142"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3252,10 +3260,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="147" t="s">
+      <c r="B10" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="148"/>
+      <c r="C10" s="142"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3272,10 +3280,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="147" t="s">
+      <c r="B12" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="148"/>
+      <c r="C12" s="142"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3292,10 +3300,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="147" t="s">
+      <c r="B14" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="148"/>
+      <c r="C14" s="142"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3312,10 +3320,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="141" t="s">
+      <c r="B16" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="142"/>
+      <c r="C16" s="146"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3332,14 +3340,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="141" t="s">
+      <c r="B18" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="142"/>
+      <c r="C18" s="146"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="143" t="s">
+      <c r="E18" s="147" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3349,7 +3357,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="144"/>
+      <c r="E19" s="148"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3360,10 +3368,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="141" t="s">
+      <c r="B21" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="142"/>
+      <c r="C21" s="146"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3380,10 +3388,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="145" t="s">
+      <c r="B23" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="146"/>
+      <c r="C23" s="150"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3400,10 +3408,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="139" t="s">
+      <c r="B25" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="139"/>
+      <c r="C25" s="143"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3454,11 +3462,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3467,6 +3470,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3505,11 +3513,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="136" t="s">
+      <c r="C3" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3710,11 +3718,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="136" t="s">
+      <c r="C3" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3899,11 +3907,11 @@
     </row>
     <row r="3" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="50"/>
-      <c r="C3" s="136" t="s">
+      <c r="C3" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4107,9 +4115,9 @@
       <c r="B3" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4340,9 +4348,9 @@
       <c r="B3" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
     </row>
     <row r="4" spans="2:5" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4700,36 +4708,36 @@
     </row>
     <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="152" t="s">
+      <c r="B57" s="151" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="153"/>
-      <c r="D57" s="153"/>
-      <c r="E57" s="154"/>
+      <c r="C57" s="152"/>
+      <c r="D57" s="152"/>
+      <c r="E57" s="153"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="155"/>
-      <c r="C58" s="156"/>
-      <c r="D58" s="156"/>
-      <c r="E58" s="157"/>
+      <c r="B58" s="154"/>
+      <c r="C58" s="155"/>
+      <c r="D58" s="155"/>
+      <c r="E58" s="156"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="155"/>
-      <c r="C59" s="156"/>
-      <c r="D59" s="156"/>
-      <c r="E59" s="157"/>
+      <c r="B59" s="154"/>
+      <c r="C59" s="155"/>
+      <c r="D59" s="155"/>
+      <c r="E59" s="156"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="155"/>
-      <c r="C60" s="156"/>
-      <c r="D60" s="156"/>
-      <c r="E60" s="157"/>
+      <c r="B60" s="154"/>
+      <c r="C60" s="155"/>
+      <c r="D60" s="155"/>
+      <c r="E60" s="156"/>
     </row>
     <row r="61" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="158"/>
-      <c r="C61" s="159"/>
-      <c r="D61" s="159"/>
-      <c r="E61" s="160"/>
+      <c r="B61" s="157"/>
+      <c r="C61" s="158"/>
+      <c r="D61" s="158"/>
+      <c r="E61" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4774,9 +4782,9 @@
       <c r="B3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4994,10 +5002,10 @@
   <sheetPr>
     <tabColor rgb="FF00FF99"/>
   </sheetPr>
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5019,12 +5027,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="160" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="163"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="162"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
       <c r="I3" s="94"/>
@@ -5808,7 +5816,7 @@
       <c r="D82" s="77">
         <v>300000</v>
       </c>
-      <c r="E82" s="135" t="s">
+      <c r="E82" s="179" t="s">
         <v>76</v>
       </c>
     </row>
@@ -5834,120 +5842,152 @@
     </row>
     <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B85" s="126"/>
-      <c r="C85" s="76"/>
-      <c r="D85" s="77"/>
+      <c r="C85" s="76">
+        <v>44723</v>
+      </c>
+      <c r="D85" s="77">
+        <v>150000</v>
+      </c>
       <c r="E85" s="127"/>
     </row>
-    <row r="86" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="95"/>
-      <c r="C86" s="96"/>
-      <c r="D86" s="97">
-        <v>0</v>
-      </c>
-      <c r="E86" s="95"/>
-    </row>
-    <row r="87" spans="1:9" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C87" s="98" t="s">
+    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B86" s="126"/>
+      <c r="C86" s="76">
+        <v>44723</v>
+      </c>
+      <c r="D86" s="77">
+        <v>50000</v>
+      </c>
+      <c r="E86" s="127"/>
+    </row>
+    <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B87" s="126"/>
+      <c r="C87" s="76"/>
+      <c r="D87" s="77"/>
+      <c r="E87" s="127"/>
+    </row>
+    <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B88" s="126"/>
+      <c r="C88" s="76"/>
+      <c r="D88" s="77"/>
+      <c r="E88" s="127"/>
+    </row>
+    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B89" s="126"/>
+      <c r="C89" s="76"/>
+      <c r="D89" s="77"/>
+      <c r="E89" s="127"/>
+    </row>
+    <row r="90" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="95"/>
+      <c r="C90" s="96"/>
+      <c r="D90" s="97">
+        <v>0</v>
+      </c>
+      <c r="E90" s="95"/>
+    </row>
+    <row r="91" spans="1:9" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C91" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="D87" s="99">
-        <f>SUM(D5:D86)</f>
-        <v>8120000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="106"/>
-      <c r="B88" s="107"/>
-      <c r="C88" s="108" t="s">
+      <c r="D91" s="99">
+        <f>SUM(D5:D90)</f>
+        <v>8320000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="106"/>
+      <c r="B92" s="107"/>
+      <c r="C92" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="D88" s="109">
+      <c r="D92" s="109">
         <v>-3644591.85</v>
       </c>
-      <c r="E88" s="102">
+      <c r="E92" s="102">
         <v>44264</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="110"/>
-      <c r="B89" s="103"/>
-      <c r="C89" s="104" t="s">
+    <row r="93" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="110"/>
+      <c r="B93" s="103"/>
+      <c r="C93" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="D89" s="105">
+      <c r="D93" s="105">
         <v>-1303474.18</v>
       </c>
-      <c r="E89" s="100">
+      <c r="E93" s="100">
         <v>44264</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="110"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="104" t="s">
+    <row r="94" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="110"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="D90" s="105">
+      <c r="D94" s="105">
         <v>-937943.41</v>
       </c>
-      <c r="E90" s="100">
+      <c r="E94" s="100">
         <v>44264</v>
       </c>
-      <c r="G90" s="164">
-        <f>D88+D89+D90+D91</f>
+      <c r="G94" s="163">
+        <f>D92+D93+D94+D95</f>
         <v>-7492427.9600000009</v>
       </c>
-      <c r="H90" s="165"/>
-      <c r="I90" s="166"/>
-    </row>
-    <row r="91" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="110"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="104" t="s">
+      <c r="H94" s="164"/>
+      <c r="I94" s="165"/>
+    </row>
+    <row r="95" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="110"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="D91" s="105">
+      <c r="D95" s="105">
         <v>-1606418.52</v>
       </c>
-      <c r="E91" s="100">
+      <c r="E95" s="100">
         <v>44264</v>
       </c>
-      <c r="G91" s="167"/>
-      <c r="H91" s="168"/>
-      <c r="I91" s="169"/>
-    </row>
-    <row r="92" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="111"/>
-      <c r="B92" s="112"/>
-      <c r="C92" s="113"/>
-      <c r="D92" s="114">
-        <v>0</v>
-      </c>
-      <c r="E92" s="101"/>
-    </row>
-    <row r="93" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C93" s="115" t="s">
+      <c r="G95" s="166"/>
+      <c r="H95" s="167"/>
+      <c r="I95" s="168"/>
+    </row>
+    <row r="96" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="111"/>
+      <c r="B96" s="112"/>
+      <c r="C96" s="113"/>
+      <c r="D96" s="114">
+        <v>0</v>
+      </c>
+      <c r="E96" s="101"/>
+    </row>
+    <row r="97" spans="3:4" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C97" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="D93" s="116">
-        <f>D90+D87+D88+D89+D91+D92</f>
-        <v>627572.03999999957</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C94" s="1"/>
-      <c r="D94" s="2" t="s">
+      <c r="D97" s="116">
+        <f>D94+D91+D92+D93+D95+D96</f>
+        <v>827572.03999999957</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C98" s="1"/>
+      <c r="D98" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C96" s="1"/>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C97" s="1"/>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C101" s="1"/>
     </row>
   </sheetData>
   <sortState ref="C34:D36">
@@ -5955,7 +5995,7 @@
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G90:I91"/>
+    <mergeCell ref="G94:I95"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.13" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6141,7 +6181,7 @@
   </sheetPr>
   <dimension ref="B1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -6155,23 +6195,23 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="171" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="175" t="s">
+      <c r="C2" s="174" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="176"/>
+      <c r="D2" s="175"/>
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="173"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="174"/>
+      <c r="B4" s="173"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6209,13 +6249,13 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="170"/>
+      <c r="B8" s="169"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="171"/>
+      <c r="B9" s="170"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -6408,7 +6448,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="176" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -6418,13 +6458,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="178"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="178"/>
+      <c r="B4" s="177"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6432,7 +6472,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="178"/>
+      <c r="B5" s="177"/>
       <c r="C5" s="47">
         <v>44380</v>
       </c>
@@ -6442,7 +6482,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="179"/>
+      <c r="B6" s="178"/>
       <c r="C6" s="36">
         <v>44396</v>
       </c>
@@ -6458,7 +6498,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="170" t="s">
+      <c r="B8" s="169" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="36">
@@ -6470,7 +6510,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="171"/>
+      <c r="B9" s="170"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -6670,7 +6710,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="176" t="s">
         <v>74</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -6680,13 +6720,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="178"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="178"/>
+      <c r="B4" s="177"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6694,7 +6734,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="178"/>
+      <c r="B5" s="177"/>
       <c r="C5" s="47">
         <v>44621</v>
       </c>
@@ -6704,7 +6744,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="179"/>
+      <c r="B6" s="178"/>
       <c r="C6" s="36">
         <v>44656</v>
       </c>
@@ -6720,7 +6760,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="170"/>
+      <c r="B8" s="169"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37">
         <v>0</v>
@@ -6728,7 +6768,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="171"/>
+      <c r="B9" s="170"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1098,6 +1098,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1107,6 +1108,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1116,36 +1147,6 @@
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1230,7 +1231,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2591,17 +2591,17 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="135" t="s">
+      <c r="C3" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="138"/>
       <c r="H3" s="50"/>
-      <c r="I3" s="135" t="s">
+      <c r="I3" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="136"/>
-      <c r="K3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="138"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3041,11 +3041,11 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="135" t="s">
+      <c r="C3" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="138"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3199,18 +3199,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="138" t="s">
+      <c r="C3" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="138"/>
+      <c r="D3" s="149"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="144"/>
+      <c r="D4" s="140"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3220,10 +3220,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="139" t="s">
+      <c r="B6" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="140"/>
+      <c r="C6" s="151"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3240,10 +3240,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="141" t="s">
+      <c r="B8" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="142"/>
+      <c r="C8" s="148"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3260,10 +3260,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="141" t="s">
+      <c r="B10" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="142"/>
+      <c r="C10" s="148"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3280,10 +3280,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="141" t="s">
+      <c r="B12" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="142"/>
+      <c r="C12" s="148"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3300,10 +3300,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="141" t="s">
+      <c r="B14" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="142"/>
+      <c r="C14" s="148"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3320,10 +3320,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="145" t="s">
+      <c r="B16" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="146"/>
+      <c r="C16" s="142"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3340,14 +3340,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="145" t="s">
+      <c r="B18" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="146"/>
+      <c r="C18" s="142"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="147" t="s">
+      <c r="E18" s="143" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="148"/>
+      <c r="E19" s="144"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3368,10 +3368,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="145" t="s">
+      <c r="B21" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="146"/>
+      <c r="C21" s="142"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3388,10 +3388,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="149" t="s">
+      <c r="B23" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="150"/>
+      <c r="C23" s="146"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3408,10 +3408,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="143" t="s">
+      <c r="B25" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="143"/>
+      <c r="C25" s="139"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3462,6 +3462,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3470,11 +3475,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3513,11 +3513,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="135" t="s">
+      <c r="C3" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="138"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3718,11 +3718,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="135" t="s">
+      <c r="C3" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="138"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3907,11 +3907,11 @@
     </row>
     <row r="3" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="50"/>
-      <c r="C3" s="135" t="s">
+      <c r="C3" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="138"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4115,9 +4115,9 @@
       <c r="B3" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="138"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4348,9 +4348,9 @@
       <c r="B3" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="138"/>
     </row>
     <row r="4" spans="2:5" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4708,36 +4708,36 @@
     </row>
     <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="151" t="s">
+      <c r="B57" s="152" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="152"/>
-      <c r="D57" s="152"/>
-      <c r="E57" s="153"/>
+      <c r="C57" s="153"/>
+      <c r="D57" s="153"/>
+      <c r="E57" s="154"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="154"/>
-      <c r="C58" s="155"/>
-      <c r="D58" s="155"/>
-      <c r="E58" s="156"/>
+      <c r="B58" s="155"/>
+      <c r="C58" s="156"/>
+      <c r="D58" s="156"/>
+      <c r="E58" s="157"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="154"/>
-      <c r="C59" s="155"/>
-      <c r="D59" s="155"/>
-      <c r="E59" s="156"/>
+      <c r="B59" s="155"/>
+      <c r="C59" s="156"/>
+      <c r="D59" s="156"/>
+      <c r="E59" s="157"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="154"/>
-      <c r="C60" s="155"/>
-      <c r="D60" s="155"/>
-      <c r="E60" s="156"/>
+      <c r="B60" s="155"/>
+      <c r="C60" s="156"/>
+      <c r="D60" s="156"/>
+      <c r="E60" s="157"/>
     </row>
     <row r="61" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="157"/>
-      <c r="C61" s="158"/>
-      <c r="D61" s="158"/>
-      <c r="E61" s="159"/>
+      <c r="B61" s="158"/>
+      <c r="C61" s="159"/>
+      <c r="D61" s="159"/>
+      <c r="E61" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4782,9 +4782,9 @@
       <c r="B3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="138"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -5027,12 +5027,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="160" t="s">
+      <c r="B3" s="161" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="163"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
       <c r="I3" s="94"/>
@@ -5816,7 +5816,7 @@
       <c r="D82" s="77">
         <v>300000</v>
       </c>
-      <c r="E82" s="179" t="s">
+      <c r="E82" s="135" t="s">
         <v>76</v>
       </c>
     </row>
@@ -5933,12 +5933,12 @@
       <c r="E94" s="100">
         <v>44264</v>
       </c>
-      <c r="G94" s="163">
+      <c r="G94" s="164">
         <f>D92+D93+D94+D95</f>
         <v>-7492427.9600000009</v>
       </c>
-      <c r="H94" s="164"/>
-      <c r="I94" s="165"/>
+      <c r="H94" s="165"/>
+      <c r="I94" s="166"/>
     </row>
     <row r="95" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="110"/>
@@ -5952,9 +5952,9 @@
       <c r="E95" s="100">
         <v>44264</v>
       </c>
-      <c r="G95" s="166"/>
-      <c r="H95" s="167"/>
-      <c r="I95" s="168"/>
+      <c r="G95" s="167"/>
+      <c r="H95" s="168"/>
+      <c r="I95" s="169"/>
     </row>
     <row r="96" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="111"/>
@@ -6195,23 +6195,23 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="172" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="175" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="175"/>
+      <c r="D2" s="176"/>
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="172"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="138"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="173"/>
+      <c r="B4" s="174"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6249,13 +6249,13 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="169"/>
+      <c r="B8" s="170"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="170"/>
+      <c r="B9" s="171"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -6448,7 +6448,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="177" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -6458,13 +6458,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="177"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="138"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="177"/>
+      <c r="B4" s="178"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6472,7 +6472,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="177"/>
+      <c r="B5" s="178"/>
       <c r="C5" s="47">
         <v>44380</v>
       </c>
@@ -6482,7 +6482,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="178"/>
+      <c r="B6" s="179"/>
       <c r="C6" s="36">
         <v>44396</v>
       </c>
@@ -6498,7 +6498,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="169" t="s">
+      <c r="B8" s="170" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="36">
@@ -6510,7 +6510,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="170"/>
+      <c r="B9" s="171"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -6710,7 +6710,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="177" t="s">
         <v>74</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -6720,13 +6720,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="177"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="138"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="177"/>
+      <c r="B4" s="178"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6734,7 +6734,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="177"/>
+      <c r="B5" s="178"/>
       <c r="C5" s="47">
         <v>44621</v>
       </c>
@@ -6744,7 +6744,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="178"/>
+      <c r="B6" s="179"/>
       <c r="C6" s="36">
         <v>44656</v>
       </c>
@@ -6760,7 +6760,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="169"/>
+      <c r="B8" s="170"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37">
         <v>0</v>
@@ -6768,7 +6768,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="170"/>
+      <c r="B9" s="171"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="82">
   <si>
     <t xml:space="preserve">PAGOS  SOBRE REMODELACION </t>
   </si>
@@ -303,6 +303,9 @@
   </si>
   <si>
     <t xml:space="preserve">PAGOS  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AISLANTE TERMICO PISOS </t>
   </si>
 </sst>
 </file>
@@ -1108,6 +1111,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1130,21 +1148,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3199,18 +3202,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="149"/>
+      <c r="D3" s="139"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="140"/>
+      <c r="D4" s="145"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3220,10 +3223,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="150" t="s">
+      <c r="B6" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="151"/>
+      <c r="C6" s="141"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3240,10 +3243,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="147" t="s">
+      <c r="B8" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="148"/>
+      <c r="C8" s="143"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3260,10 +3263,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="147" t="s">
+      <c r="B10" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="148"/>
+      <c r="C10" s="143"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3280,10 +3283,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="147" t="s">
+      <c r="B12" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="148"/>
+      <c r="C12" s="143"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3300,10 +3303,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="147" t="s">
+      <c r="B14" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="148"/>
+      <c r="C14" s="143"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3320,10 +3323,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="141" t="s">
+      <c r="B16" s="146" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="142"/>
+      <c r="C16" s="147"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3340,14 +3343,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="141" t="s">
+      <c r="B18" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="142"/>
+      <c r="C18" s="147"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="143" t="s">
+      <c r="E18" s="148" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3357,7 +3360,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="144"/>
+      <c r="E19" s="149"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3368,10 +3371,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="141" t="s">
+      <c r="B21" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="142"/>
+      <c r="C21" s="147"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3388,10 +3391,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="145" t="s">
+      <c r="B23" s="150" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="146"/>
+      <c r="C23" s="151"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3408,10 +3411,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="139" t="s">
+      <c r="B25" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="139"/>
+      <c r="C25" s="144"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3462,11 +3465,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3475,6 +3473,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5005,7 +5008,7 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5817,7 +5820,7 @@
         <v>300000</v>
       </c>
       <c r="E82" s="135" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -845,7 +845,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1111,6 +1111,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1120,36 +1150,6 @@
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1234,6 +1234,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -3202,18 +3203,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="139" t="s">
+      <c r="C3" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="139"/>
+      <c r="D3" s="149"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="145" t="s">
+      <c r="C4" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="145"/>
+      <c r="D4" s="140"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3223,10 +3224,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="140" t="s">
+      <c r="B6" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="141"/>
+      <c r="C6" s="151"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3243,10 +3244,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="142" t="s">
+      <c r="B8" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="143"/>
+      <c r="C8" s="148"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3263,10 +3264,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="142" t="s">
+      <c r="B10" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="143"/>
+      <c r="C10" s="148"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3283,10 +3284,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="142" t="s">
+      <c r="B12" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="143"/>
+      <c r="C12" s="148"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3303,10 +3304,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="142" t="s">
+      <c r="B14" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="143"/>
+      <c r="C14" s="148"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3323,10 +3324,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="146" t="s">
+      <c r="B16" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="147"/>
+      <c r="C16" s="142"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3343,14 +3344,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="146" t="s">
+      <c r="B18" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="147"/>
+      <c r="C18" s="142"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="148" t="s">
+      <c r="E18" s="143" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3360,7 +3361,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="149"/>
+      <c r="E19" s="144"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3371,10 +3372,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="146" t="s">
+      <c r="B21" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="147"/>
+      <c r="C21" s="142"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3391,10 +3392,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="150" t="s">
+      <c r="B23" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="151"/>
+      <c r="C23" s="146"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3411,10 +3412,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="144" t="s">
+      <c r="B25" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="144"/>
+      <c r="C25" s="139"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3465,6 +3466,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3473,11 +3479,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5007,8 +5008,8 @@
   </sheetPr>
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5806,7 +5807,7 @@
       <c r="C81" s="76">
         <v>44709</v>
       </c>
-      <c r="D81" s="77">
+      <c r="D81" s="180">
         <v>200000</v>
       </c>
       <c r="E81" s="127"/>
@@ -5828,7 +5829,7 @@
       <c r="C83" s="76">
         <v>44716</v>
       </c>
-      <c r="D83" s="77">
+      <c r="D83" s="180">
         <v>150000</v>
       </c>
       <c r="E83" s="127"/>
@@ -5838,7 +5839,7 @@
       <c r="C84" s="76">
         <v>44716</v>
       </c>
-      <c r="D84" s="77">
+      <c r="D84" s="180">
         <v>50000</v>
       </c>
       <c r="E84" s="127"/>
@@ -5848,7 +5849,7 @@
       <c r="C85" s="76">
         <v>44723</v>
       </c>
-      <c r="D85" s="77">
+      <c r="D85" s="180">
         <v>150000</v>
       </c>
       <c r="E85" s="127"/>
@@ -5858,15 +5859,19 @@
       <c r="C86" s="76">
         <v>44723</v>
       </c>
-      <c r="D86" s="77">
+      <c r="D86" s="180">
         <v>50000</v>
       </c>
       <c r="E86" s="127"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B87" s="126"/>
-      <c r="C87" s="76"/>
-      <c r="D87" s="77"/>
+      <c r="C87" s="76">
+        <v>44730</v>
+      </c>
+      <c r="D87" s="77">
+        <v>100000</v>
+      </c>
       <c r="E87" s="127"/>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -5895,7 +5900,7 @@
       </c>
       <c r="D91" s="99">
         <f>SUM(D5:D90)</f>
-        <v>8320000</v>
+        <v>8420000</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5974,7 +5979,7 @@
       </c>
       <c r="D97" s="116">
         <f>D94+D91+D92+D93+D95+D96</f>
-        <v>827572.03999999957</v>
+        <v>927572.03999999957</v>
       </c>
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1102,6 +1102,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1111,6 +1112,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1135,21 +1151,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1234,7 +1235,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2595,17 +2595,17 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="136" t="s">
+      <c r="C3" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
       <c r="H3" s="50"/>
-      <c r="I3" s="136" t="s">
+      <c r="I3" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="137"/>
-      <c r="K3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="139"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3045,11 +3045,11 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="136" t="s">
+      <c r="C3" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3203,18 +3203,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="149"/>
+      <c r="D3" s="140"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="140"/>
+      <c r="D4" s="146"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3224,10 +3224,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="150" t="s">
+      <c r="B6" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="151"/>
+      <c r="C6" s="142"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3244,10 +3244,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="147" t="s">
+      <c r="B8" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="148"/>
+      <c r="C8" s="144"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3264,10 +3264,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="147" t="s">
+      <c r="B10" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="148"/>
+      <c r="C10" s="144"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3284,10 +3284,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="147" t="s">
+      <c r="B12" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="148"/>
+      <c r="C12" s="144"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3304,10 +3304,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="147" t="s">
+      <c r="B14" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="148"/>
+      <c r="C14" s="144"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3324,10 +3324,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="141" t="s">
+      <c r="B16" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="142"/>
+      <c r="C16" s="148"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3344,14 +3344,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="141" t="s">
+      <c r="B18" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="142"/>
+      <c r="C18" s="148"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="143" t="s">
+      <c r="E18" s="149" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3361,7 +3361,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="144"/>
+      <c r="E19" s="150"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3372,10 +3372,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="141" t="s">
+      <c r="B21" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="142"/>
+      <c r="C21" s="148"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3392,10 +3392,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="145" t="s">
+      <c r="B23" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="146"/>
+      <c r="C23" s="152"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3412,10 +3412,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="139" t="s">
+      <c r="B25" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="139"/>
+      <c r="C25" s="145"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3466,11 +3466,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3479,6 +3474,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3517,11 +3517,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="136" t="s">
+      <c r="C3" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3722,11 +3722,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="136" t="s">
+      <c r="C3" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3911,11 +3911,11 @@
     </row>
     <row r="3" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="50"/>
-      <c r="C3" s="136" t="s">
+      <c r="C3" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4119,9 +4119,9 @@
       <c r="B3" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4352,9 +4352,9 @@
       <c r="B3" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
     </row>
     <row r="4" spans="2:5" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4712,36 +4712,36 @@
     </row>
     <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="152" t="s">
+      <c r="B57" s="153" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="153"/>
-      <c r="D57" s="153"/>
-      <c r="E57" s="154"/>
+      <c r="C57" s="154"/>
+      <c r="D57" s="154"/>
+      <c r="E57" s="155"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="155"/>
-      <c r="C58" s="156"/>
-      <c r="D58" s="156"/>
-      <c r="E58" s="157"/>
+      <c r="B58" s="156"/>
+      <c r="C58" s="157"/>
+      <c r="D58" s="157"/>
+      <c r="E58" s="158"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="155"/>
-      <c r="C59" s="156"/>
-      <c r="D59" s="156"/>
-      <c r="E59" s="157"/>
+      <c r="B59" s="156"/>
+      <c r="C59" s="157"/>
+      <c r="D59" s="157"/>
+      <c r="E59" s="158"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="155"/>
-      <c r="C60" s="156"/>
-      <c r="D60" s="156"/>
-      <c r="E60" s="157"/>
+      <c r="B60" s="156"/>
+      <c r="C60" s="157"/>
+      <c r="D60" s="157"/>
+      <c r="E60" s="158"/>
     </row>
     <row r="61" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="158"/>
-      <c r="C61" s="159"/>
-      <c r="D61" s="159"/>
-      <c r="E61" s="160"/>
+      <c r="B61" s="159"/>
+      <c r="C61" s="160"/>
+      <c r="D61" s="160"/>
+      <c r="E61" s="161"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4786,9 +4786,9 @@
       <c r="B3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -5009,7 +5009,7 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5031,12 +5031,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="162" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="164"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
       <c r="I3" s="94"/>
@@ -5807,7 +5807,7 @@
       <c r="C81" s="76">
         <v>44709</v>
       </c>
-      <c r="D81" s="180">
+      <c r="D81" s="136">
         <v>200000</v>
       </c>
       <c r="E81" s="127"/>
@@ -5829,7 +5829,7 @@
       <c r="C83" s="76">
         <v>44716</v>
       </c>
-      <c r="D83" s="180">
+      <c r="D83" s="136">
         <v>150000</v>
       </c>
       <c r="E83" s="127"/>
@@ -5839,7 +5839,7 @@
       <c r="C84" s="76">
         <v>44716</v>
       </c>
-      <c r="D84" s="180">
+      <c r="D84" s="136">
         <v>50000</v>
       </c>
       <c r="E84" s="127"/>
@@ -5849,7 +5849,7 @@
       <c r="C85" s="76">
         <v>44723</v>
       </c>
-      <c r="D85" s="180">
+      <c r="D85" s="136">
         <v>150000</v>
       </c>
       <c r="E85" s="127"/>
@@ -5859,7 +5859,7 @@
       <c r="C86" s="76">
         <v>44723</v>
       </c>
-      <c r="D86" s="180">
+      <c r="D86" s="136">
         <v>50000</v>
       </c>
       <c r="E86" s="127"/>
@@ -5876,8 +5876,12 @@
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B88" s="126"/>
-      <c r="C88" s="76"/>
-      <c r="D88" s="77"/>
+      <c r="C88" s="76">
+        <v>44736</v>
+      </c>
+      <c r="D88" s="77">
+        <v>100000</v>
+      </c>
       <c r="E88" s="127"/>
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -5900,7 +5904,7 @@
       </c>
       <c r="D91" s="99">
         <f>SUM(D5:D90)</f>
-        <v>8420000</v>
+        <v>8520000</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5941,12 +5945,12 @@
       <c r="E94" s="100">
         <v>44264</v>
       </c>
-      <c r="G94" s="164">
+      <c r="G94" s="165">
         <f>D92+D93+D94+D95</f>
         <v>-7492427.9600000009</v>
       </c>
-      <c r="H94" s="165"/>
-      <c r="I94" s="166"/>
+      <c r="H94" s="166"/>
+      <c r="I94" s="167"/>
     </row>
     <row r="95" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="110"/>
@@ -5960,9 +5964,9 @@
       <c r="E95" s="100">
         <v>44264</v>
       </c>
-      <c r="G95" s="167"/>
-      <c r="H95" s="168"/>
-      <c r="I95" s="169"/>
+      <c r="G95" s="168"/>
+      <c r="H95" s="169"/>
+      <c r="I95" s="170"/>
     </row>
     <row r="96" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="111"/>
@@ -5979,7 +5983,7 @@
       </c>
       <c r="D97" s="116">
         <f>D94+D91+D92+D93+D95+D96</f>
-        <v>927572.03999999957</v>
+        <v>1027572.0399999996</v>
       </c>
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.25">
@@ -6203,23 +6207,23 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="173" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="175" t="s">
+      <c r="C2" s="176" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="176"/>
+      <c r="D2" s="177"/>
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="173"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="174"/>
+      <c r="B4" s="175"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6257,13 +6261,13 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="170"/>
+      <c r="B8" s="171"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="171"/>
+      <c r="B9" s="172"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -6456,7 +6460,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="178" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -6466,13 +6470,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="178"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="178"/>
+      <c r="B4" s="179"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6480,7 +6484,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="178"/>
+      <c r="B5" s="179"/>
       <c r="C5" s="47">
         <v>44380</v>
       </c>
@@ -6490,7 +6494,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="179"/>
+      <c r="B6" s="180"/>
       <c r="C6" s="36">
         <v>44396</v>
       </c>
@@ -6506,7 +6510,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="170" t="s">
+      <c r="B8" s="171" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="36">
@@ -6518,7 +6522,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="171"/>
+      <c r="B9" s="172"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -6718,7 +6722,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="178" t="s">
         <v>74</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -6728,13 +6732,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="178"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="178"/>
+      <c r="B4" s="179"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6742,7 +6746,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="178"/>
+      <c r="B5" s="179"/>
       <c r="C5" s="47">
         <v>44621</v>
       </c>
@@ -6752,7 +6756,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="179"/>
+      <c r="B6" s="180"/>
       <c r="C6" s="36">
         <v>44656</v>
       </c>
@@ -6768,7 +6772,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="170"/>
+      <c r="B8" s="171"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37">
         <v>0</v>
@@ -6776,7 +6780,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="171"/>
+      <c r="B9" s="172"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -845,7 +845,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1112,6 +1112,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1121,36 +1151,6 @@
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1235,6 +1235,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1702,15 +1703,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>428624</xdr:rowOff>
+      <xdr:rowOff>400049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1725,8 +1726,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4867275" y="5305424"/>
-          <a:ext cx="1581150" cy="1781175"/>
+          <a:off x="4857750" y="16697324"/>
+          <a:ext cx="1581150" cy="2286000"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst/>
@@ -3203,18 +3204,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="140" t="s">
+      <c r="C3" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="140"/>
+      <c r="D3" s="150"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="146" t="s">
+      <c r="C4" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="146"/>
+      <c r="D4" s="141"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3224,10 +3225,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="151" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="142"/>
+      <c r="C6" s="152"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3244,10 +3245,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="143" t="s">
+      <c r="B8" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="144"/>
+      <c r="C8" s="149"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3264,10 +3265,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="143" t="s">
+      <c r="B10" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="144"/>
+      <c r="C10" s="149"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3284,10 +3285,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="143" t="s">
+      <c r="B12" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="144"/>
+      <c r="C12" s="149"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3304,10 +3305,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="143" t="s">
+      <c r="B14" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="144"/>
+      <c r="C14" s="149"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3324,10 +3325,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="147" t="s">
+      <c r="B16" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="148"/>
+      <c r="C16" s="143"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3344,14 +3345,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="147" t="s">
+      <c r="B18" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="148"/>
+      <c r="C18" s="143"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="149" t="s">
+      <c r="E18" s="144" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3361,7 +3362,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="150"/>
+      <c r="E19" s="145"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3372,10 +3373,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="147" t="s">
+      <c r="B21" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="148"/>
+      <c r="C21" s="143"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3392,10 +3393,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="151" t="s">
+      <c r="B23" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="152"/>
+      <c r="C23" s="147"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3412,10 +3413,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="145" t="s">
+      <c r="B25" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="145"/>
+      <c r="C25" s="140"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3466,6 +3467,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3474,11 +3480,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5006,10 +5007,10 @@
   <sheetPr>
     <tabColor rgb="FF00FF99"/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5887,7 +5888,9 @@
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B89" s="126"/>
       <c r="C89" s="76"/>
-      <c r="D89" s="77"/>
+      <c r="D89" s="77">
+        <v>0</v>
+      </c>
       <c r="E89" s="127"/>
     </row>
     <row r="90" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5898,7 +5901,7 @@
       </c>
       <c r="E90" s="95"/>
     </row>
-    <row r="91" spans="1:9" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C91" s="98" t="s">
         <v>3</v>
       </c>
@@ -5907,99 +5910,103 @@
         <v>8520000</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="106"/>
-      <c r="B92" s="107"/>
-      <c r="C92" s="108" t="s">
+    <row r="92" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C92" s="48"/>
+      <c r="D92" s="181"/>
+    </row>
+    <row r="93" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="106"/>
+      <c r="B93" s="107"/>
+      <c r="C93" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="D92" s="109">
+      <c r="D93" s="109">
         <v>-3644591.85</v>
       </c>
-      <c r="E92" s="102">
+      <c r="E93" s="102">
         <v>44264</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="110"/>
-      <c r="B93" s="103"/>
-      <c r="C93" s="104" t="s">
+    <row r="94" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="110"/>
+      <c r="B94" s="103"/>
+      <c r="C94" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="D93" s="105">
+      <c r="D94" s="105">
         <v>-1303474.18</v>
-      </c>
-      <c r="E93" s="100">
-        <v>44264</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="110"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="104" t="s">
-        <v>61</v>
-      </c>
-      <c r="D94" s="105">
-        <v>-937943.41</v>
       </c>
       <c r="E94" s="100">
         <v>44264</v>
       </c>
-      <c r="G94" s="165">
-        <f>D92+D93+D94+D95</f>
-        <v>-7492427.9600000009</v>
-      </c>
-      <c r="H94" s="166"/>
-      <c r="I94" s="167"/>
-    </row>
-    <row r="95" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="110"/>
       <c r="B95" s="3"/>
       <c r="C95" s="104" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D95" s="105">
-        <v>-1606418.52</v>
+        <v>-937943.41</v>
       </c>
       <c r="E95" s="100">
         <v>44264</v>
       </c>
-      <c r="G95" s="168"/>
-      <c r="H95" s="169"/>
-      <c r="I95" s="170"/>
+      <c r="G95" s="165">
+        <f>D93+D94+D95+D96</f>
+        <v>-7492427.9600000009</v>
+      </c>
+      <c r="H95" s="166"/>
+      <c r="I95" s="167"/>
     </row>
     <row r="96" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="111"/>
-      <c r="B96" s="112"/>
-      <c r="C96" s="113"/>
-      <c r="D96" s="114">
-        <v>0</v>
-      </c>
-      <c r="E96" s="101"/>
-    </row>
-    <row r="97" spans="3:4" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C97" s="115" t="s">
+      <c r="A96" s="110"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="D96" s="105">
+        <v>-1606418.52</v>
+      </c>
+      <c r="E96" s="100">
+        <v>44264</v>
+      </c>
+      <c r="G96" s="168"/>
+      <c r="H96" s="169"/>
+      <c r="I96" s="170"/>
+    </row>
+    <row r="97" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="111"/>
+      <c r="B97" s="112"/>
+      <c r="C97" s="113"/>
+      <c r="D97" s="114">
+        <v>0</v>
+      </c>
+      <c r="E97" s="101"/>
+    </row>
+    <row r="98" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C98" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="D97" s="116">
-        <f>D94+D91+D92+D93+D95+D96</f>
+      <c r="D98" s="116">
+        <f>D95+D91+D93+D94+D96+D97</f>
         <v>1027572.0399999996</v>
       </c>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C98" s="1"/>
-      <c r="D98" s="2" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C99" s="1"/>
+      <c r="D99" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C99" s="1"/>
-    </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C102" s="1"/>
     </row>
   </sheetData>
   <sortState ref="C34:D36">
@@ -6007,7 +6014,7 @@
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G94:I95"/>
+    <mergeCell ref="G95:I96"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.13" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1103,6 +1103,7 @@
     </xf>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1112,6 +1113,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1136,21 +1152,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1235,7 +1236,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2596,17 +2596,17 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="137" t="s">
+      <c r="C3" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
       <c r="H3" s="50"/>
-      <c r="I3" s="137" t="s">
+      <c r="I3" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="138"/>
-      <c r="K3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="140"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3046,11 +3046,11 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="137" t="s">
+      <c r="C3" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3204,18 +3204,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="150" t="s">
+      <c r="C3" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="150"/>
+      <c r="D3" s="141"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="141" t="s">
+      <c r="C4" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="141"/>
+      <c r="D4" s="147"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3225,10 +3225,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="151" t="s">
+      <c r="B6" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="152"/>
+      <c r="C6" s="143"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3245,10 +3245,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="148" t="s">
+      <c r="B8" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="149"/>
+      <c r="C8" s="145"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3265,10 +3265,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="148" t="s">
+      <c r="B10" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="149"/>
+      <c r="C10" s="145"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3285,10 +3285,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="148" t="s">
+      <c r="B12" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="149"/>
+      <c r="C12" s="145"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3305,10 +3305,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="148" t="s">
+      <c r="B14" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="149"/>
+      <c r="C14" s="145"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3325,10 +3325,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="142" t="s">
+      <c r="B16" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="143"/>
+      <c r="C16" s="149"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3345,14 +3345,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="142" t="s">
+      <c r="B18" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="143"/>
+      <c r="C18" s="149"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="144" t="s">
+      <c r="E18" s="150" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3362,7 +3362,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="145"/>
+      <c r="E19" s="151"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3373,10 +3373,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="142" t="s">
+      <c r="B21" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="143"/>
+      <c r="C21" s="149"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3393,10 +3393,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="146" t="s">
+      <c r="B23" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="147"/>
+      <c r="C23" s="153"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3413,10 +3413,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="140" t="s">
+      <c r="B25" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="140"/>
+      <c r="C25" s="146"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3467,11 +3467,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3480,6 +3475,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3518,11 +3518,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="137" t="s">
+      <c r="C3" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3723,11 +3723,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="137" t="s">
+      <c r="C3" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3912,11 +3912,11 @@
     </row>
     <row r="3" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="50"/>
-      <c r="C3" s="137" t="s">
+      <c r="C3" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4120,9 +4120,9 @@
       <c r="B3" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="137"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4353,9 +4353,9 @@
       <c r="B3" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="137"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
     </row>
     <row r="4" spans="2:5" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4713,36 +4713,36 @@
     </row>
     <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="153" t="s">
+      <c r="B57" s="154" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="154"/>
-      <c r="D57" s="154"/>
-      <c r="E57" s="155"/>
+      <c r="C57" s="155"/>
+      <c r="D57" s="155"/>
+      <c r="E57" s="156"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="156"/>
-      <c r="C58" s="157"/>
-      <c r="D58" s="157"/>
-      <c r="E58" s="158"/>
+      <c r="B58" s="157"/>
+      <c r="C58" s="158"/>
+      <c r="D58" s="158"/>
+      <c r="E58" s="159"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="156"/>
-      <c r="C59" s="157"/>
-      <c r="D59" s="157"/>
-      <c r="E59" s="158"/>
+      <c r="B59" s="157"/>
+      <c r="C59" s="158"/>
+      <c r="D59" s="158"/>
+      <c r="E59" s="159"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="156"/>
-      <c r="C60" s="157"/>
-      <c r="D60" s="157"/>
-      <c r="E60" s="158"/>
+      <c r="B60" s="157"/>
+      <c r="C60" s="158"/>
+      <c r="D60" s="158"/>
+      <c r="E60" s="159"/>
     </row>
     <row r="61" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="159"/>
-      <c r="C61" s="160"/>
-      <c r="D61" s="160"/>
-      <c r="E61" s="161"/>
+      <c r="B61" s="160"/>
+      <c r="C61" s="161"/>
+      <c r="D61" s="161"/>
+      <c r="E61" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4787,9 +4787,9 @@
       <c r="B3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="137"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -5009,8 +5009,8 @@
   </sheetPr>
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5032,12 +5032,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="162" t="s">
+      <c r="B3" s="163" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="165"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
       <c r="I3" s="94"/>
@@ -5887,9 +5887,11 @@
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B89" s="126"/>
-      <c r="C89" s="76"/>
+      <c r="C89" s="76">
+        <v>44744</v>
+      </c>
       <c r="D89" s="77">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="E89" s="127"/>
     </row>
@@ -5907,12 +5909,12 @@
       </c>
       <c r="D91" s="99">
         <f>SUM(D5:D90)</f>
-        <v>8520000</v>
+        <v>8620000</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C92" s="48"/>
-      <c r="D92" s="181"/>
+      <c r="D92" s="137"/>
     </row>
     <row r="93" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="106"/>
@@ -5952,12 +5954,12 @@
       <c r="E95" s="100">
         <v>44264</v>
       </c>
-      <c r="G95" s="165">
+      <c r="G95" s="166">
         <f>D93+D94+D95+D96</f>
         <v>-7492427.9600000009</v>
       </c>
-      <c r="H95" s="166"/>
-      <c r="I95" s="167"/>
+      <c r="H95" s="167"/>
+      <c r="I95" s="168"/>
     </row>
     <row r="96" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="110"/>
@@ -5971,9 +5973,9 @@
       <c r="E96" s="100">
         <v>44264</v>
       </c>
-      <c r="G96" s="168"/>
-      <c r="H96" s="169"/>
-      <c r="I96" s="170"/>
+      <c r="G96" s="169"/>
+      <c r="H96" s="170"/>
+      <c r="I96" s="171"/>
     </row>
     <row r="97" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="111"/>
@@ -5990,7 +5992,7 @@
       </c>
       <c r="D98" s="116">
         <f>D95+D91+D93+D94+D96+D97</f>
-        <v>1027572.0399999996</v>
+        <v>1127572.0399999996</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -6214,23 +6216,23 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="173" t="s">
+      <c r="B2" s="174" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="177" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="177"/>
+      <c r="D2" s="178"/>
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="174"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="175"/>
+      <c r="B4" s="176"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6268,13 +6270,13 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="171"/>
+      <c r="B8" s="172"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="172"/>
+      <c r="B9" s="173"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -6467,7 +6469,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="179" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -6477,13 +6479,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="179"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="179"/>
+      <c r="B4" s="180"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6491,7 +6493,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="179"/>
+      <c r="B5" s="180"/>
       <c r="C5" s="47">
         <v>44380</v>
       </c>
@@ -6501,7 +6503,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="180"/>
+      <c r="B6" s="181"/>
       <c r="C6" s="36">
         <v>44396</v>
       </c>
@@ -6517,7 +6519,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="171" t="s">
+      <c r="B8" s="172" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="36">
@@ -6529,7 +6531,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="172"/>
+      <c r="B9" s="173"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -6729,7 +6731,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="179" t="s">
         <v>74</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -6739,13 +6741,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="179"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="179"/>
+      <c r="B4" s="180"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6753,7 +6755,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="179"/>
+      <c r="B5" s="180"/>
       <c r="C5" s="47">
         <v>44621</v>
       </c>
@@ -6763,7 +6765,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="180"/>
+      <c r="B6" s="181"/>
       <c r="C6" s="36">
         <v>44656</v>
       </c>
@@ -6779,7 +6781,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="171"/>
+      <c r="B8" s="172"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37">
         <v>0</v>
@@ -6787,7 +6789,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="172"/>
+      <c r="B9" s="173"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1113,6 +1113,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1120,36 +1150,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1704,13 +1704,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>400049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3204,18 +3204,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="141" t="s">
+      <c r="C3" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="141"/>
+      <c r="D3" s="151"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="147" t="s">
+      <c r="C4" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="147"/>
+      <c r="D4" s="142"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3225,10 +3225,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="143"/>
+      <c r="C6" s="153"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3245,10 +3245,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="144" t="s">
+      <c r="B8" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="145"/>
+      <c r="C8" s="150"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3265,10 +3265,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="144" t="s">
+      <c r="B10" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="145"/>
+      <c r="C10" s="150"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3285,10 +3285,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="144" t="s">
+      <c r="B12" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="145"/>
+      <c r="C12" s="150"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3305,10 +3305,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="144" t="s">
+      <c r="B14" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="145"/>
+      <c r="C14" s="150"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3325,10 +3325,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="148" t="s">
+      <c r="B16" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="149"/>
+      <c r="C16" s="144"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3345,14 +3345,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="148" t="s">
+      <c r="B18" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="149"/>
+      <c r="C18" s="144"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="150" t="s">
+      <c r="E18" s="145" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3362,7 +3362,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="151"/>
+      <c r="E19" s="146"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3373,10 +3373,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="148" t="s">
+      <c r="B21" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="149"/>
+      <c r="C21" s="144"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3393,10 +3393,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="152" t="s">
+      <c r="B23" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="153"/>
+      <c r="C23" s="148"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3413,10 +3413,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="146" t="s">
+      <c r="B25" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="146"/>
+      <c r="C25" s="141"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3467,6 +3467,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3475,11 +3480,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5007,10 +5007,10 @@
   <sheetPr>
     <tabColor rgb="FF00FF99"/>
   </sheetPr>
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="E80" s="127"/>
     </row>
-    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B81" s="126"/>
       <c r="C81" s="76">
         <v>44709</v>
@@ -5813,7 +5813,7 @@
       </c>
       <c r="E81" s="127"/>
     </row>
-    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B82" s="126"/>
       <c r="C82" s="76">
         <v>44713</v>
@@ -5825,7 +5825,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B83" s="126"/>
       <c r="C83" s="76">
         <v>44716</v>
@@ -5835,7 +5835,7 @@
       </c>
       <c r="E83" s="127"/>
     </row>
-    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B84" s="126"/>
       <c r="C84" s="76">
         <v>44716</v>
@@ -5845,7 +5845,7 @@
       </c>
       <c r="E84" s="127"/>
     </row>
-    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B85" s="126"/>
       <c r="C85" s="76">
         <v>44723</v>
@@ -5855,7 +5855,7 @@
       </c>
       <c r="E85" s="127"/>
     </row>
-    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B86" s="126"/>
       <c r="C86" s="76">
         <v>44723</v>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="E86" s="127"/>
     </row>
-    <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B87" s="126"/>
       <c r="C87" s="76">
         <v>44730</v>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="E87" s="127"/>
     </row>
-    <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B88" s="126"/>
       <c r="C88" s="76">
         <v>44736</v>
@@ -5885,7 +5885,7 @@
       </c>
       <c r="E88" s="127"/>
     </row>
-    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B89" s="126"/>
       <c r="C89" s="76">
         <v>44744</v>
@@ -5895,120 +5895,176 @@
       </c>
       <c r="E89" s="127"/>
     </row>
-    <row r="90" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="95"/>
-      <c r="C90" s="96"/>
-      <c r="D90" s="97">
-        <v>0</v>
-      </c>
-      <c r="E90" s="95"/>
-    </row>
-    <row r="91" spans="1:9" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C91" s="98" t="s">
+    <row r="90" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B90" s="126"/>
+      <c r="C90" s="76">
+        <v>44751</v>
+      </c>
+      <c r="D90" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E90" s="127"/>
+    </row>
+    <row r="91" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B91" s="126"/>
+      <c r="C91" s="76"/>
+      <c r="D91" s="77"/>
+      <c r="E91" s="127"/>
+    </row>
+    <row r="92" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B92" s="126"/>
+      <c r="C92" s="76"/>
+      <c r="D92" s="77"/>
+      <c r="E92" s="127"/>
+    </row>
+    <row r="93" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B93" s="126"/>
+      <c r="C93" s="76"/>
+      <c r="D93" s="77"/>
+      <c r="E93" s="127"/>
+    </row>
+    <row r="94" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B94" s="126"/>
+      <c r="C94" s="76"/>
+      <c r="D94" s="77"/>
+      <c r="E94" s="127"/>
+    </row>
+    <row r="95" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B95" s="126"/>
+      <c r="C95" s="76"/>
+      <c r="D95" s="77"/>
+      <c r="E95" s="127"/>
+    </row>
+    <row r="96" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B96" s="126"/>
+      <c r="C96" s="76"/>
+      <c r="D96" s="77"/>
+      <c r="E96" s="127"/>
+    </row>
+    <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B97" s="126"/>
+      <c r="C97" s="76"/>
+      <c r="D97" s="77"/>
+      <c r="E97" s="127"/>
+    </row>
+    <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B98" s="126"/>
+      <c r="C98" s="76"/>
+      <c r="D98" s="77"/>
+      <c r="E98" s="127"/>
+    </row>
+    <row r="99" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="95"/>
+      <c r="C99" s="96"/>
+      <c r="D99" s="97"/>
+      <c r="E99" s="95"/>
+    </row>
+    <row r="100" spans="1:9" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C100" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="D91" s="99">
-        <f>SUM(D5:D90)</f>
-        <v>8620000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C92" s="48"/>
-      <c r="D92" s="137"/>
-    </row>
-    <row r="93" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="106"/>
-      <c r="B93" s="107"/>
-      <c r="C93" s="108" t="s">
+      <c r="D100" s="99">
+        <f>SUM(D5:D99)</f>
+        <v>8720000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C101" s="48"/>
+      <c r="D101" s="137"/>
+    </row>
+    <row r="102" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="106"/>
+      <c r="B102" s="107"/>
+      <c r="C102" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="D93" s="109">
+      <c r="D102" s="109">
         <v>-3644591.85</v>
       </c>
-      <c r="E93" s="102">
+      <c r="E102" s="102">
         <v>44264</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="110"/>
-      <c r="B94" s="103"/>
-      <c r="C94" s="104" t="s">
+    <row r="103" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="110"/>
+      <c r="B103" s="103"/>
+      <c r="C103" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="D94" s="105">
+      <c r="D103" s="105">
         <v>-1303474.18</v>
       </c>
-      <c r="E94" s="100">
+      <c r="E103" s="100">
         <v>44264</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="110"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="104" t="s">
+    <row r="104" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="110"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="D95" s="105">
+      <c r="D104" s="105">
         <v>-937943.41</v>
       </c>
-      <c r="E95" s="100">
+      <c r="E104" s="100">
         <v>44264</v>
       </c>
-      <c r="G95" s="166">
-        <f>D93+D94+D95+D96</f>
+      <c r="G104" s="166">
+        <f>D102+D103+D104+D105</f>
         <v>-7492427.9600000009</v>
       </c>
-      <c r="H95" s="167"/>
-      <c r="I95" s="168"/>
-    </row>
-    <row r="96" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="110"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="104" t="s">
+      <c r="H104" s="167"/>
+      <c r="I104" s="168"/>
+    </row>
+    <row r="105" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="110"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="D96" s="105">
+      <c r="D105" s="105">
         <v>-1606418.52</v>
       </c>
-      <c r="E96" s="100">
+      <c r="E105" s="100">
         <v>44264</v>
       </c>
-      <c r="G96" s="169"/>
-      <c r="H96" s="170"/>
-      <c r="I96" s="171"/>
-    </row>
-    <row r="97" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="111"/>
-      <c r="B97" s="112"/>
-      <c r="C97" s="113"/>
-      <c r="D97" s="114">
-        <v>0</v>
-      </c>
-      <c r="E97" s="101"/>
-    </row>
-    <row r="98" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C98" s="115" t="s">
+      <c r="G105" s="169"/>
+      <c r="H105" s="170"/>
+      <c r="I105" s="171"/>
+    </row>
+    <row r="106" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="111"/>
+      <c r="B106" s="112"/>
+      <c r="C106" s="113"/>
+      <c r="D106" s="114">
+        <v>0</v>
+      </c>
+      <c r="E106" s="101"/>
+    </row>
+    <row r="107" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C107" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="D98" s="116">
-        <f>D95+D91+D93+D94+D96+D97</f>
-        <v>1127572.0399999996</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C99" s="1"/>
-      <c r="D99" s="2" t="s">
+      <c r="D107" s="116">
+        <f>D104+D100+D102+D103+D105+D106</f>
+        <v>1227572.0399999996</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C108" s="1"/>
+      <c r="D108" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C100" s="1"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C101" s="1"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C102" s="1"/>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C109" s="1"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C110" s="1"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C111" s="1"/>
     </row>
   </sheetData>
   <sortState ref="C34:D36">
@@ -6016,7 +6072,7 @@
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G95:I96"/>
+    <mergeCell ref="G104:I105"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.13" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="83">
   <si>
     <t xml:space="preserve">PAGOS  SOBRE REMODELACION </t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t xml:space="preserve">AISLANTE TERMICO PISOS </t>
+  </si>
+  <si>
+    <t>PISO CONCRETO</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1104,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1113,6 +1115,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1137,21 +1154,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1235,6 +1237,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2596,17 +2601,17 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="138" t="s">
+      <c r="C3" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="139"/>
-      <c r="E3" s="140"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
       <c r="H3" s="50"/>
-      <c r="I3" s="138" t="s">
+      <c r="I3" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="139"/>
-      <c r="K3" s="140"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="139"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3046,11 +3051,11 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="138" t="s">
+      <c r="C3" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="139"/>
-      <c r="E3" s="140"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3204,18 +3209,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="151" t="s">
+      <c r="C3" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="151"/>
+      <c r="D3" s="140"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="142" t="s">
+      <c r="C4" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="142"/>
+      <c r="D4" s="146"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3225,10 +3230,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="152" t="s">
+      <c r="B6" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="153"/>
+      <c r="C6" s="142"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3245,10 +3250,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="149" t="s">
+      <c r="B8" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="150"/>
+      <c r="C8" s="144"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3265,10 +3270,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="149" t="s">
+      <c r="B10" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="150"/>
+      <c r="C10" s="144"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3285,10 +3290,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="149" t="s">
+      <c r="B12" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="150"/>
+      <c r="C12" s="144"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3305,10 +3310,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="149" t="s">
+      <c r="B14" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="150"/>
+      <c r="C14" s="144"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3325,10 +3330,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="143" t="s">
+      <c r="B16" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="144"/>
+      <c r="C16" s="148"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3345,14 +3350,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="143" t="s">
+      <c r="B18" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="144"/>
+      <c r="C18" s="148"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="145" t="s">
+      <c r="E18" s="149" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3362,7 +3367,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="146"/>
+      <c r="E19" s="150"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3373,10 +3378,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="143" t="s">
+      <c r="B21" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="144"/>
+      <c r="C21" s="148"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3393,10 +3398,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="147" t="s">
+      <c r="B23" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="148"/>
+      <c r="C23" s="152"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3413,10 +3418,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="141" t="s">
+      <c r="B25" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="141"/>
+      <c r="C25" s="145"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3467,11 +3472,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3480,6 +3480,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3518,11 +3523,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="138" t="s">
+      <c r="C3" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="139"/>
-      <c r="E3" s="140"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3723,11 +3728,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="138" t="s">
+      <c r="C3" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="139"/>
-      <c r="E3" s="140"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3912,11 +3917,11 @@
     </row>
     <row r="3" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="50"/>
-      <c r="C3" s="138" t="s">
+      <c r="C3" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="139"/>
-      <c r="E3" s="140"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4120,9 +4125,9 @@
       <c r="B3" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="140"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4353,9 +4358,9 @@
       <c r="B3" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="140"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
     </row>
     <row r="4" spans="2:5" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4713,36 +4718,36 @@
     </row>
     <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="154" t="s">
+      <c r="B57" s="153" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="155"/>
-      <c r="D57" s="155"/>
-      <c r="E57" s="156"/>
+      <c r="C57" s="154"/>
+      <c r="D57" s="154"/>
+      <c r="E57" s="155"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="157"/>
-      <c r="C58" s="158"/>
-      <c r="D58" s="158"/>
-      <c r="E58" s="159"/>
+      <c r="B58" s="156"/>
+      <c r="C58" s="157"/>
+      <c r="D58" s="157"/>
+      <c r="E58" s="158"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="157"/>
-      <c r="C59" s="158"/>
-      <c r="D59" s="158"/>
-      <c r="E59" s="159"/>
+      <c r="B59" s="156"/>
+      <c r="C59" s="157"/>
+      <c r="D59" s="157"/>
+      <c r="E59" s="158"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="157"/>
-      <c r="C60" s="158"/>
-      <c r="D60" s="158"/>
-      <c r="E60" s="159"/>
+      <c r="B60" s="156"/>
+      <c r="C60" s="157"/>
+      <c r="D60" s="157"/>
+      <c r="E60" s="158"/>
     </row>
     <row r="61" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="160"/>
-      <c r="C61" s="161"/>
-      <c r="D61" s="161"/>
-      <c r="E61" s="162"/>
+      <c r="B61" s="159"/>
+      <c r="C61" s="160"/>
+      <c r="D61" s="160"/>
+      <c r="E61" s="161"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4787,9 +4792,9 @@
       <c r="B3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="140"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -5009,8 +5014,8 @@
   </sheetPr>
   <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5032,12 +5037,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="162" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="165"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="164"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
       <c r="I3" s="94"/>
@@ -5803,17 +5808,17 @@
       </c>
       <c r="E80" s="127"/>
     </row>
-    <row r="81" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B81" s="126"/>
       <c r="C81" s="76">
         <v>44709</v>
       </c>
-      <c r="D81" s="136">
+      <c r="D81" s="135">
         <v>200000</v>
       </c>
       <c r="E81" s="127"/>
     </row>
-    <row r="82" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B82" s="126"/>
       <c r="C82" s="76">
         <v>44713</v>
@@ -5821,51 +5826,54 @@
       <c r="D82" s="77">
         <v>300000</v>
       </c>
-      <c r="E82" s="135" t="s">
+      <c r="E82" s="181" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F82" s="85" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B83" s="126"/>
       <c r="C83" s="76">
         <v>44716</v>
       </c>
-      <c r="D83" s="136">
+      <c r="D83" s="135">
         <v>150000</v>
       </c>
       <c r="E83" s="127"/>
     </row>
-    <row r="84" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B84" s="126"/>
       <c r="C84" s="76">
         <v>44716</v>
       </c>
-      <c r="D84" s="136">
+      <c r="D84" s="135">
         <v>50000</v>
       </c>
       <c r="E84" s="127"/>
     </row>
-    <row r="85" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B85" s="126"/>
       <c r="C85" s="76">
         <v>44723</v>
       </c>
-      <c r="D85" s="136">
+      <c r="D85" s="135">
         <v>150000</v>
       </c>
       <c r="E85" s="127"/>
     </row>
-    <row r="86" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B86" s="126"/>
       <c r="C86" s="76">
         <v>44723</v>
       </c>
-      <c r="D86" s="136">
+      <c r="D86" s="135">
         <v>50000</v>
       </c>
       <c r="E86" s="127"/>
     </row>
-    <row r="87" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B87" s="126"/>
       <c r="C87" s="76">
         <v>44730</v>
@@ -5875,7 +5883,7 @@
       </c>
       <c r="E87" s="127"/>
     </row>
-    <row r="88" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B88" s="126"/>
       <c r="C88" s="76">
         <v>44736</v>
@@ -5885,7 +5893,7 @@
       </c>
       <c r="E88" s="127"/>
     </row>
-    <row r="89" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B89" s="126"/>
       <c r="C89" s="76">
         <v>44744</v>
@@ -5895,7 +5903,7 @@
       </c>
       <c r="E89" s="127"/>
     </row>
-    <row r="90" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B90" s="126"/>
       <c r="C90" s="76">
         <v>44751</v>
@@ -5905,37 +5913,46 @@
       </c>
       <c r="E90" s="127"/>
     </row>
-    <row r="91" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B91" s="126"/>
-      <c r="C91" s="76"/>
-      <c r="D91" s="77"/>
-      <c r="E91" s="127"/>
-    </row>
-    <row r="92" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C91" s="76">
+        <v>44746</v>
+      </c>
+      <c r="D91" s="77">
+        <v>500000</v>
+      </c>
+      <c r="E91" s="130" t="s">
+        <v>82</v>
+      </c>
+      <c r="F91" s="85" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B92" s="126"/>
       <c r="C92" s="76"/>
       <c r="D92" s="77"/>
       <c r="E92" s="127"/>
     </row>
-    <row r="93" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B93" s="126"/>
       <c r="C93" s="76"/>
       <c r="D93" s="77"/>
       <c r="E93" s="127"/>
     </row>
-    <row r="94" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B94" s="126"/>
       <c r="C94" s="76"/>
       <c r="D94" s="77"/>
       <c r="E94" s="127"/>
     </row>
-    <row r="95" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B95" s="126"/>
       <c r="C95" s="76"/>
       <c r="D95" s="77"/>
       <c r="E95" s="127"/>
     </row>
-    <row r="96" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B96" s="126"/>
       <c r="C96" s="76"/>
       <c r="D96" s="77"/>
@@ -5965,12 +5982,12 @@
       </c>
       <c r="D100" s="99">
         <f>SUM(D5:D99)</f>
-        <v>8720000</v>
+        <v>9220000</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C101" s="48"/>
-      <c r="D101" s="137"/>
+      <c r="D101" s="136"/>
     </row>
     <row r="102" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="106"/>
@@ -6010,12 +6027,12 @@
       <c r="E104" s="100">
         <v>44264</v>
       </c>
-      <c r="G104" s="166">
+      <c r="G104" s="165">
         <f>D102+D103+D104+D105</f>
         <v>-7492427.9600000009</v>
       </c>
-      <c r="H104" s="167"/>
-      <c r="I104" s="168"/>
+      <c r="H104" s="166"/>
+      <c r="I104" s="167"/>
     </row>
     <row r="105" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="110"/>
@@ -6029,9 +6046,9 @@
       <c r="E105" s="100">
         <v>44264</v>
       </c>
-      <c r="G105" s="169"/>
-      <c r="H105" s="170"/>
-      <c r="I105" s="171"/>
+      <c r="G105" s="168"/>
+      <c r="H105" s="169"/>
+      <c r="I105" s="170"/>
     </row>
     <row r="106" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="111"/>
@@ -6048,7 +6065,7 @@
       </c>
       <c r="D107" s="116">
         <f>D104+D100+D102+D103+D105+D106</f>
-        <v>1227572.0399999996</v>
+        <v>1727572.0400000005</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -6272,23 +6289,23 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="173" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="177" t="s">
+      <c r="C2" s="176" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="178"/>
+      <c r="D2" s="177"/>
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="175"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="140"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="176"/>
+      <c r="B4" s="175"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6326,13 +6343,13 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="172"/>
+      <c r="B8" s="171"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="173"/>
+      <c r="B9" s="172"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -6525,7 +6542,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="179" t="s">
+      <c r="B2" s="178" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -6535,13 +6552,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="180"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="140"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="180"/>
+      <c r="B4" s="179"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6549,7 +6566,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="180"/>
+      <c r="B5" s="179"/>
       <c r="C5" s="47">
         <v>44380</v>
       </c>
@@ -6559,7 +6576,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="181"/>
+      <c r="B6" s="180"/>
       <c r="C6" s="36">
         <v>44396</v>
       </c>
@@ -6575,7 +6592,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="172" t="s">
+      <c r="B8" s="171" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="36">
@@ -6587,7 +6604,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="173"/>
+      <c r="B9" s="172"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -6787,7 +6804,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="179" t="s">
+      <c r="B2" s="178" t="s">
         <v>74</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -6797,13 +6814,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="180"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="140"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="180"/>
+      <c r="B4" s="179"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6811,7 +6828,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="180"/>
+      <c r="B5" s="179"/>
       <c r="C5" s="47">
         <v>44621</v>
       </c>
@@ -6821,7 +6838,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="181"/>
+      <c r="B6" s="180"/>
       <c r="C6" s="36">
         <v>44656</v>
       </c>
@@ -6837,7 +6854,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="172"/>
+      <c r="B8" s="171"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37">
         <v>0</v>
@@ -6845,7 +6862,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="173"/>
+      <c r="B9" s="172"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1106,6 +1106,9 @@
     </xf>
     <xf numFmtId="44" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1115,6 +1118,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1124,36 +1157,6 @@
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1237,9 +1240,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2601,17 +2601,17 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="137" t="s">
+      <c r="C3" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
       <c r="H3" s="50"/>
-      <c r="I3" s="137" t="s">
+      <c r="I3" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="138"/>
-      <c r="K3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="140"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3051,11 +3051,11 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="137" t="s">
+      <c r="C3" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3209,18 +3209,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="140" t="s">
+      <c r="C3" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="140"/>
+      <c r="D3" s="151"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="146" t="s">
+      <c r="C4" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="146"/>
+      <c r="D4" s="142"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3230,10 +3230,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="142"/>
+      <c r="C6" s="153"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3250,10 +3250,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="143" t="s">
+      <c r="B8" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="144"/>
+      <c r="C8" s="150"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3270,10 +3270,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="143" t="s">
+      <c r="B10" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="144"/>
+      <c r="C10" s="150"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3290,10 +3290,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="143" t="s">
+      <c r="B12" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="144"/>
+      <c r="C12" s="150"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3310,10 +3310,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="143" t="s">
+      <c r="B14" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="144"/>
+      <c r="C14" s="150"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3330,10 +3330,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="147" t="s">
+      <c r="B16" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="148"/>
+      <c r="C16" s="144"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3350,14 +3350,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="147" t="s">
+      <c r="B18" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="148"/>
+      <c r="C18" s="144"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="149" t="s">
+      <c r="E18" s="145" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3367,7 +3367,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="150"/>
+      <c r="E19" s="146"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3378,10 +3378,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="147" t="s">
+      <c r="B21" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="148"/>
+      <c r="C21" s="144"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3398,10 +3398,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="151" t="s">
+      <c r="B23" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="152"/>
+      <c r="C23" s="148"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3418,10 +3418,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="145" t="s">
+      <c r="B25" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="145"/>
+      <c r="C25" s="141"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3472,6 +3472,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3480,11 +3485,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3523,11 +3523,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="137" t="s">
+      <c r="C3" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3728,11 +3728,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="137" t="s">
+      <c r="C3" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3917,11 +3917,11 @@
     </row>
     <row r="3" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="50"/>
-      <c r="C3" s="137" t="s">
+      <c r="C3" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4125,9 +4125,9 @@
       <c r="B3" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="137"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4358,9 +4358,9 @@
       <c r="B3" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="137"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
     </row>
     <row r="4" spans="2:5" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4718,36 +4718,36 @@
     </row>
     <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="153" t="s">
+      <c r="B57" s="154" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="154"/>
-      <c r="D57" s="154"/>
-      <c r="E57" s="155"/>
+      <c r="C57" s="155"/>
+      <c r="D57" s="155"/>
+      <c r="E57" s="156"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="156"/>
-      <c r="C58" s="157"/>
-      <c r="D58" s="157"/>
-      <c r="E58" s="158"/>
+      <c r="B58" s="157"/>
+      <c r="C58" s="158"/>
+      <c r="D58" s="158"/>
+      <c r="E58" s="159"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="156"/>
-      <c r="C59" s="157"/>
-      <c r="D59" s="157"/>
-      <c r="E59" s="158"/>
+      <c r="B59" s="157"/>
+      <c r="C59" s="158"/>
+      <c r="D59" s="158"/>
+      <c r="E59" s="159"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="156"/>
-      <c r="C60" s="157"/>
-      <c r="D60" s="157"/>
-      <c r="E60" s="158"/>
+      <c r="B60" s="157"/>
+      <c r="C60" s="158"/>
+      <c r="D60" s="158"/>
+      <c r="E60" s="159"/>
     </row>
     <row r="61" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="159"/>
-      <c r="C61" s="160"/>
-      <c r="D61" s="160"/>
-      <c r="E61" s="161"/>
+      <c r="B61" s="160"/>
+      <c r="C61" s="161"/>
+      <c r="D61" s="161"/>
+      <c r="E61" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4792,9 +4792,9 @@
       <c r="B3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="137"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -5014,8 +5014,8 @@
   </sheetPr>
   <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5037,12 +5037,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="162" t="s">
+      <c r="B3" s="163" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="165"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
       <c r="I3" s="94"/>
@@ -5826,7 +5826,7 @@
       <c r="D82" s="77">
         <v>300000</v>
       </c>
-      <c r="E82" s="181" t="s">
+      <c r="E82" s="137" t="s">
         <v>81</v>
       </c>
       <c r="F82" s="85" t="s">
@@ -5906,32 +5906,37 @@
     <row r="90" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B90" s="126"/>
       <c r="C90" s="76">
-        <v>44751</v>
+        <v>44746</v>
       </c>
       <c r="D90" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E90" s="127"/>
+        <v>500000</v>
+      </c>
+      <c r="E90" s="130" t="s">
+        <v>82</v>
+      </c>
+      <c r="F90" s="85" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="91" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B91" s="126"/>
       <c r="C91" s="76">
-        <v>44746</v>
+        <v>44751</v>
       </c>
       <c r="D91" s="77">
-        <v>500000</v>
-      </c>
-      <c r="E91" s="130" t="s">
-        <v>82</v>
-      </c>
-      <c r="F91" s="85" t="s">
-        <v>70</v>
-      </c>
+        <v>100000</v>
+      </c>
+      <c r="E91" s="127"/>
+      <c r="F91" s="85"/>
     </row>
     <row r="92" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B92" s="126"/>
-      <c r="C92" s="76"/>
-      <c r="D92" s="77"/>
+      <c r="C92" s="76">
+        <v>44758</v>
+      </c>
+      <c r="D92" s="77">
+        <v>100000</v>
+      </c>
       <c r="E92" s="127"/>
     </row>
     <row r="93" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -5982,7 +5987,7 @@
       </c>
       <c r="D100" s="99">
         <f>SUM(D5:D99)</f>
-        <v>9220000</v>
+        <v>9320000</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6027,12 +6032,12 @@
       <c r="E104" s="100">
         <v>44264</v>
       </c>
-      <c r="G104" s="165">
+      <c r="G104" s="166">
         <f>D102+D103+D104+D105</f>
         <v>-7492427.9600000009</v>
       </c>
-      <c r="H104" s="166"/>
-      <c r="I104" s="167"/>
+      <c r="H104" s="167"/>
+      <c r="I104" s="168"/>
     </row>
     <row r="105" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="110"/>
@@ -6046,9 +6051,9 @@
       <c r="E105" s="100">
         <v>44264</v>
       </c>
-      <c r="G105" s="168"/>
-      <c r="H105" s="169"/>
-      <c r="I105" s="170"/>
+      <c r="G105" s="169"/>
+      <c r="H105" s="170"/>
+      <c r="I105" s="171"/>
     </row>
     <row r="106" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="111"/>
@@ -6065,7 +6070,7 @@
       </c>
       <c r="D107" s="116">
         <f>D104+D100+D102+D103+D105+D106</f>
-        <v>1727572.0400000005</v>
+        <v>1827572.0400000005</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -6084,8 +6089,8 @@
       <c r="C111" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="C34:D36">
-    <sortCondition ref="C34:C36"/>
+  <sortState ref="C89:E91">
+    <sortCondition ref="C89:C91"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="B3:E3"/>
@@ -6289,23 +6294,23 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="173" t="s">
+      <c r="B2" s="174" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="177" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="177"/>
+      <c r="D2" s="178"/>
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="174"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="175"/>
+      <c r="B4" s="176"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6343,13 +6348,13 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="171"/>
+      <c r="B8" s="172"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="172"/>
+      <c r="B9" s="173"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -6542,7 +6547,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="179" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -6552,13 +6557,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="179"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="179"/>
+      <c r="B4" s="180"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6566,7 +6571,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="179"/>
+      <c r="B5" s="180"/>
       <c r="C5" s="47">
         <v>44380</v>
       </c>
@@ -6576,7 +6581,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="180"/>
+      <c r="B6" s="181"/>
       <c r="C6" s="36">
         <v>44396</v>
       </c>
@@ -6592,7 +6597,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="171" t="s">
+      <c r="B8" s="172" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="36">
@@ -6604,7 +6609,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="172"/>
+      <c r="B9" s="173"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -6804,7 +6809,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="179" t="s">
         <v>74</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -6814,13 +6819,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="179"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="179"/>
+      <c r="B4" s="180"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6828,7 +6833,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="179"/>
+      <c r="B5" s="180"/>
       <c r="C5" s="47">
         <v>44621</v>
       </c>
@@ -6838,7 +6843,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="180"/>
+      <c r="B6" s="181"/>
       <c r="C6" s="36">
         <v>44656</v>
       </c>
@@ -6854,7 +6859,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="171"/>
+      <c r="B8" s="172"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37">
         <v>0</v>
@@ -6862,7 +6867,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="172"/>
+      <c r="B9" s="173"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1118,6 +1118,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1140,21 +1155,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3209,18 +3209,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="151" t="s">
+      <c r="C3" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="151"/>
+      <c r="D3" s="141"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="142" t="s">
+      <c r="C4" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="142"/>
+      <c r="D4" s="147"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3230,10 +3230,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="152" t="s">
+      <c r="B6" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="153"/>
+      <c r="C6" s="143"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3250,10 +3250,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="149" t="s">
+      <c r="B8" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="150"/>
+      <c r="C8" s="145"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3270,10 +3270,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="149" t="s">
+      <c r="B10" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="150"/>
+      <c r="C10" s="145"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3290,10 +3290,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="149" t="s">
+      <c r="B12" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="150"/>
+      <c r="C12" s="145"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3310,10 +3310,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="149" t="s">
+      <c r="B14" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="150"/>
+      <c r="C14" s="145"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3330,10 +3330,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="143" t="s">
+      <c r="B16" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="144"/>
+      <c r="C16" s="149"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3350,14 +3350,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="143" t="s">
+      <c r="B18" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="144"/>
+      <c r="C18" s="149"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="145" t="s">
+      <c r="E18" s="150" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3367,7 +3367,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="146"/>
+      <c r="E19" s="151"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3378,10 +3378,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="143" t="s">
+      <c r="B21" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="144"/>
+      <c r="C21" s="149"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3398,10 +3398,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="147" t="s">
+      <c r="B23" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="148"/>
+      <c r="C23" s="153"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3418,10 +3418,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="141" t="s">
+      <c r="B25" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="141"/>
+      <c r="C25" s="146"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3472,11 +3472,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3485,6 +3480,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5015,7 +5015,7 @@
   <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5941,8 +5941,12 @@
     </row>
     <row r="93" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B93" s="126"/>
-      <c r="C93" s="76"/>
-      <c r="D93" s="77"/>
+      <c r="C93" s="76">
+        <v>44765</v>
+      </c>
+      <c r="D93" s="77">
+        <v>100000</v>
+      </c>
       <c r="E93" s="127"/>
     </row>
     <row r="94" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -5987,7 +5991,7 @@
       </c>
       <c r="D100" s="99">
         <f>SUM(D5:D99)</f>
-        <v>9320000</v>
+        <v>9420000</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6070,7 +6074,7 @@
       </c>
       <c r="D107" s="116">
         <f>D104+D100+D102+D103+D105+D106</f>
-        <v>1827572.0400000005</v>
+        <v>1927572.0400000005</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1118,6 +1118,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1125,36 +1155,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3209,18 +3209,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="141" t="s">
+      <c r="C3" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="141"/>
+      <c r="D3" s="151"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="147" t="s">
+      <c r="C4" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="147"/>
+      <c r="D4" s="142"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3230,10 +3230,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="143"/>
+      <c r="C6" s="153"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3250,10 +3250,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="144" t="s">
+      <c r="B8" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="145"/>
+      <c r="C8" s="150"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3270,10 +3270,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="144" t="s">
+      <c r="B10" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="145"/>
+      <c r="C10" s="150"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3290,10 +3290,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="144" t="s">
+      <c r="B12" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="145"/>
+      <c r="C12" s="150"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3310,10 +3310,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="144" t="s">
+      <c r="B14" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="145"/>
+      <c r="C14" s="150"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3330,10 +3330,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="148" t="s">
+      <c r="B16" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="149"/>
+      <c r="C16" s="144"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3350,14 +3350,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="148" t="s">
+      <c r="B18" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="149"/>
+      <c r="C18" s="144"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="150" t="s">
+      <c r="E18" s="145" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3367,7 +3367,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="151"/>
+      <c r="E19" s="146"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3378,10 +3378,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="148" t="s">
+      <c r="B21" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="149"/>
+      <c r="C21" s="144"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3398,10 +3398,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="152" t="s">
+      <c r="B23" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="153"/>
+      <c r="C23" s="148"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3418,10 +3418,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="146" t="s">
+      <c r="B25" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="146"/>
+      <c r="C25" s="141"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3472,6 +3472,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3480,11 +3485,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5015,7 +5015,7 @@
   <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5951,14 +5951,22 @@
     </row>
     <row r="94" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B94" s="126"/>
-      <c r="C94" s="76"/>
-      <c r="D94" s="77"/>
+      <c r="C94" s="76">
+        <v>44772</v>
+      </c>
+      <c r="D94" s="77">
+        <v>100000</v>
+      </c>
       <c r="E94" s="127"/>
     </row>
     <row r="95" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B95" s="126"/>
-      <c r="C95" s="76"/>
-      <c r="D95" s="77"/>
+      <c r="C95" s="76">
+        <v>44771</v>
+      </c>
+      <c r="D95" s="77">
+        <v>100000</v>
+      </c>
       <c r="E95" s="127"/>
     </row>
     <row r="96" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -5991,7 +5999,7 @@
       </c>
       <c r="D100" s="99">
         <f>SUM(D5:D99)</f>
-        <v>9420000</v>
+        <v>9620000</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6074,7 +6082,7 @@
       </c>
       <c r="D107" s="116">
         <f>D104+D100+D102+D103+D105+D106</f>
-        <v>1927572.0400000005</v>
+        <v>2127572.0400000005</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="85">
   <si>
     <t xml:space="preserve">PAGOS  SOBRE REMODELACION </t>
   </si>
@@ -310,6 +310,12 @@
   <si>
     <t>PISO CONCRETO</t>
   </si>
+  <si>
+    <t>ACOMETIDA ELECTRICA</t>
+  </si>
+  <si>
+    <t>Ing</t>
+  </si>
 </sst>
 </file>
 
@@ -321,7 +327,7 @@
     <numFmt numFmtId="165" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,6 +459,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -848,7 +862,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1109,6 +1123,8 @@
     <xf numFmtId="44" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1240,6 +1256,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1709,13 +1728,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>400049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2601,17 +2620,17 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="138" t="s">
+      <c r="C3" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="139"/>
-      <c r="E3" s="140"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
       <c r="H3" s="50"/>
-      <c r="I3" s="138" t="s">
+      <c r="I3" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="139"/>
-      <c r="K3" s="140"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="142"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3051,11 +3070,11 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="138" t="s">
+      <c r="C3" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="139"/>
-      <c r="E3" s="140"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3209,18 +3228,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="151" t="s">
+      <c r="C3" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="151"/>
+      <c r="D3" s="153"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="142" t="s">
+      <c r="C4" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="142"/>
+      <c r="D4" s="144"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3230,10 +3249,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="152" t="s">
+      <c r="B6" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="153"/>
+      <c r="C6" s="155"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3250,10 +3269,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="149" t="s">
+      <c r="B8" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="150"/>
+      <c r="C8" s="152"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3270,10 +3289,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="149" t="s">
+      <c r="B10" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="150"/>
+      <c r="C10" s="152"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3290,10 +3309,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="149" t="s">
+      <c r="B12" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="150"/>
+      <c r="C12" s="152"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3310,10 +3329,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="149" t="s">
+      <c r="B14" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="150"/>
+      <c r="C14" s="152"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3330,10 +3349,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="143" t="s">
+      <c r="B16" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="144"/>
+      <c r="C16" s="146"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3350,14 +3369,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="143" t="s">
+      <c r="B18" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="144"/>
+      <c r="C18" s="146"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="145" t="s">
+      <c r="E18" s="147" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3367,7 +3386,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="146"/>
+      <c r="E19" s="148"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3378,10 +3397,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="143" t="s">
+      <c r="B21" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="144"/>
+      <c r="C21" s="146"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3398,10 +3417,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="147" t="s">
+      <c r="B23" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="148"/>
+      <c r="C23" s="150"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3418,10 +3437,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="141" t="s">
+      <c r="B25" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="141"/>
+      <c r="C25" s="143"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3523,11 +3542,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="138" t="s">
+      <c r="C3" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="139"/>
-      <c r="E3" s="140"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3728,11 +3747,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="138" t="s">
+      <c r="C3" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="139"/>
-      <c r="E3" s="140"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3917,11 +3936,11 @@
     </row>
     <row r="3" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="50"/>
-      <c r="C3" s="138" t="s">
+      <c r="C3" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="139"/>
-      <c r="E3" s="140"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4125,9 +4144,9 @@
       <c r="B3" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4358,9 +4377,9 @@
       <c r="B3" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
     </row>
     <row r="4" spans="2:5" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4718,36 +4737,36 @@
     </row>
     <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="154" t="s">
+      <c r="B57" s="156" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="155"/>
-      <c r="D57" s="155"/>
-      <c r="E57" s="156"/>
+      <c r="C57" s="157"/>
+      <c r="D57" s="157"/>
+      <c r="E57" s="158"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="157"/>
-      <c r="C58" s="158"/>
-      <c r="D58" s="158"/>
-      <c r="E58" s="159"/>
+      <c r="B58" s="159"/>
+      <c r="C58" s="160"/>
+      <c r="D58" s="160"/>
+      <c r="E58" s="161"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="157"/>
-      <c r="C59" s="158"/>
-      <c r="D59" s="158"/>
-      <c r="E59" s="159"/>
+      <c r="B59" s="159"/>
+      <c r="C59" s="160"/>
+      <c r="D59" s="160"/>
+      <c r="E59" s="161"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="157"/>
-      <c r="C60" s="158"/>
-      <c r="D60" s="158"/>
-      <c r="E60" s="159"/>
+      <c r="B60" s="159"/>
+      <c r="C60" s="160"/>
+      <c r="D60" s="160"/>
+      <c r="E60" s="161"/>
     </row>
     <row r="61" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="160"/>
-      <c r="C61" s="161"/>
-      <c r="D61" s="161"/>
-      <c r="E61" s="162"/>
+      <c r="B61" s="162"/>
+      <c r="C61" s="163"/>
+      <c r="D61" s="163"/>
+      <c r="E61" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4792,9 +4811,9 @@
       <c r="B3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -5012,10 +5031,10 @@
   <sheetPr>
     <tabColor rgb="FF00FF99"/>
   </sheetPr>
-  <dimension ref="A1:J111"/>
+  <dimension ref="A1:J125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5024,7 +5043,7 @@
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.140625" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5037,12 +5056,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="165" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="165"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="167"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
       <c r="I3" s="94"/>
@@ -5950,9 +5969,11 @@
       <c r="E93" s="127"/>
     </row>
     <row r="94" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B94" s="126"/>
+      <c r="B94" s="184" t="s">
+        <v>84</v>
+      </c>
       <c r="C94" s="76">
-        <v>44772</v>
+        <v>44771</v>
       </c>
       <c r="D94" s="77">
         <v>100000</v>
@@ -5962,7 +5983,7 @@
     <row r="95" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B95" s="126"/>
       <c r="C95" s="76">
-        <v>44771</v>
+        <v>44772</v>
       </c>
       <c r="D95" s="77">
         <v>100000</v>
@@ -5971,142 +5992,266 @@
     </row>
     <row r="96" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B96" s="126"/>
-      <c r="C96" s="76"/>
-      <c r="D96" s="77"/>
-      <c r="E96" s="127"/>
-    </row>
-    <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C96" s="76">
+        <v>44774</v>
+      </c>
+      <c r="D96" s="77">
+        <v>177786.73</v>
+      </c>
+      <c r="E96" s="138" t="s">
+        <v>47</v>
+      </c>
+      <c r="F96" s="85" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B97" s="126"/>
-      <c r="C97" s="76"/>
-      <c r="D97" s="77"/>
-      <c r="E97" s="127"/>
-    </row>
-    <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C97" s="76">
+        <v>44774</v>
+      </c>
+      <c r="D97" s="77">
+        <v>72000</v>
+      </c>
+      <c r="E97" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F97" s="85" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B98" s="126"/>
-      <c r="C98" s="76"/>
-      <c r="D98" s="77"/>
-      <c r="E98" s="127"/>
-    </row>
-    <row r="99" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="95"/>
-      <c r="C99" s="96"/>
-      <c r="D99" s="97"/>
-      <c r="E99" s="95"/>
-    </row>
-    <row r="100" spans="1:9" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C100" s="98" t="s">
+      <c r="C98" s="76">
+        <v>44779</v>
+      </c>
+      <c r="D98" s="77">
+        <v>20000</v>
+      </c>
+      <c r="E98" s="139"/>
+      <c r="F98" s="85"/>
+    </row>
+    <row r="99" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B99" s="126"/>
+      <c r="C99" s="76">
+        <v>44779</v>
+      </c>
+      <c r="D99" s="77">
+        <v>80000</v>
+      </c>
+      <c r="E99" s="139"/>
+      <c r="F99" s="85"/>
+    </row>
+    <row r="100" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B100" s="126"/>
+      <c r="C100" s="76"/>
+      <c r="D100" s="77"/>
+      <c r="E100" s="139"/>
+      <c r="F100" s="85"/>
+    </row>
+    <row r="101" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B101" s="126"/>
+      <c r="C101" s="76"/>
+      <c r="D101" s="77"/>
+      <c r="E101" s="139"/>
+      <c r="F101" s="85"/>
+    </row>
+    <row r="102" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B102" s="126"/>
+      <c r="C102" s="76"/>
+      <c r="D102" s="77"/>
+      <c r="E102" s="139"/>
+      <c r="F102" s="85"/>
+    </row>
+    <row r="103" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B103" s="126"/>
+      <c r="C103" s="76"/>
+      <c r="D103" s="77"/>
+      <c r="E103" s="139"/>
+      <c r="F103" s="85"/>
+    </row>
+    <row r="104" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B104" s="126"/>
+      <c r="C104" s="76"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="139"/>
+      <c r="F104" s="85"/>
+    </row>
+    <row r="105" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B105" s="126"/>
+      <c r="C105" s="76"/>
+      <c r="D105" s="77"/>
+      <c r="E105" s="139"/>
+      <c r="F105" s="85"/>
+    </row>
+    <row r="106" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B106" s="126"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="77"/>
+      <c r="E106" s="139"/>
+      <c r="F106" s="85"/>
+    </row>
+    <row r="107" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B107" s="126"/>
+      <c r="C107" s="76"/>
+      <c r="D107" s="77"/>
+      <c r="E107" s="139"/>
+      <c r="F107" s="85"/>
+    </row>
+    <row r="108" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B108" s="126"/>
+      <c r="C108" s="76"/>
+      <c r="D108" s="77"/>
+      <c r="E108" s="139"/>
+      <c r="F108" s="85"/>
+    </row>
+    <row r="109" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B109" s="126"/>
+      <c r="C109" s="76"/>
+      <c r="D109" s="77"/>
+      <c r="E109" s="139"/>
+      <c r="F109" s="85"/>
+    </row>
+    <row r="110" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B110" s="126"/>
+      <c r="C110" s="76"/>
+      <c r="D110" s="77"/>
+      <c r="E110" s="139"/>
+      <c r="F110" s="85"/>
+    </row>
+    <row r="111" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B111" s="126"/>
+      <c r="C111" s="76"/>
+      <c r="D111" s="77"/>
+      <c r="E111" s="139"/>
+      <c r="F111" s="85"/>
+    </row>
+    <row r="112" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B112" s="126"/>
+      <c r="C112" s="76"/>
+      <c r="D112" s="77"/>
+      <c r="E112" s="127"/>
+    </row>
+    <row r="113" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="95"/>
+      <c r="C113" s="96"/>
+      <c r="D113" s="97"/>
+      <c r="E113" s="95"/>
+    </row>
+    <row r="114" spans="1:9" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C114" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="D100" s="99">
-        <f>SUM(D5:D99)</f>
-        <v>9620000</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C101" s="48"/>
-      <c r="D101" s="136"/>
-    </row>
-    <row r="102" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="106"/>
-      <c r="B102" s="107"/>
-      <c r="C102" s="108" t="s">
+      <c r="D114" s="99">
+        <f>SUM(D5:D113)</f>
+        <v>9969786.7300000004</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C115" s="48"/>
+      <c r="D115" s="136"/>
+    </row>
+    <row r="116" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="106"/>
+      <c r="B116" s="107"/>
+      <c r="C116" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="D102" s="109">
+      <c r="D116" s="109">
         <v>-3644591.85</v>
       </c>
-      <c r="E102" s="102">
+      <c r="E116" s="102">
         <v>44264</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="110"/>
-      <c r="B103" s="103"/>
-      <c r="C103" s="104" t="s">
+    <row r="117" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="110"/>
+      <c r="B117" s="103"/>
+      <c r="C117" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="D103" s="105">
+      <c r="D117" s="105">
         <v>-1303474.18</v>
       </c>
-      <c r="E103" s="100">
+      <c r="E117" s="100">
         <v>44264</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="110"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="104" t="s">
+    <row r="118" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="110"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="D104" s="105">
+      <c r="D118" s="105">
         <v>-937943.41</v>
       </c>
-      <c r="E104" s="100">
+      <c r="E118" s="100">
         <v>44264</v>
       </c>
-      <c r="G104" s="166">
-        <f>D102+D103+D104+D105</f>
+      <c r="G118" s="168">
+        <f>D116+D117+D118+D119</f>
         <v>-7492427.9600000009</v>
       </c>
-      <c r="H104" s="167"/>
-      <c r="I104" s="168"/>
-    </row>
-    <row r="105" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="110"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="104" t="s">
+      <c r="H118" s="169"/>
+      <c r="I118" s="170"/>
+    </row>
+    <row r="119" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="110"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="D105" s="105">
+      <c r="D119" s="105">
         <v>-1606418.52</v>
       </c>
-      <c r="E105" s="100">
+      <c r="E119" s="100">
         <v>44264</v>
       </c>
-      <c r="G105" s="169"/>
-      <c r="H105" s="170"/>
-      <c r="I105" s="171"/>
-    </row>
-    <row r="106" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="111"/>
-      <c r="B106" s="112"/>
-      <c r="C106" s="113"/>
-      <c r="D106" s="114">
-        <v>0</v>
-      </c>
-      <c r="E106" s="101"/>
-    </row>
-    <row r="107" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C107" s="115" t="s">
+      <c r="G119" s="171"/>
+      <c r="H119" s="172"/>
+      <c r="I119" s="173"/>
+    </row>
+    <row r="120" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="111"/>
+      <c r="B120" s="112"/>
+      <c r="C120" s="113"/>
+      <c r="D120" s="114">
+        <v>0</v>
+      </c>
+      <c r="E120" s="101"/>
+    </row>
+    <row r="121" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C121" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="D107" s="116">
-        <f>D104+D100+D102+D103+D105+D106</f>
-        <v>2127572.0400000005</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C108" s="1"/>
-      <c r="D108" s="2" t="s">
+      <c r="D121" s="116">
+        <f>D118+D114+D116+D117+D119+D120</f>
+        <v>2477358.7700000009</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C122" s="1"/>
+      <c r="D122" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C109" s="1"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C110" s="1"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C111" s="1"/>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C123" s="1"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C124" s="1"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C125" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="C89:E91">
-    <sortCondition ref="C89:C91"/>
+  <sortState ref="C94:D95">
+    <sortCondition ref="C94:C95"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G104:I105"/>
+    <mergeCell ref="G118:I119"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.13" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6306,23 +6451,23 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="176" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="177" t="s">
+      <c r="C2" s="179" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="178"/>
+      <c r="D2" s="180"/>
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="175"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="140"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="176"/>
+      <c r="B4" s="178"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6360,13 +6505,13 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="172"/>
+      <c r="B8" s="174"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="173"/>
+      <c r="B9" s="175"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -6559,7 +6704,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="179" t="s">
+      <c r="B2" s="181" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -6569,13 +6714,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="180"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="140"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="180"/>
+      <c r="B4" s="182"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6583,7 +6728,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="180"/>
+      <c r="B5" s="182"/>
       <c r="C5" s="47">
         <v>44380</v>
       </c>
@@ -6593,7 +6738,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="181"/>
+      <c r="B6" s="183"/>
       <c r="C6" s="36">
         <v>44396</v>
       </c>
@@ -6609,7 +6754,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="172" t="s">
+      <c r="B8" s="174" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="36">
@@ -6621,7 +6766,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="173"/>
+      <c r="B9" s="175"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -6821,7 +6966,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="179" t="s">
+      <c r="B2" s="181" t="s">
         <v>74</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -6831,13 +6976,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="180"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="140"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="180"/>
+      <c r="B4" s="182"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6845,7 +6990,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="180"/>
+      <c r="B5" s="182"/>
       <c r="C5" s="47">
         <v>44621</v>
       </c>
@@ -6855,7 +7000,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="181"/>
+      <c r="B6" s="183"/>
       <c r="C6" s="36">
         <v>44656</v>
       </c>
@@ -6871,7 +7016,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="172"/>
+      <c r="B8" s="174"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37">
         <v>0</v>
@@ -6879,7 +7024,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="173"/>
+      <c r="B9" s="175"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="18375" windowHeight="13620" firstSheet="18" activeTab="18"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="18375" windowHeight="13620" firstSheet="15" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="JARCERIAS REMODELACION " sheetId="1" r:id="rId1"/>
@@ -36,6 +36,7 @@
     <sheet name="MARQUESINA ZAVALETA  2022" sheetId="23" r:id="rId22"/>
     <sheet name="Hoja1" sheetId="24" r:id="rId23"/>
     <sheet name="Hoja2" sheetId="25" r:id="rId24"/>
+    <sheet name="Hoja3" sheetId="27" r:id="rId25"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="90">
   <si>
     <t xml:space="preserve">PAGOS  SOBRE REMODELACION </t>
   </si>
@@ -316,6 +317,21 @@
   <si>
     <t>Ing</t>
   </si>
+  <si>
+    <t xml:space="preserve">OBRA  NEGRA  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACABADOS CAMARA , BISTEC, Y DESHUESE   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACABADOS BARDA PERIMETRAL Y DRENAJE    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACABADOS AREA   COMERDOR     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFORMADOR Y PISO DE MAIOBRAS      </t>
+  </si>
 </sst>
 </file>
 
@@ -425,14 +441,6 @@
     </font>
     <font>
       <b/>
-      <sz val="22"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -467,6 +475,14 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -862,7 +878,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1082,7 +1098,7 @@
     <xf numFmtId="44" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1100,7 +1116,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1108,7 +1124,7 @@
     </xf>
     <xf numFmtId="44" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1120,11 +1136,14 @@
     </xf>
     <xf numFmtId="44" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1134,6 +1153,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1158,21 +1192,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1209,22 +1228,16 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1257,9 +1270,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1728,13 +1739,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>400049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1990,6 +2001,69 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>400049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Cerrar llave 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E18D3F97-C892-46B7-BC80-AF602332A9EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5048250" y="21278849"/>
+          <a:ext cx="1600200" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2620,17 +2694,17 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="140" t="s">
+      <c r="C3" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="141"/>
-      <c r="E3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="143"/>
       <c r="H3" s="50"/>
-      <c r="I3" s="140" t="s">
+      <c r="I3" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="141"/>
-      <c r="K3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="143"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3070,11 +3144,11 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="140" t="s">
+      <c r="C3" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="141"/>
-      <c r="E3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="143"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3228,18 +3302,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="153" t="s">
+      <c r="C3" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="153"/>
+      <c r="D3" s="144"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="144"/>
+      <c r="D4" s="150"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3249,10 +3323,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="154" t="s">
+      <c r="B6" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="155"/>
+      <c r="C6" s="146"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3269,10 +3343,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="151" t="s">
+      <c r="B8" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="152"/>
+      <c r="C8" s="148"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3289,10 +3363,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="151" t="s">
+      <c r="B10" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="152"/>
+      <c r="C10" s="148"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3309,10 +3383,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="151" t="s">
+      <c r="B12" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="152"/>
+      <c r="C12" s="148"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3329,10 +3403,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="151" t="s">
+      <c r="B14" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="152"/>
+      <c r="C14" s="148"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3349,10 +3423,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="145" t="s">
+      <c r="B16" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="146"/>
+      <c r="C16" s="152"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3369,14 +3443,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="145" t="s">
+      <c r="B18" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="146"/>
+      <c r="C18" s="152"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="147" t="s">
+      <c r="E18" s="153" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3386,7 +3460,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="148"/>
+      <c r="E19" s="154"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3397,10 +3471,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="145" t="s">
+      <c r="B21" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="146"/>
+      <c r="C21" s="152"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3417,10 +3491,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="149" t="s">
+      <c r="B23" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="150"/>
+      <c r="C23" s="156"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3437,10 +3511,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="143" t="s">
+      <c r="B25" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="143"/>
+      <c r="C25" s="149"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3491,11 +3565,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3504,6 +3573,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3542,11 +3616,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="140" t="s">
+      <c r="C3" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="141"/>
-      <c r="E3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="143"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3747,11 +3821,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="140" t="s">
+      <c r="C3" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="141"/>
-      <c r="E3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="143"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3936,11 +4010,11 @@
     </row>
     <row r="3" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="50"/>
-      <c r="C3" s="140" t="s">
+      <c r="C3" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="141"/>
-      <c r="E3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="143"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4144,9 +4218,9 @@
       <c r="B3" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="140"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="142"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="143"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4377,9 +4451,9 @@
       <c r="B3" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="140"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="142"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="143"/>
     </row>
     <row r="4" spans="2:5" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4737,36 +4811,36 @@
     </row>
     <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="156" t="s">
+      <c r="B57" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="157"/>
-      <c r="D57" s="157"/>
-      <c r="E57" s="158"/>
+      <c r="C57" s="158"/>
+      <c r="D57" s="158"/>
+      <c r="E57" s="159"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="159"/>
-      <c r="C58" s="160"/>
-      <c r="D58" s="160"/>
-      <c r="E58" s="161"/>
+      <c r="B58" s="160"/>
+      <c r="C58" s="161"/>
+      <c r="D58" s="161"/>
+      <c r="E58" s="162"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="159"/>
-      <c r="C59" s="160"/>
-      <c r="D59" s="160"/>
-      <c r="E59" s="161"/>
+      <c r="B59" s="160"/>
+      <c r="C59" s="161"/>
+      <c r="D59" s="161"/>
+      <c r="E59" s="162"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="159"/>
-      <c r="C60" s="160"/>
-      <c r="D60" s="160"/>
-      <c r="E60" s="161"/>
+      <c r="B60" s="160"/>
+      <c r="C60" s="161"/>
+      <c r="D60" s="161"/>
+      <c r="E60" s="162"/>
     </row>
     <row r="61" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="162"/>
-      <c r="C61" s="163"/>
-      <c r="D61" s="163"/>
-      <c r="E61" s="164"/>
+      <c r="B61" s="163"/>
+      <c r="C61" s="164"/>
+      <c r="D61" s="164"/>
+      <c r="E61" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4811,9 +4885,9 @@
       <c r="B3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="140"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="142"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="143"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -5031,10 +5105,10 @@
   <sheetPr>
     <tabColor rgb="FF00FF99"/>
   </sheetPr>
-  <dimension ref="A1:J125"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5042,12 +5116,14 @@
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="14"/>
       <c r="C2" s="15" t="s">
         <v>57</v>
@@ -5055,19 +5131,17 @@
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="2:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="165" t="s">
+    <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="B3" s="166" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="168"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-    </row>
-    <row r="4" spans="2:10" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
@@ -5076,10 +5150,8 @@
       <c r="E4" s="23"/>
       <c r="G4" s="94"/>
       <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-    </row>
-    <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="32"/>
       <c r="C5" s="47">
         <v>44268</v>
@@ -5090,10 +5162,8 @@
       <c r="E5" s="28"/>
       <c r="G5" s="94"/>
       <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-    </row>
-    <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="31"/>
       <c r="C6" s="36">
         <v>44275</v>
@@ -5104,10 +5174,8 @@
       <c r="E6" s="27"/>
       <c r="G6" s="94"/>
       <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-    </row>
-    <row r="7" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="31"/>
       <c r="C7" s="36">
         <v>44282</v>
@@ -5118,10 +5186,8 @@
       <c r="E7" s="41"/>
       <c r="G7" s="94"/>
       <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-    </row>
-    <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="31"/>
       <c r="C8" s="36">
         <v>44296</v>
@@ -5131,7 +5197,7 @@
       </c>
       <c r="E8" s="27"/>
     </row>
-    <row r="9" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="31"/>
       <c r="C9" s="36">
         <v>44303</v>
@@ -5141,7 +5207,7 @@
       </c>
       <c r="E9" s="27"/>
     </row>
-    <row r="10" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="31"/>
       <c r="C10" s="36">
         <v>44310</v>
@@ -5151,7 +5217,7 @@
       </c>
       <c r="E10" s="27"/>
     </row>
-    <row r="11" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="31"/>
       <c r="C11" s="36">
         <v>44317</v>
@@ -5161,31 +5227,31 @@
       </c>
       <c r="E11" s="27"/>
     </row>
-    <row r="12" spans="2:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="31"/>
       <c r="C12" s="36"/>
       <c r="D12" s="37"/>
       <c r="E12" s="27"/>
     </row>
-    <row r="13" spans="2:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="31"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
       <c r="E13" s="27"/>
     </row>
-    <row r="14" spans="2:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="31"/>
       <c r="C14" s="36"/>
       <c r="D14" s="37"/>
       <c r="E14" s="27"/>
     </row>
-    <row r="15" spans="2:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="36"/>
       <c r="D15" s="37"/>
       <c r="E15" s="27"/>
     </row>
-    <row r="16" spans="2:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="36"/>
       <c r="D16" s="37"/>
@@ -5969,7 +6035,7 @@
       <c r="E93" s="127"/>
     </row>
     <row r="94" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B94" s="184" t="s">
+      <c r="B94" s="140" t="s">
         <v>84</v>
       </c>
       <c r="C94" s="76">
@@ -6044,15 +6110,23 @@
     </row>
     <row r="100" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B100" s="126"/>
-      <c r="C100" s="76"/>
-      <c r="D100" s="77"/>
+      <c r="C100" s="76">
+        <v>44786</v>
+      </c>
+      <c r="D100" s="77">
+        <v>100000</v>
+      </c>
       <c r="E100" s="139"/>
       <c r="F100" s="85"/>
     </row>
     <row r="101" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B101" s="126"/>
-      <c r="C101" s="76"/>
-      <c r="D101" s="77"/>
+      <c r="C101" s="76">
+        <v>44793</v>
+      </c>
+      <c r="D101" s="77">
+        <v>100000</v>
+      </c>
       <c r="E101" s="139"/>
       <c r="F101" s="85"/>
     </row>
@@ -6123,127 +6197,112 @@
       <c r="B111" s="126"/>
       <c r="C111" s="76"/>
       <c r="D111" s="77"/>
-      <c r="E111" s="139"/>
-      <c r="F111" s="85"/>
-    </row>
-    <row r="112" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B112" s="126"/>
-      <c r="C112" s="76"/>
-      <c r="D112" s="77"/>
-      <c r="E112" s="127"/>
-    </row>
-    <row r="113" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="95"/>
-      <c r="C113" s="96"/>
-      <c r="D113" s="97"/>
-      <c r="E113" s="95"/>
-    </row>
-    <row r="114" spans="1:9" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C114" s="98" t="s">
+      <c r="E111" s="127"/>
+    </row>
+    <row r="112" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="95"/>
+      <c r="C112" s="96"/>
+      <c r="D112" s="97"/>
+      <c r="E112" s="95"/>
+    </row>
+    <row r="113" spans="1:8" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C113" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="D114" s="99">
-        <f>SUM(D5:D113)</f>
-        <v>9969786.7300000004</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C115" s="48"/>
-      <c r="D115" s="136"/>
-    </row>
-    <row r="116" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="106"/>
-      <c r="B116" s="107"/>
-      <c r="C116" s="108" t="s">
-        <v>60</v>
-      </c>
-      <c r="D116" s="109">
-        <v>-3644591.85</v>
-      </c>
-      <c r="E116" s="102">
-        <v>44264</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D113" s="99">
+        <f>SUM(D5:D112)</f>
+        <v>10169786.73</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C114" s="48"/>
+      <c r="D114" s="136"/>
+    </row>
+    <row r="115" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="106"/>
+      <c r="B115" s="107"/>
+      <c r="C115" s="108" t="s">
+        <v>85</v>
+      </c>
+      <c r="D115" s="109">
+        <v>-3711953</v>
+      </c>
+      <c r="E115" s="102"/>
+    </row>
+    <row r="116" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="110"/>
+      <c r="B116" s="103"/>
+      <c r="C116" s="104" t="s">
+        <v>86</v>
+      </c>
+      <c r="D116" s="105">
+        <v>-3105583.44</v>
+      </c>
+      <c r="E116" s="100"/>
+    </row>
+    <row r="117" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="110"/>
-      <c r="B117" s="103"/>
+      <c r="B117" s="3"/>
       <c r="C117" s="104" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="D117" s="105">
-        <v>-1303474.18</v>
-      </c>
-      <c r="E117" s="100">
-        <v>44264</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-659691.4</v>
+      </c>
+      <c r="E117" s="100"/>
+      <c r="G117" s="169">
+        <f>D115+D116+D117+D118</f>
+        <v>-8718896</v>
+      </c>
+      <c r="H117" s="170"/>
+    </row>
+    <row r="118" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="110"/>
       <c r="B118" s="3"/>
       <c r="C118" s="104" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="D118" s="105">
-        <v>-937943.41</v>
-      </c>
-      <c r="E118" s="100">
-        <v>44264</v>
-      </c>
-      <c r="G118" s="168">
-        <f>D116+D117+D118+D119</f>
-        <v>-7492427.9600000009</v>
-      </c>
-      <c r="H118" s="169"/>
-      <c r="I118" s="170"/>
-    </row>
-    <row r="119" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="110"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="104" t="s">
-        <v>62</v>
-      </c>
-      <c r="D119" s="105">
-        <v>-1606418.52</v>
-      </c>
-      <c r="E119" s="100">
-        <v>44264</v>
-      </c>
-      <c r="G119" s="171"/>
-      <c r="H119" s="172"/>
-      <c r="I119" s="173"/>
-    </row>
-    <row r="120" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="111"/>
-      <c r="B120" s="112"/>
-      <c r="C120" s="113"/>
-      <c r="D120" s="114">
-        <v>0</v>
-      </c>
-      <c r="E120" s="101"/>
-    </row>
-    <row r="121" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C121" s="115" t="s">
+        <v>-1241668.1599999999</v>
+      </c>
+      <c r="E118" s="100"/>
+      <c r="G118" s="171"/>
+      <c r="H118" s="172"/>
+    </row>
+    <row r="119" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="111"/>
+      <c r="B119" s="112"/>
+      <c r="C119" s="113" t="s">
+        <v>89</v>
+      </c>
+      <c r="D119" s="183">
+        <v>-2122661.75</v>
+      </c>
+      <c r="E119" s="101"/>
+    </row>
+    <row r="120" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C120" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="D121" s="116">
-        <f>D118+D114+D116+D117+D119+D120</f>
-        <v>2477358.7700000009</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D120" s="116">
+        <f>D117+D113+D115+D116+D118+D119</f>
+        <v>-671771.01999999979</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C121" s="1"/>
+      <c r="D121" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C122" s="1"/>
-      <c r="D122" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C124" s="1"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C125" s="1"/>
     </row>
   </sheetData>
   <sortState ref="C94:D95">
@@ -6251,9 +6310,9 @@
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G118:I119"/>
+    <mergeCell ref="G117:H118"/>
   </mergeCells>
-  <pageMargins left="0.2" right="0.13" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.25" right="0.25" top="0.38" bottom="0.32" header="0.3" footer="0.3"/>
   <pageSetup scale="80" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -6451,23 +6510,23 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="175" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="179" t="s">
+      <c r="C2" s="178" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="180"/>
+      <c r="D2" s="179"/>
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="177"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="142"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="143"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="178"/>
+      <c r="B4" s="177"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6505,13 +6564,13 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="174"/>
+      <c r="B8" s="173"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="175"/>
+      <c r="B9" s="174"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -6704,7 +6763,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="181" t="s">
+      <c r="B2" s="180" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -6714,13 +6773,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="182"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="142"/>
+      <c r="B3" s="181"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="143"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="182"/>
+      <c r="B4" s="181"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6728,7 +6787,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="182"/>
+      <c r="B5" s="181"/>
       <c r="C5" s="47">
         <v>44380</v>
       </c>
@@ -6738,7 +6797,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="183"/>
+      <c r="B6" s="182"/>
       <c r="C6" s="36">
         <v>44396</v>
       </c>
@@ -6754,7 +6813,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="174" t="s">
+      <c r="B8" s="173" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="36">
@@ -6766,7 +6825,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="175"/>
+      <c r="B9" s="174"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -6966,7 +7025,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="181" t="s">
+      <c r="B2" s="180" t="s">
         <v>74</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -6976,13 +7035,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="182"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="142"/>
+      <c r="B3" s="181"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="143"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="182"/>
+      <c r="B4" s="181"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6990,7 +7049,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="182"/>
+      <c r="B5" s="181"/>
       <c r="C5" s="47">
         <v>44621</v>
       </c>
@@ -7000,7 +7059,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="183"/>
+      <c r="B6" s="182"/>
       <c r="C6" s="36">
         <v>44656</v>
       </c>
@@ -7016,7 +7075,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="174"/>
+      <c r="B8" s="173"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37">
         <v>0</v>
@@ -7024,7 +7083,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="175"/>
+      <c r="B9" s="174"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -7213,6 +7272,1223 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H124"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="14"/>
+      <c r="C2" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="B3" s="166" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="168"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+    </row>
+    <row r="4" spans="2:8" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="20"/>
+      <c r="C4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="32"/>
+      <c r="C5" s="47">
+        <v>44268</v>
+      </c>
+      <c r="D5" s="28">
+        <v>100000</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="31"/>
+      <c r="C6" s="36">
+        <v>44275</v>
+      </c>
+      <c r="D6" s="37">
+        <v>100000</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+    </row>
+    <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="31"/>
+      <c r="C7" s="36">
+        <v>44282</v>
+      </c>
+      <c r="D7" s="37">
+        <v>100000</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+    </row>
+    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="31"/>
+      <c r="C8" s="36">
+        <v>44296</v>
+      </c>
+      <c r="D8" s="37">
+        <v>100000</v>
+      </c>
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="31"/>
+      <c r="C9" s="36">
+        <v>44303</v>
+      </c>
+      <c r="D9" s="37">
+        <v>100000</v>
+      </c>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="31"/>
+      <c r="C10" s="36">
+        <v>44310</v>
+      </c>
+      <c r="D10" s="37">
+        <v>100000</v>
+      </c>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="31"/>
+      <c r="C11" s="36">
+        <v>44317</v>
+      </c>
+      <c r="D11" s="37">
+        <v>100000</v>
+      </c>
+      <c r="E11" s="27"/>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="31"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="27"/>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="31"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="27"/>
+    </row>
+    <row r="14" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="31"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="27"/>
+    </row>
+    <row r="16" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="27"/>
+    </row>
+    <row r="17" spans="2:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="27"/>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="27"/>
+    </row>
+    <row r="19" spans="2:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="78"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="79"/>
+    </row>
+    <row r="20" spans="2:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="27"/>
+    </row>
+    <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="38">
+        <v>44324</v>
+      </c>
+      <c r="D21" s="39">
+        <v>100000</v>
+      </c>
+      <c r="E21" s="27"/>
+    </row>
+    <row r="22" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="38">
+        <v>44331</v>
+      </c>
+      <c r="D22" s="39">
+        <v>100000</v>
+      </c>
+      <c r="E22" s="27"/>
+    </row>
+    <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="38">
+        <v>44338</v>
+      </c>
+      <c r="D23" s="39">
+        <v>100000</v>
+      </c>
+      <c r="E23" s="27"/>
+    </row>
+    <row r="24" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="38">
+        <v>44345</v>
+      </c>
+      <c r="D24" s="39">
+        <v>100000</v>
+      </c>
+      <c r="E24" s="27"/>
+    </row>
+    <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="38">
+        <v>44352</v>
+      </c>
+      <c r="D25" s="39">
+        <v>100000</v>
+      </c>
+      <c r="E25" s="27"/>
+    </row>
+    <row r="26" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="38">
+        <v>44359</v>
+      </c>
+      <c r="D26" s="39">
+        <v>350000</v>
+      </c>
+      <c r="E26" s="27"/>
+    </row>
+    <row r="27" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="75"/>
+      <c r="C27" s="76">
+        <v>44366</v>
+      </c>
+      <c r="D27" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E27" s="27"/>
+    </row>
+    <row r="28" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="75"/>
+      <c r="C28" s="76">
+        <v>44373</v>
+      </c>
+      <c r="D28" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E28" s="27"/>
+    </row>
+    <row r="29" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="75"/>
+      <c r="C29" s="76">
+        <v>44380</v>
+      </c>
+      <c r="D29" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E29" s="27"/>
+    </row>
+    <row r="30" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="75"/>
+      <c r="C30" s="76">
+        <v>44387</v>
+      </c>
+      <c r="D30" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E30" s="27"/>
+    </row>
+    <row r="31" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="75"/>
+      <c r="C31" s="76">
+        <v>44394</v>
+      </c>
+      <c r="D31" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E31" s="27"/>
+    </row>
+    <row r="32" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="75"/>
+      <c r="C32" s="76">
+        <v>44401</v>
+      </c>
+      <c r="D32" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E32" s="27"/>
+    </row>
+    <row r="33" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="75"/>
+      <c r="C33" s="76">
+        <v>44408</v>
+      </c>
+      <c r="D33" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E33" s="27"/>
+    </row>
+    <row r="34" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="75"/>
+      <c r="C34" s="76">
+        <v>44415</v>
+      </c>
+      <c r="D34" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E34" s="27"/>
+    </row>
+    <row r="35" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="75"/>
+      <c r="C35" s="76">
+        <v>44422</v>
+      </c>
+      <c r="D35" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E35" s="27"/>
+    </row>
+    <row r="36" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="75"/>
+      <c r="C36" s="76">
+        <v>44428</v>
+      </c>
+      <c r="D36" s="77">
+        <v>300000</v>
+      </c>
+      <c r="E36" s="125" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="75"/>
+      <c r="C37" s="76">
+        <v>44436</v>
+      </c>
+      <c r="D37" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E37" s="27"/>
+    </row>
+    <row r="38" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="75"/>
+      <c r="C38" s="76">
+        <v>44443</v>
+      </c>
+      <c r="D38" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E38" s="27"/>
+    </row>
+    <row r="39" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="75"/>
+      <c r="C39" s="76">
+        <v>44449</v>
+      </c>
+      <c r="D39" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E39" s="125" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="75"/>
+      <c r="C40" s="76">
+        <v>44450</v>
+      </c>
+      <c r="D40" s="77">
+        <v>150000</v>
+      </c>
+      <c r="E40" s="27"/>
+    </row>
+    <row r="41" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="75"/>
+      <c r="C41" s="76">
+        <v>44457</v>
+      </c>
+      <c r="D41" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E41" s="27"/>
+    </row>
+    <row r="42" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="75"/>
+      <c r="C42" s="76">
+        <v>44464</v>
+      </c>
+      <c r="D42" s="77">
+        <v>150000</v>
+      </c>
+      <c r="E42" s="27"/>
+    </row>
+    <row r="43" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="126"/>
+      <c r="C43" s="76">
+        <v>44471</v>
+      </c>
+      <c r="D43" s="77">
+        <v>50000</v>
+      </c>
+      <c r="E43" s="127"/>
+    </row>
+    <row r="44" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="126"/>
+      <c r="C44" s="76">
+        <v>44478</v>
+      </c>
+      <c r="D44" s="77">
+        <v>50000</v>
+      </c>
+      <c r="E44" s="127"/>
+    </row>
+    <row r="45" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="126"/>
+      <c r="C45" s="76">
+        <v>44485</v>
+      </c>
+      <c r="D45" s="77">
+        <v>50000</v>
+      </c>
+      <c r="E45" s="127"/>
+    </row>
+    <row r="46" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="126"/>
+      <c r="C46" s="76">
+        <v>44492</v>
+      </c>
+      <c r="D46" s="77">
+        <v>50000</v>
+      </c>
+      <c r="E46" s="127"/>
+    </row>
+    <row r="47" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="126"/>
+      <c r="C47" s="76">
+        <v>44499</v>
+      </c>
+      <c r="D47" s="77">
+        <v>50000</v>
+      </c>
+      <c r="E47" s="127"/>
+    </row>
+    <row r="48" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="126"/>
+      <c r="C48" s="76">
+        <v>44506</v>
+      </c>
+      <c r="D48" s="77">
+        <v>50000</v>
+      </c>
+      <c r="E48" s="127"/>
+    </row>
+    <row r="49" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="126"/>
+      <c r="C49" s="76">
+        <v>44513</v>
+      </c>
+      <c r="D49" s="77">
+        <v>50000</v>
+      </c>
+      <c r="E49" s="127"/>
+    </row>
+    <row r="50" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B50" s="126"/>
+      <c r="C50" s="76">
+        <v>44520</v>
+      </c>
+      <c r="D50" s="77">
+        <v>50000</v>
+      </c>
+      <c r="E50" s="127"/>
+    </row>
+    <row r="51" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B51" s="126"/>
+      <c r="C51" s="76">
+        <v>44527</v>
+      </c>
+      <c r="D51" s="77">
+        <v>50000</v>
+      </c>
+      <c r="E51" s="127"/>
+    </row>
+    <row r="52" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="126"/>
+      <c r="C52" s="76">
+        <v>44534</v>
+      </c>
+      <c r="D52" s="77">
+        <v>50000</v>
+      </c>
+      <c r="E52" s="127"/>
+    </row>
+    <row r="53" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="126"/>
+      <c r="C53" s="76">
+        <v>44541</v>
+      </c>
+      <c r="D53" s="77">
+        <v>50000</v>
+      </c>
+      <c r="E53" s="127"/>
+    </row>
+    <row r="54" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B54" s="126"/>
+      <c r="C54" s="76">
+        <v>44548</v>
+      </c>
+      <c r="D54" s="77">
+        <v>50000</v>
+      </c>
+      <c r="E54" s="127"/>
+    </row>
+    <row r="55" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="126"/>
+      <c r="C55" s="76">
+        <v>44554</v>
+      </c>
+      <c r="D55" s="77">
+        <v>70000</v>
+      </c>
+      <c r="E55" s="127"/>
+    </row>
+    <row r="56" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="126"/>
+      <c r="C56" s="76">
+        <v>44561</v>
+      </c>
+      <c r="D56" s="77">
+        <v>50000</v>
+      </c>
+      <c r="E56" s="127"/>
+    </row>
+    <row r="57" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="126"/>
+      <c r="C57" s="76">
+        <v>44569</v>
+      </c>
+      <c r="D57" s="77">
+        <v>50000</v>
+      </c>
+      <c r="E57" s="127"/>
+    </row>
+    <row r="58" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="126"/>
+      <c r="C58" s="76">
+        <v>44576</v>
+      </c>
+      <c r="D58" s="77">
+        <v>50000</v>
+      </c>
+      <c r="E58" s="127"/>
+    </row>
+    <row r="59" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="126"/>
+      <c r="C59" s="76">
+        <v>44583</v>
+      </c>
+      <c r="D59" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E59" s="127"/>
+    </row>
+    <row r="60" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B60" s="126"/>
+      <c r="C60" s="76">
+        <v>44590</v>
+      </c>
+      <c r="D60" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E60" s="127"/>
+    </row>
+    <row r="61" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="126"/>
+      <c r="C61" s="128">
+        <v>44594</v>
+      </c>
+      <c r="D61" s="129">
+        <v>500000</v>
+      </c>
+      <c r="E61" s="130" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B62" s="126"/>
+      <c r="C62" s="76">
+        <v>44597</v>
+      </c>
+      <c r="D62" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E62" s="127"/>
+    </row>
+    <row r="63" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="126"/>
+      <c r="C63" s="76">
+        <v>44604</v>
+      </c>
+      <c r="D63" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E63" s="127"/>
+    </row>
+    <row r="64" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="126"/>
+      <c r="C64" s="76">
+        <v>44611</v>
+      </c>
+      <c r="D64" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E64" s="127"/>
+    </row>
+    <row r="65" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B65" s="126"/>
+      <c r="C65" s="76">
+        <v>44618</v>
+      </c>
+      <c r="D65" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E65" s="127"/>
+    </row>
+    <row r="66" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="126"/>
+      <c r="C66" s="76">
+        <v>44625</v>
+      </c>
+      <c r="D66" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E66" s="127"/>
+    </row>
+    <row r="67" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B67" s="126"/>
+      <c r="C67" s="76">
+        <v>44632</v>
+      </c>
+      <c r="D67" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E67" s="127"/>
+    </row>
+    <row r="68" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B68" s="126"/>
+      <c r="C68" s="76">
+        <v>44639</v>
+      </c>
+      <c r="D68" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E68" s="127"/>
+    </row>
+    <row r="69" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B69" s="126"/>
+      <c r="C69" s="76">
+        <v>44646</v>
+      </c>
+      <c r="D69" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E69" s="127"/>
+    </row>
+    <row r="70" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B70" s="126"/>
+      <c r="C70" s="76">
+        <v>44653</v>
+      </c>
+      <c r="D70" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E70" s="127"/>
+    </row>
+    <row r="71" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B71" s="126"/>
+      <c r="C71" s="76">
+        <v>44659</v>
+      </c>
+      <c r="D71" s="77">
+        <v>350000</v>
+      </c>
+      <c r="E71" s="130" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B72" s="126"/>
+      <c r="C72" s="76">
+        <v>44660</v>
+      </c>
+      <c r="D72" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E72" s="127"/>
+    </row>
+    <row r="73" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B73" s="126"/>
+      <c r="C73" s="76">
+        <v>44663</v>
+      </c>
+      <c r="D73" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E73" s="131" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B74" s="126"/>
+      <c r="C74" s="76">
+        <v>44667</v>
+      </c>
+      <c r="D74" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E74" s="127"/>
+    </row>
+    <row r="75" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B75" s="126"/>
+      <c r="C75" s="76">
+        <v>44674</v>
+      </c>
+      <c r="D75" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E75" s="127"/>
+    </row>
+    <row r="76" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B76" s="126"/>
+      <c r="C76" s="76">
+        <v>44681</v>
+      </c>
+      <c r="D76" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E76" s="127"/>
+    </row>
+    <row r="77" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B77" s="126"/>
+      <c r="C77" s="76">
+        <v>44688</v>
+      </c>
+      <c r="D77" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E77" s="127"/>
+    </row>
+    <row r="78" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B78" s="126"/>
+      <c r="C78" s="76">
+        <v>44690</v>
+      </c>
+      <c r="D78" s="77">
+        <v>400000</v>
+      </c>
+      <c r="E78" s="132" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B79" s="126"/>
+      <c r="C79" s="76">
+        <v>44695</v>
+      </c>
+      <c r="D79" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E79" s="127"/>
+    </row>
+    <row r="80" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B80" s="126"/>
+      <c r="C80" s="76">
+        <v>44702</v>
+      </c>
+      <c r="D80" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E80" s="127"/>
+    </row>
+    <row r="81" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B81" s="126"/>
+      <c r="C81" s="76">
+        <v>44709</v>
+      </c>
+      <c r="D81" s="135">
+        <v>200000</v>
+      </c>
+      <c r="E81" s="127"/>
+    </row>
+    <row r="82" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B82" s="126"/>
+      <c r="C82" s="76">
+        <v>44713</v>
+      </c>
+      <c r="D82" s="77">
+        <v>300000</v>
+      </c>
+      <c r="E82" s="137" t="s">
+        <v>81</v>
+      </c>
+      <c r="F82" s="85" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B83" s="126"/>
+      <c r="C83" s="76">
+        <v>44716</v>
+      </c>
+      <c r="D83" s="135">
+        <v>150000</v>
+      </c>
+      <c r="E83" s="127"/>
+    </row>
+    <row r="84" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B84" s="126"/>
+      <c r="C84" s="76">
+        <v>44716</v>
+      </c>
+      <c r="D84" s="135">
+        <v>50000</v>
+      </c>
+      <c r="E84" s="127"/>
+    </row>
+    <row r="85" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B85" s="126"/>
+      <c r="C85" s="76">
+        <v>44723</v>
+      </c>
+      <c r="D85" s="135">
+        <v>150000</v>
+      </c>
+      <c r="E85" s="127"/>
+    </row>
+    <row r="86" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B86" s="126"/>
+      <c r="C86" s="76">
+        <v>44723</v>
+      </c>
+      <c r="D86" s="135">
+        <v>50000</v>
+      </c>
+      <c r="E86" s="127"/>
+    </row>
+    <row r="87" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B87" s="126"/>
+      <c r="C87" s="76">
+        <v>44730</v>
+      </c>
+      <c r="D87" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E87" s="127"/>
+    </row>
+    <row r="88" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B88" s="126"/>
+      <c r="C88" s="76">
+        <v>44736</v>
+      </c>
+      <c r="D88" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E88" s="127"/>
+    </row>
+    <row r="89" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B89" s="126"/>
+      <c r="C89" s="76">
+        <v>44744</v>
+      </c>
+      <c r="D89" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E89" s="127"/>
+    </row>
+    <row r="90" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B90" s="126"/>
+      <c r="C90" s="76">
+        <v>44746</v>
+      </c>
+      <c r="D90" s="77">
+        <v>500000</v>
+      </c>
+      <c r="E90" s="130" t="s">
+        <v>82</v>
+      </c>
+      <c r="F90" s="85" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B91" s="126"/>
+      <c r="C91" s="76">
+        <v>44751</v>
+      </c>
+      <c r="D91" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E91" s="127"/>
+      <c r="F91" s="85"/>
+    </row>
+    <row r="92" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B92" s="126"/>
+      <c r="C92" s="76">
+        <v>44758</v>
+      </c>
+      <c r="D92" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E92" s="127"/>
+    </row>
+    <row r="93" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B93" s="126"/>
+      <c r="C93" s="76">
+        <v>44765</v>
+      </c>
+      <c r="D93" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E93" s="127"/>
+    </row>
+    <row r="94" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B94" s="140" t="s">
+        <v>84</v>
+      </c>
+      <c r="C94" s="76">
+        <v>44771</v>
+      </c>
+      <c r="D94" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E94" s="127"/>
+    </row>
+    <row r="95" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B95" s="126"/>
+      <c r="C95" s="76">
+        <v>44772</v>
+      </c>
+      <c r="D95" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E95" s="127"/>
+    </row>
+    <row r="96" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B96" s="126"/>
+      <c r="C96" s="76">
+        <v>44774</v>
+      </c>
+      <c r="D96" s="77">
+        <v>177786.73</v>
+      </c>
+      <c r="E96" s="138" t="s">
+        <v>47</v>
+      </c>
+      <c r="F96" s="85" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B97" s="126"/>
+      <c r="C97" s="76">
+        <v>44774</v>
+      </c>
+      <c r="D97" s="77">
+        <v>72000</v>
+      </c>
+      <c r="E97" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F97" s="85" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B98" s="126"/>
+      <c r="C98" s="76">
+        <v>44779</v>
+      </c>
+      <c r="D98" s="77">
+        <v>20000</v>
+      </c>
+      <c r="E98" s="139"/>
+      <c r="F98" s="85"/>
+    </row>
+    <row r="99" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B99" s="126"/>
+      <c r="C99" s="76">
+        <v>44779</v>
+      </c>
+      <c r="D99" s="77">
+        <v>80000</v>
+      </c>
+      <c r="E99" s="139"/>
+      <c r="F99" s="85"/>
+    </row>
+    <row r="100" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B100" s="126"/>
+      <c r="C100" s="76">
+        <v>44786</v>
+      </c>
+      <c r="D100" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E100" s="139"/>
+      <c r="F100" s="85"/>
+    </row>
+    <row r="101" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B101" s="126"/>
+      <c r="C101" s="76">
+        <v>44793</v>
+      </c>
+      <c r="D101" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E101" s="139"/>
+      <c r="F101" s="85"/>
+    </row>
+    <row r="102" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B102" s="126"/>
+      <c r="C102" s="76"/>
+      <c r="D102" s="77"/>
+      <c r="E102" s="139"/>
+      <c r="F102" s="85"/>
+    </row>
+    <row r="103" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B103" s="126"/>
+      <c r="C103" s="76"/>
+      <c r="D103" s="77"/>
+      <c r="E103" s="139"/>
+      <c r="F103" s="85"/>
+    </row>
+    <row r="104" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B104" s="126"/>
+      <c r="C104" s="76"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="139"/>
+      <c r="F104" s="85"/>
+    </row>
+    <row r="105" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B105" s="126"/>
+      <c r="C105" s="76"/>
+      <c r="D105" s="77"/>
+      <c r="E105" s="139"/>
+      <c r="F105" s="85"/>
+    </row>
+    <row r="106" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B106" s="126"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="77"/>
+      <c r="E106" s="139"/>
+      <c r="F106" s="85"/>
+    </row>
+    <row r="107" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B107" s="126"/>
+      <c r="C107" s="76"/>
+      <c r="D107" s="77"/>
+      <c r="E107" s="139"/>
+      <c r="F107" s="85"/>
+    </row>
+    <row r="108" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B108" s="126"/>
+      <c r="C108" s="76"/>
+      <c r="D108" s="77"/>
+      <c r="E108" s="139"/>
+      <c r="F108" s="85"/>
+    </row>
+    <row r="109" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B109" s="126"/>
+      <c r="C109" s="76"/>
+      <c r="D109" s="77"/>
+      <c r="E109" s="139"/>
+      <c r="F109" s="85"/>
+    </row>
+    <row r="110" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B110" s="126"/>
+      <c r="C110" s="76"/>
+      <c r="D110" s="77"/>
+      <c r="E110" s="139"/>
+      <c r="F110" s="85"/>
+    </row>
+    <row r="111" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B111" s="126"/>
+      <c r="C111" s="76"/>
+      <c r="D111" s="77"/>
+      <c r="E111" s="127"/>
+    </row>
+    <row r="112" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="95"/>
+      <c r="C112" s="96"/>
+      <c r="D112" s="97"/>
+      <c r="E112" s="95"/>
+    </row>
+    <row r="113" spans="1:8" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C113" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="D113" s="99">
+        <f>SUM(D5:D112)</f>
+        <v>10169786.73</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C114" s="48"/>
+      <c r="D114" s="136"/>
+    </row>
+    <row r="115" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="106"/>
+      <c r="B115" s="107"/>
+      <c r="C115" s="108" t="s">
+        <v>60</v>
+      </c>
+      <c r="D115" s="109">
+        <v>-3644591.85</v>
+      </c>
+      <c r="E115" s="102">
+        <v>44264</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="110"/>
+      <c r="B116" s="103"/>
+      <c r="C116" s="104" t="s">
+        <v>59</v>
+      </c>
+      <c r="D116" s="105">
+        <v>-1303474.18</v>
+      </c>
+      <c r="E116" s="100">
+        <v>44264</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="110"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="D117" s="105">
+        <v>-937943.41</v>
+      </c>
+      <c r="E117" s="100">
+        <v>44264</v>
+      </c>
+      <c r="G117" s="169">
+        <f>D115+D116+D117+D118</f>
+        <v>-7492427.9600000009</v>
+      </c>
+      <c r="H117" s="170"/>
+    </row>
+    <row r="118" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="110"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="D118" s="105">
+        <v>-1606418.52</v>
+      </c>
+      <c r="E118" s="100">
+        <v>44264</v>
+      </c>
+      <c r="G118" s="171"/>
+      <c r="H118" s="172"/>
+    </row>
+    <row r="119" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="111"/>
+      <c r="B119" s="112"/>
+      <c r="C119" s="113"/>
+      <c r="D119" s="114">
+        <v>0</v>
+      </c>
+      <c r="E119" s="101"/>
+    </row>
+    <row r="120" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C120" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="D120" s="116">
+        <f>D117+D113+D115+D116+D118+D119</f>
+        <v>2677358.7700000009</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C121" s="1"/>
+      <c r="D121" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C122" s="1"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C123" s="1"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C124" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G117:H118"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1144,6 +1144,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1153,6 +1154,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1162,36 +1193,6 @@
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1270,7 +1271,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2694,17 +2694,17 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="141" t="s">
+      <c r="C3" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="142"/>
-      <c r="E3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="144"/>
       <c r="H3" s="50"/>
-      <c r="I3" s="141" t="s">
+      <c r="I3" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="142"/>
-      <c r="K3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="144"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3144,11 +3144,11 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="141" t="s">
+      <c r="C3" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="142"/>
-      <c r="E3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="144"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3302,18 +3302,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="144" t="s">
+      <c r="C3" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="144"/>
+      <c r="D3" s="155"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="150" t="s">
+      <c r="C4" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="150"/>
+      <c r="D4" s="146"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3323,10 +3323,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="146"/>
+      <c r="C6" s="157"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3343,10 +3343,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="147" t="s">
+      <c r="B8" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="148"/>
+      <c r="C8" s="154"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3363,10 +3363,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="147" t="s">
+      <c r="B10" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="148"/>
+      <c r="C10" s="154"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3383,10 +3383,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="147" t="s">
+      <c r="B12" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="148"/>
+      <c r="C12" s="154"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3403,10 +3403,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="147" t="s">
+      <c r="B14" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="148"/>
+      <c r="C14" s="154"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3423,10 +3423,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="151" t="s">
+      <c r="B16" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="152"/>
+      <c r="C16" s="148"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3443,14 +3443,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="151" t="s">
+      <c r="B18" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="152"/>
+      <c r="C18" s="148"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="153" t="s">
+      <c r="E18" s="149" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3460,7 +3460,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="154"/>
+      <c r="E19" s="150"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3471,10 +3471,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="151" t="s">
+      <c r="B21" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="152"/>
+      <c r="C21" s="148"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3491,10 +3491,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="155" t="s">
+      <c r="B23" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="156"/>
+      <c r="C23" s="152"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3511,10 +3511,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="149" t="s">
+      <c r="B25" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="149"/>
+      <c r="C25" s="145"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3565,6 +3565,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3573,11 +3578,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3616,11 +3616,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="141" t="s">
+      <c r="C3" s="142" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="142"/>
-      <c r="E3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="144"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3821,11 +3821,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="141" t="s">
+      <c r="C3" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="142"/>
-      <c r="E3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="144"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4010,11 +4010,11 @@
     </row>
     <row r="3" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="50"/>
-      <c r="C3" s="141" t="s">
+      <c r="C3" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="142"/>
-      <c r="E3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="144"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4218,9 +4218,9 @@
       <c r="B3" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="143"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="144"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4451,9 +4451,9 @@
       <c r="B3" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="143"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="144"/>
     </row>
     <row r="4" spans="2:5" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4811,36 +4811,36 @@
     </row>
     <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="157" t="s">
+      <c r="B57" s="158" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="158"/>
-      <c r="D57" s="158"/>
-      <c r="E57" s="159"/>
+      <c r="C57" s="159"/>
+      <c r="D57" s="159"/>
+      <c r="E57" s="160"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="160"/>
-      <c r="C58" s="161"/>
-      <c r="D58" s="161"/>
-      <c r="E58" s="162"/>
+      <c r="B58" s="161"/>
+      <c r="C58" s="162"/>
+      <c r="D58" s="162"/>
+      <c r="E58" s="163"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="160"/>
-      <c r="C59" s="161"/>
-      <c r="D59" s="161"/>
-      <c r="E59" s="162"/>
+      <c r="B59" s="161"/>
+      <c r="C59" s="162"/>
+      <c r="D59" s="162"/>
+      <c r="E59" s="163"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="160"/>
-      <c r="C60" s="161"/>
-      <c r="D60" s="161"/>
-      <c r="E60" s="162"/>
+      <c r="B60" s="161"/>
+      <c r="C60" s="162"/>
+      <c r="D60" s="162"/>
+      <c r="E60" s="163"/>
     </row>
     <row r="61" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="163"/>
-      <c r="C61" s="164"/>
-      <c r="D61" s="164"/>
-      <c r="E61" s="165"/>
+      <c r="B61" s="164"/>
+      <c r="C61" s="165"/>
+      <c r="D61" s="165"/>
+      <c r="E61" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4885,9 +4885,9 @@
       <c r="B3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="143"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="144"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -5107,8 +5107,8 @@
   </sheetPr>
   <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5132,12 +5132,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="166" t="s">
+      <c r="B3" s="167" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="169"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
     </row>
@@ -6132,8 +6132,12 @@
     </row>
     <row r="102" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B102" s="126"/>
-      <c r="C102" s="76"/>
-      <c r="D102" s="77"/>
+      <c r="C102" s="76">
+        <v>44800</v>
+      </c>
+      <c r="D102" s="77">
+        <v>100000</v>
+      </c>
       <c r="E102" s="139"/>
       <c r="F102" s="85"/>
     </row>
@@ -6211,7 +6215,7 @@
       </c>
       <c r="D113" s="99">
         <f>SUM(D5:D112)</f>
-        <v>10169786.73</v>
+        <v>10269786.73</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6250,11 +6254,11 @@
         <v>-659691.4</v>
       </c>
       <c r="E117" s="100"/>
-      <c r="G117" s="169">
+      <c r="G117" s="170">
         <f>D115+D116+D117+D118</f>
         <v>-8718896</v>
       </c>
-      <c r="H117" s="170"/>
+      <c r="H117" s="171"/>
     </row>
     <row r="118" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="110"/>
@@ -6266,8 +6270,8 @@
         <v>-1241668.1599999999</v>
       </c>
       <c r="E118" s="100"/>
-      <c r="G118" s="171"/>
-      <c r="H118" s="172"/>
+      <c r="G118" s="172"/>
+      <c r="H118" s="173"/>
     </row>
     <row r="119" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="111"/>
@@ -6275,7 +6279,7 @@
       <c r="C119" s="113" t="s">
         <v>89</v>
       </c>
-      <c r="D119" s="183">
+      <c r="D119" s="141">
         <v>-2122661.75</v>
       </c>
       <c r="E119" s="101"/>
@@ -6286,7 +6290,7 @@
       </c>
       <c r="D120" s="116">
         <f>D117+D113+D115+D116+D118+D119</f>
-        <v>-671771.01999999979</v>
+        <v>-571771.01999999979</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -6510,23 +6514,23 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="175" t="s">
+      <c r="B2" s="176" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="178" t="s">
+      <c r="C2" s="179" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="179"/>
+      <c r="D2" s="180"/>
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="176"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="143"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="144"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="177"/>
+      <c r="B4" s="178"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6564,13 +6568,13 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="173"/>
+      <c r="B8" s="174"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="174"/>
+      <c r="B9" s="175"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -6763,7 +6767,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="180" t="s">
+      <c r="B2" s="181" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -6773,13 +6777,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="181"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="143"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="144"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="181"/>
+      <c r="B4" s="182"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6787,7 +6791,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="181"/>
+      <c r="B5" s="182"/>
       <c r="C5" s="47">
         <v>44380</v>
       </c>
@@ -6797,7 +6801,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="182"/>
+      <c r="B6" s="183"/>
       <c r="C6" s="36">
         <v>44396</v>
       </c>
@@ -6813,7 +6817,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="173" t="s">
+      <c r="B8" s="174" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="36">
@@ -6825,7 +6829,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="174"/>
+      <c r="B9" s="175"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -7025,7 +7029,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="180" t="s">
+      <c r="B2" s="181" t="s">
         <v>74</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -7035,13 +7039,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="181"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="143"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="144"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="181"/>
+      <c r="B4" s="182"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -7049,7 +7053,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="181"/>
+      <c r="B5" s="182"/>
       <c r="C5" s="47">
         <v>44621</v>
       </c>
@@ -7059,7 +7063,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="182"/>
+      <c r="B6" s="183"/>
       <c r="C6" s="36">
         <v>44656</v>
       </c>
@@ -7075,7 +7079,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="173"/>
+      <c r="B8" s="174"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37">
         <v>0</v>
@@ -7083,7 +7087,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="174"/>
+      <c r="B9" s="175"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -7300,12 +7304,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="166" t="s">
+      <c r="B3" s="167" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="169"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
     </row>
@@ -8424,11 +8428,11 @@
       <c r="E117" s="100">
         <v>44264</v>
       </c>
-      <c r="G117" s="169">
+      <c r="G117" s="170">
         <f>D115+D116+D117+D118</f>
         <v>-7492427.9600000009</v>
       </c>
-      <c r="H117" s="170"/>
+      <c r="H117" s="171"/>
     </row>
     <row r="118" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="110"/>
@@ -8442,8 +8446,8 @@
       <c r="E118" s="100">
         <v>44264</v>
       </c>
-      <c r="G118" s="171"/>
-      <c r="H118" s="172"/>
+      <c r="G118" s="172"/>
+      <c r="H118" s="173"/>
     </row>
     <row r="119" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="111"/>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1154,6 +1154,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1176,21 +1191,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3302,18 +3302,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="155" t="s">
+      <c r="C3" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="155"/>
+      <c r="D3" s="145"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="146" t="s">
+      <c r="C4" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="146"/>
+      <c r="D4" s="151"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3323,10 +3323,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="156" t="s">
+      <c r="B6" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="157"/>
+      <c r="C6" s="147"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3343,10 +3343,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="153" t="s">
+      <c r="B8" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="154"/>
+      <c r="C8" s="149"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3363,10 +3363,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="153" t="s">
+      <c r="B10" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="154"/>
+      <c r="C10" s="149"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3383,10 +3383,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="153" t="s">
+      <c r="B12" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="154"/>
+      <c r="C12" s="149"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3403,10 +3403,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="153" t="s">
+      <c r="B14" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="154"/>
+      <c r="C14" s="149"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3423,10 +3423,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="147" t="s">
+      <c r="B16" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="148"/>
+      <c r="C16" s="153"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3443,14 +3443,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="147" t="s">
+      <c r="B18" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="148"/>
+      <c r="C18" s="153"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="149" t="s">
+      <c r="E18" s="154" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3460,7 +3460,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="150"/>
+      <c r="E19" s="155"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3471,10 +3471,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="147" t="s">
+      <c r="B21" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="148"/>
+      <c r="C21" s="153"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3491,10 +3491,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="151" t="s">
+      <c r="B23" s="156" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="152"/>
+      <c r="C23" s="157"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3511,10 +3511,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="145" t="s">
+      <c r="B25" s="150" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="145"/>
+      <c r="C25" s="150"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3565,11 +3565,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3578,6 +3573,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5108,7 +5108,7 @@
   <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6143,8 +6143,12 @@
     </row>
     <row r="103" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B103" s="126"/>
-      <c r="C103" s="76"/>
-      <c r="D103" s="77"/>
+      <c r="C103" s="76">
+        <v>44807</v>
+      </c>
+      <c r="D103" s="77">
+        <v>100000</v>
+      </c>
       <c r="E103" s="139"/>
       <c r="F103" s="85"/>
     </row>
@@ -6215,7 +6219,7 @@
       </c>
       <c r="D113" s="99">
         <f>SUM(D5:D112)</f>
-        <v>10269786.73</v>
+        <v>10369786.73</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6290,7 +6294,7 @@
       </c>
       <c r="D120" s="116">
         <f>D117+D113+D115+D116+D118+D119</f>
-        <v>-571771.01999999979</v>
+        <v>-471771.01999999979</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="91">
   <si>
     <t xml:space="preserve">PAGOS  SOBRE REMODELACION </t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t xml:space="preserve">TRANSFORMADOR Y PISO DE MAIOBRAS      </t>
+  </si>
+  <si>
+    <t>TRABAJOS EXTRAORDINARIOS YA HECHOS</t>
   </si>
 </sst>
 </file>
@@ -878,7 +881,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1154,6 +1157,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1163,36 +1196,6 @@
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1270,6 +1273,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1738,15 +1751,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>112</xdr:row>
-      <xdr:rowOff>400049</xdr:rowOff>
+      <xdr:rowOff>380999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1761,8 +1774,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4857750" y="16697324"/>
-          <a:ext cx="1581150" cy="2286000"/>
+          <a:off x="5457825" y="21259799"/>
+          <a:ext cx="1466850" cy="2609850"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst/>
@@ -3302,18 +3315,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="145" t="s">
+      <c r="C3" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="145"/>
+      <c r="D3" s="155"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="151" t="s">
+      <c r="C4" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="151"/>
+      <c r="D4" s="146"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3323,10 +3336,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="147"/>
+      <c r="C6" s="157"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3343,10 +3356,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="148" t="s">
+      <c r="B8" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="149"/>
+      <c r="C8" s="154"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3363,10 +3376,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="148" t="s">
+      <c r="B10" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="149"/>
+      <c r="C10" s="154"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3383,10 +3396,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="148" t="s">
+      <c r="B12" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="149"/>
+      <c r="C12" s="154"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3403,10 +3416,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="148" t="s">
+      <c r="B14" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="149"/>
+      <c r="C14" s="154"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3423,10 +3436,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="152" t="s">
+      <c r="B16" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="153"/>
+      <c r="C16" s="148"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3443,14 +3456,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="152" t="s">
+      <c r="B18" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="153"/>
+      <c r="C18" s="148"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="154" t="s">
+      <c r="E18" s="149" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3460,7 +3473,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="155"/>
+      <c r="E19" s="150"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3471,10 +3484,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="152" t="s">
+      <c r="B21" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="153"/>
+      <c r="C21" s="148"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3491,10 +3504,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="156" t="s">
+      <c r="B23" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="157"/>
+      <c r="C23" s="152"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3511,10 +3524,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="150" t="s">
+      <c r="B25" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="150"/>
+      <c r="C25" s="145"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3565,6 +3578,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3573,11 +3591,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5105,20 +5118,20 @@
   <sheetPr>
     <tabColor rgb="FF00FF99"/>
   </sheetPr>
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="H120" sqref="H120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6154,8 +6167,12 @@
     </row>
     <row r="104" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B104" s="126"/>
-      <c r="C104" s="76"/>
-      <c r="D104" s="77"/>
+      <c r="C104" s="76">
+        <v>44814</v>
+      </c>
+      <c r="D104" s="77">
+        <v>100000</v>
+      </c>
       <c r="E104" s="139"/>
       <c r="F104" s="85"/>
     </row>
@@ -6219,7 +6236,7 @@
       </c>
       <c r="D113" s="99">
         <f>SUM(D5:D112)</f>
-        <v>10369786.73</v>
+        <v>10469786.73</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6288,29 +6305,40 @@
       </c>
       <c r="E119" s="101"/>
     </row>
-    <row r="120" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C120" s="115" t="s">
+    <row r="120" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="122"/>
+      <c r="B120" s="187" t="s">
+        <v>90</v>
+      </c>
+      <c r="C120" s="184"/>
+      <c r="D120" s="185">
+        <v>-135574.72</v>
+      </c>
+      <c r="E120" s="186"/>
+    </row>
+    <row r="121" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C121" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="D120" s="116">
+      <c r="D121" s="116">
         <f>D117+D113+D115+D116+D118+D119</f>
-        <v>-471771.01999999979</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C121" s="1"/>
-      <c r="D121" s="2" t="s">
-        <v>7</v>
+        <v>-371771.01999999979</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C122" s="1"/>
+      <c r="D122" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C123" s="1"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C124" s="1"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C125" s="1"/>
     </row>
   </sheetData>
   <sortState ref="C94:D95">

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1148,132 +1148,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1283,6 +1157,132 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2707,17 +2707,17 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="142" t="s">
+      <c r="C3" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="143"/>
-      <c r="E3" s="144"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="148"/>
       <c r="H3" s="50"/>
-      <c r="I3" s="142" t="s">
+      <c r="I3" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="143"/>
-      <c r="K3" s="144"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="148"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3157,11 +3157,11 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="142" t="s">
+      <c r="C3" s="146" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="143"/>
-      <c r="E3" s="144"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="148"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3315,18 +3315,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="155" t="s">
+      <c r="C3" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="155"/>
+      <c r="D3" s="149"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="146" t="s">
+      <c r="C4" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="146"/>
+      <c r="D4" s="155"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3336,10 +3336,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="156" t="s">
+      <c r="B6" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="157"/>
+      <c r="C6" s="151"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3356,10 +3356,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="153" t="s">
+      <c r="B8" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="154"/>
+      <c r="C8" s="153"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3376,10 +3376,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="153" t="s">
+      <c r="B10" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="154"/>
+      <c r="C10" s="153"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3396,10 +3396,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="153" t="s">
+      <c r="B12" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="154"/>
+      <c r="C12" s="153"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3416,10 +3416,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="153" t="s">
+      <c r="B14" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="154"/>
+      <c r="C14" s="153"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3436,10 +3436,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="147" t="s">
+      <c r="B16" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="148"/>
+      <c r="C16" s="157"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3456,14 +3456,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="147" t="s">
+      <c r="B18" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="148"/>
+      <c r="C18" s="157"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="149" t="s">
+      <c r="E18" s="158" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3473,7 +3473,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="150"/>
+      <c r="E19" s="159"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3484,10 +3484,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="147" t="s">
+      <c r="B21" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="148"/>
+      <c r="C21" s="157"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3504,10 +3504,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="151" t="s">
+      <c r="B23" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="152"/>
+      <c r="C23" s="161"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3524,10 +3524,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="145" t="s">
+      <c r="B25" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="145"/>
+      <c r="C25" s="154"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3578,11 +3578,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3591,6 +3586,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3629,11 +3629,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="142" t="s">
+      <c r="C3" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="143"/>
-      <c r="E3" s="144"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="148"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3834,11 +3834,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="142" t="s">
+      <c r="C3" s="146" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="143"/>
-      <c r="E3" s="144"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="148"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4023,11 +4023,11 @@
     </row>
     <row r="3" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="50"/>
-      <c r="C3" s="142" t="s">
+      <c r="C3" s="146" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="143"/>
-      <c r="E3" s="144"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="148"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4231,9 +4231,9 @@
       <c r="B3" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="144"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="148"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4464,9 +4464,9 @@
       <c r="B3" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="144"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="148"/>
     </row>
     <row r="4" spans="2:5" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4824,36 +4824,36 @@
     </row>
     <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="158" t="s">
+      <c r="B57" s="162" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="159"/>
-      <c r="D57" s="159"/>
-      <c r="E57" s="160"/>
+      <c r="C57" s="163"/>
+      <c r="D57" s="163"/>
+      <c r="E57" s="164"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="161"/>
-      <c r="C58" s="162"/>
-      <c r="D58" s="162"/>
-      <c r="E58" s="163"/>
+      <c r="B58" s="165"/>
+      <c r="C58" s="166"/>
+      <c r="D58" s="166"/>
+      <c r="E58" s="167"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="161"/>
-      <c r="C59" s="162"/>
-      <c r="D59" s="162"/>
-      <c r="E59" s="163"/>
+      <c r="B59" s="165"/>
+      <c r="C59" s="166"/>
+      <c r="D59" s="166"/>
+      <c r="E59" s="167"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="161"/>
-      <c r="C60" s="162"/>
-      <c r="D60" s="162"/>
-      <c r="E60" s="163"/>
+      <c r="B60" s="165"/>
+      <c r="C60" s="166"/>
+      <c r="D60" s="166"/>
+      <c r="E60" s="167"/>
     </row>
     <row r="61" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="164"/>
-      <c r="C61" s="165"/>
-      <c r="D61" s="165"/>
-      <c r="E61" s="166"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="169"/>
+      <c r="D61" s="169"/>
+      <c r="E61" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4898,9 +4898,9 @@
       <c r="B3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="144"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="148"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -5121,7 +5121,7 @@
   <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="H120" sqref="H120"/>
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5145,12 +5145,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="167" t="s">
+      <c r="B3" s="171" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="169"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="173"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
     </row>
@@ -6178,8 +6178,12 @@
     </row>
     <row r="105" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B105" s="126"/>
-      <c r="C105" s="76"/>
-      <c r="D105" s="77"/>
+      <c r="C105" s="76">
+        <v>44821</v>
+      </c>
+      <c r="D105" s="77">
+        <v>100000</v>
+      </c>
       <c r="E105" s="139"/>
       <c r="F105" s="85"/>
     </row>
@@ -6236,7 +6240,7 @@
       </c>
       <c r="D113" s="99">
         <f>SUM(D5:D112)</f>
-        <v>10469786.73</v>
+        <v>10569786.73</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6275,11 +6279,11 @@
         <v>-659691.4</v>
       </c>
       <c r="E117" s="100"/>
-      <c r="G117" s="170">
+      <c r="G117" s="174">
         <f>D115+D116+D117+D118</f>
         <v>-8718896</v>
       </c>
-      <c r="H117" s="171"/>
+      <c r="H117" s="175"/>
     </row>
     <row r="118" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="110"/>
@@ -6291,8 +6295,8 @@
         <v>-1241668.1599999999</v>
       </c>
       <c r="E118" s="100"/>
-      <c r="G118" s="172"/>
-      <c r="H118" s="173"/>
+      <c r="G118" s="176"/>
+      <c r="H118" s="177"/>
     </row>
     <row r="119" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="111"/>
@@ -6307,14 +6311,14 @@
     </row>
     <row r="120" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="122"/>
-      <c r="B120" s="187" t="s">
+      <c r="B120" s="145" t="s">
         <v>90</v>
       </c>
-      <c r="C120" s="184"/>
-      <c r="D120" s="185">
+      <c r="C120" s="142"/>
+      <c r="D120" s="143">
         <v>-135574.72</v>
       </c>
-      <c r="E120" s="186"/>
+      <c r="E120" s="144"/>
     </row>
     <row r="121" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C121" s="115" t="s">
@@ -6322,7 +6326,7 @@
       </c>
       <c r="D121" s="116">
         <f>D117+D113+D115+D116+D118+D119</f>
-        <v>-371771.01999999979</v>
+        <v>-271771.01999999979</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -6546,23 +6550,23 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="180" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="179" t="s">
+      <c r="C2" s="183" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="180"/>
+      <c r="D2" s="184"/>
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="177"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="144"/>
+      <c r="B3" s="181"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="148"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="178"/>
+      <c r="B4" s="182"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6600,13 +6604,13 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="174"/>
+      <c r="B8" s="178"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="175"/>
+      <c r="B9" s="179"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -6799,7 +6803,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="181" t="s">
+      <c r="B2" s="185" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -6809,13 +6813,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="182"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="144"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="148"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="182"/>
+      <c r="B4" s="186"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6823,7 +6827,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="182"/>
+      <c r="B5" s="186"/>
       <c r="C5" s="47">
         <v>44380</v>
       </c>
@@ -6833,7 +6837,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="183"/>
+      <c r="B6" s="187"/>
       <c r="C6" s="36">
         <v>44396</v>
       </c>
@@ -6849,7 +6853,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="174" t="s">
+      <c r="B8" s="178" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="36">
@@ -6861,7 +6865,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="175"/>
+      <c r="B9" s="179"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -7061,7 +7065,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="181" t="s">
+      <c r="B2" s="185" t="s">
         <v>74</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -7071,13 +7075,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="182"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="144"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="148"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="182"/>
+      <c r="B4" s="186"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -7085,7 +7089,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="182"/>
+      <c r="B5" s="186"/>
       <c r="C5" s="47">
         <v>44621</v>
       </c>
@@ -7095,7 +7099,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="183"/>
+      <c r="B6" s="187"/>
       <c r="C6" s="36">
         <v>44656</v>
       </c>
@@ -7111,7 +7115,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="174"/>
+      <c r="B8" s="178"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37">
         <v>0</v>
@@ -7119,7 +7123,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="175"/>
+      <c r="B9" s="179"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -7336,12 +7340,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="167" t="s">
+      <c r="B3" s="171" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="169"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="173"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
     </row>
@@ -8460,11 +8464,11 @@
       <c r="E117" s="100">
         <v>44264</v>
       </c>
-      <c r="G117" s="170">
+      <c r="G117" s="174">
         <f>D115+D116+D117+D118</f>
         <v>-7492427.9600000009</v>
       </c>
-      <c r="H117" s="171"/>
+      <c r="H117" s="175"/>
     </row>
     <row r="118" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="110"/>
@@ -8478,8 +8482,8 @@
       <c r="E118" s="100">
         <v>44264</v>
       </c>
-      <c r="G118" s="172"/>
-      <c r="H118" s="173"/>
+      <c r="G118" s="176"/>
+      <c r="H118" s="177"/>
     </row>
     <row r="119" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="111"/>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="90">
   <si>
     <t xml:space="preserve">PAGOS  SOBRE REMODELACION </t>
   </si>
@@ -331,9 +331,6 @@
   </si>
   <si>
     <t xml:space="preserve">TRANSFORMADOR Y PISO DE MAIOBRAS      </t>
-  </si>
-  <si>
-    <t>TRABAJOS EXTRAORDINARIOS YA HECHOS</t>
   </si>
 </sst>
 </file>
@@ -5121,7 +5118,7 @@
   <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+      <selection activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6189,8 +6186,12 @@
     </row>
     <row r="106" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B106" s="126"/>
-      <c r="C106" s="76"/>
-      <c r="D106" s="77"/>
+      <c r="C106" s="76">
+        <v>44766</v>
+      </c>
+      <c r="D106" s="77">
+        <v>71771</v>
+      </c>
       <c r="E106" s="139"/>
       <c r="F106" s="85"/>
     </row>
@@ -6240,7 +6241,7 @@
       </c>
       <c r="D113" s="99">
         <f>SUM(D5:D112)</f>
-        <v>10569786.73</v>
+        <v>10641557.73</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6311,12 +6312,10 @@
     </row>
     <row r="120" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="122"/>
-      <c r="B120" s="145" t="s">
-        <v>90</v>
-      </c>
+      <c r="B120" s="145"/>
       <c r="C120" s="142"/>
       <c r="D120" s="143">
-        <v>-135574.72</v>
+        <v>0</v>
       </c>
       <c r="E120" s="144"/>
     </row>
@@ -6325,8 +6324,8 @@
         <v>4</v>
       </c>
       <c r="D121" s="116">
-        <f>D117+D113+D115+D116+D118+D119</f>
-        <v>-271771.01999999979</v>
+        <f>D117+D113+D115+D116+D118+D119+D120</f>
+        <v>-200000.01999999979</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="91">
   <si>
     <t xml:space="preserve">PAGOS  SOBRE REMODELACION </t>
   </si>
@@ -330,7 +330,10 @@
     <t xml:space="preserve">ACABADOS AREA   COMERDOR     </t>
   </si>
   <si>
-    <t xml:space="preserve">TRANSFORMADOR Y PISO DE MAIOBRAS      </t>
+    <t>PAGOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFORMADOR Y PISO DE MANIOBRAS      </t>
   </si>
 </sst>
 </file>
@@ -343,7 +346,7 @@
     <numFmt numFmtId="165" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,6 +486,13 @@
       <b/>
       <sz val="18"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -878,7 +888,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1164,6 +1174,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1173,36 +1213,6 @@
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1280,6 +1290,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3312,18 +3329,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="149"/>
+      <c r="D3" s="159"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="155" t="s">
+      <c r="C4" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="155"/>
+      <c r="D4" s="150"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3333,10 +3350,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="150" t="s">
+      <c r="B6" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="151"/>
+      <c r="C6" s="161"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3353,10 +3370,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="152" t="s">
+      <c r="B8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="153"/>
+      <c r="C8" s="158"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3373,10 +3390,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="152" t="s">
+      <c r="B10" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="153"/>
+      <c r="C10" s="158"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3393,10 +3410,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="152" t="s">
+      <c r="B12" s="157" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="153"/>
+      <c r="C12" s="158"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3413,10 +3430,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="152" t="s">
+      <c r="B14" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="153"/>
+      <c r="C14" s="158"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3433,10 +3450,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="156" t="s">
+      <c r="B16" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="157"/>
+      <c r="C16" s="152"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3453,14 +3470,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="156" t="s">
+      <c r="B18" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="157"/>
+      <c r="C18" s="152"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="158" t="s">
+      <c r="E18" s="153" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3470,7 +3487,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="159"/>
+      <c r="E19" s="154"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3481,10 +3498,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="156" t="s">
+      <c r="B21" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="157"/>
+      <c r="C21" s="152"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3501,10 +3518,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="160" t="s">
+      <c r="B23" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="161"/>
+      <c r="C23" s="156"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3521,10 +3538,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="154" t="s">
+      <c r="B25" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="154"/>
+      <c r="C25" s="149"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3575,6 +3592,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3583,11 +3605,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5117,8 +5134,8 @@
   </sheetPr>
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="E122" sqref="E122"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6198,48 +6215,63 @@
     <row r="107" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="126"/>
       <c r="C107" s="76"/>
-      <c r="D107" s="77"/>
+      <c r="D107" s="77">
+        <v>0</v>
+      </c>
       <c r="E107" s="139"/>
       <c r="F107" s="85"/>
     </row>
     <row r="108" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="126"/>
       <c r="C108" s="76"/>
-      <c r="D108" s="77"/>
+      <c r="D108" s="77">
+        <v>0</v>
+      </c>
       <c r="E108" s="139"/>
       <c r="F108" s="85"/>
     </row>
     <row r="109" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B109" s="126"/>
       <c r="C109" s="76"/>
-      <c r="D109" s="77"/>
+      <c r="D109" s="77">
+        <v>0</v>
+      </c>
       <c r="E109" s="139"/>
       <c r="F109" s="85"/>
     </row>
     <row r="110" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B110" s="126"/>
       <c r="C110" s="76"/>
-      <c r="D110" s="77"/>
+      <c r="D110" s="77">
+        <v>0</v>
+      </c>
       <c r="E110" s="139"/>
       <c r="F110" s="85"/>
     </row>
     <row r="111" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B111" s="126"/>
       <c r="C111" s="76"/>
-      <c r="D111" s="77"/>
+      <c r="D111" s="77">
+        <v>0</v>
+      </c>
       <c r="E111" s="127"/>
     </row>
     <row r="112" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="95"/>
-      <c r="C112" s="96"/>
-      <c r="D112" s="97"/>
+      <c r="B112" s="188"/>
+      <c r="C112" s="38"/>
+      <c r="D112" s="39">
+        <v>0</v>
+      </c>
       <c r="E112" s="95"/>
     </row>
-    <row r="113" spans="1:8" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C113" s="98" t="s">
+    <row r="113" spans="1:8" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B113" s="189" t="s">
+        <v>89</v>
+      </c>
+      <c r="C113" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="D113" s="99">
+      <c r="D113" s="25">
         <f>SUM(D5:D112)</f>
         <v>10641557.73</v>
       </c>
@@ -6303,7 +6335,7 @@
       <c r="A119" s="111"/>
       <c r="B119" s="112"/>
       <c r="C119" s="113" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D119" s="141">
         <v>-2122661.75</v>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1165,138 +1165,138 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2721,17 +2721,17 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="146" t="s">
+      <c r="C3" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="147"/>
-      <c r="E3" s="148"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="151"/>
       <c r="H3" s="50"/>
-      <c r="I3" s="146" t="s">
+      <c r="I3" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="147"/>
-      <c r="K3" s="148"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="151"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3171,11 +3171,11 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="146" t="s">
+      <c r="C3" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="147"/>
-      <c r="E3" s="148"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="151"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3329,18 +3329,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="159" t="s">
+      <c r="C3" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="159"/>
+      <c r="D3" s="152"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="150" t="s">
+      <c r="C4" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="150"/>
+      <c r="D4" s="158"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3350,10 +3350,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="160" t="s">
+      <c r="B6" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="161"/>
+      <c r="C6" s="154"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3370,10 +3370,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="157" t="s">
+      <c r="B8" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="158"/>
+      <c r="C8" s="156"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3390,10 +3390,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="157" t="s">
+      <c r="B10" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="158"/>
+      <c r="C10" s="156"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3410,10 +3410,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="157" t="s">
+      <c r="B12" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="158"/>
+      <c r="C12" s="156"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3430,10 +3430,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="157" t="s">
+      <c r="B14" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="158"/>
+      <c r="C14" s="156"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3450,10 +3450,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="151" t="s">
+      <c r="B16" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="152"/>
+      <c r="C16" s="160"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3470,14 +3470,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="151" t="s">
+      <c r="B18" s="159" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="152"/>
+      <c r="C18" s="160"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="153" t="s">
+      <c r="E18" s="161" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="154"/>
+      <c r="E19" s="162"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3498,10 +3498,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="151" t="s">
+      <c r="B21" s="159" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="152"/>
+      <c r="C21" s="160"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3518,10 +3518,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="155" t="s">
+      <c r="B23" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="156"/>
+      <c r="C23" s="164"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3538,10 +3538,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="149" t="s">
+      <c r="B25" s="157" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="149"/>
+      <c r="C25" s="157"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3592,11 +3592,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3605,6 +3600,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3643,11 +3643,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="146" t="s">
+      <c r="C3" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="147"/>
-      <c r="E3" s="148"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="151"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3848,11 +3848,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="146" t="s">
+      <c r="C3" s="149" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="147"/>
-      <c r="E3" s="148"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="151"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4037,11 +4037,11 @@
     </row>
     <row r="3" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="50"/>
-      <c r="C3" s="146" t="s">
+      <c r="C3" s="149" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="147"/>
-      <c r="E3" s="148"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="151"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4245,9 +4245,9 @@
       <c r="B3" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="148"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="151"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4478,9 +4478,9 @@
       <c r="B3" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="148"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="151"/>
     </row>
     <row r="4" spans="2:5" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4838,36 +4838,36 @@
     </row>
     <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="162" t="s">
+      <c r="B57" s="165" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="163"/>
-      <c r="D57" s="163"/>
-      <c r="E57" s="164"/>
+      <c r="C57" s="166"/>
+      <c r="D57" s="166"/>
+      <c r="E57" s="167"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="165"/>
-      <c r="C58" s="166"/>
-      <c r="D58" s="166"/>
-      <c r="E58" s="167"/>
+      <c r="B58" s="168"/>
+      <c r="C58" s="169"/>
+      <c r="D58" s="169"/>
+      <c r="E58" s="170"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="165"/>
-      <c r="C59" s="166"/>
-      <c r="D59" s="166"/>
-      <c r="E59" s="167"/>
+      <c r="B59" s="168"/>
+      <c r="C59" s="169"/>
+      <c r="D59" s="169"/>
+      <c r="E59" s="170"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="165"/>
-      <c r="C60" s="166"/>
-      <c r="D60" s="166"/>
-      <c r="E60" s="167"/>
+      <c r="B60" s="168"/>
+      <c r="C60" s="169"/>
+      <c r="D60" s="169"/>
+      <c r="E60" s="170"/>
     </row>
     <row r="61" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="168"/>
-      <c r="C61" s="169"/>
-      <c r="D61" s="169"/>
-      <c r="E61" s="170"/>
+      <c r="B61" s="171"/>
+      <c r="C61" s="172"/>
+      <c r="D61" s="172"/>
+      <c r="E61" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4912,9 +4912,9 @@
       <c r="B3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="148"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="151"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -5135,7 +5135,7 @@
   <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5159,12 +5159,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="171" t="s">
+      <c r="B3" s="174" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="173"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="176"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
     </row>
@@ -6214,9 +6214,11 @@
     </row>
     <row r="107" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="126"/>
-      <c r="C107" s="76"/>
+      <c r="C107" s="76">
+        <v>44877</v>
+      </c>
       <c r="D107" s="77">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="E107" s="139"/>
       <c r="F107" s="85"/>
@@ -6257,7 +6259,7 @@
       <c r="E111" s="127"/>
     </row>
     <row r="112" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="188"/>
+      <c r="B112" s="146"/>
       <c r="C112" s="38"/>
       <c r="D112" s="39">
         <v>0</v>
@@ -6265,15 +6267,15 @@
       <c r="E112" s="95"/>
     </row>
     <row r="113" spans="1:8" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="189" t="s">
+      <c r="B113" s="147" t="s">
         <v>89</v>
       </c>
-      <c r="C113" s="190" t="s">
+      <c r="C113" s="148" t="s">
         <v>3</v>
       </c>
       <c r="D113" s="25">
         <f>SUM(D5:D112)</f>
-        <v>10641557.73</v>
+        <v>10741557.73</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6312,11 +6314,11 @@
         <v>-659691.4</v>
       </c>
       <c r="E117" s="100"/>
-      <c r="G117" s="174">
+      <c r="G117" s="177">
         <f>D115+D116+D117+D118</f>
         <v>-8718896</v>
       </c>
-      <c r="H117" s="175"/>
+      <c r="H117" s="178"/>
     </row>
     <row r="118" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="110"/>
@@ -6328,8 +6330,8 @@
         <v>-1241668.1599999999</v>
       </c>
       <c r="E118" s="100"/>
-      <c r="G118" s="176"/>
-      <c r="H118" s="177"/>
+      <c r="G118" s="179"/>
+      <c r="H118" s="180"/>
     </row>
     <row r="119" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="111"/>
@@ -6357,7 +6359,7 @@
       </c>
       <c r="D121" s="116">
         <f>D117+D113+D115+D116+D118+D119+D120</f>
-        <v>-200000.01999999979</v>
+        <v>-100000.01999999979</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -6581,23 +6583,23 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="180" t="s">
+      <c r="B2" s="183" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="183" t="s">
+      <c r="C2" s="186" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="184"/>
+      <c r="D2" s="187"/>
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="181"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="148"/>
+      <c r="B3" s="184"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="151"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="182"/>
+      <c r="B4" s="185"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6635,13 +6637,13 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="178"/>
+      <c r="B8" s="181"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="179"/>
+      <c r="B9" s="182"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -6834,7 +6836,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="188" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -6844,13 +6846,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="186"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="148"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="151"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="186"/>
+      <c r="B4" s="189"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6858,7 +6860,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="186"/>
+      <c r="B5" s="189"/>
       <c r="C5" s="47">
         <v>44380</v>
       </c>
@@ -6868,7 +6870,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="187"/>
+      <c r="B6" s="190"/>
       <c r="C6" s="36">
         <v>44396</v>
       </c>
@@ -6884,7 +6886,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="178" t="s">
+      <c r="B8" s="181" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="36">
@@ -6896,7 +6898,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="179"/>
+      <c r="B9" s="182"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -7096,7 +7098,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="188" t="s">
         <v>74</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -7106,13 +7108,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="186"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="148"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="151"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="186"/>
+      <c r="B4" s="189"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -7120,7 +7122,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="186"/>
+      <c r="B5" s="189"/>
       <c r="C5" s="47">
         <v>44621</v>
       </c>
@@ -7130,7 +7132,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="187"/>
+      <c r="B6" s="190"/>
       <c r="C6" s="36">
         <v>44656</v>
       </c>
@@ -7146,7 +7148,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="178"/>
+      <c r="B8" s="181"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37">
         <v>0</v>
@@ -7154,7 +7156,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="179"/>
+      <c r="B9" s="182"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -7371,12 +7373,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="171" t="s">
+      <c r="B3" s="174" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="173"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="176"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
     </row>
@@ -8495,11 +8497,11 @@
       <c r="E117" s="100">
         <v>44264</v>
       </c>
-      <c r="G117" s="174">
+      <c r="G117" s="177">
         <f>D115+D116+D117+D118</f>
         <v>-7492427.9600000009</v>
       </c>
-      <c r="H117" s="175"/>
+      <c r="H117" s="178"/>
     </row>
     <row r="118" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="110"/>
@@ -8513,8 +8515,8 @@
       <c r="E118" s="100">
         <v>44264</v>
       </c>
-      <c r="G118" s="176"/>
-      <c r="H118" s="177"/>
+      <c r="G118" s="179"/>
+      <c r="H118" s="180"/>
     </row>
     <row r="119" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="111"/>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
   <si>
     <t xml:space="preserve">PAGOS  SOBRE REMODELACION </t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t xml:space="preserve">TRANSFORMADOR Y PISO DE MANIOBRAS      </t>
+  </si>
+  <si>
+    <t>EXTRAS DE ESTACIONAMIENTO</t>
   </si>
 </sst>
 </file>
@@ -888,7 +891,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1181,6 +1184,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1190,36 +1223,6 @@
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1298,6 +1301,8 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -3329,18 +3334,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="152" t="s">
+      <c r="C3" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="152"/>
+      <c r="D3" s="162"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="158" t="s">
+      <c r="C4" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="158"/>
+      <c r="D4" s="153"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3350,10 +3355,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="153" t="s">
+      <c r="B6" s="163" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="154"/>
+      <c r="C6" s="164"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3370,10 +3375,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="155" t="s">
+      <c r="B8" s="160" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="156"/>
+      <c r="C8" s="161"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3390,10 +3395,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="155" t="s">
+      <c r="B10" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="156"/>
+      <c r="C10" s="161"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3410,10 +3415,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="155" t="s">
+      <c r="B12" s="160" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="156"/>
+      <c r="C12" s="161"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3430,10 +3435,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="155" t="s">
+      <c r="B14" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="156"/>
+      <c r="C14" s="161"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3450,10 +3455,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="159" t="s">
+      <c r="B16" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="160"/>
+      <c r="C16" s="155"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3470,14 +3475,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="159" t="s">
+      <c r="B18" s="154" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="160"/>
+      <c r="C18" s="155"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="161" t="s">
+      <c r="E18" s="156" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3487,7 +3492,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="162"/>
+      <c r="E19" s="157"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3498,10 +3503,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="159" t="s">
+      <c r="B21" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="160"/>
+      <c r="C21" s="155"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3518,10 +3523,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="163" t="s">
+      <c r="B23" s="158" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="164"/>
+      <c r="C23" s="159"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3538,10 +3543,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="157" t="s">
+      <c r="B25" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="157"/>
+      <c r="C25" s="152"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3592,6 +3597,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3600,11 +3610,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5135,7 +5140,7 @@
   <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6223,29 +6228,37 @@
       <c r="E107" s="139"/>
       <c r="F107" s="85"/>
     </row>
-    <row r="108" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="126"/>
-      <c r="C108" s="76"/>
-      <c r="D108" s="77">
-        <v>0</v>
+    <row r="108" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B108" s="191">
+        <v>44891</v>
+      </c>
+      <c r="C108" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="D108" s="192">
+        <v>281129</v>
       </c>
       <c r="E108" s="139"/>
       <c r="F108" s="85"/>
     </row>
     <row r="109" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B109" s="126"/>
-      <c r="C109" s="76"/>
+      <c r="B109" s="191"/>
+      <c r="C109" s="76">
+        <v>44891</v>
+      </c>
       <c r="D109" s="77">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="E109" s="139"/>
       <c r="F109" s="85"/>
     </row>
     <row r="110" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B110" s="126"/>
-      <c r="C110" s="76"/>
+      <c r="C110" s="76">
+        <v>44898</v>
+      </c>
       <c r="D110" s="77">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="E110" s="139"/>
       <c r="F110" s="85"/>
@@ -6275,7 +6288,7 @@
       </c>
       <c r="D113" s="25">
         <f>SUM(D5:D112)</f>
-        <v>10741557.73</v>
+        <v>11152686.73</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6359,7 +6372,7 @@
       </c>
       <c r="D121" s="116">
         <f>D117+D113+D115+D116+D118+D119+D120</f>
-        <v>-100000.01999999979</v>
+        <v>311128.98000000045</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1175,6 +1175,8 @@
     <xf numFmtId="15" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1184,6 +1186,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1208,21 +1225,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1301,8 +1303,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1771,13 +1771,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>380999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2726,17 +2726,17 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="151" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="150"/>
-      <c r="E3" s="151"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="153"/>
       <c r="H3" s="50"/>
-      <c r="I3" s="149" t="s">
+      <c r="I3" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="150"/>
-      <c r="K3" s="151"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="153"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3176,11 +3176,11 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="150"/>
-      <c r="E3" s="151"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="153"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3334,18 +3334,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="162" t="s">
+      <c r="C3" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="162"/>
+      <c r="D3" s="154"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="153" t="s">
+      <c r="C4" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="153"/>
+      <c r="D4" s="160"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3355,10 +3355,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="163" t="s">
+      <c r="B6" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="164"/>
+      <c r="C6" s="156"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3375,10 +3375,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="160" t="s">
+      <c r="B8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="161"/>
+      <c r="C8" s="158"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3395,10 +3395,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="160" t="s">
+      <c r="B10" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="161"/>
+      <c r="C10" s="158"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3415,10 +3415,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="160" t="s">
+      <c r="B12" s="157" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="161"/>
+      <c r="C12" s="158"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3435,10 +3435,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="160" t="s">
+      <c r="B14" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="161"/>
+      <c r="C14" s="158"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3455,10 +3455,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="154" t="s">
+      <c r="B16" s="161" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="155"/>
+      <c r="C16" s="162"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3475,14 +3475,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="154" t="s">
+      <c r="B18" s="161" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="155"/>
+      <c r="C18" s="162"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="156" t="s">
+      <c r="E18" s="163" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3492,7 +3492,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="157"/>
+      <c r="E19" s="164"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3503,10 +3503,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="154" t="s">
+      <c r="B21" s="161" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="155"/>
+      <c r="C21" s="162"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3523,10 +3523,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="158" t="s">
+      <c r="B23" s="165" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="159"/>
+      <c r="C23" s="166"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3543,10 +3543,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="152" t="s">
+      <c r="B25" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="152"/>
+      <c r="C25" s="159"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3597,11 +3597,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3610,6 +3605,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3648,11 +3648,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="151" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="150"/>
-      <c r="E3" s="151"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="153"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3853,11 +3853,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="151" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="150"/>
-      <c r="E3" s="151"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="153"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4042,11 +4042,11 @@
     </row>
     <row r="3" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="50"/>
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="150"/>
-      <c r="E3" s="151"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="153"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4250,9 +4250,9 @@
       <c r="B3" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="149"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="153"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4483,9 +4483,9 @@
       <c r="B3" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="149"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="153"/>
     </row>
     <row r="4" spans="2:5" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4843,36 +4843,36 @@
     </row>
     <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="165" t="s">
+      <c r="B57" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="166"/>
-      <c r="D57" s="166"/>
-      <c r="E57" s="167"/>
+      <c r="C57" s="168"/>
+      <c r="D57" s="168"/>
+      <c r="E57" s="169"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="168"/>
-      <c r="C58" s="169"/>
-      <c r="D58" s="169"/>
-      <c r="E58" s="170"/>
+      <c r="B58" s="170"/>
+      <c r="C58" s="171"/>
+      <c r="D58" s="171"/>
+      <c r="E58" s="172"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="168"/>
-      <c r="C59" s="169"/>
-      <c r="D59" s="169"/>
-      <c r="E59" s="170"/>
+      <c r="B59" s="170"/>
+      <c r="C59" s="171"/>
+      <c r="D59" s="171"/>
+      <c r="E59" s="172"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="168"/>
-      <c r="C60" s="169"/>
-      <c r="D60" s="169"/>
-      <c r="E60" s="170"/>
+      <c r="B60" s="170"/>
+      <c r="C60" s="171"/>
+      <c r="D60" s="171"/>
+      <c r="E60" s="172"/>
     </row>
     <row r="61" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="171"/>
-      <c r="C61" s="172"/>
-      <c r="D61" s="172"/>
-      <c r="E61" s="173"/>
+      <c r="B61" s="173"/>
+      <c r="C61" s="174"/>
+      <c r="D61" s="174"/>
+      <c r="E61" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4917,9 +4917,9 @@
       <c r="B3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="149"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="153"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -5137,10 +5137,10 @@
   <sheetPr>
     <tabColor rgb="FF00FF99"/>
   </sheetPr>
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+      <selection activeCell="B106" sqref="B105:B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5164,12 +5164,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="174" t="s">
+      <c r="B3" s="176" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="176"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="178"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
     </row>
@@ -6228,167 +6228,199 @@
       <c r="E107" s="139"/>
       <c r="F107" s="85"/>
     </row>
-    <row r="108" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B108" s="191">
-        <v>44891</v>
-      </c>
-      <c r="C108" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="D108" s="192">
-        <v>281129</v>
+    <row r="108" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B108" s="126"/>
+      <c r="C108" s="76">
+        <v>44905</v>
+      </c>
+      <c r="D108" s="77">
+        <v>50000</v>
       </c>
       <c r="E108" s="139"/>
       <c r="F108" s="85"/>
     </row>
     <row r="109" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B109" s="191"/>
-      <c r="C109" s="76">
-        <v>44891</v>
-      </c>
-      <c r="D109" s="77">
-        <v>80000</v>
-      </c>
+      <c r="B109" s="126"/>
+      <c r="C109" s="76"/>
+      <c r="D109" s="77"/>
       <c r="E109" s="139"/>
       <c r="F109" s="85"/>
     </row>
     <row r="110" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B110" s="126"/>
-      <c r="C110" s="76">
-        <v>44898</v>
-      </c>
-      <c r="D110" s="77">
-        <v>50000</v>
-      </c>
+      <c r="C110" s="76"/>
+      <c r="D110" s="77"/>
       <c r="E110" s="139"/>
       <c r="F110" s="85"/>
     </row>
     <row r="111" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B111" s="126"/>
       <c r="C111" s="76"/>
-      <c r="D111" s="77">
-        <v>0</v>
-      </c>
-      <c r="E111" s="127"/>
-    </row>
-    <row r="112" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="146"/>
-      <c r="C112" s="38"/>
-      <c r="D112" s="39">
-        <v>0</v>
-      </c>
-      <c r="E112" s="95"/>
-    </row>
-    <row r="113" spans="1:8" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="147" t="s">
+      <c r="D111" s="77"/>
+      <c r="E111" s="139"/>
+      <c r="F111" s="85"/>
+    </row>
+    <row r="112" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B112" s="149">
+        <v>44891</v>
+      </c>
+      <c r="C112" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="D112" s="150">
+        <v>-281129</v>
+      </c>
+      <c r="E112" s="139"/>
+      <c r="F112" s="85"/>
+    </row>
+    <row r="113" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B113" s="149"/>
+      <c r="C113" s="76">
+        <v>44891</v>
+      </c>
+      <c r="D113" s="77">
+        <v>80000</v>
+      </c>
+      <c r="E113" s="139"/>
+      <c r="F113" s="85"/>
+    </row>
+    <row r="114" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B114" s="126"/>
+      <c r="C114" s="76">
+        <v>44898</v>
+      </c>
+      <c r="D114" s="77">
+        <v>50000</v>
+      </c>
+      <c r="E114" s="139"/>
+      <c r="F114" s="85"/>
+    </row>
+    <row r="115" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B115" s="126"/>
+      <c r="C115" s="76"/>
+      <c r="D115" s="77">
+        <v>0</v>
+      </c>
+      <c r="E115" s="127"/>
+    </row>
+    <row r="116" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="146"/>
+      <c r="C116" s="38"/>
+      <c r="D116" s="39">
+        <v>0</v>
+      </c>
+      <c r="E116" s="95"/>
+    </row>
+    <row r="117" spans="1:8" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B117" s="147" t="s">
         <v>89</v>
       </c>
-      <c r="C113" s="148" t="s">
+      <c r="C117" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="D113" s="25">
-        <f>SUM(D5:D112)</f>
-        <v>11152686.73</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C114" s="48"/>
-      <c r="D114" s="136"/>
-    </row>
-    <row r="115" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="106"/>
-      <c r="B115" s="107"/>
-      <c r="C115" s="108" t="s">
+      <c r="D117" s="25">
+        <f>SUM(D5:D116)</f>
+        <v>10640428.73</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C118" s="48"/>
+      <c r="D118" s="136"/>
+    </row>
+    <row r="119" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="106"/>
+      <c r="B119" s="107"/>
+      <c r="C119" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="D115" s="109">
+      <c r="D119" s="109">
         <v>-3711953</v>
       </c>
-      <c r="E115" s="102"/>
-    </row>
-    <row r="116" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="110"/>
-      <c r="B116" s="103"/>
-      <c r="C116" s="104" t="s">
+      <c r="E119" s="102"/>
+    </row>
+    <row r="120" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="110"/>
+      <c r="B120" s="103"/>
+      <c r="C120" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="D116" s="105">
+      <c r="D120" s="105">
         <v>-3105583.44</v>
       </c>
-      <c r="E116" s="100"/>
-    </row>
-    <row r="117" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="110"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="104" t="s">
+      <c r="E120" s="100"/>
+    </row>
+    <row r="121" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="110"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="D117" s="105">
+      <c r="D121" s="105">
         <v>-659691.4</v>
       </c>
-      <c r="E117" s="100"/>
-      <c r="G117" s="177">
-        <f>D115+D116+D117+D118</f>
+      <c r="E121" s="100"/>
+      <c r="G121" s="179">
+        <f>D119+D120+D121+D122</f>
         <v>-8718896</v>
       </c>
-      <c r="H117" s="178"/>
-    </row>
-    <row r="118" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="110"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="104" t="s">
+      <c r="H121" s="180"/>
+    </row>
+    <row r="122" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="110"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="D118" s="105">
+      <c r="D122" s="105">
         <v>-1241668.1599999999</v>
       </c>
-      <c r="E118" s="100"/>
-      <c r="G118" s="179"/>
-      <c r="H118" s="180"/>
-    </row>
-    <row r="119" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="111"/>
-      <c r="B119" s="112"/>
-      <c r="C119" s="113" t="s">
+      <c r="E122" s="100"/>
+      <c r="G122" s="181"/>
+      <c r="H122" s="182"/>
+    </row>
+    <row r="123" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="111"/>
+      <c r="B123" s="112"/>
+      <c r="C123" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="D119" s="141">
+      <c r="D123" s="141">
         <v>-2122661.75</v>
       </c>
-      <c r="E119" s="101"/>
-    </row>
-    <row r="120" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="122"/>
-      <c r="B120" s="145"/>
-      <c r="C120" s="142"/>
-      <c r="D120" s="143">
-        <v>0</v>
-      </c>
-      <c r="E120" s="144"/>
-    </row>
-    <row r="121" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C121" s="115" t="s">
+      <c r="E123" s="101"/>
+    </row>
+    <row r="124" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="122"/>
+      <c r="B124" s="145"/>
+      <c r="C124" s="142"/>
+      <c r="D124" s="143">
+        <v>0</v>
+      </c>
+      <c r="E124" s="144"/>
+    </row>
+    <row r="125" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C125" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="D121" s="116">
-        <f>D117+D113+D115+D116+D118+D119+D120</f>
-        <v>311128.98000000045</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C122" s="1"/>
-      <c r="D122" s="2" t="s">
+      <c r="D125" s="116">
+        <f>D121+D117+D119+D120+D122+D123+D124</f>
+        <v>-201129.01999999979</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C126" s="1"/>
+      <c r="D126" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C123" s="1"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C124" s="1"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C125" s="1"/>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C127" s="1"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C128" s="1"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="1"/>
     </row>
   </sheetData>
   <sortState ref="C94:D95">
@@ -6396,7 +6428,7 @@
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G117:H118"/>
+    <mergeCell ref="G121:H122"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.38" bottom="0.32" header="0.3" footer="0.3"/>
   <pageSetup scale="80" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6596,23 +6628,23 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="185" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="188" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="187"/>
+      <c r="D2" s="189"/>
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="184"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="151"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="153"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="185"/>
+      <c r="B4" s="187"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6650,13 +6682,13 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="181"/>
+      <c r="B8" s="183"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="182"/>
+      <c r="B9" s="184"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -6849,7 +6881,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="188" t="s">
+      <c r="B2" s="190" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -6859,13 +6891,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="189"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="151"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="153"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="189"/>
+      <c r="B4" s="191"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6873,7 +6905,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="189"/>
+      <c r="B5" s="191"/>
       <c r="C5" s="47">
         <v>44380</v>
       </c>
@@ -6883,7 +6915,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="190"/>
+      <c r="B6" s="192"/>
       <c r="C6" s="36">
         <v>44396</v>
       </c>
@@ -6899,7 +6931,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="181" t="s">
+      <c r="B8" s="183" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="36">
@@ -6911,7 +6943,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="182"/>
+      <c r="B9" s="184"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -7111,7 +7143,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="188" t="s">
+      <c r="B2" s="190" t="s">
         <v>74</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -7121,13 +7153,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="189"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="151"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="153"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="189"/>
+      <c r="B4" s="191"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -7135,7 +7167,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="189"/>
+      <c r="B5" s="191"/>
       <c r="C5" s="47">
         <v>44621</v>
       </c>
@@ -7145,7 +7177,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="190"/>
+      <c r="B6" s="192"/>
       <c r="C6" s="36">
         <v>44656</v>
       </c>
@@ -7161,7 +7193,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="181"/>
+      <c r="B8" s="183"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37">
         <v>0</v>
@@ -7169,7 +7201,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="182"/>
+      <c r="B9" s="184"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -7386,12 +7418,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="174" t="s">
+      <c r="B3" s="176" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="176"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="178"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
     </row>
@@ -8510,11 +8542,11 @@
       <c r="E117" s="100">
         <v>44264</v>
       </c>
-      <c r="G117" s="177">
+      <c r="G117" s="179">
         <f>D115+D116+D117+D118</f>
         <v>-7492427.9600000009</v>
       </c>
-      <c r="H117" s="178"/>
+      <c r="H117" s="180"/>
     </row>
     <row r="118" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="110"/>
@@ -8528,8 +8560,8 @@
       <c r="E118" s="100">
         <v>44264</v>
       </c>
-      <c r="G118" s="179"/>
-      <c r="H118" s="180"/>
+      <c r="G118" s="181"/>
+      <c r="H118" s="182"/>
     </row>
     <row r="119" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="111"/>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -891,7 +891,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1177,6 +1177,9 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2726,17 +2729,17 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="151" t="s">
+      <c r="C3" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="152"/>
-      <c r="E3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="154"/>
       <c r="H3" s="50"/>
-      <c r="I3" s="151" t="s">
+      <c r="I3" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="152"/>
-      <c r="K3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="154"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3176,11 +3179,11 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="151" t="s">
+      <c r="C3" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="152"/>
-      <c r="E3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="154"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3334,18 +3337,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="154" t="s">
+      <c r="C3" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="154"/>
+      <c r="D3" s="155"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="160" t="s">
+      <c r="C4" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="160"/>
+      <c r="D4" s="161"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3355,10 +3358,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="155" t="s">
+      <c r="B6" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="156"/>
+      <c r="C6" s="157"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3375,10 +3378,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="157" t="s">
+      <c r="B8" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="158"/>
+      <c r="C8" s="159"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3395,10 +3398,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="157" t="s">
+      <c r="B10" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="158"/>
+      <c r="C10" s="159"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3415,10 +3418,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="157" t="s">
+      <c r="B12" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="158"/>
+      <c r="C12" s="159"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3435,10 +3438,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="157" t="s">
+      <c r="B14" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="158"/>
+      <c r="C14" s="159"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3455,10 +3458,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="161" t="s">
+      <c r="B16" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="162"/>
+      <c r="C16" s="163"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3475,14 +3478,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="161" t="s">
+      <c r="B18" s="162" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="162"/>
+      <c r="C18" s="163"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="163" t="s">
+      <c r="E18" s="164" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3492,7 +3495,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="164"/>
+      <c r="E19" s="165"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3503,10 +3506,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="161" t="s">
+      <c r="B21" s="162" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="162"/>
+      <c r="C21" s="163"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3523,10 +3526,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="165" t="s">
+      <c r="B23" s="166" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="166"/>
+      <c r="C23" s="167"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3543,10 +3546,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="159" t="s">
+      <c r="B25" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="159"/>
+      <c r="C25" s="160"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3648,11 +3651,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="151" t="s">
+      <c r="C3" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="152"/>
-      <c r="E3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="154"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3853,11 +3856,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="151" t="s">
+      <c r="C3" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="152"/>
-      <c r="E3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="154"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4042,11 +4045,11 @@
     </row>
     <row r="3" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="50"/>
-      <c r="C3" s="151" t="s">
+      <c r="C3" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="152"/>
-      <c r="E3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="154"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4250,9 +4253,9 @@
       <c r="B3" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="151"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="153"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="154"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4483,9 +4486,9 @@
       <c r="B3" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="151"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="153"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="154"/>
     </row>
     <row r="4" spans="2:5" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4843,36 +4846,36 @@
     </row>
     <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="167" t="s">
+      <c r="B57" s="168" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="168"/>
-      <c r="D57" s="168"/>
-      <c r="E57" s="169"/>
+      <c r="C57" s="169"/>
+      <c r="D57" s="169"/>
+      <c r="E57" s="170"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="170"/>
-      <c r="C58" s="171"/>
-      <c r="D58" s="171"/>
-      <c r="E58" s="172"/>
+      <c r="B58" s="171"/>
+      <c r="C58" s="172"/>
+      <c r="D58" s="172"/>
+      <c r="E58" s="173"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="170"/>
-      <c r="C59" s="171"/>
-      <c r="D59" s="171"/>
-      <c r="E59" s="172"/>
+      <c r="B59" s="171"/>
+      <c r="C59" s="172"/>
+      <c r="D59" s="172"/>
+      <c r="E59" s="173"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="170"/>
-      <c r="C60" s="171"/>
-      <c r="D60" s="171"/>
-      <c r="E60" s="172"/>
+      <c r="B60" s="171"/>
+      <c r="C60" s="172"/>
+      <c r="D60" s="172"/>
+      <c r="E60" s="173"/>
     </row>
     <row r="61" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="173"/>
-      <c r="C61" s="174"/>
-      <c r="D61" s="174"/>
-      <c r="E61" s="175"/>
+      <c r="B61" s="174"/>
+      <c r="C61" s="175"/>
+      <c r="D61" s="175"/>
+      <c r="E61" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4917,9 +4920,9 @@
       <c r="B3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="151"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="153"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="154"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -5140,7 +5143,7 @@
   <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="B106" sqref="B105:B106"/>
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5164,12 +5167,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="176" t="s">
+      <c r="B3" s="177" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="179"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
     </row>
@@ -6260,11 +6263,11 @@
       <c r="E111" s="139"/>
       <c r="F111" s="85"/>
     </row>
-    <row r="112" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:6" ht="32.25" x14ac:dyDescent="0.3">
       <c r="B112" s="149">
         <v>44891</v>
       </c>
-      <c r="C112" s="76" t="s">
+      <c r="C112" s="151" t="s">
         <v>91</v>
       </c>
       <c r="D112" s="150">
@@ -6297,9 +6300,11 @@
     </row>
     <row r="115" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B115" s="126"/>
-      <c r="C115" s="76"/>
+      <c r="C115" s="76">
+        <v>44919</v>
+      </c>
       <c r="D115" s="77">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="E115" s="127"/>
     </row>
@@ -6320,7 +6325,7 @@
       </c>
       <c r="D117" s="25">
         <f>SUM(D5:D116)</f>
-        <v>10640428.73</v>
+        <v>10710428.73</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6359,11 +6364,11 @@
         <v>-659691.4</v>
       </c>
       <c r="E121" s="100"/>
-      <c r="G121" s="179">
+      <c r="G121" s="180">
         <f>D119+D120+D121+D122</f>
         <v>-8718896</v>
       </c>
-      <c r="H121" s="180"/>
+      <c r="H121" s="181"/>
     </row>
     <row r="122" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="110"/>
@@ -6375,8 +6380,8 @@
         <v>-1241668.1599999999</v>
       </c>
       <c r="E122" s="100"/>
-      <c r="G122" s="181"/>
-      <c r="H122" s="182"/>
+      <c r="G122" s="182"/>
+      <c r="H122" s="183"/>
     </row>
     <row r="123" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="111"/>
@@ -6404,7 +6409,7 @@
       </c>
       <c r="D125" s="116">
         <f>D121+D117+D119+D120+D122+D123+D124</f>
-        <v>-201129.01999999979</v>
+        <v>-131129.01999999979</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -6628,23 +6633,23 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="186" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="188" t="s">
+      <c r="C2" s="189" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="189"/>
+      <c r="D2" s="190"/>
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="186"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="153"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="154"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="187"/>
+      <c r="B4" s="188"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6682,13 +6687,13 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="183"/>
+      <c r="B8" s="184"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="184"/>
+      <c r="B9" s="185"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -6881,7 +6886,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="190" t="s">
+      <c r="B2" s="191" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -6891,13 +6896,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="191"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="153"/>
+      <c r="B3" s="192"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="154"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="191"/>
+      <c r="B4" s="192"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -6905,7 +6910,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="191"/>
+      <c r="B5" s="192"/>
       <c r="C5" s="47">
         <v>44380</v>
       </c>
@@ -6915,7 +6920,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="192"/>
+      <c r="B6" s="193"/>
       <c r="C6" s="36">
         <v>44396</v>
       </c>
@@ -6931,7 +6936,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="183" t="s">
+      <c r="B8" s="184" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="36">
@@ -6943,7 +6948,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="184"/>
+      <c r="B9" s="185"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -7143,7 +7148,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="190" t="s">
+      <c r="B2" s="191" t="s">
         <v>74</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -7153,13 +7158,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="191"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="153"/>
+      <c r="B3" s="192"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="154"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="191"/>
+      <c r="B4" s="192"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -7167,7 +7172,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="191"/>
+      <c r="B5" s="192"/>
       <c r="C5" s="47">
         <v>44621</v>
       </c>
@@ -7177,7 +7182,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="192"/>
+      <c r="B6" s="193"/>
       <c r="C6" s="36">
         <v>44656</v>
       </c>
@@ -7193,7 +7198,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="183"/>
+      <c r="B8" s="184"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37">
         <v>0</v>
@@ -7201,7 +7206,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="184"/>
+      <c r="B9" s="185"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -7418,12 +7423,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="176" t="s">
+      <c r="B3" s="177" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="179"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
     </row>
@@ -8542,11 +8547,11 @@
       <c r="E117" s="100">
         <v>44264</v>
       </c>
-      <c r="G117" s="179">
+      <c r="G117" s="180">
         <f>D115+D116+D117+D118</f>
         <v>-7492427.9600000009</v>
       </c>
-      <c r="H117" s="180"/>
+      <c r="H117" s="181"/>
     </row>
     <row r="118" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="110"/>
@@ -8560,8 +8565,8 @@
       <c r="E118" s="100">
         <v>44264</v>
       </c>
-      <c r="G118" s="181"/>
-      <c r="H118" s="182"/>
+      <c r="G118" s="182"/>
+      <c r="H118" s="183"/>
     </row>
     <row r="119" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="111"/>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1189,6 +1189,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1196,36 +1226,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3337,18 +3337,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="155" t="s">
+      <c r="C3" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="155"/>
+      <c r="D3" s="165"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="161" t="s">
+      <c r="C4" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="161"/>
+      <c r="D4" s="156"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3358,10 +3358,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="156" t="s">
+      <c r="B6" s="166" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="157"/>
+      <c r="C6" s="167"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3378,10 +3378,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="158" t="s">
+      <c r="B8" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="159"/>
+      <c r="C8" s="164"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3398,10 +3398,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="158" t="s">
+      <c r="B10" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="159"/>
+      <c r="C10" s="164"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3418,10 +3418,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="158" t="s">
+      <c r="B12" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="159"/>
+      <c r="C12" s="164"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3438,10 +3438,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="158" t="s">
+      <c r="B14" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="159"/>
+      <c r="C14" s="164"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3458,10 +3458,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="162" t="s">
+      <c r="B16" s="157" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="163"/>
+      <c r="C16" s="158"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3478,14 +3478,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="162" t="s">
+      <c r="B18" s="157" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="163"/>
+      <c r="C18" s="158"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="164" t="s">
+      <c r="E18" s="159" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3495,7 +3495,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="165"/>
+      <c r="E19" s="160"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3506,10 +3506,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="162" t="s">
+      <c r="B21" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="163"/>
+      <c r="C21" s="158"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3526,10 +3526,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="166" t="s">
+      <c r="B23" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="167"/>
+      <c r="C23" s="162"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3546,10 +3546,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="160" t="s">
+      <c r="B25" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="160"/>
+      <c r="C25" s="155"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3600,6 +3600,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3608,11 +3613,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5142,8 +5142,8 @@
   </sheetPr>
   <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6310,9 +6310,11 @@
     </row>
     <row r="116" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="146"/>
-      <c r="C116" s="38"/>
+      <c r="C116" s="38">
+        <v>44925</v>
+      </c>
       <c r="D116" s="39">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="E116" s="95"/>
     </row>
@@ -6325,7 +6327,7 @@
       </c>
       <c r="D117" s="25">
         <f>SUM(D5:D116)</f>
-        <v>10710428.73</v>
+        <v>10740428.73</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6409,7 +6411,7 @@
       </c>
       <c r="D125" s="116">
         <f>D121+D117+D119+D120+D122+D123+D124</f>
-        <v>-131129.01999999979</v>
+        <v>-101129.01999999979</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1189,6 +1189,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1211,21 +1226,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1774,13 +1774,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>380999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3337,18 +3337,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="165" t="s">
+      <c r="C3" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="165"/>
+      <c r="D3" s="155"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="156" t="s">
+      <c r="C4" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="156"/>
+      <c r="D4" s="161"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3358,10 +3358,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="166" t="s">
+      <c r="B6" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="167"/>
+      <c r="C6" s="157"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3378,10 +3378,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="163" t="s">
+      <c r="B8" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="164"/>
+      <c r="C8" s="159"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3398,10 +3398,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="163" t="s">
+      <c r="B10" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="164"/>
+      <c r="C10" s="159"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3418,10 +3418,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="163" t="s">
+      <c r="B12" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="164"/>
+      <c r="C12" s="159"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3438,10 +3438,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="163" t="s">
+      <c r="B14" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="164"/>
+      <c r="C14" s="159"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3458,10 +3458,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="157" t="s">
+      <c r="B16" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="158"/>
+      <c r="C16" s="163"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3478,14 +3478,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="157" t="s">
+      <c r="B18" s="162" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="158"/>
+      <c r="C18" s="163"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="159" t="s">
+      <c r="E18" s="164" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3495,7 +3495,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="160"/>
+      <c r="E19" s="165"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3506,10 +3506,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="157" t="s">
+      <c r="B21" s="162" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="158"/>
+      <c r="C21" s="163"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3526,10 +3526,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="161" t="s">
+      <c r="B23" s="166" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="162"/>
+      <c r="C23" s="167"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3546,10 +3546,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="155" t="s">
+      <c r="B25" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="155"/>
+      <c r="C25" s="160"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3600,11 +3600,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3613,6 +3608,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5140,10 +5140,10 @@
   <sheetPr>
     <tabColor rgb="FF00FF99"/>
   </sheetPr>
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6318,116 +6318,126 @@
       </c>
       <c r="E116" s="95"/>
     </row>
-    <row r="117" spans="1:8" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B117" s="147" t="s">
+    <row r="117" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="122"/>
+      <c r="C117" s="123">
+        <v>44933</v>
+      </c>
+      <c r="D117" s="13">
+        <v>40000</v>
+      </c>
+      <c r="E117" s="122"/>
+    </row>
+    <row r="118" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B118" s="147" t="s">
         <v>89</v>
       </c>
-      <c r="C117" s="148" t="s">
+      <c r="C118" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="D117" s="25">
-        <f>SUM(D5:D116)</f>
-        <v>10740428.73</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C118" s="48"/>
-      <c r="D118" s="136"/>
-    </row>
-    <row r="119" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="106"/>
-      <c r="B119" s="107"/>
-      <c r="C119" s="108" t="s">
+      <c r="D118" s="25">
+        <f>SUM(D5:D117)</f>
+        <v>10780428.73</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C119" s="48"/>
+      <c r="D119" s="136"/>
+    </row>
+    <row r="120" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="106"/>
+      <c r="B120" s="107"/>
+      <c r="C120" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="D119" s="109">
+      <c r="D120" s="109">
         <v>-3711953</v>
       </c>
-      <c r="E119" s="102"/>
-    </row>
-    <row r="120" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="110"/>
-      <c r="B120" s="103"/>
-      <c r="C120" s="104" t="s">
+      <c r="E120" s="102"/>
+    </row>
+    <row r="121" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="110"/>
+      <c r="B121" s="103"/>
+      <c r="C121" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="D120" s="105">
+      <c r="D121" s="105">
         <v>-3105583.44</v>
       </c>
-      <c r="E120" s="100"/>
-    </row>
-    <row r="121" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="110"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="104" t="s">
-        <v>87</v>
-      </c>
-      <c r="D121" s="105">
-        <v>-659691.4</v>
-      </c>
       <c r="E121" s="100"/>
-      <c r="G121" s="180">
-        <f>D119+D120+D121+D122</f>
-        <v>-8718896</v>
-      </c>
-      <c r="H121" s="181"/>
-    </row>
-    <row r="122" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="110"/>
       <c r="B122" s="3"/>
       <c r="C122" s="104" t="s">
+        <v>87</v>
+      </c>
+      <c r="D122" s="105">
+        <v>-659691.4</v>
+      </c>
+      <c r="E122" s="100"/>
+      <c r="G122" s="180">
+        <f>D120+D121+D122+D123</f>
+        <v>-8718896</v>
+      </c>
+      <c r="H122" s="181"/>
+    </row>
+    <row r="123" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="110"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="D122" s="105">
+      <c r="D123" s="105">
         <v>-1241668.1599999999</v>
       </c>
-      <c r="E122" s="100"/>
-      <c r="G122" s="182"/>
-      <c r="H122" s="183"/>
-    </row>
-    <row r="123" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="111"/>
-      <c r="B123" s="112"/>
-      <c r="C123" s="113" t="s">
+      <c r="E123" s="100"/>
+      <c r="G123" s="182"/>
+      <c r="H123" s="183"/>
+    </row>
+    <row r="124" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="111"/>
+      <c r="B124" s="112"/>
+      <c r="C124" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="D123" s="141">
+      <c r="D124" s="141">
         <v>-2122661.75</v>
       </c>
-      <c r="E123" s="101"/>
-    </row>
-    <row r="124" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="122"/>
-      <c r="B124" s="145"/>
-      <c r="C124" s="142"/>
-      <c r="D124" s="143">
-        <v>0</v>
-      </c>
-      <c r="E124" s="144"/>
-    </row>
-    <row r="125" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C125" s="115" t="s">
+      <c r="E124" s="101"/>
+    </row>
+    <row r="125" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="122"/>
+      <c r="B125" s="145"/>
+      <c r="C125" s="142"/>
+      <c r="D125" s="143">
+        <v>0</v>
+      </c>
+      <c r="E125" s="144"/>
+    </row>
+    <row r="126" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C126" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="D125" s="116">
-        <f>D121+D117+D119+D120+D122+D123+D124</f>
-        <v>-101129.01999999979</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C126" s="1"/>
-      <c r="D126" s="2" t="s">
-        <v>7</v>
+      <c r="D126" s="116">
+        <f>D122+D118+D120+D121+D123+D124+D125</f>
+        <v>-61129.019999999786</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C127" s="1"/>
+      <c r="D127" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C128" s="1"/>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C129" s="1"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="1"/>
     </row>
   </sheetData>
   <sortState ref="C94:D95">
@@ -6435,7 +6445,7 @@
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G121:H122"/>
+    <mergeCell ref="G122:H123"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.38" bottom="0.32" header="0.3" footer="0.3"/>
   <pageSetup scale="80" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1189,6 +1189,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1196,36 +1226,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1774,13 +1774,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>380999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3337,18 +3337,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="155" t="s">
+      <c r="C3" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="155"/>
+      <c r="D3" s="165"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="161" t="s">
+      <c r="C4" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="161"/>
+      <c r="D4" s="156"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3358,10 +3358,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="156" t="s">
+      <c r="B6" s="166" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="157"/>
+      <c r="C6" s="167"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3378,10 +3378,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="158" t="s">
+      <c r="B8" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="159"/>
+      <c r="C8" s="164"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3398,10 +3398,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="158" t="s">
+      <c r="B10" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="159"/>
+      <c r="C10" s="164"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3418,10 +3418,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="158" t="s">
+      <c r="B12" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="159"/>
+      <c r="C12" s="164"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3438,10 +3438,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="158" t="s">
+      <c r="B14" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="159"/>
+      <c r="C14" s="164"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3458,10 +3458,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="162" t="s">
+      <c r="B16" s="157" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="163"/>
+      <c r="C16" s="158"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3478,14 +3478,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="162" t="s">
+      <c r="B18" s="157" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="163"/>
+      <c r="C18" s="158"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="164" t="s">
+      <c r="E18" s="159" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3495,7 +3495,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="165"/>
+      <c r="E19" s="160"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3506,10 +3506,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="162" t="s">
+      <c r="B21" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="163"/>
+      <c r="C21" s="158"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3526,10 +3526,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="166" t="s">
+      <c r="B23" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="167"/>
+      <c r="C23" s="162"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3546,10 +3546,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="160" t="s">
+      <c r="B25" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="160"/>
+      <c r="C25" s="155"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3600,6 +3600,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3608,11 +3613,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5140,10 +5140,10 @@
   <sheetPr>
     <tabColor rgb="FF00FF99"/>
   </sheetPr>
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:XFD131"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6244,8 +6244,12 @@
     </row>
     <row r="109" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B109" s="126"/>
-      <c r="C109" s="76"/>
-      <c r="D109" s="77"/>
+      <c r="C109" s="76">
+        <v>44940</v>
+      </c>
+      <c r="D109" s="77">
+        <v>40000</v>
+      </c>
       <c r="E109" s="139"/>
       <c r="F109" s="85"/>
     </row>
@@ -6276,7 +6280,7 @@
       <c r="E112" s="139"/>
       <c r="F112" s="85"/>
     </row>
-    <row r="113" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8 16384:16384" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B113" s="149"/>
       <c r="C113" s="76">
         <v>44891</v>
@@ -6287,7 +6291,7 @@
       <c r="E113" s="139"/>
       <c r="F113" s="85"/>
     </row>
-    <row r="114" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8 16384:16384" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B114" s="126"/>
       <c r="C114" s="76">
         <v>44898</v>
@@ -6298,7 +6302,7 @@
       <c r="E114" s="139"/>
       <c r="F114" s="85"/>
     </row>
-    <row r="115" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8 16384:16384" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B115" s="126"/>
       <c r="C115" s="76">
         <v>44919</v>
@@ -6308,7 +6312,7 @@
       </c>
       <c r="E115" s="127"/>
     </row>
-    <row r="116" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8 16384:16384" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="146"/>
       <c r="C116" s="38">
         <v>44925</v>
@@ -6318,7 +6322,7 @@
       </c>
       <c r="E116" s="95"/>
     </row>
-    <row r="117" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8 16384:16384" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B117" s="122"/>
       <c r="C117" s="123">
         <v>44933</v>
@@ -6328,116 +6332,128 @@
       </c>
       <c r="E117" s="122"/>
     </row>
-    <row r="118" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B118" s="147" t="s">
+    <row r="118" spans="1:8 16384:16384" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="122"/>
+      <c r="C118" s="123"/>
+      <c r="D118" s="13">
+        <v>0</v>
+      </c>
+      <c r="E118" s="122"/>
+    </row>
+    <row r="119" spans="1:8 16384:16384" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B119" s="147" t="s">
         <v>89</v>
       </c>
-      <c r="C118" s="148" t="s">
+      <c r="C119" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="D118" s="25">
-        <f>SUM(D5:D117)</f>
-        <v>10780428.73</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C119" s="48"/>
-      <c r="D119" s="136"/>
-    </row>
-    <row r="120" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="106"/>
-      <c r="B120" s="107"/>
-      <c r="C120" s="108" t="s">
+      <c r="D119" s="25">
+        <f>SUM(D5:D118)</f>
+        <v>10820428.73</v>
+      </c>
+      <c r="XFD119">
+        <f>SUM(A119:XFC119)</f>
+        <v>10820428.73</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8 16384:16384" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C120" s="48"/>
+      <c r="D120" s="136"/>
+    </row>
+    <row r="121" spans="1:8 16384:16384" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="106"/>
+      <c r="B121" s="107"/>
+      <c r="C121" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="D120" s="109">
+      <c r="D121" s="109">
         <v>-3711953</v>
       </c>
-      <c r="E120" s="102"/>
-    </row>
-    <row r="121" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="110"/>
-      <c r="B121" s="103"/>
-      <c r="C121" s="104" t="s">
+      <c r="E121" s="102"/>
+    </row>
+    <row r="122" spans="1:8 16384:16384" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="110"/>
+      <c r="B122" s="103"/>
+      <c r="C122" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="D121" s="105">
+      <c r="D122" s="105">
         <v>-3105583.44</v>
       </c>
-      <c r="E121" s="100"/>
-    </row>
-    <row r="122" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="110"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="104" t="s">
-        <v>87</v>
-      </c>
-      <c r="D122" s="105">
-        <v>-659691.4</v>
-      </c>
       <c r="E122" s="100"/>
-      <c r="G122" s="180">
-        <f>D120+D121+D122+D123</f>
-        <v>-8718896</v>
-      </c>
-      <c r="H122" s="181"/>
-    </row>
-    <row r="123" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="123" spans="1:8 16384:16384" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="110"/>
       <c r="B123" s="3"/>
       <c r="C123" s="104" t="s">
+        <v>87</v>
+      </c>
+      <c r="D123" s="105">
+        <v>-659691.4</v>
+      </c>
+      <c r="E123" s="100"/>
+      <c r="G123" s="180">
+        <f>D121+D122+D123+D124</f>
+        <v>-8718896</v>
+      </c>
+      <c r="H123" s="181"/>
+    </row>
+    <row r="124" spans="1:8 16384:16384" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="110"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="D123" s="105">
+      <c r="D124" s="105">
         <v>-1241668.1599999999</v>
       </c>
-      <c r="E123" s="100"/>
-      <c r="G123" s="182"/>
-      <c r="H123" s="183"/>
-    </row>
-    <row r="124" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="111"/>
-      <c r="B124" s="112"/>
-      <c r="C124" s="113" t="s">
+      <c r="E124" s="100"/>
+      <c r="G124" s="182"/>
+      <c r="H124" s="183"/>
+    </row>
+    <row r="125" spans="1:8 16384:16384" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="111"/>
+      <c r="B125" s="112"/>
+      <c r="C125" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="D124" s="141">
+      <c r="D125" s="141">
         <v>-2122661.75</v>
       </c>
-      <c r="E124" s="101"/>
-    </row>
-    <row r="125" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="122"/>
-      <c r="B125" s="145"/>
-      <c r="C125" s="142"/>
-      <c r="D125" s="143">
-        <v>0</v>
-      </c>
-      <c r="E125" s="144"/>
-    </row>
-    <row r="126" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C126" s="115" t="s">
+      <c r="E125" s="101"/>
+    </row>
+    <row r="126" spans="1:8 16384:16384" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="122"/>
+      <c r="B126" s="145"/>
+      <c r="C126" s="142"/>
+      <c r="D126" s="143">
+        <v>0</v>
+      </c>
+      <c r="E126" s="144"/>
+    </row>
+    <row r="127" spans="1:8 16384:16384" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C127" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="D126" s="116">
-        <f>D122+D118+D120+D121+D123+D124+D125</f>
-        <v>-61129.019999999786</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C127" s="1"/>
-      <c r="D127" s="2" t="s">
+      <c r="D127" s="116">
+        <f>D123+D119+D121+D122+D124+D125+D126</f>
+        <v>-21129.019999999553</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
+      <c r="C128" s="1"/>
+      <c r="D128" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C128" s="1"/>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C129" s="1"/>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C130" s="1"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="1"/>
     </row>
   </sheetData>
   <sortState ref="C94:D95">
@@ -6445,7 +6461,7 @@
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G122:H123"/>
+    <mergeCell ref="G123:H124"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.38" bottom="0.32" header="0.3" footer="0.3"/>
   <pageSetup scale="80" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="18375" windowHeight="13620" firstSheet="15" activeTab="18"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="18375" windowHeight="13620" firstSheet="18" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="JARCERIAS REMODELACION " sheetId="1" r:id="rId1"/>
@@ -30,13 +30,14 @@
     <sheet name="CENTRAL  RAMPA  2020    " sheetId="20" r:id="rId16"/>
     <sheet name="REMODELACION  HERRADURA  2020  " sheetId="17" r:id="rId17"/>
     <sheet name="S E N D E R O S    2  0 2 1    " sheetId="22" r:id="rId18"/>
-    <sheet name="OBRA ESTAC IONAMIENTO" sheetId="18" r:id="rId19"/>
-    <sheet name="DEMOLICION    11    SUR   2022 " sheetId="26" r:id="rId20"/>
-    <sheet name="AMP COMEDOR CENTRAL  " sheetId="21" r:id="rId21"/>
-    <sheet name="MARQUESINA ZAVALETA  2022" sheetId="23" r:id="rId22"/>
-    <sheet name="Hoja1" sheetId="24" r:id="rId23"/>
-    <sheet name="Hoja2" sheetId="25" r:id="rId24"/>
-    <sheet name="Hoja3" sheetId="27" r:id="rId25"/>
+    <sheet name="O B R A DO R  CAMARAS 2023  " sheetId="28" r:id="rId19"/>
+    <sheet name="OBRA ESTAC IONAMIENTO" sheetId="18" r:id="rId20"/>
+    <sheet name="DEMOLICION    11    SUR   2022 " sheetId="26" r:id="rId21"/>
+    <sheet name="AMP COMEDOR CENTRAL  " sheetId="21" r:id="rId22"/>
+    <sheet name="MARQUESINA ZAVALETA  2022" sheetId="23" r:id="rId23"/>
+    <sheet name="Hoja1" sheetId="24" r:id="rId24"/>
+    <sheet name="Hoja2" sheetId="25" r:id="rId25"/>
+    <sheet name="Hoja3" sheetId="27" r:id="rId26"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="96">
   <si>
     <t xml:space="preserve">PAGOS  SOBRE REMODELACION </t>
   </si>
@@ -337,6 +338,18 @@
   </si>
   <si>
     <t>EXTRAS DE ESTACIONAMIENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIRMES. CONCRETO CAMARAS, DRENAJE, TRAMPAS DE GRASA </t>
+  </si>
+  <si>
+    <t>TRABAJOS ZAVALETA  TOLDO, LAMPARA, TECHUMBRE, PROTECCION, CICONICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBRAS ESTACIONAMIENTO                OBRADOR   AMPLIACION EN AREA LAVADO DE TARAS </t>
+  </si>
+  <si>
+    <t>OBRAS   OBRADOR   TRAMPAS DE GRASA</t>
   </si>
 </sst>
 </file>
@@ -891,7 +904,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1189,6 +1202,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1213,21 +1241,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1304,6 +1317,31 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1315,12 +1353,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FFFF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFAC7300"/>
       <color rgb="FF990000"/>
       <color rgb="FFFF9933"/>
       <color rgb="FFFF66FF"/>
-      <color rgb="FF00FFFF"/>
       <color rgb="FF00FF99"/>
       <color rgb="FFFFCCFF"/>
     </mruColors>
@@ -1940,13 +1978,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>847725</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -1990,13 +2028,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -3337,18 +3375,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="165" t="s">
+      <c r="C3" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="165"/>
+      <c r="D3" s="155"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="156" t="s">
+      <c r="C4" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="156"/>
+      <c r="D4" s="161"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3358,10 +3396,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="166" t="s">
+      <c r="B6" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="167"/>
+      <c r="C6" s="157"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3378,10 +3416,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="163" t="s">
+      <c r="B8" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="164"/>
+      <c r="C8" s="159"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3398,10 +3436,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="163" t="s">
+      <c r="B10" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="164"/>
+      <c r="C10" s="159"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3418,10 +3456,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="163" t="s">
+      <c r="B12" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="164"/>
+      <c r="C12" s="159"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3438,10 +3476,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="163" t="s">
+      <c r="B14" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="164"/>
+      <c r="C14" s="159"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3458,10 +3496,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="157" t="s">
+      <c r="B16" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="158"/>
+      <c r="C16" s="163"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3478,14 +3516,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="157" t="s">
+      <c r="B18" s="162" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="158"/>
+      <c r="C18" s="163"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="159" t="s">
+      <c r="E18" s="164" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3495,7 +3533,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="160"/>
+      <c r="E19" s="165"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3506,10 +3544,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="157" t="s">
+      <c r="B21" s="162" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="158"/>
+      <c r="C21" s="163"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3526,10 +3564,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="161" t="s">
+      <c r="B23" s="166" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="162"/>
+      <c r="C23" s="167"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3546,10 +3584,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="155" t="s">
+      <c r="B25" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="155"/>
+      <c r="C25" s="160"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3600,11 +3638,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3613,6 +3646,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5138,1334 +5176,772 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF00FF99"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:XFD131"/>
+  <dimension ref="B1:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="16"/>
+    <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:18" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="191" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="194" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="195"/>
       <c r="E2" s="17"/>
-    </row>
-    <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="177" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="179"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-    </row>
-    <row r="4" spans="2:8" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="20"/>
+      <c r="H2" s="199" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="194" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="195"/>
+      <c r="K2" s="17"/>
+      <c r="O2" s="201" t="s">
+        <v>95</v>
+      </c>
+      <c r="P2" s="194" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q2" s="195"/>
+      <c r="R2" s="17"/>
+    </row>
+    <row r="3" spans="2:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="192"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="154"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="154"/>
+      <c r="O3" s="202"/>
+      <c r="P3" s="153"/>
+      <c r="Q3" s="153"/>
+      <c r="R3" s="154"/>
+    </row>
+    <row r="4" spans="2:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="192"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-    </row>
-    <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="32"/>
+      <c r="H4" s="200"/>
+      <c r="I4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="22"/>
+      <c r="K4" s="23"/>
+      <c r="O4" s="202"/>
+      <c r="P4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="23"/>
+    </row>
+    <row r="5" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="192"/>
       <c r="C5" s="47">
-        <v>44268</v>
+        <v>44947</v>
       </c>
       <c r="D5" s="28">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="E5" s="28"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-    </row>
-    <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="31"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="47">
+        <v>44891</v>
+      </c>
+      <c r="J5" s="28">
+        <v>80000</v>
+      </c>
+      <c r="K5" s="28"/>
+      <c r="O5" s="202"/>
+      <c r="P5" s="47">
+        <v>44873</v>
+      </c>
+      <c r="Q5" s="28">
+        <v>30000</v>
+      </c>
+      <c r="R5" s="28"/>
+    </row>
+    <row r="6" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="192"/>
       <c r="C6" s="36">
-        <v>44275</v>
+        <v>44954</v>
       </c>
       <c r="D6" s="37">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="E6" s="27"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-    </row>
-    <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="31"/>
-      <c r="C7" s="36">
-        <v>44282</v>
-      </c>
-      <c r="D7" s="37">
-        <v>100000</v>
-      </c>
+      <c r="H6" s="200"/>
+      <c r="I6" s="36">
+        <v>44898</v>
+      </c>
+      <c r="J6" s="37">
+        <v>50000</v>
+      </c>
+      <c r="K6" s="27"/>
+      <c r="O6" s="202"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="27"/>
+    </row>
+    <row r="7" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="192"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="41"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="31"/>
-      <c r="C8" s="36">
-        <v>44296</v>
-      </c>
-      <c r="D8" s="37">
-        <v>100000</v>
-      </c>
+      <c r="H7" s="200"/>
+      <c r="I7" s="36">
+        <v>44919</v>
+      </c>
+      <c r="J7" s="37">
+        <v>70000</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="O7" s="202"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="41"/>
+    </row>
+    <row r="8" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="192"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="27"/>
-    </row>
-    <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="31"/>
-      <c r="C9" s="36">
-        <v>44303</v>
-      </c>
-      <c r="D9" s="37">
-        <v>100000</v>
-      </c>
+      <c r="H8" s="200"/>
+      <c r="I8" s="36">
+        <v>44925</v>
+      </c>
+      <c r="J8" s="37">
+        <v>30000</v>
+      </c>
+      <c r="K8" s="27"/>
+      <c r="O8" s="202"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="27"/>
+    </row>
+    <row r="9" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="192"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="77"/>
       <c r="E9" s="27"/>
-    </row>
-    <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="31"/>
-      <c r="C10" s="36">
-        <v>44310</v>
-      </c>
-      <c r="D10" s="37">
-        <v>100000</v>
-      </c>
+      <c r="H9" s="200"/>
+      <c r="I9" s="93">
+        <v>44933</v>
+      </c>
+      <c r="J9" s="77">
+        <v>40000</v>
+      </c>
+      <c r="K9" s="27"/>
+      <c r="O9" s="202"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="27"/>
+    </row>
+    <row r="10" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="192"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="77"/>
       <c r="E10" s="27"/>
-    </row>
-    <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="31"/>
-      <c r="C11" s="36">
-        <v>44317</v>
-      </c>
-      <c r="D11" s="37">
-        <v>100000</v>
-      </c>
+      <c r="H10" s="200"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="27"/>
+      <c r="O10" s="202"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="27"/>
+    </row>
+    <row r="11" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="192"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="77"/>
       <c r="E11" s="27"/>
-    </row>
-    <row r="12" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="31"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="27"/>
-    </row>
-    <row r="13" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="31"/>
+      <c r="H11" s="200"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="27"/>
+      <c r="O11" s="202"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="27"/>
+    </row>
+    <row r="12" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="192"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39">
+        <v>0</v>
+      </c>
+      <c r="E12" s="146"/>
+      <c r="H12" s="200"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="37">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="O12" s="202"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="37">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="192"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
-      <c r="E13" s="27"/>
-    </row>
-    <row r="14" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="31"/>
+      <c r="E13" s="3"/>
+      <c r="H13" s="200"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="3"/>
+      <c r="O13" s="202"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="192"/>
       <c r="C14" s="36"/>
       <c r="D14" s="37"/>
-      <c r="E14" s="27"/>
-    </row>
-    <row r="15" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="H14" s="200"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="3"/>
+      <c r="O14" s="202"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="192"/>
       <c r="C15" s="36"/>
       <c r="D15" s="37"/>
-      <c r="E15" s="27"/>
-    </row>
-    <row r="16" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="H15" s="200"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="3"/>
+      <c r="O15" s="202"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="192"/>
       <c r="C16" s="36"/>
       <c r="D16" s="37"/>
-      <c r="E16" s="27"/>
-    </row>
-    <row r="17" spans="2:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="27"/>
-    </row>
-    <row r="18" spans="2:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="27"/>
-    </row>
-    <row r="19" spans="2:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="78"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="79"/>
-    </row>
-    <row r="20" spans="2:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="27"/>
-    </row>
-    <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="38">
-        <v>44324</v>
-      </c>
-      <c r="D21" s="39">
-        <v>100000</v>
-      </c>
-      <c r="E21" s="27"/>
-    </row>
-    <row r="22" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="38">
-        <v>44331</v>
-      </c>
-      <c r="D22" s="39">
-        <v>100000</v>
-      </c>
-      <c r="E22" s="27"/>
-    </row>
-    <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="38">
-        <v>44338</v>
-      </c>
-      <c r="D23" s="39">
-        <v>100000</v>
-      </c>
-      <c r="E23" s="27"/>
-    </row>
-    <row r="24" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="38">
-        <v>44345</v>
-      </c>
-      <c r="D24" s="39">
-        <v>100000</v>
-      </c>
-      <c r="E24" s="27"/>
-    </row>
-    <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="38">
-        <v>44352</v>
-      </c>
-      <c r="D25" s="39">
-        <v>100000</v>
-      </c>
-      <c r="E25" s="27"/>
-    </row>
-    <row r="26" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="38">
-        <v>44359</v>
-      </c>
-      <c r="D26" s="39">
-        <v>350000</v>
-      </c>
-      <c r="E26" s="27"/>
-    </row>
-    <row r="27" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="75"/>
-      <c r="C27" s="76">
-        <v>44366</v>
-      </c>
-      <c r="D27" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E27" s="27"/>
-    </row>
-    <row r="28" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="75"/>
-      <c r="C28" s="76">
-        <v>44373</v>
-      </c>
-      <c r="D28" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E28" s="27"/>
-    </row>
-    <row r="29" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="75"/>
-      <c r="C29" s="76">
-        <v>44380</v>
-      </c>
-      <c r="D29" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E29" s="27"/>
-    </row>
-    <row r="30" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="75"/>
-      <c r="C30" s="76">
-        <v>44387</v>
-      </c>
-      <c r="D30" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E30" s="27"/>
-    </row>
-    <row r="31" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="75"/>
-      <c r="C31" s="76">
-        <v>44394</v>
-      </c>
-      <c r="D31" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E31" s="27"/>
-    </row>
-    <row r="32" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="75"/>
-      <c r="C32" s="76">
-        <v>44401</v>
-      </c>
-      <c r="D32" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E32" s="27"/>
-    </row>
-    <row r="33" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="75"/>
-      <c r="C33" s="76">
-        <v>44408</v>
-      </c>
-      <c r="D33" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E33" s="27"/>
-    </row>
-    <row r="34" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="75"/>
-      <c r="C34" s="76">
-        <v>44415</v>
-      </c>
-      <c r="D34" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E34" s="27"/>
-    </row>
-    <row r="35" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="75"/>
-      <c r="C35" s="76">
-        <v>44422</v>
-      </c>
-      <c r="D35" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E35" s="27"/>
-    </row>
-    <row r="36" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="75"/>
-      <c r="C36" s="76">
-        <v>44428</v>
-      </c>
-      <c r="D36" s="77">
-        <v>300000</v>
-      </c>
-      <c r="E36" s="125" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="75"/>
-      <c r="C37" s="76">
-        <v>44436</v>
-      </c>
-      <c r="D37" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E37" s="27"/>
-    </row>
-    <row r="38" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="75"/>
-      <c r="C38" s="76">
-        <v>44443</v>
-      </c>
-      <c r="D38" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E38" s="27"/>
-    </row>
-    <row r="39" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="75"/>
-      <c r="C39" s="76">
-        <v>44449</v>
-      </c>
-      <c r="D39" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E39" s="125" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="75"/>
-      <c r="C40" s="76">
-        <v>44450</v>
-      </c>
-      <c r="D40" s="77">
-        <v>150000</v>
-      </c>
-      <c r="E40" s="27"/>
-    </row>
-    <row r="41" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="75"/>
-      <c r="C41" s="76">
-        <v>44457</v>
-      </c>
-      <c r="D41" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E41" s="27"/>
-    </row>
-    <row r="42" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="75"/>
-      <c r="C42" s="76">
-        <v>44464</v>
-      </c>
-      <c r="D42" s="77">
-        <v>150000</v>
-      </c>
-      <c r="E42" s="27"/>
-    </row>
-    <row r="43" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="126"/>
-      <c r="C43" s="76">
-        <v>44471</v>
-      </c>
-      <c r="D43" s="77">
-        <v>50000</v>
-      </c>
-      <c r="E43" s="127"/>
-    </row>
-    <row r="44" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="126"/>
-      <c r="C44" s="76">
-        <v>44478</v>
-      </c>
-      <c r="D44" s="77">
-        <v>50000</v>
-      </c>
-      <c r="E44" s="127"/>
-    </row>
-    <row r="45" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="126"/>
-      <c r="C45" s="76">
-        <v>44485</v>
-      </c>
-      <c r="D45" s="77">
-        <v>50000</v>
-      </c>
-      <c r="E45" s="127"/>
-    </row>
-    <row r="46" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="126"/>
-      <c r="C46" s="76">
-        <v>44492</v>
-      </c>
-      <c r="D46" s="77">
-        <v>50000</v>
-      </c>
-      <c r="E46" s="127"/>
-    </row>
-    <row r="47" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="126"/>
-      <c r="C47" s="76">
-        <v>44499</v>
-      </c>
-      <c r="D47" s="77">
-        <v>50000</v>
-      </c>
-      <c r="E47" s="127"/>
-    </row>
-    <row r="48" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="126"/>
-      <c r="C48" s="76">
-        <v>44506</v>
-      </c>
-      <c r="D48" s="77">
-        <v>50000</v>
-      </c>
-      <c r="E48" s="127"/>
-    </row>
-    <row r="49" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B49" s="126"/>
-      <c r="C49" s="76">
-        <v>44513</v>
-      </c>
-      <c r="D49" s="77">
-        <v>50000</v>
-      </c>
-      <c r="E49" s="127"/>
-    </row>
-    <row r="50" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="126"/>
-      <c r="C50" s="76">
-        <v>44520</v>
-      </c>
-      <c r="D50" s="77">
-        <v>50000</v>
-      </c>
-      <c r="E50" s="127"/>
-    </row>
-    <row r="51" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="126"/>
-      <c r="C51" s="76">
-        <v>44527</v>
-      </c>
-      <c r="D51" s="77">
-        <v>50000</v>
-      </c>
-      <c r="E51" s="127"/>
-    </row>
-    <row r="52" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="126"/>
-      <c r="C52" s="76">
-        <v>44534</v>
-      </c>
-      <c r="D52" s="77">
-        <v>50000</v>
-      </c>
-      <c r="E52" s="127"/>
-    </row>
-    <row r="53" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="126"/>
-      <c r="C53" s="76">
-        <v>44541</v>
-      </c>
-      <c r="D53" s="77">
-        <v>50000</v>
-      </c>
-      <c r="E53" s="127"/>
-    </row>
-    <row r="54" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="126"/>
-      <c r="C54" s="76">
-        <v>44548</v>
-      </c>
-      <c r="D54" s="77">
-        <v>50000</v>
-      </c>
-      <c r="E54" s="127"/>
-    </row>
-    <row r="55" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="126"/>
-      <c r="C55" s="76">
-        <v>44554</v>
-      </c>
-      <c r="D55" s="77">
-        <v>70000</v>
-      </c>
-      <c r="E55" s="127"/>
-    </row>
-    <row r="56" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="126"/>
-      <c r="C56" s="76">
-        <v>44561</v>
-      </c>
-      <c r="D56" s="77">
-        <v>50000</v>
-      </c>
-      <c r="E56" s="127"/>
-    </row>
-    <row r="57" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="126"/>
-      <c r="C57" s="76">
-        <v>44569</v>
-      </c>
-      <c r="D57" s="77">
-        <v>50000</v>
-      </c>
-      <c r="E57" s="127"/>
-    </row>
-    <row r="58" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="126"/>
-      <c r="C58" s="76">
-        <v>44576</v>
-      </c>
-      <c r="D58" s="77">
-        <v>50000</v>
-      </c>
-      <c r="E58" s="127"/>
-    </row>
-    <row r="59" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="126"/>
-      <c r="C59" s="76">
-        <v>44583</v>
-      </c>
-      <c r="D59" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E59" s="127"/>
-    </row>
-    <row r="60" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="126"/>
-      <c r="C60" s="76">
-        <v>44590</v>
-      </c>
-      <c r="D60" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E60" s="127"/>
-    </row>
-    <row r="61" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B61" s="126"/>
-      <c r="C61" s="128">
-        <v>44594</v>
-      </c>
-      <c r="D61" s="129">
-        <v>500000</v>
-      </c>
-      <c r="E61" s="130" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="126"/>
-      <c r="C62" s="76">
-        <v>44597</v>
-      </c>
-      <c r="D62" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E62" s="127"/>
-    </row>
-    <row r="63" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="126"/>
-      <c r="C63" s="76">
-        <v>44604</v>
-      </c>
-      <c r="D63" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E63" s="127"/>
-    </row>
-    <row r="64" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="126"/>
-      <c r="C64" s="76">
-        <v>44611</v>
-      </c>
-      <c r="D64" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E64" s="127"/>
-    </row>
-    <row r="65" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="126"/>
-      <c r="C65" s="76">
-        <v>44618</v>
-      </c>
-      <c r="D65" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E65" s="127"/>
-    </row>
-    <row r="66" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="126"/>
-      <c r="C66" s="76">
-        <v>44625</v>
-      </c>
-      <c r="D66" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E66" s="127"/>
-    </row>
-    <row r="67" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="126"/>
-      <c r="C67" s="76">
-        <v>44632</v>
-      </c>
-      <c r="D67" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E67" s="127"/>
-    </row>
-    <row r="68" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="126"/>
-      <c r="C68" s="76">
-        <v>44639</v>
-      </c>
-      <c r="D68" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E68" s="127"/>
-    </row>
-    <row r="69" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B69" s="126"/>
-      <c r="C69" s="76">
-        <v>44646</v>
-      </c>
-      <c r="D69" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E69" s="127"/>
-    </row>
-    <row r="70" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B70" s="126"/>
-      <c r="C70" s="76">
-        <v>44653</v>
-      </c>
-      <c r="D70" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E70" s="127"/>
-    </row>
-    <row r="71" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B71" s="126"/>
-      <c r="C71" s="76">
-        <v>44659</v>
-      </c>
-      <c r="D71" s="77">
-        <v>350000</v>
-      </c>
-      <c r="E71" s="130" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B72" s="126"/>
-      <c r="C72" s="76">
-        <v>44660</v>
-      </c>
-      <c r="D72" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E72" s="127"/>
-    </row>
-    <row r="73" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B73" s="126"/>
-      <c r="C73" s="76">
-        <v>44663</v>
-      </c>
-      <c r="D73" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E73" s="131" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B74" s="126"/>
-      <c r="C74" s="76">
-        <v>44667</v>
-      </c>
-      <c r="D74" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E74" s="127"/>
-    </row>
-    <row r="75" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B75" s="126"/>
-      <c r="C75" s="76">
-        <v>44674</v>
-      </c>
-      <c r="D75" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E75" s="127"/>
-    </row>
-    <row r="76" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B76" s="126"/>
-      <c r="C76" s="76">
-        <v>44681</v>
-      </c>
-      <c r="D76" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E76" s="127"/>
-    </row>
-    <row r="77" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B77" s="126"/>
-      <c r="C77" s="76">
-        <v>44688</v>
-      </c>
-      <c r="D77" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E77" s="127"/>
-    </row>
-    <row r="78" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B78" s="126"/>
-      <c r="C78" s="76">
-        <v>44690</v>
-      </c>
-      <c r="D78" s="77">
-        <v>400000</v>
-      </c>
-      <c r="E78" s="132" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B79" s="126"/>
-      <c r="C79" s="76">
-        <v>44695</v>
-      </c>
-      <c r="D79" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E79" s="127"/>
-    </row>
-    <row r="80" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B80" s="126"/>
-      <c r="C80" s="76">
-        <v>44702</v>
-      </c>
-      <c r="D80" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E80" s="127"/>
-    </row>
-    <row r="81" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B81" s="126"/>
-      <c r="C81" s="76">
-        <v>44709</v>
-      </c>
-      <c r="D81" s="135">
-        <v>200000</v>
-      </c>
-      <c r="E81" s="127"/>
-    </row>
-    <row r="82" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B82" s="126"/>
-      <c r="C82" s="76">
-        <v>44713</v>
-      </c>
-      <c r="D82" s="77">
-        <v>300000</v>
-      </c>
-      <c r="E82" s="137" t="s">
-        <v>81</v>
-      </c>
-      <c r="F82" s="85" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B83" s="126"/>
-      <c r="C83" s="76">
-        <v>44716</v>
-      </c>
-      <c r="D83" s="135">
-        <v>150000</v>
-      </c>
-      <c r="E83" s="127"/>
-    </row>
-    <row r="84" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B84" s="126"/>
-      <c r="C84" s="76">
-        <v>44716</v>
-      </c>
-      <c r="D84" s="135">
-        <v>50000</v>
-      </c>
-      <c r="E84" s="127"/>
-    </row>
-    <row r="85" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B85" s="126"/>
-      <c r="C85" s="76">
-        <v>44723</v>
-      </c>
-      <c r="D85" s="135">
-        <v>150000</v>
-      </c>
-      <c r="E85" s="127"/>
-    </row>
-    <row r="86" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B86" s="126"/>
-      <c r="C86" s="76">
-        <v>44723</v>
-      </c>
-      <c r="D86" s="135">
-        <v>50000</v>
-      </c>
-      <c r="E86" s="127"/>
-    </row>
-    <row r="87" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B87" s="126"/>
-      <c r="C87" s="76">
-        <v>44730</v>
-      </c>
-      <c r="D87" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E87" s="127"/>
-    </row>
-    <row r="88" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B88" s="126"/>
-      <c r="C88" s="76">
-        <v>44736</v>
-      </c>
-      <c r="D88" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E88" s="127"/>
-    </row>
-    <row r="89" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B89" s="126"/>
-      <c r="C89" s="76">
-        <v>44744</v>
-      </c>
-      <c r="D89" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E89" s="127"/>
-    </row>
-    <row r="90" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B90" s="126"/>
-      <c r="C90" s="76">
-        <v>44746</v>
-      </c>
-      <c r="D90" s="77">
-        <v>500000</v>
-      </c>
-      <c r="E90" s="130" t="s">
-        <v>82</v>
-      </c>
-      <c r="F90" s="85" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B91" s="126"/>
-      <c r="C91" s="76">
-        <v>44751</v>
-      </c>
-      <c r="D91" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E91" s="127"/>
-      <c r="F91" s="85"/>
-    </row>
-    <row r="92" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B92" s="126"/>
-      <c r="C92" s="76">
-        <v>44758</v>
-      </c>
-      <c r="D92" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E92" s="127"/>
-    </row>
-    <row r="93" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B93" s="126"/>
-      <c r="C93" s="76">
-        <v>44765</v>
-      </c>
-      <c r="D93" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E93" s="127"/>
-    </row>
-    <row r="94" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B94" s="140" t="s">
-        <v>84</v>
-      </c>
-      <c r="C94" s="76">
-        <v>44771</v>
-      </c>
-      <c r="D94" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E94" s="127"/>
-    </row>
-    <row r="95" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B95" s="126"/>
-      <c r="C95" s="76">
-        <v>44772</v>
-      </c>
-      <c r="D95" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E95" s="127"/>
-    </row>
-    <row r="96" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B96" s="126"/>
-      <c r="C96" s="76">
-        <v>44774</v>
-      </c>
-      <c r="D96" s="77">
-        <v>177786.73</v>
-      </c>
-      <c r="E96" s="138" t="s">
-        <v>47</v>
-      </c>
-      <c r="F96" s="85" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B97" s="126"/>
-      <c r="C97" s="76">
-        <v>44774</v>
-      </c>
-      <c r="D97" s="77">
-        <v>72000</v>
-      </c>
-      <c r="E97" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="F97" s="85" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="126"/>
-      <c r="C98" s="76">
-        <v>44779</v>
-      </c>
-      <c r="D98" s="77">
-        <v>20000</v>
-      </c>
-      <c r="E98" s="139"/>
-      <c r="F98" s="85"/>
-    </row>
-    <row r="99" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B99" s="126"/>
-      <c r="C99" s="76">
-        <v>44779</v>
-      </c>
-      <c r="D99" s="77">
-        <v>80000</v>
-      </c>
-      <c r="E99" s="139"/>
-      <c r="F99" s="85"/>
-    </row>
-    <row r="100" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B100" s="126"/>
-      <c r="C100" s="76">
-        <v>44786</v>
-      </c>
-      <c r="D100" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E100" s="139"/>
-      <c r="F100" s="85"/>
-    </row>
-    <row r="101" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B101" s="126"/>
-      <c r="C101" s="76">
-        <v>44793</v>
-      </c>
-      <c r="D101" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E101" s="139"/>
-      <c r="F101" s="85"/>
-    </row>
-    <row r="102" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B102" s="126"/>
-      <c r="C102" s="76">
-        <v>44800</v>
-      </c>
-      <c r="D102" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E102" s="139"/>
-      <c r="F102" s="85"/>
-    </row>
-    <row r="103" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B103" s="126"/>
-      <c r="C103" s="76">
-        <v>44807</v>
-      </c>
-      <c r="D103" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E103" s="139"/>
-      <c r="F103" s="85"/>
-    </row>
-    <row r="104" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B104" s="126"/>
-      <c r="C104" s="76">
-        <v>44814</v>
-      </c>
-      <c r="D104" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E104" s="139"/>
-      <c r="F104" s="85"/>
-    </row>
-    <row r="105" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B105" s="126"/>
-      <c r="C105" s="76">
-        <v>44821</v>
-      </c>
-      <c r="D105" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E105" s="139"/>
-      <c r="F105" s="85"/>
-    </row>
-    <row r="106" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="126"/>
-      <c r="C106" s="76">
-        <v>44766</v>
-      </c>
-      <c r="D106" s="77">
-        <v>71771</v>
-      </c>
-      <c r="E106" s="139"/>
-      <c r="F106" s="85"/>
-    </row>
-    <row r="107" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="126"/>
-      <c r="C107" s="76">
-        <v>44877</v>
-      </c>
-      <c r="D107" s="77">
-        <v>100000</v>
-      </c>
-      <c r="E107" s="139"/>
-      <c r="F107" s="85"/>
-    </row>
-    <row r="108" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="126"/>
-      <c r="C108" s="76">
-        <v>44905</v>
-      </c>
-      <c r="D108" s="77">
-        <v>50000</v>
-      </c>
-      <c r="E108" s="139"/>
-      <c r="F108" s="85"/>
-    </row>
-    <row r="109" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B109" s="126"/>
-      <c r="C109" s="76">
-        <v>44940</v>
-      </c>
-      <c r="D109" s="77">
-        <v>40000</v>
-      </c>
-      <c r="E109" s="139"/>
-      <c r="F109" s="85"/>
-    </row>
-    <row r="110" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B110" s="126"/>
-      <c r="C110" s="76"/>
-      <c r="D110" s="77"/>
-      <c r="E110" s="139"/>
-      <c r="F110" s="85"/>
-    </row>
-    <row r="111" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B111" s="126"/>
-      <c r="C111" s="76"/>
-      <c r="D111" s="77"/>
-      <c r="E111" s="139"/>
-      <c r="F111" s="85"/>
-    </row>
-    <row r="112" spans="2:6" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="B112" s="149">
+      <c r="E16" s="3"/>
+      <c r="H16" s="200"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="3"/>
+      <c r="O16" s="202"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="192"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="3"/>
+      <c r="H17" s="200"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="3"/>
+      <c r="O17" s="202"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="192"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="3"/>
+      <c r="H18" s="200"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="3"/>
+      <c r="O18" s="202"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="192"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="3"/>
+      <c r="H19" s="200"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="3"/>
+      <c r="O19" s="202"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="192"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="3"/>
+      <c r="H20" s="200"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="3"/>
+      <c r="O20" s="202"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="192"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="3"/>
+      <c r="H21" s="200"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="3"/>
+      <c r="O21" s="202"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="192"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="3"/>
+      <c r="H22" s="200"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="3"/>
+      <c r="O22" s="202"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="192"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="3"/>
+      <c r="H23" s="200"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="3"/>
+      <c r="O23" s="202"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="192"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="3"/>
+      <c r="H24" s="200"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="3"/>
+      <c r="O24" s="202"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="3"/>
+    </row>
+    <row r="25" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="192"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="3"/>
+      <c r="H25" s="200"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="3"/>
+      <c r="O25" s="202"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="3"/>
+    </row>
+    <row r="26" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="192"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="3"/>
+      <c r="H26" s="200"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="3"/>
+      <c r="O26" s="202"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="3"/>
+    </row>
+    <row r="27" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="192"/>
+      <c r="C27" s="197" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="198">
+        <f>SUM(D5:D12)</f>
+        <v>100000</v>
+      </c>
+      <c r="H27" s="200"/>
+      <c r="I27" s="197" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" s="198">
+        <f>SUM(J5:J12)</f>
+        <v>270000</v>
+      </c>
+      <c r="O27" s="202"/>
+      <c r="P27" s="197" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="198">
+        <f>SUM(Q5:Q12)</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B28" s="64"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="49">
+        <v>-563480</v>
+      </c>
+      <c r="E28" s="196">
+        <v>44947</v>
+      </c>
+      <c r="H28" s="64"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="49">
+        <v>-281129</v>
+      </c>
+      <c r="K28" s="196">
         <v>44891</v>
       </c>
-      <c r="C112" s="151" t="s">
-        <v>91</v>
-      </c>
-      <c r="D112" s="150">
-        <v>-281129</v>
-      </c>
-      <c r="E112" s="139"/>
-      <c r="F112" s="85"/>
-    </row>
-    <row r="113" spans="1:8 16384:16384" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B113" s="149"/>
-      <c r="C113" s="76">
-        <v>44891</v>
-      </c>
-      <c r="D113" s="77">
-        <v>80000</v>
-      </c>
-      <c r="E113" s="139"/>
-      <c r="F113" s="85"/>
-    </row>
-    <row r="114" spans="1:8 16384:16384" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B114" s="126"/>
-      <c r="C114" s="76">
-        <v>44898</v>
-      </c>
-      <c r="D114" s="77">
-        <v>50000</v>
-      </c>
-      <c r="E114" s="139"/>
-      <c r="F114" s="85"/>
-    </row>
-    <row r="115" spans="1:8 16384:16384" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B115" s="126"/>
-      <c r="C115" s="76">
-        <v>44919</v>
-      </c>
-      <c r="D115" s="77">
-        <v>70000</v>
-      </c>
-      <c r="E115" s="127"/>
-    </row>
-    <row r="116" spans="1:8 16384:16384" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="146"/>
-      <c r="C116" s="38">
-        <v>44925</v>
-      </c>
-      <c r="D116" s="39">
-        <v>30000</v>
-      </c>
-      <c r="E116" s="95"/>
-    </row>
-    <row r="117" spans="1:8 16384:16384" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="122"/>
-      <c r="C117" s="123">
-        <v>44933</v>
-      </c>
-      <c r="D117" s="13">
-        <v>40000</v>
-      </c>
-      <c r="E117" s="122"/>
-    </row>
-    <row r="118" spans="1:8 16384:16384" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="122"/>
-      <c r="C118" s="123"/>
-      <c r="D118" s="13">
-        <v>0</v>
-      </c>
-      <c r="E118" s="122"/>
-    </row>
-    <row r="119" spans="1:8 16384:16384" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B119" s="147" t="s">
-        <v>89</v>
-      </c>
-      <c r="C119" s="148" t="s">
-        <v>3</v>
-      </c>
-      <c r="D119" s="25">
-        <f>SUM(D5:D118)</f>
-        <v>10820428.73</v>
-      </c>
-      <c r="XFD119">
-        <f>SUM(A119:XFC119)</f>
-        <v>10820428.73</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8 16384:16384" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C120" s="48"/>
-      <c r="D120" s="136"/>
-    </row>
-    <row r="121" spans="1:8 16384:16384" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="106"/>
-      <c r="B121" s="107"/>
-      <c r="C121" s="108" t="s">
-        <v>85</v>
-      </c>
-      <c r="D121" s="109">
-        <v>-3711953</v>
-      </c>
-      <c r="E121" s="102"/>
-    </row>
-    <row r="122" spans="1:8 16384:16384" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="110"/>
-      <c r="B122" s="103"/>
-      <c r="C122" s="104" t="s">
-        <v>86</v>
-      </c>
-      <c r="D122" s="105">
-        <v>-3105583.44</v>
-      </c>
-      <c r="E122" s="100"/>
-    </row>
-    <row r="123" spans="1:8 16384:16384" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="110"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="104" t="s">
-        <v>87</v>
-      </c>
-      <c r="D123" s="105">
-        <v>-659691.4</v>
-      </c>
-      <c r="E123" s="100"/>
-      <c r="G123" s="180">
-        <f>D121+D122+D123+D124</f>
-        <v>-8718896</v>
-      </c>
-      <c r="H123" s="181"/>
-    </row>
-    <row r="124" spans="1:8 16384:16384" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="110"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="104" t="s">
-        <v>88</v>
-      </c>
-      <c r="D124" s="105">
-        <v>-1241668.1599999999</v>
-      </c>
-      <c r="E124" s="100"/>
-      <c r="G124" s="182"/>
-      <c r="H124" s="183"/>
-    </row>
-    <row r="125" spans="1:8 16384:16384" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="111"/>
-      <c r="B125" s="112"/>
-      <c r="C125" s="113" t="s">
-        <v>90</v>
-      </c>
-      <c r="D125" s="141">
-        <v>-2122661.75</v>
-      </c>
-      <c r="E125" s="101"/>
-    </row>
-    <row r="126" spans="1:8 16384:16384" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="122"/>
-      <c r="B126" s="145"/>
-      <c r="C126" s="142"/>
-      <c r="D126" s="143">
-        <v>0</v>
-      </c>
-      <c r="E126" s="144"/>
-    </row>
-    <row r="127" spans="1:8 16384:16384" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C127" s="115" t="s">
+      <c r="O28" s="64"/>
+      <c r="P28" s="121"/>
+      <c r="Q28" s="49">
+        <v>67769</v>
+      </c>
+      <c r="R28" s="196">
+        <v>44873</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B29" s="64"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="49">
+        <v>0</v>
+      </c>
+      <c r="E29" s="124"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="49">
+        <v>0</v>
+      </c>
+      <c r="K29" s="124"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="65"/>
+      <c r="Q29" s="49">
+        <v>0</v>
+      </c>
+      <c r="R29" s="124"/>
+    </row>
+    <row r="30" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="84"/>
+      <c r="D30" s="29">
+        <v>0</v>
+      </c>
+      <c r="I30" s="84"/>
+      <c r="J30" s="29">
+        <v>0</v>
+      </c>
+      <c r="P30" s="84"/>
+      <c r="Q30" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D127" s="116">
-        <f>D123+D119+D121+D122+D124+D125+D126</f>
-        <v>-21129.019999999553</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
-      <c r="C128" s="1"/>
-      <c r="D128" s="2" t="s">
+      <c r="D31" s="34">
+        <f>D30+D27+D28+D29</f>
+        <v>-463480</v>
+      </c>
+      <c r="I31" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" s="34">
+        <f>J30+J27+J28+J29</f>
+        <v>-11129</v>
+      </c>
+      <c r="P31" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q31" s="34">
+        <f>Q30+Q27+Q28+Q29</f>
+        <v>97769</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+      <c r="D32" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" s="1"/>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" s="1"/>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C35" s="1"/>
+      <c r="D35" s="117"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="117"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="117"/>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B43" s="118"/>
+      <c r="C43" s="118"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="118"/>
+      <c r="H43" s="118"/>
+      <c r="I43" s="118"/>
+      <c r="J43" s="119"/>
+      <c r="K43" s="118"/>
+      <c r="O43" s="118"/>
+      <c r="P43" s="118"/>
+      <c r="Q43" s="119"/>
+      <c r="R43" s="118"/>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B44" s="118"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="118"/>
+      <c r="H44" s="118"/>
+      <c r="I44" s="118"/>
+      <c r="J44" s="119"/>
+      <c r="K44" s="118"/>
+      <c r="O44" s="118"/>
+      <c r="P44" s="118"/>
+      <c r="Q44" s="119"/>
+      <c r="R44" s="118"/>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B45" s="118"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="118"/>
+      <c r="H45" s="118"/>
+      <c r="I45" s="118"/>
+      <c r="J45" s="119"/>
+      <c r="K45" s="118"/>
+      <c r="O45" s="118"/>
+      <c r="P45" s="118"/>
+      <c r="Q45" s="119"/>
+      <c r="R45" s="118"/>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B46" s="118"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="119"/>
+      <c r="E46" s="118"/>
+      <c r="H46" s="118"/>
+      <c r="I46" s="118"/>
+      <c r="J46" s="119"/>
+      <c r="K46" s="118"/>
+      <c r="O46" s="118"/>
+      <c r="P46" s="118"/>
+      <c r="Q46" s="119"/>
+      <c r="R46" s="118"/>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B47" s="120"/>
+      <c r="C47" s="120"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="120"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="120"/>
+      <c r="J47" s="120"/>
+      <c r="K47" s="120"/>
+      <c r="O47" s="120"/>
+      <c r="P47" s="120"/>
+      <c r="Q47" s="120"/>
+      <c r="R47" s="120"/>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B48" s="120"/>
+      <c r="C48" s="120"/>
+      <c r="D48" s="120"/>
+      <c r="E48" s="120"/>
+      <c r="H48" s="120"/>
+      <c r="I48" s="120"/>
+      <c r="J48" s="120"/>
+      <c r="K48" s="120"/>
+      <c r="O48" s="120"/>
+      <c r="P48" s="120"/>
+      <c r="Q48" s="120"/>
+      <c r="R48" s="120"/>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B49" s="120"/>
+      <c r="C49" s="120"/>
+      <c r="D49" s="120"/>
+      <c r="E49" s="120"/>
+      <c r="H49" s="120"/>
+      <c r="I49" s="120"/>
+      <c r="J49" s="120"/>
+      <c r="K49" s="120"/>
+      <c r="O49" s="120"/>
+      <c r="P49" s="120"/>
+      <c r="Q49" s="120"/>
+      <c r="R49" s="120"/>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B50" s="120"/>
+      <c r="C50" s="120"/>
+      <c r="D50" s="120"/>
+      <c r="E50" s="120"/>
+      <c r="H50" s="120"/>
+      <c r="I50" s="120"/>
+      <c r="J50" s="120"/>
+      <c r="K50" s="120"/>
+      <c r="O50" s="120"/>
+      <c r="P50" s="120"/>
+      <c r="Q50" s="120"/>
+      <c r="R50" s="120"/>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B51" s="120"/>
+      <c r="C51" s="120"/>
+      <c r="D51" s="120"/>
+      <c r="E51" s="120"/>
+      <c r="H51" s="120"/>
+      <c r="I51" s="120"/>
+      <c r="J51" s="120"/>
+      <c r="K51" s="120"/>
+      <c r="O51" s="120"/>
+      <c r="P51" s="120"/>
+      <c r="Q51" s="120"/>
+      <c r="R51" s="120"/>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B52" s="118"/>
+      <c r="C52" s="118"/>
+      <c r="D52" s="119"/>
+      <c r="E52" s="118"/>
+      <c r="H52" s="118"/>
+      <c r="I52" s="118"/>
+      <c r="J52" s="119"/>
+      <c r="K52" s="118"/>
+      <c r="O52" s="118"/>
+      <c r="P52" s="118"/>
+      <c r="Q52" s="119"/>
+      <c r="R52" s="118"/>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B53" s="118"/>
+      <c r="C53" s="118"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="118"/>
+      <c r="H53" s="118"/>
+      <c r="I53" s="118"/>
+      <c r="J53" s="119"/>
+      <c r="K53" s="118"/>
+      <c r="O53" s="118"/>
+      <c r="P53" s="118"/>
+      <c r="Q53" s="119"/>
+      <c r="R53" s="118"/>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B54" s="118"/>
+      <c r="C54" s="118"/>
+      <c r="D54" s="119"/>
+      <c r="E54" s="118"/>
+      <c r="H54" s="118"/>
+      <c r="I54" s="118"/>
+      <c r="J54" s="119"/>
+      <c r="K54" s="118"/>
+      <c r="O54" s="118"/>
+      <c r="P54" s="118"/>
+      <c r="Q54" s="119"/>
+      <c r="R54" s="118"/>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B55" s="118"/>
+      <c r="C55" s="118"/>
+      <c r="D55" s="119"/>
+      <c r="E55" s="118"/>
+      <c r="H55" s="118"/>
+      <c r="I55" s="118"/>
+      <c r="J55" s="119"/>
+      <c r="K55" s="118"/>
+      <c r="O55" s="118"/>
+      <c r="P55" s="118"/>
+      <c r="Q55" s="119"/>
+      <c r="R55" s="118"/>
     </row>
   </sheetData>
-  <sortState ref="C94:D95">
-    <sortCondition ref="C94:C95"/>
-  </sortState>
-  <mergeCells count="2">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G123:H124"/>
+  <mergeCells count="9">
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="O2:O27"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B2:B27"/>
+    <mergeCell ref="H2:H27"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.38" bottom="0.32" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6643,12 +6119,1346 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FF00FF99"/>
+  </sheetPr>
+  <dimension ref="A1:XFD131"/>
+  <sheetViews>
+    <sheetView topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="14"/>
+      <c r="C2" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="B3" s="177" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="179"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+    </row>
+    <row r="4" spans="2:8" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="20"/>
+      <c r="C4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="32"/>
+      <c r="C5" s="47">
+        <v>44268</v>
+      </c>
+      <c r="D5" s="28">
+        <v>100000</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="31"/>
+      <c r="C6" s="36">
+        <v>44275</v>
+      </c>
+      <c r="D6" s="37">
+        <v>100000</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+    </row>
+    <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="31"/>
+      <c r="C7" s="36">
+        <v>44282</v>
+      </c>
+      <c r="D7" s="37">
+        <v>100000</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+    </row>
+    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="31"/>
+      <c r="C8" s="36">
+        <v>44296</v>
+      </c>
+      <c r="D8" s="37">
+        <v>100000</v>
+      </c>
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="31"/>
+      <c r="C9" s="36">
+        <v>44303</v>
+      </c>
+      <c r="D9" s="37">
+        <v>100000</v>
+      </c>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="31"/>
+      <c r="C10" s="36">
+        <v>44310</v>
+      </c>
+      <c r="D10" s="37">
+        <v>100000</v>
+      </c>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="31"/>
+      <c r="C11" s="36">
+        <v>44317</v>
+      </c>
+      <c r="D11" s="37">
+        <v>100000</v>
+      </c>
+      <c r="E11" s="27"/>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="31"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="27"/>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="31"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="27"/>
+    </row>
+    <row r="14" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="31"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="27"/>
+    </row>
+    <row r="16" spans="2:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="27"/>
+    </row>
+    <row r="17" spans="2:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="27"/>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="27"/>
+    </row>
+    <row r="19" spans="2:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="78"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="79"/>
+    </row>
+    <row r="20" spans="2:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="27"/>
+    </row>
+    <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="38">
+        <v>44324</v>
+      </c>
+      <c r="D21" s="39">
+        <v>100000</v>
+      </c>
+      <c r="E21" s="27"/>
+    </row>
+    <row r="22" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="38">
+        <v>44331</v>
+      </c>
+      <c r="D22" s="39">
+        <v>100000</v>
+      </c>
+      <c r="E22" s="27"/>
+    </row>
+    <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="38">
+        <v>44338</v>
+      </c>
+      <c r="D23" s="39">
+        <v>100000</v>
+      </c>
+      <c r="E23" s="27"/>
+    </row>
+    <row r="24" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="38">
+        <v>44345</v>
+      </c>
+      <c r="D24" s="39">
+        <v>100000</v>
+      </c>
+      <c r="E24" s="27"/>
+    </row>
+    <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="38">
+        <v>44352</v>
+      </c>
+      <c r="D25" s="39">
+        <v>100000</v>
+      </c>
+      <c r="E25" s="27"/>
+    </row>
+    <row r="26" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="38">
+        <v>44359</v>
+      </c>
+      <c r="D26" s="39">
+        <v>350000</v>
+      </c>
+      <c r="E26" s="27"/>
+    </row>
+    <row r="27" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="75"/>
+      <c r="C27" s="76">
+        <v>44366</v>
+      </c>
+      <c r="D27" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E27" s="27"/>
+    </row>
+    <row r="28" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="75"/>
+      <c r="C28" s="76">
+        <v>44373</v>
+      </c>
+      <c r="D28" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E28" s="27"/>
+    </row>
+    <row r="29" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="75"/>
+      <c r="C29" s="76">
+        <v>44380</v>
+      </c>
+      <c r="D29" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E29" s="27"/>
+    </row>
+    <row r="30" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="75"/>
+      <c r="C30" s="76">
+        <v>44387</v>
+      </c>
+      <c r="D30" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E30" s="27"/>
+    </row>
+    <row r="31" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="75"/>
+      <c r="C31" s="76">
+        <v>44394</v>
+      </c>
+      <c r="D31" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E31" s="27"/>
+    </row>
+    <row r="32" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="75"/>
+      <c r="C32" s="76">
+        <v>44401</v>
+      </c>
+      <c r="D32" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E32" s="27"/>
+    </row>
+    <row r="33" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="75"/>
+      <c r="C33" s="76">
+        <v>44408</v>
+      </c>
+      <c r="D33" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E33" s="27"/>
+    </row>
+    <row r="34" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="75"/>
+      <c r="C34" s="76">
+        <v>44415</v>
+      </c>
+      <c r="D34" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E34" s="27"/>
+    </row>
+    <row r="35" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="75"/>
+      <c r="C35" s="76">
+        <v>44422</v>
+      </c>
+      <c r="D35" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E35" s="27"/>
+    </row>
+    <row r="36" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="75"/>
+      <c r="C36" s="76">
+        <v>44428</v>
+      </c>
+      <c r="D36" s="77">
+        <v>300000</v>
+      </c>
+      <c r="E36" s="125" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="75"/>
+      <c r="C37" s="76">
+        <v>44436</v>
+      </c>
+      <c r="D37" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E37" s="27"/>
+    </row>
+    <row r="38" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="75"/>
+      <c r="C38" s="76">
+        <v>44443</v>
+      </c>
+      <c r="D38" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E38" s="27"/>
+    </row>
+    <row r="39" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="75"/>
+      <c r="C39" s="76">
+        <v>44449</v>
+      </c>
+      <c r="D39" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E39" s="125" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="75"/>
+      <c r="C40" s="76">
+        <v>44450</v>
+      </c>
+      <c r="D40" s="77">
+        <v>150000</v>
+      </c>
+      <c r="E40" s="27"/>
+    </row>
+    <row r="41" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="75"/>
+      <c r="C41" s="76">
+        <v>44457</v>
+      </c>
+      <c r="D41" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E41" s="27"/>
+    </row>
+    <row r="42" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="75"/>
+      <c r="C42" s="76">
+        <v>44464</v>
+      </c>
+      <c r="D42" s="77">
+        <v>150000</v>
+      </c>
+      <c r="E42" s="27"/>
+    </row>
+    <row r="43" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="126"/>
+      <c r="C43" s="76">
+        <v>44471</v>
+      </c>
+      <c r="D43" s="77">
+        <v>50000</v>
+      </c>
+      <c r="E43" s="127"/>
+    </row>
+    <row r="44" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="126"/>
+      <c r="C44" s="76">
+        <v>44478</v>
+      </c>
+      <c r="D44" s="77">
+        <v>50000</v>
+      </c>
+      <c r="E44" s="127"/>
+    </row>
+    <row r="45" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="126"/>
+      <c r="C45" s="76">
+        <v>44485</v>
+      </c>
+      <c r="D45" s="77">
+        <v>50000</v>
+      </c>
+      <c r="E45" s="127"/>
+    </row>
+    <row r="46" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="126"/>
+      <c r="C46" s="76">
+        <v>44492</v>
+      </c>
+      <c r="D46" s="77">
+        <v>50000</v>
+      </c>
+      <c r="E46" s="127"/>
+    </row>
+    <row r="47" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="126"/>
+      <c r="C47" s="76">
+        <v>44499</v>
+      </c>
+      <c r="D47" s="77">
+        <v>50000</v>
+      </c>
+      <c r="E47" s="127"/>
+    </row>
+    <row r="48" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="126"/>
+      <c r="C48" s="76">
+        <v>44506</v>
+      </c>
+      <c r="D48" s="77">
+        <v>50000</v>
+      </c>
+      <c r="E48" s="127"/>
+    </row>
+    <row r="49" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="126"/>
+      <c r="C49" s="76">
+        <v>44513</v>
+      </c>
+      <c r="D49" s="77">
+        <v>50000</v>
+      </c>
+      <c r="E49" s="127"/>
+    </row>
+    <row r="50" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B50" s="126"/>
+      <c r="C50" s="76">
+        <v>44520</v>
+      </c>
+      <c r="D50" s="77">
+        <v>50000</v>
+      </c>
+      <c r="E50" s="127"/>
+    </row>
+    <row r="51" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B51" s="126"/>
+      <c r="C51" s="76">
+        <v>44527</v>
+      </c>
+      <c r="D51" s="77">
+        <v>50000</v>
+      </c>
+      <c r="E51" s="127"/>
+    </row>
+    <row r="52" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="126"/>
+      <c r="C52" s="76">
+        <v>44534</v>
+      </c>
+      <c r="D52" s="77">
+        <v>50000</v>
+      </c>
+      <c r="E52" s="127"/>
+    </row>
+    <row r="53" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="126"/>
+      <c r="C53" s="76">
+        <v>44541</v>
+      </c>
+      <c r="D53" s="77">
+        <v>50000</v>
+      </c>
+      <c r="E53" s="127"/>
+    </row>
+    <row r="54" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B54" s="126"/>
+      <c r="C54" s="76">
+        <v>44548</v>
+      </c>
+      <c r="D54" s="77">
+        <v>50000</v>
+      </c>
+      <c r="E54" s="127"/>
+    </row>
+    <row r="55" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="126"/>
+      <c r="C55" s="76">
+        <v>44554</v>
+      </c>
+      <c r="D55" s="77">
+        <v>70000</v>
+      </c>
+      <c r="E55" s="127"/>
+    </row>
+    <row r="56" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="126"/>
+      <c r="C56" s="76">
+        <v>44561</v>
+      </c>
+      <c r="D56" s="77">
+        <v>50000</v>
+      </c>
+      <c r="E56" s="127"/>
+    </row>
+    <row r="57" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="126"/>
+      <c r="C57" s="76">
+        <v>44569</v>
+      </c>
+      <c r="D57" s="77">
+        <v>50000</v>
+      </c>
+      <c r="E57" s="127"/>
+    </row>
+    <row r="58" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="126"/>
+      <c r="C58" s="76">
+        <v>44576</v>
+      </c>
+      <c r="D58" s="77">
+        <v>50000</v>
+      </c>
+      <c r="E58" s="127"/>
+    </row>
+    <row r="59" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="126"/>
+      <c r="C59" s="76">
+        <v>44583</v>
+      </c>
+      <c r="D59" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E59" s="127"/>
+    </row>
+    <row r="60" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B60" s="126"/>
+      <c r="C60" s="76">
+        <v>44590</v>
+      </c>
+      <c r="D60" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E60" s="127"/>
+    </row>
+    <row r="61" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="126"/>
+      <c r="C61" s="128">
+        <v>44594</v>
+      </c>
+      <c r="D61" s="129">
+        <v>500000</v>
+      </c>
+      <c r="E61" s="130" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B62" s="126"/>
+      <c r="C62" s="76">
+        <v>44597</v>
+      </c>
+      <c r="D62" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E62" s="127"/>
+    </row>
+    <row r="63" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="126"/>
+      <c r="C63" s="76">
+        <v>44604</v>
+      </c>
+      <c r="D63" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E63" s="127"/>
+    </row>
+    <row r="64" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="126"/>
+      <c r="C64" s="76">
+        <v>44611</v>
+      </c>
+      <c r="D64" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E64" s="127"/>
+    </row>
+    <row r="65" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B65" s="126"/>
+      <c r="C65" s="76">
+        <v>44618</v>
+      </c>
+      <c r="D65" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E65" s="127"/>
+    </row>
+    <row r="66" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="126"/>
+      <c r="C66" s="76">
+        <v>44625</v>
+      </c>
+      <c r="D66" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E66" s="127"/>
+    </row>
+    <row r="67" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B67" s="126"/>
+      <c r="C67" s="76">
+        <v>44632</v>
+      </c>
+      <c r="D67" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E67" s="127"/>
+    </row>
+    <row r="68" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B68" s="126"/>
+      <c r="C68" s="76">
+        <v>44639</v>
+      </c>
+      <c r="D68" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E68" s="127"/>
+    </row>
+    <row r="69" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B69" s="126"/>
+      <c r="C69" s="76">
+        <v>44646</v>
+      </c>
+      <c r="D69" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E69" s="127"/>
+    </row>
+    <row r="70" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B70" s="126"/>
+      <c r="C70" s="76">
+        <v>44653</v>
+      </c>
+      <c r="D70" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E70" s="127"/>
+    </row>
+    <row r="71" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B71" s="126"/>
+      <c r="C71" s="76">
+        <v>44659</v>
+      </c>
+      <c r="D71" s="77">
+        <v>350000</v>
+      </c>
+      <c r="E71" s="130" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B72" s="126"/>
+      <c r="C72" s="76">
+        <v>44660</v>
+      </c>
+      <c r="D72" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E72" s="127"/>
+    </row>
+    <row r="73" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B73" s="126"/>
+      <c r="C73" s="76">
+        <v>44663</v>
+      </c>
+      <c r="D73" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E73" s="131" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B74" s="126"/>
+      <c r="C74" s="76">
+        <v>44667</v>
+      </c>
+      <c r="D74" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E74" s="127"/>
+    </row>
+    <row r="75" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B75" s="126"/>
+      <c r="C75" s="76">
+        <v>44674</v>
+      </c>
+      <c r="D75" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E75" s="127"/>
+    </row>
+    <row r="76" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B76" s="126"/>
+      <c r="C76" s="76">
+        <v>44681</v>
+      </c>
+      <c r="D76" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E76" s="127"/>
+    </row>
+    <row r="77" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B77" s="126"/>
+      <c r="C77" s="76">
+        <v>44688</v>
+      </c>
+      <c r="D77" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E77" s="127"/>
+    </row>
+    <row r="78" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B78" s="126"/>
+      <c r="C78" s="76">
+        <v>44690</v>
+      </c>
+      <c r="D78" s="77">
+        <v>400000</v>
+      </c>
+      <c r="E78" s="132" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B79" s="126"/>
+      <c r="C79" s="76">
+        <v>44695</v>
+      </c>
+      <c r="D79" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E79" s="127"/>
+    </row>
+    <row r="80" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B80" s="126"/>
+      <c r="C80" s="76">
+        <v>44702</v>
+      </c>
+      <c r="D80" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E80" s="127"/>
+    </row>
+    <row r="81" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B81" s="126"/>
+      <c r="C81" s="76">
+        <v>44709</v>
+      </c>
+      <c r="D81" s="135">
+        <v>200000</v>
+      </c>
+      <c r="E81" s="127"/>
+    </row>
+    <row r="82" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B82" s="126"/>
+      <c r="C82" s="76">
+        <v>44713</v>
+      </c>
+      <c r="D82" s="77">
+        <v>300000</v>
+      </c>
+      <c r="E82" s="137" t="s">
+        <v>81</v>
+      </c>
+      <c r="F82" s="85" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B83" s="126"/>
+      <c r="C83" s="76">
+        <v>44716</v>
+      </c>
+      <c r="D83" s="135">
+        <v>150000</v>
+      </c>
+      <c r="E83" s="127"/>
+    </row>
+    <row r="84" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B84" s="126"/>
+      <c r="C84" s="76">
+        <v>44716</v>
+      </c>
+      <c r="D84" s="135">
+        <v>50000</v>
+      </c>
+      <c r="E84" s="127"/>
+    </row>
+    <row r="85" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B85" s="126"/>
+      <c r="C85" s="76">
+        <v>44723</v>
+      </c>
+      <c r="D85" s="135">
+        <v>150000</v>
+      </c>
+      <c r="E85" s="127"/>
+    </row>
+    <row r="86" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B86" s="126"/>
+      <c r="C86" s="76">
+        <v>44723</v>
+      </c>
+      <c r="D86" s="135">
+        <v>50000</v>
+      </c>
+      <c r="E86" s="127"/>
+    </row>
+    <row r="87" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B87" s="126"/>
+      <c r="C87" s="76">
+        <v>44730</v>
+      </c>
+      <c r="D87" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E87" s="127"/>
+    </row>
+    <row r="88" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B88" s="126"/>
+      <c r="C88" s="76">
+        <v>44736</v>
+      </c>
+      <c r="D88" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E88" s="127"/>
+    </row>
+    <row r="89" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B89" s="126"/>
+      <c r="C89" s="76">
+        <v>44744</v>
+      </c>
+      <c r="D89" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E89" s="127"/>
+    </row>
+    <row r="90" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B90" s="126"/>
+      <c r="C90" s="76">
+        <v>44746</v>
+      </c>
+      <c r="D90" s="77">
+        <v>500000</v>
+      </c>
+      <c r="E90" s="130" t="s">
+        <v>82</v>
+      </c>
+      <c r="F90" s="85" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B91" s="126"/>
+      <c r="C91" s="76">
+        <v>44751</v>
+      </c>
+      <c r="D91" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E91" s="127"/>
+      <c r="F91" s="85"/>
+    </row>
+    <row r="92" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B92" s="126"/>
+      <c r="C92" s="76">
+        <v>44758</v>
+      </c>
+      <c r="D92" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E92" s="127"/>
+    </row>
+    <row r="93" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B93" s="126"/>
+      <c r="C93" s="76">
+        <v>44765</v>
+      </c>
+      <c r="D93" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E93" s="127"/>
+    </row>
+    <row r="94" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B94" s="140" t="s">
+        <v>84</v>
+      </c>
+      <c r="C94" s="76">
+        <v>44771</v>
+      </c>
+      <c r="D94" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E94" s="127"/>
+    </row>
+    <row r="95" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B95" s="126"/>
+      <c r="C95" s="76">
+        <v>44772</v>
+      </c>
+      <c r="D95" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E95" s="127"/>
+    </row>
+    <row r="96" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B96" s="126"/>
+      <c r="C96" s="76">
+        <v>44774</v>
+      </c>
+      <c r="D96" s="77">
+        <v>177786.73</v>
+      </c>
+      <c r="E96" s="138" t="s">
+        <v>47</v>
+      </c>
+      <c r="F96" s="85" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B97" s="126"/>
+      <c r="C97" s="76">
+        <v>44774</v>
+      </c>
+      <c r="D97" s="77">
+        <v>72000</v>
+      </c>
+      <c r="E97" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F97" s="85" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B98" s="126"/>
+      <c r="C98" s="76">
+        <v>44779</v>
+      </c>
+      <c r="D98" s="77">
+        <v>20000</v>
+      </c>
+      <c r="E98" s="139"/>
+      <c r="F98" s="85"/>
+    </row>
+    <row r="99" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B99" s="126"/>
+      <c r="C99" s="76">
+        <v>44779</v>
+      </c>
+      <c r="D99" s="77">
+        <v>80000</v>
+      </c>
+      <c r="E99" s="139"/>
+      <c r="F99" s="85"/>
+    </row>
+    <row r="100" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B100" s="126"/>
+      <c r="C100" s="76">
+        <v>44786</v>
+      </c>
+      <c r="D100" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E100" s="139"/>
+      <c r="F100" s="85"/>
+    </row>
+    <row r="101" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B101" s="126"/>
+      <c r="C101" s="76">
+        <v>44793</v>
+      </c>
+      <c r="D101" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E101" s="139"/>
+      <c r="F101" s="85"/>
+    </row>
+    <row r="102" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B102" s="126"/>
+      <c r="C102" s="76">
+        <v>44800</v>
+      </c>
+      <c r="D102" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E102" s="139"/>
+      <c r="F102" s="85"/>
+    </row>
+    <row r="103" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B103" s="126"/>
+      <c r="C103" s="76">
+        <v>44807</v>
+      </c>
+      <c r="D103" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E103" s="139"/>
+      <c r="F103" s="85"/>
+    </row>
+    <row r="104" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B104" s="126"/>
+      <c r="C104" s="76">
+        <v>44814</v>
+      </c>
+      <c r="D104" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E104" s="139"/>
+      <c r="F104" s="85"/>
+    </row>
+    <row r="105" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B105" s="126"/>
+      <c r="C105" s="76">
+        <v>44821</v>
+      </c>
+      <c r="D105" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E105" s="139"/>
+      <c r="F105" s="85"/>
+    </row>
+    <row r="106" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B106" s="126"/>
+      <c r="C106" s="76">
+        <v>44766</v>
+      </c>
+      <c r="D106" s="77">
+        <v>71771</v>
+      </c>
+      <c r="E106" s="139"/>
+      <c r="F106" s="85"/>
+    </row>
+    <row r="107" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B107" s="126"/>
+      <c r="C107" s="76">
+        <v>44877</v>
+      </c>
+      <c r="D107" s="77">
+        <v>100000</v>
+      </c>
+      <c r="E107" s="139"/>
+      <c r="F107" s="85"/>
+    </row>
+    <row r="108" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B108" s="126"/>
+      <c r="C108" s="76">
+        <v>44905</v>
+      </c>
+      <c r="D108" s="77">
+        <v>50000</v>
+      </c>
+      <c r="E108" s="139"/>
+      <c r="F108" s="85"/>
+    </row>
+    <row r="109" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B109" s="126"/>
+      <c r="C109" s="76">
+        <v>44940</v>
+      </c>
+      <c r="D109" s="77">
+        <v>40000</v>
+      </c>
+      <c r="E109" s="139"/>
+      <c r="F109" s="85"/>
+    </row>
+    <row r="110" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B110" s="126"/>
+      <c r="C110" s="76"/>
+      <c r="D110" s="77"/>
+      <c r="E110" s="139"/>
+      <c r="F110" s="85"/>
+    </row>
+    <row r="111" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B111" s="126"/>
+      <c r="C111" s="76"/>
+      <c r="D111" s="77"/>
+      <c r="E111" s="139"/>
+      <c r="F111" s="85"/>
+    </row>
+    <row r="112" spans="2:6" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="B112" s="149">
+        <v>44891</v>
+      </c>
+      <c r="C112" s="151" t="s">
+        <v>91</v>
+      </c>
+      <c r="D112" s="150">
+        <v>-281129</v>
+      </c>
+      <c r="E112" s="139"/>
+      <c r="F112" s="85"/>
+    </row>
+    <row r="113" spans="1:8 16384:16384" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B113" s="149"/>
+      <c r="C113" s="76">
+        <v>44891</v>
+      </c>
+      <c r="D113" s="77">
+        <v>80000</v>
+      </c>
+      <c r="E113" s="139"/>
+      <c r="F113" s="85"/>
+    </row>
+    <row r="114" spans="1:8 16384:16384" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B114" s="126"/>
+      <c r="C114" s="76">
+        <v>44898</v>
+      </c>
+      <c r="D114" s="77">
+        <v>50000</v>
+      </c>
+      <c r="E114" s="139"/>
+      <c r="F114" s="85"/>
+    </row>
+    <row r="115" spans="1:8 16384:16384" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B115" s="126"/>
+      <c r="C115" s="76">
+        <v>44919</v>
+      </c>
+      <c r="D115" s="77">
+        <v>70000</v>
+      </c>
+      <c r="E115" s="127"/>
+    </row>
+    <row r="116" spans="1:8 16384:16384" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="146"/>
+      <c r="C116" s="38">
+        <v>44925</v>
+      </c>
+      <c r="D116" s="39">
+        <v>30000</v>
+      </c>
+      <c r="E116" s="95"/>
+    </row>
+    <row r="117" spans="1:8 16384:16384" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="122"/>
+      <c r="C117" s="123">
+        <v>44933</v>
+      </c>
+      <c r="D117" s="13">
+        <v>40000</v>
+      </c>
+      <c r="E117" s="122"/>
+    </row>
+    <row r="118" spans="1:8 16384:16384" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="122"/>
+      <c r="C118" s="123"/>
+      <c r="D118" s="13">
+        <v>0</v>
+      </c>
+      <c r="E118" s="122"/>
+    </row>
+    <row r="119" spans="1:8 16384:16384" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B119" s="147" t="s">
+        <v>89</v>
+      </c>
+      <c r="C119" s="148" t="s">
+        <v>3</v>
+      </c>
+      <c r="D119" s="25">
+        <f>SUM(D5:D118)</f>
+        <v>10820428.73</v>
+      </c>
+      <c r="XFD119">
+        <f>SUM(A119:XFC119)</f>
+        <v>10820428.73</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8 16384:16384" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C120" s="48"/>
+      <c r="D120" s="136"/>
+    </row>
+    <row r="121" spans="1:8 16384:16384" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="106"/>
+      <c r="B121" s="107"/>
+      <c r="C121" s="108" t="s">
+        <v>85</v>
+      </c>
+      <c r="D121" s="109">
+        <v>-3711953</v>
+      </c>
+      <c r="E121" s="102"/>
+    </row>
+    <row r="122" spans="1:8 16384:16384" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="110"/>
+      <c r="B122" s="103"/>
+      <c r="C122" s="104" t="s">
+        <v>86</v>
+      </c>
+      <c r="D122" s="105">
+        <v>-3105583.44</v>
+      </c>
+      <c r="E122" s="100"/>
+    </row>
+    <row r="123" spans="1:8 16384:16384" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="110"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="104" t="s">
+        <v>87</v>
+      </c>
+      <c r="D123" s="105">
+        <v>-659691.4</v>
+      </c>
+      <c r="E123" s="100"/>
+      <c r="G123" s="180">
+        <f>D121+D122+D123+D124</f>
+        <v>-8718896</v>
+      </c>
+      <c r="H123" s="181"/>
+    </row>
+    <row r="124" spans="1:8 16384:16384" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="110"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="104" t="s">
+        <v>88</v>
+      </c>
+      <c r="D124" s="105">
+        <v>-1241668.1599999999</v>
+      </c>
+      <c r="E124" s="100"/>
+      <c r="G124" s="182"/>
+      <c r="H124" s="183"/>
+    </row>
+    <row r="125" spans="1:8 16384:16384" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="111"/>
+      <c r="B125" s="112"/>
+      <c r="C125" s="113" t="s">
+        <v>90</v>
+      </c>
+      <c r="D125" s="141">
+        <v>-2122661.75</v>
+      </c>
+      <c r="E125" s="101"/>
+    </row>
+    <row r="126" spans="1:8 16384:16384" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="122"/>
+      <c r="B126" s="145"/>
+      <c r="C126" s="142"/>
+      <c r="D126" s="143">
+        <v>0</v>
+      </c>
+      <c r="E126" s="144"/>
+    </row>
+    <row r="127" spans="1:8 16384:16384" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C127" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="D127" s="116">
+        <f>D123+D119+D121+D122+D124+D125+D126</f>
+        <v>-21129.019999999553</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
+      <c r="C128" s="1"/>
+      <c r="D128" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="1"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="1"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="1"/>
+    </row>
+  </sheetData>
+  <sortState ref="C94:D95">
+    <sortCondition ref="C94:C95"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G123:H124"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.38" bottom="0.32" header="0.3" footer="0.3"/>
+  <pageSetup scale="80" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FFAC7300"/>
   </sheetPr>
   <dimension ref="B1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6893,7 +7703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
@@ -6901,7 +7711,7 @@
   <dimension ref="B1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7155,262 +7965,419 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF9933"/>
   </sheetPr>
-  <dimension ref="B1:E41"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="191" t="s">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="191" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="I2" s="191" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="J2" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="192"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="154"/>
-    </row>
-    <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="192"/>
-      <c r="C4" s="21" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="17"/>
+    </row>
+    <row r="3" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="192"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="154"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="154"/>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="192"/>
+      <c r="B4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-    </row>
-    <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="192"/>
-      <c r="C5" s="47">
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="I4" s="192"/>
+      <c r="J4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="192"/>
+      <c r="B5" s="47">
+        <v>44935</v>
+      </c>
+      <c r="C5" s="28">
+        <v>49000</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="I5" s="192"/>
+      <c r="J5" s="47">
         <v>44621</v>
       </c>
-      <c r="D5" s="28">
+      <c r="K5" s="28">
         <v>53000</v>
       </c>
-      <c r="E5" s="28"/>
-    </row>
-    <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="193"/>
-      <c r="C6" s="36">
+      <c r="L5" s="28"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="192"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="27"/>
+      <c r="I6" s="193"/>
+      <c r="J6" s="36">
         <v>44656</v>
       </c>
-      <c r="D6" s="37">
+      <c r="K6" s="37">
         <v>52965</v>
       </c>
-      <c r="E6" s="27"/>
-    </row>
-    <row r="7" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="31"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="41"/>
-    </row>
-    <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="184"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37">
-        <v>0</v>
-      </c>
-      <c r="E8" s="27"/>
-    </row>
-    <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="185"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="27"/>
-    </row>
-    <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="75"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="27"/>
-    </row>
-    <row r="11" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="75"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="27"/>
-    </row>
-    <row r="12" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="4" t="s">
+      <c r="L6" s="27"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="192"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="41"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="41"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="192"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37">
+        <v>0</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="I8" s="184"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="37">
+        <v>0</v>
+      </c>
+      <c r="L8" s="27"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="192"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="27"/>
+      <c r="I9" s="185"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="27"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="192"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="27"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="27"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="192"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="27"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="27"/>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="193"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="25">
-        <f>SUM(D5:D12)</f>
+      <c r="C13" s="25">
+        <f>SUM(C5:C12)</f>
+        <v>49000</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="25">
+        <f>SUM(K5:K12)</f>
         <v>105965</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="64"/>
-      <c r="C14" s="121" t="s">
+    <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="64"/>
+      <c r="B14" s="121" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="49">
+      <c r="C14" s="49">
+        <v>-70083</v>
+      </c>
+      <c r="D14" s="6">
+        <v>44935</v>
+      </c>
+      <c r="I14" s="64"/>
+      <c r="J14" s="121" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="49">
         <v>-105965</v>
       </c>
-      <c r="E14" s="6">
+      <c r="L14" s="6">
         <v>44621</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="49">
-        <v>0</v>
-      </c>
-      <c r="E15" s="124"/>
-    </row>
-    <row r="16" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="84"/>
-      <c r="D16" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="33" t="s">
+    <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="64"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="49">
+        <v>0</v>
+      </c>
+      <c r="D15" s="124"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="49">
+        <v>0</v>
+      </c>
+      <c r="L15" s="124"/>
+    </row>
+    <row r="16" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="84"/>
+      <c r="C16" s="29">
+        <v>0</v>
+      </c>
+      <c r="J16" s="84"/>
+      <c r="K16" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="34">
-        <f>D16+D13+D14+D15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
-      <c r="D18" s="2" t="s">
+      <c r="C17" s="34">
+        <f>C16+C13+C14+C15</f>
+        <v>-21083</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="34">
+        <f>K16+K13+K14+K15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="2:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C21" s="1"/>
-      <c r="D21" s="117" t="s">
+      <c r="J18" s="1"/>
+      <c r="K18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B21" s="1"/>
+      <c r="C21" s="117"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="117" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="118"/>
       <c r="B29" s="118"/>
-      <c r="C29" s="118"/>
-      <c r="D29" s="119"/>
-      <c r="E29" s="118"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="119"/>
+      <c r="D29" s="118"/>
+      <c r="I29" s="118"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="119"/>
+      <c r="L29" s="118"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="118"/>
       <c r="B30" s="118"/>
-      <c r="C30" s="118"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="118"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="119"/>
+      <c r="D30" s="118"/>
+      <c r="I30" s="118"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="119"/>
+      <c r="L30" s="118"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="118"/>
       <c r="B31" s="118"/>
-      <c r="C31" s="118"/>
-      <c r="D31" s="119"/>
-      <c r="E31" s="118"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="119"/>
+      <c r="D31" s="118"/>
+      <c r="I31" s="118"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="119"/>
+      <c r="L31" s="118"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="118"/>
       <c r="B32" s="118"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="118"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="119"/>
+      <c r="D32" s="118"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="119"/>
+      <c r="L32" s="118"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="120"/>
       <c r="B33" s="120"/>
       <c r="C33" s="120"/>
       <c r="D33" s="120"/>
-      <c r="E33" s="120"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I33" s="120"/>
+      <c r="J33" s="120"/>
+      <c r="K33" s="120"/>
+      <c r="L33" s="120"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="120"/>
       <c r="B34" s="120"/>
       <c r="C34" s="120"/>
       <c r="D34" s="120"/>
-      <c r="E34" s="120"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I34" s="120"/>
+      <c r="J34" s="120"/>
+      <c r="K34" s="120"/>
+      <c r="L34" s="120"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="120"/>
       <c r="B35" s="120"/>
       <c r="C35" s="120"/>
       <c r="D35" s="120"/>
-      <c r="E35" s="120"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I35" s="120"/>
+      <c r="J35" s="120"/>
+      <c r="K35" s="120"/>
+      <c r="L35" s="120"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="120"/>
       <c r="B36" s="120"/>
       <c r="C36" s="120"/>
       <c r="D36" s="120"/>
-      <c r="E36" s="120"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I36" s="120"/>
+      <c r="J36" s="120"/>
+      <c r="K36" s="120"/>
+      <c r="L36" s="120"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="120"/>
       <c r="B37" s="120"/>
       <c r="C37" s="120"/>
       <c r="D37" s="120"/>
-      <c r="E37" s="120"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I37" s="120"/>
+      <c r="J37" s="120"/>
+      <c r="K37" s="120"/>
+      <c r="L37" s="120"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="118"/>
       <c r="B38" s="118"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="119"/>
-      <c r="E38" s="118"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="119"/>
+      <c r="D38" s="118"/>
+      <c r="I38" s="118"/>
+      <c r="J38" s="118"/>
+      <c r="K38" s="119"/>
+      <c r="L38" s="118"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="118"/>
       <c r="B39" s="118"/>
-      <c r="C39" s="118"/>
-      <c r="D39" s="119"/>
-      <c r="E39" s="118"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C39" s="119"/>
+      <c r="D39" s="118"/>
+      <c r="I39" s="118"/>
+      <c r="J39" s="118"/>
+      <c r="K39" s="119"/>
+      <c r="L39" s="118"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="118"/>
       <c r="B40" s="118"/>
-      <c r="C40" s="118"/>
-      <c r="D40" s="119"/>
-      <c r="E40" s="118"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C40" s="119"/>
+      <c r="D40" s="118"/>
+      <c r="I40" s="118"/>
+      <c r="J40" s="118"/>
+      <c r="K40" s="119"/>
+      <c r="L40" s="118"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="118"/>
       <c r="B41" s="118"/>
-      <c r="C41" s="118"/>
-      <c r="D41" s="119"/>
-      <c r="E41" s="118"/>
+      <c r="C41" s="119"/>
+      <c r="D41" s="118"/>
+      <c r="I41" s="118"/>
+      <c r="J41" s="118"/>
+      <c r="K41" s="119"/>
+      <c r="L41" s="118"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B8:B9"/>
+  <mergeCells count="5">
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A2:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7422,7 +8389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H124"/>
   <sheetViews>
@@ -8639,7 +9606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="97">
   <si>
     <t xml:space="preserve">PAGOS  SOBRE REMODELACION </t>
   </si>
@@ -351,6 +351,9 @@
   <si>
     <t>OBRAS   OBRADOR   TRAMPAS DE GRASA</t>
   </si>
+  <si>
+    <t>YA NO SE REALIZO TODO EL TRABAJO</t>
+  </si>
 </sst>
 </file>
 
@@ -362,7 +365,7 @@
     <numFmt numFmtId="165" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,6 +516,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -558,7 +569,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -899,12 +910,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1193,6 +1257,13 @@
     <xf numFmtId="15" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1202,6 +1273,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1211,36 +1312,6 @@
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1268,6 +1339,30 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1310,39 +1405,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="15" fontId="19" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="19" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="19" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="19" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="19" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2767,17 +2849,17 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="152" t="s">
+      <c r="C3" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="153"/>
-      <c r="E3" s="154"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="157"/>
       <c r="H3" s="50"/>
-      <c r="I3" s="152" t="s">
+      <c r="I3" s="155" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="153"/>
-      <c r="K3" s="154"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="157"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3217,11 +3299,11 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="152" t="s">
+      <c r="C3" s="155" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="153"/>
-      <c r="E3" s="154"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="157"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3375,18 +3457,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="155" t="s">
+      <c r="C3" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="155"/>
+      <c r="D3" s="168"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="161" t="s">
+      <c r="C4" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="161"/>
+      <c r="D4" s="159"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3396,10 +3478,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="156" t="s">
+      <c r="B6" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="157"/>
+      <c r="C6" s="170"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3416,10 +3498,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="158" t="s">
+      <c r="B8" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="159"/>
+      <c r="C8" s="167"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3436,10 +3518,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="158" t="s">
+      <c r="B10" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="159"/>
+      <c r="C10" s="167"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3456,10 +3538,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="158" t="s">
+      <c r="B12" s="166" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="159"/>
+      <c r="C12" s="167"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3476,10 +3558,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="158" t="s">
+      <c r="B14" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="159"/>
+      <c r="C14" s="167"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3496,10 +3578,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="162" t="s">
+      <c r="B16" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="163"/>
+      <c r="C16" s="161"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3516,14 +3598,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="162" t="s">
+      <c r="B18" s="160" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="163"/>
+      <c r="C18" s="161"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="164" t="s">
+      <c r="E18" s="162" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3533,7 +3615,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="165"/>
+      <c r="E19" s="163"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3544,10 +3626,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="162" t="s">
+      <c r="B21" s="160" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="163"/>
+      <c r="C21" s="161"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3564,10 +3646,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="166" t="s">
+      <c r="B23" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="167"/>
+      <c r="C23" s="165"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3584,10 +3666,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="160" t="s">
+      <c r="B25" s="158" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="160"/>
+      <c r="C25" s="158"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3638,6 +3720,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3646,11 +3733,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3689,11 +3771,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="152" t="s">
+      <c r="C3" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="153"/>
-      <c r="E3" s="154"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="157"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3894,11 +3976,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="152" t="s">
+      <c r="C3" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="153"/>
-      <c r="E3" s="154"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="157"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4083,11 +4165,11 @@
     </row>
     <row r="3" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="50"/>
-      <c r="C3" s="152" t="s">
+      <c r="C3" s="155" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="153"/>
-      <c r="E3" s="154"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="157"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4291,9 +4373,9 @@
       <c r="B3" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="154"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="157"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4524,9 +4606,9 @@
       <c r="B3" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="154"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="157"/>
     </row>
     <row r="4" spans="2:5" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4884,36 +4966,36 @@
     </row>
     <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="168" t="s">
+      <c r="B57" s="171" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="169"/>
-      <c r="D57" s="169"/>
-      <c r="E57" s="170"/>
+      <c r="C57" s="172"/>
+      <c r="D57" s="172"/>
+      <c r="E57" s="173"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="171"/>
-      <c r="C58" s="172"/>
-      <c r="D58" s="172"/>
-      <c r="E58" s="173"/>
+      <c r="B58" s="174"/>
+      <c r="C58" s="175"/>
+      <c r="D58" s="175"/>
+      <c r="E58" s="176"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="171"/>
-      <c r="C59" s="172"/>
-      <c r="D59" s="172"/>
-      <c r="E59" s="173"/>
+      <c r="B59" s="174"/>
+      <c r="C59" s="175"/>
+      <c r="D59" s="175"/>
+      <c r="E59" s="176"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="171"/>
-      <c r="C60" s="172"/>
-      <c r="D60" s="172"/>
-      <c r="E60" s="173"/>
+      <c r="B60" s="174"/>
+      <c r="C60" s="175"/>
+      <c r="D60" s="175"/>
+      <c r="E60" s="176"/>
     </row>
     <row r="61" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="174"/>
-      <c r="C61" s="175"/>
-      <c r="D61" s="175"/>
-      <c r="E61" s="176"/>
+      <c r="B61" s="177"/>
+      <c r="C61" s="178"/>
+      <c r="D61" s="178"/>
+      <c r="E61" s="179"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4958,9 +5040,9 @@
       <c r="B3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="154"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="157"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -5181,7 +5263,7 @@
   <dimension ref="B1:R55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5200,59 +5282,59 @@
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:18" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="184" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="194" t="s">
+      <c r="C2" s="180" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="195"/>
+      <c r="D2" s="181"/>
       <c r="E2" s="17"/>
-      <c r="H2" s="199" t="s">
+      <c r="H2" s="186" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="194" t="s">
+      <c r="I2" s="180" t="s">
         <v>80</v>
       </c>
-      <c r="J2" s="195"/>
+      <c r="J2" s="181"/>
       <c r="K2" s="17"/>
-      <c r="O2" s="201" t="s">
+      <c r="O2" s="182" t="s">
         <v>95</v>
       </c>
-      <c r="P2" s="194" t="s">
+      <c r="P2" s="180" t="s">
         <v>80</v>
       </c>
-      <c r="Q2" s="195"/>
+      <c r="Q2" s="181"/>
       <c r="R2" s="17"/>
     </row>
     <row r="3" spans="2:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="192"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="154"/>
-      <c r="H3" s="200"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="154"/>
-      <c r="O3" s="202"/>
-      <c r="P3" s="153"/>
-      <c r="Q3" s="153"/>
-      <c r="R3" s="154"/>
+      <c r="B3" s="185"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="157"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="157"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="156"/>
+      <c r="Q3" s="156"/>
+      <c r="R3" s="157"/>
     </row>
     <row r="4" spans="2:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="192"/>
+      <c r="B4" s="185"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
-      <c r="H4" s="200"/>
+      <c r="H4" s="187"/>
       <c r="I4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="23"/>
-      <c r="O4" s="202"/>
+      <c r="O4" s="183"/>
       <c r="P4" s="21" t="s">
         <v>2</v>
       </c>
@@ -5260,7 +5342,7 @@
       <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="192"/>
+      <c r="B5" s="185"/>
       <c r="C5" s="47">
         <v>44947</v>
       </c>
@@ -5268,7 +5350,7 @@
         <v>50000</v>
       </c>
       <c r="E5" s="28"/>
-      <c r="H5" s="200"/>
+      <c r="H5" s="187"/>
       <c r="I5" s="47">
         <v>44891</v>
       </c>
@@ -5276,7 +5358,7 @@
         <v>80000</v>
       </c>
       <c r="K5" s="28"/>
-      <c r="O5" s="202"/>
+      <c r="O5" s="183"/>
       <c r="P5" s="47">
         <v>44873</v>
       </c>
@@ -5286,7 +5368,7 @@
       <c r="R5" s="28"/>
     </row>
     <row r="6" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="192"/>
+      <c r="B6" s="185"/>
       <c r="C6" s="36">
         <v>44954</v>
       </c>
@@ -5294,7 +5376,7 @@
         <v>50000</v>
       </c>
       <c r="E6" s="27"/>
-      <c r="H6" s="200"/>
+      <c r="H6" s="187"/>
       <c r="I6" s="36">
         <v>44898</v>
       </c>
@@ -5302,17 +5384,21 @@
         <v>50000</v>
       </c>
       <c r="K6" s="27"/>
-      <c r="O6" s="202"/>
+      <c r="O6" s="183"/>
       <c r="P6" s="36"/>
       <c r="Q6" s="37"/>
       <c r="R6" s="27"/>
     </row>
     <row r="7" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="192"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
+      <c r="B7" s="185"/>
+      <c r="C7" s="36">
+        <v>44961</v>
+      </c>
+      <c r="D7" s="37">
+        <v>50000</v>
+      </c>
       <c r="E7" s="41"/>
-      <c r="H7" s="200"/>
+      <c r="H7" s="187"/>
       <c r="I7" s="36">
         <v>44919</v>
       </c>
@@ -5320,17 +5406,17 @@
         <v>70000</v>
       </c>
       <c r="K7" s="41"/>
-      <c r="O7" s="202"/>
+      <c r="O7" s="183"/>
       <c r="P7" s="36"/>
       <c r="Q7" s="37"/>
       <c r="R7" s="41"/>
     </row>
     <row r="8" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="192"/>
+      <c r="B8" s="185"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
       <c r="E8" s="27"/>
-      <c r="H8" s="200"/>
+      <c r="H8" s="187"/>
       <c r="I8" s="36">
         <v>44925</v>
       </c>
@@ -5338,17 +5424,17 @@
         <v>30000</v>
       </c>
       <c r="K8" s="27"/>
-      <c r="O8" s="202"/>
+      <c r="O8" s="183"/>
       <c r="P8" s="36"/>
       <c r="Q8" s="37"/>
       <c r="R8" s="27"/>
     </row>
     <row r="9" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="192"/>
+      <c r="B9" s="185"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
-      <c r="H9" s="200"/>
+      <c r="H9" s="187"/>
       <c r="I9" s="93">
         <v>44933</v>
       </c>
@@ -5356,53 +5442,55 @@
         <v>40000</v>
       </c>
       <c r="K9" s="27"/>
-      <c r="O9" s="202"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="27"/>
+      <c r="O9" s="183"/>
+      <c r="P9" s="203" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q9" s="204"/>
+      <c r="R9" s="205"/>
     </row>
     <row r="10" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="192"/>
+      <c r="B10" s="185"/>
       <c r="C10" s="93"/>
       <c r="D10" s="77"/>
       <c r="E10" s="27"/>
-      <c r="H10" s="200"/>
+      <c r="H10" s="187"/>
       <c r="I10" s="93"/>
       <c r="J10" s="77"/>
       <c r="K10" s="27"/>
-      <c r="O10" s="202"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="27"/>
+      <c r="O10" s="183"/>
+      <c r="P10" s="206"/>
+      <c r="Q10" s="207"/>
+      <c r="R10" s="208"/>
     </row>
     <row r="11" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="192"/>
+      <c r="B11" s="185"/>
       <c r="C11" s="93"/>
       <c r="D11" s="77"/>
       <c r="E11" s="27"/>
-      <c r="H11" s="200"/>
+      <c r="H11" s="187"/>
       <c r="I11" s="93"/>
       <c r="J11" s="77"/>
       <c r="K11" s="27"/>
-      <c r="O11" s="202"/>
+      <c r="O11" s="183"/>
       <c r="P11" s="93"/>
       <c r="Q11" s="77"/>
       <c r="R11" s="27"/>
     </row>
     <row r="12" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="192"/>
+      <c r="B12" s="185"/>
       <c r="C12" s="38"/>
       <c r="D12" s="39">
         <v>0</v>
       </c>
       <c r="E12" s="146"/>
-      <c r="H12" s="200"/>
+      <c r="H12" s="187"/>
       <c r="I12" s="36"/>
       <c r="J12" s="37">
         <v>0</v>
       </c>
       <c r="K12" s="3"/>
-      <c r="O12" s="202"/>
+      <c r="O12" s="183"/>
       <c r="P12" s="36"/>
       <c r="Q12" s="37">
         <v>0</v>
@@ -5410,223 +5498,223 @@
       <c r="R12" s="3"/>
     </row>
     <row r="13" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="192"/>
+      <c r="B13" s="185"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
       <c r="E13" s="3"/>
-      <c r="H13" s="200"/>
+      <c r="H13" s="187"/>
       <c r="I13" s="36"/>
       <c r="J13" s="37"/>
       <c r="K13" s="3"/>
-      <c r="O13" s="202"/>
+      <c r="O13" s="183"/>
       <c r="P13" s="36"/>
       <c r="Q13" s="37"/>
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="192"/>
+      <c r="B14" s="185"/>
       <c r="C14" s="36"/>
       <c r="D14" s="37"/>
       <c r="E14" s="3"/>
-      <c r="H14" s="200"/>
+      <c r="H14" s="187"/>
       <c r="I14" s="36"/>
       <c r="J14" s="37"/>
       <c r="K14" s="3"/>
-      <c r="O14" s="202"/>
+      <c r="O14" s="183"/>
       <c r="P14" s="36"/>
       <c r="Q14" s="37"/>
       <c r="R14" s="3"/>
     </row>
     <row r="15" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="192"/>
+      <c r="B15" s="185"/>
       <c r="C15" s="36"/>
       <c r="D15" s="37"/>
       <c r="E15" s="3"/>
-      <c r="H15" s="200"/>
+      <c r="H15" s="187"/>
       <c r="I15" s="36"/>
       <c r="J15" s="37"/>
       <c r="K15" s="3"/>
-      <c r="O15" s="202"/>
+      <c r="O15" s="183"/>
       <c r="P15" s="36"/>
       <c r="Q15" s="37"/>
       <c r="R15" s="3"/>
     </row>
     <row r="16" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="192"/>
+      <c r="B16" s="185"/>
       <c r="C16" s="36"/>
       <c r="D16" s="37"/>
       <c r="E16" s="3"/>
-      <c r="H16" s="200"/>
+      <c r="H16" s="187"/>
       <c r="I16" s="36"/>
       <c r="J16" s="37"/>
       <c r="K16" s="3"/>
-      <c r="O16" s="202"/>
+      <c r="O16" s="183"/>
       <c r="P16" s="36"/>
       <c r="Q16" s="37"/>
       <c r="R16" s="3"/>
     </row>
     <row r="17" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="192"/>
+      <c r="B17" s="185"/>
       <c r="C17" s="36"/>
       <c r="D17" s="37"/>
       <c r="E17" s="3"/>
-      <c r="H17" s="200"/>
+      <c r="H17" s="187"/>
       <c r="I17" s="36"/>
       <c r="J17" s="37"/>
       <c r="K17" s="3"/>
-      <c r="O17" s="202"/>
+      <c r="O17" s="183"/>
       <c r="P17" s="36"/>
       <c r="Q17" s="37"/>
       <c r="R17" s="3"/>
     </row>
     <row r="18" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="192"/>
+      <c r="B18" s="185"/>
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
       <c r="E18" s="3"/>
-      <c r="H18" s="200"/>
+      <c r="H18" s="187"/>
       <c r="I18" s="36"/>
       <c r="J18" s="37"/>
       <c r="K18" s="3"/>
-      <c r="O18" s="202"/>
+      <c r="O18" s="183"/>
       <c r="P18" s="36"/>
       <c r="Q18" s="37"/>
       <c r="R18" s="3"/>
     </row>
     <row r="19" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="192"/>
+      <c r="B19" s="185"/>
       <c r="C19" s="36"/>
       <c r="D19" s="37"/>
       <c r="E19" s="3"/>
-      <c r="H19" s="200"/>
+      <c r="H19" s="187"/>
       <c r="I19" s="36"/>
       <c r="J19" s="37"/>
       <c r="K19" s="3"/>
-      <c r="O19" s="202"/>
+      <c r="O19" s="183"/>
       <c r="P19" s="36"/>
       <c r="Q19" s="37"/>
       <c r="R19" s="3"/>
     </row>
     <row r="20" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="192"/>
+      <c r="B20" s="185"/>
       <c r="C20" s="36"/>
       <c r="D20" s="37"/>
       <c r="E20" s="3"/>
-      <c r="H20" s="200"/>
+      <c r="H20" s="187"/>
       <c r="I20" s="36"/>
       <c r="J20" s="37"/>
       <c r="K20" s="3"/>
-      <c r="O20" s="202"/>
+      <c r="O20" s="183"/>
       <c r="P20" s="36"/>
       <c r="Q20" s="37"/>
       <c r="R20" s="3"/>
     </row>
     <row r="21" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="192"/>
+      <c r="B21" s="185"/>
       <c r="C21" s="36"/>
       <c r="D21" s="37"/>
       <c r="E21" s="3"/>
-      <c r="H21" s="200"/>
+      <c r="H21" s="187"/>
       <c r="I21" s="36"/>
       <c r="J21" s="37"/>
       <c r="K21" s="3"/>
-      <c r="O21" s="202"/>
+      <c r="O21" s="183"/>
       <c r="P21" s="36"/>
       <c r="Q21" s="37"/>
       <c r="R21" s="3"/>
     </row>
     <row r="22" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="192"/>
+      <c r="B22" s="185"/>
       <c r="C22" s="36"/>
       <c r="D22" s="37"/>
       <c r="E22" s="3"/>
-      <c r="H22" s="200"/>
+      <c r="H22" s="187"/>
       <c r="I22" s="36"/>
       <c r="J22" s="37"/>
       <c r="K22" s="3"/>
-      <c r="O22" s="202"/>
+      <c r="O22" s="183"/>
       <c r="P22" s="36"/>
       <c r="Q22" s="37"/>
       <c r="R22" s="3"/>
     </row>
     <row r="23" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="192"/>
+      <c r="B23" s="185"/>
       <c r="C23" s="36"/>
       <c r="D23" s="37"/>
       <c r="E23" s="3"/>
-      <c r="H23" s="200"/>
+      <c r="H23" s="187"/>
       <c r="I23" s="36"/>
       <c r="J23" s="37"/>
       <c r="K23" s="3"/>
-      <c r="O23" s="202"/>
+      <c r="O23" s="183"/>
       <c r="P23" s="36"/>
       <c r="Q23" s="37"/>
       <c r="R23" s="3"/>
     </row>
     <row r="24" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="192"/>
+      <c r="B24" s="185"/>
       <c r="C24" s="36"/>
       <c r="D24" s="37"/>
       <c r="E24" s="3"/>
-      <c r="H24" s="200"/>
+      <c r="H24" s="187"/>
       <c r="I24" s="36"/>
       <c r="J24" s="37"/>
       <c r="K24" s="3"/>
-      <c r="O24" s="202"/>
+      <c r="O24" s="183"/>
       <c r="P24" s="36"/>
       <c r="Q24" s="37"/>
       <c r="R24" s="3"/>
     </row>
     <row r="25" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="192"/>
+      <c r="B25" s="185"/>
       <c r="C25" s="36"/>
       <c r="D25" s="37"/>
       <c r="E25" s="3"/>
-      <c r="H25" s="200"/>
+      <c r="H25" s="187"/>
       <c r="I25" s="36"/>
       <c r="J25" s="37"/>
       <c r="K25" s="3"/>
-      <c r="O25" s="202"/>
+      <c r="O25" s="183"/>
       <c r="P25" s="36"/>
       <c r="Q25" s="37"/>
       <c r="R25" s="3"/>
     </row>
     <row r="26" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="192"/>
+      <c r="B26" s="185"/>
       <c r="C26" s="36"/>
       <c r="D26" s="37"/>
       <c r="E26" s="3"/>
-      <c r="H26" s="200"/>
+      <c r="H26" s="187"/>
       <c r="I26" s="36"/>
       <c r="J26" s="37"/>
       <c r="K26" s="3"/>
-      <c r="O26" s="202"/>
+      <c r="O26" s="183"/>
       <c r="P26" s="36"/>
       <c r="Q26" s="37"/>
       <c r="R26" s="3"/>
     </row>
     <row r="27" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="192"/>
-      <c r="C27" s="197" t="s">
+      <c r="B27" s="185"/>
+      <c r="C27" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="198">
+      <c r="D27" s="154">
         <f>SUM(D5:D12)</f>
-        <v>100000</v>
-      </c>
-      <c r="H27" s="200"/>
-      <c r="I27" s="197" t="s">
+        <v>150000</v>
+      </c>
+      <c r="H27" s="187"/>
+      <c r="I27" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="J27" s="198">
+      <c r="J27" s="154">
         <f>SUM(J5:J12)</f>
         <v>270000</v>
       </c>
-      <c r="O27" s="202"/>
-      <c r="P27" s="197" t="s">
+      <c r="O27" s="183"/>
+      <c r="P27" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="Q27" s="198">
+      <c r="Q27" s="154">
         <f>SUM(Q5:Q12)</f>
         <v>30000</v>
       </c>
@@ -5637,7 +5725,7 @@
       <c r="D28" s="49">
         <v>-563480</v>
       </c>
-      <c r="E28" s="196">
+      <c r="E28" s="152">
         <v>44947</v>
       </c>
       <c r="H28" s="64"/>
@@ -5645,7 +5733,7 @@
       <c r="J28" s="49">
         <v>-281129</v>
       </c>
-      <c r="K28" s="196">
+      <c r="K28" s="152">
         <v>44891</v>
       </c>
       <c r="O28" s="64"/>
@@ -5653,7 +5741,7 @@
       <c r="Q28" s="49">
         <v>67769</v>
       </c>
-      <c r="R28" s="196">
+      <c r="R28" s="152">
         <v>44873</v>
       </c>
     </row>
@@ -5697,7 +5785,7 @@
       </c>
       <c r="D31" s="34">
         <f>D30+D27+D28+D29</f>
-        <v>-463480</v>
+        <v>-413480</v>
       </c>
       <c r="I31" s="33" t="s">
         <v>4</v>
@@ -5929,16 +6017,17 @@
       <c r="R55" s="118"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B2:B27"/>
+    <mergeCell ref="H2:H27"/>
+    <mergeCell ref="P9:R10"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="O2:O27"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="P3:R3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B2:B27"/>
-    <mergeCell ref="H2:H27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6148,12 +6237,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="177" t="s">
+      <c r="B3" s="188" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="179"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="190"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
     </row>
@@ -7373,11 +7462,11 @@
         <v>-659691.4</v>
       </c>
       <c r="E123" s="100"/>
-      <c r="G123" s="180">
+      <c r="G123" s="191">
         <f>D121+D122+D123+D124</f>
         <v>-8718896</v>
       </c>
-      <c r="H123" s="181"/>
+      <c r="H123" s="192"/>
     </row>
     <row r="124" spans="1:8 16384:16384" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="110"/>
@@ -7389,8 +7478,8 @@
         <v>-1241668.1599999999</v>
       </c>
       <c r="E124" s="100"/>
-      <c r="G124" s="182"/>
-      <c r="H124" s="183"/>
+      <c r="G124" s="193"/>
+      <c r="H124" s="194"/>
     </row>
     <row r="125" spans="1:8 16384:16384" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="111"/>
@@ -7471,23 +7560,23 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="197" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="189" t="s">
+      <c r="C2" s="200" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="190"/>
+      <c r="D2" s="201"/>
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="187"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="154"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="157"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="188"/>
+      <c r="B4" s="199"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -7525,13 +7614,13 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="184"/>
+      <c r="B8" s="195"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="185"/>
+      <c r="B9" s="196"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -7724,7 +7813,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="184" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -7734,13 +7823,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="192"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="154"/>
+      <c r="B3" s="185"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="157"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="192"/>
+      <c r="B4" s="185"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -7748,7 +7837,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="192"/>
+      <c r="B5" s="185"/>
       <c r="C5" s="47">
         <v>44380</v>
       </c>
@@ -7758,7 +7847,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="193"/>
+      <c r="B6" s="202"/>
       <c r="C6" s="36">
         <v>44396</v>
       </c>
@@ -7774,7 +7863,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="184" t="s">
+      <c r="B8" s="195" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="36">
@@ -7786,7 +7875,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="185"/>
+      <c r="B9" s="196"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -7989,7 +8078,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="184" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -7997,7 +8086,7 @@
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="17"/>
-      <c r="I2" s="191" t="s">
+      <c r="I2" s="184" t="s">
         <v>74</v>
       </c>
       <c r="J2" s="15" t="s">
@@ -8007,23 +8096,23 @@
       <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="192"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="154"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="154"/>
+      <c r="A3" s="185"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="157"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="157"/>
     </row>
     <row r="4" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="192"/>
+      <c r="A4" s="185"/>
       <c r="B4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="23"/>
-      <c r="I4" s="192"/>
+      <c r="I4" s="185"/>
       <c r="J4" s="21" t="s">
         <v>2</v>
       </c>
@@ -8031,7 +8120,7 @@
       <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="192"/>
+      <c r="A5" s="185"/>
       <c r="B5" s="47">
         <v>44935</v>
       </c>
@@ -8039,7 +8128,7 @@
         <v>49000</v>
       </c>
       <c r="D5" s="28"/>
-      <c r="I5" s="192"/>
+      <c r="I5" s="185"/>
       <c r="J5" s="47">
         <v>44621</v>
       </c>
@@ -8049,11 +8138,11 @@
       <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="192"/>
+      <c r="A6" s="185"/>
       <c r="B6" s="36"/>
       <c r="C6" s="37"/>
       <c r="D6" s="27"/>
-      <c r="I6" s="193"/>
+      <c r="I6" s="202"/>
       <c r="J6" s="36">
         <v>44656</v>
       </c>
@@ -8063,7 +8152,7 @@
       <c r="L6" s="27"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="192"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="36"/>
       <c r="C7" s="37"/>
       <c r="D7" s="41"/>
@@ -8073,13 +8162,13 @@
       <c r="L7" s="41"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="192"/>
+      <c r="A8" s="185"/>
       <c r="B8" s="36"/>
       <c r="C8" s="37">
         <v>0</v>
       </c>
       <c r="D8" s="27"/>
-      <c r="I8" s="184"/>
+      <c r="I8" s="195"/>
       <c r="J8" s="36"/>
       <c r="K8" s="37">
         <v>0</v>
@@ -8087,17 +8176,17 @@
       <c r="L8" s="27"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="192"/>
+      <c r="A9" s="185"/>
       <c r="B9" s="93"/>
       <c r="C9" s="77"/>
       <c r="D9" s="27"/>
-      <c r="I9" s="185"/>
+      <c r="I9" s="196"/>
       <c r="J9" s="93"/>
       <c r="K9" s="77"/>
       <c r="L9" s="27"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="192"/>
+      <c r="A10" s="185"/>
       <c r="B10" s="93"/>
       <c r="C10" s="77"/>
       <c r="D10" s="27"/>
@@ -8107,7 +8196,7 @@
       <c r="L10" s="27"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="192"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="93"/>
       <c r="C11" s="77"/>
       <c r="D11" s="27"/>
@@ -8117,7 +8206,7 @@
       <c r="L11" s="27"/>
     </row>
     <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="193"/>
+      <c r="A12" s="202"/>
       <c r="B12" s="38"/>
       <c r="C12" s="39">
         <v>0</v>
@@ -8418,12 +8507,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="177" t="s">
+      <c r="B3" s="188" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="179"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="190"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
     </row>
@@ -9542,11 +9631,11 @@
       <c r="E117" s="100">
         <v>44264</v>
       </c>
-      <c r="G117" s="180">
+      <c r="G117" s="191">
         <f>D115+D116+D117+D118</f>
         <v>-7492427.9600000009</v>
       </c>
-      <c r="H117" s="181"/>
+      <c r="H117" s="192"/>
     </row>
     <row r="118" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="110"/>
@@ -9560,8 +9649,8 @@
       <c r="E118" s="100">
         <v>44264</v>
       </c>
-      <c r="G118" s="182"/>
-      <c r="H118" s="183"/>
+      <c r="G118" s="193"/>
+      <c r="H118" s="194"/>
     </row>
     <row r="119" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="111"/>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="18375" windowHeight="13620" firstSheet="18" activeTab="18"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="18375" windowHeight="13620" firstSheet="18" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="JARCERIAS REMODELACION " sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="96">
   <si>
     <t xml:space="preserve">PAGOS  SOBRE REMODELACION </t>
   </si>
@@ -344,9 +344,6 @@
   </si>
   <si>
     <t>TRABAJOS ZAVALETA  TOLDO, LAMPARA, TECHUMBRE, PROTECCION, CICONICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBRAS ESTACIONAMIENTO                OBRADOR   AMPLIACION EN AREA LAVADO DE TARAS </t>
   </si>
   <si>
     <t>OBRAS   OBRADOR   TRAMPAS DE GRASA</t>
@@ -968,7 +965,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1273,6 +1270,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1297,21 +1309,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1345,24 +1342,18 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1408,22 +1399,22 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="19" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="19" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="19" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="19" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="19" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="19" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="19" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="19" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="19" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="19" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="19" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3457,18 +3448,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="168" t="s">
+      <c r="C3" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="168"/>
+      <c r="D3" s="158"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="159" t="s">
+      <c r="C4" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="159"/>
+      <c r="D4" s="164"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3478,10 +3469,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="169" t="s">
+      <c r="B6" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="170"/>
+      <c r="C6" s="160"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3498,10 +3489,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="166" t="s">
+      <c r="B8" s="161" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="167"/>
+      <c r="C8" s="162"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3518,10 +3509,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="166" t="s">
+      <c r="B10" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="167"/>
+      <c r="C10" s="162"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3538,10 +3529,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="166" t="s">
+      <c r="B12" s="161" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="167"/>
+      <c r="C12" s="162"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3558,10 +3549,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="166" t="s">
+      <c r="B14" s="161" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="167"/>
+      <c r="C14" s="162"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3578,10 +3569,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="160" t="s">
+      <c r="B16" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="161"/>
+      <c r="C16" s="166"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3598,14 +3589,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="160" t="s">
+      <c r="B18" s="165" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="161"/>
+      <c r="C18" s="166"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="162" t="s">
+      <c r="E18" s="167" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3615,7 +3606,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="163"/>
+      <c r="E19" s="168"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3626,10 +3617,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="160" t="s">
+      <c r="B21" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="161"/>
+      <c r="C21" s="166"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3646,10 +3637,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="164" t="s">
+      <c r="B23" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="165"/>
+      <c r="C23" s="170"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3666,10 +3657,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="158" t="s">
+      <c r="B25" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="158"/>
+      <c r="C25" s="163"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3720,11 +3711,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3733,6 +3719,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5260,10 +5251,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B1:R55"/>
+  <dimension ref="B1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5275,14 +5266,11 @@
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="10" max="10" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" customWidth="1"/>
-    <col min="17" max="17" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:18" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="184" t="s">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="182" t="s">
         <v>92</v>
       </c>
       <c r="C2" s="180" t="s">
@@ -5290,7 +5278,7 @@
       </c>
       <c r="D2" s="181"/>
       <c r="E2" s="17"/>
-      <c r="H2" s="186" t="s">
+      <c r="H2" s="184" t="s">
         <v>94</v>
       </c>
       <c r="I2" s="180" t="s">
@@ -5298,51 +5286,33 @@
       </c>
       <c r="J2" s="181"/>
       <c r="K2" s="17"/>
-      <c r="O2" s="182" t="s">
-        <v>95</v>
-      </c>
-      <c r="P2" s="180" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="17"/>
-    </row>
-    <row r="3" spans="2:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="185"/>
+    </row>
+    <row r="3" spans="2:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="183"/>
       <c r="C3" s="156"/>
       <c r="D3" s="156"/>
       <c r="E3" s="157"/>
-      <c r="H3" s="187"/>
+      <c r="H3" s="185"/>
       <c r="I3" s="156"/>
       <c r="J3" s="156"/>
       <c r="K3" s="157"/>
-      <c r="O3" s="183"/>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="157"/>
-    </row>
-    <row r="4" spans="2:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="185"/>
+    </row>
+    <row r="4" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="183"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
-      <c r="H4" s="187"/>
+      <c r="H4" s="185"/>
       <c r="I4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="23"/>
-      <c r="O4" s="183"/>
-      <c r="P4" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="23"/>
-    </row>
-    <row r="5" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="185"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="183"/>
       <c r="C5" s="47">
         <v>44947</v>
       </c>
@@ -5350,25 +5320,17 @@
         <v>50000</v>
       </c>
       <c r="E5" s="28"/>
-      <c r="H5" s="187"/>
+      <c r="H5" s="185"/>
       <c r="I5" s="47">
-        <v>44891</v>
+        <v>44873</v>
       </c>
       <c r="J5" s="28">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="K5" s="28"/>
-      <c r="O5" s="183"/>
-      <c r="P5" s="47">
-        <v>44873</v>
-      </c>
-      <c r="Q5" s="28">
-        <v>30000</v>
-      </c>
-      <c r="R5" s="28"/>
-    </row>
-    <row r="6" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="185"/>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="183"/>
       <c r="C6" s="36">
         <v>44954</v>
       </c>
@@ -5376,21 +5338,13 @@
         <v>50000</v>
       </c>
       <c r="E6" s="27"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="36">
-        <v>44898</v>
-      </c>
-      <c r="J6" s="37">
-        <v>50000</v>
-      </c>
+      <c r="H6" s="185"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="37"/>
       <c r="K6" s="27"/>
-      <c r="O6" s="183"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="27"/>
-    </row>
-    <row r="7" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="185"/>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="183"/>
       <c r="C7" s="36">
         <v>44961</v>
       </c>
@@ -5398,303 +5352,209 @@
         <v>50000</v>
       </c>
       <c r="E7" s="41"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="36">
-        <v>44919</v>
-      </c>
-      <c r="J7" s="37">
-        <v>70000</v>
-      </c>
+      <c r="H7" s="185"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="37"/>
       <c r="K7" s="41"/>
-      <c r="O7" s="183"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="41"/>
-    </row>
-    <row r="8" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="185"/>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="183"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
       <c r="E8" s="27"/>
-      <c r="H8" s="187"/>
-      <c r="I8" s="36">
-        <v>44925</v>
-      </c>
-      <c r="J8" s="37">
-        <v>30000</v>
-      </c>
+      <c r="H8" s="185"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="37"/>
       <c r="K8" s="27"/>
-      <c r="O8" s="183"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="27"/>
-    </row>
-    <row r="9" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="185"/>
+    </row>
+    <row r="9" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="183"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
-      <c r="H9" s="187"/>
-      <c r="I9" s="93">
-        <v>44933</v>
-      </c>
-      <c r="J9" s="77">
-        <v>40000</v>
-      </c>
-      <c r="K9" s="27"/>
-      <c r="O9" s="183"/>
-      <c r="P9" s="203" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q9" s="204"/>
-      <c r="R9" s="205"/>
-    </row>
-    <row r="10" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="185"/>
+      <c r="H9" s="185"/>
+      <c r="I9" s="201" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="202"/>
+      <c r="K9" s="203"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="183"/>
       <c r="C10" s="93"/>
       <c r="D10" s="77"/>
       <c r="E10" s="27"/>
-      <c r="H10" s="187"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="27"/>
-      <c r="O10" s="183"/>
-      <c r="P10" s="206"/>
-      <c r="Q10" s="207"/>
-      <c r="R10" s="208"/>
-    </row>
-    <row r="11" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="185"/>
+      <c r="H10" s="185"/>
+      <c r="I10" s="204"/>
+      <c r="J10" s="205"/>
+      <c r="K10" s="206"/>
+    </row>
+    <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="183"/>
       <c r="C11" s="93"/>
       <c r="D11" s="77"/>
       <c r="E11" s="27"/>
-      <c r="H11" s="187"/>
+      <c r="H11" s="185"/>
       <c r="I11" s="93"/>
       <c r="J11" s="77"/>
       <c r="K11" s="27"/>
-      <c r="O11" s="183"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="27"/>
-    </row>
-    <row r="12" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="185"/>
+    </row>
+    <row r="12" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="183"/>
       <c r="C12" s="38"/>
       <c r="D12" s="39">
         <v>0</v>
       </c>
       <c r="E12" s="146"/>
-      <c r="H12" s="187"/>
+      <c r="H12" s="185"/>
       <c r="I12" s="36"/>
       <c r="J12" s="37">
         <v>0</v>
       </c>
       <c r="K12" s="3"/>
-      <c r="O12" s="183"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="37">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3"/>
-    </row>
-    <row r="13" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="185"/>
+    </row>
+    <row r="13" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="183"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
       <c r="E13" s="3"/>
-      <c r="H13" s="187"/>
+      <c r="H13" s="185"/>
       <c r="I13" s="36"/>
       <c r="J13" s="37"/>
       <c r="K13" s="3"/>
-      <c r="O13" s="183"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="3"/>
-    </row>
-    <row r="14" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="185"/>
+    </row>
+    <row r="14" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="183"/>
       <c r="C14" s="36"/>
       <c r="D14" s="37"/>
       <c r="E14" s="3"/>
-      <c r="H14" s="187"/>
+      <c r="H14" s="185"/>
       <c r="I14" s="36"/>
       <c r="J14" s="37"/>
       <c r="K14" s="3"/>
-      <c r="O14" s="183"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="3"/>
-    </row>
-    <row r="15" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="185"/>
+    </row>
+    <row r="15" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="183"/>
       <c r="C15" s="36"/>
       <c r="D15" s="37"/>
       <c r="E15" s="3"/>
-      <c r="H15" s="187"/>
+      <c r="H15" s="185"/>
       <c r="I15" s="36"/>
       <c r="J15" s="37"/>
       <c r="K15" s="3"/>
-      <c r="O15" s="183"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="3"/>
-    </row>
-    <row r="16" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="185"/>
+    </row>
+    <row r="16" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="183"/>
       <c r="C16" s="36"/>
       <c r="D16" s="37"/>
       <c r="E16" s="3"/>
-      <c r="H16" s="187"/>
+      <c r="H16" s="185"/>
       <c r="I16" s="36"/>
       <c r="J16" s="37"/>
       <c r="K16" s="3"/>
-      <c r="O16" s="183"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="185"/>
+    </row>
+    <row r="17" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="183"/>
       <c r="C17" s="36"/>
       <c r="D17" s="37"/>
       <c r="E17" s="3"/>
-      <c r="H17" s="187"/>
+      <c r="H17" s="185"/>
       <c r="I17" s="36"/>
       <c r="J17" s="37"/>
       <c r="K17" s="3"/>
-      <c r="O17" s="183"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="3"/>
-    </row>
-    <row r="18" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="185"/>
+    </row>
+    <row r="18" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="183"/>
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
       <c r="E18" s="3"/>
-      <c r="H18" s="187"/>
+      <c r="H18" s="185"/>
       <c r="I18" s="36"/>
       <c r="J18" s="37"/>
       <c r="K18" s="3"/>
-      <c r="O18" s="183"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="3"/>
-    </row>
-    <row r="19" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="185"/>
+    </row>
+    <row r="19" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="183"/>
       <c r="C19" s="36"/>
       <c r="D19" s="37"/>
       <c r="E19" s="3"/>
-      <c r="H19" s="187"/>
+      <c r="H19" s="185"/>
       <c r="I19" s="36"/>
       <c r="J19" s="37"/>
       <c r="K19" s="3"/>
-      <c r="O19" s="183"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="185"/>
+    </row>
+    <row r="20" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="183"/>
       <c r="C20" s="36"/>
       <c r="D20" s="37"/>
       <c r="E20" s="3"/>
-      <c r="H20" s="187"/>
+      <c r="H20" s="185"/>
       <c r="I20" s="36"/>
       <c r="J20" s="37"/>
       <c r="K20" s="3"/>
-      <c r="O20" s="183"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="3"/>
-    </row>
-    <row r="21" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="185"/>
+    </row>
+    <row r="21" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="183"/>
       <c r="C21" s="36"/>
       <c r="D21" s="37"/>
       <c r="E21" s="3"/>
-      <c r="H21" s="187"/>
+      <c r="H21" s="185"/>
       <c r="I21" s="36"/>
       <c r="J21" s="37"/>
       <c r="K21" s="3"/>
-      <c r="O21" s="183"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="3"/>
-    </row>
-    <row r="22" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="185"/>
+    </row>
+    <row r="22" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="183"/>
       <c r="C22" s="36"/>
       <c r="D22" s="37"/>
       <c r="E22" s="3"/>
-      <c r="H22" s="187"/>
+      <c r="H22" s="185"/>
       <c r="I22" s="36"/>
       <c r="J22" s="37"/>
       <c r="K22" s="3"/>
-      <c r="O22" s="183"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="3"/>
-    </row>
-    <row r="23" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="185"/>
+    </row>
+    <row r="23" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="183"/>
       <c r="C23" s="36"/>
       <c r="D23" s="37"/>
       <c r="E23" s="3"/>
-      <c r="H23" s="187"/>
+      <c r="H23" s="185"/>
       <c r="I23" s="36"/>
       <c r="J23" s="37"/>
       <c r="K23" s="3"/>
-      <c r="O23" s="183"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="3"/>
-    </row>
-    <row r="24" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="185"/>
+    </row>
+    <row r="24" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="183"/>
       <c r="C24" s="36"/>
       <c r="D24" s="37"/>
       <c r="E24" s="3"/>
-      <c r="H24" s="187"/>
+      <c r="H24" s="185"/>
       <c r="I24" s="36"/>
       <c r="J24" s="37"/>
       <c r="K24" s="3"/>
-      <c r="O24" s="183"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="3"/>
-    </row>
-    <row r="25" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="185"/>
+    </row>
+    <row r="25" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="183"/>
       <c r="C25" s="36"/>
       <c r="D25" s="37"/>
       <c r="E25" s="3"/>
-      <c r="H25" s="187"/>
+      <c r="H25" s="185"/>
       <c r="I25" s="36"/>
       <c r="J25" s="37"/>
       <c r="K25" s="3"/>
-      <c r="O25" s="183"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="3"/>
-    </row>
-    <row r="26" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="185"/>
+    </row>
+    <row r="26" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="183"/>
       <c r="C26" s="36"/>
       <c r="D26" s="37"/>
       <c r="E26" s="3"/>
-      <c r="H26" s="187"/>
+      <c r="H26" s="185"/>
       <c r="I26" s="36"/>
       <c r="J26" s="37"/>
       <c r="K26" s="3"/>
-      <c r="O26" s="183"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="3"/>
-    </row>
-    <row r="27" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="185"/>
+    </row>
+    <row r="27" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="183"/>
       <c r="C27" s="153" t="s">
         <v>3</v>
       </c>
@@ -5702,24 +5562,16 @@
         <f>SUM(D5:D12)</f>
         <v>150000</v>
       </c>
-      <c r="H27" s="187"/>
+      <c r="H27" s="185"/>
       <c r="I27" s="153" t="s">
         <v>3</v>
       </c>
       <c r="J27" s="154">
         <f>SUM(J5:J12)</f>
-        <v>270000</v>
-      </c>
-      <c r="O27" s="183"/>
-      <c r="P27" s="153" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="154">
-        <f>SUM(Q5:Q12)</f>
         <v>30000</v>
       </c>
     </row>
-    <row r="28" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="64"/>
       <c r="C28" s="121"/>
       <c r="D28" s="49">
@@ -5731,21 +5583,13 @@
       <c r="H28" s="64"/>
       <c r="I28" s="121"/>
       <c r="J28" s="49">
-        <v>-281129</v>
+        <v>67769</v>
       </c>
       <c r="K28" s="152">
-        <v>44891</v>
-      </c>
-      <c r="O28" s="64"/>
-      <c r="P28" s="121"/>
-      <c r="Q28" s="49">
-        <v>67769</v>
-      </c>
-      <c r="R28" s="152">
         <v>44873</v>
       </c>
     </row>
-    <row r="29" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B29" s="64"/>
       <c r="C29" s="65"/>
       <c r="D29" s="49">
@@ -5758,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="K29" s="124"/>
-      <c r="O29" s="64"/>
-      <c r="P29" s="65"/>
-      <c r="Q29" s="49">
-        <v>0</v>
-      </c>
-      <c r="R29" s="124"/>
-    </row>
-    <row r="30" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="84"/>
       <c r="D30" s="29">
         <v>0</v>
@@ -5774,12 +5612,8 @@
       <c r="J30" s="29">
         <v>0</v>
       </c>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C31" s="33" t="s">
         <v>4</v>
       </c>
@@ -5792,17 +5626,10 @@
       </c>
       <c r="J31" s="34">
         <f>J30+J27+J28+J29</f>
-        <v>-11129</v>
-      </c>
-      <c r="P31" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q31" s="34">
-        <f>Q30+Q27+Q28+Q29</f>
         <v>97769</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
       <c r="D32" s="2" t="s">
         <v>7</v>
@@ -5811,30 +5638,22 @@
       <c r="J32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="2:11" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C35" s="1"/>
       <c r="D35" s="117"/>
       <c r="I35" s="1"/>
       <c r="J35" s="117"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="117"/>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="118"/>
       <c r="C43" s="118"/>
       <c r="D43" s="119"/>
@@ -5843,12 +5662,8 @@
       <c r="I43" s="118"/>
       <c r="J43" s="119"/>
       <c r="K43" s="118"/>
-      <c r="O43" s="118"/>
-      <c r="P43" s="118"/>
-      <c r="Q43" s="119"/>
-      <c r="R43" s="118"/>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="118"/>
       <c r="C44" s="118"/>
       <c r="D44" s="119"/>
@@ -5857,12 +5672,8 @@
       <c r="I44" s="118"/>
       <c r="J44" s="119"/>
       <c r="K44" s="118"/>
-      <c r="O44" s="118"/>
-      <c r="P44" s="118"/>
-      <c r="Q44" s="119"/>
-      <c r="R44" s="118"/>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="118"/>
       <c r="C45" s="118"/>
       <c r="D45" s="119"/>
@@ -5871,12 +5682,8 @@
       <c r="I45" s="118"/>
       <c r="J45" s="119"/>
       <c r="K45" s="118"/>
-      <c r="O45" s="118"/>
-      <c r="P45" s="118"/>
-      <c r="Q45" s="119"/>
-      <c r="R45" s="118"/>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="118"/>
       <c r="C46" s="118"/>
       <c r="D46" s="119"/>
@@ -5885,12 +5692,8 @@
       <c r="I46" s="118"/>
       <c r="J46" s="119"/>
       <c r="K46" s="118"/>
-      <c r="O46" s="118"/>
-      <c r="P46" s="118"/>
-      <c r="Q46" s="119"/>
-      <c r="R46" s="118"/>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="120"/>
       <c r="C47" s="120"/>
       <c r="D47" s="120"/>
@@ -5899,12 +5702,8 @@
       <c r="I47" s="120"/>
       <c r="J47" s="120"/>
       <c r="K47" s="120"/>
-      <c r="O47" s="120"/>
-      <c r="P47" s="120"/>
-      <c r="Q47" s="120"/>
-      <c r="R47" s="120"/>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="120"/>
       <c r="C48" s="120"/>
       <c r="D48" s="120"/>
@@ -5913,12 +5712,8 @@
       <c r="I48" s="120"/>
       <c r="J48" s="120"/>
       <c r="K48" s="120"/>
-      <c r="O48" s="120"/>
-      <c r="P48" s="120"/>
-      <c r="Q48" s="120"/>
-      <c r="R48" s="120"/>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" s="120"/>
       <c r="C49" s="120"/>
       <c r="D49" s="120"/>
@@ -5927,12 +5722,8 @@
       <c r="I49" s="120"/>
       <c r="J49" s="120"/>
       <c r="K49" s="120"/>
-      <c r="O49" s="120"/>
-      <c r="P49" s="120"/>
-      <c r="Q49" s="120"/>
-      <c r="R49" s="120"/>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="120"/>
       <c r="C50" s="120"/>
       <c r="D50" s="120"/>
@@ -5941,12 +5732,8 @@
       <c r="I50" s="120"/>
       <c r="J50" s="120"/>
       <c r="K50" s="120"/>
-      <c r="O50" s="120"/>
-      <c r="P50" s="120"/>
-      <c r="Q50" s="120"/>
-      <c r="R50" s="120"/>
-    </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51" s="120"/>
       <c r="C51" s="120"/>
       <c r="D51" s="120"/>
@@ -5955,12 +5742,8 @@
       <c r="I51" s="120"/>
       <c r="J51" s="120"/>
       <c r="K51" s="120"/>
-      <c r="O51" s="120"/>
-      <c r="P51" s="120"/>
-      <c r="Q51" s="120"/>
-      <c r="R51" s="120"/>
-    </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" s="118"/>
       <c r="C52" s="118"/>
       <c r="D52" s="119"/>
@@ -5969,12 +5752,8 @@
       <c r="I52" s="118"/>
       <c r="J52" s="119"/>
       <c r="K52" s="118"/>
-      <c r="O52" s="118"/>
-      <c r="P52" s="118"/>
-      <c r="Q52" s="119"/>
-      <c r="R52" s="118"/>
-    </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" s="118"/>
       <c r="C53" s="118"/>
       <c r="D53" s="119"/>
@@ -5983,12 +5762,8 @@
       <c r="I53" s="118"/>
       <c r="J53" s="119"/>
       <c r="K53" s="118"/>
-      <c r="O53" s="118"/>
-      <c r="P53" s="118"/>
-      <c r="Q53" s="119"/>
-      <c r="R53" s="118"/>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54" s="118"/>
       <c r="C54" s="118"/>
       <c r="D54" s="119"/>
@@ -5997,12 +5772,8 @@
       <c r="I54" s="118"/>
       <c r="J54" s="119"/>
       <c r="K54" s="118"/>
-      <c r="O54" s="118"/>
-      <c r="P54" s="118"/>
-      <c r="Q54" s="119"/>
-      <c r="R54" s="118"/>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" s="118"/>
       <c r="C55" s="118"/>
       <c r="D55" s="119"/>
@@ -6011,23 +5782,16 @@
       <c r="I55" s="118"/>
       <c r="J55" s="119"/>
       <c r="K55" s="118"/>
-      <c r="O55" s="118"/>
-      <c r="P55" s="118"/>
-      <c r="Q55" s="119"/>
-      <c r="R55" s="118"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="7">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="B2:B27"/>
+    <mergeCell ref="I9:K10"/>
     <mergeCell ref="H2:H27"/>
-    <mergeCell ref="P9:R10"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:K3"/>
-    <mergeCell ref="O2:O27"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6212,8 +5976,8 @@
   </sheetPr>
   <dimension ref="A1:XFD131"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6237,12 +6001,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="188" t="s">
+      <c r="B3" s="186" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="190"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="188"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
     </row>
@@ -7462,11 +7226,11 @@
         <v>-659691.4</v>
       </c>
       <c r="E123" s="100"/>
-      <c r="G123" s="191">
+      <c r="G123" s="189">
         <f>D121+D122+D123+D124</f>
         <v>-8718896</v>
       </c>
-      <c r="H123" s="192"/>
+      <c r="H123" s="190"/>
     </row>
     <row r="124" spans="1:8 16384:16384" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="110"/>
@@ -7478,8 +7242,8 @@
         <v>-1241668.1599999999</v>
       </c>
       <c r="E124" s="100"/>
-      <c r="G124" s="193"/>
-      <c r="H124" s="194"/>
+      <c r="G124" s="191"/>
+      <c r="H124" s="192"/>
     </row>
     <row r="125" spans="1:8 16384:16384" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="111"/>
@@ -7560,23 +7324,23 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="197" t="s">
+      <c r="B2" s="195" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="200" t="s">
+      <c r="C2" s="198" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="201"/>
+      <c r="D2" s="199"/>
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="198"/>
+      <c r="B3" s="196"/>
       <c r="C3" s="156"/>
       <c r="D3" s="156"/>
       <c r="E3" s="157"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="199"/>
+      <c r="B4" s="197"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -7614,13 +7378,13 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="195"/>
+      <c r="B8" s="193"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="196"/>
+      <c r="B9" s="194"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -7813,7 +7577,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="182" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -7823,13 +7587,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="185"/>
+      <c r="B3" s="183"/>
       <c r="C3" s="155"/>
       <c r="D3" s="156"/>
       <c r="E3" s="157"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="185"/>
+      <c r="B4" s="183"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -7837,7 +7601,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="185"/>
+      <c r="B5" s="183"/>
       <c r="C5" s="47">
         <v>44380</v>
       </c>
@@ -7847,7 +7611,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="202"/>
+      <c r="B6" s="200"/>
       <c r="C6" s="36">
         <v>44396</v>
       </c>
@@ -7863,7 +7627,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="195" t="s">
+      <c r="B8" s="193" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="36">
@@ -7875,7 +7639,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="196"/>
+      <c r="B9" s="194"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -8078,7 +7842,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="182" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -8086,7 +7850,7 @@
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="17"/>
-      <c r="I2" s="184" t="s">
+      <c r="I2" s="182" t="s">
         <v>74</v>
       </c>
       <c r="J2" s="15" t="s">
@@ -8096,23 +7860,23 @@
       <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="185"/>
+      <c r="A3" s="183"/>
       <c r="B3" s="155"/>
       <c r="C3" s="156"/>
       <c r="D3" s="157"/>
-      <c r="I3" s="185"/>
+      <c r="I3" s="183"/>
       <c r="J3" s="155"/>
       <c r="K3" s="156"/>
       <c r="L3" s="157"/>
     </row>
     <row r="4" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="185"/>
+      <c r="A4" s="183"/>
       <c r="B4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="23"/>
-      <c r="I4" s="185"/>
+      <c r="I4" s="183"/>
       <c r="J4" s="21" t="s">
         <v>2</v>
       </c>
@@ -8120,7 +7884,7 @@
       <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
+      <c r="A5" s="183"/>
       <c r="B5" s="47">
         <v>44935</v>
       </c>
@@ -8128,7 +7892,7 @@
         <v>49000</v>
       </c>
       <c r="D5" s="28"/>
-      <c r="I5" s="185"/>
+      <c r="I5" s="183"/>
       <c r="J5" s="47">
         <v>44621</v>
       </c>
@@ -8138,11 +7902,11 @@
       <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
+      <c r="A6" s="183"/>
       <c r="B6" s="36"/>
       <c r="C6" s="37"/>
       <c r="D6" s="27"/>
-      <c r="I6" s="202"/>
+      <c r="I6" s="200"/>
       <c r="J6" s="36">
         <v>44656</v>
       </c>
@@ -8152,7 +7916,7 @@
       <c r="L6" s="27"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="183"/>
       <c r="B7" s="36"/>
       <c r="C7" s="37"/>
       <c r="D7" s="41"/>
@@ -8162,13 +7926,13 @@
       <c r="L7" s="41"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
+      <c r="A8" s="183"/>
       <c r="B8" s="36"/>
       <c r="C8" s="37">
         <v>0</v>
       </c>
       <c r="D8" s="27"/>
-      <c r="I8" s="195"/>
+      <c r="I8" s="193"/>
       <c r="J8" s="36"/>
       <c r="K8" s="37">
         <v>0</v>
@@ -8176,17 +7940,17 @@
       <c r="L8" s="27"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
+      <c r="A9" s="183"/>
       <c r="B9" s="93"/>
       <c r="C9" s="77"/>
       <c r="D9" s="27"/>
-      <c r="I9" s="196"/>
+      <c r="I9" s="194"/>
       <c r="J9" s="93"/>
       <c r="K9" s="77"/>
       <c r="L9" s="27"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
+      <c r="A10" s="183"/>
       <c r="B10" s="93"/>
       <c r="C10" s="77"/>
       <c r="D10" s="27"/>
@@ -8196,7 +7960,7 @@
       <c r="L10" s="27"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
+      <c r="A11" s="183"/>
       <c r="B11" s="93"/>
       <c r="C11" s="77"/>
       <c r="D11" s="27"/>
@@ -8206,7 +7970,7 @@
       <c r="L11" s="27"/>
     </row>
     <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="202"/>
+      <c r="A12" s="200"/>
       <c r="B12" s="38"/>
       <c r="C12" s="39">
         <v>0</v>
@@ -8507,12 +8271,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="188" t="s">
+      <c r="B3" s="186" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="190"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="188"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
     </row>
@@ -9631,11 +9395,11 @@
       <c r="E117" s="100">
         <v>44264</v>
       </c>
-      <c r="G117" s="191">
+      <c r="G117" s="189">
         <f>D115+D116+D117+D118</f>
         <v>-7492427.9600000009</v>
       </c>
-      <c r="H117" s="192"/>
+      <c r="H117" s="190"/>
     </row>
     <row r="118" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="110"/>
@@ -9649,8 +9413,8 @@
       <c r="E118" s="100">
         <v>44264</v>
       </c>
-      <c r="G118" s="193"/>
-      <c r="H118" s="194"/>
+      <c r="G118" s="191"/>
+      <c r="H118" s="192"/>
     </row>
     <row r="119" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="111"/>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="18375" windowHeight="13620" firstSheet="18" activeTab="19"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="18375" windowHeight="13620" firstSheet="17" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="JARCERIAS REMODELACION " sheetId="1" r:id="rId1"/>
@@ -1270,6 +1270,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1279,36 +1309,6 @@
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1348,6 +1348,24 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="19" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="19" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="19" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="19" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="19" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="19" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1398,24 +1416,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="19" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="19" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="19" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="19" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="19" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="19" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3448,18 +3448,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="158" t="s">
+      <c r="C3" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="158"/>
+      <c r="D3" s="168"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="164" t="s">
+      <c r="C4" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="164"/>
+      <c r="D4" s="159"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3469,10 +3469,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="159" t="s">
+      <c r="B6" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="160"/>
+      <c r="C6" s="170"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3489,10 +3489,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="161" t="s">
+      <c r="B8" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="162"/>
+      <c r="C8" s="167"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3509,10 +3509,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="161" t="s">
+      <c r="B10" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="162"/>
+      <c r="C10" s="167"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3529,10 +3529,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="161" t="s">
+      <c r="B12" s="166" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="162"/>
+      <c r="C12" s="167"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3549,10 +3549,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="161" t="s">
+      <c r="B14" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="162"/>
+      <c r="C14" s="167"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3569,10 +3569,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="165" t="s">
+      <c r="B16" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="166"/>
+      <c r="C16" s="161"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3589,14 +3589,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="165" t="s">
+      <c r="B18" s="160" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="166"/>
+      <c r="C18" s="161"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="167" t="s">
+      <c r="E18" s="162" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3606,7 +3606,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="168"/>
+      <c r="E19" s="163"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3617,10 +3617,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="165" t="s">
+      <c r="B21" s="160" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="166"/>
+      <c r="C21" s="161"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3637,10 +3637,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="169" t="s">
+      <c r="B23" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="170"/>
+      <c r="C23" s="165"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3657,10 +3657,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="163" t="s">
+      <c r="B25" s="158" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="163"/>
+      <c r="C25" s="158"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3711,6 +3711,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3719,11 +3724,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5253,8 +5253,8 @@
   </sheetPr>
   <dimension ref="B1:K55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E18" sqref="E17:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="D2" s="181"/>
       <c r="E2" s="17"/>
-      <c r="H2" s="184" t="s">
+      <c r="H2" s="190" t="s">
         <v>94</v>
       </c>
       <c r="I2" s="180" t="s">
@@ -5292,7 +5292,7 @@
       <c r="C3" s="156"/>
       <c r="D3" s="156"/>
       <c r="E3" s="157"/>
-      <c r="H3" s="185"/>
+      <c r="H3" s="191"/>
       <c r="I3" s="156"/>
       <c r="J3" s="156"/>
       <c r="K3" s="157"/>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
-      <c r="H4" s="185"/>
+      <c r="H4" s="191"/>
       <c r="I4" s="21" t="s">
         <v>2</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>50000</v>
       </c>
       <c r="E5" s="28"/>
-      <c r="H5" s="185"/>
+      <c r="H5" s="191"/>
       <c r="I5" s="47">
         <v>44873</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>50000</v>
       </c>
       <c r="E6" s="27"/>
-      <c r="H6" s="185"/>
+      <c r="H6" s="191"/>
       <c r="I6" s="36"/>
       <c r="J6" s="37"/>
       <c r="K6" s="27"/>
@@ -5352,17 +5352,21 @@
         <v>50000</v>
       </c>
       <c r="E7" s="41"/>
-      <c r="H7" s="185"/>
+      <c r="H7" s="191"/>
       <c r="I7" s="36"/>
       <c r="J7" s="37"/>
       <c r="K7" s="41"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="183"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
+      <c r="C8" s="36">
+        <v>44968</v>
+      </c>
+      <c r="D8" s="37">
+        <v>50000</v>
+      </c>
       <c r="E8" s="27"/>
-      <c r="H8" s="185"/>
+      <c r="H8" s="191"/>
       <c r="I8" s="36"/>
       <c r="J8" s="37"/>
       <c r="K8" s="27"/>
@@ -5372,29 +5376,29 @@
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
-      <c r="H9" s="185"/>
-      <c r="I9" s="201" t="s">
+      <c r="H9" s="191"/>
+      <c r="I9" s="184" t="s">
         <v>95</v>
       </c>
-      <c r="J9" s="202"/>
-      <c r="K9" s="203"/>
+      <c r="J9" s="185"/>
+      <c r="K9" s="186"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="183"/>
       <c r="C10" s="93"/>
       <c r="D10" s="77"/>
       <c r="E10" s="27"/>
-      <c r="H10" s="185"/>
-      <c r="I10" s="204"/>
-      <c r="J10" s="205"/>
-      <c r="K10" s="206"/>
+      <c r="H10" s="191"/>
+      <c r="I10" s="187"/>
+      <c r="J10" s="188"/>
+      <c r="K10" s="189"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="183"/>
       <c r="C11" s="93"/>
       <c r="D11" s="77"/>
       <c r="E11" s="27"/>
-      <c r="H11" s="185"/>
+      <c r="H11" s="191"/>
       <c r="I11" s="93"/>
       <c r="J11" s="77"/>
       <c r="K11" s="27"/>
@@ -5406,7 +5410,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="146"/>
-      <c r="H12" s="185"/>
+      <c r="H12" s="191"/>
       <c r="I12" s="36"/>
       <c r="J12" s="37">
         <v>0</v>
@@ -5418,7 +5422,7 @@
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
       <c r="E13" s="3"/>
-      <c r="H13" s="185"/>
+      <c r="H13" s="191"/>
       <c r="I13" s="36"/>
       <c r="J13" s="37"/>
       <c r="K13" s="3"/>
@@ -5428,7 +5432,7 @@
       <c r="C14" s="36"/>
       <c r="D14" s="37"/>
       <c r="E14" s="3"/>
-      <c r="H14" s="185"/>
+      <c r="H14" s="191"/>
       <c r="I14" s="36"/>
       <c r="J14" s="37"/>
       <c r="K14" s="3"/>
@@ -5438,7 +5442,7 @@
       <c r="C15" s="36"/>
       <c r="D15" s="37"/>
       <c r="E15" s="3"/>
-      <c r="H15" s="185"/>
+      <c r="H15" s="191"/>
       <c r="I15" s="36"/>
       <c r="J15" s="37"/>
       <c r="K15" s="3"/>
@@ -5448,7 +5452,7 @@
       <c r="C16" s="36"/>
       <c r="D16" s="37"/>
       <c r="E16" s="3"/>
-      <c r="H16" s="185"/>
+      <c r="H16" s="191"/>
       <c r="I16" s="36"/>
       <c r="J16" s="37"/>
       <c r="K16" s="3"/>
@@ -5458,7 +5462,7 @@
       <c r="C17" s="36"/>
       <c r="D17" s="37"/>
       <c r="E17" s="3"/>
-      <c r="H17" s="185"/>
+      <c r="H17" s="191"/>
       <c r="I17" s="36"/>
       <c r="J17" s="37"/>
       <c r="K17" s="3"/>
@@ -5468,7 +5472,7 @@
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
       <c r="E18" s="3"/>
-      <c r="H18" s="185"/>
+      <c r="H18" s="191"/>
       <c r="I18" s="36"/>
       <c r="J18" s="37"/>
       <c r="K18" s="3"/>
@@ -5478,7 +5482,7 @@
       <c r="C19" s="36"/>
       <c r="D19" s="37"/>
       <c r="E19" s="3"/>
-      <c r="H19" s="185"/>
+      <c r="H19" s="191"/>
       <c r="I19" s="36"/>
       <c r="J19" s="37"/>
       <c r="K19" s="3"/>
@@ -5488,7 +5492,7 @@
       <c r="C20" s="36"/>
       <c r="D20" s="37"/>
       <c r="E20" s="3"/>
-      <c r="H20" s="185"/>
+      <c r="H20" s="191"/>
       <c r="I20" s="36"/>
       <c r="J20" s="37"/>
       <c r="K20" s="3"/>
@@ -5498,7 +5502,7 @@
       <c r="C21" s="36"/>
       <c r="D21" s="37"/>
       <c r="E21" s="3"/>
-      <c r="H21" s="185"/>
+      <c r="H21" s="191"/>
       <c r="I21" s="36"/>
       <c r="J21" s="37"/>
       <c r="K21" s="3"/>
@@ -5508,7 +5512,7 @@
       <c r="C22" s="36"/>
       <c r="D22" s="37"/>
       <c r="E22" s="3"/>
-      <c r="H22" s="185"/>
+      <c r="H22" s="191"/>
       <c r="I22" s="36"/>
       <c r="J22" s="37"/>
       <c r="K22" s="3"/>
@@ -5518,7 +5522,7 @@
       <c r="C23" s="36"/>
       <c r="D23" s="37"/>
       <c r="E23" s="3"/>
-      <c r="H23" s="185"/>
+      <c r="H23" s="191"/>
       <c r="I23" s="36"/>
       <c r="J23" s="37"/>
       <c r="K23" s="3"/>
@@ -5528,7 +5532,7 @@
       <c r="C24" s="36"/>
       <c r="D24" s="37"/>
       <c r="E24" s="3"/>
-      <c r="H24" s="185"/>
+      <c r="H24" s="191"/>
       <c r="I24" s="36"/>
       <c r="J24" s="37"/>
       <c r="K24" s="3"/>
@@ -5538,7 +5542,7 @@
       <c r="C25" s="36"/>
       <c r="D25" s="37"/>
       <c r="E25" s="3"/>
-      <c r="H25" s="185"/>
+      <c r="H25" s="191"/>
       <c r="I25" s="36"/>
       <c r="J25" s="37"/>
       <c r="K25" s="3"/>
@@ -5548,7 +5552,7 @@
       <c r="C26" s="36"/>
       <c r="D26" s="37"/>
       <c r="E26" s="3"/>
-      <c r="H26" s="185"/>
+      <c r="H26" s="191"/>
       <c r="I26" s="36"/>
       <c r="J26" s="37"/>
       <c r="K26" s="3"/>
@@ -5560,9 +5564,9 @@
       </c>
       <c r="D27" s="154">
         <f>SUM(D5:D12)</f>
-        <v>150000</v>
-      </c>
-      <c r="H27" s="185"/>
+        <v>200000</v>
+      </c>
+      <c r="H27" s="191"/>
       <c r="I27" s="153" t="s">
         <v>3</v>
       </c>
@@ -5619,7 +5623,7 @@
       </c>
       <c r="D31" s="34">
         <f>D30+D27+D28+D29</f>
-        <v>-413480</v>
+        <v>-363480</v>
       </c>
       <c r="I31" s="33" t="s">
         <v>4</v>
@@ -5976,8 +5980,8 @@
   </sheetPr>
   <dimension ref="A1:XFD131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6001,12 +6005,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="186" t="s">
+      <c r="B3" s="192" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="188"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="194"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
     </row>
@@ -7168,9 +7172,11 @@
     </row>
     <row r="118" spans="1:8 16384:16384" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B118" s="122"/>
-      <c r="C118" s="123"/>
+      <c r="C118" s="123">
+        <v>44964</v>
+      </c>
       <c r="D118" s="13">
-        <v>0</v>
+        <v>21129</v>
       </c>
       <c r="E118" s="122"/>
     </row>
@@ -7183,11 +7189,11 @@
       </c>
       <c r="D119" s="25">
         <f>SUM(D5:D118)</f>
-        <v>10820428.73</v>
+        <v>10841557.73</v>
       </c>
       <c r="XFD119">
         <f>SUM(A119:XFC119)</f>
-        <v>10820428.73</v>
+        <v>10841557.73</v>
       </c>
     </row>
     <row r="120" spans="1:8 16384:16384" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7226,11 +7232,11 @@
         <v>-659691.4</v>
       </c>
       <c r="E123" s="100"/>
-      <c r="G123" s="189">
+      <c r="G123" s="195">
         <f>D121+D122+D123+D124</f>
         <v>-8718896</v>
       </c>
-      <c r="H123" s="190"/>
+      <c r="H123" s="196"/>
     </row>
     <row r="124" spans="1:8 16384:16384" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="110"/>
@@ -7242,8 +7248,8 @@
         <v>-1241668.1599999999</v>
       </c>
       <c r="E124" s="100"/>
-      <c r="G124" s="191"/>
-      <c r="H124" s="192"/>
+      <c r="G124" s="197"/>
+      <c r="H124" s="198"/>
     </row>
     <row r="125" spans="1:8 16384:16384" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="111"/>
@@ -7271,7 +7277,7 @@
       </c>
       <c r="D127" s="116">
         <f>D123+D119+D121+D122+D124+D125+D126</f>
-        <v>-21129.019999999553</v>
+        <v>-1.9999999552965164E-2</v>
       </c>
     </row>
     <row r="128" spans="1:8 16384:16384" x14ac:dyDescent="0.25">
@@ -7324,23 +7330,23 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="201" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="198" t="s">
+      <c r="C2" s="204" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="199"/>
+      <c r="D2" s="205"/>
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="196"/>
+      <c r="B3" s="202"/>
       <c r="C3" s="156"/>
       <c r="D3" s="156"/>
       <c r="E3" s="157"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="197"/>
+      <c r="B4" s="203"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -7378,13 +7384,13 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="193"/>
+      <c r="B8" s="199"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="194"/>
+      <c r="B9" s="200"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -7611,7 +7617,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="200"/>
+      <c r="B6" s="206"/>
       <c r="C6" s="36">
         <v>44396</v>
       </c>
@@ -7627,7 +7633,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="193" t="s">
+      <c r="B8" s="199" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="36">
@@ -7639,7 +7645,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="194"/>
+      <c r="B9" s="200"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -7906,7 +7912,7 @@
       <c r="B6" s="36"/>
       <c r="C6" s="37"/>
       <c r="D6" s="27"/>
-      <c r="I6" s="200"/>
+      <c r="I6" s="206"/>
       <c r="J6" s="36">
         <v>44656</v>
       </c>
@@ -7932,7 +7938,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="27"/>
-      <c r="I8" s="193"/>
+      <c r="I8" s="199"/>
       <c r="J8" s="36"/>
       <c r="K8" s="37">
         <v>0</v>
@@ -7944,7 +7950,7 @@
       <c r="B9" s="93"/>
       <c r="C9" s="77"/>
       <c r="D9" s="27"/>
-      <c r="I9" s="194"/>
+      <c r="I9" s="200"/>
       <c r="J9" s="93"/>
       <c r="K9" s="77"/>
       <c r="L9" s="27"/>
@@ -7970,7 +7976,7 @@
       <c r="L11" s="27"/>
     </row>
     <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="200"/>
+      <c r="A12" s="206"/>
       <c r="B12" s="38"/>
       <c r="C12" s="39">
         <v>0</v>
@@ -8271,12 +8277,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="186" t="s">
+      <c r="B3" s="192" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="188"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="194"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
     </row>
@@ -9395,11 +9401,11 @@
       <c r="E117" s="100">
         <v>44264</v>
       </c>
-      <c r="G117" s="189">
+      <c r="G117" s="195">
         <f>D115+D116+D117+D118</f>
         <v>-7492427.9600000009</v>
       </c>
-      <c r="H117" s="190"/>
+      <c r="H117" s="196"/>
     </row>
     <row r="118" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="110"/>
@@ -9413,8 +9419,8 @@
       <c r="E118" s="100">
         <v>44264</v>
       </c>
-      <c r="G118" s="191"/>
-      <c r="H118" s="192"/>
+      <c r="G118" s="197"/>
+      <c r="H118" s="198"/>
     </row>
     <row r="119" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="111"/>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1270,6 +1270,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1292,21 +1307,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3448,18 +3448,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="168" t="s">
+      <c r="C3" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="168"/>
+      <c r="D3" s="158"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="159" t="s">
+      <c r="C4" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="159"/>
+      <c r="D4" s="164"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3469,10 +3469,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="169" t="s">
+      <c r="B6" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="170"/>
+      <c r="C6" s="160"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3489,10 +3489,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="166" t="s">
+      <c r="B8" s="161" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="167"/>
+      <c r="C8" s="162"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3509,10 +3509,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="166" t="s">
+      <c r="B10" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="167"/>
+      <c r="C10" s="162"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3529,10 +3529,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="166" t="s">
+      <c r="B12" s="161" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="167"/>
+      <c r="C12" s="162"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3549,10 +3549,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="166" t="s">
+      <c r="B14" s="161" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="167"/>
+      <c r="C14" s="162"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3569,10 +3569,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="160" t="s">
+      <c r="B16" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="161"/>
+      <c r="C16" s="166"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3589,14 +3589,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="160" t="s">
+      <c r="B18" s="165" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="161"/>
+      <c r="C18" s="166"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="162" t="s">
+      <c r="E18" s="167" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3606,7 +3606,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="163"/>
+      <c r="E19" s="168"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3617,10 +3617,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="160" t="s">
+      <c r="B21" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="161"/>
+      <c r="C21" s="166"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3637,10 +3637,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="164" t="s">
+      <c r="B23" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="165"/>
+      <c r="C23" s="170"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3657,10 +3657,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="158" t="s">
+      <c r="B25" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="158"/>
+      <c r="C25" s="163"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3711,11 +3711,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3724,6 +3719,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5254,7 +5254,7 @@
   <dimension ref="B1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E17:E18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5373,8 +5373,12 @@
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="183"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="77"/>
+      <c r="C9" s="93">
+        <v>44975</v>
+      </c>
+      <c r="D9" s="77">
+        <v>50000</v>
+      </c>
       <c r="E9" s="27"/>
       <c r="H9" s="191"/>
       <c r="I9" s="184" t="s">
@@ -5564,7 +5568,7 @@
       </c>
       <c r="D27" s="154">
         <f>SUM(D5:D12)</f>
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="H27" s="191"/>
       <c r="I27" s="153" t="s">
@@ -5623,7 +5627,7 @@
       </c>
       <c r="D31" s="34">
         <f>D30+D27+D28+D29</f>
-        <v>-363480</v>
+        <v>-313480</v>
       </c>
       <c r="I31" s="33" t="s">
         <v>4</v>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -5254,7 +5254,7 @@
   <dimension ref="B1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5389,8 +5389,12 @@
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="183"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="77"/>
+      <c r="C10" s="93">
+        <v>44982</v>
+      </c>
+      <c r="D10" s="77">
+        <v>50000</v>
+      </c>
       <c r="E10" s="27"/>
       <c r="H10" s="191"/>
       <c r="I10" s="187"/>
@@ -5399,8 +5403,12 @@
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="183"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="77"/>
+      <c r="C11" s="93">
+        <v>44989</v>
+      </c>
+      <c r="D11" s="77">
+        <v>0</v>
+      </c>
       <c r="E11" s="27"/>
       <c r="H11" s="191"/>
       <c r="I11" s="93"/>
@@ -5568,7 +5576,7 @@
       </c>
       <c r="D27" s="154">
         <f>SUM(D5:D12)</f>
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="H27" s="191"/>
       <c r="I27" s="153" t="s">
@@ -5627,7 +5635,7 @@
       </c>
       <c r="D31" s="34">
         <f>D30+D27+D28+D29</f>
-        <v>-313480</v>
+        <v>-263480</v>
       </c>
       <c r="I31" s="33" t="s">
         <v>4</v>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -5254,7 +5254,7 @@
   <dimension ref="B1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5407,7 +5407,7 @@
         <v>44989</v>
       </c>
       <c r="D11" s="77">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="E11" s="27"/>
       <c r="H11" s="191"/>
@@ -5417,9 +5417,11 @@
     </row>
     <row r="12" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="183"/>
-      <c r="C12" s="38"/>
+      <c r="C12" s="38">
+        <v>44989</v>
+      </c>
       <c r="D12" s="39">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="E12" s="146"/>
       <c r="H12" s="191"/>
@@ -5576,7 +5578,7 @@
       </c>
       <c r="D27" s="154">
         <f>SUM(D5:D12)</f>
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="H27" s="191"/>
       <c r="I27" s="153" t="s">
@@ -5635,7 +5637,7 @@
       </c>
       <c r="D31" s="34">
         <f>D30+D27+D28+D29</f>
-        <v>-263480</v>
+        <v>-163480</v>
       </c>
       <c r="I31" s="33" t="s">
         <v>4</v>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="97">
   <si>
     <t xml:space="preserve">PAGOS  SOBRE REMODELACION </t>
   </si>
@@ -350,6 +350,9 @@
   </si>
   <si>
     <t>YA NO SE REALIZO TODO EL TRABAJO</t>
+  </si>
+  <si>
+    <t>AMPLIACION OBRADOR CIMENTACION MURO CONTENCION-RAMPA Y SELLO ANDEN-COLADERAS Y LAVAMANSO DE PEDAL-PINTURA-RIELERIA INERIOR CAMARA-ESTRUCTURA P-SOPORTE DE RIELERIA-RIENELERIA EXT- CERDO Y RES-CAJA-C-BAÑO---</t>
   </si>
 </sst>
 </file>
@@ -965,7 +968,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1261,6 +1264,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1415,6 +1421,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2840,17 +2867,17 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="155" t="s">
+      <c r="C3" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="156"/>
-      <c r="E3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="158"/>
       <c r="H3" s="50"/>
-      <c r="I3" s="155" t="s">
+      <c r="I3" s="156" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="156"/>
-      <c r="K3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="158"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3290,11 +3317,11 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="155" t="s">
+      <c r="C3" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="156"/>
-      <c r="E3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="158"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3448,18 +3475,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="158" t="s">
+      <c r="C3" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="158"/>
+      <c r="D3" s="159"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="164" t="s">
+      <c r="C4" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="164"/>
+      <c r="D4" s="165"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3469,10 +3496,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="159" t="s">
+      <c r="B6" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="160"/>
+      <c r="C6" s="161"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3489,10 +3516,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="161" t="s">
+      <c r="B8" s="162" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="162"/>
+      <c r="C8" s="163"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3509,10 +3536,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="161" t="s">
+      <c r="B10" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="162"/>
+      <c r="C10" s="163"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3529,10 +3556,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="161" t="s">
+      <c r="B12" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="162"/>
+      <c r="C12" s="163"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3549,10 +3576,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="161" t="s">
+      <c r="B14" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="162"/>
+      <c r="C14" s="163"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3569,10 +3596,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="165" t="s">
+      <c r="B16" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="166"/>
+      <c r="C16" s="167"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3589,14 +3616,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="165" t="s">
+      <c r="B18" s="166" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="166"/>
+      <c r="C18" s="167"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="167" t="s">
+      <c r="E18" s="168" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3606,7 +3633,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="168"/>
+      <c r="E19" s="169"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3617,10 +3644,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="165" t="s">
+      <c r="B21" s="166" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="166"/>
+      <c r="C21" s="167"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3637,10 +3664,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="169" t="s">
+      <c r="B23" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="170"/>
+      <c r="C23" s="171"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3657,10 +3684,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="163" t="s">
+      <c r="B25" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="163"/>
+      <c r="C25" s="164"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3762,11 +3789,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="155" t="s">
+      <c r="C3" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="156"/>
-      <c r="E3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="158"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3967,11 +3994,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="155" t="s">
+      <c r="C3" s="156" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="156"/>
-      <c r="E3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="158"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4156,11 +4183,11 @@
     </row>
     <row r="3" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="50"/>
-      <c r="C3" s="155" t="s">
+      <c r="C3" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="156"/>
-      <c r="E3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="158"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4364,9 +4391,9 @@
       <c r="B3" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="157"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="158"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4597,9 +4624,9 @@
       <c r="B3" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="157"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="158"/>
     </row>
     <row r="4" spans="2:5" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4957,36 +4984,36 @@
     </row>
     <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="171" t="s">
+      <c r="B57" s="172" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="172"/>
-      <c r="D57" s="172"/>
-      <c r="E57" s="173"/>
+      <c r="C57" s="173"/>
+      <c r="D57" s="173"/>
+      <c r="E57" s="174"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="174"/>
-      <c r="C58" s="175"/>
-      <c r="D58" s="175"/>
-      <c r="E58" s="176"/>
+      <c r="B58" s="175"/>
+      <c r="C58" s="176"/>
+      <c r="D58" s="176"/>
+      <c r="E58" s="177"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="174"/>
-      <c r="C59" s="175"/>
-      <c r="D59" s="175"/>
-      <c r="E59" s="176"/>
+      <c r="B59" s="175"/>
+      <c r="C59" s="176"/>
+      <c r="D59" s="176"/>
+      <c r="E59" s="177"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="174"/>
-      <c r="C60" s="175"/>
-      <c r="D60" s="175"/>
-      <c r="E60" s="176"/>
+      <c r="B60" s="175"/>
+      <c r="C60" s="176"/>
+      <c r="D60" s="176"/>
+      <c r="E60" s="177"/>
     </row>
     <row r="61" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="177"/>
-      <c r="C61" s="178"/>
-      <c r="D61" s="178"/>
-      <c r="E61" s="179"/>
+      <c r="B61" s="178"/>
+      <c r="C61" s="179"/>
+      <c r="D61" s="179"/>
+      <c r="E61" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5031,9 +5058,9 @@
       <c r="B3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="157"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="158"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -5251,10 +5278,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B1:K55"/>
+  <dimension ref="B1:R55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5263,553 +5290,767 @@
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="182" t="s">
+    <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:18" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="212" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="182" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="182"/>
+      <c r="E2" s="17"/>
+      <c r="I2" s="183" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="180" t="s">
+      <c r="J2" s="181" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="181"/>
-      <c r="E2" s="17"/>
-      <c r="H2" s="190" t="s">
+      <c r="K2" s="182"/>
+      <c r="L2" s="17"/>
+      <c r="O2" s="191" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="180" t="s">
+      <c r="P2" s="181" t="s">
         <v>80</v>
       </c>
-      <c r="J2" s="181"/>
-      <c r="K2" s="17"/>
-    </row>
-    <row r="3" spans="2:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="183"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="157"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
+      <c r="Q2" s="182"/>
+      <c r="R2" s="17"/>
+    </row>
+    <row r="3" spans="2:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="213"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="158"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="157"/>
       <c r="K3" s="157"/>
-    </row>
-    <row r="4" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="183"/>
+      <c r="L3" s="158"/>
+      <c r="O3" s="192"/>
+      <c r="P3" s="157"/>
+      <c r="Q3" s="157"/>
+      <c r="R3" s="158"/>
+    </row>
+    <row r="4" spans="2:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="213"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
-      <c r="H4" s="191"/>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="184"/>
+      <c r="J4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="23"/>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="183"/>
-      <c r="C5" s="47">
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
+      <c r="O4" s="192"/>
+      <c r="P4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="23"/>
+    </row>
+    <row r="5" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="213"/>
+      <c r="C5" s="208"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="I5" s="184"/>
+      <c r="J5" s="47">
         <v>44947</v>
       </c>
-      <c r="D5" s="28">
-        <v>50000</v>
-      </c>
-      <c r="E5" s="28"/>
-      <c r="H5" s="191"/>
-      <c r="I5" s="47">
+      <c r="K5" s="28">
+        <v>50000</v>
+      </c>
+      <c r="L5" s="28"/>
+      <c r="O5" s="192"/>
+      <c r="P5" s="47">
         <v>44873</v>
       </c>
-      <c r="J5" s="28">
+      <c r="Q5" s="28">
         <v>30000</v>
       </c>
-      <c r="K5" s="28"/>
-    </row>
-    <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="183"/>
-      <c r="C6" s="36">
+      <c r="R5" s="28"/>
+    </row>
+    <row r="6" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="213"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="27"/>
+      <c r="I6" s="184"/>
+      <c r="J6" s="36">
         <v>44954</v>
       </c>
-      <c r="D6" s="37">
-        <v>50000</v>
-      </c>
-      <c r="E6" s="27"/>
-      <c r="H6" s="191"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="27"/>
-    </row>
-    <row r="7" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="183"/>
-      <c r="C7" s="36">
+      <c r="K6" s="37">
+        <v>50000</v>
+      </c>
+      <c r="L6" s="27"/>
+      <c r="O6" s="192"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="27"/>
+    </row>
+    <row r="7" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="213"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="41"/>
+      <c r="I7" s="184"/>
+      <c r="J7" s="36">
         <v>44961</v>
       </c>
-      <c r="D7" s="37">
-        <v>50000</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="H7" s="191"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="41"/>
-    </row>
-    <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="183"/>
-      <c r="C8" s="36">
+      <c r="K7" s="37">
+        <v>50000</v>
+      </c>
+      <c r="L7" s="41"/>
+      <c r="O7" s="192"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="41"/>
+    </row>
+    <row r="8" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="213"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="27"/>
+      <c r="I8" s="184"/>
+      <c r="J8" s="36">
         <v>44968</v>
       </c>
-      <c r="D8" s="37">
-        <v>50000</v>
-      </c>
-      <c r="E8" s="27"/>
-      <c r="H8" s="191"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="27"/>
-    </row>
-    <row r="9" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="183"/>
-      <c r="C9" s="93">
+      <c r="K8" s="37">
+        <v>50000</v>
+      </c>
+      <c r="L8" s="27"/>
+      <c r="O8" s="192"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="27"/>
+    </row>
+    <row r="9" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="213"/>
+      <c r="C9" s="209"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="27"/>
+      <c r="I9" s="184"/>
+      <c r="J9" s="93">
         <v>44975</v>
       </c>
-      <c r="D9" s="77">
-        <v>50000</v>
-      </c>
-      <c r="E9" s="27"/>
-      <c r="H9" s="191"/>
-      <c r="I9" s="184" t="s">
+      <c r="K9" s="77">
+        <v>50000</v>
+      </c>
+      <c r="L9" s="27"/>
+      <c r="O9" s="192"/>
+      <c r="P9" s="185" t="s">
         <v>95</v>
       </c>
-      <c r="J9" s="185"/>
-      <c r="K9" s="186"/>
-    </row>
-    <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="183"/>
-      <c r="C10" s="93">
+      <c r="Q9" s="186"/>
+      <c r="R9" s="187"/>
+    </row>
+    <row r="10" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="213"/>
+      <c r="C10" s="209"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="27"/>
+      <c r="I10" s="184"/>
+      <c r="J10" s="93">
         <v>44982</v>
       </c>
-      <c r="D10" s="77">
-        <v>50000</v>
-      </c>
-      <c r="E10" s="27"/>
-      <c r="H10" s="191"/>
-      <c r="I10" s="187"/>
-      <c r="J10" s="188"/>
-      <c r="K10" s="189"/>
-    </row>
-    <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="183"/>
-      <c r="C11" s="93">
+      <c r="K10" s="77">
+        <v>50000</v>
+      </c>
+      <c r="L10" s="27"/>
+      <c r="O10" s="192"/>
+      <c r="P10" s="188"/>
+      <c r="Q10" s="189"/>
+      <c r="R10" s="190"/>
+    </row>
+    <row r="11" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="213"/>
+      <c r="C11" s="209"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="27"/>
+      <c r="I11" s="184"/>
+      <c r="J11" s="93">
         <v>44989</v>
       </c>
-      <c r="D11" s="77">
-        <v>50000</v>
-      </c>
-      <c r="E11" s="27"/>
-      <c r="H11" s="191"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="27"/>
-    </row>
-    <row r="12" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="183"/>
-      <c r="C12" s="38">
+      <c r="K11" s="77">
+        <v>50000</v>
+      </c>
+      <c r="L11" s="27"/>
+      <c r="O11" s="192"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="27"/>
+    </row>
+    <row r="12" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="213"/>
+      <c r="C12" s="210"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="146"/>
+      <c r="I12" s="184"/>
+      <c r="J12" s="38">
         <v>44989</v>
       </c>
-      <c r="D12" s="39">
-        <v>50000</v>
-      </c>
-      <c r="E12" s="146"/>
-      <c r="H12" s="191"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="37">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="183"/>
-      <c r="C13" s="36"/>
+      <c r="K12" s="39">
+        <v>50000</v>
+      </c>
+      <c r="L12" s="146"/>
+      <c r="O12" s="192"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="37">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="213"/>
+      <c r="C13" s="155"/>
       <c r="D13" s="37"/>
       <c r="E13" s="3"/>
-      <c r="H13" s="191"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="183"/>
-      <c r="C14" s="36"/>
+      <c r="I13" s="184"/>
+      <c r="J13" s="36">
+        <v>44996</v>
+      </c>
+      <c r="K13" s="37">
+        <v>50000</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="O13" s="192"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="213"/>
+      <c r="C14" s="155"/>
       <c r="D14" s="37"/>
       <c r="E14" s="3"/>
-      <c r="H14" s="191"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="183"/>
-      <c r="C15" s="36"/>
+      <c r="I14" s="184"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="3"/>
+      <c r="O14" s="192"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="213"/>
+      <c r="C15" s="155"/>
       <c r="D15" s="37"/>
       <c r="E15" s="3"/>
-      <c r="H15" s="191"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="183"/>
-      <c r="C16" s="36"/>
+      <c r="I15" s="184"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="3"/>
+      <c r="O15" s="192"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="213"/>
+      <c r="C16" s="155"/>
       <c r="D16" s="37"/>
       <c r="E16" s="3"/>
-      <c r="H16" s="191"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="183"/>
-      <c r="C17" s="36"/>
+      <c r="I16" s="184"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="3"/>
+      <c r="O16" s="192"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="213"/>
+      <c r="C17" s="155"/>
       <c r="D17" s="37"/>
       <c r="E17" s="3"/>
-      <c r="H17" s="191"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="183"/>
-      <c r="C18" s="36"/>
+      <c r="I17" s="184"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="3"/>
+      <c r="O17" s="192"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="213"/>
+      <c r="C18" s="155"/>
       <c r="D18" s="37"/>
       <c r="E18" s="3"/>
-      <c r="H18" s="191"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="183"/>
-      <c r="C19" s="36"/>
+      <c r="I18" s="184"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="3"/>
+      <c r="O18" s="192"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="213"/>
+      <c r="C19" s="155"/>
       <c r="D19" s="37"/>
       <c r="E19" s="3"/>
-      <c r="H19" s="191"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="183"/>
-      <c r="C20" s="36"/>
+      <c r="I19" s="184"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="3"/>
+      <c r="O19" s="192"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="213"/>
+      <c r="C20" s="155"/>
       <c r="D20" s="37"/>
       <c r="E20" s="3"/>
-      <c r="H20" s="191"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="183"/>
-      <c r="C21" s="36"/>
+      <c r="I20" s="184"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="3"/>
+      <c r="O20" s="192"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="213"/>
+      <c r="C21" s="155"/>
       <c r="D21" s="37"/>
       <c r="E21" s="3"/>
-      <c r="H21" s="191"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="183"/>
-      <c r="C22" s="36"/>
+      <c r="I21" s="184"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="3"/>
+      <c r="O21" s="192"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="213"/>
+      <c r="C22" s="155"/>
       <c r="D22" s="37"/>
       <c r="E22" s="3"/>
-      <c r="H22" s="191"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="183"/>
-      <c r="C23" s="36"/>
+      <c r="I22" s="184"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="3"/>
+      <c r="O22" s="192"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="213"/>
+      <c r="C23" s="155"/>
       <c r="D23" s="37"/>
       <c r="E23" s="3"/>
-      <c r="H23" s="191"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="183"/>
-      <c r="C24" s="36"/>
+      <c r="I23" s="184"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="3"/>
+      <c r="O23" s="192"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="213"/>
+      <c r="C24" s="155"/>
       <c r="D24" s="37"/>
       <c r="E24" s="3"/>
-      <c r="H24" s="191"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="183"/>
-      <c r="C25" s="36"/>
+      <c r="I24" s="184"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="3"/>
+      <c r="O24" s="192"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="3"/>
+    </row>
+    <row r="25" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="213"/>
+      <c r="C25" s="155"/>
       <c r="D25" s="37"/>
       <c r="E25" s="3"/>
-      <c r="H25" s="191"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="183"/>
-      <c r="C26" s="36"/>
+      <c r="I25" s="184"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="3"/>
+      <c r="O25" s="192"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="3"/>
+    </row>
+    <row r="26" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="213"/>
+      <c r="C26" s="155"/>
       <c r="D26" s="37"/>
       <c r="E26" s="3"/>
-      <c r="H26" s="191"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="183"/>
-      <c r="C27" s="153" t="s">
+      <c r="I26" s="184"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="3"/>
+      <c r="O26" s="192"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="3"/>
+    </row>
+    <row r="27" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="214"/>
+      <c r="C27" s="211" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="154">
-        <f>SUM(D5:D12)</f>
-        <v>400000</v>
-      </c>
-      <c r="H27" s="191"/>
-      <c r="I27" s="153" t="s">
+        <f>SUM(D5:D13)</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="184"/>
+      <c r="J27" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="J27" s="154">
-        <f>SUM(J5:J12)</f>
+      <c r="K27" s="154">
+        <f>SUM(K5:K13)</f>
+        <v>450000</v>
+      </c>
+      <c r="O27" s="192"/>
+      <c r="P27" s="153" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="154">
+        <f>SUM(Q5:Q12)</f>
         <v>30000</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="64"/>
       <c r="C28" s="121"/>
       <c r="D28" s="49">
+        <v>-1330318.2</v>
+      </c>
+      <c r="E28" s="152">
+        <v>44996</v>
+      </c>
+      <c r="I28" s="64"/>
+      <c r="J28" s="121"/>
+      <c r="K28" s="49">
         <v>-563480</v>
       </c>
-      <c r="E28" s="152">
+      <c r="L28" s="152">
         <v>44947</v>
       </c>
-      <c r="H28" s="64"/>
-      <c r="I28" s="121"/>
-      <c r="J28" s="49">
+      <c r="O28" s="64"/>
+      <c r="P28" s="121"/>
+      <c r="Q28" s="49">
         <v>67769</v>
       </c>
-      <c r="K28" s="152">
+      <c r="R28" s="152">
         <v>44873</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B29" s="64"/>
       <c r="C29" s="65"/>
       <c r="D29" s="49">
         <v>0</v>
       </c>
       <c r="E29" s="124"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="49">
-        <v>0</v>
-      </c>
-      <c r="K29" s="124"/>
-    </row>
-    <row r="30" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I29" s="64"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="49">
+        <v>0</v>
+      </c>
+      <c r="L29" s="124"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="65"/>
+      <c r="Q29" s="49">
+        <v>0</v>
+      </c>
+      <c r="R29" s="124"/>
+    </row>
+    <row r="30" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="84"/>
       <c r="D30" s="29">
         <v>0</v>
       </c>
-      <c r="I30" s="84"/>
-      <c r="J30" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J30" s="84"/>
+      <c r="K30" s="29">
+        <v>0</v>
+      </c>
+      <c r="P30" s="84"/>
+      <c r="Q30" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C31" s="33" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="34">
         <f>D30+D27+D28+D29</f>
-        <v>-163480</v>
-      </c>
-      <c r="I31" s="33" t="s">
+        <v>-1330318.2</v>
+      </c>
+      <c r="J31" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="J31" s="34">
-        <f>J30+J27+J28+J29</f>
+      <c r="K31" s="34">
+        <f>K30+K27+K28+K29</f>
+        <v>-113480</v>
+      </c>
+      <c r="P31" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q31" s="34">
+        <f>Q30+Q27+Q28+Q29</f>
         <v>97769</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
       <c r="D32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="1"/>
+      <c r="K32" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="P32" s="1"/>
+      <c r="Q32" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="J33" s="1"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C35" s="1"/>
       <c r="D35" s="117"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="117"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J35" s="1"/>
+      <c r="K35" s="117"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="117"/>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="118"/>
       <c r="C43" s="118"/>
       <c r="D43" s="119"/>
       <c r="E43" s="118"/>
-      <c r="H43" s="118"/>
       <c r="I43" s="118"/>
-      <c r="J43" s="119"/>
-      <c r="K43" s="118"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J43" s="118"/>
+      <c r="K43" s="119"/>
+      <c r="L43" s="118"/>
+      <c r="O43" s="118"/>
+      <c r="P43" s="118"/>
+      <c r="Q43" s="119"/>
+      <c r="R43" s="118"/>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="118"/>
       <c r="C44" s="118"/>
       <c r="D44" s="119"/>
       <c r="E44" s="118"/>
-      <c r="H44" s="118"/>
       <c r="I44" s="118"/>
-      <c r="J44" s="119"/>
-      <c r="K44" s="118"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J44" s="118"/>
+      <c r="K44" s="119"/>
+      <c r="L44" s="118"/>
+      <c r="O44" s="118"/>
+      <c r="P44" s="118"/>
+      <c r="Q44" s="119"/>
+      <c r="R44" s="118"/>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="118"/>
       <c r="C45" s="118"/>
       <c r="D45" s="119"/>
       <c r="E45" s="118"/>
-      <c r="H45" s="118"/>
       <c r="I45" s="118"/>
-      <c r="J45" s="119"/>
-      <c r="K45" s="118"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J45" s="118"/>
+      <c r="K45" s="119"/>
+      <c r="L45" s="118"/>
+      <c r="O45" s="118"/>
+      <c r="P45" s="118"/>
+      <c r="Q45" s="119"/>
+      <c r="R45" s="118"/>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B46" s="118"/>
       <c r="C46" s="118"/>
       <c r="D46" s="119"/>
       <c r="E46" s="118"/>
-      <c r="H46" s="118"/>
       <c r="I46" s="118"/>
-      <c r="J46" s="119"/>
-      <c r="K46" s="118"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J46" s="118"/>
+      <c r="K46" s="119"/>
+      <c r="L46" s="118"/>
+      <c r="O46" s="118"/>
+      <c r="P46" s="118"/>
+      <c r="Q46" s="119"/>
+      <c r="R46" s="118"/>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B47" s="120"/>
       <c r="C47" s="120"/>
       <c r="D47" s="120"/>
       <c r="E47" s="120"/>
-      <c r="H47" s="120"/>
       <c r="I47" s="120"/>
       <c r="J47" s="120"/>
       <c r="K47" s="120"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L47" s="120"/>
+      <c r="O47" s="120"/>
+      <c r="P47" s="120"/>
+      <c r="Q47" s="120"/>
+      <c r="R47" s="120"/>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48" s="120"/>
       <c r="C48" s="120"/>
       <c r="D48" s="120"/>
       <c r="E48" s="120"/>
-      <c r="H48" s="120"/>
       <c r="I48" s="120"/>
       <c r="J48" s="120"/>
       <c r="K48" s="120"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L48" s="120"/>
+      <c r="O48" s="120"/>
+      <c r="P48" s="120"/>
+      <c r="Q48" s="120"/>
+      <c r="R48" s="120"/>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49" s="120"/>
       <c r="C49" s="120"/>
       <c r="D49" s="120"/>
       <c r="E49" s="120"/>
-      <c r="H49" s="120"/>
       <c r="I49" s="120"/>
       <c r="J49" s="120"/>
       <c r="K49" s="120"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L49" s="120"/>
+      <c r="O49" s="120"/>
+      <c r="P49" s="120"/>
+      <c r="Q49" s="120"/>
+      <c r="R49" s="120"/>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="120"/>
       <c r="C50" s="120"/>
       <c r="D50" s="120"/>
       <c r="E50" s="120"/>
-      <c r="H50" s="120"/>
       <c r="I50" s="120"/>
       <c r="J50" s="120"/>
       <c r="K50" s="120"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L50" s="120"/>
+      <c r="O50" s="120"/>
+      <c r="P50" s="120"/>
+      <c r="Q50" s="120"/>
+      <c r="R50" s="120"/>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="120"/>
       <c r="C51" s="120"/>
       <c r="D51" s="120"/>
       <c r="E51" s="120"/>
-      <c r="H51" s="120"/>
       <c r="I51" s="120"/>
       <c r="J51" s="120"/>
       <c r="K51" s="120"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L51" s="120"/>
+      <c r="O51" s="120"/>
+      <c r="P51" s="120"/>
+      <c r="Q51" s="120"/>
+      <c r="R51" s="120"/>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="118"/>
       <c r="C52" s="118"/>
       <c r="D52" s="119"/>
       <c r="E52" s="118"/>
-      <c r="H52" s="118"/>
       <c r="I52" s="118"/>
-      <c r="J52" s="119"/>
-      <c r="K52" s="118"/>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J52" s="118"/>
+      <c r="K52" s="119"/>
+      <c r="L52" s="118"/>
+      <c r="O52" s="118"/>
+      <c r="P52" s="118"/>
+      <c r="Q52" s="119"/>
+      <c r="R52" s="118"/>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="118"/>
       <c r="C53" s="118"/>
       <c r="D53" s="119"/>
       <c r="E53" s="118"/>
-      <c r="H53" s="118"/>
       <c r="I53" s="118"/>
-      <c r="J53" s="119"/>
-      <c r="K53" s="118"/>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J53" s="118"/>
+      <c r="K53" s="119"/>
+      <c r="L53" s="118"/>
+      <c r="O53" s="118"/>
+      <c r="P53" s="118"/>
+      <c r="Q53" s="119"/>
+      <c r="R53" s="118"/>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B54" s="118"/>
       <c r="C54" s="118"/>
       <c r="D54" s="119"/>
       <c r="E54" s="118"/>
-      <c r="H54" s="118"/>
       <c r="I54" s="118"/>
-      <c r="J54" s="119"/>
-      <c r="K54" s="118"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J54" s="118"/>
+      <c r="K54" s="119"/>
+      <c r="L54" s="118"/>
+      <c r="O54" s="118"/>
+      <c r="P54" s="118"/>
+      <c r="Q54" s="119"/>
+      <c r="R54" s="118"/>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B55" s="118"/>
       <c r="C55" s="118"/>
       <c r="D55" s="119"/>
       <c r="E55" s="118"/>
-      <c r="H55" s="118"/>
       <c r="I55" s="118"/>
-      <c r="J55" s="119"/>
-      <c r="K55" s="118"/>
+      <c r="J55" s="118"/>
+      <c r="K55" s="119"/>
+      <c r="L55" s="118"/>
+      <c r="O55" s="118"/>
+      <c r="P55" s="118"/>
+      <c r="Q55" s="119"/>
+      <c r="R55" s="118"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="B2:B27"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B2:B27"/>
-    <mergeCell ref="I9:K10"/>
-    <mergeCell ref="H2:H27"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="I2:I27"/>
+    <mergeCell ref="P9:R10"/>
+    <mergeCell ref="O2:O27"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6019,12 +6260,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="192" t="s">
+      <c r="B3" s="193" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="194"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="195"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
     </row>
@@ -7246,11 +7487,11 @@
         <v>-659691.4</v>
       </c>
       <c r="E123" s="100"/>
-      <c r="G123" s="195">
+      <c r="G123" s="196">
         <f>D121+D122+D123+D124</f>
         <v>-8718896</v>
       </c>
-      <c r="H123" s="196"/>
+      <c r="H123" s="197"/>
     </row>
     <row r="124" spans="1:8 16384:16384" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="110"/>
@@ -7262,8 +7503,8 @@
         <v>-1241668.1599999999</v>
       </c>
       <c r="E124" s="100"/>
-      <c r="G124" s="197"/>
-      <c r="H124" s="198"/>
+      <c r="G124" s="198"/>
+      <c r="H124" s="199"/>
     </row>
     <row r="125" spans="1:8 16384:16384" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="111"/>
@@ -7344,23 +7585,23 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="202" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="204" t="s">
+      <c r="C2" s="205" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="205"/>
+      <c r="D2" s="206"/>
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="202"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="157"/>
+      <c r="B3" s="203"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="158"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="203"/>
+      <c r="B4" s="204"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -7398,13 +7639,13 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="199"/>
+      <c r="B8" s="200"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="200"/>
+      <c r="B9" s="201"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -7597,7 +7838,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="183" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -7607,13 +7848,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="183"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="157"/>
+      <c r="B3" s="184"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="158"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="183"/>
+      <c r="B4" s="184"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -7621,7 +7862,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="183"/>
+      <c r="B5" s="184"/>
       <c r="C5" s="47">
         <v>44380</v>
       </c>
@@ -7631,7 +7872,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="206"/>
+      <c r="B6" s="207"/>
       <c r="C6" s="36">
         <v>44396</v>
       </c>
@@ -7647,7 +7888,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="199" t="s">
+      <c r="B8" s="200" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="36">
@@ -7659,7 +7900,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="200"/>
+      <c r="B9" s="201"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -7862,7 +8103,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="183" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -7870,7 +8111,7 @@
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="17"/>
-      <c r="I2" s="182" t="s">
+      <c r="I2" s="183" t="s">
         <v>74</v>
       </c>
       <c r="J2" s="15" t="s">
@@ -7880,23 +8121,23 @@
       <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="183"/>
-      <c r="B3" s="155"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="157"/>
-      <c r="I3" s="183"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="157"/>
+      <c r="A3" s="184"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="158"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="157"/>
+      <c r="L3" s="158"/>
     </row>
     <row r="4" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="183"/>
+      <c r="A4" s="184"/>
       <c r="B4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="23"/>
-      <c r="I4" s="183"/>
+      <c r="I4" s="184"/>
       <c r="J4" s="21" t="s">
         <v>2</v>
       </c>
@@ -7904,7 +8145,7 @@
       <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="183"/>
+      <c r="A5" s="184"/>
       <c r="B5" s="47">
         <v>44935</v>
       </c>
@@ -7912,7 +8153,7 @@
         <v>49000</v>
       </c>
       <c r="D5" s="28"/>
-      <c r="I5" s="183"/>
+      <c r="I5" s="184"/>
       <c r="J5" s="47">
         <v>44621</v>
       </c>
@@ -7922,11 +8163,11 @@
       <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="183"/>
+      <c r="A6" s="184"/>
       <c r="B6" s="36"/>
       <c r="C6" s="37"/>
       <c r="D6" s="27"/>
-      <c r="I6" s="206"/>
+      <c r="I6" s="207"/>
       <c r="J6" s="36">
         <v>44656</v>
       </c>
@@ -7936,7 +8177,7 @@
       <c r="L6" s="27"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="183"/>
+      <c r="A7" s="184"/>
       <c r="B7" s="36"/>
       <c r="C7" s="37"/>
       <c r="D7" s="41"/>
@@ -7946,13 +8187,13 @@
       <c r="L7" s="41"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="183"/>
+      <c r="A8" s="184"/>
       <c r="B8" s="36"/>
       <c r="C8" s="37">
         <v>0</v>
       </c>
       <c r="D8" s="27"/>
-      <c r="I8" s="199"/>
+      <c r="I8" s="200"/>
       <c r="J8" s="36"/>
       <c r="K8" s="37">
         <v>0</v>
@@ -7960,17 +8201,17 @@
       <c r="L8" s="27"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="183"/>
+      <c r="A9" s="184"/>
       <c r="B9" s="93"/>
       <c r="C9" s="77"/>
       <c r="D9" s="27"/>
-      <c r="I9" s="200"/>
+      <c r="I9" s="201"/>
       <c r="J9" s="93"/>
       <c r="K9" s="77"/>
       <c r="L9" s="27"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="183"/>
+      <c r="A10" s="184"/>
       <c r="B10" s="93"/>
       <c r="C10" s="77"/>
       <c r="D10" s="27"/>
@@ -7980,7 +8221,7 @@
       <c r="L10" s="27"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="183"/>
+      <c r="A11" s="184"/>
       <c r="B11" s="93"/>
       <c r="C11" s="77"/>
       <c r="D11" s="27"/>
@@ -7990,7 +8231,7 @@
       <c r="L11" s="27"/>
     </row>
     <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="206"/>
+      <c r="A12" s="207"/>
       <c r="B12" s="38"/>
       <c r="C12" s="39">
         <v>0</v>
@@ -8291,12 +8532,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="192" t="s">
+      <c r="B3" s="193" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="194"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="195"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
     </row>
@@ -9415,11 +9656,11 @@
       <c r="E117" s="100">
         <v>44264</v>
       </c>
-      <c r="G117" s="195">
+      <c r="G117" s="196">
         <f>D115+D116+D117+D118</f>
         <v>-7492427.9600000009</v>
       </c>
-      <c r="H117" s="196"/>
+      <c r="H117" s="197"/>
     </row>
     <row r="118" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="110"/>
@@ -9433,8 +9674,8 @@
       <c r="E118" s="100">
         <v>44264</v>
       </c>
-      <c r="G118" s="197"/>
-      <c r="H118" s="198"/>
+      <c r="G118" s="198"/>
+      <c r="H118" s="199"/>
     </row>
     <row r="119" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="111"/>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -968,7 +968,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1267,6 +1267,18 @@
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1276,6 +1288,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1285,36 +1327,6 @@
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1342,12 +1354,21 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1423,27 +1444,25 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2867,17 +2886,17 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="156" t="s">
+      <c r="C3" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="157"/>
-      <c r="E3" s="158"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="162"/>
       <c r="H3" s="50"/>
-      <c r="I3" s="156" t="s">
+      <c r="I3" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="157"/>
-      <c r="K3" s="158"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="162"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3317,11 +3336,11 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="156" t="s">
+      <c r="C3" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="157"/>
-      <c r="E3" s="158"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="162"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3475,18 +3494,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="159" t="s">
+      <c r="C3" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="159"/>
+      <c r="D3" s="173"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="165" t="s">
+      <c r="C4" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="165"/>
+      <c r="D4" s="164"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3496,10 +3515,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="160" t="s">
+      <c r="B6" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="161"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3516,10 +3535,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="162" t="s">
+      <c r="B8" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="163"/>
+      <c r="C8" s="172"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3536,10 +3555,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="162" t="s">
+      <c r="B10" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="163"/>
+      <c r="C10" s="172"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3556,10 +3575,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="162" t="s">
+      <c r="B12" s="171" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="163"/>
+      <c r="C12" s="172"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3576,10 +3595,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="162" t="s">
+      <c r="B14" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="163"/>
+      <c r="C14" s="172"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3596,10 +3615,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="166" t="s">
+      <c r="B16" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="167"/>
+      <c r="C16" s="166"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3616,14 +3635,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="166" t="s">
+      <c r="B18" s="165" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="167"/>
+      <c r="C18" s="166"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="168" t="s">
+      <c r="E18" s="167" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3633,7 +3652,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="169"/>
+      <c r="E19" s="168"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3644,10 +3663,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="166" t="s">
+      <c r="B21" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="167"/>
+      <c r="C21" s="166"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3664,10 +3683,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="170" t="s">
+      <c r="B23" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="171"/>
+      <c r="C23" s="170"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3684,10 +3703,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="164" t="s">
+      <c r="B25" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="164"/>
+      <c r="C25" s="163"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3738,6 +3757,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3746,11 +3770,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3789,11 +3808,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="156" t="s">
+      <c r="C3" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="157"/>
-      <c r="E3" s="158"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="162"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -3994,11 +4013,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="156" t="s">
+      <c r="C3" s="160" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="157"/>
-      <c r="E3" s="158"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="162"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4183,11 +4202,11 @@
     </row>
     <row r="3" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="50"/>
-      <c r="C3" s="156" t="s">
+      <c r="C3" s="160" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="157"/>
-      <c r="E3" s="158"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="162"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4391,9 +4410,9 @@
       <c r="B3" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="156"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="158"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="162"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4624,9 +4643,9 @@
       <c r="B3" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="156"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="158"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="162"/>
     </row>
     <row r="4" spans="2:5" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4984,36 +5003,36 @@
     </row>
     <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="172" t="s">
+      <c r="B57" s="176" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="173"/>
-      <c r="D57" s="173"/>
-      <c r="E57" s="174"/>
+      <c r="C57" s="177"/>
+      <c r="D57" s="177"/>
+      <c r="E57" s="178"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="175"/>
-      <c r="C58" s="176"/>
-      <c r="D58" s="176"/>
-      <c r="E58" s="177"/>
+      <c r="B58" s="179"/>
+      <c r="C58" s="180"/>
+      <c r="D58" s="180"/>
+      <c r="E58" s="181"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="175"/>
-      <c r="C59" s="176"/>
-      <c r="D59" s="176"/>
-      <c r="E59" s="177"/>
+      <c r="B59" s="179"/>
+      <c r="C59" s="180"/>
+      <c r="D59" s="180"/>
+      <c r="E59" s="181"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="175"/>
-      <c r="C60" s="176"/>
-      <c r="D60" s="176"/>
-      <c r="E60" s="177"/>
+      <c r="B60" s="179"/>
+      <c r="C60" s="180"/>
+      <c r="D60" s="180"/>
+      <c r="E60" s="181"/>
     </row>
     <row r="61" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="178"/>
-      <c r="C61" s="179"/>
-      <c r="D61" s="179"/>
-      <c r="E61" s="180"/>
+      <c r="B61" s="182"/>
+      <c r="C61" s="183"/>
+      <c r="D61" s="183"/>
+      <c r="E61" s="184"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5058,9 +5077,9 @@
       <c r="B3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="156"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="158"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="162"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -5281,7 +5300,7 @@
   <dimension ref="B1:R55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5301,59 +5320,59 @@
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:18" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="212" t="s">
+      <c r="B2" s="185" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="182" t="s">
+      <c r="C2" s="188" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="182"/>
+      <c r="D2" s="188"/>
       <c r="E2" s="17"/>
-      <c r="I2" s="183" t="s">
+      <c r="I2" s="190" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="181" t="s">
+      <c r="J2" s="189" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="182"/>
+      <c r="K2" s="188"/>
       <c r="L2" s="17"/>
-      <c r="O2" s="191" t="s">
+      <c r="O2" s="198" t="s">
         <v>94</v>
       </c>
-      <c r="P2" s="181" t="s">
+      <c r="P2" s="189" t="s">
         <v>80</v>
       </c>
-      <c r="Q2" s="182"/>
+      <c r="Q2" s="188"/>
       <c r="R2" s="17"/>
     </row>
     <row r="3" spans="2:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="213"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="158"/>
-      <c r="I3" s="184"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="158"/>
-      <c r="O3" s="192"/>
-      <c r="P3" s="157"/>
-      <c r="Q3" s="157"/>
-      <c r="R3" s="158"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="162"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="162"/>
+      <c r="O3" s="199"/>
+      <c r="P3" s="161"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="162"/>
     </row>
     <row r="4" spans="2:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="213"/>
+      <c r="B4" s="186"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
-      <c r="I4" s="184"/>
+      <c r="I4" s="191"/>
       <c r="J4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="22"/>
       <c r="L4" s="23"/>
-      <c r="O4" s="192"/>
+      <c r="O4" s="199"/>
       <c r="P4" s="21" t="s">
         <v>2</v>
       </c>
@@ -5361,11 +5380,11 @@
       <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="213"/>
-      <c r="C5" s="208"/>
+      <c r="B5" s="186"/>
+      <c r="C5" s="156"/>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
-      <c r="I5" s="184"/>
+      <c r="I5" s="191"/>
       <c r="J5" s="47">
         <v>44947</v>
       </c>
@@ -5373,7 +5392,7 @@
         <v>50000</v>
       </c>
       <c r="L5" s="28"/>
-      <c r="O5" s="192"/>
+      <c r="O5" s="199"/>
       <c r="P5" s="47">
         <v>44873</v>
       </c>
@@ -5383,11 +5402,11 @@
       <c r="R5" s="28"/>
     </row>
     <row r="6" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="213"/>
+      <c r="B6" s="186"/>
       <c r="C6" s="155"/>
       <c r="D6" s="37"/>
       <c r="E6" s="27"/>
-      <c r="I6" s="184"/>
+      <c r="I6" s="191"/>
       <c r="J6" s="36">
         <v>44954</v>
       </c>
@@ -5395,17 +5414,17 @@
         <v>50000</v>
       </c>
       <c r="L6" s="27"/>
-      <c r="O6" s="192"/>
+      <c r="O6" s="199"/>
       <c r="P6" s="36"/>
       <c r="Q6" s="37"/>
       <c r="R6" s="27"/>
     </row>
     <row r="7" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="213"/>
+      <c r="B7" s="186"/>
       <c r="C7" s="155"/>
       <c r="D7" s="37"/>
       <c r="E7" s="41"/>
-      <c r="I7" s="184"/>
+      <c r="I7" s="191"/>
       <c r="J7" s="36">
         <v>44961</v>
       </c>
@@ -5413,17 +5432,17 @@
         <v>50000</v>
       </c>
       <c r="L7" s="41"/>
-      <c r="O7" s="192"/>
+      <c r="O7" s="199"/>
       <c r="P7" s="36"/>
       <c r="Q7" s="37"/>
       <c r="R7" s="41"/>
     </row>
     <row r="8" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="213"/>
+      <c r="B8" s="186"/>
       <c r="C8" s="155"/>
       <c r="D8" s="37"/>
       <c r="E8" s="27"/>
-      <c r="I8" s="184"/>
+      <c r="I8" s="191"/>
       <c r="J8" s="36">
         <v>44968</v>
       </c>
@@ -5431,17 +5450,17 @@
         <v>50000</v>
       </c>
       <c r="L8" s="27"/>
-      <c r="O8" s="192"/>
+      <c r="O8" s="199"/>
       <c r="P8" s="36"/>
       <c r="Q8" s="37"/>
       <c r="R8" s="27"/>
     </row>
     <row r="9" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="213"/>
-      <c r="C9" s="209"/>
+      <c r="B9" s="186"/>
+      <c r="C9" s="157"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
-      <c r="I9" s="184"/>
+      <c r="I9" s="191"/>
       <c r="J9" s="93">
         <v>44975</v>
       </c>
@@ -5449,19 +5468,19 @@
         <v>50000</v>
       </c>
       <c r="L9" s="27"/>
-      <c r="O9" s="192"/>
-      <c r="P9" s="185" t="s">
+      <c r="O9" s="199"/>
+      <c r="P9" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="Q9" s="186"/>
-      <c r="R9" s="187"/>
+      <c r="Q9" s="193"/>
+      <c r="R9" s="194"/>
     </row>
     <row r="10" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="213"/>
-      <c r="C10" s="209"/>
+      <c r="B10" s="186"/>
+      <c r="C10" s="157"/>
       <c r="D10" s="77"/>
       <c r="E10" s="27"/>
-      <c r="I10" s="184"/>
+      <c r="I10" s="191"/>
       <c r="J10" s="93">
         <v>44982</v>
       </c>
@@ -5469,17 +5488,17 @@
         <v>50000</v>
       </c>
       <c r="L10" s="27"/>
-      <c r="O10" s="192"/>
-      <c r="P10" s="188"/>
-      <c r="Q10" s="189"/>
-      <c r="R10" s="190"/>
+      <c r="O10" s="199"/>
+      <c r="P10" s="195"/>
+      <c r="Q10" s="196"/>
+      <c r="R10" s="197"/>
     </row>
     <row r="11" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="213"/>
-      <c r="C11" s="209"/>
+      <c r="B11" s="186"/>
+      <c r="C11" s="157"/>
       <c r="D11" s="77"/>
       <c r="E11" s="27"/>
-      <c r="I11" s="184"/>
+      <c r="I11" s="191"/>
       <c r="J11" s="93">
         <v>44989</v>
       </c>
@@ -5487,17 +5506,17 @@
         <v>50000</v>
       </c>
       <c r="L11" s="27"/>
-      <c r="O11" s="192"/>
+      <c r="O11" s="199"/>
       <c r="P11" s="93"/>
       <c r="Q11" s="77"/>
       <c r="R11" s="27"/>
     </row>
     <row r="12" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="213"/>
-      <c r="C12" s="210"/>
+      <c r="B12" s="186"/>
+      <c r="C12" s="158"/>
       <c r="D12" s="39"/>
       <c r="E12" s="146"/>
-      <c r="I12" s="184"/>
+      <c r="I12" s="191"/>
       <c r="J12" s="38">
         <v>44989</v>
       </c>
@@ -5505,7 +5524,7 @@
         <v>50000</v>
       </c>
       <c r="L12" s="146"/>
-      <c r="O12" s="192"/>
+      <c r="O12" s="199"/>
       <c r="P12" s="36"/>
       <c r="Q12" s="37">
         <v>0</v>
@@ -5513,11 +5532,11 @@
       <c r="R12" s="3"/>
     </row>
     <row r="13" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="213"/>
+      <c r="B13" s="186"/>
       <c r="C13" s="155"/>
       <c r="D13" s="37"/>
       <c r="E13" s="3"/>
-      <c r="I13" s="184"/>
+      <c r="I13" s="191"/>
       <c r="J13" s="36">
         <v>44996</v>
       </c>
@@ -5525,211 +5544,215 @@
         <v>50000</v>
       </c>
       <c r="L13" s="3"/>
-      <c r="O13" s="192"/>
+      <c r="O13" s="199"/>
       <c r="P13" s="36"/>
       <c r="Q13" s="37"/>
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="213"/>
+      <c r="B14" s="186"/>
       <c r="C14" s="155"/>
       <c r="D14" s="37"/>
       <c r="E14" s="3"/>
-      <c r="I14" s="184"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="37"/>
+      <c r="I14" s="191"/>
+      <c r="J14" s="36">
+        <v>45003</v>
+      </c>
+      <c r="K14" s="37">
+        <v>113480</v>
+      </c>
       <c r="L14" s="3"/>
-      <c r="O14" s="192"/>
+      <c r="O14" s="199"/>
       <c r="P14" s="36"/>
       <c r="Q14" s="37"/>
       <c r="R14" s="3"/>
     </row>
     <row r="15" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="213"/>
+      <c r="B15" s="186"/>
       <c r="C15" s="155"/>
       <c r="D15" s="37"/>
       <c r="E15" s="3"/>
-      <c r="I15" s="184"/>
+      <c r="I15" s="191"/>
       <c r="J15" s="36"/>
       <c r="K15" s="37"/>
       <c r="L15" s="3"/>
-      <c r="O15" s="192"/>
+      <c r="O15" s="199"/>
       <c r="P15" s="36"/>
       <c r="Q15" s="37"/>
       <c r="R15" s="3"/>
     </row>
     <row r="16" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="213"/>
+      <c r="B16" s="186"/>
       <c r="C16" s="155"/>
       <c r="D16" s="37"/>
       <c r="E16" s="3"/>
-      <c r="I16" s="184"/>
+      <c r="I16" s="191"/>
       <c r="J16" s="36"/>
       <c r="K16" s="37"/>
       <c r="L16" s="3"/>
-      <c r="O16" s="192"/>
+      <c r="O16" s="199"/>
       <c r="P16" s="36"/>
       <c r="Q16" s="37"/>
       <c r="R16" s="3"/>
     </row>
     <row r="17" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="213"/>
+      <c r="B17" s="186"/>
       <c r="C17" s="155"/>
       <c r="D17" s="37"/>
       <c r="E17" s="3"/>
-      <c r="I17" s="184"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="37"/>
+      <c r="I17" s="191"/>
+      <c r="J17" s="215"/>
+      <c r="K17" s="216"/>
       <c r="L17" s="3"/>
-      <c r="O17" s="192"/>
+      <c r="O17" s="199"/>
       <c r="P17" s="36"/>
       <c r="Q17" s="37"/>
       <c r="R17" s="3"/>
     </row>
     <row r="18" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="213"/>
+      <c r="B18" s="186"/>
       <c r="C18" s="155"/>
       <c r="D18" s="37"/>
       <c r="E18" s="3"/>
-      <c r="I18" s="184"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="37"/>
+      <c r="I18" s="191"/>
+      <c r="J18" s="215"/>
+      <c r="K18" s="216"/>
       <c r="L18" s="3"/>
-      <c r="O18" s="192"/>
+      <c r="O18" s="199"/>
       <c r="P18" s="36"/>
       <c r="Q18" s="37"/>
       <c r="R18" s="3"/>
     </row>
     <row r="19" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="213"/>
+      <c r="B19" s="186"/>
       <c r="C19" s="155"/>
       <c r="D19" s="37"/>
       <c r="E19" s="3"/>
-      <c r="I19" s="184"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="37"/>
+      <c r="I19" s="191"/>
+      <c r="J19" s="215"/>
+      <c r="K19" s="216"/>
       <c r="L19" s="3"/>
-      <c r="O19" s="192"/>
+      <c r="O19" s="199"/>
       <c r="P19" s="36"/>
       <c r="Q19" s="37"/>
       <c r="R19" s="3"/>
     </row>
     <row r="20" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="213"/>
+      <c r="B20" s="186"/>
       <c r="C20" s="155"/>
       <c r="D20" s="37"/>
       <c r="E20" s="3"/>
-      <c r="I20" s="184"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="37"/>
+      <c r="I20" s="191"/>
+      <c r="J20" s="215"/>
+      <c r="K20" s="216"/>
       <c r="L20" s="3"/>
-      <c r="O20" s="192"/>
+      <c r="O20" s="199"/>
       <c r="P20" s="36"/>
       <c r="Q20" s="37"/>
       <c r="R20" s="3"/>
     </row>
     <row r="21" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="213"/>
+      <c r="B21" s="186"/>
       <c r="C21" s="155"/>
       <c r="D21" s="37"/>
       <c r="E21" s="3"/>
-      <c r="I21" s="184"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="37"/>
+      <c r="I21" s="191"/>
+      <c r="J21" s="215"/>
+      <c r="K21" s="216"/>
       <c r="L21" s="3"/>
-      <c r="O21" s="192"/>
+      <c r="O21" s="199"/>
       <c r="P21" s="36"/>
       <c r="Q21" s="37"/>
       <c r="R21" s="3"/>
     </row>
     <row r="22" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="213"/>
+      <c r="B22" s="186"/>
       <c r="C22" s="155"/>
       <c r="D22" s="37"/>
       <c r="E22" s="3"/>
-      <c r="I22" s="184"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="37"/>
+      <c r="I22" s="191"/>
+      <c r="J22" s="215"/>
+      <c r="K22" s="216"/>
       <c r="L22" s="3"/>
-      <c r="O22" s="192"/>
+      <c r="O22" s="199"/>
       <c r="P22" s="36"/>
       <c r="Q22" s="37"/>
       <c r="R22" s="3"/>
     </row>
     <row r="23" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="213"/>
+      <c r="B23" s="186"/>
       <c r="C23" s="155"/>
       <c r="D23" s="37"/>
       <c r="E23" s="3"/>
-      <c r="I23" s="184"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="37"/>
+      <c r="I23" s="191"/>
+      <c r="J23" s="215"/>
+      <c r="K23" s="216"/>
       <c r="L23" s="3"/>
-      <c r="O23" s="192"/>
+      <c r="O23" s="199"/>
       <c r="P23" s="36"/>
       <c r="Q23" s="37"/>
       <c r="R23" s="3"/>
     </row>
     <row r="24" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="213"/>
+      <c r="B24" s="186"/>
       <c r="C24" s="155"/>
       <c r="D24" s="37"/>
       <c r="E24" s="3"/>
-      <c r="I24" s="184"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="37"/>
+      <c r="I24" s="191"/>
+      <c r="J24" s="215"/>
+      <c r="K24" s="216"/>
       <c r="L24" s="3"/>
-      <c r="O24" s="192"/>
+      <c r="O24" s="199"/>
       <c r="P24" s="36"/>
       <c r="Q24" s="37"/>
       <c r="R24" s="3"/>
     </row>
     <row r="25" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="213"/>
+      <c r="B25" s="186"/>
       <c r="C25" s="155"/>
       <c r="D25" s="37"/>
       <c r="E25" s="3"/>
-      <c r="I25" s="184"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="37"/>
+      <c r="I25" s="191"/>
+      <c r="J25" s="215"/>
+      <c r="K25" s="216"/>
       <c r="L25" s="3"/>
-      <c r="O25" s="192"/>
+      <c r="O25" s="199"/>
       <c r="P25" s="36"/>
       <c r="Q25" s="37"/>
       <c r="R25" s="3"/>
     </row>
     <row r="26" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="213"/>
+      <c r="B26" s="186"/>
       <c r="C26" s="155"/>
       <c r="D26" s="37"/>
       <c r="E26" s="3"/>
-      <c r="I26" s="184"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="37"/>
+      <c r="I26" s="191"/>
+      <c r="J26" s="215"/>
+      <c r="K26" s="216"/>
       <c r="L26" s="3"/>
-      <c r="O26" s="192"/>
+      <c r="O26" s="199"/>
       <c r="P26" s="36"/>
       <c r="Q26" s="37"/>
       <c r="R26" s="3"/>
     </row>
     <row r="27" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="214"/>
-      <c r="C27" s="211" t="s">
+      <c r="B27" s="187"/>
+      <c r="C27" s="159" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="154">
         <f>SUM(D5:D13)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="184"/>
-      <c r="J27" s="153" t="s">
+      <c r="I27" s="191"/>
+      <c r="J27" s="217" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="154">
-        <f>SUM(K5:K13)</f>
-        <v>450000</v>
-      </c>
-      <c r="O27" s="192"/>
+      <c r="K27" s="218">
+        <f>SUM(K5:K14)</f>
+        <v>563480</v>
+      </c>
+      <c r="O27" s="199"/>
       <c r="P27" s="153" t="s">
         <v>3</v>
       </c>
@@ -5748,8 +5771,8 @@
         <v>44996</v>
       </c>
       <c r="I28" s="64"/>
-      <c r="J28" s="121"/>
-      <c r="K28" s="49">
+      <c r="J28" s="219"/>
+      <c r="K28" s="220">
         <v>-563480</v>
       </c>
       <c r="L28" s="152">
@@ -5772,8 +5795,8 @@
       </c>
       <c r="E29" s="124"/>
       <c r="I29" s="64"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="49">
+      <c r="J29" s="221"/>
+      <c r="K29" s="220">
         <v>0</v>
       </c>
       <c r="L29" s="124"/>
@@ -5789,8 +5812,8 @@
       <c r="D30" s="29">
         <v>0</v>
       </c>
-      <c r="J30" s="84"/>
-      <c r="K30" s="29">
+      <c r="J30" s="222"/>
+      <c r="K30" s="223">
         <v>0</v>
       </c>
       <c r="P30" s="84"/>
@@ -5811,7 +5834,7 @@
       </c>
       <c r="K31" s="34">
         <f>K30+K27+K28+K29</f>
-        <v>-113480</v>
+        <v>0</v>
       </c>
       <c r="P31" s="33" t="s">
         <v>4</v>
@@ -6041,16 +6064,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="P9:R10"/>
+    <mergeCell ref="O2:O27"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:R3"/>
     <mergeCell ref="B2:B27"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="I2:I27"/>
-    <mergeCell ref="P9:R10"/>
-    <mergeCell ref="O2:O27"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6260,12 +6283,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="193" t="s">
+      <c r="B3" s="200" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="195"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="202"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
     </row>
@@ -7487,11 +7510,11 @@
         <v>-659691.4</v>
       </c>
       <c r="E123" s="100"/>
-      <c r="G123" s="196">
+      <c r="G123" s="203">
         <f>D121+D122+D123+D124</f>
         <v>-8718896</v>
       </c>
-      <c r="H123" s="197"/>
+      <c r="H123" s="204"/>
     </row>
     <row r="124" spans="1:8 16384:16384" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="110"/>
@@ -7503,8 +7526,8 @@
         <v>-1241668.1599999999</v>
       </c>
       <c r="E124" s="100"/>
-      <c r="G124" s="198"/>
-      <c r="H124" s="199"/>
+      <c r="G124" s="205"/>
+      <c r="H124" s="206"/>
     </row>
     <row r="125" spans="1:8 16384:16384" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="111"/>
@@ -7585,23 +7608,23 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="202" t="s">
+      <c r="B2" s="209" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="205" t="s">
+      <c r="C2" s="212" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="206"/>
+      <c r="D2" s="213"/>
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="203"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="158"/>
+      <c r="B3" s="210"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="162"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="204"/>
+      <c r="B4" s="211"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -7639,13 +7662,13 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="200"/>
+      <c r="B8" s="207"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="201"/>
+      <c r="B9" s="208"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -7838,7 +7861,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="190" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -7848,13 +7871,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="184"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="158"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="162"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="184"/>
+      <c r="B4" s="191"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -7862,7 +7885,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="184"/>
+      <c r="B5" s="191"/>
       <c r="C5" s="47">
         <v>44380</v>
       </c>
@@ -7872,7 +7895,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="207"/>
+      <c r="B6" s="214"/>
       <c r="C6" s="36">
         <v>44396</v>
       </c>
@@ -7888,7 +7911,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="200" t="s">
+      <c r="B8" s="207" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="36">
@@ -7900,7 +7923,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="201"/>
+      <c r="B9" s="208"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -8103,7 +8126,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="190" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -8111,7 +8134,7 @@
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="17"/>
-      <c r="I2" s="183" t="s">
+      <c r="I2" s="190" t="s">
         <v>74</v>
       </c>
       <c r="J2" s="15" t="s">
@@ -8121,23 +8144,23 @@
       <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="184"/>
-      <c r="B3" s="156"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="158"/>
-      <c r="I3" s="184"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="158"/>
+      <c r="A3" s="191"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="162"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="162"/>
     </row>
     <row r="4" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="184"/>
+      <c r="A4" s="191"/>
       <c r="B4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="23"/>
-      <c r="I4" s="184"/>
+      <c r="I4" s="191"/>
       <c r="J4" s="21" t="s">
         <v>2</v>
       </c>
@@ -8145,7 +8168,7 @@
       <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="184"/>
+      <c r="A5" s="191"/>
       <c r="B5" s="47">
         <v>44935</v>
       </c>
@@ -8153,7 +8176,7 @@
         <v>49000</v>
       </c>
       <c r="D5" s="28"/>
-      <c r="I5" s="184"/>
+      <c r="I5" s="191"/>
       <c r="J5" s="47">
         <v>44621</v>
       </c>
@@ -8163,11 +8186,11 @@
       <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="184"/>
+      <c r="A6" s="191"/>
       <c r="B6" s="36"/>
       <c r="C6" s="37"/>
       <c r="D6" s="27"/>
-      <c r="I6" s="207"/>
+      <c r="I6" s="214"/>
       <c r="J6" s="36">
         <v>44656</v>
       </c>
@@ -8177,7 +8200,7 @@
       <c r="L6" s="27"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="184"/>
+      <c r="A7" s="191"/>
       <c r="B7" s="36"/>
       <c r="C7" s="37"/>
       <c r="D7" s="41"/>
@@ -8187,13 +8210,13 @@
       <c r="L7" s="41"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="184"/>
+      <c r="A8" s="191"/>
       <c r="B8" s="36"/>
       <c r="C8" s="37">
         <v>0</v>
       </c>
       <c r="D8" s="27"/>
-      <c r="I8" s="200"/>
+      <c r="I8" s="207"/>
       <c r="J8" s="36"/>
       <c r="K8" s="37">
         <v>0</v>
@@ -8201,17 +8224,17 @@
       <c r="L8" s="27"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="184"/>
+      <c r="A9" s="191"/>
       <c r="B9" s="93"/>
       <c r="C9" s="77"/>
       <c r="D9" s="27"/>
-      <c r="I9" s="201"/>
+      <c r="I9" s="208"/>
       <c r="J9" s="93"/>
       <c r="K9" s="77"/>
       <c r="L9" s="27"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="184"/>
+      <c r="A10" s="191"/>
       <c r="B10" s="93"/>
       <c r="C10" s="77"/>
       <c r="D10" s="27"/>
@@ -8221,7 +8244,7 @@
       <c r="L10" s="27"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="184"/>
+      <c r="A11" s="191"/>
       <c r="B11" s="93"/>
       <c r="C11" s="77"/>
       <c r="D11" s="27"/>
@@ -8231,7 +8254,7 @@
       <c r="L11" s="27"/>
     </row>
     <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="207"/>
+      <c r="A12" s="214"/>
       <c r="B12" s="38"/>
       <c r="C12" s="39">
         <v>0</v>
@@ -8532,12 +8555,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="193" t="s">
+      <c r="B3" s="200" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="195"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="202"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
     </row>
@@ -9656,11 +9679,11 @@
       <c r="E117" s="100">
         <v>44264</v>
       </c>
-      <c r="G117" s="196">
+      <c r="G117" s="203">
         <f>D115+D116+D117+D118</f>
         <v>-7492427.9600000009</v>
       </c>
-      <c r="H117" s="197"/>
+      <c r="H117" s="204"/>
     </row>
     <row r="118" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="110"/>
@@ -9674,8 +9697,8 @@
       <c r="E118" s="100">
         <v>44264</v>
       </c>
-      <c r="G118" s="198"/>
-      <c r="H118" s="199"/>
+      <c r="G118" s="205"/>
+      <c r="H118" s="206"/>
     </row>
     <row r="119" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="111"/>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1279,171 +1279,6 @@
     <xf numFmtId="15" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="19" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="19" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="19" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="19" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="19" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="19" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1463,6 +1298,171 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="19" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="19" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="19" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="19" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="19" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="19" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2886,17 +2886,17 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="160" t="s">
+      <c r="C3" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="161"/>
-      <c r="E3" s="162"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="171"/>
       <c r="H3" s="50"/>
-      <c r="I3" s="160" t="s">
+      <c r="I3" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="161"/>
-      <c r="K3" s="162"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="171"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3336,11 +3336,11 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="160" t="s">
+      <c r="C3" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="161"/>
-      <c r="E3" s="162"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="171"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3494,18 +3494,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="173" t="s">
+      <c r="C3" s="172" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="173"/>
+      <c r="D3" s="172"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="164" t="s">
+      <c r="C4" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="164"/>
+      <c r="D4" s="178"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3515,10 +3515,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="174" t="s">
+      <c r="B6" s="173" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="175"/>
+      <c r="C6" s="174"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3535,10 +3535,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="171" t="s">
+      <c r="B8" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="172"/>
+      <c r="C8" s="176"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3555,10 +3555,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="171" t="s">
+      <c r="B10" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="172"/>
+      <c r="C10" s="176"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3575,10 +3575,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="171" t="s">
+      <c r="B12" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="172"/>
+      <c r="C12" s="176"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3595,10 +3595,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="171" t="s">
+      <c r="B14" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="172"/>
+      <c r="C14" s="176"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3615,10 +3615,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="165" t="s">
+      <c r="B16" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="166"/>
+      <c r="C16" s="180"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3635,14 +3635,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="165" t="s">
+      <c r="B18" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="166"/>
+      <c r="C18" s="180"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="167" t="s">
+      <c r="E18" s="181" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3652,7 +3652,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="168"/>
+      <c r="E19" s="182"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3663,10 +3663,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="165" t="s">
+      <c r="B21" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="166"/>
+      <c r="C21" s="180"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3683,10 +3683,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="169" t="s">
+      <c r="B23" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="170"/>
+      <c r="C23" s="184"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3703,10 +3703,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="163" t="s">
+      <c r="B25" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="163"/>
+      <c r="C25" s="177"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3757,11 +3757,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3770,6 +3765,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3808,11 +3808,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="160" t="s">
+      <c r="C3" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="161"/>
-      <c r="E3" s="162"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="171"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4013,11 +4013,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="160" t="s">
+      <c r="C3" s="169" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="161"/>
-      <c r="E3" s="162"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="171"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4202,11 +4202,11 @@
     </row>
     <row r="3" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="50"/>
-      <c r="C3" s="160" t="s">
+      <c r="C3" s="169" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="161"/>
-      <c r="E3" s="162"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="171"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4410,9 +4410,9 @@
       <c r="B3" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="160"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="162"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="171"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4643,9 +4643,9 @@
       <c r="B3" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="160"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="162"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="171"/>
     </row>
     <row r="4" spans="2:5" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -5003,36 +5003,36 @@
     </row>
     <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="176" t="s">
+      <c r="B57" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="177"/>
-      <c r="D57" s="177"/>
-      <c r="E57" s="178"/>
+      <c r="C57" s="186"/>
+      <c r="D57" s="186"/>
+      <c r="E57" s="187"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="179"/>
-      <c r="C58" s="180"/>
-      <c r="D58" s="180"/>
-      <c r="E58" s="181"/>
+      <c r="B58" s="188"/>
+      <c r="C58" s="189"/>
+      <c r="D58" s="189"/>
+      <c r="E58" s="190"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="179"/>
-      <c r="C59" s="180"/>
-      <c r="D59" s="180"/>
-      <c r="E59" s="181"/>
+      <c r="B59" s="188"/>
+      <c r="C59" s="189"/>
+      <c r="D59" s="189"/>
+      <c r="E59" s="190"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="179"/>
-      <c r="C60" s="180"/>
-      <c r="D60" s="180"/>
-      <c r="E60" s="181"/>
+      <c r="B60" s="188"/>
+      <c r="C60" s="189"/>
+      <c r="D60" s="189"/>
+      <c r="E60" s="190"/>
     </row>
     <row r="61" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="182"/>
-      <c r="C61" s="183"/>
-      <c r="D61" s="183"/>
-      <c r="E61" s="184"/>
+      <c r="B61" s="191"/>
+      <c r="C61" s="192"/>
+      <c r="D61" s="192"/>
+      <c r="E61" s="193"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5077,9 +5077,9 @@
       <c r="B3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="160"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="162"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="171"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -5300,7 +5300,7 @@
   <dimension ref="B1:R55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5320,59 +5320,59 @@
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:18" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="204" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="188" t="s">
+      <c r="C2" s="203" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="188"/>
+      <c r="D2" s="203"/>
       <c r="E2" s="17"/>
-      <c r="I2" s="190" t="s">
+      <c r="I2" s="207" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="189" t="s">
+      <c r="J2" s="202" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="188"/>
+      <c r="K2" s="203"/>
       <c r="L2" s="17"/>
-      <c r="O2" s="198" t="s">
+      <c r="O2" s="200" t="s">
         <v>94</v>
       </c>
-      <c r="P2" s="189" t="s">
+      <c r="P2" s="202" t="s">
         <v>80</v>
       </c>
-      <c r="Q2" s="188"/>
+      <c r="Q2" s="203"/>
       <c r="R2" s="17"/>
     </row>
     <row r="3" spans="2:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="186"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="162"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="162"/>
-      <c r="O3" s="199"/>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="161"/>
-      <c r="R3" s="162"/>
+      <c r="B3" s="205"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="171"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="171"/>
+      <c r="O3" s="201"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="171"/>
     </row>
     <row r="4" spans="2:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="186"/>
+      <c r="B4" s="205"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
-      <c r="I4" s="191"/>
+      <c r="I4" s="208"/>
       <c r="J4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="22"/>
       <c r="L4" s="23"/>
-      <c r="O4" s="199"/>
+      <c r="O4" s="201"/>
       <c r="P4" s="21" t="s">
         <v>2</v>
       </c>
@@ -5380,11 +5380,15 @@
       <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="186"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="28"/>
+      <c r="B5" s="205"/>
+      <c r="C5" s="156">
+        <v>45010</v>
+      </c>
+      <c r="D5" s="28">
+        <v>50000</v>
+      </c>
       <c r="E5" s="28"/>
-      <c r="I5" s="191"/>
+      <c r="I5" s="208"/>
       <c r="J5" s="47">
         <v>44947</v>
       </c>
@@ -5392,7 +5396,7 @@
         <v>50000</v>
       </c>
       <c r="L5" s="28"/>
-      <c r="O5" s="199"/>
+      <c r="O5" s="201"/>
       <c r="P5" s="47">
         <v>44873</v>
       </c>
@@ -5402,11 +5406,11 @@
       <c r="R5" s="28"/>
     </row>
     <row r="6" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="186"/>
+      <c r="B6" s="205"/>
       <c r="C6" s="155"/>
       <c r="D6" s="37"/>
       <c r="E6" s="27"/>
-      <c r="I6" s="191"/>
+      <c r="I6" s="208"/>
       <c r="J6" s="36">
         <v>44954</v>
       </c>
@@ -5414,17 +5418,17 @@
         <v>50000</v>
       </c>
       <c r="L6" s="27"/>
-      <c r="O6" s="199"/>
+      <c r="O6" s="201"/>
       <c r="P6" s="36"/>
       <c r="Q6" s="37"/>
       <c r="R6" s="27"/>
     </row>
     <row r="7" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="186"/>
+      <c r="B7" s="205"/>
       <c r="C7" s="155"/>
       <c r="D7" s="37"/>
       <c r="E7" s="41"/>
-      <c r="I7" s="191"/>
+      <c r="I7" s="208"/>
       <c r="J7" s="36">
         <v>44961</v>
       </c>
@@ -5432,17 +5436,17 @@
         <v>50000</v>
       </c>
       <c r="L7" s="41"/>
-      <c r="O7" s="199"/>
+      <c r="O7" s="201"/>
       <c r="P7" s="36"/>
       <c r="Q7" s="37"/>
       <c r="R7" s="41"/>
     </row>
     <row r="8" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="186"/>
+      <c r="B8" s="205"/>
       <c r="C8" s="155"/>
       <c r="D8" s="37"/>
       <c r="E8" s="27"/>
-      <c r="I8" s="191"/>
+      <c r="I8" s="208"/>
       <c r="J8" s="36">
         <v>44968</v>
       </c>
@@ -5450,17 +5454,17 @@
         <v>50000</v>
       </c>
       <c r="L8" s="27"/>
-      <c r="O8" s="199"/>
+      <c r="O8" s="201"/>
       <c r="P8" s="36"/>
       <c r="Q8" s="37"/>
       <c r="R8" s="27"/>
     </row>
     <row r="9" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="186"/>
+      <c r="B9" s="205"/>
       <c r="C9" s="157"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
-      <c r="I9" s="191"/>
+      <c r="I9" s="208"/>
       <c r="J9" s="93">
         <v>44975</v>
       </c>
@@ -5468,19 +5472,19 @@
         <v>50000</v>
       </c>
       <c r="L9" s="27"/>
-      <c r="O9" s="199"/>
-      <c r="P9" s="192" t="s">
+      <c r="O9" s="201"/>
+      <c r="P9" s="194" t="s">
         <v>95</v>
       </c>
-      <c r="Q9" s="193"/>
-      <c r="R9" s="194"/>
+      <c r="Q9" s="195"/>
+      <c r="R9" s="196"/>
     </row>
     <row r="10" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="186"/>
+      <c r="B10" s="205"/>
       <c r="C10" s="157"/>
       <c r="D10" s="77"/>
       <c r="E10" s="27"/>
-      <c r="I10" s="191"/>
+      <c r="I10" s="208"/>
       <c r="J10" s="93">
         <v>44982</v>
       </c>
@@ -5488,17 +5492,17 @@
         <v>50000</v>
       </c>
       <c r="L10" s="27"/>
-      <c r="O10" s="199"/>
-      <c r="P10" s="195"/>
-      <c r="Q10" s="196"/>
-      <c r="R10" s="197"/>
+      <c r="O10" s="201"/>
+      <c r="P10" s="197"/>
+      <c r="Q10" s="198"/>
+      <c r="R10" s="199"/>
     </row>
     <row r="11" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="186"/>
+      <c r="B11" s="205"/>
       <c r="C11" s="157"/>
       <c r="D11" s="77"/>
       <c r="E11" s="27"/>
-      <c r="I11" s="191"/>
+      <c r="I11" s="208"/>
       <c r="J11" s="93">
         <v>44989</v>
       </c>
@@ -5506,17 +5510,17 @@
         <v>50000</v>
       </c>
       <c r="L11" s="27"/>
-      <c r="O11" s="199"/>
+      <c r="O11" s="201"/>
       <c r="P11" s="93"/>
       <c r="Q11" s="77"/>
       <c r="R11" s="27"/>
     </row>
     <row r="12" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="186"/>
+      <c r="B12" s="205"/>
       <c r="C12" s="158"/>
       <c r="D12" s="39"/>
       <c r="E12" s="146"/>
-      <c r="I12" s="191"/>
+      <c r="I12" s="208"/>
       <c r="J12" s="38">
         <v>44989</v>
       </c>
@@ -5524,7 +5528,7 @@
         <v>50000</v>
       </c>
       <c r="L12" s="146"/>
-      <c r="O12" s="199"/>
+      <c r="O12" s="201"/>
       <c r="P12" s="36"/>
       <c r="Q12" s="37">
         <v>0</v>
@@ -5532,11 +5536,11 @@
       <c r="R12" s="3"/>
     </row>
     <row r="13" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="186"/>
+      <c r="B13" s="205"/>
       <c r="C13" s="155"/>
       <c r="D13" s="37"/>
       <c r="E13" s="3"/>
-      <c r="I13" s="191"/>
+      <c r="I13" s="208"/>
       <c r="J13" s="36">
         <v>44996</v>
       </c>
@@ -5544,17 +5548,17 @@
         <v>50000</v>
       </c>
       <c r="L13" s="3"/>
-      <c r="O13" s="199"/>
+      <c r="O13" s="201"/>
       <c r="P13" s="36"/>
       <c r="Q13" s="37"/>
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="186"/>
+      <c r="B14" s="205"/>
       <c r="C14" s="155"/>
       <c r="D14" s="37"/>
       <c r="E14" s="3"/>
-      <c r="I14" s="191"/>
+      <c r="I14" s="208"/>
       <c r="J14" s="36">
         <v>45003</v>
       </c>
@@ -5562,197 +5566,197 @@
         <v>113480</v>
       </c>
       <c r="L14" s="3"/>
-      <c r="O14" s="199"/>
+      <c r="O14" s="201"/>
       <c r="P14" s="36"/>
       <c r="Q14" s="37"/>
       <c r="R14" s="3"/>
     </row>
     <row r="15" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="186"/>
+      <c r="B15" s="205"/>
       <c r="C15" s="155"/>
       <c r="D15" s="37"/>
       <c r="E15" s="3"/>
-      <c r="I15" s="191"/>
+      <c r="I15" s="208"/>
       <c r="J15" s="36"/>
       <c r="K15" s="37"/>
       <c r="L15" s="3"/>
-      <c r="O15" s="199"/>
+      <c r="O15" s="201"/>
       <c r="P15" s="36"/>
       <c r="Q15" s="37"/>
       <c r="R15" s="3"/>
     </row>
     <row r="16" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="186"/>
+      <c r="B16" s="205"/>
       <c r="C16" s="155"/>
       <c r="D16" s="37"/>
       <c r="E16" s="3"/>
-      <c r="I16" s="191"/>
+      <c r="I16" s="208"/>
       <c r="J16" s="36"/>
       <c r="K16" s="37"/>
       <c r="L16" s="3"/>
-      <c r="O16" s="199"/>
+      <c r="O16" s="201"/>
       <c r="P16" s="36"/>
       <c r="Q16" s="37"/>
       <c r="R16" s="3"/>
     </row>
     <row r="17" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="186"/>
+      <c r="B17" s="205"/>
       <c r="C17" s="155"/>
       <c r="D17" s="37"/>
       <c r="E17" s="3"/>
-      <c r="I17" s="191"/>
-      <c r="J17" s="215"/>
-      <c r="K17" s="216"/>
+      <c r="I17" s="208"/>
+      <c r="J17" s="160"/>
+      <c r="K17" s="161"/>
       <c r="L17" s="3"/>
-      <c r="O17" s="199"/>
+      <c r="O17" s="201"/>
       <c r="P17" s="36"/>
       <c r="Q17" s="37"/>
       <c r="R17" s="3"/>
     </row>
     <row r="18" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="186"/>
+      <c r="B18" s="205"/>
       <c r="C18" s="155"/>
       <c r="D18" s="37"/>
       <c r="E18" s="3"/>
-      <c r="I18" s="191"/>
-      <c r="J18" s="215"/>
-      <c r="K18" s="216"/>
+      <c r="I18" s="208"/>
+      <c r="J18" s="160"/>
+      <c r="K18" s="161"/>
       <c r="L18" s="3"/>
-      <c r="O18" s="199"/>
+      <c r="O18" s="201"/>
       <c r="P18" s="36"/>
       <c r="Q18" s="37"/>
       <c r="R18" s="3"/>
     </row>
     <row r="19" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="186"/>
+      <c r="B19" s="205"/>
       <c r="C19" s="155"/>
       <c r="D19" s="37"/>
       <c r="E19" s="3"/>
-      <c r="I19" s="191"/>
-      <c r="J19" s="215"/>
-      <c r="K19" s="216"/>
+      <c r="I19" s="208"/>
+      <c r="J19" s="160"/>
+      <c r="K19" s="161"/>
       <c r="L19" s="3"/>
-      <c r="O19" s="199"/>
+      <c r="O19" s="201"/>
       <c r="P19" s="36"/>
       <c r="Q19" s="37"/>
       <c r="R19" s="3"/>
     </row>
     <row r="20" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="186"/>
+      <c r="B20" s="205"/>
       <c r="C20" s="155"/>
       <c r="D20" s="37"/>
       <c r="E20" s="3"/>
-      <c r="I20" s="191"/>
-      <c r="J20" s="215"/>
-      <c r="K20" s="216"/>
+      <c r="I20" s="208"/>
+      <c r="J20" s="160"/>
+      <c r="K20" s="161"/>
       <c r="L20" s="3"/>
-      <c r="O20" s="199"/>
+      <c r="O20" s="201"/>
       <c r="P20" s="36"/>
       <c r="Q20" s="37"/>
       <c r="R20" s="3"/>
     </row>
     <row r="21" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="186"/>
+      <c r="B21" s="205"/>
       <c r="C21" s="155"/>
       <c r="D21" s="37"/>
       <c r="E21" s="3"/>
-      <c r="I21" s="191"/>
-      <c r="J21" s="215"/>
-      <c r="K21" s="216"/>
+      <c r="I21" s="208"/>
+      <c r="J21" s="160"/>
+      <c r="K21" s="161"/>
       <c r="L21" s="3"/>
-      <c r="O21" s="199"/>
+      <c r="O21" s="201"/>
       <c r="P21" s="36"/>
       <c r="Q21" s="37"/>
       <c r="R21" s="3"/>
     </row>
     <row r="22" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="186"/>
+      <c r="B22" s="205"/>
       <c r="C22" s="155"/>
       <c r="D22" s="37"/>
       <c r="E22" s="3"/>
-      <c r="I22" s="191"/>
-      <c r="J22" s="215"/>
-      <c r="K22" s="216"/>
+      <c r="I22" s="208"/>
+      <c r="J22" s="160"/>
+      <c r="K22" s="161"/>
       <c r="L22" s="3"/>
-      <c r="O22" s="199"/>
+      <c r="O22" s="201"/>
       <c r="P22" s="36"/>
       <c r="Q22" s="37"/>
       <c r="R22" s="3"/>
     </row>
     <row r="23" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="186"/>
+      <c r="B23" s="205"/>
       <c r="C23" s="155"/>
       <c r="D23" s="37"/>
       <c r="E23" s="3"/>
-      <c r="I23" s="191"/>
-      <c r="J23" s="215"/>
-      <c r="K23" s="216"/>
+      <c r="I23" s="208"/>
+      <c r="J23" s="160"/>
+      <c r="K23" s="161"/>
       <c r="L23" s="3"/>
-      <c r="O23" s="199"/>
+      <c r="O23" s="201"/>
       <c r="P23" s="36"/>
       <c r="Q23" s="37"/>
       <c r="R23" s="3"/>
     </row>
     <row r="24" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="186"/>
+      <c r="B24" s="205"/>
       <c r="C24" s="155"/>
       <c r="D24" s="37"/>
       <c r="E24" s="3"/>
-      <c r="I24" s="191"/>
-      <c r="J24" s="215"/>
-      <c r="K24" s="216"/>
+      <c r="I24" s="208"/>
+      <c r="J24" s="160"/>
+      <c r="K24" s="161"/>
       <c r="L24" s="3"/>
-      <c r="O24" s="199"/>
+      <c r="O24" s="201"/>
       <c r="P24" s="36"/>
       <c r="Q24" s="37"/>
       <c r="R24" s="3"/>
     </row>
     <row r="25" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="186"/>
+      <c r="B25" s="205"/>
       <c r="C25" s="155"/>
       <c r="D25" s="37"/>
       <c r="E25" s="3"/>
-      <c r="I25" s="191"/>
-      <c r="J25" s="215"/>
-      <c r="K25" s="216"/>
+      <c r="I25" s="208"/>
+      <c r="J25" s="160"/>
+      <c r="K25" s="161"/>
       <c r="L25" s="3"/>
-      <c r="O25" s="199"/>
+      <c r="O25" s="201"/>
       <c r="P25" s="36"/>
       <c r="Q25" s="37"/>
       <c r="R25" s="3"/>
     </row>
     <row r="26" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="186"/>
+      <c r="B26" s="205"/>
       <c r="C26" s="155"/>
       <c r="D26" s="37"/>
       <c r="E26" s="3"/>
-      <c r="I26" s="191"/>
-      <c r="J26" s="215"/>
-      <c r="K26" s="216"/>
+      <c r="I26" s="208"/>
+      <c r="J26" s="160"/>
+      <c r="K26" s="161"/>
       <c r="L26" s="3"/>
-      <c r="O26" s="199"/>
+      <c r="O26" s="201"/>
       <c r="P26" s="36"/>
       <c r="Q26" s="37"/>
       <c r="R26" s="3"/>
     </row>
     <row r="27" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="187"/>
+      <c r="B27" s="206"/>
       <c r="C27" s="159" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="154">
         <f>SUM(D5:D13)</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="191"/>
-      <c r="J27" s="217" t="s">
+        <v>50000</v>
+      </c>
+      <c r="I27" s="208"/>
+      <c r="J27" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="218">
+      <c r="K27" s="163">
         <f>SUM(K5:K14)</f>
         <v>563480</v>
       </c>
-      <c r="O27" s="199"/>
+      <c r="O27" s="201"/>
       <c r="P27" s="153" t="s">
         <v>3</v>
       </c>
@@ -5771,8 +5775,8 @@
         <v>44996</v>
       </c>
       <c r="I28" s="64"/>
-      <c r="J28" s="219"/>
-      <c r="K28" s="220">
+      <c r="J28" s="164"/>
+      <c r="K28" s="165">
         <v>-563480</v>
       </c>
       <c r="L28" s="152">
@@ -5795,8 +5799,8 @@
       </c>
       <c r="E29" s="124"/>
       <c r="I29" s="64"/>
-      <c r="J29" s="221"/>
-      <c r="K29" s="220">
+      <c r="J29" s="166"/>
+      <c r="K29" s="165">
         <v>0</v>
       </c>
       <c r="L29" s="124"/>
@@ -5812,8 +5816,8 @@
       <c r="D30" s="29">
         <v>0</v>
       </c>
-      <c r="J30" s="222"/>
-      <c r="K30" s="223">
+      <c r="J30" s="167"/>
+      <c r="K30" s="168">
         <v>0</v>
       </c>
       <c r="P30" s="84"/>
@@ -5827,7 +5831,7 @@
       </c>
       <c r="D31" s="34">
         <f>D30+D27+D28+D29</f>
-        <v>-1330318.2</v>
+        <v>-1280318.2</v>
       </c>
       <c r="J31" s="33" t="s">
         <v>4</v>
@@ -6283,12 +6287,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="200" t="s">
+      <c r="B3" s="209" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="202"/>
+      <c r="C3" s="210"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="211"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
     </row>
@@ -7510,11 +7514,11 @@
         <v>-659691.4</v>
       </c>
       <c r="E123" s="100"/>
-      <c r="G123" s="203">
+      <c r="G123" s="212">
         <f>D121+D122+D123+D124</f>
         <v>-8718896</v>
       </c>
-      <c r="H123" s="204"/>
+      <c r="H123" s="213"/>
     </row>
     <row r="124" spans="1:8 16384:16384" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="110"/>
@@ -7526,8 +7530,8 @@
         <v>-1241668.1599999999</v>
       </c>
       <c r="E124" s="100"/>
-      <c r="G124" s="205"/>
-      <c r="H124" s="206"/>
+      <c r="G124" s="214"/>
+      <c r="H124" s="215"/>
     </row>
     <row r="125" spans="1:8 16384:16384" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="111"/>
@@ -7608,23 +7612,23 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="209" t="s">
+      <c r="B2" s="218" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="212" t="s">
+      <c r="C2" s="221" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="213"/>
+      <c r="D2" s="222"/>
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="210"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="162"/>
+      <c r="B3" s="219"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="171"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="211"/>
+      <c r="B4" s="220"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -7662,13 +7666,13 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="207"/>
+      <c r="B8" s="216"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="208"/>
+      <c r="B9" s="217"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -7861,7 +7865,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="190" t="s">
+      <c r="B2" s="207" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -7871,13 +7875,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="191"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="162"/>
+      <c r="B3" s="208"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="171"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="191"/>
+      <c r="B4" s="208"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -7885,7 +7889,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="191"/>
+      <c r="B5" s="208"/>
       <c r="C5" s="47">
         <v>44380</v>
       </c>
@@ -7895,7 +7899,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="214"/>
+      <c r="B6" s="223"/>
       <c r="C6" s="36">
         <v>44396</v>
       </c>
@@ -7911,7 +7915,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="207" t="s">
+      <c r="B8" s="216" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="36">
@@ -7923,7 +7927,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="208"/>
+      <c r="B9" s="217"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -8126,7 +8130,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="190" t="s">
+      <c r="A2" s="207" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -8134,7 +8138,7 @@
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="17"/>
-      <c r="I2" s="190" t="s">
+      <c r="I2" s="207" t="s">
         <v>74</v>
       </c>
       <c r="J2" s="15" t="s">
@@ -8144,23 +8148,23 @@
       <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="191"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="162"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="162"/>
+      <c r="A3" s="208"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="171"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="171"/>
     </row>
     <row r="4" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="191"/>
+      <c r="A4" s="208"/>
       <c r="B4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="23"/>
-      <c r="I4" s="191"/>
+      <c r="I4" s="208"/>
       <c r="J4" s="21" t="s">
         <v>2</v>
       </c>
@@ -8168,7 +8172,7 @@
       <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="191"/>
+      <c r="A5" s="208"/>
       <c r="B5" s="47">
         <v>44935</v>
       </c>
@@ -8176,7 +8180,7 @@
         <v>49000</v>
       </c>
       <c r="D5" s="28"/>
-      <c r="I5" s="191"/>
+      <c r="I5" s="208"/>
       <c r="J5" s="47">
         <v>44621</v>
       </c>
@@ -8186,11 +8190,11 @@
       <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="191"/>
+      <c r="A6" s="208"/>
       <c r="B6" s="36"/>
       <c r="C6" s="37"/>
       <c r="D6" s="27"/>
-      <c r="I6" s="214"/>
+      <c r="I6" s="223"/>
       <c r="J6" s="36">
         <v>44656</v>
       </c>
@@ -8200,7 +8204,7 @@
       <c r="L6" s="27"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="191"/>
+      <c r="A7" s="208"/>
       <c r="B7" s="36"/>
       <c r="C7" s="37"/>
       <c r="D7" s="41"/>
@@ -8210,13 +8214,13 @@
       <c r="L7" s="41"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="191"/>
+      <c r="A8" s="208"/>
       <c r="B8" s="36"/>
       <c r="C8" s="37">
         <v>0</v>
       </c>
       <c r="D8" s="27"/>
-      <c r="I8" s="207"/>
+      <c r="I8" s="216"/>
       <c r="J8" s="36"/>
       <c r="K8" s="37">
         <v>0</v>
@@ -8224,17 +8228,17 @@
       <c r="L8" s="27"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="191"/>
+      <c r="A9" s="208"/>
       <c r="B9" s="93"/>
       <c r="C9" s="77"/>
       <c r="D9" s="27"/>
-      <c r="I9" s="208"/>
+      <c r="I9" s="217"/>
       <c r="J9" s="93"/>
       <c r="K9" s="77"/>
       <c r="L9" s="27"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="191"/>
+      <c r="A10" s="208"/>
       <c r="B10" s="93"/>
       <c r="C10" s="77"/>
       <c r="D10" s="27"/>
@@ -8244,7 +8248,7 @@
       <c r="L10" s="27"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="191"/>
+      <c r="A11" s="208"/>
       <c r="B11" s="93"/>
       <c r="C11" s="77"/>
       <c r="D11" s="27"/>
@@ -8254,7 +8258,7 @@
       <c r="L11" s="27"/>
     </row>
     <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="214"/>
+      <c r="A12" s="223"/>
       <c r="B12" s="38"/>
       <c r="C12" s="39">
         <v>0</v>
@@ -8555,12 +8559,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="200" t="s">
+      <c r="B3" s="209" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="202"/>
+      <c r="C3" s="210"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="211"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
     </row>
@@ -9679,11 +9683,11 @@
       <c r="E117" s="100">
         <v>44264</v>
       </c>
-      <c r="G117" s="203">
+      <c r="G117" s="212">
         <f>D115+D116+D117+D118</f>
         <v>-7492427.9600000009</v>
       </c>
-      <c r="H117" s="204"/>
+      <c r="H117" s="213"/>
     </row>
     <row r="118" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="110"/>
@@ -9697,8 +9701,8 @@
       <c r="E118" s="100">
         <v>44264</v>
       </c>
-      <c r="G118" s="205"/>
-      <c r="H118" s="206"/>
+      <c r="G118" s="214"/>
+      <c r="H118" s="215"/>
     </row>
     <row r="119" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="111"/>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1307,6 +1307,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1314,36 +1344,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3494,18 +3494,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="172" t="s">
+      <c r="C3" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="172"/>
+      <c r="D3" s="182"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="178" t="s">
+      <c r="C4" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="178"/>
+      <c r="D4" s="173"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3515,10 +3515,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="173" t="s">
+      <c r="B6" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="174"/>
+      <c r="C6" s="184"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3535,10 +3535,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="175" t="s">
+      <c r="B8" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="176"/>
+      <c r="C8" s="181"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3555,10 +3555,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="175" t="s">
+      <c r="B10" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="176"/>
+      <c r="C10" s="181"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3575,10 +3575,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="175" t="s">
+      <c r="B12" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="176"/>
+      <c r="C12" s="181"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3595,10 +3595,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="175" t="s">
+      <c r="B14" s="180" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="176"/>
+      <c r="C14" s="181"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3615,10 +3615,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="179" t="s">
+      <c r="B16" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="180"/>
+      <c r="C16" s="175"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3635,14 +3635,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="179" t="s">
+      <c r="B18" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="180"/>
+      <c r="C18" s="175"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="181" t="s">
+      <c r="E18" s="176" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3652,7 +3652,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="182"/>
+      <c r="E19" s="177"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3663,10 +3663,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="179" t="s">
+      <c r="B21" s="174" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="180"/>
+      <c r="C21" s="175"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3683,10 +3683,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="183" t="s">
+      <c r="B23" s="178" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="184"/>
+      <c r="C23" s="179"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3703,10 +3703,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="177" t="s">
+      <c r="B25" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="177"/>
+      <c r="C25" s="172"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3757,6 +3757,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3765,11 +3770,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5300,7 +5300,7 @@
   <dimension ref="B1:R55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5407,8 +5407,12 @@
     </row>
     <row r="6" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="205"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="37"/>
+      <c r="C6" s="155">
+        <v>45017</v>
+      </c>
+      <c r="D6" s="37">
+        <v>100000</v>
+      </c>
       <c r="E6" s="27"/>
       <c r="I6" s="208"/>
       <c r="J6" s="36">
@@ -5746,7 +5750,7 @@
       </c>
       <c r="D27" s="154">
         <f>SUM(D5:D13)</f>
-        <v>50000</v>
+        <v>150000</v>
       </c>
       <c r="I27" s="208"/>
       <c r="J27" s="162" t="s">
@@ -5831,7 +5835,7 @@
       </c>
       <c r="D31" s="34">
         <f>D30+D27+D28+D29</f>
-        <v>-1280318.2</v>
+        <v>-1180318.2</v>
       </c>
       <c r="J31" s="33" t="s">
         <v>4</v>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -5299,8 +5299,8 @@
   </sheetPr>
   <dimension ref="B1:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5429,8 +5429,12 @@
     </row>
     <row r="7" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="205"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="37"/>
+      <c r="C7" s="155">
+        <v>45021</v>
+      </c>
+      <c r="D7" s="37">
+        <v>50000</v>
+      </c>
       <c r="E7" s="41"/>
       <c r="I7" s="208"/>
       <c r="J7" s="36">
@@ -5447,8 +5451,12 @@
     </row>
     <row r="8" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="205"/>
-      <c r="C8" s="155"/>
-      <c r="D8" s="37"/>
+      <c r="C8" s="155">
+        <v>45031</v>
+      </c>
+      <c r="D8" s="37">
+        <v>100000</v>
+      </c>
       <c r="E8" s="27"/>
       <c r="I8" s="208"/>
       <c r="J8" s="36">
@@ -5465,8 +5473,12 @@
     </row>
     <row r="9" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="205"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="77"/>
+      <c r="C9" s="157">
+        <v>45038</v>
+      </c>
+      <c r="D9" s="77">
+        <v>50000</v>
+      </c>
       <c r="E9" s="27"/>
       <c r="I9" s="208"/>
       <c r="J9" s="93">
@@ -5750,7 +5762,7 @@
       </c>
       <c r="D27" s="154">
         <f>SUM(D5:D13)</f>
-        <v>150000</v>
+        <v>350000</v>
       </c>
       <c r="I27" s="208"/>
       <c r="J27" s="162" t="s">
@@ -5835,7 +5847,7 @@
       </c>
       <c r="D31" s="34">
         <f>D30+D27+D28+D29</f>
-        <v>-1180318.2</v>
+        <v>-980318.2</v>
       </c>
       <c r="J31" s="33" t="s">
         <v>4</v>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="97">
   <si>
     <t xml:space="preserve">PAGOS  SOBRE REMODELACION </t>
   </si>
@@ -968,7 +968,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1298,6 +1298,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1307,6 +1311,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1331,21 +1350,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1373,6 +1377,18 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="15" fontId="19" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1399,18 +1415,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1929,6 +1933,99 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Conector recto 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6410325" y="247650"/>
+          <a:ext cx="4114800" cy="6457950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector recto 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6181725" y="161925"/>
+          <a:ext cx="4419600" cy="6562725"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
       <xdr:row>118</xdr:row>
@@ -1988,7 +2085,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2093,7 +2190,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2198,7 +2295,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2886,17 +2983,17 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="169" t="s">
+      <c r="C3" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="170"/>
-      <c r="E3" s="171"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="173"/>
       <c r="H3" s="50"/>
-      <c r="I3" s="169" t="s">
+      <c r="I3" s="171" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="170"/>
-      <c r="K3" s="171"/>
+      <c r="J3" s="172"/>
+      <c r="K3" s="173"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3336,11 +3433,11 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="169" t="s">
+      <c r="C3" s="171" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="170"/>
-      <c r="E3" s="171"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="173"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3494,18 +3591,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="182" t="s">
+      <c r="C3" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="182"/>
+      <c r="D3" s="174"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="173" t="s">
+      <c r="C4" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="173"/>
+      <c r="D4" s="180"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3515,10 +3612,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="183" t="s">
+      <c r="B6" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="184"/>
+      <c r="C6" s="176"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3535,10 +3632,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="180" t="s">
+      <c r="B8" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="181"/>
+      <c r="C8" s="178"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3555,10 +3652,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="180" t="s">
+      <c r="B10" s="177" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="181"/>
+      <c r="C10" s="178"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3575,10 +3672,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="180" t="s">
+      <c r="B12" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="181"/>
+      <c r="C12" s="178"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3595,10 +3692,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="180" t="s">
+      <c r="B14" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="181"/>
+      <c r="C14" s="178"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3615,10 +3712,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="174" t="s">
+      <c r="B16" s="181" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="175"/>
+      <c r="C16" s="182"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3635,14 +3732,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="174" t="s">
+      <c r="B18" s="181" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="175"/>
+      <c r="C18" s="182"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="176" t="s">
+      <c r="E18" s="183" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3652,7 +3749,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="177"/>
+      <c r="E19" s="184"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3663,10 +3760,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="174" t="s">
+      <c r="B21" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="175"/>
+      <c r="C21" s="182"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3683,10 +3780,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="178" t="s">
+      <c r="B23" s="185" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="179"/>
+      <c r="C23" s="186"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3703,10 +3800,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="172" t="s">
+      <c r="B25" s="179" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="172"/>
+      <c r="C25" s="179"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3757,11 +3854,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3770,6 +3862,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3808,11 +3905,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="169" t="s">
+      <c r="C3" s="171" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="170"/>
-      <c r="E3" s="171"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="173"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4013,11 +4110,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="169" t="s">
+      <c r="C3" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="170"/>
-      <c r="E3" s="171"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="173"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4202,11 +4299,11 @@
     </row>
     <row r="3" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="50"/>
-      <c r="C3" s="169" t="s">
+      <c r="C3" s="171" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="170"/>
-      <c r="E3" s="171"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="173"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4410,9 +4507,9 @@
       <c r="B3" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="173"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4643,9 +4740,9 @@
       <c r="B3" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="173"/>
     </row>
     <row r="4" spans="2:5" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -5003,36 +5100,36 @@
     </row>
     <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="185" t="s">
+      <c r="B57" s="187" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="186"/>
-      <c r="D57" s="186"/>
-      <c r="E57" s="187"/>
+      <c r="C57" s="188"/>
+      <c r="D57" s="188"/>
+      <c r="E57" s="189"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="188"/>
-      <c r="C58" s="189"/>
-      <c r="D58" s="189"/>
-      <c r="E58" s="190"/>
+      <c r="B58" s="190"/>
+      <c r="C58" s="191"/>
+      <c r="D58" s="191"/>
+      <c r="E58" s="192"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="188"/>
-      <c r="C59" s="189"/>
-      <c r="D59" s="189"/>
-      <c r="E59" s="190"/>
+      <c r="B59" s="190"/>
+      <c r="C59" s="191"/>
+      <c r="D59" s="191"/>
+      <c r="E59" s="192"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="188"/>
-      <c r="C60" s="189"/>
-      <c r="D60" s="189"/>
-      <c r="E60" s="190"/>
+      <c r="B60" s="190"/>
+      <c r="C60" s="191"/>
+      <c r="D60" s="191"/>
+      <c r="E60" s="192"/>
     </row>
     <row r="61" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="191"/>
-      <c r="C61" s="192"/>
-      <c r="D61" s="192"/>
-      <c r="E61" s="193"/>
+      <c r="B61" s="193"/>
+      <c r="C61" s="194"/>
+      <c r="D61" s="194"/>
+      <c r="E61" s="195"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5077,9 +5174,9 @@
       <c r="B3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="173"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -5297,10 +5394,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B1:R55"/>
+  <dimension ref="B1:Y55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5309,505 +5406,713 @@
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" customWidth="1"/>
-    <col min="17" max="17" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.7109375" customWidth="1"/>
+    <col min="24" max="24" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:18" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="204" t="s">
+    <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="196" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="203" t="s">
+      <c r="C2" s="199" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="203"/>
+      <c r="D2" s="199"/>
       <c r="E2" s="17"/>
-      <c r="I2" s="207" t="s">
+      <c r="I2" s="196" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" s="199" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="199"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="170"/>
+      <c r="P2" s="209" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="202" t="s">
+      <c r="Q2" s="208" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="203"/>
-      <c r="L2" s="17"/>
-      <c r="O2" s="200" t="s">
+      <c r="R2" s="199"/>
+      <c r="S2" s="17"/>
+      <c r="V2" s="206" t="s">
         <v>94</v>
       </c>
-      <c r="P2" s="202" t="s">
+      <c r="W2" s="208" t="s">
         <v>80</v>
       </c>
-      <c r="Q2" s="203"/>
-      <c r="R2" s="17"/>
-    </row>
-    <row r="3" spans="2:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="205"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="171"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="171"/>
-      <c r="O3" s="201"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="171"/>
-    </row>
-    <row r="4" spans="2:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="205"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="17"/>
+    </row>
+    <row r="3" spans="2:25" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="197"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="173"/>
+      <c r="I3" s="197"/>
+      <c r="J3" s="172"/>
+      <c r="K3" s="172"/>
+      <c r="L3" s="173"/>
+      <c r="M3" s="170"/>
+      <c r="P3" s="210"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="173"/>
+      <c r="V3" s="207"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="173"/>
+    </row>
+    <row r="4" spans="2:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="197"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
-      <c r="I4" s="208"/>
+      <c r="I4" s="197"/>
       <c r="J4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="22"/>
       <c r="L4" s="23"/>
-      <c r="O4" s="201"/>
-      <c r="P4" s="21" t="s">
+      <c r="M4" s="170"/>
+      <c r="P4" s="210"/>
+      <c r="Q4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="23"/>
-    </row>
-    <row r="5" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="205"/>
-      <c r="C5" s="156">
+      <c r="R4" s="22"/>
+      <c r="S4" s="23"/>
+      <c r="V4" s="207"/>
+      <c r="W4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="23"/>
+    </row>
+    <row r="5" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="197"/>
+      <c r="C5" s="156" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="28">
+        <v>563480</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="I5" s="197"/>
+      <c r="J5" s="156">
         <v>45010</v>
       </c>
-      <c r="D5" s="28">
-        <v>50000</v>
-      </c>
-      <c r="E5" s="28"/>
-      <c r="I5" s="208"/>
-      <c r="J5" s="47">
+      <c r="K5" s="28">
+        <v>50000</v>
+      </c>
+      <c r="L5" s="28"/>
+      <c r="M5" s="170"/>
+      <c r="P5" s="210"/>
+      <c r="Q5" s="47">
         <v>44947</v>
       </c>
-      <c r="K5" s="28">
-        <v>50000</v>
-      </c>
-      <c r="L5" s="28"/>
-      <c r="O5" s="201"/>
-      <c r="P5" s="47">
+      <c r="R5" s="28">
+        <v>50000</v>
+      </c>
+      <c r="S5" s="28"/>
+      <c r="V5" s="207"/>
+      <c r="W5" s="47">
         <v>44873</v>
       </c>
-      <c r="Q5" s="28">
+      <c r="X5" s="28">
         <v>30000</v>
       </c>
-      <c r="R5" s="28"/>
-    </row>
-    <row r="6" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="205"/>
-      <c r="C6" s="155">
+      <c r="Y5" s="28"/>
+    </row>
+    <row r="6" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="197"/>
+      <c r="C6" s="156">
+        <v>45010</v>
+      </c>
+      <c r="D6" s="28">
+        <v>50000</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="I6" s="197"/>
+      <c r="J6" s="155">
         <v>45017</v>
       </c>
-      <c r="D6" s="37">
-        <v>100000</v>
-      </c>
-      <c r="E6" s="27"/>
-      <c r="I6" s="208"/>
-      <c r="J6" s="36">
+      <c r="K6" s="37">
+        <v>100000</v>
+      </c>
+      <c r="L6" s="27"/>
+      <c r="M6" s="170"/>
+      <c r="P6" s="210"/>
+      <c r="Q6" s="36">
         <v>44954</v>
       </c>
-      <c r="K6" s="37">
-        <v>50000</v>
-      </c>
-      <c r="L6" s="27"/>
-      <c r="O6" s="201"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="27"/>
-    </row>
-    <row r="7" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="205"/>
-      <c r="C7" s="155">
+      <c r="R6" s="37">
+        <v>50000</v>
+      </c>
+      <c r="S6" s="27"/>
+      <c r="V6" s="207"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="27"/>
+    </row>
+    <row r="7" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="197"/>
+      <c r="C7" s="169">
+        <v>45017</v>
+      </c>
+      <c r="D7" s="37">
+        <v>100000</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="I7" s="197"/>
+      <c r="J7" s="155">
         <v>45021</v>
       </c>
-      <c r="D7" s="37">
-        <v>50000</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="I7" s="208"/>
-      <c r="J7" s="36">
+      <c r="K7" s="37">
+        <v>50000</v>
+      </c>
+      <c r="L7" s="41"/>
+      <c r="M7" s="170"/>
+      <c r="P7" s="210"/>
+      <c r="Q7" s="36">
         <v>44961</v>
       </c>
-      <c r="K7" s="37">
-        <v>50000</v>
-      </c>
-      <c r="L7" s="41"/>
-      <c r="O7" s="201"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="41"/>
-    </row>
-    <row r="8" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="205"/>
-      <c r="C8" s="155">
+      <c r="R7" s="37">
+        <v>50000</v>
+      </c>
+      <c r="S7" s="41"/>
+      <c r="V7" s="207"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="41"/>
+    </row>
+    <row r="8" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="197"/>
+      <c r="C8" s="169">
+        <v>45021</v>
+      </c>
+      <c r="D8" s="37">
+        <v>50000</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="I8" s="197"/>
+      <c r="J8" s="155">
         <v>45031</v>
       </c>
-      <c r="D8" s="37">
-        <v>100000</v>
-      </c>
-      <c r="E8" s="27"/>
-      <c r="I8" s="208"/>
-      <c r="J8" s="36">
+      <c r="K8" s="37">
+        <v>100000</v>
+      </c>
+      <c r="L8" s="27"/>
+      <c r="M8" s="170"/>
+      <c r="P8" s="210"/>
+      <c r="Q8" s="36">
         <v>44968</v>
       </c>
-      <c r="K8" s="37">
-        <v>50000</v>
-      </c>
-      <c r="L8" s="27"/>
-      <c r="O8" s="201"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="27"/>
-    </row>
-    <row r="9" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="205"/>
-      <c r="C9" s="157">
+      <c r="R8" s="37">
+        <v>50000</v>
+      </c>
+      <c r="S8" s="27"/>
+      <c r="V8" s="207"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="27"/>
+    </row>
+    <row r="9" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="197"/>
+      <c r="C9" s="169">
+        <v>45031</v>
+      </c>
+      <c r="D9" s="37">
+        <v>100000</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="I9" s="197"/>
+      <c r="J9" s="157">
         <v>45038</v>
       </c>
-      <c r="D9" s="77">
-        <v>50000</v>
-      </c>
-      <c r="E9" s="27"/>
-      <c r="I9" s="208"/>
-      <c r="J9" s="93">
+      <c r="K9" s="77">
+        <v>50000</v>
+      </c>
+      <c r="L9" s="27"/>
+      <c r="M9" s="170"/>
+      <c r="P9" s="210"/>
+      <c r="Q9" s="93">
         <v>44975</v>
       </c>
-      <c r="K9" s="77">
-        <v>50000</v>
-      </c>
-      <c r="L9" s="27"/>
-      <c r="O9" s="201"/>
-      <c r="P9" s="194" t="s">
+      <c r="R9" s="77">
+        <v>50000</v>
+      </c>
+      <c r="S9" s="27"/>
+      <c r="V9" s="207"/>
+      <c r="W9" s="200" t="s">
         <v>95</v>
       </c>
-      <c r="Q9" s="195"/>
-      <c r="R9" s="196"/>
-    </row>
-    <row r="10" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="205"/>
-      <c r="C10" s="157"/>
-      <c r="D10" s="77"/>
+      <c r="X9" s="201"/>
+      <c r="Y9" s="202"/>
+    </row>
+    <row r="10" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="197"/>
+      <c r="C10" s="157">
+        <v>45038</v>
+      </c>
+      <c r="D10" s="77">
+        <v>50000</v>
+      </c>
       <c r="E10" s="27"/>
-      <c r="I10" s="208"/>
-      <c r="J10" s="93">
+      <c r="I10" s="197"/>
+      <c r="J10" s="157">
+        <v>45045</v>
+      </c>
+      <c r="K10" s="77">
+        <v>100000</v>
+      </c>
+      <c r="L10" s="27"/>
+      <c r="M10" s="170"/>
+      <c r="P10" s="210"/>
+      <c r="Q10" s="93">
         <v>44982</v>
       </c>
-      <c r="K10" s="77">
-        <v>50000</v>
-      </c>
-      <c r="L10" s="27"/>
-      <c r="O10" s="201"/>
-      <c r="P10" s="197"/>
-      <c r="Q10" s="198"/>
-      <c r="R10" s="199"/>
-    </row>
-    <row r="11" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="205"/>
-      <c r="C11" s="157"/>
-      <c r="D11" s="77"/>
+      <c r="R10" s="77">
+        <v>50000</v>
+      </c>
+      <c r="S10" s="27"/>
+      <c r="V10" s="207"/>
+      <c r="W10" s="203"/>
+      <c r="X10" s="204"/>
+      <c r="Y10" s="205"/>
+    </row>
+    <row r="11" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="197"/>
+      <c r="C11" s="157">
+        <v>45045</v>
+      </c>
+      <c r="D11" s="77">
+        <v>100000</v>
+      </c>
       <c r="E11" s="27"/>
-      <c r="I11" s="208"/>
-      <c r="J11" s="93">
+      <c r="I11" s="197"/>
+      <c r="J11" s="157">
+        <v>45052</v>
+      </c>
+      <c r="K11" s="77">
+        <v>100000</v>
+      </c>
+      <c r="L11" s="27"/>
+      <c r="M11" s="170"/>
+      <c r="P11" s="210"/>
+      <c r="Q11" s="93">
         <v>44989</v>
       </c>
-      <c r="K11" s="77">
-        <v>50000</v>
-      </c>
-      <c r="L11" s="27"/>
-      <c r="O11" s="201"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="27"/>
-    </row>
-    <row r="12" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="205"/>
-      <c r="C12" s="158"/>
-      <c r="D12" s="39"/>
+      <c r="R11" s="77">
+        <v>50000</v>
+      </c>
+      <c r="S11" s="27"/>
+      <c r="V11" s="207"/>
+      <c r="W11" s="93"/>
+      <c r="X11" s="77"/>
+      <c r="Y11" s="27"/>
+    </row>
+    <row r="12" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="197"/>
+      <c r="C12" s="157">
+        <v>45052</v>
+      </c>
+      <c r="D12" s="77">
+        <v>100000</v>
+      </c>
       <c r="E12" s="146"/>
-      <c r="I12" s="208"/>
-      <c r="J12" s="38">
+      <c r="I12" s="197"/>
+      <c r="J12" s="158">
+        <v>45059</v>
+      </c>
+      <c r="K12" s="39">
+        <v>100000</v>
+      </c>
+      <c r="L12" s="146"/>
+      <c r="M12" s="170"/>
+      <c r="P12" s="210"/>
+      <c r="Q12" s="38">
         <v>44989</v>
       </c>
-      <c r="K12" s="39">
-        <v>50000</v>
-      </c>
-      <c r="L12" s="146"/>
-      <c r="O12" s="201"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="37">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3"/>
-    </row>
-    <row r="13" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="205"/>
-      <c r="C13" s="155"/>
-      <c r="D13" s="37"/>
+      <c r="R12" s="39">
+        <v>50000</v>
+      </c>
+      <c r="S12" s="146"/>
+      <c r="V12" s="207"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="37">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3"/>
+    </row>
+    <row r="13" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="197"/>
+      <c r="C13" s="158">
+        <v>45059</v>
+      </c>
+      <c r="D13" s="39">
+        <v>100000</v>
+      </c>
       <c r="E13" s="3"/>
-      <c r="I13" s="208"/>
-      <c r="J13" s="36">
+      <c r="I13" s="197"/>
+      <c r="J13" s="155"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="170"/>
+      <c r="P13" s="210"/>
+      <c r="Q13" s="36">
         <v>44996</v>
       </c>
-      <c r="K13" s="37">
-        <v>50000</v>
-      </c>
-      <c r="L13" s="3"/>
-      <c r="O13" s="201"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="3"/>
-    </row>
-    <row r="14" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="205"/>
-      <c r="C14" s="155"/>
-      <c r="D14" s="37"/>
+      <c r="R13" s="37">
+        <v>50000</v>
+      </c>
+      <c r="S13" s="3"/>
+      <c r="V13" s="207"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="3"/>
+    </row>
+    <row r="14" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="197"/>
+      <c r="C14" s="169">
+        <v>45066</v>
+      </c>
+      <c r="D14" s="37">
+        <v>100000</v>
+      </c>
       <c r="E14" s="3"/>
-      <c r="I14" s="208"/>
-      <c r="J14" s="36">
+      <c r="I14" s="197"/>
+      <c r="J14" s="155"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="170"/>
+      <c r="P14" s="210"/>
+      <c r="Q14" s="36">
         <v>45003</v>
       </c>
-      <c r="K14" s="37">
+      <c r="R14" s="37">
         <v>113480</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="O14" s="201"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="3"/>
-    </row>
-    <row r="15" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="205"/>
-      <c r="C15" s="155"/>
+      <c r="S14" s="3"/>
+      <c r="V14" s="207"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="3"/>
+    </row>
+    <row r="15" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="197"/>
+      <c r="C15" s="169"/>
       <c r="D15" s="37"/>
       <c r="E15" s="3"/>
-      <c r="I15" s="208"/>
-      <c r="J15" s="36"/>
+      <c r="I15" s="197"/>
+      <c r="J15" s="155"/>
       <c r="K15" s="37"/>
       <c r="L15" s="3"/>
-      <c r="O15" s="201"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="3"/>
-    </row>
-    <row r="16" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="205"/>
-      <c r="C16" s="155"/>
+      <c r="M15" s="170"/>
+      <c r="P15" s="210"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="3"/>
+      <c r="V15" s="207"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="3"/>
+    </row>
+    <row r="16" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="197"/>
+      <c r="C16" s="169"/>
       <c r="D16" s="37"/>
       <c r="E16" s="3"/>
-      <c r="I16" s="208"/>
-      <c r="J16" s="36"/>
+      <c r="I16" s="197"/>
+      <c r="J16" s="155"/>
       <c r="K16" s="37"/>
       <c r="L16" s="3"/>
-      <c r="O16" s="201"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="205"/>
-      <c r="C17" s="155"/>
+      <c r="M16" s="170"/>
+      <c r="P16" s="210"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="3"/>
+      <c r="V16" s="207"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="197"/>
+      <c r="C17" s="169"/>
       <c r="D17" s="37"/>
       <c r="E17" s="3"/>
-      <c r="I17" s="208"/>
-      <c r="J17" s="160"/>
-      <c r="K17" s="161"/>
+      <c r="I17" s="197"/>
+      <c r="J17" s="155"/>
+      <c r="K17" s="37"/>
       <c r="L17" s="3"/>
-      <c r="O17" s="201"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="3"/>
-    </row>
-    <row r="18" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="205"/>
-      <c r="C18" s="155"/>
+      <c r="M17" s="170"/>
+      <c r="P17" s="210"/>
+      <c r="Q17" s="160"/>
+      <c r="R17" s="161"/>
+      <c r="S17" s="3"/>
+      <c r="V17" s="207"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="3"/>
+    </row>
+    <row r="18" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="197"/>
+      <c r="C18" s="169"/>
       <c r="D18" s="37"/>
       <c r="E18" s="3"/>
-      <c r="I18" s="208"/>
-      <c r="J18" s="160"/>
-      <c r="K18" s="161"/>
+      <c r="I18" s="197"/>
+      <c r="J18" s="155"/>
+      <c r="K18" s="37"/>
       <c r="L18" s="3"/>
-      <c r="O18" s="201"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="3"/>
-    </row>
-    <row r="19" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="205"/>
-      <c r="C19" s="155"/>
+      <c r="M18" s="170"/>
+      <c r="P18" s="210"/>
+      <c r="Q18" s="160"/>
+      <c r="R18" s="161"/>
+      <c r="S18" s="3"/>
+      <c r="V18" s="207"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="3"/>
+    </row>
+    <row r="19" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="197"/>
+      <c r="C19" s="169"/>
       <c r="D19" s="37"/>
       <c r="E19" s="3"/>
-      <c r="I19" s="208"/>
-      <c r="J19" s="160"/>
-      <c r="K19" s="161"/>
+      <c r="I19" s="197"/>
+      <c r="J19" s="155"/>
+      <c r="K19" s="37"/>
       <c r="L19" s="3"/>
-      <c r="O19" s="201"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="205"/>
-      <c r="C20" s="155"/>
+      <c r="M19" s="170"/>
+      <c r="P19" s="210"/>
+      <c r="Q19" s="160"/>
+      <c r="R19" s="161"/>
+      <c r="S19" s="3"/>
+      <c r="V19" s="207"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="197"/>
+      <c r="C20" s="169"/>
       <c r="D20" s="37"/>
       <c r="E20" s="3"/>
-      <c r="I20" s="208"/>
-      <c r="J20" s="160"/>
-      <c r="K20" s="161"/>
+      <c r="I20" s="197"/>
+      <c r="J20" s="155"/>
+      <c r="K20" s="37"/>
       <c r="L20" s="3"/>
-      <c r="O20" s="201"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="3"/>
-    </row>
-    <row r="21" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="205"/>
-      <c r="C21" s="155"/>
+      <c r="M20" s="170"/>
+      <c r="P20" s="210"/>
+      <c r="Q20" s="160"/>
+      <c r="R20" s="161"/>
+      <c r="S20" s="3"/>
+      <c r="V20" s="207"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="3"/>
+    </row>
+    <row r="21" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="197"/>
+      <c r="C21" s="169"/>
       <c r="D21" s="37"/>
       <c r="E21" s="3"/>
-      <c r="I21" s="208"/>
-      <c r="J21" s="160"/>
-      <c r="K21" s="161"/>
+      <c r="I21" s="197"/>
+      <c r="J21" s="155"/>
+      <c r="K21" s="37"/>
       <c r="L21" s="3"/>
-      <c r="O21" s="201"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="3"/>
-    </row>
-    <row r="22" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="205"/>
-      <c r="C22" s="155"/>
+      <c r="M21" s="170"/>
+      <c r="P21" s="210"/>
+      <c r="Q21" s="160"/>
+      <c r="R21" s="161"/>
+      <c r="S21" s="3"/>
+      <c r="V21" s="207"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="3"/>
+    </row>
+    <row r="22" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="197"/>
+      <c r="C22" s="169"/>
       <c r="D22" s="37"/>
       <c r="E22" s="3"/>
-      <c r="I22" s="208"/>
-      <c r="J22" s="160"/>
-      <c r="K22" s="161"/>
+      <c r="I22" s="197"/>
+      <c r="J22" s="155"/>
+      <c r="K22" s="37"/>
       <c r="L22" s="3"/>
-      <c r="O22" s="201"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="3"/>
-    </row>
-    <row r="23" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="205"/>
-      <c r="C23" s="155"/>
+      <c r="M22" s="170"/>
+      <c r="P22" s="210"/>
+      <c r="Q22" s="160"/>
+      <c r="R22" s="161"/>
+      <c r="S22" s="3"/>
+      <c r="V22" s="207"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="3"/>
+    </row>
+    <row r="23" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="197"/>
+      <c r="C23" s="169"/>
       <c r="D23" s="37"/>
       <c r="E23" s="3"/>
-      <c r="I23" s="208"/>
-      <c r="J23" s="160"/>
-      <c r="K23" s="161"/>
+      <c r="I23" s="197"/>
+      <c r="J23" s="155"/>
+      <c r="K23" s="37"/>
       <c r="L23" s="3"/>
-      <c r="O23" s="201"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="3"/>
-    </row>
-    <row r="24" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="205"/>
-      <c r="C24" s="155"/>
+      <c r="M23" s="170"/>
+      <c r="P23" s="210"/>
+      <c r="Q23" s="160"/>
+      <c r="R23" s="161"/>
+      <c r="S23" s="3"/>
+      <c r="V23" s="207"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="37"/>
+      <c r="Y23" s="3"/>
+    </row>
+    <row r="24" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="197"/>
+      <c r="C24" s="169"/>
       <c r="D24" s="37"/>
       <c r="E24" s="3"/>
-      <c r="I24" s="208"/>
-      <c r="J24" s="160"/>
-      <c r="K24" s="161"/>
+      <c r="I24" s="197"/>
+      <c r="J24" s="155"/>
+      <c r="K24" s="37"/>
       <c r="L24" s="3"/>
-      <c r="O24" s="201"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="3"/>
-    </row>
-    <row r="25" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="205"/>
-      <c r="C25" s="155"/>
+      <c r="M24" s="170"/>
+      <c r="P24" s="210"/>
+      <c r="Q24" s="160"/>
+      <c r="R24" s="161"/>
+      <c r="S24" s="3"/>
+      <c r="V24" s="207"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="3"/>
+    </row>
+    <row r="25" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="197"/>
+      <c r="C25" s="169"/>
       <c r="D25" s="37"/>
       <c r="E25" s="3"/>
-      <c r="I25" s="208"/>
-      <c r="J25" s="160"/>
-      <c r="K25" s="161"/>
+      <c r="I25" s="197"/>
+      <c r="J25" s="155"/>
+      <c r="K25" s="37"/>
       <c r="L25" s="3"/>
-      <c r="O25" s="201"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="3"/>
-    </row>
-    <row r="26" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="205"/>
-      <c r="C26" s="155"/>
+      <c r="M25" s="170"/>
+      <c r="P25" s="210"/>
+      <c r="Q25" s="160"/>
+      <c r="R25" s="161"/>
+      <c r="S25" s="3"/>
+      <c r="V25" s="207"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="3"/>
+    </row>
+    <row r="26" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="197"/>
+      <c r="C26" s="169"/>
       <c r="D26" s="37"/>
       <c r="E26" s="3"/>
-      <c r="I26" s="208"/>
-      <c r="J26" s="160"/>
-      <c r="K26" s="161"/>
+      <c r="I26" s="197"/>
+      <c r="J26" s="155"/>
+      <c r="K26" s="37"/>
       <c r="L26" s="3"/>
-      <c r="O26" s="201"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="3"/>
-    </row>
-    <row r="27" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="206"/>
+      <c r="M26" s="170"/>
+      <c r="P26" s="210"/>
+      <c r="Q26" s="160"/>
+      <c r="R26" s="161"/>
+      <c r="S26" s="3"/>
+      <c r="V26" s="207"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="3"/>
+    </row>
+    <row r="27" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="198"/>
       <c r="C27" s="159" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="154">
-        <f>SUM(D5:D13)</f>
-        <v>350000</v>
-      </c>
-      <c r="I27" s="208"/>
-      <c r="J27" s="162" t="s">
+        <f>SUM(D5:D14)</f>
+        <v>1313480</v>
+      </c>
+      <c r="I27" s="198"/>
+      <c r="J27" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="163">
-        <f>SUM(K5:K14)</f>
+      <c r="K27" s="154">
+        <f>SUM(K5:K13)</f>
+        <v>650000</v>
+      </c>
+      <c r="M27" s="170"/>
+      <c r="P27" s="210"/>
+      <c r="Q27" s="162" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="163">
+        <f>SUM(R5:R14)</f>
         <v>563480</v>
       </c>
-      <c r="O27" s="201"/>
-      <c r="P27" s="153" t="s">
+      <c r="V27" s="207"/>
+      <c r="W27" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="Q27" s="154">
-        <f>SUM(Q5:Q12)</f>
+      <c r="X27" s="154">
+        <f>SUM(X5:X12)</f>
         <v>30000</v>
       </c>
     </row>
-    <row r="28" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="64"/>
       <c r="C28" s="121"/>
       <c r="D28" s="49">
-        <v>-1330318.2</v>
+        <v>-2291155.69</v>
       </c>
       <c r="E28" s="152">
         <v>44996</v>
       </c>
       <c r="I28" s="64"/>
-      <c r="J28" s="164"/>
-      <c r="K28" s="165">
+      <c r="J28" s="121"/>
+      <c r="K28" s="49">
+        <v>-1330318.2</v>
+      </c>
+      <c r="L28" s="152">
+        <v>44996</v>
+      </c>
+      <c r="M28" s="170"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="164"/>
+      <c r="R28" s="165">
         <v>-563480</v>
       </c>
-      <c r="L28" s="152">
+      <c r="S28" s="152">
         <v>44947</v>
       </c>
-      <c r="O28" s="64"/>
-      <c r="P28" s="121"/>
-      <c r="Q28" s="49">
+      <c r="V28" s="64"/>
+      <c r="W28" s="121"/>
+      <c r="X28" s="49">
         <v>67769</v>
       </c>
-      <c r="R28" s="152">
+      <c r="Y28" s="152">
         <v>44873</v>
       </c>
     </row>
-    <row r="29" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B29" s="64"/>
       <c r="C29" s="65"/>
       <c r="D29" s="49">
@@ -5815,56 +6120,75 @@
       </c>
       <c r="E29" s="124"/>
       <c r="I29" s="64"/>
-      <c r="J29" s="166"/>
-      <c r="K29" s="165">
+      <c r="J29" s="65"/>
+      <c r="K29" s="49">
         <v>0</v>
       </c>
       <c r="L29" s="124"/>
-      <c r="O29" s="64"/>
-      <c r="P29" s="65"/>
-      <c r="Q29" s="49">
-        <v>0</v>
-      </c>
-      <c r="R29" s="124"/>
-    </row>
-    <row r="30" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M29" s="170"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="166"/>
+      <c r="R29" s="165">
+        <v>0</v>
+      </c>
+      <c r="S29" s="124"/>
+      <c r="V29" s="64"/>
+      <c r="W29" s="65"/>
+      <c r="X29" s="49">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="124"/>
+    </row>
+    <row r="30" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="84"/>
       <c r="D30" s="29">
         <v>0</v>
       </c>
-      <c r="J30" s="167"/>
-      <c r="K30" s="168">
-        <v>0</v>
-      </c>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J30" s="84"/>
+      <c r="K30" s="29">
+        <v>0</v>
+      </c>
+      <c r="M30" s="170"/>
+      <c r="Q30" s="167"/>
+      <c r="R30" s="168">
+        <v>0</v>
+      </c>
+      <c r="W30" s="84"/>
+      <c r="X30" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C31" s="33" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="34">
         <f>D30+D27+D28+D29</f>
-        <v>-980318.2</v>
+        <v>-977675.69</v>
       </c>
       <c r="J31" s="33" t="s">
         <v>4</v>
       </c>
       <c r="K31" s="34">
         <f>K30+K27+K28+K29</f>
-        <v>0</v>
-      </c>
-      <c r="P31" s="33" t="s">
+        <v>-680318.2</v>
+      </c>
+      <c r="Q31" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="Q31" s="34">
-        <f>Q30+Q27+Q28+Q29</f>
+      <c r="R31" s="34">
+        <f>R30+R27+R28+R29</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="X31" s="34">
+        <f>X30+X27+X28+X29</f>
         <v>97769</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
       <c r="D32" s="2" t="s">
         <v>7</v>
@@ -5873,34 +6197,44 @@
       <c r="K32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="2" t="s">
+      <c r="Q32" s="1"/>
+      <c r="R32" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="W32" s="1"/>
+      <c r="X32" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q33" s="1"/>
+      <c r="W33" s="1"/>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="Q34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W34" s="1"/>
+    </row>
+    <row r="35" spans="2:25" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C35" s="1"/>
       <c r="D35" s="117"/>
       <c r="J35" s="1"/>
       <c r="K35" s="117"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="117"/>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q35" s="1"/>
+      <c r="R35" s="117"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="117"/>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B43" s="118"/>
       <c r="C43" s="118"/>
       <c r="D43" s="119"/>
@@ -5909,12 +6243,16 @@
       <c r="J43" s="118"/>
       <c r="K43" s="119"/>
       <c r="L43" s="118"/>
-      <c r="O43" s="118"/>
       <c r="P43" s="118"/>
-      <c r="Q43" s="119"/>
-      <c r="R43" s="118"/>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q43" s="118"/>
+      <c r="R43" s="119"/>
+      <c r="S43" s="118"/>
+      <c r="V43" s="118"/>
+      <c r="W43" s="118"/>
+      <c r="X43" s="119"/>
+      <c r="Y43" s="118"/>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B44" s="118"/>
       <c r="C44" s="118"/>
       <c r="D44" s="119"/>
@@ -5923,12 +6261,16 @@
       <c r="J44" s="118"/>
       <c r="K44" s="119"/>
       <c r="L44" s="118"/>
-      <c r="O44" s="118"/>
       <c r="P44" s="118"/>
-      <c r="Q44" s="119"/>
-      <c r="R44" s="118"/>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q44" s="118"/>
+      <c r="R44" s="119"/>
+      <c r="S44" s="118"/>
+      <c r="V44" s="118"/>
+      <c r="W44" s="118"/>
+      <c r="X44" s="119"/>
+      <c r="Y44" s="118"/>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B45" s="118"/>
       <c r="C45" s="118"/>
       <c r="D45" s="119"/>
@@ -5937,12 +6279,16 @@
       <c r="J45" s="118"/>
       <c r="K45" s="119"/>
       <c r="L45" s="118"/>
-      <c r="O45" s="118"/>
       <c r="P45" s="118"/>
-      <c r="Q45" s="119"/>
-      <c r="R45" s="118"/>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q45" s="118"/>
+      <c r="R45" s="119"/>
+      <c r="S45" s="118"/>
+      <c r="V45" s="118"/>
+      <c r="W45" s="118"/>
+      <c r="X45" s="119"/>
+      <c r="Y45" s="118"/>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B46" s="118"/>
       <c r="C46" s="118"/>
       <c r="D46" s="119"/>
@@ -5951,12 +6297,16 @@
       <c r="J46" s="118"/>
       <c r="K46" s="119"/>
       <c r="L46" s="118"/>
-      <c r="O46" s="118"/>
       <c r="P46" s="118"/>
-      <c r="Q46" s="119"/>
-      <c r="R46" s="118"/>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q46" s="118"/>
+      <c r="R46" s="119"/>
+      <c r="S46" s="118"/>
+      <c r="V46" s="118"/>
+      <c r="W46" s="118"/>
+      <c r="X46" s="119"/>
+      <c r="Y46" s="118"/>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B47" s="120"/>
       <c r="C47" s="120"/>
       <c r="D47" s="120"/>
@@ -5965,12 +6315,16 @@
       <c r="J47" s="120"/>
       <c r="K47" s="120"/>
       <c r="L47" s="120"/>
-      <c r="O47" s="120"/>
       <c r="P47" s="120"/>
       <c r="Q47" s="120"/>
       <c r="R47" s="120"/>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S47" s="120"/>
+      <c r="V47" s="120"/>
+      <c r="W47" s="120"/>
+      <c r="X47" s="120"/>
+      <c r="Y47" s="120"/>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B48" s="120"/>
       <c r="C48" s="120"/>
       <c r="D48" s="120"/>
@@ -5979,12 +6333,16 @@
       <c r="J48" s="120"/>
       <c r="K48" s="120"/>
       <c r="L48" s="120"/>
-      <c r="O48" s="120"/>
       <c r="P48" s="120"/>
       <c r="Q48" s="120"/>
       <c r="R48" s="120"/>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S48" s="120"/>
+      <c r="V48" s="120"/>
+      <c r="W48" s="120"/>
+      <c r="X48" s="120"/>
+      <c r="Y48" s="120"/>
+    </row>
+    <row r="49" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B49" s="120"/>
       <c r="C49" s="120"/>
       <c r="D49" s="120"/>
@@ -5993,12 +6351,16 @@
       <c r="J49" s="120"/>
       <c r="K49" s="120"/>
       <c r="L49" s="120"/>
-      <c r="O49" s="120"/>
       <c r="P49" s="120"/>
       <c r="Q49" s="120"/>
       <c r="R49" s="120"/>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S49" s="120"/>
+      <c r="V49" s="120"/>
+      <c r="W49" s="120"/>
+      <c r="X49" s="120"/>
+      <c r="Y49" s="120"/>
+    </row>
+    <row r="50" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B50" s="120"/>
       <c r="C50" s="120"/>
       <c r="D50" s="120"/>
@@ -6007,12 +6369,16 @@
       <c r="J50" s="120"/>
       <c r="K50" s="120"/>
       <c r="L50" s="120"/>
-      <c r="O50" s="120"/>
       <c r="P50" s="120"/>
       <c r="Q50" s="120"/>
       <c r="R50" s="120"/>
-    </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S50" s="120"/>
+      <c r="V50" s="120"/>
+      <c r="W50" s="120"/>
+      <c r="X50" s="120"/>
+      <c r="Y50" s="120"/>
+    </row>
+    <row r="51" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B51" s="120"/>
       <c r="C51" s="120"/>
       <c r="D51" s="120"/>
@@ -6021,12 +6387,16 @@
       <c r="J51" s="120"/>
       <c r="K51" s="120"/>
       <c r="L51" s="120"/>
-      <c r="O51" s="120"/>
       <c r="P51" s="120"/>
       <c r="Q51" s="120"/>
       <c r="R51" s="120"/>
-    </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S51" s="120"/>
+      <c r="V51" s="120"/>
+      <c r="W51" s="120"/>
+      <c r="X51" s="120"/>
+      <c r="Y51" s="120"/>
+    </row>
+    <row r="52" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B52" s="118"/>
       <c r="C52" s="118"/>
       <c r="D52" s="119"/>
@@ -6035,12 +6405,16 @@
       <c r="J52" s="118"/>
       <c r="K52" s="119"/>
       <c r="L52" s="118"/>
-      <c r="O52" s="118"/>
       <c r="P52" s="118"/>
-      <c r="Q52" s="119"/>
-      <c r="R52" s="118"/>
-    </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q52" s="118"/>
+      <c r="R52" s="119"/>
+      <c r="S52" s="118"/>
+      <c r="V52" s="118"/>
+      <c r="W52" s="118"/>
+      <c r="X52" s="119"/>
+      <c r="Y52" s="118"/>
+    </row>
+    <row r="53" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B53" s="118"/>
       <c r="C53" s="118"/>
       <c r="D53" s="119"/>
@@ -6049,12 +6423,16 @@
       <c r="J53" s="118"/>
       <c r="K53" s="119"/>
       <c r="L53" s="118"/>
-      <c r="O53" s="118"/>
       <c r="P53" s="118"/>
-      <c r="Q53" s="119"/>
-      <c r="R53" s="118"/>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q53" s="118"/>
+      <c r="R53" s="119"/>
+      <c r="S53" s="118"/>
+      <c r="V53" s="118"/>
+      <c r="W53" s="118"/>
+      <c r="X53" s="119"/>
+      <c r="Y53" s="118"/>
+    </row>
+    <row r="54" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B54" s="118"/>
       <c r="C54" s="118"/>
       <c r="D54" s="119"/>
@@ -6063,12 +6441,16 @@
       <c r="J54" s="118"/>
       <c r="K54" s="119"/>
       <c r="L54" s="118"/>
-      <c r="O54" s="118"/>
       <c r="P54" s="118"/>
-      <c r="Q54" s="119"/>
-      <c r="R54" s="118"/>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q54" s="118"/>
+      <c r="R54" s="119"/>
+      <c r="S54" s="118"/>
+      <c r="V54" s="118"/>
+      <c r="W54" s="118"/>
+      <c r="X54" s="119"/>
+      <c r="Y54" s="118"/>
+    </row>
+    <row r="55" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B55" s="118"/>
       <c r="C55" s="118"/>
       <c r="D55" s="119"/>
@@ -6077,26 +6459,34 @@
       <c r="J55" s="118"/>
       <c r="K55" s="119"/>
       <c r="L55" s="118"/>
-      <c r="O55" s="118"/>
       <c r="P55" s="118"/>
-      <c r="Q55" s="119"/>
-      <c r="R55" s="118"/>
+      <c r="Q55" s="118"/>
+      <c r="R55" s="119"/>
+      <c r="S55" s="118"/>
+      <c r="V55" s="118"/>
+      <c r="W55" s="118"/>
+      <c r="X55" s="119"/>
+      <c r="Y55" s="118"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="P9:R10"/>
-    <mergeCell ref="O2:O27"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:R3"/>
+  <mergeCells count="13">
     <mergeCell ref="B2:B27"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:E3"/>
+    <mergeCell ref="W9:Y10"/>
+    <mergeCell ref="V2:V27"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="I2:I27"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="J3:L3"/>
-    <mergeCell ref="I2:I27"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="P2:P27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6303,12 +6693,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="209" t="s">
+      <c r="B3" s="211" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="210"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="211"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
     </row>
@@ -7530,11 +7920,11 @@
         <v>-659691.4</v>
       </c>
       <c r="E123" s="100"/>
-      <c r="G123" s="212">
+      <c r="G123" s="214">
         <f>D121+D122+D123+D124</f>
         <v>-8718896</v>
       </c>
-      <c r="H123" s="213"/>
+      <c r="H123" s="215"/>
     </row>
     <row r="124" spans="1:8 16384:16384" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="110"/>
@@ -7546,8 +7936,8 @@
         <v>-1241668.1599999999</v>
       </c>
       <c r="E124" s="100"/>
-      <c r="G124" s="214"/>
-      <c r="H124" s="215"/>
+      <c r="G124" s="216"/>
+      <c r="H124" s="217"/>
     </row>
     <row r="125" spans="1:8 16384:16384" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="111"/>
@@ -7628,23 +8018,23 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="218" t="s">
+      <c r="B2" s="220" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="221" t="s">
+      <c r="C2" s="223" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="222"/>
+      <c r="D2" s="224"/>
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="219"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="171"/>
+      <c r="B3" s="221"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="173"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="220"/>
+      <c r="B4" s="222"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -7682,13 +8072,13 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="216"/>
+      <c r="B8" s="218"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="217"/>
+      <c r="B9" s="219"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -7881,7 +8271,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="207" t="s">
+      <c r="B2" s="209" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -7891,13 +8281,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="208"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="171"/>
+      <c r="B3" s="210"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="173"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="208"/>
+      <c r="B4" s="210"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -7905,7 +8295,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="208"/>
+      <c r="B5" s="210"/>
       <c r="C5" s="47">
         <v>44380</v>
       </c>
@@ -7915,7 +8305,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="223"/>
+      <c r="B6" s="225"/>
       <c r="C6" s="36">
         <v>44396</v>
       </c>
@@ -7931,7 +8321,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="216" t="s">
+      <c r="B8" s="218" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="36">
@@ -7943,7 +8333,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="217"/>
+      <c r="B9" s="219"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -8146,7 +8536,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="207" t="s">
+      <c r="A2" s="209" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -8154,7 +8544,7 @@
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="17"/>
-      <c r="I2" s="207" t="s">
+      <c r="I2" s="209" t="s">
         <v>74</v>
       </c>
       <c r="J2" s="15" t="s">
@@ -8164,23 +8554,23 @@
       <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="208"/>
-      <c r="B3" s="169"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="171"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="171"/>
+      <c r="A3" s="210"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="173"/>
+      <c r="I3" s="210"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="172"/>
+      <c r="L3" s="173"/>
     </row>
     <row r="4" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="208"/>
+      <c r="A4" s="210"/>
       <c r="B4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="23"/>
-      <c r="I4" s="208"/>
+      <c r="I4" s="210"/>
       <c r="J4" s="21" t="s">
         <v>2</v>
       </c>
@@ -8188,7 +8578,7 @@
       <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="208"/>
+      <c r="A5" s="210"/>
       <c r="B5" s="47">
         <v>44935</v>
       </c>
@@ -8196,7 +8586,7 @@
         <v>49000</v>
       </c>
       <c r="D5" s="28"/>
-      <c r="I5" s="208"/>
+      <c r="I5" s="210"/>
       <c r="J5" s="47">
         <v>44621</v>
       </c>
@@ -8206,11 +8596,11 @@
       <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="208"/>
+      <c r="A6" s="210"/>
       <c r="B6" s="36"/>
       <c r="C6" s="37"/>
       <c r="D6" s="27"/>
-      <c r="I6" s="223"/>
+      <c r="I6" s="225"/>
       <c r="J6" s="36">
         <v>44656</v>
       </c>
@@ -8220,7 +8610,7 @@
       <c r="L6" s="27"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="208"/>
+      <c r="A7" s="210"/>
       <c r="B7" s="36"/>
       <c r="C7" s="37"/>
       <c r="D7" s="41"/>
@@ -8230,13 +8620,13 @@
       <c r="L7" s="41"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="208"/>
+      <c r="A8" s="210"/>
       <c r="B8" s="36"/>
       <c r="C8" s="37">
         <v>0</v>
       </c>
       <c r="D8" s="27"/>
-      <c r="I8" s="216"/>
+      <c r="I8" s="218"/>
       <c r="J8" s="36"/>
       <c r="K8" s="37">
         <v>0</v>
@@ -8244,17 +8634,17 @@
       <c r="L8" s="27"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="208"/>
+      <c r="A9" s="210"/>
       <c r="B9" s="93"/>
       <c r="C9" s="77"/>
       <c r="D9" s="27"/>
-      <c r="I9" s="217"/>
+      <c r="I9" s="219"/>
       <c r="J9" s="93"/>
       <c r="K9" s="77"/>
       <c r="L9" s="27"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="208"/>
+      <c r="A10" s="210"/>
       <c r="B10" s="93"/>
       <c r="C10" s="77"/>
       <c r="D10" s="27"/>
@@ -8264,7 +8654,7 @@
       <c r="L10" s="27"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="208"/>
+      <c r="A11" s="210"/>
       <c r="B11" s="93"/>
       <c r="C11" s="77"/>
       <c r="D11" s="27"/>
@@ -8274,7 +8664,7 @@
       <c r="L11" s="27"/>
     </row>
     <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="223"/>
+      <c r="A12" s="225"/>
       <c r="B12" s="38"/>
       <c r="C12" s="39">
         <v>0</v>
@@ -8575,12 +8965,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="209" t="s">
+      <c r="B3" s="211" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="210"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="211"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
     </row>
@@ -9699,11 +10089,11 @@
       <c r="E117" s="100">
         <v>44264</v>
       </c>
-      <c r="G117" s="212">
+      <c r="G117" s="214">
         <f>D115+D116+D117+D118</f>
         <v>-7492427.9600000009</v>
       </c>
-      <c r="H117" s="213"/>
+      <c r="H117" s="215"/>
     </row>
     <row r="118" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="110"/>
@@ -9717,8 +10107,8 @@
       <c r="E118" s="100">
         <v>44264</v>
       </c>
-      <c r="G118" s="214"/>
-      <c r="H118" s="215"/>
+      <c r="G118" s="216"/>
+      <c r="H118" s="217"/>
     </row>
     <row r="119" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="111"/>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1311,6 +1311,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1318,36 +1348,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3591,18 +3591,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="174" t="s">
+      <c r="C3" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="174"/>
+      <c r="D3" s="184"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="180" t="s">
+      <c r="C4" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="180"/>
+      <c r="D4" s="175"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3612,10 +3612,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="175" t="s">
+      <c r="B6" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="176"/>
+      <c r="C6" s="186"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3632,10 +3632,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="177" t="s">
+      <c r="B8" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="178"/>
+      <c r="C8" s="183"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3652,10 +3652,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="177" t="s">
+      <c r="B10" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="178"/>
+      <c r="C10" s="183"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3672,10 +3672,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="177" t="s">
+      <c r="B12" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="178"/>
+      <c r="C12" s="183"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3692,10 +3692,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="177" t="s">
+      <c r="B14" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="178"/>
+      <c r="C14" s="183"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3712,10 +3712,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="181" t="s">
+      <c r="B16" s="176" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="182"/>
+      <c r="C16" s="177"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3732,14 +3732,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="181" t="s">
+      <c r="B18" s="176" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="182"/>
+      <c r="C18" s="177"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="183" t="s">
+      <c r="E18" s="178" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="184"/>
+      <c r="E19" s="179"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3760,10 +3760,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="181" t="s">
+      <c r="B21" s="176" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="182"/>
+      <c r="C21" s="177"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3780,10 +3780,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="185" t="s">
+      <c r="B23" s="180" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="186"/>
+      <c r="C23" s="181"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3800,10 +3800,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="179" t="s">
+      <c r="B25" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="179"/>
+      <c r="C25" s="174"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3854,6 +3854,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3862,11 +3867,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5397,7 +5397,7 @@
   <dimension ref="B1:Y55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5816,8 +5816,12 @@
     </row>
     <row r="15" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="197"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="37"/>
+      <c r="C15" s="169">
+        <v>45073</v>
+      </c>
+      <c r="D15" s="37">
+        <v>100000</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="I15" s="197"/>
       <c r="J15" s="155"/>
@@ -6048,8 +6052,8 @@
         <v>3</v>
       </c>
       <c r="D27" s="154">
-        <f>SUM(D5:D14)</f>
-        <v>1313480</v>
+        <f>SUM(D5:D15)</f>
+        <v>1413480</v>
       </c>
       <c r="I27" s="198"/>
       <c r="J27" s="159" t="s">
@@ -6164,7 +6168,7 @@
       </c>
       <c r="D31" s="34">
         <f>D30+D27+D28+D29</f>
-        <v>-977675.69</v>
+        <v>-877675.69</v>
       </c>
       <c r="J31" s="33" t="s">
         <v>4</v>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1311,6 +1311,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1333,21 +1348,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3591,18 +3591,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="184" t="s">
+      <c r="C3" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="184"/>
+      <c r="D3" s="174"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="175"/>
+      <c r="D4" s="180"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3612,10 +3612,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="185" t="s">
+      <c r="B6" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="186"/>
+      <c r="C6" s="176"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3632,10 +3632,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="182" t="s">
+      <c r="B8" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="183"/>
+      <c r="C8" s="178"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3652,10 +3652,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="182" t="s">
+      <c r="B10" s="177" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="183"/>
+      <c r="C10" s="178"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3672,10 +3672,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="182" t="s">
+      <c r="B12" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="183"/>
+      <c r="C12" s="178"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3692,10 +3692,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="182" t="s">
+      <c r="B14" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="183"/>
+      <c r="C14" s="178"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3712,10 +3712,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="176" t="s">
+      <c r="B16" s="181" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="177"/>
+      <c r="C16" s="182"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3732,14 +3732,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="176" t="s">
+      <c r="B18" s="181" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="177"/>
+      <c r="C18" s="182"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="178" t="s">
+      <c r="E18" s="183" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="179"/>
+      <c r="E19" s="184"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3760,10 +3760,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="176" t="s">
+      <c r="B21" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="177"/>
+      <c r="C21" s="182"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3780,10 +3780,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="180" t="s">
+      <c r="B23" s="185" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="181"/>
+      <c r="C23" s="186"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3800,10 +3800,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="174" t="s">
+      <c r="B25" s="179" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="174"/>
+      <c r="C25" s="179"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3854,11 +3854,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3867,6 +3862,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5397,7 +5397,7 @@
   <dimension ref="B1:Y55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5839,8 +5839,12 @@
     </row>
     <row r="16" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="197"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="37"/>
+      <c r="C16" s="169">
+        <v>45079</v>
+      </c>
+      <c r="D16" s="37">
+        <v>100000</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="I16" s="197"/>
       <c r="J16" s="155"/>
@@ -6052,8 +6056,8 @@
         <v>3</v>
       </c>
       <c r="D27" s="154">
-        <f>SUM(D5:D15)</f>
-        <v>1413480</v>
+        <f>SUM(D5:D16)</f>
+        <v>1513480</v>
       </c>
       <c r="I27" s="198"/>
       <c r="J27" s="159" t="s">
@@ -6168,7 +6172,7 @@
       </c>
       <c r="D31" s="34">
         <f>D30+D27+D28+D29</f>
-        <v>-877675.69</v>
+        <v>-777675.69</v>
       </c>
       <c r="J31" s="33" t="s">
         <v>4</v>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1311,6 +1311,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1318,36 +1348,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3591,18 +3591,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="174" t="s">
+      <c r="C3" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="174"/>
+      <c r="D3" s="184"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="180" t="s">
+      <c r="C4" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="180"/>
+      <c r="D4" s="175"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3612,10 +3612,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="175" t="s">
+      <c r="B6" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="176"/>
+      <c r="C6" s="186"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3632,10 +3632,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="177" t="s">
+      <c r="B8" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="178"/>
+      <c r="C8" s="183"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3652,10 +3652,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="177" t="s">
+      <c r="B10" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="178"/>
+      <c r="C10" s="183"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3672,10 +3672,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="177" t="s">
+      <c r="B12" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="178"/>
+      <c r="C12" s="183"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3692,10 +3692,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="177" t="s">
+      <c r="B14" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="178"/>
+      <c r="C14" s="183"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3712,10 +3712,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="181" t="s">
+      <c r="B16" s="176" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="182"/>
+      <c r="C16" s="177"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3732,14 +3732,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="181" t="s">
+      <c r="B18" s="176" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="182"/>
+      <c r="C18" s="177"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="183" t="s">
+      <c r="E18" s="178" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="184"/>
+      <c r="E19" s="179"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3760,10 +3760,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="181" t="s">
+      <c r="B21" s="176" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="182"/>
+      <c r="C21" s="177"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3780,10 +3780,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="185" t="s">
+      <c r="B23" s="180" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="186"/>
+      <c r="C23" s="181"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3800,10 +3800,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="179" t="s">
+      <c r="B25" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="179"/>
+      <c r="C25" s="174"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3854,6 +3854,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3862,11 +3867,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5397,7 +5397,7 @@
   <dimension ref="B1:Y55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B1" sqref="B1:S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5406,15 +5406,17 @@
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="4.85546875" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="19.5703125" style="2" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="13" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" customWidth="1"/>
     <col min="18" max="18" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18.7109375" customWidth="1"/>
@@ -6492,8 +6494,8 @@
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="P2:P27"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.35433070866141736" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="100">
   <si>
     <t xml:space="preserve">PAGOS  SOBRE REMODELACION </t>
   </si>
@@ -353,6 +353,15 @@
   </si>
   <si>
     <t>AMPLIACION OBRADOR CIMENTACION MURO CONTENCION-RAMPA Y SELLO ANDEN-COLADERAS Y LAVAMANSO DE PEDAL-PINTURA-RIELERIA INERIOR CAMARA-ESTRUCTURA P-SOPORTE DE RIELERIA-RIENELERIA EXT- CERDO Y RES-CAJA-C-BAÑO---</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AZULEJO Transferencia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMPA Transferencia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PANEL PLAFON Transferencia </t>
   </si>
 </sst>
 </file>
@@ -968,7 +977,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="226">
+  <cellXfs count="229">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1302,6 +1311,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1311,6 +1323,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1335,21 +1362,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1467,6 +1479,8 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2983,17 +2997,17 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="171" t="s">
+      <c r="C3" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="172"/>
-      <c r="E3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="174"/>
       <c r="H3" s="50"/>
-      <c r="I3" s="171" t="s">
+      <c r="I3" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="172"/>
-      <c r="K3" s="173"/>
+      <c r="J3" s="173"/>
+      <c r="K3" s="174"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3433,11 +3447,11 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="171" t="s">
+      <c r="C3" s="172" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="172"/>
-      <c r="E3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="174"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3591,18 +3605,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="184" t="s">
+      <c r="C3" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="184"/>
+      <c r="D3" s="175"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="175"/>
+      <c r="D4" s="181"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3612,10 +3626,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="185" t="s">
+      <c r="B6" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="186"/>
+      <c r="C6" s="177"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3632,10 +3646,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="182" t="s">
+      <c r="B8" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="183"/>
+      <c r="C8" s="179"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3652,10 +3666,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="182" t="s">
+      <c r="B10" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="183"/>
+      <c r="C10" s="179"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3672,10 +3686,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="182" t="s">
+      <c r="B12" s="178" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="183"/>
+      <c r="C12" s="179"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3692,10 +3706,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="182" t="s">
+      <c r="B14" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="183"/>
+      <c r="C14" s="179"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3712,10 +3726,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="176" t="s">
+      <c r="B16" s="182" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="177"/>
+      <c r="C16" s="183"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3732,14 +3746,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="176" t="s">
+      <c r="B18" s="182" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="177"/>
+      <c r="C18" s="183"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="178" t="s">
+      <c r="E18" s="184" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3749,7 +3763,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="179"/>
+      <c r="E19" s="185"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3760,10 +3774,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="176" t="s">
+      <c r="B21" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="177"/>
+      <c r="C21" s="183"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3780,10 +3794,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="180" t="s">
+      <c r="B23" s="186" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="181"/>
+      <c r="C23" s="187"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3800,10 +3814,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="174" t="s">
+      <c r="B25" s="180" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="174"/>
+      <c r="C25" s="180"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3854,11 +3868,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3867,6 +3876,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3905,11 +3919,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="171" t="s">
+      <c r="C3" s="172" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="172"/>
-      <c r="E3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="174"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4110,11 +4124,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="171" t="s">
+      <c r="C3" s="172" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="172"/>
-      <c r="E3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="174"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4299,11 +4313,11 @@
     </row>
     <row r="3" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="50"/>
-      <c r="C3" s="171" t="s">
+      <c r="C3" s="172" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="172"/>
-      <c r="E3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="174"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4507,9 +4521,9 @@
       <c r="B3" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="171"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="173"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="174"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4740,9 +4754,9 @@
       <c r="B3" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="171"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="173"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="174"/>
     </row>
     <row r="4" spans="2:5" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -5100,36 +5114,36 @@
     </row>
     <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="187" t="s">
+      <c r="B57" s="188" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="188"/>
-      <c r="D57" s="188"/>
-      <c r="E57" s="189"/>
+      <c r="C57" s="189"/>
+      <c r="D57" s="189"/>
+      <c r="E57" s="190"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="190"/>
-      <c r="C58" s="191"/>
-      <c r="D58" s="191"/>
-      <c r="E58" s="192"/>
+      <c r="B58" s="191"/>
+      <c r="C58" s="192"/>
+      <c r="D58" s="192"/>
+      <c r="E58" s="193"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="190"/>
-      <c r="C59" s="191"/>
-      <c r="D59" s="191"/>
-      <c r="E59" s="192"/>
+      <c r="B59" s="191"/>
+      <c r="C59" s="192"/>
+      <c r="D59" s="192"/>
+      <c r="E59" s="193"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="190"/>
-      <c r="C60" s="191"/>
-      <c r="D60" s="191"/>
-      <c r="E60" s="192"/>
+      <c r="B60" s="191"/>
+      <c r="C60" s="192"/>
+      <c r="D60" s="192"/>
+      <c r="E60" s="193"/>
     </row>
     <row r="61" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="193"/>
-      <c r="C61" s="194"/>
-      <c r="D61" s="194"/>
-      <c r="E61" s="195"/>
+      <c r="B61" s="194"/>
+      <c r="C61" s="195"/>
+      <c r="D61" s="195"/>
+      <c r="E61" s="196"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5174,9 +5188,9 @@
       <c r="B3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="171"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="173"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="174"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -5396,8 +5410,8 @@
   </sheetPr>
   <dimension ref="B1:Y55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:S31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5406,6 +5420,7 @@
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="4.85546875" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" hidden="1" customWidth="1"/>
@@ -5426,80 +5441,80 @@
   <sheetData>
     <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="196" t="s">
+      <c r="B2" s="197" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="199" t="s">
+      <c r="C2" s="200" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="199"/>
+      <c r="D2" s="200"/>
       <c r="E2" s="17"/>
-      <c r="I2" s="196" t="s">
+      <c r="I2" s="197" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="199" t="s">
+      <c r="J2" s="200" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="199"/>
+      <c r="K2" s="200"/>
       <c r="L2" s="17"/>
       <c r="M2" s="170"/>
-      <c r="P2" s="209" t="s">
+      <c r="P2" s="210" t="s">
         <v>92</v>
       </c>
-      <c r="Q2" s="208" t="s">
+      <c r="Q2" s="209" t="s">
         <v>80</v>
       </c>
-      <c r="R2" s="199"/>
+      <c r="R2" s="200"/>
       <c r="S2" s="17"/>
-      <c r="V2" s="206" t="s">
+      <c r="V2" s="207" t="s">
         <v>94</v>
       </c>
-      <c r="W2" s="208" t="s">
+      <c r="W2" s="209" t="s">
         <v>80</v>
       </c>
-      <c r="X2" s="199"/>
+      <c r="X2" s="200"/>
       <c r="Y2" s="17"/>
     </row>
     <row r="3" spans="2:25" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="197"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="173"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="173"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="174"/>
+      <c r="I3" s="198"/>
+      <c r="J3" s="173"/>
+      <c r="K3" s="173"/>
+      <c r="L3" s="174"/>
       <c r="M3" s="170"/>
-      <c r="P3" s="210"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="173"/>
-      <c r="V3" s="207"/>
-      <c r="W3" s="172"/>
-      <c r="X3" s="172"/>
-      <c r="Y3" s="173"/>
+      <c r="P3" s="211"/>
+      <c r="Q3" s="173"/>
+      <c r="R3" s="173"/>
+      <c r="S3" s="174"/>
+      <c r="V3" s="208"/>
+      <c r="W3" s="173"/>
+      <c r="X3" s="173"/>
+      <c r="Y3" s="174"/>
     </row>
     <row r="4" spans="2:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="197"/>
+      <c r="B4" s="198"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
-      <c r="I4" s="197"/>
+      <c r="I4" s="198"/>
       <c r="J4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="22"/>
       <c r="L4" s="23"/>
       <c r="M4" s="170"/>
-      <c r="P4" s="210"/>
+      <c r="P4" s="211"/>
       <c r="Q4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="R4" s="22"/>
       <c r="S4" s="23"/>
-      <c r="V4" s="207"/>
+      <c r="V4" s="208"/>
       <c r="W4" s="21" t="s">
         <v>2</v>
       </c>
@@ -5507,7 +5522,7 @@
       <c r="Y4" s="23"/>
     </row>
     <row r="5" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="197"/>
+      <c r="B5" s="198"/>
       <c r="C5" s="156" t="s">
         <v>80</v>
       </c>
@@ -5515,7 +5530,7 @@
         <v>563480</v>
       </c>
       <c r="E5" s="28"/>
-      <c r="I5" s="197"/>
+      <c r="I5" s="198"/>
       <c r="J5" s="156">
         <v>45010</v>
       </c>
@@ -5524,7 +5539,7 @@
       </c>
       <c r="L5" s="28"/>
       <c r="M5" s="170"/>
-      <c r="P5" s="210"/>
+      <c r="P5" s="211"/>
       <c r="Q5" s="47">
         <v>44947</v>
       </c>
@@ -5532,7 +5547,7 @@
         <v>50000</v>
       </c>
       <c r="S5" s="28"/>
-      <c r="V5" s="207"/>
+      <c r="V5" s="208"/>
       <c r="W5" s="47">
         <v>44873</v>
       </c>
@@ -5542,7 +5557,7 @@
       <c r="Y5" s="28"/>
     </row>
     <row r="6" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="197"/>
+      <c r="B6" s="198"/>
       <c r="C6" s="156">
         <v>45010</v>
       </c>
@@ -5550,7 +5565,7 @@
         <v>50000</v>
       </c>
       <c r="E6" s="27"/>
-      <c r="I6" s="197"/>
+      <c r="I6" s="198"/>
       <c r="J6" s="155">
         <v>45017</v>
       </c>
@@ -5559,7 +5574,7 @@
       </c>
       <c r="L6" s="27"/>
       <c r="M6" s="170"/>
-      <c r="P6" s="210"/>
+      <c r="P6" s="211"/>
       <c r="Q6" s="36">
         <v>44954</v>
       </c>
@@ -5567,13 +5582,13 @@
         <v>50000</v>
       </c>
       <c r="S6" s="27"/>
-      <c r="V6" s="207"/>
+      <c r="V6" s="208"/>
       <c r="W6" s="36"/>
       <c r="X6" s="37"/>
       <c r="Y6" s="27"/>
     </row>
     <row r="7" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="197"/>
+      <c r="B7" s="198"/>
       <c r="C7" s="169">
         <v>45017</v>
       </c>
@@ -5581,7 +5596,7 @@
         <v>100000</v>
       </c>
       <c r="E7" s="41"/>
-      <c r="I7" s="197"/>
+      <c r="I7" s="198"/>
       <c r="J7" s="155">
         <v>45021</v>
       </c>
@@ -5590,7 +5605,7 @@
       </c>
       <c r="L7" s="41"/>
       <c r="M7" s="170"/>
-      <c r="P7" s="210"/>
+      <c r="P7" s="211"/>
       <c r="Q7" s="36">
         <v>44961</v>
       </c>
@@ -5598,13 +5613,13 @@
         <v>50000</v>
       </c>
       <c r="S7" s="41"/>
-      <c r="V7" s="207"/>
+      <c r="V7" s="208"/>
       <c r="W7" s="36"/>
       <c r="X7" s="37"/>
       <c r="Y7" s="41"/>
     </row>
     <row r="8" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="197"/>
+      <c r="B8" s="198"/>
       <c r="C8" s="169">
         <v>45021</v>
       </c>
@@ -5612,7 +5627,7 @@
         <v>50000</v>
       </c>
       <c r="E8" s="27"/>
-      <c r="I8" s="197"/>
+      <c r="I8" s="198"/>
       <c r="J8" s="155">
         <v>45031</v>
       </c>
@@ -5621,7 +5636,7 @@
       </c>
       <c r="L8" s="27"/>
       <c r="M8" s="170"/>
-      <c r="P8" s="210"/>
+      <c r="P8" s="211"/>
       <c r="Q8" s="36">
         <v>44968</v>
       </c>
@@ -5629,13 +5644,13 @@
         <v>50000</v>
       </c>
       <c r="S8" s="27"/>
-      <c r="V8" s="207"/>
+      <c r="V8" s="208"/>
       <c r="W8" s="36"/>
       <c r="X8" s="37"/>
       <c r="Y8" s="27"/>
     </row>
     <row r="9" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="197"/>
+      <c r="B9" s="198"/>
       <c r="C9" s="169">
         <v>45031</v>
       </c>
@@ -5643,7 +5658,7 @@
         <v>100000</v>
       </c>
       <c r="E9" s="27"/>
-      <c r="I9" s="197"/>
+      <c r="I9" s="198"/>
       <c r="J9" s="157">
         <v>45038</v>
       </c>
@@ -5652,7 +5667,7 @@
       </c>
       <c r="L9" s="27"/>
       <c r="M9" s="170"/>
-      <c r="P9" s="210"/>
+      <c r="P9" s="211"/>
       <c r="Q9" s="93">
         <v>44975</v>
       </c>
@@ -5660,15 +5675,15 @@
         <v>50000</v>
       </c>
       <c r="S9" s="27"/>
-      <c r="V9" s="207"/>
-      <c r="W9" s="200" t="s">
+      <c r="V9" s="208"/>
+      <c r="W9" s="201" t="s">
         <v>95</v>
       </c>
-      <c r="X9" s="201"/>
-      <c r="Y9" s="202"/>
+      <c r="X9" s="202"/>
+      <c r="Y9" s="203"/>
     </row>
     <row r="10" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="197"/>
+      <c r="B10" s="198"/>
       <c r="C10" s="157">
         <v>45038</v>
       </c>
@@ -5676,7 +5691,7 @@
         <v>50000</v>
       </c>
       <c r="E10" s="27"/>
-      <c r="I10" s="197"/>
+      <c r="I10" s="198"/>
       <c r="J10" s="157">
         <v>45045</v>
       </c>
@@ -5685,7 +5700,7 @@
       </c>
       <c r="L10" s="27"/>
       <c r="M10" s="170"/>
-      <c r="P10" s="210"/>
+      <c r="P10" s="211"/>
       <c r="Q10" s="93">
         <v>44982</v>
       </c>
@@ -5693,13 +5708,13 @@
         <v>50000</v>
       </c>
       <c r="S10" s="27"/>
-      <c r="V10" s="207"/>
-      <c r="W10" s="203"/>
-      <c r="X10" s="204"/>
-      <c r="Y10" s="205"/>
+      <c r="V10" s="208"/>
+      <c r="W10" s="204"/>
+      <c r="X10" s="205"/>
+      <c r="Y10" s="206"/>
     </row>
     <row r="11" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="197"/>
+      <c r="B11" s="198"/>
       <c r="C11" s="157">
         <v>45045</v>
       </c>
@@ -5707,7 +5722,7 @@
         <v>100000</v>
       </c>
       <c r="E11" s="27"/>
-      <c r="I11" s="197"/>
+      <c r="I11" s="198"/>
       <c r="J11" s="157">
         <v>45052</v>
       </c>
@@ -5716,7 +5731,7 @@
       </c>
       <c r="L11" s="27"/>
       <c r="M11" s="170"/>
-      <c r="P11" s="210"/>
+      <c r="P11" s="211"/>
       <c r="Q11" s="93">
         <v>44989</v>
       </c>
@@ -5724,13 +5739,13 @@
         <v>50000</v>
       </c>
       <c r="S11" s="27"/>
-      <c r="V11" s="207"/>
+      <c r="V11" s="208"/>
       <c r="W11" s="93"/>
       <c r="X11" s="77"/>
       <c r="Y11" s="27"/>
     </row>
     <row r="12" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="197"/>
+      <c r="B12" s="198"/>
       <c r="C12" s="157">
         <v>45052</v>
       </c>
@@ -5738,7 +5753,7 @@
         <v>100000</v>
       </c>
       <c r="E12" s="146"/>
-      <c r="I12" s="197"/>
+      <c r="I12" s="198"/>
       <c r="J12" s="158">
         <v>45059</v>
       </c>
@@ -5747,7 +5762,7 @@
       </c>
       <c r="L12" s="146"/>
       <c r="M12" s="170"/>
-      <c r="P12" s="210"/>
+      <c r="P12" s="211"/>
       <c r="Q12" s="38">
         <v>44989</v>
       </c>
@@ -5755,7 +5770,7 @@
         <v>50000</v>
       </c>
       <c r="S12" s="146"/>
-      <c r="V12" s="207"/>
+      <c r="V12" s="208"/>
       <c r="W12" s="36"/>
       <c r="X12" s="37">
         <v>0</v>
@@ -5763,7 +5778,7 @@
       <c r="Y12" s="3"/>
     </row>
     <row r="13" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="197"/>
+      <c r="B13" s="198"/>
       <c r="C13" s="158">
         <v>45059</v>
       </c>
@@ -5771,12 +5786,12 @@
         <v>100000</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="I13" s="197"/>
+      <c r="I13" s="198"/>
       <c r="J13" s="155"/>
       <c r="K13" s="37"/>
       <c r="L13" s="3"/>
       <c r="M13" s="170"/>
-      <c r="P13" s="210"/>
+      <c r="P13" s="211"/>
       <c r="Q13" s="36">
         <v>44996</v>
       </c>
@@ -5784,13 +5799,13 @@
         <v>50000</v>
       </c>
       <c r="S13" s="3"/>
-      <c r="V13" s="207"/>
+      <c r="V13" s="208"/>
       <c r="W13" s="36"/>
       <c r="X13" s="37"/>
       <c r="Y13" s="3"/>
     </row>
     <row r="14" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="197"/>
+      <c r="B14" s="198"/>
       <c r="C14" s="169">
         <v>45066</v>
       </c>
@@ -5798,12 +5813,12 @@
         <v>100000</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="I14" s="197"/>
+      <c r="I14" s="198"/>
       <c r="J14" s="155"/>
       <c r="K14" s="37"/>
       <c r="L14" s="3"/>
       <c r="M14" s="170"/>
-      <c r="P14" s="210"/>
+      <c r="P14" s="211"/>
       <c r="Q14" s="36">
         <v>45003</v>
       </c>
@@ -5811,13 +5826,13 @@
         <v>113480</v>
       </c>
       <c r="S14" s="3"/>
-      <c r="V14" s="207"/>
+      <c r="V14" s="208"/>
       <c r="W14" s="36"/>
       <c r="X14" s="37"/>
       <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="197"/>
+      <c r="B15" s="198"/>
       <c r="C15" s="169">
         <v>45073</v>
       </c>
@@ -5825,22 +5840,22 @@
         <v>100000</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="I15" s="197"/>
+      <c r="I15" s="198"/>
       <c r="J15" s="155"/>
       <c r="K15" s="37"/>
       <c r="L15" s="3"/>
       <c r="M15" s="170"/>
-      <c r="P15" s="210"/>
+      <c r="P15" s="211"/>
       <c r="Q15" s="36"/>
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
-      <c r="V15" s="207"/>
+      <c r="V15" s="208"/>
       <c r="W15" s="36"/>
       <c r="X15" s="37"/>
       <c r="Y15" s="3"/>
     </row>
     <row r="16" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="197"/>
+      <c r="B16" s="198"/>
       <c r="C16" s="169">
         <v>45079</v>
       </c>
@@ -5848,220 +5863,248 @@
         <v>100000</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="I16" s="197"/>
+      <c r="I16" s="198"/>
       <c r="J16" s="155"/>
       <c r="K16" s="37"/>
       <c r="L16" s="3"/>
       <c r="M16" s="170"/>
-      <c r="P16" s="210"/>
+      <c r="P16" s="211"/>
       <c r="Q16" s="36"/>
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
-      <c r="V16" s="207"/>
+      <c r="V16" s="208"/>
       <c r="W16" s="36"/>
       <c r="X16" s="37"/>
       <c r="Y16" s="3"/>
     </row>
     <row r="17" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="197"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="3"/>
-      <c r="I17" s="197"/>
+      <c r="B17" s="198"/>
+      <c r="C17" s="169">
+        <v>45086</v>
+      </c>
+      <c r="D17" s="37">
+        <v>100000</v>
+      </c>
+      <c r="E17" s="227" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17" s="198"/>
       <c r="J17" s="155"/>
       <c r="K17" s="37"/>
       <c r="L17" s="3"/>
       <c r="M17" s="170"/>
-      <c r="P17" s="210"/>
+      <c r="P17" s="211"/>
       <c r="Q17" s="160"/>
       <c r="R17" s="161"/>
       <c r="S17" s="3"/>
-      <c r="V17" s="207"/>
+      <c r="V17" s="208"/>
       <c r="W17" s="36"/>
       <c r="X17" s="37"/>
       <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="197"/>
-      <c r="C18" s="169"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="3"/>
-      <c r="I18" s="197"/>
+      <c r="B18" s="198"/>
+      <c r="C18" s="171">
+        <v>45090</v>
+      </c>
+      <c r="D18" s="37">
+        <v>162647.76</v>
+      </c>
+      <c r="E18" s="227" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="198"/>
       <c r="J18" s="155"/>
       <c r="K18" s="37"/>
       <c r="L18" s="3"/>
       <c r="M18" s="170"/>
-      <c r="P18" s="210"/>
+      <c r="P18" s="211"/>
       <c r="Q18" s="160"/>
       <c r="R18" s="161"/>
       <c r="S18" s="3"/>
-      <c r="V18" s="207"/>
+      <c r="V18" s="208"/>
       <c r="W18" s="36"/>
       <c r="X18" s="37"/>
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="197"/>
-      <c r="C19" s="169"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="3"/>
-      <c r="I19" s="197"/>
+      <c r="B19" s="198"/>
+      <c r="C19" s="171">
+        <v>45091</v>
+      </c>
+      <c r="D19" s="37">
+        <v>102080</v>
+      </c>
+      <c r="E19" s="228" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" s="198"/>
       <c r="J19" s="155"/>
       <c r="K19" s="37"/>
       <c r="L19" s="3"/>
       <c r="M19" s="170"/>
-      <c r="P19" s="210"/>
+      <c r="P19" s="211"/>
       <c r="Q19" s="160"/>
       <c r="R19" s="161"/>
       <c r="S19" s="3"/>
-      <c r="V19" s="207"/>
+      <c r="V19" s="208"/>
       <c r="W19" s="36"/>
       <c r="X19" s="37"/>
       <c r="Y19" s="3"/>
     </row>
     <row r="20" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="197"/>
-      <c r="C20" s="169"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="3"/>
-      <c r="I20" s="197"/>
+      <c r="B20" s="198"/>
+      <c r="C20" s="171">
+        <v>45091</v>
+      </c>
+      <c r="D20" s="37">
+        <v>62616.800000000003</v>
+      </c>
+      <c r="E20" s="227" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" s="198"/>
       <c r="J20" s="155"/>
       <c r="K20" s="37"/>
       <c r="L20" s="3"/>
       <c r="M20" s="170"/>
-      <c r="P20" s="210"/>
+      <c r="P20" s="211"/>
       <c r="Q20" s="160"/>
       <c r="R20" s="161"/>
       <c r="S20" s="3"/>
-      <c r="V20" s="207"/>
+      <c r="V20" s="208"/>
       <c r="W20" s="36"/>
       <c r="X20" s="37"/>
       <c r="Y20" s="3"/>
     </row>
     <row r="21" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="197"/>
-      <c r="C21" s="169"/>
-      <c r="D21" s="37"/>
+      <c r="B21" s="198"/>
+      <c r="C21" s="169">
+        <v>45092</v>
+      </c>
+      <c r="D21" s="37">
+        <v>100000</v>
+      </c>
       <c r="E21" s="3"/>
-      <c r="I21" s="197"/>
+      <c r="I21" s="198"/>
       <c r="J21" s="155"/>
       <c r="K21" s="37"/>
       <c r="L21" s="3"/>
       <c r="M21" s="170"/>
-      <c r="P21" s="210"/>
+      <c r="P21" s="211"/>
       <c r="Q21" s="160"/>
       <c r="R21" s="161"/>
       <c r="S21" s="3"/>
-      <c r="V21" s="207"/>
+      <c r="V21" s="208"/>
       <c r="W21" s="36"/>
       <c r="X21" s="37"/>
       <c r="Y21" s="3"/>
     </row>
     <row r="22" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="197"/>
+      <c r="B22" s="198"/>
       <c r="C22" s="169"/>
       <c r="D22" s="37"/>
       <c r="E22" s="3"/>
-      <c r="I22" s="197"/>
+      <c r="I22" s="198"/>
       <c r="J22" s="155"/>
       <c r="K22" s="37"/>
       <c r="L22" s="3"/>
       <c r="M22" s="170"/>
-      <c r="P22" s="210"/>
+      <c r="P22" s="211"/>
       <c r="Q22" s="160"/>
       <c r="R22" s="161"/>
       <c r="S22" s="3"/>
-      <c r="V22" s="207"/>
+      <c r="V22" s="208"/>
       <c r="W22" s="36"/>
       <c r="X22" s="37"/>
       <c r="Y22" s="3"/>
     </row>
     <row r="23" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="197"/>
+      <c r="B23" s="198"/>
       <c r="C23" s="169"/>
       <c r="D23" s="37"/>
       <c r="E23" s="3"/>
-      <c r="I23" s="197"/>
+      <c r="I23" s="198"/>
       <c r="J23" s="155"/>
       <c r="K23" s="37"/>
       <c r="L23" s="3"/>
       <c r="M23" s="170"/>
-      <c r="P23" s="210"/>
+      <c r="P23" s="211"/>
       <c r="Q23" s="160"/>
       <c r="R23" s="161"/>
       <c r="S23" s="3"/>
-      <c r="V23" s="207"/>
+      <c r="V23" s="208"/>
       <c r="W23" s="36"/>
       <c r="X23" s="37"/>
       <c r="Y23" s="3"/>
     </row>
     <row r="24" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="197"/>
+      <c r="B24" s="198"/>
       <c r="C24" s="169"/>
       <c r="D24" s="37"/>
       <c r="E24" s="3"/>
-      <c r="I24" s="197"/>
+      <c r="I24" s="198"/>
       <c r="J24" s="155"/>
       <c r="K24" s="37"/>
       <c r="L24" s="3"/>
       <c r="M24" s="170"/>
-      <c r="P24" s="210"/>
+      <c r="P24" s="211"/>
       <c r="Q24" s="160"/>
       <c r="R24" s="161"/>
       <c r="S24" s="3"/>
-      <c r="V24" s="207"/>
+      <c r="V24" s="208"/>
       <c r="W24" s="36"/>
       <c r="X24" s="37"/>
       <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="197"/>
+      <c r="B25" s="198"/>
       <c r="C25" s="169"/>
       <c r="D25" s="37"/>
       <c r="E25" s="3"/>
-      <c r="I25" s="197"/>
+      <c r="I25" s="198"/>
       <c r="J25" s="155"/>
       <c r="K25" s="37"/>
       <c r="L25" s="3"/>
       <c r="M25" s="170"/>
-      <c r="P25" s="210"/>
+      <c r="P25" s="211"/>
       <c r="Q25" s="160"/>
       <c r="R25" s="161"/>
       <c r="S25" s="3"/>
-      <c r="V25" s="207"/>
+      <c r="V25" s="208"/>
       <c r="W25" s="36"/>
       <c r="X25" s="37"/>
       <c r="Y25" s="3"/>
     </row>
     <row r="26" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="197"/>
+      <c r="B26" s="198"/>
       <c r="C26" s="169"/>
       <c r="D26" s="37"/>
       <c r="E26" s="3"/>
-      <c r="I26" s="197"/>
+      <c r="I26" s="198"/>
       <c r="J26" s="155"/>
       <c r="K26" s="37"/>
       <c r="L26" s="3"/>
       <c r="M26" s="170"/>
-      <c r="P26" s="210"/>
+      <c r="P26" s="211"/>
       <c r="Q26" s="160"/>
       <c r="R26" s="161"/>
       <c r="S26" s="3"/>
-      <c r="V26" s="207"/>
+      <c r="V26" s="208"/>
       <c r="W26" s="36"/>
       <c r="X26" s="37"/>
       <c r="Y26" s="3"/>
     </row>
     <row r="27" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="198"/>
+      <c r="B27" s="199"/>
       <c r="C27" s="159" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="154">
-        <f>SUM(D5:D16)</f>
-        <v>1513480</v>
-      </c>
-      <c r="I27" s="198"/>
+        <f>SUM(D5:D26)</f>
+        <v>2040824.56</v>
+      </c>
+      <c r="I27" s="199"/>
       <c r="J27" s="159" t="s">
         <v>3</v>
       </c>
@@ -6070,7 +6113,7 @@
         <v>650000</v>
       </c>
       <c r="M27" s="170"/>
-      <c r="P27" s="210"/>
+      <c r="P27" s="211"/>
       <c r="Q27" s="162" t="s">
         <v>3</v>
       </c>
@@ -6078,7 +6121,7 @@
         <f>SUM(R5:R14)</f>
         <v>563480</v>
       </c>
-      <c r="V27" s="207"/>
+      <c r="V27" s="208"/>
       <c r="W27" s="153" t="s">
         <v>3</v>
       </c>
@@ -6174,7 +6217,7 @@
       </c>
       <c r="D31" s="34">
         <f>D30+D27+D28+D29</f>
-        <v>-777675.69</v>
+        <v>-250331.12999999989</v>
       </c>
       <c r="J31" s="33" t="s">
         <v>4</v>
@@ -6703,12 +6746,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="211" t="s">
+      <c r="B3" s="212" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="214"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
     </row>
@@ -7930,11 +7973,11 @@
         <v>-659691.4</v>
       </c>
       <c r="E123" s="100"/>
-      <c r="G123" s="214">
+      <c r="G123" s="215">
         <f>D121+D122+D123+D124</f>
         <v>-8718896</v>
       </c>
-      <c r="H123" s="215"/>
+      <c r="H123" s="216"/>
     </row>
     <row r="124" spans="1:8 16384:16384" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="110"/>
@@ -7946,8 +7989,8 @@
         <v>-1241668.1599999999</v>
       </c>
       <c r="E124" s="100"/>
-      <c r="G124" s="216"/>
-      <c r="H124" s="217"/>
+      <c r="G124" s="217"/>
+      <c r="H124" s="218"/>
     </row>
     <row r="125" spans="1:8 16384:16384" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="111"/>
@@ -8028,23 +8071,23 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="220" t="s">
+      <c r="B2" s="221" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="223" t="s">
+      <c r="C2" s="224" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="224"/>
+      <c r="D2" s="225"/>
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="221"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="173"/>
+      <c r="B3" s="222"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="174"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="222"/>
+      <c r="B4" s="223"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -8082,13 +8125,13 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="218"/>
+      <c r="B8" s="219"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="219"/>
+      <c r="B9" s="220"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -8281,7 +8324,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="209" t="s">
+      <c r="B2" s="210" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -8291,13 +8334,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="210"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="173"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="174"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="210"/>
+      <c r="B4" s="211"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -8305,7 +8348,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="210"/>
+      <c r="B5" s="211"/>
       <c r="C5" s="47">
         <v>44380</v>
       </c>
@@ -8315,7 +8358,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="225"/>
+      <c r="B6" s="226"/>
       <c r="C6" s="36">
         <v>44396</v>
       </c>
@@ -8331,7 +8374,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="218" t="s">
+      <c r="B8" s="219" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="36">
@@ -8343,7 +8386,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="219"/>
+      <c r="B9" s="220"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -8546,7 +8589,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="210" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -8554,7 +8597,7 @@
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="17"/>
-      <c r="I2" s="209" t="s">
+      <c r="I2" s="210" t="s">
         <v>74</v>
       </c>
       <c r="J2" s="15" t="s">
@@ -8564,23 +8607,23 @@
       <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="210"/>
-      <c r="B3" s="171"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="173"/>
-      <c r="I3" s="210"/>
-      <c r="J3" s="171"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="173"/>
+      <c r="A3" s="211"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="174"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="172"/>
+      <c r="K3" s="173"/>
+      <c r="L3" s="174"/>
     </row>
     <row r="4" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="210"/>
+      <c r="A4" s="211"/>
       <c r="B4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="23"/>
-      <c r="I4" s="210"/>
+      <c r="I4" s="211"/>
       <c r="J4" s="21" t="s">
         <v>2</v>
       </c>
@@ -8588,7 +8631,7 @@
       <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="210"/>
+      <c r="A5" s="211"/>
       <c r="B5" s="47">
         <v>44935</v>
       </c>
@@ -8596,7 +8639,7 @@
         <v>49000</v>
       </c>
       <c r="D5" s="28"/>
-      <c r="I5" s="210"/>
+      <c r="I5" s="211"/>
       <c r="J5" s="47">
         <v>44621</v>
       </c>
@@ -8606,11 +8649,11 @@
       <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="210"/>
+      <c r="A6" s="211"/>
       <c r="B6" s="36"/>
       <c r="C6" s="37"/>
       <c r="D6" s="27"/>
-      <c r="I6" s="225"/>
+      <c r="I6" s="226"/>
       <c r="J6" s="36">
         <v>44656</v>
       </c>
@@ -8620,7 +8663,7 @@
       <c r="L6" s="27"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="210"/>
+      <c r="A7" s="211"/>
       <c r="B7" s="36"/>
       <c r="C7" s="37"/>
       <c r="D7" s="41"/>
@@ -8630,13 +8673,13 @@
       <c r="L7" s="41"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="210"/>
+      <c r="A8" s="211"/>
       <c r="B8" s="36"/>
       <c r="C8" s="37">
         <v>0</v>
       </c>
       <c r="D8" s="27"/>
-      <c r="I8" s="218"/>
+      <c r="I8" s="219"/>
       <c r="J8" s="36"/>
       <c r="K8" s="37">
         <v>0</v>
@@ -8644,17 +8687,17 @@
       <c r="L8" s="27"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="210"/>
+      <c r="A9" s="211"/>
       <c r="B9" s="93"/>
       <c r="C9" s="77"/>
       <c r="D9" s="27"/>
-      <c r="I9" s="219"/>
+      <c r="I9" s="220"/>
       <c r="J9" s="93"/>
       <c r="K9" s="77"/>
       <c r="L9" s="27"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="210"/>
+      <c r="A10" s="211"/>
       <c r="B10" s="93"/>
       <c r="C10" s="77"/>
       <c r="D10" s="27"/>
@@ -8664,7 +8707,7 @@
       <c r="L10" s="27"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="210"/>
+      <c r="A11" s="211"/>
       <c r="B11" s="93"/>
       <c r="C11" s="77"/>
       <c r="D11" s="27"/>
@@ -8674,7 +8717,7 @@
       <c r="L11" s="27"/>
     </row>
     <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="225"/>
+      <c r="A12" s="226"/>
       <c r="B12" s="38"/>
       <c r="C12" s="39">
         <v>0</v>
@@ -8975,12 +9018,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="211" t="s">
+      <c r="B3" s="212" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="214"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
     </row>
@@ -10099,11 +10142,11 @@
       <c r="E117" s="100">
         <v>44264</v>
       </c>
-      <c r="G117" s="214">
+      <c r="G117" s="215">
         <f>D115+D116+D117+D118</f>
         <v>-7492427.9600000009</v>
       </c>
-      <c r="H117" s="215"/>
+      <c r="H117" s="216"/>
     </row>
     <row r="118" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="110"/>
@@ -10117,8 +10160,8 @@
       <c r="E118" s="100">
         <v>44264</v>
       </c>
-      <c r="G118" s="216"/>
-      <c r="H118" s="217"/>
+      <c r="G118" s="217"/>
+      <c r="H118" s="218"/>
     </row>
     <row r="119" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="111"/>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="103">
   <si>
     <t xml:space="preserve">PAGOS  SOBRE REMODELACION </t>
   </si>
@@ -363,6 +363,15 @@
   <si>
     <t xml:space="preserve">PANEL PLAFON Transferencia </t>
   </si>
+  <si>
+    <t>LICENCIA DE USO DE SUELO DE BAJO IMPACO   PRODUCCION</t>
+  </si>
+  <si>
+    <t>BBVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUNICIPIO DE PUEBLA </t>
+  </si>
 </sst>
 </file>
 
@@ -374,7 +383,7 @@
     <numFmt numFmtId="165" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,8 +542,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -574,6 +591,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF66FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66CCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,7 +1000,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="229">
+  <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1314,6 +1337,16 @@
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="20" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="20" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1389,6 +1422,12 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1479,8 +1518,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1490,8 +1527,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66CCFF"/>
+      <color rgb="FF0000FF"/>
       <color rgb="FF00FFFF"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFAC7300"/>
       <color rgb="FF990000"/>
       <color rgb="FFFF9933"/>
@@ -2997,17 +3035,17 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="172" t="s">
+      <c r="C3" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="173"/>
-      <c r="E3" s="174"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="182"/>
       <c r="H3" s="50"/>
-      <c r="I3" s="172" t="s">
+      <c r="I3" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="173"/>
-      <c r="K3" s="174"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="182"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3447,11 +3485,11 @@
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="172" t="s">
+      <c r="C3" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="173"/>
-      <c r="E3" s="174"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="182"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -3605,18 +3643,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="175" t="s">
+      <c r="C3" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="175"/>
+      <c r="D3" s="183"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="181" t="s">
+      <c r="C4" s="189" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="181"/>
+      <c r="D4" s="189"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3626,10 +3664,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="176" t="s">
+      <c r="B6" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="177"/>
+      <c r="C6" s="185"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3646,10 +3684,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="178" t="s">
+      <c r="B8" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="179"/>
+      <c r="C8" s="187"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3666,10 +3704,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="178" t="s">
+      <c r="B10" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="179"/>
+      <c r="C10" s="187"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3686,10 +3724,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="178" t="s">
+      <c r="B12" s="186" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="179"/>
+      <c r="C12" s="187"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3706,10 +3744,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="178" t="s">
+      <c r="B14" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="179"/>
+      <c r="C14" s="187"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3726,10 +3764,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="182" t="s">
+      <c r="B16" s="190" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="183"/>
+      <c r="C16" s="191"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3746,14 +3784,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="182" t="s">
+      <c r="B18" s="190" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="183"/>
+      <c r="C18" s="191"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="184" t="s">
+      <c r="E18" s="192" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3763,7 +3801,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="185"/>
+      <c r="E19" s="193"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3774,10 +3812,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="182" t="s">
+      <c r="B21" s="190" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="183"/>
+      <c r="C21" s="191"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3794,10 +3832,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="186" t="s">
+      <c r="B23" s="194" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="187"/>
+      <c r="C23" s="195"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3814,10 +3852,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="180" t="s">
+      <c r="B25" s="188" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="180"/>
+      <c r="C25" s="188"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3919,11 +3957,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="172" t="s">
+      <c r="C3" s="180" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="173"/>
-      <c r="E3" s="174"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="182"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4124,11 +4162,11 @@
       <c r="B3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="172" t="s">
+      <c r="C3" s="180" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="173"/>
-      <c r="E3" s="174"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="182"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4313,11 +4351,11 @@
     </row>
     <row r="3" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="50"/>
-      <c r="C3" s="172" t="s">
+      <c r="C3" s="180" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="173"/>
-      <c r="E3" s="174"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="182"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="83" t="s">
@@ -4521,9 +4559,9 @@
       <c r="B3" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="172"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="174"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="182"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -4754,9 +4792,9 @@
       <c r="B3" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="172"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="174"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="182"/>
     </row>
     <row r="4" spans="2:5" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -5114,36 +5152,36 @@
     </row>
     <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="188" t="s">
+      <c r="B57" s="196" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="189"/>
-      <c r="D57" s="189"/>
-      <c r="E57" s="190"/>
+      <c r="C57" s="197"/>
+      <c r="D57" s="197"/>
+      <c r="E57" s="198"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="191"/>
-      <c r="C58" s="192"/>
-      <c r="D58" s="192"/>
-      <c r="E58" s="193"/>
+      <c r="B58" s="199"/>
+      <c r="C58" s="200"/>
+      <c r="D58" s="200"/>
+      <c r="E58" s="201"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="191"/>
-      <c r="C59" s="192"/>
-      <c r="D59" s="192"/>
-      <c r="E59" s="193"/>
+      <c r="B59" s="199"/>
+      <c r="C59" s="200"/>
+      <c r="D59" s="200"/>
+      <c r="E59" s="201"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="191"/>
-      <c r="C60" s="192"/>
-      <c r="D60" s="192"/>
-      <c r="E60" s="193"/>
+      <c r="B60" s="199"/>
+      <c r="C60" s="200"/>
+      <c r="D60" s="200"/>
+      <c r="E60" s="201"/>
     </row>
     <row r="61" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="194"/>
-      <c r="C61" s="195"/>
-      <c r="D61" s="195"/>
-      <c r="E61" s="196"/>
+      <c r="B61" s="202"/>
+      <c r="C61" s="203"/>
+      <c r="D61" s="203"/>
+      <c r="E61" s="204"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5188,9 +5226,9 @@
       <c r="B3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="172"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="174"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="182"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -5410,8 +5448,8 @@
   </sheetPr>
   <dimension ref="B1:Y55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5441,80 +5479,80 @@
   <sheetData>
     <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="197" t="s">
+      <c r="B2" s="207" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="200" t="s">
+      <c r="C2" s="210" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="200"/>
+      <c r="D2" s="210"/>
       <c r="E2" s="17"/>
-      <c r="I2" s="197" t="s">
+      <c r="I2" s="207" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="200" t="s">
+      <c r="J2" s="210" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="200"/>
+      <c r="K2" s="210"/>
       <c r="L2" s="17"/>
       <c r="M2" s="170"/>
-      <c r="P2" s="210" t="s">
+      <c r="P2" s="220" t="s">
         <v>92</v>
       </c>
-      <c r="Q2" s="209" t="s">
+      <c r="Q2" s="219" t="s">
         <v>80</v>
       </c>
-      <c r="R2" s="200"/>
+      <c r="R2" s="210"/>
       <c r="S2" s="17"/>
-      <c r="V2" s="207" t="s">
+      <c r="V2" s="217" t="s">
         <v>94</v>
       </c>
-      <c r="W2" s="209" t="s">
+      <c r="W2" s="219" t="s">
         <v>80</v>
       </c>
-      <c r="X2" s="200"/>
+      <c r="X2" s="210"/>
       <c r="Y2" s="17"/>
     </row>
     <row r="3" spans="2:25" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="198"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="174"/>
-      <c r="I3" s="198"/>
-      <c r="J3" s="173"/>
-      <c r="K3" s="173"/>
-      <c r="L3" s="174"/>
+      <c r="B3" s="208"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="182"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="182"/>
       <c r="M3" s="170"/>
-      <c r="P3" s="211"/>
-      <c r="Q3" s="173"/>
-      <c r="R3" s="173"/>
-      <c r="S3" s="174"/>
-      <c r="V3" s="208"/>
-      <c r="W3" s="173"/>
-      <c r="X3" s="173"/>
-      <c r="Y3" s="174"/>
+      <c r="P3" s="221"/>
+      <c r="Q3" s="181"/>
+      <c r="R3" s="181"/>
+      <c r="S3" s="182"/>
+      <c r="V3" s="218"/>
+      <c r="W3" s="181"/>
+      <c r="X3" s="181"/>
+      <c r="Y3" s="182"/>
     </row>
     <row r="4" spans="2:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="198"/>
+      <c r="B4" s="208"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
-      <c r="I4" s="198"/>
+      <c r="I4" s="208"/>
       <c r="J4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="22"/>
       <c r="L4" s="23"/>
       <c r="M4" s="170"/>
-      <c r="P4" s="211"/>
+      <c r="P4" s="221"/>
       <c r="Q4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="R4" s="22"/>
       <c r="S4" s="23"/>
-      <c r="V4" s="208"/>
+      <c r="V4" s="218"/>
       <c r="W4" s="21" t="s">
         <v>2</v>
       </c>
@@ -5522,7 +5560,7 @@
       <c r="Y4" s="23"/>
     </row>
     <row r="5" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="198"/>
+      <c r="B5" s="208"/>
       <c r="C5" s="156" t="s">
         <v>80</v>
       </c>
@@ -5530,7 +5568,7 @@
         <v>563480</v>
       </c>
       <c r="E5" s="28"/>
-      <c r="I5" s="198"/>
+      <c r="I5" s="208"/>
       <c r="J5" s="156">
         <v>45010</v>
       </c>
@@ -5539,7 +5577,7 @@
       </c>
       <c r="L5" s="28"/>
       <c r="M5" s="170"/>
-      <c r="P5" s="211"/>
+      <c r="P5" s="221"/>
       <c r="Q5" s="47">
         <v>44947</v>
       </c>
@@ -5547,7 +5585,7 @@
         <v>50000</v>
       </c>
       <c r="S5" s="28"/>
-      <c r="V5" s="208"/>
+      <c r="V5" s="218"/>
       <c r="W5" s="47">
         <v>44873</v>
       </c>
@@ -5557,7 +5595,7 @@
       <c r="Y5" s="28"/>
     </row>
     <row r="6" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="198"/>
+      <c r="B6" s="208"/>
       <c r="C6" s="156">
         <v>45010</v>
       </c>
@@ -5565,7 +5603,7 @@
         <v>50000</v>
       </c>
       <c r="E6" s="27"/>
-      <c r="I6" s="198"/>
+      <c r="I6" s="208"/>
       <c r="J6" s="155">
         <v>45017</v>
       </c>
@@ -5574,7 +5612,7 @@
       </c>
       <c r="L6" s="27"/>
       <c r="M6" s="170"/>
-      <c r="P6" s="211"/>
+      <c r="P6" s="221"/>
       <c r="Q6" s="36">
         <v>44954</v>
       </c>
@@ -5582,13 +5620,13 @@
         <v>50000</v>
       </c>
       <c r="S6" s="27"/>
-      <c r="V6" s="208"/>
+      <c r="V6" s="218"/>
       <c r="W6" s="36"/>
       <c r="X6" s="37"/>
       <c r="Y6" s="27"/>
     </row>
     <row r="7" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="198"/>
+      <c r="B7" s="208"/>
       <c r="C7" s="169">
         <v>45017</v>
       </c>
@@ -5596,7 +5634,7 @@
         <v>100000</v>
       </c>
       <c r="E7" s="41"/>
-      <c r="I7" s="198"/>
+      <c r="I7" s="208"/>
       <c r="J7" s="155">
         <v>45021</v>
       </c>
@@ -5605,7 +5643,7 @@
       </c>
       <c r="L7" s="41"/>
       <c r="M7" s="170"/>
-      <c r="P7" s="211"/>
+      <c r="P7" s="221"/>
       <c r="Q7" s="36">
         <v>44961</v>
       </c>
@@ -5613,13 +5651,13 @@
         <v>50000</v>
       </c>
       <c r="S7" s="41"/>
-      <c r="V7" s="208"/>
+      <c r="V7" s="218"/>
       <c r="W7" s="36"/>
       <c r="X7" s="37"/>
       <c r="Y7" s="41"/>
     </row>
     <row r="8" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="198"/>
+      <c r="B8" s="208"/>
       <c r="C8" s="169">
         <v>45021</v>
       </c>
@@ -5627,7 +5665,7 @@
         <v>50000</v>
       </c>
       <c r="E8" s="27"/>
-      <c r="I8" s="198"/>
+      <c r="I8" s="208"/>
       <c r="J8" s="155">
         <v>45031</v>
       </c>
@@ -5636,7 +5674,7 @@
       </c>
       <c r="L8" s="27"/>
       <c r="M8" s="170"/>
-      <c r="P8" s="211"/>
+      <c r="P8" s="221"/>
       <c r="Q8" s="36">
         <v>44968</v>
       </c>
@@ -5644,13 +5682,13 @@
         <v>50000</v>
       </c>
       <c r="S8" s="27"/>
-      <c r="V8" s="208"/>
+      <c r="V8" s="218"/>
       <c r="W8" s="36"/>
       <c r="X8" s="37"/>
       <c r="Y8" s="27"/>
     </row>
     <row r="9" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="198"/>
+      <c r="B9" s="208"/>
       <c r="C9" s="169">
         <v>45031</v>
       </c>
@@ -5658,7 +5696,7 @@
         <v>100000</v>
       </c>
       <c r="E9" s="27"/>
-      <c r="I9" s="198"/>
+      <c r="I9" s="208"/>
       <c r="J9" s="157">
         <v>45038</v>
       </c>
@@ -5667,7 +5705,7 @@
       </c>
       <c r="L9" s="27"/>
       <c r="M9" s="170"/>
-      <c r="P9" s="211"/>
+      <c r="P9" s="221"/>
       <c r="Q9" s="93">
         <v>44975</v>
       </c>
@@ -5675,15 +5713,15 @@
         <v>50000</v>
       </c>
       <c r="S9" s="27"/>
-      <c r="V9" s="208"/>
-      <c r="W9" s="201" t="s">
+      <c r="V9" s="218"/>
+      <c r="W9" s="211" t="s">
         <v>95</v>
       </c>
-      <c r="X9" s="202"/>
-      <c r="Y9" s="203"/>
+      <c r="X9" s="212"/>
+      <c r="Y9" s="213"/>
     </row>
     <row r="10" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="198"/>
+      <c r="B10" s="208"/>
       <c r="C10" s="157">
         <v>45038</v>
       </c>
@@ -5691,7 +5729,7 @@
         <v>50000</v>
       </c>
       <c r="E10" s="27"/>
-      <c r="I10" s="198"/>
+      <c r="I10" s="208"/>
       <c r="J10" s="157">
         <v>45045</v>
       </c>
@@ -5700,7 +5738,7 @@
       </c>
       <c r="L10" s="27"/>
       <c r="M10" s="170"/>
-      <c r="P10" s="211"/>
+      <c r="P10" s="221"/>
       <c r="Q10" s="93">
         <v>44982</v>
       </c>
@@ -5708,13 +5746,13 @@
         <v>50000</v>
       </c>
       <c r="S10" s="27"/>
-      <c r="V10" s="208"/>
-      <c r="W10" s="204"/>
-      <c r="X10" s="205"/>
-      <c r="Y10" s="206"/>
+      <c r="V10" s="218"/>
+      <c r="W10" s="214"/>
+      <c r="X10" s="215"/>
+      <c r="Y10" s="216"/>
     </row>
     <row r="11" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="198"/>
+      <c r="B11" s="208"/>
       <c r="C11" s="157">
         <v>45045</v>
       </c>
@@ -5722,7 +5760,7 @@
         <v>100000</v>
       </c>
       <c r="E11" s="27"/>
-      <c r="I11" s="198"/>
+      <c r="I11" s="208"/>
       <c r="J11" s="157">
         <v>45052</v>
       </c>
@@ -5731,7 +5769,7 @@
       </c>
       <c r="L11" s="27"/>
       <c r="M11" s="170"/>
-      <c r="P11" s="211"/>
+      <c r="P11" s="221"/>
       <c r="Q11" s="93">
         <v>44989</v>
       </c>
@@ -5739,13 +5777,13 @@
         <v>50000</v>
       </c>
       <c r="S11" s="27"/>
-      <c r="V11" s="208"/>
+      <c r="V11" s="218"/>
       <c r="W11" s="93"/>
       <c r="X11" s="77"/>
       <c r="Y11" s="27"/>
     </row>
     <row r="12" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="198"/>
+      <c r="B12" s="208"/>
       <c r="C12" s="157">
         <v>45052</v>
       </c>
@@ -5753,7 +5791,7 @@
         <v>100000</v>
       </c>
       <c r="E12" s="146"/>
-      <c r="I12" s="198"/>
+      <c r="I12" s="208"/>
       <c r="J12" s="158">
         <v>45059</v>
       </c>
@@ -5762,7 +5800,7 @@
       </c>
       <c r="L12" s="146"/>
       <c r="M12" s="170"/>
-      <c r="P12" s="211"/>
+      <c r="P12" s="221"/>
       <c r="Q12" s="38">
         <v>44989</v>
       </c>
@@ -5770,7 +5808,7 @@
         <v>50000</v>
       </c>
       <c r="S12" s="146"/>
-      <c r="V12" s="208"/>
+      <c r="V12" s="218"/>
       <c r="W12" s="36"/>
       <c r="X12" s="37">
         <v>0</v>
@@ -5778,7 +5816,7 @@
       <c r="Y12" s="3"/>
     </row>
     <row r="13" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="198"/>
+      <c r="B13" s="208"/>
       <c r="C13" s="158">
         <v>45059</v>
       </c>
@@ -5786,12 +5824,12 @@
         <v>100000</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="I13" s="198"/>
+      <c r="I13" s="208"/>
       <c r="J13" s="155"/>
       <c r="K13" s="37"/>
       <c r="L13" s="3"/>
       <c r="M13" s="170"/>
-      <c r="P13" s="211"/>
+      <c r="P13" s="221"/>
       <c r="Q13" s="36">
         <v>44996</v>
       </c>
@@ -5799,13 +5837,13 @@
         <v>50000</v>
       </c>
       <c r="S13" s="3"/>
-      <c r="V13" s="208"/>
+      <c r="V13" s="218"/>
       <c r="W13" s="36"/>
       <c r="X13" s="37"/>
       <c r="Y13" s="3"/>
     </row>
     <row r="14" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="198"/>
+      <c r="B14" s="208"/>
       <c r="C14" s="169">
         <v>45066</v>
       </c>
@@ -5813,12 +5851,12 @@
         <v>100000</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="I14" s="198"/>
+      <c r="I14" s="208"/>
       <c r="J14" s="155"/>
       <c r="K14" s="37"/>
       <c r="L14" s="3"/>
       <c r="M14" s="170"/>
-      <c r="P14" s="211"/>
+      <c r="P14" s="221"/>
       <c r="Q14" s="36">
         <v>45003</v>
       </c>
@@ -5826,13 +5864,13 @@
         <v>113480</v>
       </c>
       <c r="S14" s="3"/>
-      <c r="V14" s="208"/>
+      <c r="V14" s="218"/>
       <c r="W14" s="36"/>
       <c r="X14" s="37"/>
       <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="198"/>
+      <c r="B15" s="208"/>
       <c r="C15" s="169">
         <v>45073</v>
       </c>
@@ -5840,22 +5878,22 @@
         <v>100000</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="I15" s="198"/>
+      <c r="I15" s="208"/>
       <c r="J15" s="155"/>
       <c r="K15" s="37"/>
       <c r="L15" s="3"/>
       <c r="M15" s="170"/>
-      <c r="P15" s="211"/>
+      <c r="P15" s="221"/>
       <c r="Q15" s="36"/>
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
-      <c r="V15" s="208"/>
+      <c r="V15" s="218"/>
       <c r="W15" s="36"/>
       <c r="X15" s="37"/>
       <c r="Y15" s="3"/>
     </row>
     <row r="16" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="198"/>
+      <c r="B16" s="208"/>
       <c r="C16" s="169">
         <v>45079</v>
       </c>
@@ -5863,122 +5901,122 @@
         <v>100000</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="I16" s="198"/>
+      <c r="I16" s="208"/>
       <c r="J16" s="155"/>
       <c r="K16" s="37"/>
       <c r="L16" s="3"/>
       <c r="M16" s="170"/>
-      <c r="P16" s="211"/>
+      <c r="P16" s="221"/>
       <c r="Q16" s="36"/>
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
-      <c r="V16" s="208"/>
+      <c r="V16" s="218"/>
       <c r="W16" s="36"/>
       <c r="X16" s="37"/>
       <c r="Y16" s="3"/>
     </row>
     <row r="17" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="198"/>
+      <c r="B17" s="208"/>
       <c r="C17" s="169">
         <v>45086</v>
       </c>
       <c r="D17" s="37">
         <v>100000</v>
       </c>
-      <c r="E17" s="227" t="s">
+      <c r="E17" s="172" t="s">
         <v>97</v>
       </c>
-      <c r="I17" s="198"/>
+      <c r="I17" s="208"/>
       <c r="J17" s="155"/>
       <c r="K17" s="37"/>
       <c r="L17" s="3"/>
       <c r="M17" s="170"/>
-      <c r="P17" s="211"/>
+      <c r="P17" s="221"/>
       <c r="Q17" s="160"/>
       <c r="R17" s="161"/>
       <c r="S17" s="3"/>
-      <c r="V17" s="208"/>
+      <c r="V17" s="218"/>
       <c r="W17" s="36"/>
       <c r="X17" s="37"/>
       <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="198"/>
+      <c r="B18" s="208"/>
       <c r="C18" s="171">
         <v>45090</v>
       </c>
       <c r="D18" s="37">
         <v>162647.76</v>
       </c>
-      <c r="E18" s="227" t="s">
+      <c r="E18" s="172" t="s">
         <v>97</v>
       </c>
-      <c r="I18" s="198"/>
+      <c r="I18" s="208"/>
       <c r="J18" s="155"/>
       <c r="K18" s="37"/>
       <c r="L18" s="3"/>
       <c r="M18" s="170"/>
-      <c r="P18" s="211"/>
+      <c r="P18" s="221"/>
       <c r="Q18" s="160"/>
       <c r="R18" s="161"/>
       <c r="S18" s="3"/>
-      <c r="V18" s="208"/>
+      <c r="V18" s="218"/>
       <c r="W18" s="36"/>
       <c r="X18" s="37"/>
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="198"/>
+      <c r="B19" s="208"/>
       <c r="C19" s="171">
         <v>45091</v>
       </c>
       <c r="D19" s="37">
         <v>102080</v>
       </c>
-      <c r="E19" s="228" t="s">
+      <c r="E19" s="173" t="s">
         <v>98</v>
       </c>
-      <c r="I19" s="198"/>
+      <c r="I19" s="208"/>
       <c r="J19" s="155"/>
       <c r="K19" s="37"/>
       <c r="L19" s="3"/>
       <c r="M19" s="170"/>
-      <c r="P19" s="211"/>
+      <c r="P19" s="221"/>
       <c r="Q19" s="160"/>
       <c r="R19" s="161"/>
       <c r="S19" s="3"/>
-      <c r="V19" s="208"/>
+      <c r="V19" s="218"/>
       <c r="W19" s="36"/>
       <c r="X19" s="37"/>
       <c r="Y19" s="3"/>
     </row>
     <row r="20" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="198"/>
+      <c r="B20" s="208"/>
       <c r="C20" s="171">
         <v>45091</v>
       </c>
       <c r="D20" s="37">
         <v>62616.800000000003</v>
       </c>
-      <c r="E20" s="227" t="s">
+      <c r="E20" s="172" t="s">
         <v>99</v>
       </c>
-      <c r="I20" s="198"/>
+      <c r="I20" s="208"/>
       <c r="J20" s="155"/>
       <c r="K20" s="37"/>
       <c r="L20" s="3"/>
       <c r="M20" s="170"/>
-      <c r="P20" s="211"/>
+      <c r="P20" s="221"/>
       <c r="Q20" s="160"/>
       <c r="R20" s="161"/>
       <c r="S20" s="3"/>
-      <c r="V20" s="208"/>
+      <c r="V20" s="218"/>
       <c r="W20" s="36"/>
       <c r="X20" s="37"/>
       <c r="Y20" s="3"/>
     </row>
     <row r="21" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="198"/>
+      <c r="B21" s="208"/>
       <c r="C21" s="169">
         <v>45092</v>
       </c>
@@ -5986,125 +6024,129 @@
         <v>100000</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="I21" s="198"/>
+      <c r="I21" s="208"/>
       <c r="J21" s="155"/>
       <c r="K21" s="37"/>
       <c r="L21" s="3"/>
       <c r="M21" s="170"/>
-      <c r="P21" s="211"/>
+      <c r="P21" s="221"/>
       <c r="Q21" s="160"/>
       <c r="R21" s="161"/>
       <c r="S21" s="3"/>
-      <c r="V21" s="208"/>
+      <c r="V21" s="218"/>
       <c r="W21" s="36"/>
       <c r="X21" s="37"/>
       <c r="Y21" s="3"/>
     </row>
     <row r="22" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="198"/>
-      <c r="C22" s="169"/>
-      <c r="D22" s="37"/>
+      <c r="B22" s="208"/>
+      <c r="C22" s="169">
+        <v>45101</v>
+      </c>
+      <c r="D22" s="37">
+        <v>100000</v>
+      </c>
       <c r="E22" s="3"/>
-      <c r="I22" s="198"/>
+      <c r="I22" s="208"/>
       <c r="J22" s="155"/>
       <c r="K22" s="37"/>
       <c r="L22" s="3"/>
       <c r="M22" s="170"/>
-      <c r="P22" s="211"/>
+      <c r="P22" s="221"/>
       <c r="Q22" s="160"/>
       <c r="R22" s="161"/>
       <c r="S22" s="3"/>
-      <c r="V22" s="208"/>
+      <c r="V22" s="218"/>
       <c r="W22" s="36"/>
       <c r="X22" s="37"/>
       <c r="Y22" s="3"/>
     </row>
     <row r="23" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="198"/>
+      <c r="B23" s="208"/>
       <c r="C23" s="169"/>
       <c r="D23" s="37"/>
       <c r="E23" s="3"/>
-      <c r="I23" s="198"/>
+      <c r="I23" s="208"/>
       <c r="J23" s="155"/>
       <c r="K23" s="37"/>
       <c r="L23" s="3"/>
       <c r="M23" s="170"/>
-      <c r="P23" s="211"/>
+      <c r="P23" s="221"/>
       <c r="Q23" s="160"/>
       <c r="R23" s="161"/>
       <c r="S23" s="3"/>
-      <c r="V23" s="208"/>
+      <c r="V23" s="218"/>
       <c r="W23" s="36"/>
       <c r="X23" s="37"/>
       <c r="Y23" s="3"/>
     </row>
     <row r="24" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="198"/>
+      <c r="B24" s="208"/>
       <c r="C24" s="169"/>
       <c r="D24" s="37"/>
       <c r="E24" s="3"/>
-      <c r="I24" s="198"/>
+      <c r="I24" s="208"/>
       <c r="J24" s="155"/>
       <c r="K24" s="37"/>
       <c r="L24" s="3"/>
       <c r="M24" s="170"/>
-      <c r="P24" s="211"/>
+      <c r="P24" s="221"/>
       <c r="Q24" s="160"/>
       <c r="R24" s="161"/>
       <c r="S24" s="3"/>
-      <c r="V24" s="208"/>
+      <c r="V24" s="218"/>
       <c r="W24" s="36"/>
       <c r="X24" s="37"/>
       <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="198"/>
+      <c r="B25" s="208"/>
       <c r="C25" s="169"/>
       <c r="D25" s="37"/>
       <c r="E25" s="3"/>
-      <c r="I25" s="198"/>
+      <c r="I25" s="208"/>
       <c r="J25" s="155"/>
       <c r="K25" s="37"/>
       <c r="L25" s="3"/>
       <c r="M25" s="170"/>
-      <c r="P25" s="211"/>
+      <c r="P25" s="221"/>
       <c r="Q25" s="160"/>
       <c r="R25" s="161"/>
       <c r="S25" s="3"/>
-      <c r="V25" s="208"/>
+      <c r="V25" s="218"/>
       <c r="W25" s="36"/>
       <c r="X25" s="37"/>
       <c r="Y25" s="3"/>
     </row>
     <row r="26" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="198"/>
+      <c r="B26" s="208"/>
       <c r="C26" s="169"/>
       <c r="D26" s="37"/>
       <c r="E26" s="3"/>
-      <c r="I26" s="198"/>
+      <c r="I26" s="208"/>
       <c r="J26" s="155"/>
       <c r="K26" s="37"/>
       <c r="L26" s="3"/>
       <c r="M26" s="170"/>
-      <c r="P26" s="211"/>
+      <c r="P26" s="221"/>
       <c r="Q26" s="160"/>
       <c r="R26" s="161"/>
       <c r="S26" s="3"/>
-      <c r="V26" s="208"/>
+      <c r="V26" s="218"/>
       <c r="W26" s="36"/>
       <c r="X26" s="37"/>
       <c r="Y26" s="3"/>
     </row>
     <row r="27" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="199"/>
+      <c r="B27" s="209"/>
       <c r="C27" s="159" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="154">
         <f>SUM(D5:D26)</f>
-        <v>2040824.56</v>
-      </c>
-      <c r="I27" s="199"/>
+        <v>2140824.56</v>
+      </c>
+      <c r="I27" s="209"/>
       <c r="J27" s="159" t="s">
         <v>3</v>
       </c>
@@ -6113,7 +6155,7 @@
         <v>650000</v>
       </c>
       <c r="M27" s="170"/>
-      <c r="P27" s="211"/>
+      <c r="P27" s="221"/>
       <c r="Q27" s="162" t="s">
         <v>3</v>
       </c>
@@ -6121,7 +6163,7 @@
         <f>SUM(R5:R14)</f>
         <v>563480</v>
       </c>
-      <c r="V27" s="208"/>
+      <c r="V27" s="218"/>
       <c r="W27" s="153" t="s">
         <v>3</v>
       </c>
@@ -6217,7 +6259,7 @@
       </c>
       <c r="D31" s="34">
         <f>D30+D27+D28+D29</f>
-        <v>-250331.12999999989</v>
+        <v>-150331.12999999989</v>
       </c>
       <c r="J31" s="33" t="s">
         <v>4</v>
@@ -6286,6 +6328,84 @@
       <c r="R35" s="117"/>
       <c r="W35" s="1"/>
       <c r="X35" s="117"/>
+    </row>
+    <row r="37" spans="2:25" ht="21" x14ac:dyDescent="0.35">
+      <c r="B37" s="178">
+        <v>45092</v>
+      </c>
+      <c r="C37" s="174"/>
+      <c r="D37" s="175">
+        <v>29450</v>
+      </c>
+      <c r="E37" s="205" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37" s="205"/>
+      <c r="G37" s="205"/>
+      <c r="H37" s="205"/>
+      <c r="I37" s="205"/>
+      <c r="J37" s="205"/>
+      <c r="K37" s="205"/>
+      <c r="L37" s="205"/>
+      <c r="M37" s="205"/>
+      <c r="N37" s="205"/>
+      <c r="O37" s="205"/>
+      <c r="P37" s="205"/>
+    </row>
+    <row r="38" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="179" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="176"/>
+      <c r="D38" s="177"/>
+      <c r="E38" s="205"/>
+      <c r="F38" s="205"/>
+      <c r="G38" s="205"/>
+      <c r="H38" s="205"/>
+      <c r="I38" s="205"/>
+      <c r="J38" s="205"/>
+      <c r="K38" s="205"/>
+      <c r="L38" s="205"/>
+      <c r="M38" s="205"/>
+      <c r="N38" s="205"/>
+      <c r="O38" s="205"/>
+      <c r="P38" s="205"/>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B39" s="176"/>
+      <c r="C39" s="176"/>
+      <c r="D39" s="177"/>
+      <c r="E39" s="205"/>
+      <c r="F39" s="205"/>
+      <c r="G39" s="205"/>
+      <c r="H39" s="205"/>
+      <c r="I39" s="205"/>
+      <c r="J39" s="205"/>
+      <c r="K39" s="205"/>
+      <c r="L39" s="205"/>
+      <c r="M39" s="205"/>
+      <c r="N39" s="205"/>
+      <c r="O39" s="205"/>
+      <c r="P39" s="205"/>
+    </row>
+    <row r="40" spans="2:25" ht="21" x14ac:dyDescent="0.35">
+      <c r="B40" s="176"/>
+      <c r="C40" s="176"/>
+      <c r="D40" s="177"/>
+      <c r="E40" s="206" t="s">
+        <v>102</v>
+      </c>
+      <c r="F40" s="206"/>
+      <c r="G40" s="206"/>
+      <c r="H40" s="206"/>
+      <c r="I40" s="206"/>
+      <c r="J40" s="206"/>
+      <c r="K40" s="206"/>
+      <c r="L40" s="206"/>
+      <c r="M40" s="206"/>
+      <c r="N40" s="206"/>
+      <c r="O40" s="206"/>
+      <c r="P40" s="206"/>
     </row>
     <row r="43" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B43" s="118"/>
@@ -6522,10 +6642,7 @@
       <c r="Y55" s="118"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B2:B27"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:E3"/>
+  <mergeCells count="15">
     <mergeCell ref="W9:Y10"/>
     <mergeCell ref="V2:V27"/>
     <mergeCell ref="W2:X2"/>
@@ -6536,6 +6653,11 @@
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="P2:P27"/>
+    <mergeCell ref="E37:P39"/>
+    <mergeCell ref="E40:P40"/>
+    <mergeCell ref="B2:B27"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.35433070866141736" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6746,12 +6868,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="212" t="s">
+      <c r="B3" s="222" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="213"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="214"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="224"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
     </row>
@@ -7973,11 +8095,11 @@
         <v>-659691.4</v>
       </c>
       <c r="E123" s="100"/>
-      <c r="G123" s="215">
+      <c r="G123" s="225">
         <f>D121+D122+D123+D124</f>
         <v>-8718896</v>
       </c>
-      <c r="H123" s="216"/>
+      <c r="H123" s="226"/>
     </row>
     <row r="124" spans="1:8 16384:16384" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="110"/>
@@ -7989,8 +8111,8 @@
         <v>-1241668.1599999999</v>
       </c>
       <c r="E124" s="100"/>
-      <c r="G124" s="217"/>
-      <c r="H124" s="218"/>
+      <c r="G124" s="227"/>
+      <c r="H124" s="228"/>
     </row>
     <row r="125" spans="1:8 16384:16384" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="111"/>
@@ -8071,23 +8193,23 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="221" t="s">
+      <c r="B2" s="231" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="224" t="s">
+      <c r="C2" s="234" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="225"/>
+      <c r="D2" s="235"/>
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="222"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="174"/>
+      <c r="B3" s="232"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="182"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="223"/>
+      <c r="B4" s="233"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -8125,13 +8247,13 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="219"/>
+      <c r="B8" s="229"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="220"/>
+      <c r="B9" s="230"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -8324,7 +8446,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="210" t="s">
+      <c r="B2" s="220" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -8334,13 +8456,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="211"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="174"/>
+      <c r="B3" s="221"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="182"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="211"/>
+      <c r="B4" s="221"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -8348,7 +8470,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="211"/>
+      <c r="B5" s="221"/>
       <c r="C5" s="47">
         <v>44380</v>
       </c>
@@ -8358,7 +8480,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="226"/>
+      <c r="B6" s="236"/>
       <c r="C6" s="36">
         <v>44396</v>
       </c>
@@ -8374,7 +8496,7 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="219" t="s">
+      <c r="B8" s="229" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="36">
@@ -8386,7 +8508,7 @@
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="220"/>
+      <c r="B9" s="230"/>
       <c r="C9" s="93"/>
       <c r="D9" s="77"/>
       <c r="E9" s="27"/>
@@ -8589,7 +8711,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="220" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -8597,7 +8719,7 @@
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="17"/>
-      <c r="I2" s="210" t="s">
+      <c r="I2" s="220" t="s">
         <v>74</v>
       </c>
       <c r="J2" s="15" t="s">
@@ -8607,23 +8729,23 @@
       <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="211"/>
-      <c r="B3" s="172"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="174"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="173"/>
-      <c r="L3" s="174"/>
+      <c r="A3" s="221"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="182"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="182"/>
     </row>
     <row r="4" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="211"/>
+      <c r="A4" s="221"/>
       <c r="B4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="23"/>
-      <c r="I4" s="211"/>
+      <c r="I4" s="221"/>
       <c r="J4" s="21" t="s">
         <v>2</v>
       </c>
@@ -8631,7 +8753,7 @@
       <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="211"/>
+      <c r="A5" s="221"/>
       <c r="B5" s="47">
         <v>44935</v>
       </c>
@@ -8639,7 +8761,7 @@
         <v>49000</v>
       </c>
       <c r="D5" s="28"/>
-      <c r="I5" s="211"/>
+      <c r="I5" s="221"/>
       <c r="J5" s="47">
         <v>44621</v>
       </c>
@@ -8649,11 +8771,11 @@
       <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="211"/>
+      <c r="A6" s="221"/>
       <c r="B6" s="36"/>
       <c r="C6" s="37"/>
       <c r="D6" s="27"/>
-      <c r="I6" s="226"/>
+      <c r="I6" s="236"/>
       <c r="J6" s="36">
         <v>44656</v>
       </c>
@@ -8663,7 +8785,7 @@
       <c r="L6" s="27"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="211"/>
+      <c r="A7" s="221"/>
       <c r="B7" s="36"/>
       <c r="C7" s="37"/>
       <c r="D7" s="41"/>
@@ -8673,13 +8795,13 @@
       <c r="L7" s="41"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="211"/>
+      <c r="A8" s="221"/>
       <c r="B8" s="36"/>
       <c r="C8" s="37">
         <v>0</v>
       </c>
       <c r="D8" s="27"/>
-      <c r="I8" s="219"/>
+      <c r="I8" s="229"/>
       <c r="J8" s="36"/>
       <c r="K8" s="37">
         <v>0</v>
@@ -8687,17 +8809,17 @@
       <c r="L8" s="27"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="211"/>
+      <c r="A9" s="221"/>
       <c r="B9" s="93"/>
       <c r="C9" s="77"/>
       <c r="D9" s="27"/>
-      <c r="I9" s="220"/>
+      <c r="I9" s="230"/>
       <c r="J9" s="93"/>
       <c r="K9" s="77"/>
       <c r="L9" s="27"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="211"/>
+      <c r="A10" s="221"/>
       <c r="B10" s="93"/>
       <c r="C10" s="77"/>
       <c r="D10" s="27"/>
@@ -8707,7 +8829,7 @@
       <c r="L10" s="27"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="211"/>
+      <c r="A11" s="221"/>
       <c r="B11" s="93"/>
       <c r="C11" s="77"/>
       <c r="D11" s="27"/>
@@ -8717,7 +8839,7 @@
       <c r="L11" s="27"/>
     </row>
     <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="226"/>
+      <c r="A12" s="236"/>
       <c r="B12" s="38"/>
       <c r="C12" s="39">
         <v>0</v>
@@ -9018,12 +9140,12 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="212" t="s">
+      <c r="B3" s="222" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="213"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="214"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="224"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
     </row>
@@ -10142,11 +10264,11 @@
       <c r="E117" s="100">
         <v>44264</v>
       </c>
-      <c r="G117" s="215">
+      <c r="G117" s="225">
         <f>D115+D116+D117+D118</f>
         <v>-7492427.9600000009</v>
       </c>
-      <c r="H117" s="216"/>
+      <c r="H117" s="226"/>
     </row>
     <row r="118" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="110"/>
@@ -10160,8 +10282,8 @@
       <c r="E118" s="100">
         <v>44264</v>
       </c>
-      <c r="G118" s="217"/>
-      <c r="H118" s="218"/>
+      <c r="G118" s="227"/>
+      <c r="H118" s="228"/>
     </row>
     <row r="119" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="111"/>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1356,6 +1356,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1365,36 +1395,6 @@
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1422,56 +1422,56 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="19" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="19" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="19" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="19" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="19" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="19" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="19" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="19" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="19" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="19" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="19" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="19" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3643,18 +3643,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="183" t="s">
+      <c r="C3" s="193" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="183"/>
+      <c r="D3" s="193"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="189"/>
+      <c r="D4" s="184"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3664,10 +3664,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="184" t="s">
+      <c r="B6" s="194" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="185"/>
+      <c r="C6" s="195"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3684,10 +3684,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="186" t="s">
+      <c r="B8" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="187"/>
+      <c r="C8" s="192"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3704,10 +3704,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="186" t="s">
+      <c r="B10" s="191" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="187"/>
+      <c r="C10" s="192"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3724,10 +3724,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="186" t="s">
+      <c r="B12" s="191" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="187"/>
+      <c r="C12" s="192"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3744,10 +3744,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="186" t="s">
+      <c r="B14" s="191" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="187"/>
+      <c r="C14" s="192"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3764,10 +3764,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="190" t="s">
+      <c r="B16" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="191"/>
+      <c r="C16" s="186"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3784,14 +3784,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="190" t="s">
+      <c r="B18" s="185" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="191"/>
+      <c r="C18" s="186"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="192" t="s">
+      <c r="E18" s="187" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="193"/>
+      <c r="E19" s="188"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3812,10 +3812,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="190" t="s">
+      <c r="B21" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="191"/>
+      <c r="C21" s="186"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3832,10 +3832,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="194" t="s">
+      <c r="B23" s="189" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="195"/>
+      <c r="C23" s="190"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3852,10 +3852,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="188" t="s">
+      <c r="B25" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="188"/>
+      <c r="C25" s="183"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3906,6 +3906,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3914,11 +3919,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5448,8 +5448,8 @@
   </sheetPr>
   <dimension ref="B1:Y55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5479,80 +5479,80 @@
   <sheetData>
     <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="207" t="s">
+      <c r="B2" s="215" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="210" t="s">
+      <c r="C2" s="214" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="210"/>
+      <c r="D2" s="214"/>
       <c r="E2" s="17"/>
-      <c r="I2" s="207" t="s">
+      <c r="I2" s="215" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="210" t="s">
+      <c r="J2" s="214" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="210"/>
+      <c r="K2" s="214"/>
       <c r="L2" s="17"/>
       <c r="M2" s="170"/>
-      <c r="P2" s="220" t="s">
+      <c r="P2" s="218" t="s">
         <v>92</v>
       </c>
-      <c r="Q2" s="219" t="s">
+      <c r="Q2" s="213" t="s">
         <v>80</v>
       </c>
-      <c r="R2" s="210"/>
+      <c r="R2" s="214"/>
       <c r="S2" s="17"/>
-      <c r="V2" s="217" t="s">
+      <c r="V2" s="211" t="s">
         <v>94</v>
       </c>
-      <c r="W2" s="219" t="s">
+      <c r="W2" s="213" t="s">
         <v>80</v>
       </c>
-      <c r="X2" s="210"/>
+      <c r="X2" s="214"/>
       <c r="Y2" s="17"/>
     </row>
     <row r="3" spans="2:25" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="208"/>
+      <c r="B3" s="216"/>
       <c r="C3" s="181"/>
       <c r="D3" s="181"/>
       <c r="E3" s="182"/>
-      <c r="I3" s="208"/>
+      <c r="I3" s="216"/>
       <c r="J3" s="181"/>
       <c r="K3" s="181"/>
       <c r="L3" s="182"/>
       <c r="M3" s="170"/>
-      <c r="P3" s="221"/>
+      <c r="P3" s="219"/>
       <c r="Q3" s="181"/>
       <c r="R3" s="181"/>
       <c r="S3" s="182"/>
-      <c r="V3" s="218"/>
+      <c r="V3" s="212"/>
       <c r="W3" s="181"/>
       <c r="X3" s="181"/>
       <c r="Y3" s="182"/>
     </row>
     <row r="4" spans="2:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="208"/>
+      <c r="B4" s="216"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
-      <c r="I4" s="208"/>
+      <c r="I4" s="216"/>
       <c r="J4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="22"/>
       <c r="L4" s="23"/>
       <c r="M4" s="170"/>
-      <c r="P4" s="221"/>
+      <c r="P4" s="219"/>
       <c r="Q4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="R4" s="22"/>
       <c r="S4" s="23"/>
-      <c r="V4" s="218"/>
+      <c r="V4" s="212"/>
       <c r="W4" s="21" t="s">
         <v>2</v>
       </c>
@@ -5560,7 +5560,7 @@
       <c r="Y4" s="23"/>
     </row>
     <row r="5" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="208"/>
+      <c r="B5" s="216"/>
       <c r="C5" s="156" t="s">
         <v>80</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>563480</v>
       </c>
       <c r="E5" s="28"/>
-      <c r="I5" s="208"/>
+      <c r="I5" s="216"/>
       <c r="J5" s="156">
         <v>45010</v>
       </c>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="L5" s="28"/>
       <c r="M5" s="170"/>
-      <c r="P5" s="221"/>
+      <c r="P5" s="219"/>
       <c r="Q5" s="47">
         <v>44947</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>50000</v>
       </c>
       <c r="S5" s="28"/>
-      <c r="V5" s="218"/>
+      <c r="V5" s="212"/>
       <c r="W5" s="47">
         <v>44873</v>
       </c>
@@ -5595,7 +5595,7 @@
       <c r="Y5" s="28"/>
     </row>
     <row r="6" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="208"/>
+      <c r="B6" s="216"/>
       <c r="C6" s="156">
         <v>45010</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>50000</v>
       </c>
       <c r="E6" s="27"/>
-      <c r="I6" s="208"/>
+      <c r="I6" s="216"/>
       <c r="J6" s="155">
         <v>45017</v>
       </c>
@@ -5612,7 +5612,7 @@
       </c>
       <c r="L6" s="27"/>
       <c r="M6" s="170"/>
-      <c r="P6" s="221"/>
+      <c r="P6" s="219"/>
       <c r="Q6" s="36">
         <v>44954</v>
       </c>
@@ -5620,13 +5620,13 @@
         <v>50000</v>
       </c>
       <c r="S6" s="27"/>
-      <c r="V6" s="218"/>
+      <c r="V6" s="212"/>
       <c r="W6" s="36"/>
       <c r="X6" s="37"/>
       <c r="Y6" s="27"/>
     </row>
     <row r="7" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="208"/>
+      <c r="B7" s="216"/>
       <c r="C7" s="169">
         <v>45017</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>100000</v>
       </c>
       <c r="E7" s="41"/>
-      <c r="I7" s="208"/>
+      <c r="I7" s="216"/>
       <c r="J7" s="155">
         <v>45021</v>
       </c>
@@ -5643,7 +5643,7 @@
       </c>
       <c r="L7" s="41"/>
       <c r="M7" s="170"/>
-      <c r="P7" s="221"/>
+      <c r="P7" s="219"/>
       <c r="Q7" s="36">
         <v>44961</v>
       </c>
@@ -5651,13 +5651,13 @@
         <v>50000</v>
       </c>
       <c r="S7" s="41"/>
-      <c r="V7" s="218"/>
+      <c r="V7" s="212"/>
       <c r="W7" s="36"/>
       <c r="X7" s="37"/>
       <c r="Y7" s="41"/>
     </row>
     <row r="8" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="208"/>
+      <c r="B8" s="216"/>
       <c r="C8" s="169">
         <v>45021</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>50000</v>
       </c>
       <c r="E8" s="27"/>
-      <c r="I8" s="208"/>
+      <c r="I8" s="216"/>
       <c r="J8" s="155">
         <v>45031</v>
       </c>
@@ -5674,7 +5674,7 @@
       </c>
       <c r="L8" s="27"/>
       <c r="M8" s="170"/>
-      <c r="P8" s="221"/>
+      <c r="P8" s="219"/>
       <c r="Q8" s="36">
         <v>44968</v>
       </c>
@@ -5682,13 +5682,13 @@
         <v>50000</v>
       </c>
       <c r="S8" s="27"/>
-      <c r="V8" s="218"/>
+      <c r="V8" s="212"/>
       <c r="W8" s="36"/>
       <c r="X8" s="37"/>
       <c r="Y8" s="27"/>
     </row>
     <row r="9" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="208"/>
+      <c r="B9" s="216"/>
       <c r="C9" s="169">
         <v>45031</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>100000</v>
       </c>
       <c r="E9" s="27"/>
-      <c r="I9" s="208"/>
+      <c r="I9" s="216"/>
       <c r="J9" s="157">
         <v>45038</v>
       </c>
@@ -5705,7 +5705,7 @@
       </c>
       <c r="L9" s="27"/>
       <c r="M9" s="170"/>
-      <c r="P9" s="221"/>
+      <c r="P9" s="219"/>
       <c r="Q9" s="93">
         <v>44975</v>
       </c>
@@ -5713,15 +5713,15 @@
         <v>50000</v>
       </c>
       <c r="S9" s="27"/>
-      <c r="V9" s="218"/>
-      <c r="W9" s="211" t="s">
+      <c r="V9" s="212"/>
+      <c r="W9" s="205" t="s">
         <v>95</v>
       </c>
-      <c r="X9" s="212"/>
-      <c r="Y9" s="213"/>
+      <c r="X9" s="206"/>
+      <c r="Y9" s="207"/>
     </row>
     <row r="10" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="208"/>
+      <c r="B10" s="216"/>
       <c r="C10" s="157">
         <v>45038</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>50000</v>
       </c>
       <c r="E10" s="27"/>
-      <c r="I10" s="208"/>
+      <c r="I10" s="216"/>
       <c r="J10" s="157">
         <v>45045</v>
       </c>
@@ -5738,7 +5738,7 @@
       </c>
       <c r="L10" s="27"/>
       <c r="M10" s="170"/>
-      <c r="P10" s="221"/>
+      <c r="P10" s="219"/>
       <c r="Q10" s="93">
         <v>44982</v>
       </c>
@@ -5746,13 +5746,13 @@
         <v>50000</v>
       </c>
       <c r="S10" s="27"/>
-      <c r="V10" s="218"/>
-      <c r="W10" s="214"/>
-      <c r="X10" s="215"/>
-      <c r="Y10" s="216"/>
+      <c r="V10" s="212"/>
+      <c r="W10" s="208"/>
+      <c r="X10" s="209"/>
+      <c r="Y10" s="210"/>
     </row>
     <row r="11" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="208"/>
+      <c r="B11" s="216"/>
       <c r="C11" s="157">
         <v>45045</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>100000</v>
       </c>
       <c r="E11" s="27"/>
-      <c r="I11" s="208"/>
+      <c r="I11" s="216"/>
       <c r="J11" s="157">
         <v>45052</v>
       </c>
@@ -5769,7 +5769,7 @@
       </c>
       <c r="L11" s="27"/>
       <c r="M11" s="170"/>
-      <c r="P11" s="221"/>
+      <c r="P11" s="219"/>
       <c r="Q11" s="93">
         <v>44989</v>
       </c>
@@ -5777,13 +5777,13 @@
         <v>50000</v>
       </c>
       <c r="S11" s="27"/>
-      <c r="V11" s="218"/>
+      <c r="V11" s="212"/>
       <c r="W11" s="93"/>
       <c r="X11" s="77"/>
       <c r="Y11" s="27"/>
     </row>
     <row r="12" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="208"/>
+      <c r="B12" s="216"/>
       <c r="C12" s="157">
         <v>45052</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>100000</v>
       </c>
       <c r="E12" s="146"/>
-      <c r="I12" s="208"/>
+      <c r="I12" s="216"/>
       <c r="J12" s="158">
         <v>45059</v>
       </c>
@@ -5800,7 +5800,7 @@
       </c>
       <c r="L12" s="146"/>
       <c r="M12" s="170"/>
-      <c r="P12" s="221"/>
+      <c r="P12" s="219"/>
       <c r="Q12" s="38">
         <v>44989</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>50000</v>
       </c>
       <c r="S12" s="146"/>
-      <c r="V12" s="218"/>
+      <c r="V12" s="212"/>
       <c r="W12" s="36"/>
       <c r="X12" s="37">
         <v>0</v>
@@ -5816,7 +5816,7 @@
       <c r="Y12" s="3"/>
     </row>
     <row r="13" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="208"/>
+      <c r="B13" s="216"/>
       <c r="C13" s="158">
         <v>45059</v>
       </c>
@@ -5824,12 +5824,12 @@
         <v>100000</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="I13" s="208"/>
+      <c r="I13" s="216"/>
       <c r="J13" s="155"/>
       <c r="K13" s="37"/>
       <c r="L13" s="3"/>
       <c r="M13" s="170"/>
-      <c r="P13" s="221"/>
+      <c r="P13" s="219"/>
       <c r="Q13" s="36">
         <v>44996</v>
       </c>
@@ -5837,13 +5837,13 @@
         <v>50000</v>
       </c>
       <c r="S13" s="3"/>
-      <c r="V13" s="218"/>
+      <c r="V13" s="212"/>
       <c r="W13" s="36"/>
       <c r="X13" s="37"/>
       <c r="Y13" s="3"/>
     </row>
     <row r="14" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="208"/>
+      <c r="B14" s="216"/>
       <c r="C14" s="169">
         <v>45066</v>
       </c>
@@ -5851,12 +5851,12 @@
         <v>100000</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="I14" s="208"/>
+      <c r="I14" s="216"/>
       <c r="J14" s="155"/>
       <c r="K14" s="37"/>
       <c r="L14" s="3"/>
       <c r="M14" s="170"/>
-      <c r="P14" s="221"/>
+      <c r="P14" s="219"/>
       <c r="Q14" s="36">
         <v>45003</v>
       </c>
@@ -5864,13 +5864,13 @@
         <v>113480</v>
       </c>
       <c r="S14" s="3"/>
-      <c r="V14" s="218"/>
+      <c r="V14" s="212"/>
       <c r="W14" s="36"/>
       <c r="X14" s="37"/>
       <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="208"/>
+      <c r="B15" s="216"/>
       <c r="C15" s="169">
         <v>45073</v>
       </c>
@@ -5878,22 +5878,22 @@
         <v>100000</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="I15" s="208"/>
+      <c r="I15" s="216"/>
       <c r="J15" s="155"/>
       <c r="K15" s="37"/>
       <c r="L15" s="3"/>
       <c r="M15" s="170"/>
-      <c r="P15" s="221"/>
+      <c r="P15" s="219"/>
       <c r="Q15" s="36"/>
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
-      <c r="V15" s="218"/>
+      <c r="V15" s="212"/>
       <c r="W15" s="36"/>
       <c r="X15" s="37"/>
       <c r="Y15" s="3"/>
     </row>
     <row r="16" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="208"/>
+      <c r="B16" s="216"/>
       <c r="C16" s="169">
         <v>45079</v>
       </c>
@@ -5901,22 +5901,22 @@
         <v>100000</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="I16" s="208"/>
+      <c r="I16" s="216"/>
       <c r="J16" s="155"/>
       <c r="K16" s="37"/>
       <c r="L16" s="3"/>
       <c r="M16" s="170"/>
-      <c r="P16" s="221"/>
+      <c r="P16" s="219"/>
       <c r="Q16" s="36"/>
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
-      <c r="V16" s="218"/>
+      <c r="V16" s="212"/>
       <c r="W16" s="36"/>
       <c r="X16" s="37"/>
       <c r="Y16" s="3"/>
     </row>
     <row r="17" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="208"/>
+      <c r="B17" s="216"/>
       <c r="C17" s="169">
         <v>45086</v>
       </c>
@@ -5926,22 +5926,22 @@
       <c r="E17" s="172" t="s">
         <v>97</v>
       </c>
-      <c r="I17" s="208"/>
+      <c r="I17" s="216"/>
       <c r="J17" s="155"/>
       <c r="K17" s="37"/>
       <c r="L17" s="3"/>
       <c r="M17" s="170"/>
-      <c r="P17" s="221"/>
+      <c r="P17" s="219"/>
       <c r="Q17" s="160"/>
       <c r="R17" s="161"/>
       <c r="S17" s="3"/>
-      <c r="V17" s="218"/>
+      <c r="V17" s="212"/>
       <c r="W17" s="36"/>
       <c r="X17" s="37"/>
       <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="208"/>
+      <c r="B18" s="216"/>
       <c r="C18" s="171">
         <v>45090</v>
       </c>
@@ -5951,22 +5951,22 @@
       <c r="E18" s="172" t="s">
         <v>97</v>
       </c>
-      <c r="I18" s="208"/>
+      <c r="I18" s="216"/>
       <c r="J18" s="155"/>
       <c r="K18" s="37"/>
       <c r="L18" s="3"/>
       <c r="M18" s="170"/>
-      <c r="P18" s="221"/>
+      <c r="P18" s="219"/>
       <c r="Q18" s="160"/>
       <c r="R18" s="161"/>
       <c r="S18" s="3"/>
-      <c r="V18" s="218"/>
+      <c r="V18" s="212"/>
       <c r="W18" s="36"/>
       <c r="X18" s="37"/>
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="208"/>
+      <c r="B19" s="216"/>
       <c r="C19" s="171">
         <v>45091</v>
       </c>
@@ -5976,22 +5976,22 @@
       <c r="E19" s="173" t="s">
         <v>98</v>
       </c>
-      <c r="I19" s="208"/>
+      <c r="I19" s="216"/>
       <c r="J19" s="155"/>
       <c r="K19" s="37"/>
       <c r="L19" s="3"/>
       <c r="M19" s="170"/>
-      <c r="P19" s="221"/>
+      <c r="P19" s="219"/>
       <c r="Q19" s="160"/>
       <c r="R19" s="161"/>
       <c r="S19" s="3"/>
-      <c r="V19" s="218"/>
+      <c r="V19" s="212"/>
       <c r="W19" s="36"/>
       <c r="X19" s="37"/>
       <c r="Y19" s="3"/>
     </row>
     <row r="20" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="208"/>
+      <c r="B20" s="216"/>
       <c r="C20" s="171">
         <v>45091</v>
       </c>
@@ -6001,22 +6001,22 @@
       <c r="E20" s="172" t="s">
         <v>99</v>
       </c>
-      <c r="I20" s="208"/>
+      <c r="I20" s="216"/>
       <c r="J20" s="155"/>
       <c r="K20" s="37"/>
       <c r="L20" s="3"/>
       <c r="M20" s="170"/>
-      <c r="P20" s="221"/>
+      <c r="P20" s="219"/>
       <c r="Q20" s="160"/>
       <c r="R20" s="161"/>
       <c r="S20" s="3"/>
-      <c r="V20" s="218"/>
+      <c r="V20" s="212"/>
       <c r="W20" s="36"/>
       <c r="X20" s="37"/>
       <c r="Y20" s="3"/>
     </row>
     <row r="21" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="208"/>
+      <c r="B21" s="216"/>
       <c r="C21" s="169">
         <v>45092</v>
       </c>
@@ -6024,22 +6024,22 @@
         <v>100000</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="I21" s="208"/>
+      <c r="I21" s="216"/>
       <c r="J21" s="155"/>
       <c r="K21" s="37"/>
       <c r="L21" s="3"/>
       <c r="M21" s="170"/>
-      <c r="P21" s="221"/>
+      <c r="P21" s="219"/>
       <c r="Q21" s="160"/>
       <c r="R21" s="161"/>
       <c r="S21" s="3"/>
-      <c r="V21" s="218"/>
+      <c r="V21" s="212"/>
       <c r="W21" s="36"/>
       <c r="X21" s="37"/>
       <c r="Y21" s="3"/>
     </row>
     <row r="22" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="208"/>
+      <c r="B22" s="216"/>
       <c r="C22" s="169">
         <v>45101</v>
       </c>
@@ -6047,106 +6047,108 @@
         <v>100000</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="I22" s="208"/>
+      <c r="I22" s="216"/>
       <c r="J22" s="155"/>
       <c r="K22" s="37"/>
       <c r="L22" s="3"/>
       <c r="M22" s="170"/>
-      <c r="P22" s="221"/>
+      <c r="P22" s="219"/>
       <c r="Q22" s="160"/>
       <c r="R22" s="161"/>
       <c r="S22" s="3"/>
-      <c r="V22" s="218"/>
+      <c r="V22" s="212"/>
       <c r="W22" s="36"/>
       <c r="X22" s="37"/>
       <c r="Y22" s="3"/>
     </row>
     <row r="23" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="208"/>
+      <c r="B23" s="216"/>
       <c r="C23" s="169"/>
-      <c r="D23" s="37"/>
+      <c r="D23" s="37">
+        <v>100000</v>
+      </c>
       <c r="E23" s="3"/>
-      <c r="I23" s="208"/>
+      <c r="I23" s="216"/>
       <c r="J23" s="155"/>
       <c r="K23" s="37"/>
       <c r="L23" s="3"/>
       <c r="M23" s="170"/>
-      <c r="P23" s="221"/>
+      <c r="P23" s="219"/>
       <c r="Q23" s="160"/>
       <c r="R23" s="161"/>
       <c r="S23" s="3"/>
-      <c r="V23" s="218"/>
+      <c r="V23" s="212"/>
       <c r="W23" s="36"/>
       <c r="X23" s="37"/>
       <c r="Y23" s="3"/>
     </row>
     <row r="24" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="208"/>
+      <c r="B24" s="216"/>
       <c r="C24" s="169"/>
       <c r="D24" s="37"/>
       <c r="E24" s="3"/>
-      <c r="I24" s="208"/>
+      <c r="I24" s="216"/>
       <c r="J24" s="155"/>
       <c r="K24" s="37"/>
       <c r="L24" s="3"/>
       <c r="M24" s="170"/>
-      <c r="P24" s="221"/>
+      <c r="P24" s="219"/>
       <c r="Q24" s="160"/>
       <c r="R24" s="161"/>
       <c r="S24" s="3"/>
-      <c r="V24" s="218"/>
+      <c r="V24" s="212"/>
       <c r="W24" s="36"/>
       <c r="X24" s="37"/>
       <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="208"/>
+      <c r="B25" s="216"/>
       <c r="C25" s="169"/>
       <c r="D25" s="37"/>
       <c r="E25" s="3"/>
-      <c r="I25" s="208"/>
+      <c r="I25" s="216"/>
       <c r="J25" s="155"/>
       <c r="K25" s="37"/>
       <c r="L25" s="3"/>
       <c r="M25" s="170"/>
-      <c r="P25" s="221"/>
+      <c r="P25" s="219"/>
       <c r="Q25" s="160"/>
       <c r="R25" s="161"/>
       <c r="S25" s="3"/>
-      <c r="V25" s="218"/>
+      <c r="V25" s="212"/>
       <c r="W25" s="36"/>
       <c r="X25" s="37"/>
       <c r="Y25" s="3"/>
     </row>
     <row r="26" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="208"/>
+      <c r="B26" s="216"/>
       <c r="C26" s="169"/>
       <c r="D26" s="37"/>
       <c r="E26" s="3"/>
-      <c r="I26" s="208"/>
+      <c r="I26" s="216"/>
       <c r="J26" s="155"/>
       <c r="K26" s="37"/>
       <c r="L26" s="3"/>
       <c r="M26" s="170"/>
-      <c r="P26" s="221"/>
+      <c r="P26" s="219"/>
       <c r="Q26" s="160"/>
       <c r="R26" s="161"/>
       <c r="S26" s="3"/>
-      <c r="V26" s="218"/>
+      <c r="V26" s="212"/>
       <c r="W26" s="36"/>
       <c r="X26" s="37"/>
       <c r="Y26" s="3"/>
     </row>
     <row r="27" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="209"/>
+      <c r="B27" s="217"/>
       <c r="C27" s="159" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="154">
         <f>SUM(D5:D26)</f>
-        <v>2140824.56</v>
-      </c>
-      <c r="I27" s="209"/>
+        <v>2240824.56</v>
+      </c>
+      <c r="I27" s="217"/>
       <c r="J27" s="159" t="s">
         <v>3</v>
       </c>
@@ -6155,7 +6157,7 @@
         <v>650000</v>
       </c>
       <c r="M27" s="170"/>
-      <c r="P27" s="221"/>
+      <c r="P27" s="219"/>
       <c r="Q27" s="162" t="s">
         <v>3</v>
       </c>
@@ -6163,7 +6165,7 @@
         <f>SUM(R5:R14)</f>
         <v>563480</v>
       </c>
-      <c r="V27" s="218"/>
+      <c r="V27" s="212"/>
       <c r="W27" s="153" t="s">
         <v>3</v>
       </c>
@@ -6259,7 +6261,7 @@
       </c>
       <c r="D31" s="34">
         <f>D30+D27+D28+D29</f>
-        <v>-150331.12999999989</v>
+        <v>-50331.129999999888</v>
       </c>
       <c r="J31" s="33" t="s">
         <v>4</v>
@@ -6337,20 +6339,20 @@
       <c r="D37" s="175">
         <v>29450</v>
       </c>
-      <c r="E37" s="205" t="s">
+      <c r="E37" s="220" t="s">
         <v>100</v>
       </c>
-      <c r="F37" s="205"/>
-      <c r="G37" s="205"/>
-      <c r="H37" s="205"/>
-      <c r="I37" s="205"/>
-      <c r="J37" s="205"/>
-      <c r="K37" s="205"/>
-      <c r="L37" s="205"/>
-      <c r="M37" s="205"/>
-      <c r="N37" s="205"/>
-      <c r="O37" s="205"/>
-      <c r="P37" s="205"/>
+      <c r="F37" s="220"/>
+      <c r="G37" s="220"/>
+      <c r="H37" s="220"/>
+      <c r="I37" s="220"/>
+      <c r="J37" s="220"/>
+      <c r="K37" s="220"/>
+      <c r="L37" s="220"/>
+      <c r="M37" s="220"/>
+      <c r="N37" s="220"/>
+      <c r="O37" s="220"/>
+      <c r="P37" s="220"/>
     </row>
     <row r="38" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="179" t="s">
@@ -6358,54 +6360,54 @@
       </c>
       <c r="C38" s="176"/>
       <c r="D38" s="177"/>
-      <c r="E38" s="205"/>
-      <c r="F38" s="205"/>
-      <c r="G38" s="205"/>
-      <c r="H38" s="205"/>
-      <c r="I38" s="205"/>
-      <c r="J38" s="205"/>
-      <c r="K38" s="205"/>
-      <c r="L38" s="205"/>
-      <c r="M38" s="205"/>
-      <c r="N38" s="205"/>
-      <c r="O38" s="205"/>
-      <c r="P38" s="205"/>
+      <c r="E38" s="220"/>
+      <c r="F38" s="220"/>
+      <c r="G38" s="220"/>
+      <c r="H38" s="220"/>
+      <c r="I38" s="220"/>
+      <c r="J38" s="220"/>
+      <c r="K38" s="220"/>
+      <c r="L38" s="220"/>
+      <c r="M38" s="220"/>
+      <c r="N38" s="220"/>
+      <c r="O38" s="220"/>
+      <c r="P38" s="220"/>
     </row>
     <row r="39" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B39" s="176"/>
       <c r="C39" s="176"/>
       <c r="D39" s="177"/>
-      <c r="E39" s="205"/>
-      <c r="F39" s="205"/>
-      <c r="G39" s="205"/>
-      <c r="H39" s="205"/>
-      <c r="I39" s="205"/>
-      <c r="J39" s="205"/>
-      <c r="K39" s="205"/>
-      <c r="L39" s="205"/>
-      <c r="M39" s="205"/>
-      <c r="N39" s="205"/>
-      <c r="O39" s="205"/>
-      <c r="P39" s="205"/>
+      <c r="E39" s="220"/>
+      <c r="F39" s="220"/>
+      <c r="G39" s="220"/>
+      <c r="H39" s="220"/>
+      <c r="I39" s="220"/>
+      <c r="J39" s="220"/>
+      <c r="K39" s="220"/>
+      <c r="L39" s="220"/>
+      <c r="M39" s="220"/>
+      <c r="N39" s="220"/>
+      <c r="O39" s="220"/>
+      <c r="P39" s="220"/>
     </row>
     <row r="40" spans="2:25" ht="21" x14ac:dyDescent="0.35">
       <c r="B40" s="176"/>
       <c r="C40" s="176"/>
       <c r="D40" s="177"/>
-      <c r="E40" s="206" t="s">
+      <c r="E40" s="221" t="s">
         <v>102</v>
       </c>
-      <c r="F40" s="206"/>
-      <c r="G40" s="206"/>
-      <c r="H40" s="206"/>
-      <c r="I40" s="206"/>
-      <c r="J40" s="206"/>
-      <c r="K40" s="206"/>
-      <c r="L40" s="206"/>
-      <c r="M40" s="206"/>
-      <c r="N40" s="206"/>
-      <c r="O40" s="206"/>
-      <c r="P40" s="206"/>
+      <c r="F40" s="221"/>
+      <c r="G40" s="221"/>
+      <c r="H40" s="221"/>
+      <c r="I40" s="221"/>
+      <c r="J40" s="221"/>
+      <c r="K40" s="221"/>
+      <c r="L40" s="221"/>
+      <c r="M40" s="221"/>
+      <c r="N40" s="221"/>
+      <c r="O40" s="221"/>
+      <c r="P40" s="221"/>
     </row>
     <row r="43" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B43" s="118"/>
@@ -6643,6 +6645,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E37:P39"/>
+    <mergeCell ref="E40:P40"/>
+    <mergeCell ref="B2:B27"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:E3"/>
     <mergeCell ref="W9:Y10"/>
     <mergeCell ref="V2:V27"/>
     <mergeCell ref="W2:X2"/>
@@ -6653,11 +6660,6 @@
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="P2:P27"/>
-    <mergeCell ref="E37:P39"/>
-    <mergeCell ref="E40:P40"/>
-    <mergeCell ref="B2:B27"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.35433070866141736" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8446,7 +8448,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="220" t="s">
+      <c r="B2" s="218" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -8456,13 +8458,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="221"/>
+      <c r="B3" s="219"/>
       <c r="C3" s="180"/>
       <c r="D3" s="181"/>
       <c r="E3" s="182"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="221"/>
+      <c r="B4" s="219"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -8470,7 +8472,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="221"/>
+      <c r="B5" s="219"/>
       <c r="C5" s="47">
         <v>44380</v>
       </c>
@@ -8711,7 +8713,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="220" t="s">
+      <c r="A2" s="218" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -8719,7 +8721,7 @@
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="17"/>
-      <c r="I2" s="220" t="s">
+      <c r="I2" s="218" t="s">
         <v>74</v>
       </c>
       <c r="J2" s="15" t="s">
@@ -8729,23 +8731,23 @@
       <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="221"/>
+      <c r="A3" s="219"/>
       <c r="B3" s="180"/>
       <c r="C3" s="181"/>
       <c r="D3" s="182"/>
-      <c r="I3" s="221"/>
+      <c r="I3" s="219"/>
       <c r="J3" s="180"/>
       <c r="K3" s="181"/>
       <c r="L3" s="182"/>
     </row>
     <row r="4" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="221"/>
+      <c r="A4" s="219"/>
       <c r="B4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="23"/>
-      <c r="I4" s="221"/>
+      <c r="I4" s="219"/>
       <c r="J4" s="21" t="s">
         <v>2</v>
       </c>
@@ -8753,7 +8755,7 @@
       <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="221"/>
+      <c r="A5" s="219"/>
       <c r="B5" s="47">
         <v>44935</v>
       </c>
@@ -8761,7 +8763,7 @@
         <v>49000</v>
       </c>
       <c r="D5" s="28"/>
-      <c r="I5" s="221"/>
+      <c r="I5" s="219"/>
       <c r="J5" s="47">
         <v>44621</v>
       </c>
@@ -8771,7 +8773,7 @@
       <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="221"/>
+      <c r="A6" s="219"/>
       <c r="B6" s="36"/>
       <c r="C6" s="37"/>
       <c r="D6" s="27"/>
@@ -8785,7 +8787,7 @@
       <c r="L6" s="27"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="221"/>
+      <c r="A7" s="219"/>
       <c r="B7" s="36"/>
       <c r="C7" s="37"/>
       <c r="D7" s="41"/>
@@ -8795,7 +8797,7 @@
       <c r="L7" s="41"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="221"/>
+      <c r="A8" s="219"/>
       <c r="B8" s="36"/>
       <c r="C8" s="37">
         <v>0</v>
@@ -8809,7 +8811,7 @@
       <c r="L8" s="27"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="221"/>
+      <c r="A9" s="219"/>
       <c r="B9" s="93"/>
       <c r="C9" s="77"/>
       <c r="D9" s="27"/>
@@ -8819,7 +8821,7 @@
       <c r="L9" s="27"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="221"/>
+      <c r="A10" s="219"/>
       <c r="B10" s="93"/>
       <c r="C10" s="77"/>
       <c r="D10" s="27"/>
@@ -8829,7 +8831,7 @@
       <c r="L10" s="27"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="221"/>
+      <c r="A11" s="219"/>
       <c r="B11" s="93"/>
       <c r="C11" s="77"/>
       <c r="D11" s="27"/>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1356,6 +1356,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1380,21 +1395,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1422,6 +1422,24 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="15" fontId="19" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1449,29 +1467,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3643,18 +3643,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="193" t="s">
+      <c r="C3" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="193"/>
+      <c r="D3" s="183"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="184" t="s">
+      <c r="C4" s="189" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="184"/>
+      <c r="D4" s="189"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3664,10 +3664,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="194" t="s">
+      <c r="B6" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="195"/>
+      <c r="C6" s="185"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3684,10 +3684,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="191" t="s">
+      <c r="B8" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="192"/>
+      <c r="C8" s="187"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3704,10 +3704,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="191" t="s">
+      <c r="B10" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="192"/>
+      <c r="C10" s="187"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3724,10 +3724,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="191" t="s">
+      <c r="B12" s="186" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="192"/>
+      <c r="C12" s="187"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3744,10 +3744,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="191" t="s">
+      <c r="B14" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="192"/>
+      <c r="C14" s="187"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3764,10 +3764,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="185" t="s">
+      <c r="B16" s="190" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="186"/>
+      <c r="C16" s="191"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3784,14 +3784,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="185" t="s">
+      <c r="B18" s="190" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="186"/>
+      <c r="C18" s="191"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="187" t="s">
+      <c r="E18" s="192" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="188"/>
+      <c r="E19" s="193"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3812,10 +3812,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="185" t="s">
+      <c r="B21" s="190" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="186"/>
+      <c r="C21" s="191"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3832,10 +3832,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="189" t="s">
+      <c r="B23" s="194" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="190"/>
+      <c r="C23" s="195"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3852,10 +3852,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="183" t="s">
+      <c r="B25" s="188" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="183"/>
+      <c r="C25" s="188"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3906,11 +3906,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3919,6 +3914,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5449,7 +5449,7 @@
   <dimension ref="B1:Y55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5479,80 +5479,80 @@
   <sheetData>
     <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="207" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="214" t="s">
+      <c r="C2" s="210" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="214"/>
+      <c r="D2" s="210"/>
       <c r="E2" s="17"/>
-      <c r="I2" s="215" t="s">
+      <c r="I2" s="207" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="214" t="s">
+      <c r="J2" s="210" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="214"/>
+      <c r="K2" s="210"/>
       <c r="L2" s="17"/>
       <c r="M2" s="170"/>
-      <c r="P2" s="218" t="s">
+      <c r="P2" s="220" t="s">
         <v>92</v>
       </c>
-      <c r="Q2" s="213" t="s">
+      <c r="Q2" s="219" t="s">
         <v>80</v>
       </c>
-      <c r="R2" s="214"/>
+      <c r="R2" s="210"/>
       <c r="S2" s="17"/>
-      <c r="V2" s="211" t="s">
+      <c r="V2" s="217" t="s">
         <v>94</v>
       </c>
-      <c r="W2" s="213" t="s">
+      <c r="W2" s="219" t="s">
         <v>80</v>
       </c>
-      <c r="X2" s="214"/>
+      <c r="X2" s="210"/>
       <c r="Y2" s="17"/>
     </row>
     <row r="3" spans="2:25" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="216"/>
+      <c r="B3" s="208"/>
       <c r="C3" s="181"/>
       <c r="D3" s="181"/>
       <c r="E3" s="182"/>
-      <c r="I3" s="216"/>
+      <c r="I3" s="208"/>
       <c r="J3" s="181"/>
       <c r="K3" s="181"/>
       <c r="L3" s="182"/>
       <c r="M3" s="170"/>
-      <c r="P3" s="219"/>
+      <c r="P3" s="221"/>
       <c r="Q3" s="181"/>
       <c r="R3" s="181"/>
       <c r="S3" s="182"/>
-      <c r="V3" s="212"/>
+      <c r="V3" s="218"/>
       <c r="W3" s="181"/>
       <c r="X3" s="181"/>
       <c r="Y3" s="182"/>
     </row>
     <row r="4" spans="2:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="216"/>
+      <c r="B4" s="208"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
-      <c r="I4" s="216"/>
+      <c r="I4" s="208"/>
       <c r="J4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="22"/>
       <c r="L4" s="23"/>
       <c r="M4" s="170"/>
-      <c r="P4" s="219"/>
+      <c r="P4" s="221"/>
       <c r="Q4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="R4" s="22"/>
       <c r="S4" s="23"/>
-      <c r="V4" s="212"/>
+      <c r="V4" s="218"/>
       <c r="W4" s="21" t="s">
         <v>2</v>
       </c>
@@ -5560,7 +5560,7 @@
       <c r="Y4" s="23"/>
     </row>
     <row r="5" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="216"/>
+      <c r="B5" s="208"/>
       <c r="C5" s="156" t="s">
         <v>80</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>563480</v>
       </c>
       <c r="E5" s="28"/>
-      <c r="I5" s="216"/>
+      <c r="I5" s="208"/>
       <c r="J5" s="156">
         <v>45010</v>
       </c>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="L5" s="28"/>
       <c r="M5" s="170"/>
-      <c r="P5" s="219"/>
+      <c r="P5" s="221"/>
       <c r="Q5" s="47">
         <v>44947</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>50000</v>
       </c>
       <c r="S5" s="28"/>
-      <c r="V5" s="212"/>
+      <c r="V5" s="218"/>
       <c r="W5" s="47">
         <v>44873</v>
       </c>
@@ -5595,7 +5595,7 @@
       <c r="Y5" s="28"/>
     </row>
     <row r="6" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="216"/>
+      <c r="B6" s="208"/>
       <c r="C6" s="156">
         <v>45010</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>50000</v>
       </c>
       <c r="E6" s="27"/>
-      <c r="I6" s="216"/>
+      <c r="I6" s="208"/>
       <c r="J6" s="155">
         <v>45017</v>
       </c>
@@ -5612,7 +5612,7 @@
       </c>
       <c r="L6" s="27"/>
       <c r="M6" s="170"/>
-      <c r="P6" s="219"/>
+      <c r="P6" s="221"/>
       <c r="Q6" s="36">
         <v>44954</v>
       </c>
@@ -5620,13 +5620,13 @@
         <v>50000</v>
       </c>
       <c r="S6" s="27"/>
-      <c r="V6" s="212"/>
+      <c r="V6" s="218"/>
       <c r="W6" s="36"/>
       <c r="X6" s="37"/>
       <c r="Y6" s="27"/>
     </row>
     <row r="7" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="216"/>
+      <c r="B7" s="208"/>
       <c r="C7" s="169">
         <v>45017</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>100000</v>
       </c>
       <c r="E7" s="41"/>
-      <c r="I7" s="216"/>
+      <c r="I7" s="208"/>
       <c r="J7" s="155">
         <v>45021</v>
       </c>
@@ -5643,7 +5643,7 @@
       </c>
       <c r="L7" s="41"/>
       <c r="M7" s="170"/>
-      <c r="P7" s="219"/>
+      <c r="P7" s="221"/>
       <c r="Q7" s="36">
         <v>44961</v>
       </c>
@@ -5651,13 +5651,13 @@
         <v>50000</v>
       </c>
       <c r="S7" s="41"/>
-      <c r="V7" s="212"/>
+      <c r="V7" s="218"/>
       <c r="W7" s="36"/>
       <c r="X7" s="37"/>
       <c r="Y7" s="41"/>
     </row>
     <row r="8" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="216"/>
+      <c r="B8" s="208"/>
       <c r="C8" s="169">
         <v>45021</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>50000</v>
       </c>
       <c r="E8" s="27"/>
-      <c r="I8" s="216"/>
+      <c r="I8" s="208"/>
       <c r="J8" s="155">
         <v>45031</v>
       </c>
@@ -5674,7 +5674,7 @@
       </c>
       <c r="L8" s="27"/>
       <c r="M8" s="170"/>
-      <c r="P8" s="219"/>
+      <c r="P8" s="221"/>
       <c r="Q8" s="36">
         <v>44968</v>
       </c>
@@ -5682,13 +5682,13 @@
         <v>50000</v>
       </c>
       <c r="S8" s="27"/>
-      <c r="V8" s="212"/>
+      <c r="V8" s="218"/>
       <c r="W8" s="36"/>
       <c r="X8" s="37"/>
       <c r="Y8" s="27"/>
     </row>
     <row r="9" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="216"/>
+      <c r="B9" s="208"/>
       <c r="C9" s="169">
         <v>45031</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>100000</v>
       </c>
       <c r="E9" s="27"/>
-      <c r="I9" s="216"/>
+      <c r="I9" s="208"/>
       <c r="J9" s="157">
         <v>45038</v>
       </c>
@@ -5705,7 +5705,7 @@
       </c>
       <c r="L9" s="27"/>
       <c r="M9" s="170"/>
-      <c r="P9" s="219"/>
+      <c r="P9" s="221"/>
       <c r="Q9" s="93">
         <v>44975</v>
       </c>
@@ -5713,15 +5713,15 @@
         <v>50000</v>
       </c>
       <c r="S9" s="27"/>
-      <c r="V9" s="212"/>
-      <c r="W9" s="205" t="s">
+      <c r="V9" s="218"/>
+      <c r="W9" s="211" t="s">
         <v>95</v>
       </c>
-      <c r="X9" s="206"/>
-      <c r="Y9" s="207"/>
+      <c r="X9" s="212"/>
+      <c r="Y9" s="213"/>
     </row>
     <row r="10" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="216"/>
+      <c r="B10" s="208"/>
       <c r="C10" s="157">
         <v>45038</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>50000</v>
       </c>
       <c r="E10" s="27"/>
-      <c r="I10" s="216"/>
+      <c r="I10" s="208"/>
       <c r="J10" s="157">
         <v>45045</v>
       </c>
@@ -5738,7 +5738,7 @@
       </c>
       <c r="L10" s="27"/>
       <c r="M10" s="170"/>
-      <c r="P10" s="219"/>
+      <c r="P10" s="221"/>
       <c r="Q10" s="93">
         <v>44982</v>
       </c>
@@ -5746,13 +5746,13 @@
         <v>50000</v>
       </c>
       <c r="S10" s="27"/>
-      <c r="V10" s="212"/>
-      <c r="W10" s="208"/>
-      <c r="X10" s="209"/>
-      <c r="Y10" s="210"/>
+      <c r="V10" s="218"/>
+      <c r="W10" s="214"/>
+      <c r="X10" s="215"/>
+      <c r="Y10" s="216"/>
     </row>
     <row r="11" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="216"/>
+      <c r="B11" s="208"/>
       <c r="C11" s="157">
         <v>45045</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>100000</v>
       </c>
       <c r="E11" s="27"/>
-      <c r="I11" s="216"/>
+      <c r="I11" s="208"/>
       <c r="J11" s="157">
         <v>45052</v>
       </c>
@@ -5769,7 +5769,7 @@
       </c>
       <c r="L11" s="27"/>
       <c r="M11" s="170"/>
-      <c r="P11" s="219"/>
+      <c r="P11" s="221"/>
       <c r="Q11" s="93">
         <v>44989</v>
       </c>
@@ -5777,13 +5777,13 @@
         <v>50000</v>
       </c>
       <c r="S11" s="27"/>
-      <c r="V11" s="212"/>
+      <c r="V11" s="218"/>
       <c r="W11" s="93"/>
       <c r="X11" s="77"/>
       <c r="Y11" s="27"/>
     </row>
     <row r="12" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="216"/>
+      <c r="B12" s="208"/>
       <c r="C12" s="157">
         <v>45052</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>100000</v>
       </c>
       <c r="E12" s="146"/>
-      <c r="I12" s="216"/>
+      <c r="I12" s="208"/>
       <c r="J12" s="158">
         <v>45059</v>
       </c>
@@ -5800,7 +5800,7 @@
       </c>
       <c r="L12" s="146"/>
       <c r="M12" s="170"/>
-      <c r="P12" s="219"/>
+      <c r="P12" s="221"/>
       <c r="Q12" s="38">
         <v>44989</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>50000</v>
       </c>
       <c r="S12" s="146"/>
-      <c r="V12" s="212"/>
+      <c r="V12" s="218"/>
       <c r="W12" s="36"/>
       <c r="X12" s="37">
         <v>0</v>
@@ -5816,7 +5816,7 @@
       <c r="Y12" s="3"/>
     </row>
     <row r="13" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="216"/>
+      <c r="B13" s="208"/>
       <c r="C13" s="158">
         <v>45059</v>
       </c>
@@ -5824,12 +5824,12 @@
         <v>100000</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="I13" s="216"/>
+      <c r="I13" s="208"/>
       <c r="J13" s="155"/>
       <c r="K13" s="37"/>
       <c r="L13" s="3"/>
       <c r="M13" s="170"/>
-      <c r="P13" s="219"/>
+      <c r="P13" s="221"/>
       <c r="Q13" s="36">
         <v>44996</v>
       </c>
@@ -5837,13 +5837,13 @@
         <v>50000</v>
       </c>
       <c r="S13" s="3"/>
-      <c r="V13" s="212"/>
+      <c r="V13" s="218"/>
       <c r="W13" s="36"/>
       <c r="X13" s="37"/>
       <c r="Y13" s="3"/>
     </row>
     <row r="14" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="216"/>
+      <c r="B14" s="208"/>
       <c r="C14" s="169">
         <v>45066</v>
       </c>
@@ -5851,12 +5851,12 @@
         <v>100000</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="I14" s="216"/>
+      <c r="I14" s="208"/>
       <c r="J14" s="155"/>
       <c r="K14" s="37"/>
       <c r="L14" s="3"/>
       <c r="M14" s="170"/>
-      <c r="P14" s="219"/>
+      <c r="P14" s="221"/>
       <c r="Q14" s="36">
         <v>45003</v>
       </c>
@@ -5864,13 +5864,13 @@
         <v>113480</v>
       </c>
       <c r="S14" s="3"/>
-      <c r="V14" s="212"/>
+      <c r="V14" s="218"/>
       <c r="W14" s="36"/>
       <c r="X14" s="37"/>
       <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="216"/>
+      <c r="B15" s="208"/>
       <c r="C15" s="169">
         <v>45073</v>
       </c>
@@ -5878,22 +5878,22 @@
         <v>100000</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="I15" s="216"/>
+      <c r="I15" s="208"/>
       <c r="J15" s="155"/>
       <c r="K15" s="37"/>
       <c r="L15" s="3"/>
       <c r="M15" s="170"/>
-      <c r="P15" s="219"/>
+      <c r="P15" s="221"/>
       <c r="Q15" s="36"/>
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
-      <c r="V15" s="212"/>
+      <c r="V15" s="218"/>
       <c r="W15" s="36"/>
       <c r="X15" s="37"/>
       <c r="Y15" s="3"/>
     </row>
     <row r="16" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="216"/>
+      <c r="B16" s="208"/>
       <c r="C16" s="169">
         <v>45079</v>
       </c>
@@ -5901,22 +5901,22 @@
         <v>100000</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="I16" s="216"/>
+      <c r="I16" s="208"/>
       <c r="J16" s="155"/>
       <c r="K16" s="37"/>
       <c r="L16" s="3"/>
       <c r="M16" s="170"/>
-      <c r="P16" s="219"/>
+      <c r="P16" s="221"/>
       <c r="Q16" s="36"/>
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
-      <c r="V16" s="212"/>
+      <c r="V16" s="218"/>
       <c r="W16" s="36"/>
       <c r="X16" s="37"/>
       <c r="Y16" s="3"/>
     </row>
     <row r="17" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="216"/>
+      <c r="B17" s="208"/>
       <c r="C17" s="169">
         <v>45086</v>
       </c>
@@ -5926,22 +5926,22 @@
       <c r="E17" s="172" t="s">
         <v>97</v>
       </c>
-      <c r="I17" s="216"/>
+      <c r="I17" s="208"/>
       <c r="J17" s="155"/>
       <c r="K17" s="37"/>
       <c r="L17" s="3"/>
       <c r="M17" s="170"/>
-      <c r="P17" s="219"/>
+      <c r="P17" s="221"/>
       <c r="Q17" s="160"/>
       <c r="R17" s="161"/>
       <c r="S17" s="3"/>
-      <c r="V17" s="212"/>
+      <c r="V17" s="218"/>
       <c r="W17" s="36"/>
       <c r="X17" s="37"/>
       <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="216"/>
+      <c r="B18" s="208"/>
       <c r="C18" s="171">
         <v>45090</v>
       </c>
@@ -5951,22 +5951,22 @@
       <c r="E18" s="172" t="s">
         <v>97</v>
       </c>
-      <c r="I18" s="216"/>
+      <c r="I18" s="208"/>
       <c r="J18" s="155"/>
       <c r="K18" s="37"/>
       <c r="L18" s="3"/>
       <c r="M18" s="170"/>
-      <c r="P18" s="219"/>
+      <c r="P18" s="221"/>
       <c r="Q18" s="160"/>
       <c r="R18" s="161"/>
       <c r="S18" s="3"/>
-      <c r="V18" s="212"/>
+      <c r="V18" s="218"/>
       <c r="W18" s="36"/>
       <c r="X18" s="37"/>
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="216"/>
+      <c r="B19" s="208"/>
       <c r="C19" s="171">
         <v>45091</v>
       </c>
@@ -5976,22 +5976,22 @@
       <c r="E19" s="173" t="s">
         <v>98</v>
       </c>
-      <c r="I19" s="216"/>
+      <c r="I19" s="208"/>
       <c r="J19" s="155"/>
       <c r="K19" s="37"/>
       <c r="L19" s="3"/>
       <c r="M19" s="170"/>
-      <c r="P19" s="219"/>
+      <c r="P19" s="221"/>
       <c r="Q19" s="160"/>
       <c r="R19" s="161"/>
       <c r="S19" s="3"/>
-      <c r="V19" s="212"/>
+      <c r="V19" s="218"/>
       <c r="W19" s="36"/>
       <c r="X19" s="37"/>
       <c r="Y19" s="3"/>
     </row>
     <row r="20" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="216"/>
+      <c r="B20" s="208"/>
       <c r="C20" s="171">
         <v>45091</v>
       </c>
@@ -6001,22 +6001,22 @@
       <c r="E20" s="172" t="s">
         <v>99</v>
       </c>
-      <c r="I20" s="216"/>
+      <c r="I20" s="208"/>
       <c r="J20" s="155"/>
       <c r="K20" s="37"/>
       <c r="L20" s="3"/>
       <c r="M20" s="170"/>
-      <c r="P20" s="219"/>
+      <c r="P20" s="221"/>
       <c r="Q20" s="160"/>
       <c r="R20" s="161"/>
       <c r="S20" s="3"/>
-      <c r="V20" s="212"/>
+      <c r="V20" s="218"/>
       <c r="W20" s="36"/>
       <c r="X20" s="37"/>
       <c r="Y20" s="3"/>
     </row>
     <row r="21" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="216"/>
+      <c r="B21" s="208"/>
       <c r="C21" s="169">
         <v>45092</v>
       </c>
@@ -6024,22 +6024,22 @@
         <v>100000</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="I21" s="216"/>
+      <c r="I21" s="208"/>
       <c r="J21" s="155"/>
       <c r="K21" s="37"/>
       <c r="L21" s="3"/>
       <c r="M21" s="170"/>
-      <c r="P21" s="219"/>
+      <c r="P21" s="221"/>
       <c r="Q21" s="160"/>
       <c r="R21" s="161"/>
       <c r="S21" s="3"/>
-      <c r="V21" s="212"/>
+      <c r="V21" s="218"/>
       <c r="W21" s="36"/>
       <c r="X21" s="37"/>
       <c r="Y21" s="3"/>
     </row>
     <row r="22" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="216"/>
+      <c r="B22" s="208"/>
       <c r="C22" s="169">
         <v>45101</v>
       </c>
@@ -6047,100 +6047,102 @@
         <v>100000</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="I22" s="216"/>
+      <c r="I22" s="208"/>
       <c r="J22" s="155"/>
       <c r="K22" s="37"/>
       <c r="L22" s="3"/>
       <c r="M22" s="170"/>
-      <c r="P22" s="219"/>
+      <c r="P22" s="221"/>
       <c r="Q22" s="160"/>
       <c r="R22" s="161"/>
       <c r="S22" s="3"/>
-      <c r="V22" s="212"/>
+      <c r="V22" s="218"/>
       <c r="W22" s="36"/>
       <c r="X22" s="37"/>
       <c r="Y22" s="3"/>
     </row>
     <row r="23" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="216"/>
-      <c r="C23" s="169"/>
+      <c r="B23" s="208"/>
+      <c r="C23" s="169">
+        <v>45108</v>
+      </c>
       <c r="D23" s="37">
         <v>100000</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="I23" s="216"/>
+      <c r="I23" s="208"/>
       <c r="J23" s="155"/>
       <c r="K23" s="37"/>
       <c r="L23" s="3"/>
       <c r="M23" s="170"/>
-      <c r="P23" s="219"/>
+      <c r="P23" s="221"/>
       <c r="Q23" s="160"/>
       <c r="R23" s="161"/>
       <c r="S23" s="3"/>
-      <c r="V23" s="212"/>
+      <c r="V23" s="218"/>
       <c r="W23" s="36"/>
       <c r="X23" s="37"/>
       <c r="Y23" s="3"/>
     </row>
     <row r="24" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="216"/>
+      <c r="B24" s="208"/>
       <c r="C24" s="169"/>
       <c r="D24" s="37"/>
       <c r="E24" s="3"/>
-      <c r="I24" s="216"/>
+      <c r="I24" s="208"/>
       <c r="J24" s="155"/>
       <c r="K24" s="37"/>
       <c r="L24" s="3"/>
       <c r="M24" s="170"/>
-      <c r="P24" s="219"/>
+      <c r="P24" s="221"/>
       <c r="Q24" s="160"/>
       <c r="R24" s="161"/>
       <c r="S24" s="3"/>
-      <c r="V24" s="212"/>
+      <c r="V24" s="218"/>
       <c r="W24" s="36"/>
       <c r="X24" s="37"/>
       <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="216"/>
+      <c r="B25" s="208"/>
       <c r="C25" s="169"/>
       <c r="D25" s="37"/>
       <c r="E25" s="3"/>
-      <c r="I25" s="216"/>
+      <c r="I25" s="208"/>
       <c r="J25" s="155"/>
       <c r="K25" s="37"/>
       <c r="L25" s="3"/>
       <c r="M25" s="170"/>
-      <c r="P25" s="219"/>
+      <c r="P25" s="221"/>
       <c r="Q25" s="160"/>
       <c r="R25" s="161"/>
       <c r="S25" s="3"/>
-      <c r="V25" s="212"/>
+      <c r="V25" s="218"/>
       <c r="W25" s="36"/>
       <c r="X25" s="37"/>
       <c r="Y25" s="3"/>
     </row>
     <row r="26" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="216"/>
+      <c r="B26" s="208"/>
       <c r="C26" s="169"/>
       <c r="D26" s="37"/>
       <c r="E26" s="3"/>
-      <c r="I26" s="216"/>
+      <c r="I26" s="208"/>
       <c r="J26" s="155"/>
       <c r="K26" s="37"/>
       <c r="L26" s="3"/>
       <c r="M26" s="170"/>
-      <c r="P26" s="219"/>
+      <c r="P26" s="221"/>
       <c r="Q26" s="160"/>
       <c r="R26" s="161"/>
       <c r="S26" s="3"/>
-      <c r="V26" s="212"/>
+      <c r="V26" s="218"/>
       <c r="W26" s="36"/>
       <c r="X26" s="37"/>
       <c r="Y26" s="3"/>
     </row>
     <row r="27" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="217"/>
+      <c r="B27" s="209"/>
       <c r="C27" s="159" t="s">
         <v>3</v>
       </c>
@@ -6148,7 +6150,7 @@
         <f>SUM(D5:D26)</f>
         <v>2240824.56</v>
       </c>
-      <c r="I27" s="217"/>
+      <c r="I27" s="209"/>
       <c r="J27" s="159" t="s">
         <v>3</v>
       </c>
@@ -6157,7 +6159,7 @@
         <v>650000</v>
       </c>
       <c r="M27" s="170"/>
-      <c r="P27" s="219"/>
+      <c r="P27" s="221"/>
       <c r="Q27" s="162" t="s">
         <v>3</v>
       </c>
@@ -6165,7 +6167,7 @@
         <f>SUM(R5:R14)</f>
         <v>563480</v>
       </c>
-      <c r="V27" s="212"/>
+      <c r="V27" s="218"/>
       <c r="W27" s="153" t="s">
         <v>3</v>
       </c>
@@ -6339,20 +6341,20 @@
       <c r="D37" s="175">
         <v>29450</v>
       </c>
-      <c r="E37" s="220" t="s">
+      <c r="E37" s="205" t="s">
         <v>100</v>
       </c>
-      <c r="F37" s="220"/>
-      <c r="G37" s="220"/>
-      <c r="H37" s="220"/>
-      <c r="I37" s="220"/>
-      <c r="J37" s="220"/>
-      <c r="K37" s="220"/>
-      <c r="L37" s="220"/>
-      <c r="M37" s="220"/>
-      <c r="N37" s="220"/>
-      <c r="O37" s="220"/>
-      <c r="P37" s="220"/>
+      <c r="F37" s="205"/>
+      <c r="G37" s="205"/>
+      <c r="H37" s="205"/>
+      <c r="I37" s="205"/>
+      <c r="J37" s="205"/>
+      <c r="K37" s="205"/>
+      <c r="L37" s="205"/>
+      <c r="M37" s="205"/>
+      <c r="N37" s="205"/>
+      <c r="O37" s="205"/>
+      <c r="P37" s="205"/>
     </row>
     <row r="38" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="179" t="s">
@@ -6360,54 +6362,54 @@
       </c>
       <c r="C38" s="176"/>
       <c r="D38" s="177"/>
-      <c r="E38" s="220"/>
-      <c r="F38" s="220"/>
-      <c r="G38" s="220"/>
-      <c r="H38" s="220"/>
-      <c r="I38" s="220"/>
-      <c r="J38" s="220"/>
-      <c r="K38" s="220"/>
-      <c r="L38" s="220"/>
-      <c r="M38" s="220"/>
-      <c r="N38" s="220"/>
-      <c r="O38" s="220"/>
-      <c r="P38" s="220"/>
+      <c r="E38" s="205"/>
+      <c r="F38" s="205"/>
+      <c r="G38" s="205"/>
+      <c r="H38" s="205"/>
+      <c r="I38" s="205"/>
+      <c r="J38" s="205"/>
+      <c r="K38" s="205"/>
+      <c r="L38" s="205"/>
+      <c r="M38" s="205"/>
+      <c r="N38" s="205"/>
+      <c r="O38" s="205"/>
+      <c r="P38" s="205"/>
     </row>
     <row r="39" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B39" s="176"/>
       <c r="C39" s="176"/>
       <c r="D39" s="177"/>
-      <c r="E39" s="220"/>
-      <c r="F39" s="220"/>
-      <c r="G39" s="220"/>
-      <c r="H39" s="220"/>
-      <c r="I39" s="220"/>
-      <c r="J39" s="220"/>
-      <c r="K39" s="220"/>
-      <c r="L39" s="220"/>
-      <c r="M39" s="220"/>
-      <c r="N39" s="220"/>
-      <c r="O39" s="220"/>
-      <c r="P39" s="220"/>
+      <c r="E39" s="205"/>
+      <c r="F39" s="205"/>
+      <c r="G39" s="205"/>
+      <c r="H39" s="205"/>
+      <c r="I39" s="205"/>
+      <c r="J39" s="205"/>
+      <c r="K39" s="205"/>
+      <c r="L39" s="205"/>
+      <c r="M39" s="205"/>
+      <c r="N39" s="205"/>
+      <c r="O39" s="205"/>
+      <c r="P39" s="205"/>
     </row>
     <row r="40" spans="2:25" ht="21" x14ac:dyDescent="0.35">
       <c r="B40" s="176"/>
       <c r="C40" s="176"/>
       <c r="D40" s="177"/>
-      <c r="E40" s="221" t="s">
+      <c r="E40" s="206" t="s">
         <v>102</v>
       </c>
-      <c r="F40" s="221"/>
-      <c r="G40" s="221"/>
-      <c r="H40" s="221"/>
-      <c r="I40" s="221"/>
-      <c r="J40" s="221"/>
-      <c r="K40" s="221"/>
-      <c r="L40" s="221"/>
-      <c r="M40" s="221"/>
-      <c r="N40" s="221"/>
-      <c r="O40" s="221"/>
-      <c r="P40" s="221"/>
+      <c r="F40" s="206"/>
+      <c r="G40" s="206"/>
+      <c r="H40" s="206"/>
+      <c r="I40" s="206"/>
+      <c r="J40" s="206"/>
+      <c r="K40" s="206"/>
+      <c r="L40" s="206"/>
+      <c r="M40" s="206"/>
+      <c r="N40" s="206"/>
+      <c r="O40" s="206"/>
+      <c r="P40" s="206"/>
     </row>
     <row r="43" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B43" s="118"/>
@@ -6645,11 +6647,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E37:P39"/>
-    <mergeCell ref="E40:P40"/>
-    <mergeCell ref="B2:B27"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:E3"/>
     <mergeCell ref="W9:Y10"/>
     <mergeCell ref="V2:V27"/>
     <mergeCell ref="W2:X2"/>
@@ -6660,6 +6657,11 @@
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="P2:P27"/>
+    <mergeCell ref="E37:P39"/>
+    <mergeCell ref="E40:P40"/>
+    <mergeCell ref="B2:B27"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.35433070866141736" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8448,7 +8450,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="218" t="s">
+      <c r="B2" s="220" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -8458,13 +8460,13 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="219"/>
+      <c r="B3" s="221"/>
       <c r="C3" s="180"/>
       <c r="D3" s="181"/>
       <c r="E3" s="182"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="219"/>
+      <c r="B4" s="221"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
@@ -8472,7 +8474,7 @@
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="219"/>
+      <c r="B5" s="221"/>
       <c r="C5" s="47">
         <v>44380</v>
       </c>
@@ -8713,7 +8715,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="218" t="s">
+      <c r="A2" s="220" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -8721,7 +8723,7 @@
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="17"/>
-      <c r="I2" s="218" t="s">
+      <c r="I2" s="220" t="s">
         <v>74</v>
       </c>
       <c r="J2" s="15" t="s">
@@ -8731,23 +8733,23 @@
       <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="219"/>
+      <c r="A3" s="221"/>
       <c r="B3" s="180"/>
       <c r="C3" s="181"/>
       <c r="D3" s="182"/>
-      <c r="I3" s="219"/>
+      <c r="I3" s="221"/>
       <c r="J3" s="180"/>
       <c r="K3" s="181"/>
       <c r="L3" s="182"/>
     </row>
     <row r="4" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="219"/>
+      <c r="A4" s="221"/>
       <c r="B4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="23"/>
-      <c r="I4" s="219"/>
+      <c r="I4" s="221"/>
       <c r="J4" s="21" t="s">
         <v>2</v>
       </c>
@@ -8755,7 +8757,7 @@
       <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="219"/>
+      <c r="A5" s="221"/>
       <c r="B5" s="47">
         <v>44935</v>
       </c>
@@ -8763,7 +8765,7 @@
         <v>49000</v>
       </c>
       <c r="D5" s="28"/>
-      <c r="I5" s="219"/>
+      <c r="I5" s="221"/>
       <c r="J5" s="47">
         <v>44621</v>
       </c>
@@ -8773,7 +8775,7 @@
       <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="219"/>
+      <c r="A6" s="221"/>
       <c r="B6" s="36"/>
       <c r="C6" s="37"/>
       <c r="D6" s="27"/>
@@ -8787,7 +8789,7 @@
       <c r="L6" s="27"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="219"/>
+      <c r="A7" s="221"/>
       <c r="B7" s="36"/>
       <c r="C7" s="37"/>
       <c r="D7" s="41"/>
@@ -8797,7 +8799,7 @@
       <c r="L7" s="41"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="219"/>
+      <c r="A8" s="221"/>
       <c r="B8" s="36"/>
       <c r="C8" s="37">
         <v>0</v>
@@ -8811,7 +8813,7 @@
       <c r="L8" s="27"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="219"/>
+      <c r="A9" s="221"/>
       <c r="B9" s="93"/>
       <c r="C9" s="77"/>
       <c r="D9" s="27"/>
@@ -8821,7 +8823,7 @@
       <c r="L9" s="27"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="219"/>
+      <c r="A10" s="221"/>
       <c r="B10" s="93"/>
       <c r="C10" s="77"/>
       <c r="D10" s="27"/>
@@ -8831,7 +8833,7 @@
       <c r="L10" s="27"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="219"/>
+      <c r="A11" s="221"/>
       <c r="B11" s="93"/>
       <c r="C11" s="77"/>
       <c r="D11" s="27"/>

--- a/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
+++ b/01 DOCUEMENTOS/ARQUITECTO RODOLFO ---2021--2018.xlsx
@@ -1356,6 +1356,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1365,36 +1395,6 @@
     <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1422,56 +1422,56 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="19" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="19" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="19" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="19" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="19" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="19" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="19" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="19" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="19" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="19" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="19" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="19" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3643,18 +3643,18 @@
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
-      <c r="C3" s="183" t="s">
+      <c r="C3" s="193" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="183"/>
+      <c r="D3" s="193"/>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="189"/>
+      <c r="D4" s="184"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3664,10 +3664,10 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="184" t="s">
+      <c r="B6" s="194" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="185"/>
+      <c r="C6" s="195"/>
       <c r="D6" s="37">
         <v>1064853</v>
       </c>
@@ -3684,10 +3684,10 @@
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="186" t="s">
+      <c r="B8" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="187"/>
+      <c r="C8" s="192"/>
       <c r="D8" s="37">
         <v>382873</v>
       </c>
@@ -3704,10 +3704,10 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="186" t="s">
+      <c r="B10" s="191" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="187"/>
+      <c r="C10" s="192"/>
       <c r="D10" s="37">
         <v>554226</v>
       </c>
@@ -3724,10 +3724,10 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="186" t="s">
+      <c r="B12" s="191" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="187"/>
+      <c r="C12" s="192"/>
       <c r="D12" s="37">
         <v>873457</v>
       </c>
@@ -3744,10 +3744,10 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="186" t="s">
+      <c r="B14" s="191" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="187"/>
+      <c r="C14" s="192"/>
       <c r="D14" s="37">
         <v>108040</v>
       </c>
@@ -3764,10 +3764,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="190" t="s">
+      <c r="B16" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="191"/>
+      <c r="C16" s="186"/>
       <c r="D16" s="37">
         <v>451709</v>
       </c>
@@ -3784,14 +3784,14 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="190" t="s">
+      <c r="B18" s="185" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="191"/>
+      <c r="C18" s="186"/>
       <c r="D18" s="39">
         <v>828541</v>
       </c>
-      <c r="E18" s="192" t="s">
+      <c r="E18" s="187" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       <c r="D19" s="39">
         <v>0</v>
       </c>
-      <c r="E19" s="193"/>
+      <c r="E19" s="188"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -3812,10 +3812,10 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="190" t="s">
+      <c r="B21" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="191"/>
+      <c r="C21" s="186"/>
       <c r="D21" s="39">
         <v>70000</v>
       </c>
@@ -3832,10 +3832,10 @@
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="194" t="s">
+      <c r="B23" s="189" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="195"/>
+      <c r="C23" s="190"/>
       <c r="D23" s="39">
         <v>748884</v>
       </c>
@@ -3852,10 +3852,10 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="188" t="s">
+      <c r="B25" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="188"/>
+      <c r="C25" s="183"/>
       <c r="D25" s="37">
         <v>99356</v>
       </c>
@@ -3906,6 +3906,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B16:C16"/>
@@ -3914,11 +3919,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5449,7 +5449,7 @@
   <dimension ref="B1:Y55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5479,80 +5479,80 @@
   <sheetData>
     <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="207" t="s">
+      <c r="B2" s="215" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="210" t="s">
+      <c r="C2" s="214" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="210"/>
+      <c r="D2" s="214"/>
       <c r="E2" s="17"/>
-      <c r="I2" s="207" t="s">
+      <c r="I2" s="215" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="210" t="s">
+      <c r="J2" s="214" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="210"/>
+      <c r="K2" s="214"/>
       <c r="L2" s="17"/>
       <c r="M2" s="170"/>
-      <c r="P2" s="220" t="s">
+      <c r="P2" s="218" t="s">
         <v>92</v>
       </c>
-      <c r="Q2" s="219" t="s">
+      <c r="Q2" s="213" t="s">
         <v>80</v>
       </c>
-      <c r="R2" s="210"/>
+      <c r="R2" s="214"/>
       <c r="S2" s="17"/>
-      <c r="V2" s="217" t="s">
+      <c r="V2" s="211" t="s">
         <v>94</v>
       </c>
-      <c r="W2" s="219" t="s">
+      <c r="W2" s="213" t="s">
         <v>80</v>
       </c>
-      <c r="X2" s="210"/>
+      <c r="X2" s="214"/>
       <c r="Y2" s="17"/>
     </row>
     <row r="3" spans="2:25" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="208"/>
+      <c r="B3" s="216"/>
       <c r="C3" s="181"/>
       <c r="D3" s="181"/>
       <c r="E3" s="182"/>
-      <c r="I3" s="208"/>
+      <c r="I3" s="216"/>
       <c r="J3" s="181"/>
       <c r="K3" s="181"/>
       <c r="L3" s="182"/>
       <c r="M3" s="170"/>
-      <c r="P3" s="221"/>
+      <c r="P3" s="219"/>
       <c r="Q3" s="181"/>
       <c r="R3" s="181"/>
       <c r="S3" s="182"/>
-      <c r="V3" s="218"/>
+      <c r="V3" s="212"/>
       <c r="W3" s="181"/>
       <c r="X3" s="181"/>
       <c r="Y3" s="182"/>
     </row>
     <row r="4" spans="2:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="208"/>
+      <c r="B4" s="216"/>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
-      <c r="I4" s="208"/>
+      <c r="I4" s="216"/>
       <c r="J4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="22"/>
       <c r="L4" s="23"/>
       <c r="M4" s="170"/>
-      <c r="P4" s="221"/>
+      <c r="P4" s="219"/>
       <c r="Q4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="R4" s="22"/>
       <c r="S4" s="23"/>
-      <c r="V4" s="218"/>
+      <c r="V4" s="212"/>
       <c r="W4" s="21" t="s">
         <v>2</v>
       </c>
@@ -5560,7 +5560,7 @@
       <c r="Y4" s="23"/>
     </row>
     <row r="5" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="208"/>
+      <c r="B5" s="216"/>
       <c r="C5" s="156" t="s">
         <v>80</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>563480</v>
       </c>
       <c r="E5" s="28"/>
-      <c r="I5" s="208"/>
+      <c r="I5" s="216"/>
       <c r="J5" s="156">
         <v>45010</v>
       </c>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="L5" s="28"/>
       <c r="M5" s="170"/>
-      <c r="P5" s="221"/>
+      <c r="P5" s="219"/>
       <c r="Q5" s="47">
         <v>44947</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>50000</v>
       </c>
       <c r="S5" s="28"/>
-      <c r="V5" s="218"/>
+      <c r="V5" s="212"/>
       <c r="W5" s="47">
         <v>44873</v>
       </c>
@@ -5595,7 +5595,7 @@
       <c r="Y5" s="28"/>
     </row>
     <row r="6" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="208"/>
+      <c r="B6" s="216"/>
       <c r="C6" s="156">
         <v>45010</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>50000</v>
       </c>
       <c r="E6" s="27"/>
-      <c r="I6" s="208"/>
+      <c r="I6" s="216"/>
       <c r="J6" s="155">
         <v>45017</v>
       </c>
@@ -5612,7 +5612,7 @@
       </c>
       <c r="L6" s="27"/>
       <c r="M6" s="170"/>
-      <c r="P6" s="221"/>
+      <c r="P6" s="219"/>
       <c r="Q6" s="36">
         <v>44954</v>
       </c>
@@ -5620,13 +5620,13 @@
         <v>50000</v>
       </c>
       <c r="S6" s="27"/>
-      <c r="V6" s="218"/>
+      <c r="V6" s="212"/>
       <c r="W6" s="36"/>
       <c r="X6" s="37"/>
       <c r="Y6" s="27"/>
     </row>
     <row r="7" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="208"/>
+      <c r="B7" s="216"/>
       <c r="C7" s="169">
         <v>45017</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>100000</v>
       </c>
       <c r="E7" s="41"/>
-      <c r="I7" s="208"/>
+      <c r="I7" s="216"/>
       <c r="J7" s="155">
         <v>45021</v>
       </c>
@@ -5643,7 +5643,7 @@
       </c>
       <c r="L7" s="41"/>
       <c r="M7" s="170"/>
-      <c r="P7" s="221"/>
+      <c r="P7" s="219"/>
       <c r="Q7" s="36">
         <v>44961</v>
       </c>
@@ -5651,13 +5651,13 @@
         <v>50000</v>
       </c>
       <c r="S7" s="41"/>
-      <c r="V7" s="218"/>
+      <c r="V7" s="212"/>
       <c r="W7" s="36"/>
       <c r="X7" s="37"/>
       <c r="Y7" s="41"/>
     </row>
     <row r="8" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="208"/>
+      <c r="B8" s="216"/>
       <c r="C8" s="169">
         <v>45021</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>50000</v>
       </c>
       <c r="E8" s="27"/>
-      <c r="I8" s="208"/>
+      <c r="I8" s="216"/>
       <c r="J8" s="155">
         <v>45031</v>
       </c>
@@ -5674,7 +5674,7 @@
       </c>
       <c r="L8" s="27"/>
       <c r="M8" s="170"/>
-      <c r="P8" s="221"/>
+      <c r="P8" s="219"/>
       <c r="Q8" s="36">
         <v>44968</v>
       </c>
@@ -5682,13 +5682,13 @@
         <v>50000</v>
       </c>
       <c r="S8" s="27"/>
-      <c r="V8" s="218"/>
+      <c r="V8" s="212"/>
       <c r="W8" s="36"/>
       <c r="X8" s="37"/>
       <c r="Y8" s="27"/>
     </row>
     <row r="9" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="208"/>
+      <c r="B9" s="216"/>
       <c r="C9" s="169">
         <v>45031</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>100000</v>
       </c>
       <c r="E9" s="27"/>
-      <c r="I9" s="208"/>
+      <c r="I9" s="216"/>
       <c r="J9" s="157">
         <v>45038</v>
       </c>
@@ -5705,7 +5705,7 @@
       </c>
       <c r="L9" s="27"/>
       <c r="M9" s="170"/>
-      <c r="P9" s="221"/>
+      <c r="P9" s="219"/>
       <c r="Q9" s="93">
         <v>44975</v>
       </c>
@@ -5713,15 +5713,15 @@
         <v>50000</v>
       </c>
       <c r="S9" s="27"/>
-      <c r="V9" s="218"/>
-      <c r="W9" s="211" t="s">
+      <c r="V9" s="212"/>
+      <c r="W9" s="205" t="s">
         <v>95</v>
       </c>
-      <c r="X9" s="212"/>
-      <c r="Y9" s="213"/>
+      <c r="X9" s="206"/>
+      <c r="Y9" s="207"/>
     </row>
     <row r="10" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="208"/>
+      <c r="B10" s="216"/>
       <c r="C10" s="157">
         <v>45038</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>50000</v>
       </c>
       <c r="E10" s="27"/>
-      <c r="I10" s="208"/>
+      <c r="I10" s="216"/>
       <c r="J10" s="157">
         <v>45045</v>
       </c>
@@ -5738,7 +5738,7 @@
       </c>
       <c r="L10" s="27"/>
       <c r="M10" s="170"/>
-      <c r="P10" s="221"/>
+      <c r="P10" s="219"/>
       <c r="Q10" s="93">
         <v>44982</v>
       </c>
@@ -5746,13 +5746,13 @@
         <v>50000</v>
       </c>
       <c r="S10" s="27"/>
-      <c r="V10" s="218"/>
-      <c r="W10" s="214"/>
-      <c r="X10" s="215"/>
-      <c r="Y10" s="216"/>
+      <c r="V10" s="212"/>
+      <c r="W10" s="208"/>
+      <c r="X10" s="209"/>
+      <c r="Y10" s="210"/>
     </row>
     <row r="11" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="208"/>
+      <c r="B11" s="216"/>
       <c r="C11" s="157">
         <v>45045</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>100000</v>
       </c>
       <c r="E11" s="27"/>
-      <c r="I11" s="208"/>
+      <c r="I11" s="216"/>
       <c r="J11" s="157">
         <v>45052</v>
       </c>
@@ -5769,7 +5769,7 @@
       </c>
       <c r="L11" s="27"/>
       <c r="M11" s="170"/>
-      <c r="P11" s="221"/>
+      <c r="P11" s="219"/>
       <c r="Q11" s="93">
         <v>44989</v>
       </c>
@@ -5777,13 +5777,13 @@
         <v>50000</v>
       </c>
       <c r="S11" s="27"/>
-      <c r="V11" s="218"/>
+      <c r="V11" s="212"/>
       <c r="W11" s="93"/>
       <c r="X11" s="77"/>
       <c r="Y11" s="27"/>
     </row>
     <row r="12" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="208"/>
+      <c r="B12" s="216"/>
       <c r="C12" s="157">
         <v>45052</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>100000</v>
       </c>
       <c r="E12" s="146"/>
-      <c r="I12" s="208"/>
+      <c r="I12" s="216"/>
       <c r="J12" s="158">
         <v>45059</v>
       </c>
@@ -5800,7 +5800,7 @@
       </c>
       <c r="L12" s="146"/>
       <c r="M12" s="170"/>
-      <c r="P12" s="221"/>
+      <c r="P12" s="219"/>
       <c r="Q12" s="38">
         <v>44989</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>50000</v>
       </c>
       <c r="S12" s="146"/>
-      <c r="V12" s="218"/>
+      <c r="V12" s="212"/>
       <c r="W12" s="36"/>
       <c r="X12" s="37">
         <v>0</v>
@@ -5816,7 +5816,7 @@
       <c r="Y12" s="3"/>
     </row>
     <row r="13" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="208"/>
+      <c r="B13" s="216"/>
       <c r="C13" s="158">
         <v>45059</v>
       </c>
@@ -5824,12 +5824,12 @@
         <v>100000</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="I13" s="208"/>
+      <c r="I13" s="216"/>
       <c r="J13" s="155"/>
       <c r="K13" s="37"/>
       <c r="L13" s="3"/>
       <c r="M13" s="170"/>
-      <c r="P13" s="221"/>
+      <c r="P13" s="219"/>
       <c r="Q13" s="36">
         <v>44996</v>
       </c>
@@ -5837,13 +5837,13 @@
         <v>50000</v>
       </c>
       <c r="S13" s="3"/>
-      <c r="V13" s="218"/>
+      <c r="V13" s="212"/>
       <c r="W13" s="36"/>
       <c r="X13" s="37"/>
       <c r="Y13" s="3"/>
     </row>
     <row r="14" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="208"/>
+      <c r="B14" s="216"/>
       <c r="C14" s="169">
         <v>45066</v>
       </c>
@@ -5851,12 +5851,12 @@
         <v>100000</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="I14" s="208"/>
+      <c r="I14" s="216"/>
       <c r="J14" s="155"/>
       <c r="K14" s="37"/>
       <c r="L14" s="3"/>
       <c r="M14" s="170"/>
-      <c r="P14" s="221"/>
+      <c r="P14" s="219"/>
       <c r="Q14" s="36">
         <v>45003</v>
       </c>
@@ -5864,13 +5864,13 @@
         <v>113480</v>
       </c>
       <c r="S14" s="3"/>
-      <c r="V14" s="218"/>
+      <c r="V14" s="212"/>
       <c r="W14" s="36"/>
       <c r="X14" s="37"/>
       <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="208"/>
+      <c r="B15" s="216"/>
       <c r="C15" s="169">
         <v>45073</v>
       </c>
@@ -5878,22 +5878,22 @@
         <v>100000</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="I15" s="208"/>
+      <c r="I15" s="216"/>
       <c r="J15" s="155"/>
       <c r="K15" s="37"/>
       <c r="L15" s="3"/>
       <c r="M15" s="170"/>
-      <c r="P15" s="221"/>
+      <c r="P15" s="219"/>
       <c r="Q15" s="36"/>
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
-      <c r="V15" s="218"/>
+      <c r="V15" s="212"/>
       <c r="W15" s="36"/>
       <c r="X15" s="37"/>
       <c r="Y15" s="3"/>
     </row>
     <row r="16" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="208"/>
+      <c r="B16" s="216"/>
       <c r="C16" s="169">
         <v>45079</v>
       </c>
@@ -5901,22 +5901,22 @@
         <v>100000</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="I16" s="208"/>
+      <c r="I16" s="216"/>
       <c r="J16" s="155"/>
       <c r="K16" s="37"/>
       <c r="L16" s="3"/>
       <c r="M16" s="170"/>
-      <c r="P16" s="221"/>
+      <c r="P16" s="219"/>
       <c r="Q16" s="36"/>
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
-      <c r="V16" s="218"/>
+      <c r="V16" s="212"/>
       <c r="W16" s="36"/>
       <c r="X16" s="37"/>
       <c r="Y16" s="3"/>
     </row>
     <row r="17" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="208"/>
+      <c r="B17" s="216"/>
       <c r="C17" s="169">
         <v>45086</v>
       </c>
@@ -5926,22 +5926,22 @@
       <c r="E17" s="172" t="s">
         <v>97</v>
       </c>
-      <c r="I17" s="208"/>
+      <c r="I17" s="216"/>
       <c r="J17" s="155"/>
       <c r="K17" s="37"/>
       <c r="L17" s="3"/>
       <c r="M17" s="170"/>
-      <c r="P17" s="221"/>
+      <c r="P17" s="219"/>
       <c r="Q17" s="160"/>
       <c r="R17" s="161"/>
       <c r="S17" s="3"/>
-      <c r="V17" s="218"/>
+      <c r="V17" s="212"/>
       <c r="W17" s="36"/>
       <c r="X17" s="37"/>
       <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="208"/>
+      <c r="B18" s="216"/>
       <c r="C18" s="171">
         <v>45090</v>
       </c>
@@ -5951,22 +5951,22 @@
       <c r="E18" s="172" t="s">
         <v>97</v>
       </c>
-      <c r="I18" s="208"/>
+      <c r="I18" s="216"/>
       <c r="J18" s="155"/>
       <c r="K18" s="37"/>
       <c r="L18" s="3"/>
       <c r="M18" s="170"/>
-      <c r="P18" s="221"/>
+      <c r="P18" s="219"/>
       <c r="Q18" s="160"/>
       <c r="R18" s="161"/>
       <c r="S18" s="3"/>
-      <c r="V18" s="218"/>
+      <c r="V18" s="212"/>
       <c r="W18" s="36"/>
       <c r="X18" s="37"/>
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="208"/>
+      <c r="B19" s="216"/>
       <c r="C19" s="171">
         <v>45091</v>
       </c>
@@ -5976,22 +5976,22 @@
       <c r="E19" s="173" t="s">
         <v>98</v>
       </c>
-      <c r="I19" s="208"/>
+   